--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>110.322829993</v>
+        <v>118.551615925</v>
       </c>
       <c r="C3" t="n">
-        <v>73.40613117549999</v>
+        <v>134.745411907</v>
       </c>
       <c r="D3" t="n">
-        <v>-39.2719371207</v>
+        <v>63.7353017439</v>
       </c>
       <c r="E3" t="n">
-        <v>110.322829993</v>
+        <v>118.551615925</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>287.413172048</v>
+        <v>306.809630422</v>
       </c>
       <c r="C4" t="n">
-        <v>189.981941725</v>
+        <v>348.686577909</v>
       </c>
       <c r="D4" t="n">
-        <v>-103.003337709</v>
+        <v>165.890621423</v>
       </c>
       <c r="E4" t="n">
-        <v>287.413172048</v>
+        <v>306.809630422</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>232.476887951</v>
+        <v>234.382571714</v>
       </c>
       <c r="C5" t="n">
-        <v>154.451116839</v>
+        <v>265.826060378</v>
       </c>
       <c r="D5" t="n">
-        <v>-82.6664671787</v>
+        <v>127.223316506</v>
       </c>
       <c r="E5" t="n">
-        <v>232.476887951</v>
+        <v>234.382571714</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>107.173883265</v>
+        <v>73.5100185559</v>
       </c>
       <c r="C6" t="n">
-        <v>72.66933236040001</v>
+        <v>81.21910384</v>
       </c>
       <c r="D6" t="n">
-        <v>-36.9880328037</v>
+        <v>38.5881020695</v>
       </c>
       <c r="E6" t="n">
-        <v>107.173883265</v>
+        <v>73.5100185559</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>209.428120892</v>
+        <v>145.217942131</v>
       </c>
       <c r="C7" t="n">
-        <v>140.479814108</v>
+        <v>161.902521934</v>
       </c>
       <c r="D7" t="n">
-        <v>-73.08707710749999</v>
+        <v>77.4327774432</v>
       </c>
       <c r="E7" t="n">
-        <v>209.428120892</v>
+        <v>145.217942131</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>283.781326268</v>
+        <v>181.078871961</v>
       </c>
       <c r="C8" t="n">
-        <v>191.506605202</v>
+        <v>202.014416566</v>
       </c>
       <c r="D8" t="n">
-        <v>-97.9990456009</v>
+        <v>96.4507227238</v>
       </c>
       <c r="E8" t="n">
-        <v>283.781326268</v>
+        <v>181.078871961</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>188.406501151</v>
+        <v>51.5772099414</v>
       </c>
       <c r="C9" t="n">
-        <v>129.779743465</v>
+        <v>51.4406826985</v>
       </c>
       <c r="D9" t="n">
-        <v>-62.6044885506</v>
+        <v>12.2620375378</v>
       </c>
       <c r="E9" t="n">
-        <v>188.406501151</v>
+        <v>51.5772099414</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>180.805766258</v>
+        <v>42.3576288857</v>
       </c>
       <c r="C10" t="n">
-        <v>123.728504199</v>
+        <v>31.3121717182</v>
       </c>
       <c r="D10" t="n">
-        <v>-60.5638985449</v>
+        <v>-9.3900341525</v>
       </c>
       <c r="E10" t="n">
-        <v>180.805766258</v>
+        <v>42.3576288857</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>263.797169273</v>
+        <v>120.186481477</v>
       </c>
       <c r="C11" t="n">
-        <v>175.534467413</v>
+        <v>129.924837074</v>
       </c>
       <c r="D11" t="n">
-        <v>-92.9470783137</v>
+        <v>58.7124042979</v>
       </c>
       <c r="E11" t="n">
-        <v>263.797169273</v>
+        <v>120.186481477</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>225.763943235</v>
+        <v>113.309550306</v>
       </c>
       <c r="C12" t="n">
-        <v>149.20877158</v>
+        <v>124.161461357</v>
       </c>
       <c r="D12" t="n">
-        <v>-80.86874554169999</v>
+        <v>57.8865725844</v>
       </c>
       <c r="E12" t="n">
-        <v>225.763943235</v>
+        <v>113.309550306</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>145.223689924</v>
+        <v>86.20692052210001</v>
       </c>
       <c r="C13" t="n">
-        <v>94.92365712279999</v>
+        <v>94.7262761194</v>
       </c>
       <c r="D13" t="n">
-        <v>-53.3758040106</v>
+        <v>44.1061607102</v>
       </c>
       <c r="E13" t="n">
-        <v>145.223689924</v>
+        <v>86.20692052210001</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>165.900654703</v>
+        <v>166.464096157</v>
       </c>
       <c r="C14" t="n">
-        <v>108.069565656</v>
+        <v>187.2089612</v>
       </c>
       <c r="D14" t="n">
-        <v>-61.4520641782</v>
+        <v>89.8944443445</v>
       </c>
       <c r="E14" t="n">
-        <v>165.900654703</v>
+        <v>166.464096157</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>198.043513979</v>
+        <v>213.196550062</v>
       </c>
       <c r="C15" t="n">
-        <v>133.12951973</v>
+        <v>239.989294356</v>
       </c>
       <c r="D15" t="n">
-        <v>-69.6791026814</v>
+        <v>116.50129286</v>
       </c>
       <c r="E15" t="n">
-        <v>198.043513979</v>
+        <v>213.196550062</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>181.177256774</v>
+        <v>135.921639189</v>
       </c>
       <c r="C16" t="n">
-        <v>122.11414767</v>
+        <v>147.767315033</v>
       </c>
       <c r="D16" t="n">
-        <v>-63.1651167179</v>
+        <v>70.3391878858</v>
       </c>
       <c r="E16" t="n">
-        <v>181.177256774</v>
+        <v>135.921639189</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>189.011603443</v>
+        <v>66.44457376840001</v>
       </c>
       <c r="C17" t="n">
-        <v>119.481385928</v>
+        <v>44.6386394966</v>
       </c>
       <c r="D17" t="n">
-        <v>-72.2430628522</v>
+        <v>-21.9556283941</v>
       </c>
       <c r="E17" t="n">
-        <v>189.011603443</v>
+        <v>66.44457376840001</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>209.502158151</v>
+        <v>108.050696671</v>
       </c>
       <c r="C18" t="n">
-        <v>129.015588927</v>
+        <v>-20.7857145488</v>
       </c>
       <c r="D18" t="n">
-        <v>-83.0347790508</v>
+        <v>-116.583330882</v>
       </c>
       <c r="E18" t="n">
-        <v>209.502158151</v>
+        <v>-108.050696671</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>178.447331877</v>
+        <v>126.065045679</v>
       </c>
       <c r="C19" t="n">
-        <v>111.95058563</v>
+        <v>-57.8340527921</v>
       </c>
       <c r="D19" t="n">
-        <v>-69.8043336396</v>
+        <v>-144.525813937</v>
       </c>
       <c r="E19" t="n">
-        <v>178.447331877</v>
+        <v>-126.065045679</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>133.740038375</v>
+        <v>12.8802296122</v>
       </c>
       <c r="C20" t="n">
-        <v>85.98830982760001</v>
+        <v>2.27772957433</v>
       </c>
       <c r="D20" t="n">
-        <v>-51.3540144933</v>
+        <v>-10.8526584831</v>
       </c>
       <c r="E20" t="n">
-        <v>133.740038375</v>
+        <v>-12.8802296122</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>134.941314994</v>
+        <v>265.472440738</v>
       </c>
       <c r="C21" t="n">
-        <v>90.1741908148</v>
+        <v>303.592103461</v>
       </c>
       <c r="D21" t="n">
-        <v>-48.7811206404</v>
+        <v>139.46770157</v>
       </c>
       <c r="E21" t="n">
-        <v>134.941314994</v>
+        <v>265.472440738</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>177.110936382</v>
+        <v>533.494722367</v>
       </c>
       <c r="C22" t="n">
-        <v>120.958980284</v>
+        <v>610.804743504</v>
       </c>
       <c r="D22" t="n">
-        <v>-60.6072325398</v>
+        <v>286.614684374</v>
       </c>
       <c r="E22" t="n">
-        <v>177.110936382</v>
+        <v>533.494722367</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>226.551601315</v>
+        <v>682.463485265</v>
       </c>
       <c r="C23" t="n">
-        <v>150.509450406</v>
+        <v>782.538136958</v>
       </c>
       <c r="D23" t="n">
-        <v>-80.0787974158</v>
+        <v>360.138393927</v>
       </c>
       <c r="E23" t="n">
-        <v>226.551601315</v>
+        <v>682.463485265</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>246.106032623</v>
+        <v>716.413192312</v>
       </c>
       <c r="C24" t="n">
-        <v>156.333521663</v>
+        <v>822.11161138</v>
       </c>
       <c r="D24" t="n">
-        <v>-92.53680892529999</v>
+        <v>360.830099214</v>
       </c>
       <c r="E24" t="n">
-        <v>246.106032623</v>
+        <v>716.413192312</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>222.655713182</v>
+        <v>713.9697027</v>
       </c>
       <c r="C25" t="n">
-        <v>142.885569423</v>
+        <v>818.921878175</v>
       </c>
       <c r="D25" t="n">
-        <v>-82.8392013399</v>
+        <v>347.061969403</v>
       </c>
       <c r="E25" t="n">
-        <v>222.655713182</v>
+        <v>713.9697027</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>196.708178068</v>
+        <v>743.81794136</v>
       </c>
       <c r="C26" t="n">
-        <v>139.409247592</v>
+        <v>853.448074847</v>
       </c>
       <c r="D26" t="n">
-        <v>-62.3046375307</v>
+        <v>368.296919883</v>
       </c>
       <c r="E26" t="n">
-        <v>196.708178068</v>
+        <v>743.81794136</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>210.293917189</v>
+        <v>759.362416266</v>
       </c>
       <c r="C27" t="n">
-        <v>161.058632893</v>
+        <v>871.3104510220001</v>
       </c>
       <c r="D27" t="n">
-        <v>-55.2731544039</v>
+        <v>392.11052008</v>
       </c>
       <c r="E27" t="n">
-        <v>210.293917189</v>
+        <v>759.362416266</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>254.996789965</v>
+        <v>641.112561827</v>
       </c>
       <c r="C28" t="n">
-        <v>189.76070503</v>
+        <v>734.521459899</v>
       </c>
       <c r="D28" t="n">
-        <v>-71.31353858839999</v>
+        <v>343.318185468</v>
       </c>
       <c r="E28" t="n">
-        <v>254.996789965</v>
+        <v>641.112561827</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>305.078977419</v>
+        <v>370.194109993</v>
       </c>
       <c r="C29" t="n">
-        <v>206.330670173</v>
+        <v>422.289436377</v>
       </c>
       <c r="D29" t="n">
-        <v>-102.984135072</v>
+        <v>202.927426651</v>
       </c>
       <c r="E29" t="n">
-        <v>305.078977419</v>
+        <v>370.194109993</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>318.6731958</v>
+        <v>57.3839239259</v>
       </c>
       <c r="C30" t="n">
-        <v>203.251635324</v>
+        <v>60.5079663083</v>
       </c>
       <c r="D30" t="n">
-        <v>-118.074449575</v>
+        <v>21.6471963106</v>
       </c>
       <c r="E30" t="n">
-        <v>318.6731958</v>
+        <v>57.3839239259</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>250.017831533</v>
+        <v>198.738529396</v>
       </c>
       <c r="C31" t="n">
-        <v>164.658291328</v>
+        <v>-100.54507498</v>
       </c>
       <c r="D31" t="n">
-        <v>-89.13833331089999</v>
+        <v>-228.682746463</v>
       </c>
       <c r="E31" t="n">
-        <v>250.017831533</v>
+        <v>-198.738529396</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>135.161599491</v>
+        <v>258.680175766</v>
       </c>
       <c r="C32" t="n">
-        <v>93.2239806078</v>
+        <v>-126.413167985</v>
       </c>
       <c r="D32" t="n">
-        <v>-46.1729600722</v>
+        <v>-297.249127877</v>
       </c>
       <c r="E32" t="n">
-        <v>135.161599491</v>
+        <v>-258.680175766</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>63.4248876654</v>
+        <v>106.51542712</v>
       </c>
       <c r="C33" t="n">
-        <v>29.0674091261</v>
+        <v>-30.4769239092</v>
       </c>
       <c r="D33" t="n">
-        <v>-35.6444470182</v>
+        <v>-118.177632597</v>
       </c>
       <c r="E33" t="n">
-        <v>-63.4248876654</v>
+        <v>-106.51542712</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>68.7891712716</v>
+        <v>198.178138893</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.42115253234</v>
+        <v>225.064290825</v>
       </c>
       <c r="D34" t="n">
-        <v>-55.7193010929</v>
+        <v>106.49176518</v>
       </c>
       <c r="E34" t="n">
-        <v>-68.7891712716</v>
+        <v>198.178138893</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>82.8320052274</v>
+        <v>475.70464232</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.31717790958</v>
+        <v>545.392561782</v>
       </c>
       <c r="D35" t="n">
-        <v>-79.3422396651</v>
+        <v>247.515689658</v>
       </c>
       <c r="E35" t="n">
-        <v>-82.8320052274</v>
+        <v>475.70464232</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>71.9234708382</v>
+        <v>665.533193672</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.4088950068</v>
+        <v>763.315190046</v>
       </c>
       <c r="D36" t="n">
-        <v>-71.030706686</v>
+        <v>349.180943436</v>
       </c>
       <c r="E36" t="n">
-        <v>-71.9234708382</v>
+        <v>665.533193672</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>43.1874859722</v>
+        <v>691.532012954</v>
       </c>
       <c r="C37" t="n">
-        <v>4.96919968834</v>
+        <v>792.243182681</v>
       </c>
       <c r="D37" t="n">
-        <v>-32.9936439481</v>
+        <v>371.220598825</v>
       </c>
       <c r="E37" t="n">
-        <v>-43.1874859722</v>
+        <v>691.532012954</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>107.0047801</v>
+        <v>490.711900995</v>
       </c>
       <c r="C38" t="n">
-        <v>67.2121637501</v>
+        <v>560.843285263</v>
       </c>
       <c r="D38" t="n">
-        <v>-43.5994899516</v>
+        <v>267.534960154</v>
       </c>
       <c r="E38" t="n">
-        <v>107.0047801</v>
+        <v>490.711900995</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>213.557040579</v>
+        <v>157.636683918</v>
       </c>
       <c r="C39" t="n">
-        <v>145.954773042</v>
+        <v>178.848532564</v>
       </c>
       <c r="D39" t="n">
-        <v>-71.928130475</v>
+        <v>83.7999897235</v>
       </c>
       <c r="E39" t="n">
-        <v>213.557040579</v>
+        <v>157.636683918</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>330.121291787</v>
+        <v>117.52163437</v>
       </c>
       <c r="C40" t="n">
-        <v>230.076090254</v>
+        <v>-60.000531375</v>
       </c>
       <c r="D40" t="n">
-        <v>-105.331503175</v>
+        <v>-135.338878273</v>
       </c>
       <c r="E40" t="n">
-        <v>330.121291787</v>
+        <v>-117.52163437</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>398.860257718</v>
+        <v>245.935897143</v>
       </c>
       <c r="C41" t="n">
-        <v>281.516704635</v>
+        <v>-108.552310187</v>
       </c>
       <c r="D41" t="n">
-        <v>-123.628553136</v>
+        <v>-281.284273869</v>
       </c>
       <c r="E41" t="n">
-        <v>398.860257718</v>
+        <v>-245.935897143</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>377.423460032</v>
+        <v>268.411359593</v>
       </c>
       <c r="C42" t="n">
-        <v>269.512805607</v>
+        <v>-94.3800560439</v>
       </c>
       <c r="D42" t="n">
-        <v>-114.313997967</v>
+        <v>-302.411907657</v>
       </c>
       <c r="E42" t="n">
-        <v>377.423460032</v>
+        <v>-268.411359593</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>304.298398016</v>
+        <v>198.131141265</v>
       </c>
       <c r="C43" t="n">
-        <v>219.202482565</v>
+        <v>-63.5063926412</v>
       </c>
       <c r="D43" t="n">
-        <v>-91.03496695849999</v>
+        <v>-221.721399374</v>
       </c>
       <c r="E43" t="n">
-        <v>304.298398016</v>
+        <v>-198.131141265</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>234.859953329</v>
+        <v>41.4585939287</v>
       </c>
       <c r="C44" t="n">
-        <v>169.038150946</v>
+        <v>0.5318543687990001</v>
       </c>
       <c r="D44" t="n">
-        <v>-71.3051924288</v>
+        <v>-40.8658347152</v>
       </c>
       <c r="E44" t="n">
-        <v>234.859953329</v>
+        <v>-41.4585939287</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>174.159769918</v>
+        <v>212.917790831</v>
       </c>
       <c r="C45" t="n">
-        <v>118.077630646</v>
+        <v>243.696282798</v>
       </c>
       <c r="D45" t="n">
-        <v>-60.4517046966</v>
+        <v>105.549593241</v>
       </c>
       <c r="E45" t="n">
-        <v>174.159769918</v>
+        <v>212.917790831</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>119.984492744</v>
+        <v>502.118824125</v>
       </c>
       <c r="C46" t="n">
-        <v>61.134354685</v>
+        <v>575.902726662</v>
       </c>
       <c r="D46" t="n">
-        <v>-59.4601871725</v>
+        <v>257.997896372</v>
       </c>
       <c r="E46" t="n">
-        <v>119.984492744</v>
+        <v>502.118824125</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>87.2278496097</v>
+        <v>740.447652722</v>
       </c>
       <c r="C47" t="n">
-        <v>15.1618604322</v>
+        <v>849.189761413</v>
       </c>
       <c r="D47" t="n">
-        <v>-60.876580601</v>
+        <v>390.261791239</v>
       </c>
       <c r="E47" t="n">
-        <v>-87.2278496097</v>
+        <v>740.447652722</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>65.7090250247</v>
+        <v>795.393928448</v>
       </c>
       <c r="C48" t="n">
-        <v>-4.79970143086</v>
+        <v>911.920843549</v>
       </c>
       <c r="D48" t="n">
-        <v>-55.6167009202</v>
+        <v>422.972501176</v>
       </c>
       <c r="E48" t="n">
-        <v>-65.7090250247</v>
+        <v>795.393928448</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>44.455848757</v>
+        <v>629.589810485</v>
       </c>
       <c r="C49" t="n">
-        <v>1.25406087001</v>
+        <v>721.904857041</v>
       </c>
       <c r="D49" t="n">
-        <v>-42.139785886</v>
+        <v>331.298021568</v>
       </c>
       <c r="E49" t="n">
-        <v>-44.455848757</v>
+        <v>629.589810485</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>41.7699683199</v>
+        <v>366.842756479</v>
       </c>
       <c r="C50" t="n">
-        <v>20.8645030135</v>
+        <v>420.58937023</v>
       </c>
       <c r="D50" t="n">
-        <v>-23.3847812028</v>
+        <v>184.187620395</v>
       </c>
       <c r="E50" t="n">
-        <v>-41.7699683199</v>
+        <v>366.842756479</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>149.499554149</v>
+        <v>177.093262757</v>
       </c>
       <c r="C51" t="n">
-        <v>95.0844487375</v>
+        <v>202.349398566</v>
       </c>
       <c r="D51" t="n">
-        <v>-57.9253327013</v>
+        <v>81.0467381581</v>
       </c>
       <c r="E51" t="n">
-        <v>149.499554149</v>
+        <v>177.093262757</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>257.778496455</v>
+        <v>115.393810306</v>
       </c>
       <c r="C52" t="n">
-        <v>162.037525746</v>
+        <v>130.919536416</v>
       </c>
       <c r="D52" t="n">
-        <v>-98.2409403205</v>
+        <v>58.7144123185</v>
       </c>
       <c r="E52" t="n">
-        <v>257.778496455</v>
+        <v>115.393810306</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>298.674596899</v>
+        <v>128.101170949</v>
       </c>
       <c r="C53" t="n">
-        <v>191.426442809</v>
+        <v>137.031583188</v>
       </c>
       <c r="D53" t="n">
-        <v>-109.982416859</v>
+        <v>60.8447183718</v>
       </c>
       <c r="E53" t="n">
-        <v>298.674596899</v>
+        <v>128.101170949</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>278.588337518</v>
+        <v>110.804719202</v>
       </c>
       <c r="C54" t="n">
-        <v>193.83833147</v>
+        <v>110.248569357</v>
       </c>
       <c r="D54" t="n">
-        <v>-89.7685584414</v>
+        <v>28.9416996965</v>
       </c>
       <c r="E54" t="n">
-        <v>278.588337518</v>
+        <v>110.804719202</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>246.027243088</v>
+        <v>46.0093933901</v>
       </c>
       <c r="C55" t="n">
-        <v>186.66761524</v>
+        <v>28.7792713764</v>
       </c>
       <c r="D55" t="n">
-        <v>-65.68580581170001</v>
+        <v>-19.1431789654</v>
       </c>
       <c r="E55" t="n">
-        <v>246.027243088</v>
+        <v>46.0093933901</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>230.516958388</v>
+        <v>14.5664604872</v>
       </c>
       <c r="C56" t="n">
-        <v>171.871958376</v>
+        <v>-3.61444384877</v>
       </c>
       <c r="D56" t="n">
-        <v>-64.5601958379</v>
+        <v>-15.0658151885</v>
       </c>
       <c r="E56" t="n">
-        <v>230.516958388</v>
+        <v>-14.5664604872</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>222.047903595</v>
+        <v>102.114309319</v>
       </c>
       <c r="C57" t="n">
-        <v>141.219989952</v>
+        <v>115.71585861</v>
       </c>
       <c r="D57" t="n">
-        <v>-83.79459492940001</v>
+        <v>51.3075037062</v>
       </c>
       <c r="E57" t="n">
-        <v>222.047903595</v>
+        <v>102.114309319</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>189.895337396</v>
+        <v>244.7451973</v>
       </c>
       <c r="C58" t="n">
-        <v>97.4046566577</v>
+        <v>273.888424819</v>
       </c>
       <c r="D58" t="n">
-        <v>-90.99313348859999</v>
+        <v>135.77036389</v>
       </c>
       <c r="E58" t="n">
-        <v>189.895337396</v>
+        <v>244.7451973</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>119.645763108</v>
+        <v>258.002314109</v>
       </c>
       <c r="C59" t="n">
-        <v>59.692793937</v>
+        <v>283.735202401</v>
       </c>
       <c r="D59" t="n">
-        <v>-60.3546684948</v>
+        <v>141.048447837</v>
       </c>
       <c r="E59" t="n">
-        <v>-119.645763108</v>
+        <v>258.002314109</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>65.7474948105</v>
+        <v>118.414246657</v>
       </c>
       <c r="C60" t="n">
-        <v>48.0685449633</v>
+        <v>128.8664491</v>
       </c>
       <c r="D60" t="n">
-        <v>-22.0430434016</v>
+        <v>60.2097824869</v>
       </c>
       <c r="E60" t="n">
-        <v>65.7474948105</v>
+        <v>118.414246657</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>90.20645377779999</v>
+        <v>34.6906991405</v>
       </c>
       <c r="C61" t="n">
-        <v>68.6557415618</v>
+        <v>29.1520724923</v>
       </c>
       <c r="D61" t="n">
-        <v>-26.0762094064</v>
+        <v>-8.951748639430001</v>
       </c>
       <c r="E61" t="n">
-        <v>90.20645377779999</v>
+        <v>34.6906991405</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>178.556692331</v>
+        <v>132.827448601</v>
       </c>
       <c r="C62" t="n">
-        <v>113.27315312</v>
+        <v>149.899603623</v>
       </c>
       <c r="D62" t="n">
-        <v>-68.5407369396</v>
+        <v>48.5687508222</v>
       </c>
       <c r="E62" t="n">
-        <v>178.556692331</v>
+        <v>132.827448601</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>266.091034242</v>
+        <v>357.192815682</v>
       </c>
       <c r="C63" t="n">
-        <v>163.995924715</v>
+        <v>407.318125273</v>
       </c>
       <c r="D63" t="n">
-        <v>-103.936694639</v>
+        <v>195.609091294</v>
       </c>
       <c r="E63" t="n">
-        <v>266.091034242</v>
+        <v>357.192815682</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>304.127313586</v>
+        <v>492.008955438</v>
       </c>
       <c r="C64" t="n">
-        <v>206.304109541</v>
+        <v>558.425295796</v>
       </c>
       <c r="D64" t="n">
-        <v>-102.291709791</v>
+        <v>277.045028521</v>
       </c>
       <c r="E64" t="n">
-        <v>304.127313586</v>
+        <v>492.008955438</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>308.599299725</v>
+        <v>414.86129395</v>
       </c>
       <c r="C65" t="n">
-        <v>232.464296125</v>
+        <v>473.644361243</v>
       </c>
       <c r="D65" t="n">
-        <v>-83.1557775988</v>
+        <v>226.868487796</v>
       </c>
       <c r="E65" t="n">
-        <v>308.599299725</v>
+        <v>414.86129395</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>298.881739072</v>
+        <v>263.370176954</v>
       </c>
       <c r="C66" t="n">
-        <v>225.014465608</v>
+        <v>301.160090244</v>
       </c>
       <c r="D66" t="n">
-        <v>-80.75418248840001</v>
+        <v>119.979311203</v>
       </c>
       <c r="E66" t="n">
-        <v>298.881739072</v>
+        <v>263.370176954</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>277.764608015</v>
+        <v>205.123364454</v>
       </c>
       <c r="C67" t="n">
-        <v>188.278809581</v>
+        <v>233.851102779</v>
       </c>
       <c r="D67" t="n">
-        <v>-93.8998714122</v>
+        <v>88.08979135760001</v>
       </c>
       <c r="E67" t="n">
-        <v>277.764608015</v>
+        <v>205.123364454</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>233.376383829</v>
+        <v>239.744724869</v>
       </c>
       <c r="C68" t="n">
-        <v>143.066497357</v>
+        <v>271.536633455</v>
       </c>
       <c r="D68" t="n">
-        <v>-92.3425367242</v>
+        <v>131.857334088</v>
       </c>
       <c r="E68" t="n">
-        <v>233.376383829</v>
+        <v>239.744724869</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>154.561688126</v>
+        <v>233.870229532</v>
       </c>
       <c r="C69" t="n">
-        <v>90.358685411</v>
+        <v>252.928711944</v>
       </c>
       <c r="D69" t="n">
-        <v>-66.32111997</v>
+        <v>122.395026602</v>
       </c>
       <c r="E69" t="n">
-        <v>154.561688126</v>
+        <v>233.870229532</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>74.35965046050001</v>
+        <v>92.97202840830001</v>
       </c>
       <c r="C70" t="n">
-        <v>38.3076695783</v>
+        <v>75.7724950712</v>
       </c>
       <c r="D70" t="n">
-        <v>-38.2290165104</v>
+        <v>-6.18825655034</v>
       </c>
       <c r="E70" t="n">
-        <v>74.35965046050001</v>
+        <v>92.97202840830001</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>43.5525349275</v>
+        <v>198.975512253</v>
       </c>
       <c r="C71" t="n">
-        <v>6.07002718934</v>
+        <v>-96.05875697720001</v>
       </c>
       <c r="D71" t="n">
-        <v>-32.6357827434</v>
+        <v>-228.593359131</v>
       </c>
       <c r="E71" t="n">
-        <v>-43.5525349275</v>
+        <v>-198.975512253</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>60.2669134506</v>
+        <v>270.819632806</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.90375204588</v>
+        <v>-145.074956626</v>
       </c>
       <c r="D72" t="n">
-        <v>-48.6804559627</v>
+        <v>-311.618061258</v>
       </c>
       <c r="E72" t="n">
-        <v>-60.2669134506</v>
+        <v>-270.819632806</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>75.04103160050001</v>
+        <v>127.83871782</v>
       </c>
       <c r="C73" t="n">
-        <v>14.4738001062</v>
+        <v>-51.581975878</v>
       </c>
       <c r="D73" t="n">
-        <v>-52.2503902611</v>
+        <v>-145.414249878</v>
       </c>
       <c r="E73" t="n">
-        <v>-75.04103160050001</v>
+        <v>-127.83871782</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>118.239025204</v>
+        <v>140.039538086</v>
       </c>
       <c r="C74" t="n">
-        <v>71.41022398200001</v>
+        <v>148.001450393</v>
       </c>
       <c r="D74" t="n">
-        <v>-49.9753166452</v>
+        <v>60.6361591477</v>
       </c>
       <c r="E74" t="n">
-        <v>118.239025204</v>
+        <v>140.039538086</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>207.623523819</v>
+        <v>248.660950401</v>
       </c>
       <c r="C75" t="n">
-        <v>150.689293995</v>
+        <v>272.600480837</v>
       </c>
       <c r="D75" t="n">
-        <v>-62.2708010841</v>
+        <v>135.019584482</v>
       </c>
       <c r="E75" t="n">
-        <v>207.623523819</v>
+        <v>248.660950401</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>316.915508644</v>
+        <v>179.364305022</v>
       </c>
       <c r="C76" t="n">
-        <v>232.406367915</v>
+        <v>198.760810432</v>
       </c>
       <c r="D76" t="n">
-        <v>-91.08361279419999</v>
+        <v>97.17984673959999</v>
       </c>
       <c r="E76" t="n">
-        <v>316.915508644</v>
+        <v>179.364305022</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>409.52742866</v>
+        <v>43.6971761136</v>
       </c>
       <c r="C77" t="n">
-        <v>295.4372309</v>
+        <v>47.1764443279</v>
       </c>
       <c r="D77" t="n">
-        <v>-121.117785755</v>
+        <v>17.7405667241</v>
       </c>
       <c r="E77" t="n">
-        <v>409.52742866</v>
+        <v>43.6971761136</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>440.502126816</v>
+        <v>52.2437169874</v>
       </c>
       <c r="C78" t="n">
-        <v>314.070262686</v>
+        <v>-10.5112243494</v>
       </c>
       <c r="D78" t="n">
-        <v>-133.310204827</v>
+        <v>-56.4487474466</v>
       </c>
       <c r="E78" t="n">
-        <v>440.502126816</v>
+        <v>-52.2437169874</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>396.304770843</v>
+        <v>93.96618386580001</v>
       </c>
       <c r="C79" t="n">
-        <v>284.827760741</v>
+        <v>9.116443097679999</v>
       </c>
       <c r="D79" t="n">
-        <v>-118.25952132</v>
+        <v>-88.62934326209999</v>
       </c>
       <c r="E79" t="n">
-        <v>396.304770843</v>
+        <v>-93.96618386580001</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>313.005607866</v>
+        <v>104.389776382</v>
       </c>
       <c r="C80" t="n">
-        <v>231.997683272</v>
+        <v>16.3657522024</v>
       </c>
       <c r="D80" t="n">
-        <v>-87.7745288224</v>
+        <v>-94.63448009699999</v>
       </c>
       <c r="E80" t="n">
-        <v>313.005607866</v>
+        <v>-104.389776382</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>236.824111213</v>
+        <v>69.85817292740001</v>
       </c>
       <c r="C81" t="n">
-        <v>177.39149941</v>
+        <v>-4.30769065822</v>
       </c>
       <c r="D81" t="n">
-        <v>-65.4745939912</v>
+        <v>-71.5948278994</v>
       </c>
       <c r="E81" t="n">
-        <v>236.824111213</v>
+        <v>-69.85817292740001</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>177.273278574</v>
+        <v>34.6008562805</v>
       </c>
       <c r="C82" t="n">
-        <v>116.619511114</v>
+        <v>38.1162957383</v>
       </c>
       <c r="D82" t="n">
-        <v>-64.4886406049</v>
+        <v>12.0239290368</v>
       </c>
       <c r="E82" t="n">
-        <v>177.273278574</v>
+        <v>34.6008562805</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>125.6614757</v>
+        <v>202.322294077</v>
       </c>
       <c r="C83" t="n">
-        <v>47.9086941916</v>
+        <v>230.932149663</v>
       </c>
       <c r="D83" t="n">
-        <v>-73.0230227948</v>
+        <v>106.131532692</v>
       </c>
       <c r="E83" t="n">
-        <v>-125.6614757</v>
+        <v>202.322294077</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>86.3629790156</v>
+        <v>362.819361809</v>
       </c>
       <c r="C84" t="n">
-        <v>-8.957735460769999</v>
+        <v>412.369988032</v>
       </c>
       <c r="D84" t="n">
-        <v>-71.19358634540001</v>
+        <v>201.620275105</v>
       </c>
       <c r="E84" t="n">
-        <v>-86.3629790156</v>
+        <v>362.819361809</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>91.1261531777</v>
+        <v>386.657351603</v>
       </c>
       <c r="C85" t="n">
-        <v>5.16252974465</v>
+        <v>439.138187555</v>
       </c>
       <c r="D85" t="n">
-        <v>-88.1931774957</v>
+        <v>215.814766126</v>
       </c>
       <c r="E85" t="n">
-        <v>-91.1261531777</v>
+        <v>386.657351603</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>75.461062367</v>
+        <v>248.335092369</v>
       </c>
       <c r="C86" t="n">
-        <v>16.3130472556</v>
+        <v>282.090731566</v>
       </c>
       <c r="D86" t="n">
-        <v>-60.5564315476</v>
+        <v>135.873848495</v>
       </c>
       <c r="E86" t="n">
-        <v>-75.461062367</v>
+        <v>248.335092369</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>39.9257621799</v>
+        <v>50.930814301</v>
       </c>
       <c r="C87" t="n">
-        <v>21.4863903328</v>
+        <v>53.1343069015</v>
       </c>
       <c r="D87" t="n">
-        <v>-21.41548025</v>
+        <v>17.1005373814</v>
       </c>
       <c r="E87" t="n">
-        <v>39.9257621799</v>
+        <v>50.930814301</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>196.596695372</v>
+        <v>145.163870404</v>
       </c>
       <c r="C88" t="n">
-        <v>119.117278283</v>
+        <v>-48.5789425656</v>
       </c>
       <c r="D88" t="n">
-        <v>-79.691198095</v>
+        <v>-162.954790759</v>
       </c>
       <c r="E88" t="n">
-        <v>196.596695372</v>
+        <v>-145.163870404</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>322.412483802</v>
+        <v>234.294035138</v>
       </c>
       <c r="C89" t="n">
-        <v>204.165821954</v>
+        <v>-86.8138400645</v>
       </c>
       <c r="D89" t="n">
-        <v>-120.458778019</v>
+        <v>-264.960740684</v>
       </c>
       <c r="E89" t="n">
-        <v>322.412483802</v>
+        <v>-234.294035138</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>367.334149252</v>
+        <v>210.420110171</v>
       </c>
       <c r="C90" t="n">
-        <v>255.647717809</v>
+        <v>-85.1928183065</v>
       </c>
       <c r="D90" t="n">
-        <v>-117.177129422</v>
+        <v>-239.402862178</v>
       </c>
       <c r="E90" t="n">
-        <v>367.334149252</v>
+        <v>-210.420110171</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>366.769937412</v>
+        <v>71.35090978629999</v>
       </c>
       <c r="C91" t="n">
-        <v>282.438290762</v>
+        <v>-23.3628544779</v>
       </c>
       <c r="D91" t="n">
-        <v>-92.64606353809999</v>
+        <v>-79.9204901726</v>
       </c>
       <c r="E91" t="n">
-        <v>366.769937412</v>
+        <v>-71.35090978629999</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>358.545387182</v>
+        <v>174.288144761</v>
       </c>
       <c r="C92" t="n">
-        <v>280.142654533</v>
+        <v>198.480184794</v>
       </c>
       <c r="D92" t="n">
-        <v>-86.8457343031</v>
+        <v>91.65915126900001</v>
       </c>
       <c r="E92" t="n">
-        <v>358.545387182</v>
+        <v>174.288144761</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>333.896727755</v>
+        <v>426.505964241</v>
       </c>
       <c r="C93" t="n">
-        <v>234.108472126</v>
+        <v>488.135285029</v>
       </c>
       <c r="D93" t="n">
-        <v>-105.325402984</v>
+        <v>228.263439647</v>
       </c>
       <c r="E93" t="n">
-        <v>333.896727755</v>
+        <v>426.505964241</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>266.676761153</v>
+        <v>583.549737091</v>
       </c>
       <c r="C94" t="n">
-        <v>156.208036081</v>
+        <v>668.382199794</v>
       </c>
       <c r="D94" t="n">
-        <v>-110.755099605</v>
+        <v>312.847362281</v>
       </c>
       <c r="E94" t="n">
-        <v>266.676761153</v>
+        <v>583.549737091</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>143.352092085</v>
+        <v>595.94113469</v>
       </c>
       <c r="C95" t="n">
-        <v>70.12616234390001</v>
+        <v>683.234566628</v>
       </c>
       <c r="D95" t="n">
-        <v>-72.37296136099999</v>
+        <v>313.867606779</v>
       </c>
       <c r="E95" t="n">
-        <v>-143.352092085</v>
+        <v>595.94113469</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>26.864879934</v>
+        <v>507.741741133</v>
       </c>
       <c r="C96" t="n">
-        <v>5.44725269241</v>
+        <v>582.414074973</v>
       </c>
       <c r="D96" t="n">
-        <v>-21.1499439277</v>
+        <v>258.358973313</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.864879934</v>
+        <v>507.741741133</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>43.496264322</v>
+        <v>373.191982147</v>
       </c>
       <c r="C97" t="n">
-        <v>11.8167009806</v>
+        <v>427.704614334</v>
       </c>
       <c r="D97" t="n">
-        <v>-32.4970048855</v>
+        <v>192.753758193</v>
       </c>
       <c r="E97" t="n">
-        <v>-43.496264322</v>
+        <v>373.191982147</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>45.5563342387</v>
+        <v>206.776068976</v>
       </c>
       <c r="C98" t="n">
-        <v>8.64243601852</v>
+        <v>232.060087374</v>
       </c>
       <c r="D98" t="n">
-        <v>-32.9605352869</v>
+        <v>113.706684047</v>
       </c>
       <c r="E98" t="n">
-        <v>-45.5563342387</v>
+        <v>206.776068976</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>144.660579256</v>
+        <v>80.2750640621</v>
       </c>
       <c r="C99" t="n">
-        <v>63.4508749266</v>
+        <v>40.0300184263</v>
       </c>
       <c r="D99" t="n">
-        <v>-78.0778592085</v>
+        <v>-47.5677802134</v>
       </c>
       <c r="E99" t="n">
-        <v>-144.660579256</v>
+        <v>-80.2750640621</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>207.300944978</v>
+        <v>224.145931139</v>
       </c>
       <c r="C100" t="n">
-        <v>110.695216017</v>
+        <v>-93.72964437100001</v>
       </c>
       <c r="D100" t="n">
-        <v>-95.5830199792</v>
+        <v>-255.543619125</v>
       </c>
       <c r="E100" t="n">
-        <v>207.300944978</v>
+        <v>-224.145931139</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>208.051861098</v>
+        <v>278.708336786</v>
       </c>
       <c r="C101" t="n">
-        <v>133.844169785</v>
+        <v>-143.179086632</v>
       </c>
       <c r="D101" t="n">
-        <v>-77.5326938333</v>
+        <v>-320.654602044</v>
       </c>
       <c r="E101" t="n">
-        <v>208.051861098</v>
+        <v>-278.708336786</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>196.426389297</v>
+        <v>139.803134827</v>
       </c>
       <c r="C102" t="n">
-        <v>146.381166966</v>
+        <v>-66.3393780724</v>
       </c>
       <c r="D102" t="n">
-        <v>-55.5610446516</v>
+        <v>-160.528778494</v>
       </c>
       <c r="E102" t="n">
-        <v>196.426389297</v>
+        <v>-139.803134827</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>215.124813508</v>
+        <v>144.878961216</v>
       </c>
       <c r="C103" t="n">
-        <v>161.889312052</v>
+        <v>160.037186926</v>
       </c>
       <c r="D103" t="n">
-        <v>-59.0614995111</v>
+        <v>77.0140346427</v>
       </c>
       <c r="E103" t="n">
-        <v>215.124813508</v>
+        <v>144.878961216</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>264.472733255</v>
+        <v>411.522465422</v>
       </c>
       <c r="C104" t="n">
-        <v>185.128734748</v>
+        <v>470.06271159</v>
       </c>
       <c r="D104" t="n">
-        <v>-84.45958491330001</v>
+        <v>224.126090249</v>
       </c>
       <c r="E104" t="n">
-        <v>264.472733255</v>
+        <v>411.522465422</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>306.121847104</v>
+        <v>613.853877597</v>
       </c>
       <c r="C105" t="n">
-        <v>205.81287836</v>
+        <v>704.275761489</v>
       </c>
       <c r="D105" t="n">
-        <v>-104.51164601</v>
+        <v>314.381088541</v>
       </c>
       <c r="E105" t="n">
-        <v>306.121847104</v>
+        <v>613.853877597</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>309.410716507</v>
+        <v>752.978246421</v>
       </c>
       <c r="C106" t="n">
-        <v>214.127383787</v>
+        <v>864.003417635</v>
       </c>
       <c r="D106" t="n">
-        <v>-100.328464998</v>
+        <v>373.798622233</v>
       </c>
       <c r="E106" t="n">
-        <v>309.410716507</v>
+        <v>752.978246421</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>291.355549547</v>
+        <v>818.193909374</v>
       </c>
       <c r="C107" t="n">
-        <v>216.293000583</v>
+        <v>939.022480586</v>
       </c>
       <c r="D107" t="n">
-        <v>-81.6125856403</v>
+        <v>416.709075684</v>
       </c>
       <c r="E107" t="n">
-        <v>291.355549547</v>
+        <v>818.193909374</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>285.899941955</v>
+        <v>750.197119578</v>
       </c>
       <c r="C108" t="n">
-        <v>219.004902488</v>
+        <v>860.127740956</v>
       </c>
       <c r="D108" t="n">
-        <v>-73.8894320344</v>
+        <v>398.199022562</v>
       </c>
       <c r="E108" t="n">
-        <v>285.899941955</v>
+        <v>750.197119578</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>296.111002822</v>
+        <v>500.865884654</v>
       </c>
       <c r="C109" t="n">
-        <v>215.262383281</v>
+        <v>572.522465058</v>
       </c>
       <c r="D109" t="n">
-        <v>-87.01690607960001</v>
+        <v>273.177065066</v>
       </c>
       <c r="E109" t="n">
-        <v>296.111002822</v>
+        <v>500.865884654</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>292.785446534</v>
+        <v>136.932934204</v>
       </c>
       <c r="C110" t="n">
-        <v>193.80409992</v>
+        <v>153.877308072</v>
       </c>
       <c r="D110" t="n">
-        <v>-102.730369749</v>
+        <v>72.890213133</v>
       </c>
       <c r="E110" t="n">
-        <v>292.785446534</v>
+        <v>136.932934204</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>239.373054511</v>
+        <v>175.320642065</v>
       </c>
       <c r="C111" t="n">
-        <v>145.714504432</v>
+        <v>-91.3170122433</v>
       </c>
       <c r="D111" t="n">
-        <v>-95.43693453589999</v>
+        <v>-201.883460891</v>
       </c>
       <c r="E111" t="n">
-        <v>239.373054511</v>
+        <v>-175.320642065</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>140.275666402</v>
+        <v>283.81913991</v>
       </c>
       <c r="C112" t="n">
-        <v>80.10462998760001</v>
+        <v>-142.739222018</v>
       </c>
       <c r="D112" t="n">
-        <v>-62.1825120681</v>
+        <v>-326.394860192</v>
       </c>
       <c r="E112" t="n">
-        <v>140.275666402</v>
+        <v>-283.81913991</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>52.0474336568</v>
+        <v>201.376437158</v>
       </c>
       <c r="C113" t="n">
-        <v>25.7673005278</v>
+        <v>-74.68178368300001</v>
       </c>
       <c r="D113" t="n">
-        <v>-28.592876043</v>
+        <v>-227.748871563</v>
       </c>
       <c r="E113" t="n">
-        <v>-52.0474336568</v>
+        <v>-201.376437158</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>33.7745035914</v>
+        <v>74.6654518398</v>
       </c>
       <c r="C114" t="n">
-        <v>4.83464519223</v>
+        <v>44.2399013811</v>
       </c>
       <c r="D114" t="n">
-        <v>-26.3206601105</v>
+        <v>-34.4120997278</v>
       </c>
       <c r="E114" t="n">
-        <v>-33.7745035914</v>
+        <v>74.6654518398</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>64.4354782579</v>
+        <v>191.372392704</v>
       </c>
       <c r="C115" t="n">
-        <v>16.1686869393</v>
+        <v>216.427609414</v>
       </c>
       <c r="D115" t="n">
-        <v>-43.6468646944</v>
+        <v>104.020416521</v>
       </c>
       <c r="E115" t="n">
-        <v>-64.4354782579</v>
+        <v>191.372392704</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>120.64392148</v>
+        <v>393.6926824</v>
       </c>
       <c r="C116" t="n">
-        <v>55.2724715967</v>
+        <v>451.401563125</v>
       </c>
       <c r="D116" t="n">
-        <v>-64.256582752</v>
+        <v>194.982777901</v>
       </c>
       <c r="E116" t="n">
-        <v>-120.64392148</v>
+        <v>393.6926824</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>172.534121583</v>
+        <v>638.515954448</v>
       </c>
       <c r="C117" t="n">
-        <v>101.679462066</v>
+        <v>732.458511851</v>
       </c>
       <c r="D117" t="n">
-        <v>-72.8449430726</v>
+        <v>313.714295576</v>
       </c>
       <c r="E117" t="n">
-        <v>172.534121583</v>
+        <v>638.515954448</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>212.188737654</v>
+        <v>868.842637343</v>
       </c>
       <c r="C118" t="n">
-        <v>144.595834024</v>
+        <v>997.1899549349999</v>
       </c>
       <c r="D118" t="n">
-        <v>-71.99799378180001</v>
+        <v>443.347839896</v>
       </c>
       <c r="E118" t="n">
-        <v>212.188737654</v>
+        <v>868.842637343</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>245.890355634</v>
+        <v>948.270976736</v>
       </c>
       <c r="C119" t="n">
-        <v>176.282005086</v>
+        <v>1087.85909797</v>
       </c>
       <c r="D119" t="n">
-        <v>-75.0569687233</v>
+        <v>499.451074252</v>
       </c>
       <c r="E119" t="n">
-        <v>245.890355634</v>
+        <v>948.270976736</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>279.210092894</v>
+        <v>773.656101285</v>
       </c>
       <c r="C120" t="n">
-        <v>199.463814295</v>
+        <v>886.660177349</v>
       </c>
       <c r="D120" t="n">
-        <v>-85.4026141738</v>
+        <v>414.271124169</v>
       </c>
       <c r="E120" t="n">
-        <v>279.210092894</v>
+        <v>773.656101285</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>305.048438132</v>
+        <v>395.917743617</v>
       </c>
       <c r="C121" t="n">
-        <v>216.022019365</v>
+        <v>453.284584209</v>
       </c>
       <c r="D121" t="n">
-        <v>-94.647891204</v>
+        <v>210.028906273</v>
       </c>
       <c r="E121" t="n">
-        <v>305.048438132</v>
+        <v>395.917743617</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>309.476332086</v>
+        <v>11.8012839976</v>
       </c>
       <c r="C122" t="n">
-        <v>218.461477336</v>
+        <v>9.39537069923</v>
       </c>
       <c r="D122" t="n">
-        <v>-96.5900985058</v>
+        <v>-3.54046682732</v>
       </c>
       <c r="E122" t="n">
-        <v>309.476332086</v>
+        <v>11.8012839976</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>289.014288949</v>
+        <v>225.702099183</v>
       </c>
       <c r="C123" t="n">
-        <v>204.548759371</v>
+        <v>-114.836179968</v>
       </c>
       <c r="D123" t="n">
-        <v>-89.97373990520001</v>
+        <v>-259.69464865</v>
       </c>
       <c r="E123" t="n">
-        <v>289.014288949</v>
+        <v>-225.702099183</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>252.907499831</v>
+        <v>307.098778957</v>
       </c>
       <c r="C124" t="n">
-        <v>178.472118657</v>
+        <v>-119.434391839</v>
       </c>
       <c r="D124" t="n">
-        <v>-79.6398347719</v>
+        <v>-348.447453294</v>
       </c>
       <c r="E124" t="n">
-        <v>252.907499831</v>
+        <v>-307.098778957</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>216.636267884</v>
+        <v>325.371068282</v>
       </c>
       <c r="C125" t="n">
-        <v>149.99856014</v>
+        <v>-100.69051993</v>
       </c>
       <c r="D125" t="n">
-        <v>-71.3384199242</v>
+        <v>-363.181181038</v>
       </c>
       <c r="E125" t="n">
-        <v>216.636267884</v>
+        <v>-325.371068282</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>188.800747808</v>
+        <v>304.595875135</v>
       </c>
       <c r="C126" t="n">
-        <v>126.105283026</v>
+        <v>-117.167888399</v>
       </c>
       <c r="D126" t="n">
-        <v>-66.75332563969999</v>
+        <v>-345.351021015</v>
       </c>
       <c r="E126" t="n">
-        <v>188.800747808</v>
+        <v>-304.595875135</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>167.915735998</v>
+        <v>208.36758875</v>
       </c>
       <c r="C127" t="n">
-        <v>105.474316562</v>
+        <v>-104.089640888</v>
       </c>
       <c r="D127" t="n">
-        <v>-65.61201054030001</v>
+        <v>-239.659033081</v>
       </c>
       <c r="E127" t="n">
-        <v>167.915735998</v>
+        <v>-208.36758875</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>147.350241866</v>
+        <v>19.0841151291</v>
       </c>
       <c r="C128" t="n">
-        <v>85.52290123900001</v>
+        <v>17.8208279095</v>
       </c>
       <c r="D128" t="n">
-        <v>-63.9722004434</v>
+        <v>-0.392051026613</v>
       </c>
       <c r="E128" t="n">
-        <v>147.350241866</v>
+        <v>19.0841151291</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>124.855315828</v>
+        <v>296.820502043</v>
       </c>
       <c r="C129" t="n">
-        <v>67.8266057996</v>
+        <v>337.388517009</v>
       </c>
       <c r="D129" t="n">
-        <v>-58.5858993339</v>
+        <v>163.536809634</v>
       </c>
       <c r="E129" t="n">
-        <v>124.855315828</v>
+        <v>296.820502043</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>112.224959209</v>
+        <v>477.101626942</v>
       </c>
       <c r="C130" t="n">
-        <v>64.2405720754</v>
+        <v>543.245171608</v>
       </c>
       <c r="D130" t="n">
-        <v>-50.5688913564</v>
+        <v>265.796191965</v>
       </c>
       <c r="E130" t="n">
-        <v>112.224959209</v>
+        <v>477.101626942</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>133.255564369</v>
+        <v>447.950457128</v>
       </c>
       <c r="C131" t="n">
-        <v>89.85915802940001</v>
+        <v>511.437961127</v>
       </c>
       <c r="D131" t="n">
-        <v>-47.6300981361</v>
+        <v>245.632571358</v>
       </c>
       <c r="E131" t="n">
-        <v>133.255564369</v>
+        <v>447.950457128</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>198.481738116</v>
+        <v>274.238795569</v>
       </c>
       <c r="C132" t="n">
-        <v>141.82674532</v>
+        <v>313.775073782</v>
       </c>
       <c r="D132" t="n">
-        <v>-61.7225122624</v>
+        <v>143.337424413</v>
       </c>
       <c r="E132" t="n">
-        <v>198.481738116</v>
+        <v>274.238795569</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>272.530084486</v>
+        <v>104.73188292</v>
       </c>
       <c r="C133" t="n">
-        <v>187.610523597</v>
+        <v>119.221745288</v>
       </c>
       <c r="D133" t="n">
-        <v>-89.67417232219999</v>
+        <v>50.504621392</v>
       </c>
       <c r="E133" t="n">
-        <v>272.530084486</v>
+        <v>104.73188292</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>305.300963377</v>
+        <v>41.5424035422</v>
       </c>
       <c r="C134" t="n">
-        <v>199.518421892</v>
+        <v>36.6694989655</v>
       </c>
       <c r="D134" t="n">
-        <v>-109.120235065</v>
+        <v>-0.09422855621530001</v>
       </c>
       <c r="E134" t="n">
-        <v>305.300963377</v>
+        <v>41.5424035422</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>273.970047481</v>
+        <v>77.57355279159999</v>
       </c>
       <c r="C135" t="n">
-        <v>178.977127145</v>
+        <v>36.5696763272</v>
       </c>
       <c r="D135" t="n">
-        <v>-98.42106712</v>
+        <v>-48.594393684</v>
       </c>
       <c r="E135" t="n">
-        <v>273.970047481</v>
+        <v>-77.57355279159999</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>205.905582754</v>
+        <v>117.201657834</v>
       </c>
       <c r="C136" t="n">
-        <v>144.522224694</v>
+        <v>7.37955527166</v>
       </c>
       <c r="D136" t="n">
-        <v>-66.2422318007</v>
+        <v>-112.875297382</v>
       </c>
       <c r="E136" t="n">
-        <v>205.905582754</v>
+        <v>-117.201657834</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>152.611767474</v>
+        <v>169.466441947</v>
       </c>
       <c r="C137" t="n">
-        <v>112.089599676</v>
+        <v>-53.4933337035</v>
       </c>
       <c r="D137" t="n">
-        <v>-45.5048925134</v>
+        <v>-189.424183968</v>
       </c>
       <c r="E137" t="n">
-        <v>152.611767474</v>
+        <v>-169.466441947</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>136.175783254</v>
+        <v>185.572431233</v>
       </c>
       <c r="C138" t="n">
-        <v>86.7759973511</v>
+        <v>-82.08714556290001</v>
       </c>
       <c r="D138" t="n">
-        <v>-53.0100322196</v>
+        <v>-212.286943688</v>
       </c>
       <c r="E138" t="n">
-        <v>136.175783254</v>
+        <v>-185.572431233</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>142.013775016</v>
+        <v>115.936874509</v>
       </c>
       <c r="C139" t="n">
-        <v>70.2497398303</v>
+        <v>-38.7238822053</v>
       </c>
       <c r="D139" t="n">
-        <v>-71.17370316109999</v>
+        <v>-130.116213873</v>
       </c>
       <c r="E139" t="n">
-        <v>-142.013775016</v>
+        <v>-115.936874509</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>128.671987178</v>
+        <v>73.0812340178</v>
       </c>
       <c r="C140" t="n">
-        <v>54.5890298197</v>
+        <v>59.5665588079</v>
       </c>
       <c r="D140" t="n">
-        <v>-71.1689467384</v>
+        <v>-5.6241147294</v>
       </c>
       <c r="E140" t="n">
-        <v>-128.671987178</v>
+        <v>73.0812340178</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>89.2721379812</v>
+        <v>150.121881301</v>
       </c>
       <c r="C141" t="n">
-        <v>37.1095489252</v>
+        <v>162.934980238</v>
       </c>
       <c r="D141" t="n">
-        <v>-51.1376992835</v>
+        <v>77.3784641961</v>
       </c>
       <c r="E141" t="n">
-        <v>-89.2721379812</v>
+        <v>150.121881301</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>62.2684256797</v>
+        <v>229.62439588</v>
       </c>
       <c r="C142" t="n">
-        <v>31.3451492176</v>
+        <v>262.382645678</v>
       </c>
       <c r="D142" t="n">
-        <v>-33.1610284142</v>
+        <v>120.358257449</v>
       </c>
       <c r="E142" t="n">
-        <v>-62.2684256797</v>
+        <v>229.62439588</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>85.0743252342</v>
+        <v>360.271067454</v>
       </c>
       <c r="C143" t="n">
-        <v>51.641135093</v>
+        <v>412.876755353</v>
       </c>
       <c r="D143" t="n">
-        <v>-36.9860120577</v>
+        <v>173.91425041</v>
       </c>
       <c r="E143" t="n">
-        <v>85.0743252342</v>
+        <v>360.271067454</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>157.018182385</v>
+        <v>525.753501817</v>
       </c>
       <c r="C144" t="n">
-        <v>99.5615299058</v>
+        <v>603.090632253</v>
       </c>
       <c r="D144" t="n">
-        <v>-60.8667525817</v>
+        <v>268.2271762</v>
       </c>
       <c r="E144" t="n">
-        <v>157.018182385</v>
+        <v>525.753501817</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>234.974141233</v>
+        <v>630.263735106</v>
       </c>
       <c r="C145" t="n">
-        <v>151.661962008</v>
+        <v>721.870855095</v>
       </c>
       <c r="D145" t="n">
-        <v>-86.5685097776</v>
+        <v>338.832774456</v>
       </c>
       <c r="E145" t="n">
-        <v>234.974141233</v>
+        <v>630.263735106</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>277.123158733</v>
+        <v>564.802497198</v>
       </c>
       <c r="C146" t="n">
-        <v>183.901285665</v>
+        <v>645.877717691</v>
       </c>
       <c r="D146" t="n">
-        <v>-97.06053938700001</v>
+        <v>308.057640018</v>
       </c>
       <c r="E146" t="n">
-        <v>277.123158733</v>
+        <v>564.802497198</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>275.821538022</v>
+        <v>330.464213917</v>
       </c>
       <c r="C147" t="n">
-        <v>191.778637586</v>
+        <v>377.671633493</v>
       </c>
       <c r="D147" t="n">
-        <v>-89.05686532</v>
+        <v>177.46444309</v>
       </c>
       <c r="E147" t="n">
-        <v>275.821538022</v>
+        <v>330.464213917</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>250.562872943</v>
+        <v>61.6578611512</v>
       </c>
       <c r="C148" t="n">
-        <v>180.014102542</v>
+        <v>68.9602920775</v>
       </c>
       <c r="D148" t="n">
-        <v>-76.0740010027</v>
+        <v>28.5396738883</v>
       </c>
       <c r="E148" t="n">
-        <v>250.562872943</v>
+        <v>61.6578611512</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>231.297727341</v>
+        <v>115.072968498</v>
       </c>
       <c r="C149" t="n">
-        <v>166.239288973</v>
+        <v>-50.6549317291</v>
       </c>
       <c r="D149" t="n">
-        <v>-70.46048808</v>
+        <v>-131.60902722</v>
       </c>
       <c r="E149" t="n">
-        <v>231.297727341</v>
+        <v>-115.072968498</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>229.433991191</v>
+        <v>141.775182391</v>
       </c>
       <c r="C150" t="n">
-        <v>160.830984534</v>
+        <v>-48.0983687976</v>
       </c>
       <c r="D150" t="n">
-        <v>-73.5552509259</v>
+        <v>-159.310393002</v>
       </c>
       <c r="E150" t="n">
-        <v>229.433991191</v>
+        <v>-141.775182391</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>229.922201588</v>
+        <v>52.4317846216</v>
       </c>
       <c r="C151" t="n">
-        <v>153.344126928</v>
+        <v>14.0166425757</v>
       </c>
       <c r="D151" t="n">
-        <v>-80.57422611200001</v>
+        <v>-43.2835701951</v>
       </c>
       <c r="E151" t="n">
-        <v>229.922201588</v>
+        <v>-52.4317846216</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>215.169032575</v>
+        <v>168.63361305</v>
       </c>
       <c r="C152" t="n">
-        <v>137.855882585</v>
+        <v>192.013689656</v>
       </c>
       <c r="D152" t="n">
-        <v>-80.5272307446</v>
+        <v>88.5070781908</v>
       </c>
       <c r="E152" t="n">
-        <v>215.169032575</v>
+        <v>168.63361305</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>185.880600018</v>
+        <v>394.201074124</v>
       </c>
       <c r="C153" t="n">
-        <v>120.740815698</v>
+        <v>451.848325176</v>
       </c>
       <c r="D153" t="n">
-        <v>-68.7481911174</v>
+        <v>203.465394959</v>
       </c>
       <c r="E153" t="n">
-        <v>185.880600018</v>
+        <v>394.201074124</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>164.098472382</v>
+        <v>579.524064197</v>
       </c>
       <c r="C154" t="n">
-        <v>112.297007205</v>
+        <v>664.399206528</v>
       </c>
       <c r="D154" t="n">
-        <v>-56.2046280719</v>
+        <v>305.096766152</v>
       </c>
       <c r="E154" t="n">
-        <v>164.098472382</v>
+        <v>579.524064197</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>169.176917702</v>
+        <v>638.028184879</v>
       </c>
       <c r="C155" t="n">
-        <v>117.388335526</v>
+        <v>731.079135586</v>
       </c>
       <c r="D155" t="n">
-        <v>-56.3530773649</v>
+        <v>340.821406847</v>
       </c>
       <c r="E155" t="n">
-        <v>169.176917702</v>
+        <v>638.028184879</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>197.929664248</v>
+        <v>532.035178319</v>
       </c>
       <c r="C156" t="n">
-        <v>132.04009996</v>
+        <v>609.431197883</v>
       </c>
       <c r="D156" t="n">
-        <v>-69.9233380946</v>
+        <v>283.889806931</v>
       </c>
       <c r="E156" t="n">
-        <v>197.929664248</v>
+        <v>532.035178319</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>225.087226203</v>
+        <v>328.371457428</v>
       </c>
       <c r="C157" t="n">
-        <v>145.263163269</v>
+        <v>376.103520701</v>
       </c>
       <c r="D157" t="n">
-        <v>-83.1355087287</v>
+        <v>170.645506098</v>
       </c>
       <c r="E157" t="n">
-        <v>225.087226203</v>
+        <v>328.371457428</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>229.010382474</v>
+        <v>148.539569372</v>
       </c>
       <c r="C158" t="n">
-        <v>149.437920779</v>
+        <v>169.686510496</v>
       </c>
       <c r="D158" t="n">
-        <v>-83.1047842041</v>
+        <v>72.80983425309999</v>
       </c>
       <c r="E158" t="n">
-        <v>229.010382474</v>
+        <v>148.539569372</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>215.399041653</v>
+        <v>60.9165545503</v>
       </c>
       <c r="C159" t="n">
-        <v>147.91669853</v>
+        <v>65.2798673891</v>
       </c>
       <c r="D159" t="n">
-        <v>-72.03292988050001</v>
+        <v>26.3965914604</v>
       </c>
       <c r="E159" t="n">
-        <v>215.399041653</v>
+        <v>60.9165545503</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>202.869178005</v>
+        <v>73.4676612502</v>
       </c>
       <c r="C160" t="n">
-        <v>143.360301973</v>
+        <v>50.1549902542</v>
       </c>
       <c r="D160" t="n">
-        <v>-64.44594792469999</v>
+        <v>-23.0150785624</v>
       </c>
       <c r="E160" t="n">
-        <v>202.869178005</v>
+        <v>73.4676612502</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>205.743945638</v>
+        <v>108.409115128</v>
       </c>
       <c r="C161" t="n">
-        <v>142.2066067</v>
+        <v>16.5703450897</v>
       </c>
       <c r="D161" t="n">
-        <v>-68.1709459289</v>
+        <v>-98.56133242929999</v>
       </c>
       <c r="E161" t="n">
-        <v>205.743945638</v>
+        <v>-108.409115128</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>223.218967637</v>
+        <v>153.850111289</v>
       </c>
       <c r="C162" t="n">
-        <v>151.536890911</v>
+        <v>-48.5697835037</v>
       </c>
       <c r="D162" t="n">
-        <v>-76.0376068405</v>
+        <v>-171.966696047</v>
       </c>
       <c r="E162" t="n">
-        <v>223.218967637</v>
+        <v>-153.850111289</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>238.514083174</v>
+        <v>141.089738538</v>
       </c>
       <c r="C163" t="n">
-        <v>161.779460896</v>
+        <v>-68.84796953190001</v>
       </c>
       <c r="D163" t="n">
-        <v>-81.0791343776</v>
+        <v>-162.202121009</v>
       </c>
       <c r="E163" t="n">
-        <v>238.514083174</v>
+        <v>-141.089738538</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>238.041558022</v>
+        <v>22.8826587103</v>
       </c>
       <c r="C164" t="n">
-        <v>161.091898708</v>
+        <v>12.095277092</v>
       </c>
       <c r="D164" t="n">
-        <v>-81.25969900370001</v>
+        <v>-12.9031378269</v>
       </c>
       <c r="E164" t="n">
-        <v>238.041558022</v>
+        <v>-22.8826587103</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>222.230309308</v>
+        <v>222.528730562</v>
       </c>
       <c r="C165" t="n">
-        <v>150.385828862</v>
+        <v>251.813046023</v>
       </c>
       <c r="D165" t="n">
-        <v>-76.1294202365</v>
+        <v>122.04146747</v>
       </c>
       <c r="E165" t="n">
-        <v>222.230309308</v>
+        <v>222.528730562</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>199.954342052</v>
+        <v>389.450253232</v>
       </c>
       <c r="C166" t="n">
-        <v>134.576957261</v>
+        <v>443.515764341</v>
       </c>
       <c r="D166" t="n">
-        <v>-69.559030538</v>
+        <v>215.442002159</v>
       </c>
       <c r="E166" t="n">
-        <v>199.954342052</v>
+        <v>389.450253232</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>180.558086647</v>
+        <v>431.07496149</v>
       </c>
       <c r="C167" t="n">
-        <v>119.198814715</v>
+        <v>493.085727506</v>
       </c>
       <c r="D167" t="n">
-        <v>-65.2563855631</v>
+        <v>232.297835238</v>
       </c>
       <c r="E167" t="n">
-        <v>180.558086647</v>
+        <v>431.07496149</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>170.807427029</v>
+        <v>388.067251923</v>
       </c>
       <c r="C168" t="n">
-        <v>110.73851628</v>
+        <v>444.90228888</v>
       </c>
       <c r="D168" t="n">
-        <v>-63.7189290523</v>
+        <v>198.149781746</v>
       </c>
       <c r="E168" t="n">
-        <v>170.807427029</v>
+        <v>388.067251923</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>173.253165243</v>
+        <v>332.511160382</v>
       </c>
       <c r="C169" t="n">
-        <v>112.904373604</v>
+        <v>381.095157316</v>
       </c>
       <c r="D169" t="n">
-        <v>-64.0733636903</v>
+        <v>168.897718378</v>
       </c>
       <c r="E169" t="n">
-        <v>173.253165243</v>
+        <v>332.511160382</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>187.062855438</v>
+        <v>278.335009134</v>
       </c>
       <c r="C170" t="n">
-        <v>124.77086859</v>
+        <v>317.144289654</v>
       </c>
       <c r="D170" t="n">
-        <v>-66.3337531503</v>
+        <v>151.247941471</v>
       </c>
       <c r="E170" t="n">
-        <v>187.062855438</v>
+        <v>278.335009134</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>205.838033547</v>
+        <v>193.469126368</v>
       </c>
       <c r="C171" t="n">
-        <v>138.250290537</v>
+        <v>214.999017922</v>
       </c>
       <c r="D171" t="n">
-        <v>-71.7305108331</v>
+        <v>105.569488554</v>
       </c>
       <c r="E171" t="n">
-        <v>205.838033547</v>
+        <v>193.469126368</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>221.190163325</v>
+        <v>72.117338541</v>
       </c>
       <c r="C172" t="n">
-        <v>148.163705786</v>
+        <v>71.7098941684</v>
       </c>
       <c r="D172" t="n">
-        <v>-77.1216579858</v>
+        <v>17.3243005707</v>
       </c>
       <c r="E172" t="n">
-        <v>221.190163325</v>
+        <v>72.117338541</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>228.718757658</v>
+        <v>64.8371461035</v>
       </c>
       <c r="C173" t="n">
-        <v>155.042114469</v>
+        <v>-21.2263398107</v>
       </c>
       <c r="D173" t="n">
-        <v>-78.00490355300001</v>
+        <v>-72.6096077457</v>
       </c>
       <c r="E173" t="n">
-        <v>228.718757658</v>
+        <v>-64.8371461035</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>227.607889196</v>
+        <v>34.8593002027</v>
       </c>
       <c r="C174" t="n">
-        <v>156.33676732</v>
+        <v>-14.4455368453</v>
       </c>
       <c r="D174" t="n">
-        <v>-75.8492612765</v>
+        <v>-39.5367987739</v>
       </c>
       <c r="E174" t="n">
-        <v>227.607889196</v>
+        <v>-34.8593002027</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>223.905978886</v>
+        <v>120.045980925</v>
       </c>
       <c r="C175" t="n">
-        <v>154.782357432</v>
+        <v>134.237596531</v>
       </c>
       <c r="D175" t="n">
-        <v>-73.8149473858</v>
+        <v>63.1500185372</v>
       </c>
       <c r="E175" t="n">
-        <v>223.905978886</v>
+        <v>120.045980925</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>223.566667671</v>
+        <v>257.26040961</v>
       </c>
       <c r="C176" t="n">
-        <v>154.765126417</v>
+        <v>287.694435163</v>
       </c>
       <c r="D176" t="n">
-        <v>-73.51112948860001</v>
+        <v>143.025244825</v>
       </c>
       <c r="E176" t="n">
-        <v>223.566667671</v>
+        <v>257.26040961</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>224.969396561</v>
+        <v>255.738890941</v>
       </c>
       <c r="C177" t="n">
-        <v>153.951541609</v>
+        <v>284.814477901</v>
       </c>
       <c r="D177" t="n">
-        <v>-75.52165449410001</v>
+        <v>141.786945568</v>
       </c>
       <c r="E177" t="n">
-        <v>224.969396561</v>
+        <v>255.738890941</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>219.398933709</v>
+        <v>129.6470706</v>
       </c>
       <c r="C178" t="n">
-        <v>145.923796295</v>
+        <v>144.826741768</v>
       </c>
       <c r="D178" t="n">
-        <v>-77.4268568099</v>
+        <v>68.74893624729999</v>
       </c>
       <c r="E178" t="n">
-        <v>219.398933709</v>
+        <v>129.6470706</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>200.38258729</v>
+        <v>29.7990333496</v>
       </c>
       <c r="C179" t="n">
-        <v>128.966310607</v>
+        <v>32.4880511816</v>
       </c>
       <c r="D179" t="n">
-        <v>-74.79300295909999</v>
+        <v>7.7742945596</v>
       </c>
       <c r="E179" t="n">
-        <v>200.38258729</v>
+        <v>29.7990333496</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>174.696080346</v>
+        <v>53.952527501</v>
       </c>
       <c r="C180" t="n">
-        <v>112.500514738</v>
+        <v>59.64037555</v>
       </c>
       <c r="D180" t="n">
-        <v>-65.7288364538</v>
+        <v>24.2513943206</v>
       </c>
       <c r="E180" t="n">
-        <v>174.696080346</v>
+        <v>53.952527501</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>158.233170062</v>
+        <v>161.25983949</v>
       </c>
       <c r="C181" t="n">
-        <v>105.240203306</v>
+        <v>177.544578952</v>
       </c>
       <c r="D181" t="n">
-        <v>-57.0377125214</v>
+        <v>86.0596904976</v>
       </c>
       <c r="E181" t="n">
-        <v>158.233170062</v>
+        <v>161.25983949</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>158.834551309</v>
+        <v>224.334272754</v>
       </c>
       <c r="C182" t="n">
-        <v>103.829787244</v>
+        <v>249.841890486</v>
       </c>
       <c r="D182" t="n">
-        <v>-58.8203261402</v>
+        <v>123.601262569</v>
       </c>
       <c r="E182" t="n">
-        <v>158.834551309</v>
+        <v>224.334272754</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>165.089086338</v>
+        <v>209.381567034</v>
       </c>
       <c r="C183" t="n">
-        <v>98.62534379580001</v>
+        <v>237.867113747</v>
       </c>
       <c r="D183" t="n">
-        <v>-68.8119084417</v>
+        <v>113.243883885</v>
       </c>
       <c r="E183" t="n">
-        <v>165.089086338</v>
+        <v>209.381567034</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>157.481105777</v>
+        <v>201.518462293</v>
       </c>
       <c r="C184" t="n">
-        <v>85.6954973606</v>
+        <v>230.62897905</v>
       </c>
       <c r="D184" t="n">
-        <v>-72.5505751992</v>
+        <v>98.6605274061</v>
       </c>
       <c r="E184" t="n">
-        <v>157.481105777</v>
+        <v>201.518462293</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>131.814408781</v>
+        <v>260.111197101</v>
       </c>
       <c r="C185" t="n">
-        <v>72.3757776695</v>
+        <v>297.894966229</v>
       </c>
       <c r="D185" t="n">
-        <v>-61.0063746673</v>
+        <v>131.726514476</v>
       </c>
       <c r="E185" t="n">
-        <v>131.814408781</v>
+        <v>260.111197101</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>110.767386594</v>
+        <v>357.28289936</v>
       </c>
       <c r="C186" t="n">
-        <v>68.34247226959999</v>
+        <v>408.336434728</v>
       </c>
       <c r="D186" t="n">
-        <v>-45.8833847689</v>
+        <v>192.523000991</v>
       </c>
       <c r="E186" t="n">
-        <v>110.767386594</v>
+        <v>357.28289936</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>121.614715154</v>
+        <v>402.550032356</v>
       </c>
       <c r="C187" t="n">
-        <v>79.45690970290001</v>
+        <v>459.528604014</v>
       </c>
       <c r="D187" t="n">
-        <v>-46.1202124087</v>
+        <v>220.090455686</v>
       </c>
       <c r="E187" t="n">
-        <v>121.614715154</v>
+        <v>402.550032356</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>161.428677902</v>
+        <v>350.116777358</v>
       </c>
       <c r="C188" t="n">
-        <v>101.476809577</v>
+        <v>400.102050201</v>
       </c>
       <c r="D188" t="n">
-        <v>-63.1877872539</v>
+        <v>188.69203511</v>
       </c>
       <c r="E188" t="n">
-        <v>161.428677902</v>
+        <v>350.116777358</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>200.963180324</v>
+        <v>259.233311478</v>
       </c>
       <c r="C189" t="n">
-        <v>123.095392291</v>
+        <v>296.777803544</v>
       </c>
       <c r="D189" t="n">
-        <v>-80.2422131403</v>
+        <v>132.968378973</v>
       </c>
       <c r="E189" t="n">
-        <v>200.963180324</v>
+        <v>259.233311478</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>220.70285358</v>
+        <v>233.891167901</v>
       </c>
       <c r="C190" t="n">
-        <v>143.417339072</v>
+        <v>267.799685474</v>
       </c>
       <c r="D190" t="n">
-        <v>-80.7736434702</v>
+        <v>113.113833483</v>
       </c>
       <c r="E190" t="n">
-        <v>220.70285358</v>
+        <v>233.891167901</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>228.48653622</v>
+        <v>302.113250689</v>
       </c>
       <c r="C191" t="n">
-        <v>162.200234633</v>
+        <v>346.129520498</v>
       </c>
       <c r="D191" t="n">
-        <v>-71.446009918</v>
+        <v>154.12209976</v>
       </c>
       <c r="E191" t="n">
-        <v>228.48653622</v>
+        <v>302.113250689</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>240.61539591</v>
+        <v>385.398877192</v>
       </c>
       <c r="C192" t="n">
-        <v>175.140690875</v>
+        <v>440.160014619</v>
       </c>
       <c r="D192" t="n">
-        <v>-71.1436516821</v>
+        <v>209.643704823</v>
       </c>
       <c r="E192" t="n">
-        <v>240.61539591</v>
+        <v>385.398877192</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>258.421388003</v>
+        <v>392.719433892</v>
       </c>
       <c r="C193" t="n">
-        <v>181.102918553</v>
+        <v>447.81189068</v>
       </c>
       <c r="D193" t="n">
-        <v>-82.4221201995</v>
+        <v>215.904385247</v>
       </c>
       <c r="E193" t="n">
-        <v>258.421388003</v>
+        <v>392.719433892</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>264.395141611</v>
+        <v>329.097461973</v>
       </c>
       <c r="C194" t="n">
-        <v>176.698003403</v>
+        <v>376.898311737</v>
       </c>
       <c r="D194" t="n">
-        <v>-91.7216889047</v>
+        <v>171.460154111</v>
       </c>
       <c r="E194" t="n">
-        <v>264.395141611</v>
+        <v>329.097461973</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>242.967942986</v>
+        <v>291.531038849</v>
       </c>
       <c r="C195" t="n">
-        <v>160.750952602</v>
+        <v>333.846615749</v>
       </c>
       <c r="D195" t="n">
-        <v>-86.03435326819999</v>
+        <v>138.239660884</v>
       </c>
       <c r="E195" t="n">
-        <v>242.967942986</v>
+        <v>291.531038849</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>204.327106659</v>
+        <v>332.883018493</v>
       </c>
       <c r="C196" t="n">
-        <v>140.290697729</v>
+        <v>381.557137923</v>
       </c>
       <c r="D196" t="n">
-        <v>-68.5485406084</v>
+        <v>167.314315813</v>
       </c>
       <c r="E196" t="n">
-        <v>204.327106659</v>
+        <v>332.883018493</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>177.277205415</v>
+        <v>412.185484193</v>
       </c>
       <c r="C197" t="n">
-        <v>125.383681911</v>
+        <v>471.447162073</v>
       </c>
       <c r="D197" t="n">
-        <v>-56.7153025738</v>
+        <v>221.872873327</v>
       </c>
       <c r="E197" t="n">
-        <v>177.277205415</v>
+        <v>412.185484193</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>177.085180841</v>
+        <v>433.145682984</v>
       </c>
       <c r="C198" t="n">
-        <v>120.706287575</v>
+        <v>494.939327925</v>
       </c>
       <c r="D198" t="n">
-        <v>-60.740691906</v>
+        <v>235.751661511</v>
       </c>
       <c r="E198" t="n">
-        <v>177.085180841</v>
+        <v>433.145682984</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>195.070880788</v>
+        <v>363.845879576</v>
       </c>
       <c r="C199" t="n">
-        <v>125.516234251</v>
+        <v>416.456426364</v>
       </c>
       <c r="D199" t="n">
-        <v>-72.9571583779</v>
+        <v>192.896906717</v>
       </c>
       <c r="E199" t="n">
-        <v>195.070880788</v>
+        <v>363.845879576</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>209.831519741</v>
+        <v>269.226752998</v>
       </c>
       <c r="C200" t="n">
-        <v>134.608334265</v>
+        <v>308.373427578</v>
       </c>
       <c r="D200" t="n">
-        <v>-78.49105562699999</v>
+        <v>136.341729108</v>
       </c>
       <c r="E200" t="n">
-        <v>209.831519741</v>
+        <v>269.226752998</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>209.917606031</v>
+        <v>218.041969241</v>
       </c>
       <c r="C201" t="n">
-        <v>139.880359932</v>
+        <v>249.365567881</v>
       </c>
       <c r="D201" t="n">
-        <v>-74.0312323766</v>
+        <v>112.147127333</v>
       </c>
       <c r="E201" t="n">
-        <v>209.917606031</v>
+        <v>218.041969241</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>205.511831914</v>
+        <v>217.975523505</v>
       </c>
       <c r="C202" t="n">
-        <v>142.161184614</v>
+        <v>247.792774196</v>
       </c>
       <c r="D202" t="n">
-        <v>-67.99306420790001</v>
+        <v>117.907555683</v>
       </c>
       <c r="E202" t="n">
-        <v>205.511831914</v>
+        <v>217.975523505</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>209.575371786</v>
+        <v>216.446452345</v>
       </c>
       <c r="C203" t="n">
-        <v>146.174803235</v>
+        <v>244.292868094</v>
       </c>
       <c r="D203" t="n">
-        <v>-68.1818214166</v>
+        <v>118.970732431</v>
       </c>
       <c r="E203" t="n">
-        <v>209.575371786</v>
+        <v>216.446452345</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>217.652204535</v>
+        <v>169.110494412</v>
       </c>
       <c r="C204" t="n">
-        <v>146.266819191</v>
+        <v>188.769435983</v>
       </c>
       <c r="D204" t="n">
-        <v>-75.53346246860001</v>
+        <v>91.71324378120001</v>
       </c>
       <c r="E204" t="n">
-        <v>217.652204535</v>
+        <v>169.110494412</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>214.441925229</v>
+        <v>99.2144620453</v>
       </c>
       <c r="C205" t="n">
-        <v>136.948484848</v>
+        <v>108.913239257</v>
       </c>
       <c r="D205" t="n">
-        <v>-80.6408027925</v>
+        <v>50.2831142857</v>
       </c>
       <c r="E205" t="n">
-        <v>214.441925229</v>
+        <v>99.2144620453</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>192.475571815</v>
+        <v>73.482763639</v>
       </c>
       <c r="C206" t="n">
-        <v>121.831358045</v>
+        <v>82.0975963074</v>
       </c>
       <c r="D206" t="n">
-        <v>-73.75502234130001</v>
+        <v>35.7187166859</v>
       </c>
       <c r="E206" t="n">
-        <v>192.475571815</v>
+        <v>73.482763639</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>165.116526765</v>
+        <v>136.147115527</v>
       </c>
       <c r="C207" t="n">
-        <v>109.04777484</v>
+        <v>154.752023173</v>
       </c>
       <c r="D207" t="n">
-        <v>-60.01079574</v>
+        <v>70.3780276041</v>
       </c>
       <c r="E207" t="n">
-        <v>165.116526765</v>
+        <v>136.147115527</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>154.788866358</v>
+        <v>252.538831032</v>
       </c>
       <c r="C208" t="n">
-        <v>105.293371053</v>
+        <v>287.615834868</v>
       </c>
       <c r="D208" t="n">
-        <v>-53.8126241646</v>
+        <v>136.783009306</v>
       </c>
       <c r="E208" t="n">
-        <v>154.788866358</v>
+        <v>252.538831032</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>167.584615241</v>
+        <v>351.27269479</v>
       </c>
       <c r="C209" t="n">
-        <v>109.601796041</v>
+        <v>401.030135092</v>
       </c>
       <c r="D209" t="n">
-        <v>-61.7724070684</v>
+        <v>190.831775929</v>
       </c>
       <c r="E209" t="n">
-        <v>167.584615241</v>
+        <v>351.27269479</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>187.25935428</v>
+        <v>393.101201599</v>
       </c>
       <c r="C210" t="n">
-        <v>115.707294793</v>
+        <v>450.092182101</v>
       </c>
       <c r="D210" t="n">
-        <v>-74.255871941</v>
+        <v>208.234641031</v>
       </c>
       <c r="E210" t="n">
-        <v>187.25935428</v>
+        <v>393.101201599</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>192.478023862</v>
+        <v>389.768416769</v>
       </c>
       <c r="C211" t="n">
-        <v>118.569282172</v>
+        <v>446.739053506</v>
       </c>
       <c r="D211" t="n">
-        <v>-76.4932974644</v>
+        <v>201.486402312</v>
       </c>
       <c r="E211" t="n">
-        <v>192.478023862</v>
+        <v>389.768416769</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>181.702463138</v>
+        <v>367.382529138</v>
       </c>
       <c r="C212" t="n">
-        <v>117.934239995</v>
+        <v>420.881232369</v>
       </c>
       <c r="D212" t="n">
-        <v>-67.3873518006</v>
+        <v>191.620895751</v>
       </c>
       <c r="E212" t="n">
-        <v>181.702463138</v>
+        <v>367.382529138</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>172.346975587</v>
+        <v>334.695797446</v>
       </c>
       <c r="C213" t="n">
-        <v>117.298446076</v>
+        <v>382.784531124</v>
       </c>
       <c r="D213" t="n">
-        <v>-59.3827826952</v>
+        <v>178.446070697</v>
       </c>
       <c r="E213" t="n">
-        <v>172.346975587</v>
+        <v>334.695797446</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>177.697959383</v>
+        <v>279.87888365</v>
       </c>
       <c r="C214" t="n">
-        <v>119.628169379</v>
+        <v>319.267963089</v>
       </c>
       <c r="D214" t="n">
-        <v>-62.2567647032</v>
+        <v>151.120549399</v>
       </c>
       <c r="E214" t="n">
-        <v>177.697959383</v>
+        <v>279.87888365</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>192.959872132</v>
+        <v>196.757105989</v>
       </c>
       <c r="C215" t="n">
-        <v>124.469822541</v>
+        <v>222.832913633</v>
       </c>
       <c r="D215" t="n">
-        <v>-71.950664297</v>
+        <v>106.879904834</v>
       </c>
       <c r="E215" t="n">
-        <v>192.959872132</v>
+        <v>196.757105989</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>202.610916872</v>
+        <v>103.773407936</v>
       </c>
       <c r="C216" t="n">
-        <v>129.074750942</v>
+        <v>112.770662036</v>
       </c>
       <c r="D216" t="n">
-        <v>-76.7027297652</v>
+        <v>51.8285942969</v>
       </c>
       <c r="E216" t="n">
-        <v>202.610916872</v>
+        <v>103.773407936</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>198.438410119</v>
+        <v>48.0146666864</v>
       </c>
       <c r="C217" t="n">
-        <v>129.655434174</v>
+        <v>36.7128544594</v>
       </c>
       <c r="D217" t="n">
-        <v>-72.44843088499999</v>
+        <v>-8.967346377989999</v>
       </c>
       <c r="E217" t="n">
-        <v>198.438410119</v>
+        <v>48.0146666864</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>187.871213112</v>
+        <v>43.993940502</v>
       </c>
       <c r="C218" t="n">
-        <v>126.254435741</v>
+        <v>13.4902533977</v>
       </c>
       <c r="D218" t="n">
-        <v>-65.775493607</v>
+        <v>-34.8711422437</v>
       </c>
       <c r="E218" t="n">
-        <v>187.871213112</v>
+        <v>-43.993940502</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>183.6436961</v>
+        <v>45.2454814416</v>
       </c>
       <c r="C219" t="n">
-        <v>123.744408912</v>
+        <v>43.3565674975</v>
       </c>
       <c r="D219" t="n">
-        <v>-64.1007727241</v>
+        <v>6.14633018684</v>
       </c>
       <c r="E219" t="n">
-        <v>183.6436961</v>
+        <v>45.2454814416</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>190.073440398</v>
+        <v>128.287941352</v>
       </c>
       <c r="C220" t="n">
-        <v>126.002035717</v>
+        <v>142.97242253</v>
       </c>
       <c r="D220" t="n">
-        <v>-68.01239807419999</v>
+        <v>67.9054763199</v>
       </c>
       <c r="E220" t="n">
-        <v>190.073440398</v>
+        <v>128.287941352</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>201.464787306</v>
+        <v>223.749179888</v>
       </c>
       <c r="C221" t="n">
-        <v>132.72322148</v>
+        <v>253.359263034</v>
       </c>
       <c r="D221" t="n">
-        <v>-72.5500155612</v>
+        <v>122.624422082</v>
       </c>
       <c r="E221" t="n">
-        <v>201.464787306</v>
+        <v>223.749179888</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>209.301665001</v>
+        <v>275.589038198</v>
       </c>
       <c r="C222" t="n">
-        <v>139.158120563</v>
+        <v>313.576426978</v>
       </c>
       <c r="D222" t="n">
-        <v>-74.1020078887</v>
+        <v>150.677695648</v>
       </c>
       <c r="E222" t="n">
-        <v>209.301665001</v>
+        <v>275.589038198</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>211.021080554</v>
+        <v>272.841579871</v>
       </c>
       <c r="C223" t="n">
-        <v>142.136452119</v>
+        <v>311.267133326</v>
       </c>
       <c r="D223" t="n">
-        <v>-73.0813916142</v>
+        <v>147.006583742</v>
       </c>
       <c r="E223" t="n">
-        <v>211.021080554</v>
+        <v>272.841579871</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>210.381939293</v>
+        <v>236.545834862</v>
       </c>
       <c r="C224" t="n">
-        <v>143.103071814</v>
+        <v>269.793105648</v>
       </c>
       <c r="D224" t="n">
-        <v>-71.6491187357</v>
+        <v>126.473933087</v>
       </c>
       <c r="E224" t="n">
-        <v>210.381939293</v>
+        <v>236.545834862</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>210.955754989</v>
+        <v>191.530672536</v>
       </c>
       <c r="C225" t="n">
-        <v>143.542338031</v>
+        <v>217.286501934</v>
       </c>
       <c r="D225" t="n">
-        <v>-71.789016758</v>
+        <v>103.362453627</v>
       </c>
       <c r="E225" t="n">
-        <v>210.955754989</v>
+        <v>191.530672536</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>211.514967368</v>
+        <v>143.417783221</v>
       </c>
       <c r="C226" t="n">
-        <v>142.245706753</v>
+        <v>159.554113218</v>
       </c>
       <c r="D226" t="n">
-        <v>-73.437268695</v>
+        <v>76.6483706448</v>
       </c>
       <c r="E226" t="n">
-        <v>211.514967368</v>
+        <v>143.417783221</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>207.373440108</v>
+        <v>89.32039201809999</v>
       </c>
       <c r="C227" t="n">
-        <v>137.062860949</v>
+        <v>93.7063430897</v>
       </c>
       <c r="D227" t="n">
-        <v>-74.1627614728</v>
+        <v>34.7847061701</v>
       </c>
       <c r="E227" t="n">
-        <v>207.373440108</v>
+        <v>89.32039201809999</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>197.590645635</v>
+        <v>52.7199916092</v>
       </c>
       <c r="C228" t="n">
-        <v>129.88233439</v>
+        <v>35.0912757942</v>
       </c>
       <c r="D228" t="n">
-        <v>-71.4882709968</v>
+        <v>-18.4043660726</v>
       </c>
       <c r="E228" t="n">
-        <v>197.590645635</v>
+        <v>52.7199916092</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>189.506194102</v>
+        <v>47.7923495862</v>
       </c>
       <c r="C229" t="n">
-        <v>127.17718674</v>
+        <v>8.115012571539999</v>
       </c>
       <c r="D229" t="n">
-        <v>-66.4695656274</v>
+        <v>-42.7892835341</v>
       </c>
       <c r="E229" t="n">
-        <v>189.506194102</v>
+        <v>-47.7923495862</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>191.446922598</v>
+        <v>38.3232616551</v>
       </c>
       <c r="C230" t="n">
-        <v>130.879733584</v>
+        <v>33.1707111576</v>
       </c>
       <c r="D230" t="n">
-        <v>-64.9873973931</v>
+        <v>-1.46174473184</v>
       </c>
       <c r="E230" t="n">
-        <v>191.446922598</v>
+        <v>38.3232616551</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>202.789833032</v>
+        <v>125.279174172</v>
       </c>
       <c r="C231" t="n">
-        <v>136.790684933</v>
+        <v>139.835926054</v>
       </c>
       <c r="D231" t="n">
-        <v>-70.2188587325</v>
+        <v>66.17158766350001</v>
       </c>
       <c r="E231" t="n">
-        <v>202.789833032</v>
+        <v>125.279174172</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>213.947949739</v>
+        <v>245.467709009</v>
       </c>
       <c r="C232" t="n">
-        <v>141.011510376</v>
+        <v>279.203928192</v>
       </c>
       <c r="D232" t="n">
-        <v>-76.7225286953</v>
+        <v>133.517592083</v>
       </c>
       <c r="E232" t="n">
-        <v>213.947949739</v>
+        <v>245.467709009</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>214.569418714</v>
+        <v>340.468577889</v>
       </c>
       <c r="C233" t="n">
-        <v>141.010333054</v>
+        <v>389.213809864</v>
       </c>
       <c r="D233" t="n">
-        <v>-77.2852465699</v>
+        <v>182.600796074</v>
       </c>
       <c r="E233" t="n">
-        <v>214.569418714</v>
+        <v>340.468577889</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>204.848902184</v>
+        <v>392.691633436</v>
       </c>
       <c r="C234" t="n">
-        <v>137.29634784</v>
+        <v>449.817354401</v>
       </c>
       <c r="D234" t="n">
-        <v>-71.66269655399999</v>
+        <v>206.379368234</v>
       </c>
       <c r="E234" t="n">
-        <v>204.848902184</v>
+        <v>392.691633436</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>194.718899013</v>
+        <v>408.894722417</v>
       </c>
       <c r="C235" t="n">
-        <v>132.699805638</v>
+        <v>468.607907906</v>
       </c>
       <c r="D235" t="n">
-        <v>-66.3971452527</v>
+        <v>212.958217052</v>
       </c>
       <c r="E235" t="n">
-        <v>194.718899013</v>
+        <v>408.894722417</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>191.601123164</v>
+        <v>392.125686571</v>
       </c>
       <c r="C236" t="n">
-        <v>128.840578593</v>
+        <v>449.10436095</v>
       </c>
       <c r="D236" t="n">
-        <v>-66.92820933359999</v>
+        <v>206.657661056</v>
       </c>
       <c r="E236" t="n">
-        <v>191.601123164</v>
+        <v>392.125686571</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>193.13776968</v>
+        <v>334.374004158</v>
       </c>
       <c r="C237" t="n">
-        <v>125.758451011</v>
+        <v>382.060986594</v>
       </c>
       <c r="D237" t="n">
-        <v>-71.00528022909999</v>
+        <v>179.99483188</v>
       </c>
       <c r="E237" t="n">
-        <v>193.13776968</v>
+        <v>334.374004158</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>191.927338015</v>
+        <v>233.93199619</v>
       </c>
       <c r="C238" t="n">
-        <v>123.142294237</v>
+        <v>265.744354702</v>
       </c>
       <c r="D238" t="n">
-        <v>-72.15251051910001</v>
+        <v>127.471869657</v>
       </c>
       <c r="E238" t="n">
-        <v>191.927338015</v>
+        <v>233.93199619</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>185.978963335</v>
+        <v>118.703468366</v>
       </c>
       <c r="C239" t="n">
-        <v>121.280812201</v>
+        <v>131.951272357</v>
       </c>
       <c r="D239" t="n">
-        <v>-68.3783008059</v>
+        <v>62.2480311238</v>
       </c>
       <c r="E239" t="n">
-        <v>185.978963335</v>
+        <v>118.703468366</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>181.786001964</v>
+        <v>44.0164664501</v>
       </c>
       <c r="C240" t="n">
-        <v>121.391567796</v>
+        <v>42.4158569386</v>
       </c>
       <c r="D240" t="n">
-        <v>-64.46074110799999</v>
+        <v>6.30706275202</v>
       </c>
       <c r="E240" t="n">
-        <v>181.786001964</v>
+        <v>44.0164664501</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>186.402472485</v>
+        <v>39.8879843818</v>
       </c>
       <c r="C241" t="n">
-        <v>125.115733103</v>
+        <v>27.5392102081</v>
       </c>
       <c r="D241" t="n">
-        <v>-65.42907331320001</v>
+        <v>-12.696800138</v>
       </c>
       <c r="E241" t="n">
-        <v>186.402472485</v>
+        <v>39.8879843818</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>198.656748957</v>
+        <v>64.2877325642</v>
       </c>
       <c r="C242" t="n">
-        <v>132.038344568</v>
+        <v>63.8963584714</v>
       </c>
       <c r="D242" t="n">
-        <v>-70.5879636196</v>
+        <v>14.9444782894</v>
       </c>
       <c r="E242" t="n">
-        <v>198.656748957</v>
+        <v>64.2877325642</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>210.127424639</v>
+        <v>113.391562459</v>
       </c>
       <c r="C243" t="n">
-        <v>138.901138388</v>
+        <v>122.888747879</v>
       </c>
       <c r="D243" t="n">
-        <v>-75.0763052376</v>
+        <v>56.7473366821</v>
       </c>
       <c r="E243" t="n">
-        <v>210.127424639</v>
+        <v>113.391562459</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>213.499038649</v>
+        <v>164.595999652</v>
       </c>
       <c r="C244" t="n">
-        <v>142.11514109</v>
+        <v>185.326413243</v>
       </c>
       <c r="D244" t="n">
-        <v>-75.36049585470001</v>
+        <v>88.9425534754</v>
       </c>
       <c r="E244" t="n">
-        <v>213.499038649</v>
+        <v>164.595999652</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>209.146569644</v>
+        <v>219.106682139</v>
       </c>
       <c r="C245" t="n">
-        <v>140.969053669</v>
+        <v>249.840906495</v>
       </c>
       <c r="D245" t="n">
-        <v>-72.3848499811</v>
+        <v>116.662033394</v>
       </c>
       <c r="E245" t="n">
-        <v>209.146569644</v>
+        <v>219.106682139</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>202.941110735</v>
+        <v>283.26616943</v>
       </c>
       <c r="C246" t="n">
-        <v>137.442250863</v>
+        <v>323.997411863</v>
       </c>
       <c r="D246" t="n">
-        <v>-69.78644593910001</v>
+        <v>149.195854483</v>
       </c>
       <c r="E246" t="n">
-        <v>202.941110735</v>
+        <v>283.26616943</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>199.067167317</v>
+        <v>343.472926858</v>
       </c>
       <c r="C247" t="n">
-        <v>133.473715122</v>
+        <v>392.996646109</v>
       </c>
       <c r="D247" t="n">
-        <v>-69.7114351877</v>
+        <v>182.404601261</v>
       </c>
       <c r="E247" t="n">
-        <v>199.067167317</v>
+        <v>343.472926858</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>196.470905086</v>
+        <v>369.769376535</v>
       </c>
       <c r="C248" t="n">
-        <v>129.335634187</v>
+        <v>422.908953179</v>
       </c>
       <c r="D248" t="n">
-        <v>-70.94156224699999</v>
+        <v>198.167885542</v>
       </c>
       <c r="E248" t="n">
-        <v>196.470905086</v>
+        <v>369.769376535</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>191.864692844</v>
+        <v>342.637621417</v>
       </c>
       <c r="C249" t="n">
-        <v>124.836342397</v>
+        <v>391.695009418</v>
       </c>
       <c r="D249" t="n">
-        <v>-70.64603109319999</v>
+        <v>183.818637561</v>
       </c>
       <c r="E249" t="n">
-        <v>191.864692844</v>
+        <v>342.637621417</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>185.204987862</v>
+        <v>274.20338991</v>
       </c>
       <c r="C250" t="n">
-        <v>120.899499411</v>
+        <v>313.207808697</v>
       </c>
       <c r="D250" t="n">
-        <v>-68.0048192396</v>
+        <v>146.323705056</v>
       </c>
       <c r="E250" t="n">
-        <v>185.204987862</v>
+        <v>274.20338991</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>180.588967446</v>
+        <v>198.811068141</v>
       </c>
       <c r="C251" t="n">
-        <v>118.971689844</v>
+        <v>226.409995474</v>
       </c>
       <c r="D251" t="n">
-        <v>-65.47893610209999</v>
+        <v>105.881020486</v>
       </c>
       <c r="E251" t="n">
-        <v>180.588967446</v>
+        <v>198.811068141</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>181.948101932</v>
+        <v>144.058238978</v>
       </c>
       <c r="C252" t="n">
-        <v>120.086460616</v>
+        <v>162.283218213</v>
       </c>
       <c r="D252" t="n">
-        <v>-65.7485444756</v>
+        <v>76.8897287623</v>
       </c>
       <c r="E252" t="n">
-        <v>181.948101932</v>
+        <v>144.058238978</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>287.413172048</v>
+        <v>306.809630422</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>107.173883265</v>
+        <v>73.5100185559</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>283.781326268</v>
+        <v>181.078871961</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>180.805766258</v>
+        <v>42.3576288857</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>263.797169273</v>
+        <v>120.186481477</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>145.223689924</v>
+        <v>86.20692052210001</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>198.043513979</v>
+        <v>213.196550062</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>181.177256774</v>
+        <v>-126.065045679</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>209.502158151</v>
+        <v>716.413192312</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>133.740038375</v>
+        <v>713.9697027</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>246.106032623</v>
+        <v>759.362416266</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>196.708178068</v>
+        <v>-258.680175766</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>318.6731958</v>
+        <v>691.532012954</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-82.8320052274</v>
+        <v>-268.411359593</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>398.860257718</v>
+        <v>795.393928448</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-87.2278496097</v>
+        <v>115.393810306</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>298.674596899</v>
+        <v>128.101170949</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-119.645763108</v>
+        <v>-14.5664604872</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>308.599299725</v>
+        <v>258.002314109</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-75.04103160050001</v>
+        <v>34.6906991405</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>440.502126816</v>
+        <v>492.008955438</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-125.6614757</v>
+        <v>205.123364454</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-86.3629790156</v>
+        <v>239.744724869</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-91.1261531777</v>
+        <v>-270.819632806</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>367.334149252</v>
+        <v>248.660950401</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-143.352092085</v>
+        <v>-104.389776382</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-26.864879934</v>
+        <v>386.657351603</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-144.660579256</v>
+        <v>-234.294035138</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>208.051861098</v>
+        <v>595.94113469</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>196.426389297</v>
+        <v>-278.708336786</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>309.410716507</v>
+        <v>818.193909374</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>285.899941955</v>
+        <v>-283.81913991</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>296.111002822</v>
+        <v>948.270976736</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-52.0474336568</v>
+        <v>-325.371068282</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-33.7745035914</v>
+        <v>477.101626942</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-120.64392148</v>
+        <v>-185.572431233</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>309.476332086</v>
+        <v>630.263735106</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>112.224959209</v>
+        <v>-141.775182391</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>305.300963377</v>
+        <v>638.028184879</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-142.013775016</v>
+        <v>60.9165545503</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>277.123158733</v>
+        <v>73.4676612502</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>229.433991191</v>
+        <v>-153.850111289</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>229.922201588</v>
+        <v>431.07496149</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>164.098472382</v>
+        <v>-64.8371461035</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>229.010382474</v>
+        <v>257.26040961</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>202.869178005</v>
+        <v>29.7990333496</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>238.514083174</v>
+        <v>224.334272754</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>170.807427029</v>
+        <v>201.518462293</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>228.718757658</v>
+        <v>402.550032356</v>
       </c>
     </row>
     <row r="52">
@@ -5169,7 +5169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>223.566667671</v>
+        <v>233.891167901</v>
       </c>
     </row>
     <row r="53">
@@ -5177,7 +5177,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>224.969396561</v>
+        <v>392.719433892</v>
       </c>
     </row>
     <row r="54">
@@ -5185,7 +5185,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>158.233170062</v>
+        <v>291.531038849</v>
       </c>
     </row>
     <row r="55">
@@ -5193,7 +5193,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>165.089086338</v>
+        <v>433.145682984</v>
       </c>
     </row>
     <row r="56">
@@ -5201,7 +5201,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>110.767386594</v>
+        <v>73.482763639</v>
       </c>
     </row>
     <row r="57">
@@ -5209,7 +5209,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>264.395141611</v>
+        <v>393.101201599</v>
       </c>
     </row>
     <row r="58">
@@ -5217,7 +5217,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>177.085180841</v>
+        <v>-43.993940502</v>
       </c>
     </row>
     <row r="59">
@@ -5225,7 +5225,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>209.917606031</v>
+        <v>275.589038198</v>
       </c>
     </row>
     <row r="60">
@@ -5233,7 +5233,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>205.511831914</v>
+        <v>-47.7923495862</v>
       </c>
     </row>
     <row r="61">
@@ -5241,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>217.652204535</v>
+        <v>408.894722417</v>
       </c>
     </row>
     <row r="62">
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>154.788866358</v>
+        <v>39.8879843818</v>
       </c>
     </row>
     <row r="63">
@@ -5257,7 +5257,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>192.478023862</v>
+        <v>369.769376535</v>
       </c>
     </row>
     <row r="64">
@@ -5265,111 +5265,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>172.346975587</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>202.610916872</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>183.6436961</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>211.021080554</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>210.381939293</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>211.514967368</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>189.506194102</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>214.569418714</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>191.601123164</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>193.13776968</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>181.786001964</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>213.499038649</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>180.588967446</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>181.948101932</v>
+        <v>144.058238978</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5410,7 +5306,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4882103970000173</v>
+        <v>2.443489612000008</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5421,10 +5317,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6391412610000202</v>
+        <v>12.5511066999</v>
       </c>
       <c r="B3" t="n">
-        <v>143.706586024</v>
+        <v>153.404815211</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5432,10 +5328,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.402728889999992</v>
+        <v>12.70736064299999</v>
       </c>
       <c r="B4" t="n">
-        <v>131.5290184376667</v>
+        <v>126.7732163259667</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5443,10 +5339,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.53664651599999</v>
+        <v>22.81581046100001</v>
       </c>
       <c r="B5" t="n">
-        <v>169.59209539525</v>
+        <v>140.349630234725</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5454,10 +5350,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.405774116999993</v>
+        <v>33.97956095489999</v>
       </c>
       <c r="B6" t="n">
-        <v>171.8348295678</v>
+        <v>120.75122996492</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5465,10 +5361,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.7631741621</v>
+        <v>34.621360415</v>
       </c>
       <c r="B7" t="n">
-        <v>187.1618861853333</v>
+        <v>120.6571052169333</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5476,10 +5372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.855916275999988</v>
+        <v>101.188395043</v>
       </c>
       <c r="B8" t="n">
-        <v>181.1707152908571</v>
+        <v>115.7356502605286</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5487,10 +5383,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.21106086700001</v>
+        <v>107.5688534051</v>
       </c>
       <c r="B9" t="n">
-        <v>183.279815126875</v>
+        <v>127.9182627357125</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5498,10 +5394,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.625471801</v>
+        <v>168.658864455</v>
       </c>
       <c r="B10" t="n">
-        <v>183.0461975321111</v>
+        <v>99.69789513407777</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5509,10 +5405,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16.86625720500001</v>
+        <v>170.8389211763</v>
       </c>
       <c r="B11" t="n">
-        <v>185.691793594</v>
+        <v>161.36942485187</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -5520,10 +5416,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.2729300654</v>
+        <v>223.3116149685</v>
       </c>
       <c r="B12" t="n">
-        <v>180.9689067559091</v>
+        <v>211.6058137471545</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5531,10 +5427,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18.96722077199999</v>
+        <v>227.4613762604</v>
       </c>
       <c r="B13" t="n">
-        <v>186.3970005781667</v>
+        <v>257.2521972903916</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5542,10 +5438,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.13104827499998</v>
+        <v>319.5829787</v>
       </c>
       <c r="B14" t="n">
-        <v>187.1901680773846</v>
+        <v>217.5650916706692</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5553,10 +5449,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.00877326599999</v>
+        <v>319.61843796</v>
       </c>
       <c r="B15" t="n">
-        <v>196.5818129147143</v>
+        <v>251.4198717623357</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -5564,21 +5460,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.141204469</v>
+        <v>329.8813921532</v>
       </c>
       <c r="B16" t="n">
-        <v>177.9542250385734</v>
+        <v>216.7644563386467</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31.71303668499999</v>
+        <v>353.050726783</v>
       </c>
       <c r="B17" t="n">
-        <v>191.7608520810375</v>
+        <v>252.9287983454813</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -5586,10 +5482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>33.980451268</v>
+        <v>369.0067380352</v>
       </c>
       <c r="B18" t="n">
-        <v>175.3497519815824</v>
+        <v>244.8385049313941</v>
       </c>
       <c r="C18" t="n">
         <v>0.5</v>
@@ -5597,54 +5493,54 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40.567023694</v>
+        <v>432.874676101</v>
       </c>
       <c r="B19" t="n">
-        <v>182.2011322547722</v>
+        <v>238.3530974879278</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49.39785455500001</v>
+        <v>456.6870720032</v>
       </c>
       <c r="B20" t="n">
-        <v>166.3144535514684</v>
+        <v>225.0415418050263</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>57.91133062899999</v>
+        <v>480.9380325702</v>
       </c>
       <c r="B21" t="n">
-        <v>173.428695860145</v>
+        <v>226.689580420225</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>59.78055235599999</v>
+        <v>495.9121075935</v>
       </c>
       <c r="B22" t="n">
-        <v>161.5968040763047</v>
+        <v>217.5467765497619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64.27846822699999</v>
+        <v>506.5754159252</v>
       </c>
       <c r="B23" t="n">
-        <v>174.2743187462909</v>
+        <v>230.0223301355909</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -5652,21 +5548,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>74.415610792</v>
+        <v>586.995794273</v>
       </c>
       <c r="B24" t="n">
-        <v>161.2336320312347</v>
+        <v>228.9397664103044</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>82.991403015</v>
+        <v>620.951386741</v>
       </c>
       <c r="B25" t="n">
-        <v>150.91710657095</v>
+        <v>229.38997301275</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5674,21 +5570,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109.606275253</v>
+        <v>662.674058175</v>
       </c>
       <c r="B26" t="n">
-        <v>141.235376181004</v>
+        <v>209.38158878</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>116.487212151</v>
+        <v>772.0389174970001</v>
       </c>
       <c r="B27" t="n">
-        <v>149.9314828375808</v>
+        <v>210.8923334577308</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -5696,32 +5592,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>150.041287893</v>
+        <v>791.878296168</v>
       </c>
       <c r="B28" t="n">
-        <v>139.0691282108185</v>
+        <v>199.2152182784815</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>153.627755017</v>
+        <v>866.760767496</v>
       </c>
       <c r="B29" t="n">
-        <v>133.1429136342179</v>
+        <v>205.9095801829286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>166.355772139</v>
+        <v>885.427461945</v>
       </c>
       <c r="B30" t="n">
-        <v>123.5634828449</v>
+        <v>190.7301451718621</v>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
@@ -5729,32 +5625,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>180.239288783</v>
+        <v>950.2121887200001</v>
       </c>
       <c r="B31" t="n">
-        <v>126.3797621200033</v>
+        <v>204.2371781558</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>193.076004168</v>
+        <v>963.399253161</v>
       </c>
       <c r="B32" t="n">
-        <v>128.6393307386161</v>
+        <v>188.6582905770323</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>211.499312535</v>
+        <v>1027.773775859</v>
       </c>
       <c r="B33" t="n">
-        <v>134.2884365438781</v>
+        <v>208.3312786644375</v>
       </c>
       <c r="C33" t="n">
         <v>0.5</v>
@@ -5762,32 +5658,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>383.6403313255</v>
+        <v>1063.805288041</v>
       </c>
       <c r="B34" t="n">
-        <v>138.8827245866394</v>
+        <v>193.4176296167273</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>385.9024465087</v>
+        <v>1074.102265234</v>
       </c>
       <c r="B35" t="n">
-        <v>143.5070857112088</v>
+        <v>215.6191986496471</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>401.5052010273999</v>
+        <v>1096.90224616</v>
       </c>
       <c r="B36" t="n">
-        <v>137.9198137292657</v>
+        <v>200.1623338801714</v>
       </c>
       <c r="C36" t="n">
         <v>0.5</v>
@@ -5795,10 +5691,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>419.136933749</v>
+        <v>1102.013049284</v>
       </c>
       <c r="B37" t="n">
-        <v>133.150527137025</v>
+        <v>207.8550920207778</v>
       </c>
       <c r="C37" t="n">
         <v>0.5</v>
@@ -5806,89 +5702,23 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>430.054637987</v>
+        <v>1232.090116646</v>
       </c>
       <c r="B38" t="n">
-        <v>126.2912177149432</v>
+        <v>197.2219157166216</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>451.490107102</v>
+        <v>1273.642045018</v>
       </c>
       <c r="B39" t="n">
-        <v>131.1118786194447</v>
+        <v>208.6177530689737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>454.136911342</v>
-      </c>
-      <c r="B40" t="n">
-        <v>130.6275986345615</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>481.6922629454</v>
-      </c>
-      <c r="B41" t="n">
-        <v>134.9944327531225</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>492.995624952</v>
-      </c>
-      <c r="B42" t="n">
-        <v>128.2381350026561</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>518.5060208260001</v>
-      </c>
-      <c r="B43" t="n">
-        <v>131.7830165200452</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>560.147889924</v>
-      </c>
-      <c r="B44" t="n">
-        <v>134.0539694193698</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>585.162706072</v>
-      </c>
-      <c r="B45" t="n">
-        <v>136.2327928777477</v>
-      </c>
-      <c r="C45" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5903,7 +5733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5930,486 +5760,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.539400613300604</v>
+        <v>7.704689270024528</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7697003066503018</v>
+        <v>3.852344635012265</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.015308267122207</v>
+        <v>39.57551917670179</v>
       </c>
       <c r="B3" t="n">
-        <v>319.110028368932</v>
+        <v>332.4664418217753</v>
       </c>
       <c r="C3" t="n">
-        <v>318.1023742353709</v>
+        <v>312.6786822334244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.423014599502156</v>
+        <v>40.06821104683145</v>
       </c>
       <c r="B4" t="n">
-        <v>307.7712518362549</v>
+        <v>308.678601505956</v>
       </c>
       <c r="C4" t="n">
-        <v>305.5597445365038</v>
+        <v>288.6444959825402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.845276961922949</v>
+        <v>71.94151613219186</v>
       </c>
       <c r="B5" t="n">
-        <v>340.7017602320796</v>
+        <v>325.9188727543989</v>
       </c>
       <c r="C5" t="n">
-        <v>338.2791217511181</v>
+        <v>289.948114688303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.89206665430561</v>
+        <v>107.1404241397801</v>
       </c>
       <c r="B6" t="n">
-        <v>343.3984834478629</v>
+        <v>313.2248387082228</v>
       </c>
       <c r="C6" t="n">
-        <v>336.4524501207101</v>
+        <v>259.6546266383327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.01900260466246</v>
+        <v>109.1638180756723</v>
       </c>
       <c r="B7" t="n">
-        <v>354.0975690310681</v>
+        <v>313.4431476172875</v>
       </c>
       <c r="C7" t="n">
-        <v>346.5880677287369</v>
+        <v>258.8612385794514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21.61773235394131</v>
+        <v>316.0559428205061</v>
       </c>
       <c r="B8" t="n">
-        <v>350.7956108369556</v>
+        <v>337.667197541044</v>
       </c>
       <c r="C8" t="n">
-        <v>339.9867446599849</v>
+        <v>179.639226130791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32.19700583641279</v>
+        <v>334.776738707677</v>
       </c>
       <c r="B9" t="n">
-        <v>353.3328381036838</v>
+        <v>348.8157062055841</v>
       </c>
       <c r="C9" t="n">
-        <v>337.2343351854774</v>
+        <v>181.4273368517457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36.65685466071234</v>
+        <v>483.1244216206395</v>
       </c>
       <c r="B10" t="n">
-        <v>353.6461812130251</v>
+        <v>350.4077619403882</v>
       </c>
       <c r="C10" t="n">
-        <v>335.3177538826689</v>
+        <v>108.8455511300685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53.18181800915315</v>
+        <v>487.2649105618785</v>
       </c>
       <c r="B11" t="n">
-        <v>357.0732489013984</v>
+        <v>386.7610758228521</v>
       </c>
       <c r="C11" t="n">
-        <v>330.4823398968218</v>
+        <v>143.1286205419128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>57.61725378988437</v>
+        <v>568.6667224121421</v>
       </c>
       <c r="B12" t="n">
-        <v>354.4667466347657</v>
+        <v>420.2816692929088</v>
       </c>
       <c r="C12" t="n">
-        <v>325.6581197398236</v>
+        <v>135.9483080868378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59.80644647069175</v>
+        <v>573.9203975271876</v>
       </c>
       <c r="B13" t="n">
-        <v>358.193311735479</v>
+        <v>437.676320413868</v>
       </c>
       <c r="C13" t="n">
-        <v>328.2900885001331</v>
+        <v>150.7161216502743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63.47614688609787</v>
+        <v>665.1109202020231</v>
       </c>
       <c r="B14" t="n">
-        <v>359.0629806784956</v>
+        <v>439.8481303675118</v>
       </c>
       <c r="C14" t="n">
-        <v>327.3249072354466</v>
+        <v>107.2926702665003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69.39684022971895</v>
+        <v>665.1393126879253</v>
       </c>
       <c r="B15" t="n">
-        <v>365.3953125738682</v>
+        <v>450.8840005538602</v>
       </c>
       <c r="C15" t="n">
-        <v>330.6968924590088</v>
+        <v>118.3143442098975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>82.42675091879069</v>
+        <v>673.2025977719145</v>
       </c>
       <c r="B16" t="n">
-        <v>355.0682648752534</v>
+        <v>441.3116518885739</v>
       </c>
       <c r="C16" t="n">
-        <v>313.854889415858</v>
+        <v>104.7103530026167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99.99455504316578</v>
+        <v>690.3717936578888</v>
       </c>
       <c r="B17" t="n">
-        <v>365.4139077794454</v>
+        <v>456.5033215864951</v>
       </c>
       <c r="C17" t="n">
-        <v>315.4166302578626</v>
+        <v>111.3174247575507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107.1432310412885</v>
+        <v>701.4620163937241</v>
       </c>
       <c r="B18" t="n">
-        <v>355.9231520439151</v>
+        <v>456.4693249245578</v>
       </c>
       <c r="C18" t="n">
-        <v>302.3515365232709</v>
+        <v>105.7383167276958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>127.9066508093756</v>
+        <v>741.1220637609483</v>
       </c>
       <c r="B19" t="n">
-        <v>362.3113534388496</v>
+        <v>463.9891989811694</v>
       </c>
       <c r="C19" t="n">
-        <v>298.3580280341618</v>
+        <v>93.42816710069519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>155.7318798413782</v>
+        <v>754.3493190998129</v>
       </c>
       <c r="B20" t="n">
-        <v>355.0607960451229</v>
+        <v>463.5832733419808</v>
       </c>
       <c r="C20" t="n">
-        <v>277.1948561244337</v>
+        <v>86.40861379207433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>182.5254180004877</v>
+        <v>767.1190409229192</v>
       </c>
       <c r="B21" t="n">
-        <v>362.2499049742119</v>
+        <v>467.5171031156053</v>
       </c>
       <c r="C21" t="n">
-        <v>270.987195973968</v>
+        <v>83.95758265414571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>188.4010856345833</v>
+        <v>774.6869551746443</v>
       </c>
       <c r="B22" t="n">
-        <v>355.3694763476885</v>
+        <v>467.049366768017</v>
       </c>
       <c r="C22" t="n">
-        <v>261.1689335303968</v>
+        <v>79.7058891806949</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>202.5242920014696</v>
+        <v>779.9402838802545</v>
       </c>
       <c r="B23" t="n">
-        <v>364.6936084389297</v>
+        <v>472.008783113353</v>
       </c>
       <c r="C23" t="n">
-        <v>263.431462438195</v>
+        <v>82.03864117322581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>234.2340591911469</v>
+        <v>816.4421179324881</v>
       </c>
       <c r="B24" t="n">
-        <v>359.8076560985878</v>
+        <v>482.3962262565062</v>
       </c>
       <c r="C24" t="n">
-        <v>242.6906265030144</v>
+        <v>74.17516729026215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>260.8458094919628</v>
+        <v>830.4613015529449</v>
       </c>
       <c r="B25" t="n">
-        <v>355.9703068172402</v>
+        <v>486.8183601242716</v>
       </c>
       <c r="C25" t="n">
-        <v>225.5474020712588</v>
+        <v>71.5877093477992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>340.6618207354982</v>
+        <v>846.7589593026097</v>
       </c>
       <c r="B26" t="n">
-        <v>358.2935128816449</v>
+        <v>487.0317773380244</v>
       </c>
       <c r="C26" t="n">
-        <v>187.9626025138958</v>
+        <v>63.65229768671952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>360.1569521332234</v>
+        <v>885.4988467289154</v>
       </c>
       <c r="B27" t="n">
-        <v>365.7461211749064</v>
+        <v>500.5250141529768</v>
       </c>
       <c r="C27" t="n">
-        <v>185.6676451082947</v>
+        <v>57.77559078851908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>444.6209709692349</v>
+        <v>892.0065552953432</v>
       </c>
       <c r="B28" t="n">
-        <v>369.2127703742715</v>
+        <v>500.1189009287963</v>
       </c>
       <c r="C28" t="n">
-        <v>146.902284889654</v>
+        <v>54.11562328112473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>452.4941195405225</v>
+        <v>915.3746742543318</v>
       </c>
       <c r="B29" t="n">
-        <v>366.8011644716014</v>
+        <v>510.0390111717579</v>
       </c>
       <c r="C29" t="n">
-        <v>140.5541047013401</v>
+        <v>52.35167404459196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>478.6700644037168</v>
+        <v>920.9320335262489</v>
       </c>
       <c r="B30" t="n">
-        <v>364.8901954090247</v>
+        <v>508.7571567139744</v>
       </c>
       <c r="C30" t="n">
-        <v>125.5551632071663</v>
+        <v>48.29113995084998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>504.310412190565</v>
+        <v>939.4862945193004</v>
       </c>
       <c r="B31" t="n">
-        <v>370.5964726653804</v>
+        <v>518.5787567933625</v>
       </c>
       <c r="C31" t="n">
-        <v>118.4412665700978</v>
+        <v>48.83560953371227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>525.6444392820106</v>
+        <v>943.1331526138748</v>
       </c>
       <c r="B32" t="n">
-        <v>375.4510179280944</v>
+        <v>516.6985377833438</v>
       </c>
       <c r="C32" t="n">
-        <v>112.6287982870891</v>
+        <v>45.13196147640639</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>552.9178188924415</v>
+        <v>960.3645395580352</v>
       </c>
       <c r="B33" t="n">
-        <v>383.3381917378832</v>
+        <v>527.2884010336661</v>
       </c>
       <c r="C33" t="n">
-        <v>106.8792822916625</v>
+        <v>47.10613125464852</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>711.1720527294186</v>
+        <v>969.6250861841073</v>
       </c>
       <c r="B34" t="n">
-        <v>423.138688566144</v>
+        <v>527.9025673810143</v>
       </c>
       <c r="C34" t="n">
-        <v>67.55266220143466</v>
+        <v>43.09002428896059</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>712.6366090652566</v>
+        <v>972.2243575901711</v>
       </c>
       <c r="B35" t="n">
-        <v>425.3091019513042</v>
+        <v>533.2298140382965</v>
       </c>
       <c r="C35" t="n">
-        <v>68.99079741867587</v>
+        <v>47.11763524321094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>722.4908777893912</v>
+        <v>977.9082400090088</v>
       </c>
       <c r="B36" t="n">
-        <v>426.1352207535477</v>
+        <v>532.4493360455352</v>
       </c>
       <c r="C36" t="n">
-        <v>64.88978185885213</v>
+        <v>43.49521604103086</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>733.1440441309871</v>
+        <v>979.1691146617887</v>
       </c>
       <c r="B37" t="n">
-        <v>427.6326977161098</v>
+        <v>534.4145735517378</v>
       </c>
       <c r="C37" t="n">
-        <v>61.06067565061619</v>
+        <v>44.83001622084345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>739.5061227429538</v>
+        <v>1009.770715586899</v>
       </c>
       <c r="B38" t="n">
-        <v>427.1162352630613</v>
+        <v>544.5125351061131</v>
       </c>
       <c r="C38" t="n">
-        <v>57.36317389158438</v>
+        <v>39.6271773126636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>751.523774415039</v>
+        <v>1018.997600944794</v>
       </c>
       <c r="B39" t="n">
-        <v>432.7442497182901</v>
+        <v>550.2378446858672</v>
       </c>
       <c r="C39" t="n">
-        <v>56.9823625107706</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>752.9669299400479</v>
-      </c>
-      <c r="B40" t="n">
-        <v>433.0419749825651</v>
-      </c>
-      <c r="C40" t="n">
-        <v>56.55851001254115</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>767.5057779440592</v>
-      </c>
-      <c r="B41" t="n">
-        <v>439.3344656190937</v>
-      </c>
-      <c r="C41" t="n">
-        <v>55.58157664706408</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>773.2308234548889</v>
-      </c>
-      <c r="B42" t="n">
-        <v>438.959057101644</v>
-      </c>
-      <c r="C42" t="n">
-        <v>52.34364537419953</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>785.6915869772199</v>
-      </c>
-      <c r="B43" t="n">
-        <v>444.4038565266061</v>
-      </c>
-      <c r="C43" t="n">
-        <v>51.55806303799613</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>804.8140444355332</v>
-      </c>
-      <c r="B44" t="n">
-        <v>451.7917838534624</v>
-      </c>
-      <c r="C44" t="n">
-        <v>49.38476163569584</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>815.6641496249117</v>
-      </c>
-      <c r="B45" t="n">
-        <v>456.3094471745366</v>
-      </c>
-      <c r="C45" t="n">
-        <v>48.47737236208076</v>
+        <v>40.73904421347009</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6460,750 +6224,648 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7697003066503018</v>
+        <v>3.852344635012264</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7697003066503018</v>
+        <v>3.852344635012264</v>
       </c>
       <c r="C2" t="n">
-        <v>3.665239555477628e-06</v>
+        <v>1.834449826196316e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>3.665239555477633e-06</v>
+        <v>1.834449826221695e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>5.505714157152952e-21</v>
+        <v>2.537880116563335e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.007654133561103</v>
+        <v>19.78775958835089</v>
       </c>
       <c r="B3" t="n">
-        <v>5.561544609937784</v>
+        <v>52.10046653103968</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64835457616085e-05</v>
+        <v>0.0002480974596716175</v>
       </c>
       <c r="D3" t="n">
-        <v>2.64835457645435e-05</v>
+        <v>0.0002481062752324329</v>
       </c>
       <c r="E3" t="n">
-        <v>2.935003043554041e-15</v>
+        <v>8.815560815405091e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.211507299751078</v>
+        <v>20.03410552341573</v>
       </c>
       <c r="B4" t="n">
-        <v>9.801431089152667</v>
+        <v>50.30014331898458</v>
       </c>
       <c r="C4" t="n">
-        <v>4.667348137691746e-05</v>
+        <v>0.0002395244919951647</v>
       </c>
       <c r="D4" t="n">
-        <v>4.667348150522016e-05</v>
+        <v>0.0002395314652255592</v>
       </c>
       <c r="E4" t="n">
-        <v>1.283027029346136e-13</v>
+        <v>6.973230394562114e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.422638480961475</v>
+        <v>35.97075806609593</v>
       </c>
       <c r="B5" t="n">
-        <v>11.17040255242783</v>
+        <v>79.19536501297912</v>
       </c>
       <c r="C5" t="n">
-        <v>5.31923931067992e-05</v>
+        <v>0.0003771207857760911</v>
       </c>
       <c r="D5" t="n">
-        <v>5.319239341353516e-05</v>
+        <v>0.0003772645456324119</v>
       </c>
       <c r="E5" t="n">
-        <v>3.067359598740368e-13</v>
+        <v>1.437598563208513e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.946033327152803</v>
+        <v>53.57021206989006</v>
       </c>
       <c r="B6" t="n">
-        <v>24.60840408745466</v>
+        <v>102.492749408747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001171828766069269</v>
+        <v>0.0004880607114702236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001171829359717068</v>
+        <v>0.0004888628699040321</v>
       </c>
       <c r="E6" t="n">
-        <v>5.936477989688851e-11</v>
+        <v>8.021584338084955e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.509501302331229</v>
+        <v>54.58190903783615</v>
       </c>
       <c r="B7" t="n">
-        <v>26.60833783521185</v>
+        <v>103.8776591924113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001267063706438659</v>
+        <v>0.0004946555199638633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001267064705880448</v>
+        <v>0.0004955327636039202</v>
       </c>
       <c r="E7" t="n">
-        <v>9.994417890946822e-11</v>
+        <v>8.772436400569534e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.80886617697066</v>
+        <v>158.027971410253</v>
       </c>
       <c r="B8" t="n">
-        <v>34.61211378057058</v>
+        <v>218.4195971197958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001648195894312885</v>
+        <v>0.001040093319618075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001648201664103008</v>
+        <v>0.001164520867535783</v>
       </c>
       <c r="E8" t="n">
-        <v>5.769790123379571e-10</v>
+        <v>0.0001244275479177076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.09850291820639</v>
+        <v>167.3883693538385</v>
       </c>
       <c r="B9" t="n">
-        <v>46.59752766271139</v>
+        <v>230.2640901318206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002218929888700543</v>
+        <v>0.001096495667294384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002218971773685463</v>
+        <v>0.001273430753673993</v>
       </c>
       <c r="E9" t="n">
-        <v>4.188498491997702e-09</v>
+        <v>0.000176935086379609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18.32842733035617</v>
+        <v>241.5622108103198</v>
       </c>
       <c r="B10" t="n">
-        <v>51.25581664848031</v>
+        <v>286.2482596296903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002440753173737158</v>
+        <v>0.001363086950617573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002440832228295033</v>
+        <v>0.00211804861082932</v>
       </c>
       <c r="E10" t="n">
-        <v>7.905455787525018e-09</v>
+        <v>0.0007549616602117476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26.59090900457658</v>
+        <v>243.6324552809393</v>
       </c>
       <c r="B11" t="n">
-        <v>67.54080275753823</v>
+        <v>303.3140158728777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003216228702739916</v>
+        <v>0.001444352456537513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003216726150315857</v>
+        <v>0.002555032730807515</v>
       </c>
       <c r="E11" t="n">
-        <v>4.974475759409553e-08</v>
+        <v>0.001110680274270002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28.80862689494219</v>
+        <v>284.3333612060711</v>
       </c>
       <c r="B12" t="n">
-        <v>71.197576263423</v>
+        <v>345.7351429965293</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003390360774448714</v>
+        <v>0.001646357823792997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003391067754665105</v>
+        <v>0.004304609166056749</v>
       </c>
       <c r="E12" t="n">
-        <v>7.069802163909688e-08</v>
+        <v>0.002658251342263752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29.90322323534588</v>
+        <v>286.9601987635938</v>
       </c>
       <c r="B13" t="n">
-        <v>73.62953598198069</v>
+        <v>355.8776137164767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003506168380094319</v>
+        <v>0.001694655303411794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003507052788689841</v>
+        <v>0.004918026568019551</v>
       </c>
       <c r="E13" t="n">
-        <v>8.844085955229085e-08</v>
+        <v>0.003223371264607758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31.73807344304893</v>
+        <v>332.5554601010115</v>
       </c>
       <c r="B14" t="n">
-        <v>76.95429784029811</v>
+        <v>384.6255464689989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003664490373347529</v>
+        <v>0.001831550221280947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003665677576561671</v>
+        <v>0.007241916985286632</v>
       </c>
       <c r="E14" t="n">
-        <v>1.187203214142387e-07</v>
+        <v>0.005410366764005685</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.69842011485947</v>
+        <v>332.5696563439627</v>
       </c>
       <c r="B15" t="n">
-        <v>82.9578079411329</v>
+        <v>390.3123346447704</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003950371806720614</v>
+        <v>0.001858630164975097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0003952330746040339</v>
+        <v>0.007825149308076536</v>
       </c>
       <c r="E15" t="n">
-        <v>1.958939319724796e-07</v>
+        <v>0.005966519143101439</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>41.21337545939534</v>
+        <v>336.6012988859572</v>
       </c>
       <c r="B16" t="n">
-        <v>91.94522793424274</v>
+        <v>387.6918423471126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004378344187344892</v>
+        <v>0.001846151630224346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004382233150450247</v>
+        <v>0.007550643300379884</v>
       </c>
       <c r="E16" t="n">
-        <v>3.888963105354868e-07</v>
+        <v>0.005704491670155539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>49.99727752158289</v>
+        <v>345.1858968289444</v>
       </c>
       <c r="B17" t="n">
-        <v>107.2337846717619</v>
+        <v>400.4497542579206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000510637069865533</v>
+        <v>0.001906903591704384</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0005117214546751707</v>
+        <v>0.008985699771461254</v>
       </c>
       <c r="E17" t="n">
-        <v>1.084384809637651e-06</v>
+        <v>0.00707879617975687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>53.57161552064426</v>
+        <v>350.731008196862</v>
       </c>
       <c r="B18" t="n">
-        <v>110.5974904751951</v>
+        <v>403.5388223837539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005266547165485481</v>
+        <v>0.001921613439922638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005279870338952008</v>
+        <v>0.009372501062233772</v>
       </c>
       <c r="E18" t="n">
-        <v>1.332317346652693e-06</v>
+        <v>0.007450887622311135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63.95332540468779</v>
+        <v>370.5610318804742</v>
       </c>
       <c r="B19" t="n">
-        <v>126.3300455551319</v>
+        <v>418.3658810032668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006015716455006281</v>
+        <v>0.001992218480967937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0006048052250505399</v>
+        <v>0.01146943769975425</v>
       </c>
       <c r="E19" t="n">
-        <v>3.233579549911806e-06</v>
+        <v>0.009477219218786314</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>77.8659399206891</v>
+        <v>377.1746595499064</v>
       </c>
       <c r="B20" t="n">
-        <v>142.4931076425832</v>
+        <v>421.6628753997873</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006785386078218248</v>
+        <v>0.002007918454284701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006857540826974098</v>
+        <v>0.01199430343605494</v>
       </c>
       <c r="E20" t="n">
-        <v>7.215474875585013e-06</v>
+        <v>0.009986384981770241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>91.26270900024387</v>
+        <v>383.5595204614596</v>
       </c>
       <c r="B21" t="n">
-        <v>160.3000663098382</v>
+        <v>427.1373881089151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0007633336490944677</v>
+        <v>0.002033987562423405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0007791533114981256</v>
+        <v>0.01291718352337162</v>
       </c>
       <c r="E21" t="n">
-        <v>1.581966240365789e-05</v>
+        <v>0.01088319596094821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>94.20054281729163</v>
+        <v>387.3434775873221</v>
       </c>
       <c r="B22" t="n">
-        <v>161.7701286164236</v>
+        <v>428.8496896864362</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007703339457924935</v>
+        <v>0.00204214137945922</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000787146282135717</v>
+        <v>0.0132195175102771</v>
       </c>
       <c r="E22" t="n">
-        <v>1.681233634322351e-05</v>
+        <v>0.01117737613081788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101.2621460007348</v>
+        <v>389.9701419401272</v>
       </c>
       <c r="B23" t="n">
-        <v>172.2792441461615</v>
+        <v>432.9060833842428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0008203773530769596</v>
+        <v>0.002061457539924965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0008459549015152606</v>
+        <v>0.01396283208355943</v>
       </c>
       <c r="E23" t="n">
-        <v>2.5577548438301e-05</v>
+        <v>0.01190137454363446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>117.1170295955734</v>
+        <v>408.2210589662441</v>
       </c>
       <c r="B24" t="n">
-        <v>187.6503783572231</v>
+        <v>447.8878449622754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000893573230272491</v>
+        <v>0.002132799261725121</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0009387902735561935</v>
+        <v>0.0170642168320518</v>
       </c>
       <c r="E24" t="n">
-        <v>4.521704328370253e-05</v>
+        <v>0.01493141757032668</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130.4229047459814</v>
+        <v>415.2306507764724</v>
       </c>
       <c r="B25" t="n">
-        <v>199.6286719964245</v>
+        <v>453.8305633890409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009506127237924978</v>
+        <v>0.002161097920900195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001018918691613182</v>
+        <v>0.0184639704548075</v>
       </c>
       <c r="E25" t="n">
-        <v>6.8305967820684e-05</v>
+        <v>0.01630287253390731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>170.3309103677491</v>
+        <v>423.3794796513048</v>
       </c>
       <c r="B26" t="n">
-        <v>236.1884055270827</v>
+        <v>457.931698160719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001124706692986108</v>
+        <v>0.002180627134098662</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001334293058575437</v>
+        <v>0.0194911655039995</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002095863655893289</v>
+        <v>0.01731053836990084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>180.0784760666117</v>
+        <v>442.7494233644577</v>
       </c>
       <c r="B27" t="n">
-        <v>247.0347863137315</v>
+        <v>474.8178603313124</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001176356125303483</v>
+        <v>0.002261037430149106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00145907835082369</v>
+        <v>0.02429805622777496</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0002827222255202067</v>
+        <v>0.02203701879762586</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>222.3104854846175</v>
+        <v>446.0032776476716</v>
       </c>
       <c r="B28" t="n">
-        <v>280.7639135120175</v>
+        <v>476.1053782864309</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001336971016723893</v>
+        <v>0.002267168468030624</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002000583346861038</v>
+        <v>0.02470563194953671</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0006636123301371447</v>
+        <v>0.02243846348150609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>226.2470597702613</v>
+        <v>457.6873371271659</v>
       </c>
       <c r="B29" t="n">
-        <v>282.5713941861339</v>
+        <v>487.2149482227989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001345578067553019</v>
+        <v>0.002320071182013328</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002038196152539134</v>
+        <v>0.02848843448505882</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000692618084986115</v>
+        <v>0.02616836330304549</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>239.3350322018584</v>
+        <v>460.4660167631245</v>
       </c>
       <c r="B30" t="n">
-        <v>290.8870771095575</v>
+        <v>487.7363813425582</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001385176557664559</v>
+        <v>0.002322554196869325</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00222554302866156</v>
+        <v>0.02867819276778642</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0008403664709970002</v>
+        <v>0.0263556385709171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252.1552060952825</v>
+        <v>469.7431472596502</v>
       </c>
       <c r="B31" t="n">
-        <v>301.9972589591407</v>
+        <v>497.6492759783724</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001438082185519717</v>
+        <v>0.002369758457039869</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002517010371931955</v>
+        <v>0.03250872628952902</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001078928186412237</v>
+        <v>0.03013896783248915</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>262.8222196410053</v>
+        <v>471.5665763069374</v>
       </c>
       <c r="B32" t="n">
-        <v>311.1488552759301</v>
+        <v>497.3599853226573</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001481661215599667</v>
+        <v>0.002368380882488844</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002798180570235414</v>
+        <v>0.03239073949368648</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001316519354635747</v>
+        <v>0.03002235861119763</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>276.4589094462207</v>
+        <v>480.1822697790176</v>
       </c>
       <c r="B33" t="n">
-        <v>323.4419909306859</v>
+        <v>507.419601743497</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00154019995681279</v>
+        <v>0.002416283817826176</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003244771401036289</v>
+        <v>0.03672629018626217</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001704571444223499</v>
+        <v>0.03431000636843599</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>355.5860263647093</v>
+        <v>484.8125430920537</v>
       </c>
       <c r="B34" t="n">
-        <v>388.9593408563485</v>
+        <v>509.8096186169895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001852187337411183</v>
+        <v>0.002427664850557093</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00768216961802894</v>
+        <v>0.03782952089568497</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005829982280617757</v>
+        <v>0.03540185604512788</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>356.3183045326283</v>
+        <v>486.1121787950855</v>
       </c>
       <c r="B35" t="n">
-        <v>390.4612999312761</v>
+        <v>513.5527480472691</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001859339523482267</v>
+        <v>0.002445489276415567</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00784105616942341</v>
+        <v>0.03961666070689032</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005981716645941143</v>
+        <v>0.03717117143047476</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>361.2454388946956</v>
+        <v>488.9541200045044</v>
       </c>
       <c r="B36" t="n">
-        <v>393.5375217986101</v>
+        <v>514.3180485608519</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001873988199041001</v>
+        <v>0.002449133564575485</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008176981431613432</v>
+        <v>0.03999115305988789</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006302993232572432</v>
+        <v>0.03754201949531241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>366.5720220654936</v>
+        <v>489.5845573308944</v>
       </c>
       <c r="B37" t="n">
-        <v>397.146113326551</v>
+        <v>515.7670168091664</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001891171968221671</v>
+        <v>0.002456033413376983</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008589626942202401</v>
+        <v>0.04070881043373017</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006698454973980729</v>
+        <v>0.03825277702035319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>369.7530613714769</v>
+        <v>504.8853577934495</v>
       </c>
       <c r="B38" t="n">
-        <v>398.5619714493572</v>
+        <v>528.3803156761263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001897914149758844</v>
+        <v>0.002516096741314887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008757189766883717</v>
+        <v>0.04745440626886468</v>
       </c>
       <c r="E38" t="n">
-        <v>0.006859275617124873</v>
+        <v>0.04493830952754979</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>375.7618872075195</v>
+        <v>509.4988004723971</v>
       </c>
       <c r="B39" t="n">
-        <v>404.6234530130382</v>
+        <v>533.7995085289488</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001926778347681134</v>
+        <v>0.002541902421566423</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009512196812273064</v>
+        <v>0.05064359169664495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.007585418464591929</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>376.4834649700239</v>
-      </c>
-      <c r="B40" t="n">
-        <v>405.1544865831248</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.001929307078967261</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.009581340911429816</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.007652033832462555</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>383.7528889720296</v>
-      </c>
-      <c r="B41" t="n">
-        <v>412.2086000502014</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.001962898095477149</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.01054814626754576</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.00858524817206861</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>386.6154117274444</v>
-      </c>
-      <c r="B42" t="n">
-        <v>413.4814322521595</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.00196895920120076</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.01073249323450302</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.008763534033302264</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>392.84579348861</v>
-      </c>
-      <c r="B43" t="n">
-        <v>419.5294335499814</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.001997759207380864</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.01165208838127395</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.009654329173893091</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>402.4070222177666</v>
-      </c>
-      <c r="B44" t="n">
-        <v>428.2769221281704</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.00203941391489605</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.0131176432282693</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01107822931337325</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>407.8320748124559</v>
-      </c>
-      <c r="B45" t="n">
-        <v>433.4027491433233</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.002063822614968206</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.01405652187924749</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.01199269926427929</v>
+        <v>0.04810168927507853</v>
       </c>
     </row>
   </sheetData>
@@ -7217,7 +6879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7239,354 +6901,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.416287208447828e+34</v>
+        <v>1.294288083354591e+26</v>
       </c>
       <c r="B2" t="n">
-        <v>7.060714762056944e-35</v>
+        <v>7.726255173486242e-27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.901249379563682e+24</v>
+        <v>12903341683679.01</v>
       </c>
       <c r="B3" t="n">
-        <v>5.259699283791432e-25</v>
+        <v>7.74993040186532e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.820795898872539e+21</v>
+        <v>19330588863817.5</v>
       </c>
       <c r="B4" t="n">
-        <v>3.545098744647552e-22</v>
+        <v>5.173148149003234e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.276761812501318e+20</v>
+        <v>104827832778.231</v>
       </c>
       <c r="B5" t="n">
-        <v>1.593178186255718e-21</v>
+        <v>9.539451245887668e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.162076370237013e+16</v>
+        <v>5414419297.134806</v>
       </c>
       <c r="B6" t="n">
-        <v>1.396243139986103e-17</v>
+        <v>1.846920131451915e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.917357448867628e+16</v>
+        <v>4640749424.522783</v>
       </c>
       <c r="B7" t="n">
-        <v>3.427759599318725e-17</v>
+        <v>2.154824379691286e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1419800953501827</v>
+        <v>952323.4267944607</v>
       </c>
       <c r="B8" t="n">
-        <v>7.043240797476427e-16</v>
+        <v>1.050063425790143e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46550498305488.97</v>
+        <v>524729.1527738908</v>
       </c>
       <c r="B9" t="n">
-        <v>2.148204716171826e-14</v>
+        <v>1.905745077653245e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15570147941878.56</v>
+        <v>45101.05311023381</v>
       </c>
       <c r="B10" t="n">
-        <v>6.422546553397415e-14</v>
+        <v>2.217243126354164e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>653207075857.2401</v>
+        <v>23426.93842525122</v>
       </c>
       <c r="B11" t="n">
-        <v>1.530908094783946e-12</v>
+        <v>4.268590209474955e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>356335718116.4353</v>
+        <v>5298.047915151034</v>
       </c>
       <c r="B12" t="n">
-        <v>2.806342303505041e-12</v>
+        <v>0.0001887487648309599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>242218192978.5873</v>
+        <v>3811.132665150933</v>
       </c>
       <c r="B13" t="n">
-        <v>4.128509042623411e-12</v>
+        <v>0.0002623891865911723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>145800136259.859</v>
+        <v>1570.316117257255</v>
       </c>
       <c r="B14" t="n">
-        <v>6.858704152496155e-12</v>
+        <v>0.000636814453478717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>61491292541.95251</v>
+        <v>1327.804249102268</v>
       </c>
       <c r="B15" t="n">
-        <v>1.626246511760586e-11</v>
+        <v>0.0007531230606289312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18856192008.53521</v>
+        <v>1434.087972690229</v>
       </c>
       <c r="B16" t="n">
-        <v>5.303297715399549e-11</v>
+        <v>0.0003486536457467404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3220744727.332097</v>
+        <v>990.3574813404875</v>
       </c>
       <c r="B17" t="n">
-        <v>3.104871961797326e-10</v>
+        <v>0.001009736402098423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2258861921.805604</v>
+        <v>907.0123502202213</v>
       </c>
       <c r="B18" t="n">
-        <v>2.213504044551466e-10</v>
+        <v>0.0005512604099366461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>490622789.9039297</v>
+        <v>600.1367451297125</v>
       </c>
       <c r="B19" t="n">
-        <v>2.038225742012133e-09</v>
+        <v>0.0008331434528174589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>123351196.3304558</v>
+        <v>548.5464963070757</v>
       </c>
       <c r="B20" t="n">
-        <v>8.106933939424602e-09</v>
+        <v>0.0009114997604872142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32051839.15745282</v>
+        <v>473.2072251197648</v>
       </c>
       <c r="B21" t="n">
-        <v>3.119945769999523e-08</v>
+        <v>0.001056619538878457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>28876591.14816327</v>
+        <v>452.0106204744558</v>
       </c>
       <c r="B22" t="n">
-        <v>1.731506317468511e-08</v>
+        <v>0.002212337398068974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14076919.93291388</v>
+        <v>405.797633528651</v>
       </c>
       <c r="B23" t="n">
-        <v>7.1038267232156e-08</v>
+        <v>0.002464282483129355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5319992.175563518</v>
+        <v>274.7767131319423</v>
       </c>
       <c r="B24" t="n">
-        <v>1.879702012708459e-07</v>
+        <v>0.00181965929463575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2635471.538909383</v>
+        <v>236.2403771574273</v>
       </c>
       <c r="B25" t="n">
-        <v>3.794387399887545e-07</v>
+        <v>0.004232976648753037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>394041.9125993038</v>
+        <v>213.0873095359796</v>
       </c>
       <c r="B26" t="n">
-        <v>1.268900550963582e-06</v>
+        <v>0.004692912037688247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>237569.2269694248</v>
+        <v>140.6670129815373</v>
       </c>
       <c r="B27" t="n">
-        <v>4.209299380886145e-06</v>
+        <v>0.007108987237336525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56115.21570518721</v>
+        <v>136.3644869080171</v>
       </c>
       <c r="B28" t="n">
-        <v>1.782047858915316e-05</v>
+        <v>0.003666643796615966</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52192.72983392144</v>
+        <v>104.6574056824219</v>
       </c>
       <c r="B29" t="n">
-        <v>9.579878300886204e-06</v>
+        <v>0.00955498555959293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37608.11576309648</v>
+        <v>103.3807240666943</v>
       </c>
       <c r="B30" t="n">
-        <v>1.329500268371946e-05</v>
+        <v>0.004836491565656221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24609.95389022683</v>
+        <v>82.06618018568535</v>
       </c>
       <c r="B31" t="n">
-        <v>2.031698239786469e-05</v>
+        <v>0.01218528750500353</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17547.75377001689</v>
+        <v>82.61566967931252</v>
       </c>
       <c r="B32" t="n">
-        <v>5.698735080889144e-05</v>
+        <v>0.006052120644193037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11305.39074601942</v>
+        <v>65.65240677151311</v>
       </c>
       <c r="B33" t="n">
-        <v>4.422668895155596e-05</v>
+        <v>0.007615867027390568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1381.570559946998</v>
+        <v>62.20503644882069</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0007238139180081858</v>
+        <v>0.008037934362619913</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1322.024752646957</v>
+        <v>57.19478604139763</v>
       </c>
       <c r="B35" t="n">
-        <v>0.000756415489193981</v>
+        <v>0.008742055606923673</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1208.576871263926</v>
+        <v>56.22541358483311</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0004137097208199107</v>
+        <v>0.008892775848515513</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1088.785279584024</v>
+        <v>54.43860254149222</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0004592273695976377</v>
+        <v>0.009184658985669373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1045.359132555569</v>
+        <v>41.2515879471567</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0009566090435880341</v>
+        <v>0.01212074552476623</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>879.5804978230143</v>
+        <v>36.69091970651088</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0005684528036234473</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>866.4794221791014</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0005770477488577333</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>711.1599893447861</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0007030766740134883</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>686.4999162440122</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.001456664416612334</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>581.3521608665274</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.000860063888392074</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>458.9838776213488</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.001089362882616301</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>400.501536440875</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.001248434661308256</v>
+        <v>0.01362734987292439</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +7391,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01646911352085173</v>
+        <v>0.2205519931340267</v>
       </c>
     </row>
     <row r="18">
@@ -7787,7 +7401,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>118.551615925</v>
+        <v>76.4992638296</v>
       </c>
       <c r="C3" t="n">
-        <v>134.745411907</v>
+        <v>79.19861164450001</v>
       </c>
       <c r="D3" t="n">
-        <v>63.7353017439</v>
+        <v>8.937091474820001</v>
       </c>
       <c r="E3" t="n">
-        <v>118.551615925</v>
+        <v>76.4992638296</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>306.809630422</v>
+        <v>198.086224612</v>
       </c>
       <c r="C4" t="n">
-        <v>348.686577909</v>
+        <v>206.139478527</v>
       </c>
       <c r="D4" t="n">
-        <v>165.890621423</v>
+        <v>26.0021577132</v>
       </c>
       <c r="E4" t="n">
-        <v>306.809630422</v>
+        <v>198.086224612</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>234.382571714</v>
+        <v>158.116508103</v>
       </c>
       <c r="C5" t="n">
-        <v>265.826060378</v>
+        <v>165.863881667</v>
       </c>
       <c r="D5" t="n">
-        <v>127.223316506</v>
+        <v>23.7744533099</v>
       </c>
       <c r="E5" t="n">
-        <v>234.382571714</v>
+        <v>158.116508103</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>73.5100185559</v>
+        <v>72.7185127788</v>
       </c>
       <c r="C6" t="n">
-        <v>81.21910384</v>
+        <v>77.9088592478</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5881020695</v>
+        <v>14.9219344865</v>
       </c>
       <c r="E6" t="n">
-        <v>73.5100185559</v>
+        <v>72.7185127788</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>145.217942131</v>
+        <v>146.704223701</v>
       </c>
       <c r="C7" t="n">
-        <v>161.902521934</v>
+        <v>155.276764598</v>
       </c>
       <c r="D7" t="n">
-        <v>77.4327774432</v>
+        <v>26.1335822231</v>
       </c>
       <c r="E7" t="n">
-        <v>145.217942131</v>
+        <v>146.704223701</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>181.078871961</v>
+        <v>196.893130499</v>
       </c>
       <c r="C8" t="n">
-        <v>202.014416566</v>
+        <v>207.374331886</v>
       </c>
       <c r="D8" t="n">
-        <v>96.4507227238</v>
+        <v>32.3037740706</v>
       </c>
       <c r="E8" t="n">
-        <v>181.078871961</v>
+        <v>196.893130499</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>51.5772099414</v>
+        <v>120.098926197</v>
       </c>
       <c r="C9" t="n">
-        <v>51.4406826985</v>
+        <v>129.345558289</v>
       </c>
       <c r="D9" t="n">
-        <v>12.2620375378</v>
+        <v>26.9336275904</v>
       </c>
       <c r="E9" t="n">
-        <v>51.5772099414</v>
+        <v>120.098926197</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.3576288857</v>
+        <v>108.270239522</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3121717182</v>
+        <v>119.735862397</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.3900341525</v>
+        <v>34.0287385976</v>
       </c>
       <c r="E10" t="n">
-        <v>42.3576288857</v>
+        <v>108.270239522</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>120.186481477</v>
+        <v>177.636037768</v>
       </c>
       <c r="C11" t="n">
-        <v>129.924837074</v>
+        <v>194.513639279</v>
       </c>
       <c r="D11" t="n">
-        <v>58.7124042979</v>
+        <v>50.0001054673</v>
       </c>
       <c r="E11" t="n">
-        <v>120.186481477</v>
+        <v>177.636037768</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>113.309550306</v>
+        <v>180.109904701</v>
       </c>
       <c r="C12" t="n">
-        <v>124.161461357</v>
+        <v>197.076952909</v>
       </c>
       <c r="D12" t="n">
-        <v>57.8865725844</v>
+        <v>50.726090165</v>
       </c>
       <c r="E12" t="n">
-        <v>113.309550306</v>
+        <v>180.109904701</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>86.20692052210001</v>
+        <v>147.948788779</v>
       </c>
       <c r="C13" t="n">
-        <v>94.7262761194</v>
+        <v>164.397049051</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1061607102</v>
+        <v>51.0419849054</v>
       </c>
       <c r="E13" t="n">
-        <v>86.20692052210001</v>
+        <v>147.948788779</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>166.464096157</v>
+        <v>169.516172845</v>
       </c>
       <c r="C14" t="n">
-        <v>187.2089612</v>
+        <v>188.426395649</v>
       </c>
       <c r="D14" t="n">
-        <v>89.8944443445</v>
+        <v>58.6566106149</v>
       </c>
       <c r="E14" t="n">
-        <v>166.464096157</v>
+        <v>169.516172845</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>213.196550062</v>
+        <v>185.732107616</v>
       </c>
       <c r="C15" t="n">
-        <v>239.989294356</v>
+        <v>202.14896102</v>
       </c>
       <c r="D15" t="n">
-        <v>116.50129286</v>
+        <v>49.1626634542</v>
       </c>
       <c r="E15" t="n">
-        <v>213.196550062</v>
+        <v>185.732107616</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>135.921639189</v>
+        <v>155.428795196</v>
       </c>
       <c r="C16" t="n">
-        <v>147.767315033</v>
+        <v>158.434232426</v>
       </c>
       <c r="D16" t="n">
-        <v>70.3391878858</v>
+        <v>13.4709865603</v>
       </c>
       <c r="E16" t="n">
-        <v>135.921639189</v>
+        <v>155.428795196</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>66.44457376840001</v>
+        <v>136.232843781</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6386394966</v>
+        <v>112.367126419</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.9556283941</v>
+        <v>-36.854221404</v>
       </c>
       <c r="E17" t="n">
-        <v>66.44457376840001</v>
+        <v>136.232843781</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>108.050696671</v>
+        <v>122.118810866</v>
       </c>
       <c r="C18" t="n">
-        <v>-20.7857145488</v>
+        <v>64.3874819927</v>
       </c>
       <c r="D18" t="n">
-        <v>-116.583330882</v>
+        <v>-76.40121007960001</v>
       </c>
       <c r="E18" t="n">
-        <v>-108.050696671</v>
+        <v>-122.118810866</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>126.065045679</v>
+        <v>94.5421238245</v>
       </c>
       <c r="C19" t="n">
-        <v>-57.8340527921</v>
+        <v>3.75006725554</v>
       </c>
       <c r="D19" t="n">
-        <v>-144.525813937</v>
+        <v>-91.5405678579</v>
       </c>
       <c r="E19" t="n">
-        <v>-126.065045679</v>
+        <v>-94.5421238245</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>12.8802296122</v>
+        <v>64.8000264201</v>
       </c>
       <c r="C20" t="n">
-        <v>2.27772957433</v>
+        <v>-9.38596599187</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.8526584831</v>
+        <v>-68.0331191292</v>
       </c>
       <c r="E20" t="n">
-        <v>-12.8802296122</v>
+        <v>-64.8000264201</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>265.472440738</v>
+        <v>68.4276352278</v>
       </c>
       <c r="C21" t="n">
-        <v>303.592103461</v>
+        <v>65.67510932819999</v>
       </c>
       <c r="D21" t="n">
-        <v>139.46770157</v>
+        <v>-4.29374447761</v>
       </c>
       <c r="E21" t="n">
-        <v>265.472440738</v>
+        <v>68.4276352278</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>533.494722367</v>
+        <v>181.781691436</v>
       </c>
       <c r="C22" t="n">
-        <v>610.804743504</v>
+        <v>199.189353315</v>
       </c>
       <c r="D22" t="n">
-        <v>286.614684374</v>
+        <v>53.1219830979</v>
       </c>
       <c r="E22" t="n">
-        <v>533.494722367</v>
+        <v>181.781691436</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>682.463485265</v>
+        <v>280.083464393</v>
       </c>
       <c r="C23" t="n">
-        <v>782.538136958</v>
+        <v>300.562856335</v>
       </c>
       <c r="D23" t="n">
-        <v>360.138393927</v>
+        <v>66.9523300254</v>
       </c>
       <c r="E23" t="n">
-        <v>682.463485265</v>
+        <v>280.083464393</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>716.413192312</v>
+        <v>265.116761271</v>
       </c>
       <c r="C24" t="n">
-        <v>822.11161138</v>
+        <v>279.98740499</v>
       </c>
       <c r="D24" t="n">
-        <v>360.830099214</v>
+        <v>50.9628665162</v>
       </c>
       <c r="E24" t="n">
-        <v>716.413192312</v>
+        <v>265.116761271</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>713.9697027</v>
+        <v>135.533863624</v>
       </c>
       <c r="C25" t="n">
-        <v>818.921878175</v>
+        <v>150.14564316</v>
       </c>
       <c r="D25" t="n">
-        <v>347.061969403</v>
+        <v>43.3519163568</v>
       </c>
       <c r="E25" t="n">
-        <v>713.9697027</v>
+        <v>135.533863624</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>743.81794136</v>
+        <v>74.43417312459999</v>
       </c>
       <c r="C26" t="n">
-        <v>853.448074847</v>
+        <v>78.995313092</v>
       </c>
       <c r="D26" t="n">
-        <v>368.296919883</v>
+        <v>11.1842748651</v>
       </c>
       <c r="E26" t="n">
-        <v>743.81794136</v>
+        <v>74.43417312459999</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>759.362416266</v>
+        <v>79.5709726849</v>
       </c>
       <c r="C27" t="n">
-        <v>871.3104510220001</v>
+        <v>81.0030048668</v>
       </c>
       <c r="D27" t="n">
-        <v>392.11052008</v>
+        <v>4.33252360031</v>
       </c>
       <c r="E27" t="n">
-        <v>759.362416266</v>
+        <v>79.5709726849</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>641.112561827</v>
+        <v>173.868462079</v>
       </c>
       <c r="C28" t="n">
-        <v>734.521459899</v>
+        <v>152.934004269</v>
       </c>
       <c r="D28" t="n">
-        <v>343.318185468</v>
+        <v>-31.6161861248</v>
       </c>
       <c r="E28" t="n">
-        <v>641.112561827</v>
+        <v>173.868462079</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>370.194109993</v>
+        <v>168.562152004</v>
       </c>
       <c r="C29" t="n">
-        <v>422.289436377</v>
+        <v>156.830873421</v>
       </c>
       <c r="D29" t="n">
-        <v>202.927426651</v>
+        <v>-15.6131783858</v>
       </c>
       <c r="E29" t="n">
-        <v>370.194109993</v>
+        <v>168.562152004</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>57.3839239259</v>
+        <v>112.840064206</v>
       </c>
       <c r="C30" t="n">
-        <v>60.5079663083</v>
+        <v>125.578806441</v>
       </c>
       <c r="D30" t="n">
-        <v>21.6471963106</v>
+        <v>36.186574044</v>
       </c>
       <c r="E30" t="n">
-        <v>57.3839239259</v>
+        <v>112.840064206</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>198.738529396</v>
+        <v>142.562392458</v>
       </c>
       <c r="C31" t="n">
-        <v>-100.54507498</v>
+        <v>162.301581405</v>
       </c>
       <c r="D31" t="n">
-        <v>-228.682746463</v>
+        <v>58.0635018931</v>
       </c>
       <c r="E31" t="n">
-        <v>-198.738529396</v>
+        <v>142.562392458</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>258.680175766</v>
+        <v>202.649373315</v>
       </c>
       <c r="C32" t="n">
-        <v>-126.413167985</v>
+        <v>229.711419187</v>
       </c>
       <c r="D32" t="n">
-        <v>-297.249127877</v>
+        <v>92.77120832430001</v>
       </c>
       <c r="E32" t="n">
-        <v>-258.680175766</v>
+        <v>202.649373315</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>106.51542712</v>
+        <v>287.270527145</v>
       </c>
       <c r="C33" t="n">
-        <v>-30.4769239092</v>
+        <v>315.541641387</v>
       </c>
       <c r="D33" t="n">
-        <v>-118.177632597</v>
+        <v>91.4637000102</v>
       </c>
       <c r="E33" t="n">
-        <v>-106.51542712</v>
+        <v>287.270527145</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>198.178138893</v>
+        <v>277.219315574</v>
       </c>
       <c r="C34" t="n">
-        <v>225.064290825</v>
+        <v>300.088610367</v>
       </c>
       <c r="D34" t="n">
-        <v>106.49176518</v>
+        <v>73.6316070347</v>
       </c>
       <c r="E34" t="n">
-        <v>198.178138893</v>
+        <v>277.219315574</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>475.70464232</v>
+        <v>155.709038969</v>
       </c>
       <c r="C35" t="n">
-        <v>545.392561782</v>
+        <v>169.097514393</v>
       </c>
       <c r="D35" t="n">
-        <v>247.515689658</v>
+        <v>39.9298586956</v>
       </c>
       <c r="E35" t="n">
-        <v>475.70464232</v>
+        <v>155.709038969</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>665.533193672</v>
+        <v>53.5511967486</v>
       </c>
       <c r="C36" t="n">
-        <v>763.315190046</v>
+        <v>43.0236863981</v>
       </c>
       <c r="D36" t="n">
-        <v>349.180943436</v>
+        <v>-16.8210608501</v>
       </c>
       <c r="E36" t="n">
-        <v>665.533193672</v>
+        <v>53.5511967486</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>691.532012954</v>
+        <v>90.79762941680001</v>
       </c>
       <c r="C37" t="n">
-        <v>792.243182681</v>
+        <v>10.773577556</v>
       </c>
       <c r="D37" t="n">
-        <v>371.220598825</v>
+        <v>-84.055358106</v>
       </c>
       <c r="E37" t="n">
-        <v>691.532012954</v>
+        <v>-90.79762941680001</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>490.711900995</v>
+        <v>116.503061346</v>
       </c>
       <c r="C38" t="n">
-        <v>560.843285263</v>
+        <v>19.402218729</v>
       </c>
       <c r="D38" t="n">
-        <v>267.534960154</v>
+        <v>-104.675460288</v>
       </c>
       <c r="E38" t="n">
-        <v>490.711900995</v>
+        <v>-116.503061346</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>157.636683918</v>
+        <v>75.19275113880001</v>
       </c>
       <c r="C39" t="n">
-        <v>178.848532564</v>
+        <v>34.215391636</v>
       </c>
       <c r="D39" t="n">
-        <v>83.7999897235</v>
+        <v>-51.9138488664</v>
       </c>
       <c r="E39" t="n">
-        <v>157.636683918</v>
+        <v>-75.19275113880001</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>117.52163437</v>
+        <v>101.406506818</v>
       </c>
       <c r="C40" t="n">
-        <v>-60.000531375</v>
+        <v>111.224911138</v>
       </c>
       <c r="D40" t="n">
-        <v>-135.338878273</v>
+        <v>26.9218829218</v>
       </c>
       <c r="E40" t="n">
-        <v>-117.52163437</v>
+        <v>101.406506818</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>245.935897143</v>
+        <v>212.03897015</v>
       </c>
       <c r="C41" t="n">
-        <v>-108.552310187</v>
+        <v>238.801633904</v>
       </c>
       <c r="D41" t="n">
-        <v>-281.284273869</v>
+        <v>88.24577890659999</v>
       </c>
       <c r="E41" t="n">
-        <v>-245.935897143</v>
+        <v>212.03897015</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>268.411359593</v>
+        <v>294.917732699</v>
       </c>
       <c r="C42" t="n">
-        <v>-94.3800560439</v>
+        <v>330.402963778</v>
       </c>
       <c r="D42" t="n">
-        <v>-302.411907657</v>
+        <v>118.859502085</v>
       </c>
       <c r="E42" t="n">
-        <v>-268.411359593</v>
+        <v>294.917732699</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>198.131141265</v>
+        <v>296.91256343</v>
       </c>
       <c r="C43" t="n">
-        <v>-63.5063926412</v>
+        <v>333.129035102</v>
       </c>
       <c r="D43" t="n">
-        <v>-221.721399374</v>
+        <v>122.359235624</v>
       </c>
       <c r="E43" t="n">
-        <v>-198.131141265</v>
+        <v>296.91256343</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>41.4585939287</v>
+        <v>231.481400478</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5318543687990001</v>
+        <v>261.591286025</v>
       </c>
       <c r="D44" t="n">
-        <v>-40.8658347152</v>
+        <v>102.539856418</v>
       </c>
       <c r="E44" t="n">
-        <v>-41.4585939287</v>
+        <v>231.481400478</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>212.917790831</v>
+        <v>147.03316458</v>
       </c>
       <c r="C45" t="n">
-        <v>243.696282798</v>
+        <v>165.102177704</v>
       </c>
       <c r="D45" t="n">
-        <v>105.549593241</v>
+        <v>55.7117328023</v>
       </c>
       <c r="E45" t="n">
-        <v>212.917790831</v>
+        <v>147.03316458</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>502.118824125</v>
+        <v>106.098630393</v>
       </c>
       <c r="C46" t="n">
-        <v>575.902726662</v>
+        <v>93.36464735929999</v>
       </c>
       <c r="D46" t="n">
-        <v>257.997896372</v>
+        <v>-20.0468979523</v>
       </c>
       <c r="E46" t="n">
-        <v>502.118824125</v>
+        <v>106.098630393</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>740.447652722</v>
+        <v>167.392549024</v>
       </c>
       <c r="C47" t="n">
-        <v>849.189761413</v>
+        <v>63.2125449316</v>
       </c>
       <c r="D47" t="n">
-        <v>390.261791239</v>
+        <v>-126.19429764</v>
       </c>
       <c r="E47" t="n">
-        <v>740.447652722</v>
+        <v>-167.392549024</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>795.393928448</v>
+        <v>225.009077789</v>
       </c>
       <c r="C48" t="n">
-        <v>911.920843549</v>
+        <v>10.5317363319</v>
       </c>
       <c r="D48" t="n">
-        <v>422.972501176</v>
+        <v>-217.463439549</v>
       </c>
       <c r="E48" t="n">
-        <v>795.393928448</v>
+        <v>-225.009077789</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>629.589810485</v>
+        <v>237.830494305</v>
       </c>
       <c r="C49" t="n">
-        <v>721.904857041</v>
+        <v>-70.96692958120001</v>
       </c>
       <c r="D49" t="n">
-        <v>331.298021568</v>
+        <v>-263.779471155</v>
       </c>
       <c r="E49" t="n">
-        <v>629.589810485</v>
+        <v>-237.830494305</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>366.842756479</v>
+        <v>223.183210306</v>
       </c>
       <c r="C50" t="n">
-        <v>420.58937023</v>
+        <v>-110.193808261</v>
       </c>
       <c r="D50" t="n">
-        <v>184.187620395</v>
+        <v>-256.465039206</v>
       </c>
       <c r="E50" t="n">
-        <v>366.842756479</v>
+        <v>-223.183210306</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>177.093262757</v>
+        <v>180.712860277</v>
       </c>
       <c r="C51" t="n">
-        <v>202.349398566</v>
+        <v>-60.1840971796</v>
       </c>
       <c r="D51" t="n">
-        <v>81.0467381581</v>
+        <v>-202.081839358</v>
       </c>
       <c r="E51" t="n">
-        <v>177.093262757</v>
+        <v>-180.712860277</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>115.393810306</v>
+        <v>165.841702773</v>
       </c>
       <c r="C52" t="n">
-        <v>130.919536416</v>
+        <v>52.2884586036</v>
       </c>
       <c r="D52" t="n">
-        <v>58.7144123185</v>
+        <v>-132.784134853</v>
       </c>
       <c r="E52" t="n">
-        <v>115.393810306</v>
+        <v>-165.841702773</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>128.101170949</v>
+        <v>174.506158194</v>
       </c>
       <c r="C53" t="n">
-        <v>137.031583188</v>
+        <v>140.100930349</v>
       </c>
       <c r="D53" t="n">
-        <v>60.8447183718</v>
+        <v>-52.6714424857</v>
       </c>
       <c r="E53" t="n">
-        <v>128.101170949</v>
+        <v>174.506158194</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>110.804719202</v>
+        <v>161.549418695</v>
       </c>
       <c r="C54" t="n">
-        <v>110.248569357</v>
+        <v>173.510874576</v>
       </c>
       <c r="D54" t="n">
-        <v>28.9416996965</v>
+        <v>36.1249645174</v>
       </c>
       <c r="E54" t="n">
-        <v>110.804719202</v>
+        <v>161.549418695</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>46.0093933901</v>
+        <v>191.67725492</v>
       </c>
       <c r="C55" t="n">
-        <v>28.7792713764</v>
+        <v>218.857448677</v>
       </c>
       <c r="D55" t="n">
-        <v>-19.1431789654</v>
+        <v>91.2349467865</v>
       </c>
       <c r="E55" t="n">
-        <v>46.0093933901</v>
+        <v>191.67725492</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>14.5664604872</v>
+        <v>247.269594744</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.61444384877</v>
+        <v>282.252317453</v>
       </c>
       <c r="D56" t="n">
-        <v>-15.0658151885</v>
+        <v>124.041377449</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.5664604872</v>
+        <v>247.269594744</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>102.114309319</v>
+        <v>295.559143598</v>
       </c>
       <c r="C57" t="n">
-        <v>115.71585861</v>
+        <v>334.427729759</v>
       </c>
       <c r="D57" t="n">
-        <v>51.3075037062</v>
+        <v>137.549057753</v>
       </c>
       <c r="E57" t="n">
-        <v>102.114309319</v>
+        <v>295.559143598</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>244.7451973</v>
+        <v>294.966351585</v>
       </c>
       <c r="C58" t="n">
-        <v>273.888424819</v>
+        <v>333.005028354</v>
       </c>
       <c r="D58" t="n">
-        <v>135.77036389</v>
+        <v>132.287185144</v>
       </c>
       <c r="E58" t="n">
-        <v>244.7451973</v>
+        <v>294.966351585</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>258.002314109</v>
+        <v>237.470811325</v>
       </c>
       <c r="C59" t="n">
-        <v>283.735202401</v>
+        <v>269.427645077</v>
       </c>
       <c r="D59" t="n">
-        <v>141.048447837</v>
+        <v>112.019358622</v>
       </c>
       <c r="E59" t="n">
-        <v>258.002314109</v>
+        <v>237.470811325</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>118.414246657</v>
+        <v>167.676294394</v>
       </c>
       <c r="C60" t="n">
-        <v>128.8664491</v>
+        <v>189.645088386</v>
       </c>
       <c r="D60" t="n">
-        <v>60.2097824869</v>
+        <v>71.4764047952</v>
       </c>
       <c r="E60" t="n">
-        <v>118.414246657</v>
+        <v>167.676294394</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>34.6906991405</v>
+        <v>131.364455649</v>
       </c>
       <c r="C61" t="n">
-        <v>29.1520724923</v>
+        <v>131.352100067</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.951748639430001</v>
+        <v>5.04822178837</v>
       </c>
       <c r="E61" t="n">
-        <v>34.6906991405</v>
+        <v>131.364455649</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>132.827448601</v>
+        <v>161.926009414</v>
       </c>
       <c r="C62" t="n">
-        <v>149.899603623</v>
+        <v>92.37608105859999</v>
       </c>
       <c r="D62" t="n">
-        <v>48.5687508222</v>
+        <v>-94.398673458</v>
       </c>
       <c r="E62" t="n">
-        <v>132.827448601</v>
+        <v>-161.926009414</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>357.192815682</v>
+        <v>194.727268294</v>
       </c>
       <c r="C63" t="n">
-        <v>407.318125273</v>
+        <v>21.3569395847</v>
       </c>
       <c r="D63" t="n">
-        <v>195.609091294</v>
+        <v>-181.526591596</v>
       </c>
       <c r="E63" t="n">
-        <v>357.192815682</v>
+        <v>-194.727268294</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>492.008955438</v>
+        <v>195.927206152</v>
       </c>
       <c r="C64" t="n">
-        <v>558.425295796</v>
+        <v>-65.9665518078</v>
       </c>
       <c r="D64" t="n">
-        <v>277.045028521</v>
+        <v>-219.326224578</v>
       </c>
       <c r="E64" t="n">
-        <v>492.008955438</v>
+        <v>-195.927206152</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>414.86129395</v>
+        <v>161.29981992</v>
       </c>
       <c r="C65" t="n">
-        <v>473.644361243</v>
+        <v>-97.3296901808</v>
       </c>
       <c r="D65" t="n">
-        <v>226.868487796</v>
+        <v>-185.680395738</v>
       </c>
       <c r="E65" t="n">
-        <v>414.86129395</v>
+        <v>-161.29981992</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>263.370176954</v>
+        <v>74.5167520304</v>
       </c>
       <c r="C66" t="n">
-        <v>301.160090244</v>
+        <v>-27.3300853094</v>
       </c>
       <c r="D66" t="n">
-        <v>119.979311203</v>
+        <v>-83.60353081780001</v>
       </c>
       <c r="E66" t="n">
-        <v>263.370176954</v>
+        <v>-74.5167520304</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>205.123364454</v>
+        <v>154.022959962</v>
       </c>
       <c r="C67" t="n">
-        <v>233.851102779</v>
+        <v>152.83887009</v>
       </c>
       <c r="D67" t="n">
-        <v>88.08979135760001</v>
+        <v>4.16129336063</v>
       </c>
       <c r="E67" t="n">
-        <v>205.123364454</v>
+        <v>154.022959962</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>239.744724869</v>
+        <v>281.737995576</v>
       </c>
       <c r="C68" t="n">
-        <v>271.536633455</v>
+        <v>305.285815813</v>
       </c>
       <c r="D68" t="n">
-        <v>131.857334088</v>
+        <v>76.2703200305</v>
       </c>
       <c r="E68" t="n">
-        <v>239.744724869</v>
+        <v>281.737995576</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>233.870229532</v>
+        <v>305.080081101</v>
       </c>
       <c r="C69" t="n">
-        <v>252.928711944</v>
+        <v>342.299844337</v>
       </c>
       <c r="D69" t="n">
-        <v>122.395026602</v>
+        <v>125.792707277</v>
       </c>
       <c r="E69" t="n">
-        <v>233.870229532</v>
+        <v>305.080081101</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>92.97202840830001</v>
+        <v>260.401388046</v>
       </c>
       <c r="C70" t="n">
-        <v>75.7724950712</v>
+        <v>295.754230217</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.18825655034</v>
+        <v>126.611151702</v>
       </c>
       <c r="E70" t="n">
-        <v>92.97202840830001</v>
+        <v>260.401388046</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>198.975512253</v>
+        <v>196.978052382</v>
       </c>
       <c r="C71" t="n">
-        <v>-96.05875697720001</v>
+        <v>223.925511283</v>
       </c>
       <c r="D71" t="n">
-        <v>-228.593359131</v>
+        <v>91.7901993695</v>
       </c>
       <c r="E71" t="n">
-        <v>-198.975512253</v>
+        <v>196.978052382</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>270.819632806</v>
+        <v>146.249166849</v>
       </c>
       <c r="C72" t="n">
-        <v>-145.074956626</v>
+        <v>163.256152501</v>
       </c>
       <c r="D72" t="n">
-        <v>-311.618061258</v>
+        <v>51.6736200257</v>
       </c>
       <c r="E72" t="n">
-        <v>-270.819632806</v>
+        <v>146.249166849</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>127.83871782</v>
+        <v>124.378493204</v>
       </c>
       <c r="C73" t="n">
-        <v>-51.581975878</v>
+        <v>128.959007258</v>
       </c>
       <c r="D73" t="n">
-        <v>-145.414249878</v>
+        <v>14.6979363134</v>
       </c>
       <c r="E73" t="n">
-        <v>-127.83871782</v>
+        <v>124.378493204</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>140.039538086</v>
+        <v>114.42478147</v>
       </c>
       <c r="C74" t="n">
-        <v>148.001450393</v>
+        <v>108.569870915</v>
       </c>
       <c r="D74" t="n">
-        <v>60.6361591477</v>
+        <v>-7.75321306686</v>
       </c>
       <c r="E74" t="n">
-        <v>140.039538086</v>
+        <v>114.42478147</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>248.660950401</v>
+        <v>101.942545899</v>
       </c>
       <c r="C75" t="n">
-        <v>272.600480837</v>
+        <v>95.4933126737</v>
       </c>
       <c r="D75" t="n">
-        <v>135.019584482</v>
+        <v>-9.484636621949999</v>
       </c>
       <c r="E75" t="n">
-        <v>248.660950401</v>
+        <v>101.942545899</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>179.364305022</v>
+        <v>106.57926446</v>
       </c>
       <c r="C76" t="n">
-        <v>198.760810432</v>
+        <v>102.804016406</v>
       </c>
       <c r="D76" t="n">
-        <v>97.17984673959999</v>
+        <v>-4.23200505514</v>
       </c>
       <c r="E76" t="n">
-        <v>179.364305022</v>
+        <v>106.57926446</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>43.6971761136</v>
+        <v>138.967025612</v>
       </c>
       <c r="C77" t="n">
-        <v>47.1764443279</v>
+        <v>129.275836583</v>
       </c>
       <c r="D77" t="n">
-        <v>17.7405667241</v>
+        <v>-13.4924750811</v>
       </c>
       <c r="E77" t="n">
-        <v>43.6971761136</v>
+        <v>138.967025612</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>52.2437169874</v>
+        <v>170.379516633</v>
       </c>
       <c r="C78" t="n">
-        <v>-10.5112243494</v>
+        <v>139.838835976</v>
       </c>
       <c r="D78" t="n">
-        <v>-56.4487474466</v>
+        <v>-46.958379312</v>
       </c>
       <c r="E78" t="n">
-        <v>-52.2437169874</v>
+        <v>170.379516633</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>93.96618386580001</v>
+        <v>150.342788644</v>
       </c>
       <c r="C79" t="n">
-        <v>9.116443097679999</v>
+        <v>94.5970523017</v>
       </c>
       <c r="D79" t="n">
-        <v>-88.62934326209999</v>
+        <v>-78.4039603855</v>
       </c>
       <c r="E79" t="n">
-        <v>-93.96618386580001</v>
+        <v>150.342788644</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>104.389776382</v>
+        <v>83.3489038605</v>
       </c>
       <c r="C80" t="n">
-        <v>16.3657522024</v>
+        <v>14.9437024701</v>
       </c>
       <c r="D80" t="n">
-        <v>-94.63448009699999</v>
+        <v>-74.1788553697</v>
       </c>
       <c r="E80" t="n">
-        <v>-104.389776382</v>
+        <v>-83.3489038605</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>69.85817292740001</v>
+        <v>36.4238735526</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.30769065822</v>
+        <v>-9.33449675132</v>
       </c>
       <c r="D81" t="n">
-        <v>-71.5948278994</v>
+        <v>-39.3600226166</v>
       </c>
       <c r="E81" t="n">
-        <v>-69.85817292740001</v>
+        <v>-36.4238735526</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>34.6008562805</v>
+        <v>77.8166767659</v>
       </c>
       <c r="C82" t="n">
-        <v>38.1162957383</v>
+        <v>74.72256006409999</v>
       </c>
       <c r="D82" t="n">
-        <v>12.0239290368</v>
+        <v>-4.56780373318</v>
       </c>
       <c r="E82" t="n">
-        <v>34.6008562805</v>
+        <v>77.8166767659</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>202.322294077</v>
+        <v>197.076715393</v>
       </c>
       <c r="C83" t="n">
-        <v>230.932149663</v>
+        <v>201.636050226</v>
       </c>
       <c r="D83" t="n">
-        <v>106.131532692</v>
+        <v>20.1671028099</v>
       </c>
       <c r="E83" t="n">
-        <v>202.322294077</v>
+        <v>197.076715393</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>362.819361809</v>
+        <v>249.166847631</v>
       </c>
       <c r="C84" t="n">
-        <v>412.369988032</v>
+        <v>259.438470501</v>
       </c>
       <c r="D84" t="n">
-        <v>201.620275105</v>
+        <v>37.9058375718</v>
       </c>
       <c r="E84" t="n">
-        <v>362.819361809</v>
+        <v>249.166847631</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>386.657351603</v>
+        <v>195.448474945</v>
       </c>
       <c r="C85" t="n">
-        <v>439.138187555</v>
+        <v>211.259617225</v>
       </c>
       <c r="D85" t="n">
-        <v>215.814766126</v>
+        <v>48.9516878489</v>
       </c>
       <c r="E85" t="n">
-        <v>386.657351603</v>
+        <v>195.448474945</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>248.335092369</v>
+        <v>120.228861492</v>
       </c>
       <c r="C86" t="n">
-        <v>282.090731566</v>
+        <v>135.867989134</v>
       </c>
       <c r="D86" t="n">
-        <v>135.873848495</v>
+        <v>46.8144444119</v>
       </c>
       <c r="E86" t="n">
-        <v>248.335092369</v>
+        <v>120.228861492</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>50.930814301</v>
+        <v>112.787516338</v>
       </c>
       <c r="C87" t="n">
-        <v>53.1343069015</v>
+        <v>127.57361085</v>
       </c>
       <c r="D87" t="n">
-        <v>17.1005373814</v>
+        <v>41.4662701409</v>
       </c>
       <c r="E87" t="n">
-        <v>50.930814301</v>
+        <v>112.787516338</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>145.163870404</v>
+        <v>159.368284005</v>
       </c>
       <c r="C88" t="n">
-        <v>-48.5789425656</v>
+        <v>180.691512437</v>
       </c>
       <c r="D88" t="n">
-        <v>-162.954790759</v>
+        <v>69.0126528513</v>
       </c>
       <c r="E88" t="n">
-        <v>-145.163870404</v>
+        <v>159.368284005</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>234.294035138</v>
+        <v>240.138489301</v>
       </c>
       <c r="C89" t="n">
-        <v>-86.8138400645</v>
+        <v>266.83371443</v>
       </c>
       <c r="D89" t="n">
-        <v>-264.960740684</v>
+        <v>85.8347164568</v>
       </c>
       <c r="E89" t="n">
-        <v>-234.294035138</v>
+        <v>240.138489301</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>210.420110171</v>
+        <v>268.006321871</v>
       </c>
       <c r="C90" t="n">
-        <v>-85.1928183065</v>
+        <v>296.141491427</v>
       </c>
       <c r="D90" t="n">
-        <v>-239.402862178</v>
+        <v>90.7358570482</v>
       </c>
       <c r="E90" t="n">
-        <v>-210.420110171</v>
+        <v>268.006321871</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>71.35090978629999</v>
+        <v>216.82467573</v>
       </c>
       <c r="C91" t="n">
-        <v>-23.3628544779</v>
+        <v>243.910315936</v>
       </c>
       <c r="D91" t="n">
-        <v>-79.9204901726</v>
+        <v>89.40982950119999</v>
       </c>
       <c r="E91" t="n">
-        <v>-71.35090978629999</v>
+        <v>216.82467573</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>174.288144761</v>
+        <v>156.92248373</v>
       </c>
       <c r="C92" t="n">
-        <v>198.480184794</v>
+        <v>178.601662578</v>
       </c>
       <c r="D92" t="n">
-        <v>91.65915126900001</v>
+        <v>69.9455314066</v>
       </c>
       <c r="E92" t="n">
-        <v>174.288144761</v>
+        <v>156.92248373</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>426.505964241</v>
+        <v>131.162269202</v>
       </c>
       <c r="C93" t="n">
-        <v>488.135285029</v>
+        <v>148.192291892</v>
       </c>
       <c r="D93" t="n">
-        <v>228.263439647</v>
+        <v>52.1926170498</v>
       </c>
       <c r="E93" t="n">
-        <v>426.505964241</v>
+        <v>131.162269202</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>583.549737091</v>
+        <v>148.067149834</v>
       </c>
       <c r="C94" t="n">
-        <v>668.382199794</v>
+        <v>161.498012142</v>
       </c>
       <c r="D94" t="n">
-        <v>312.847362281</v>
+        <v>39.5950708504</v>
       </c>
       <c r="E94" t="n">
-        <v>583.549737091</v>
+        <v>148.067149834</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>595.94113469</v>
+        <v>171.385644769</v>
       </c>
       <c r="C95" t="n">
-        <v>683.234566628</v>
+        <v>181.569740463</v>
       </c>
       <c r="D95" t="n">
-        <v>313.867606779</v>
+        <v>31.975831249</v>
       </c>
       <c r="E95" t="n">
-        <v>595.94113469</v>
+        <v>171.385644769</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>507.741741133</v>
+        <v>163.912044673</v>
       </c>
       <c r="C96" t="n">
-        <v>582.414074973</v>
+        <v>172.479632716</v>
       </c>
       <c r="D96" t="n">
-        <v>258.358973313</v>
+        <v>27.3237775786</v>
       </c>
       <c r="E96" t="n">
-        <v>507.741741133</v>
+        <v>163.912044673</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>373.191982147</v>
+        <v>135.526848122</v>
       </c>
       <c r="C97" t="n">
-        <v>427.704614334</v>
+        <v>140.864585808</v>
       </c>
       <c r="D97" t="n">
-        <v>192.753758193</v>
+        <v>17.3212878634</v>
       </c>
       <c r="E97" t="n">
-        <v>373.191982147</v>
+        <v>135.526848122</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>206.776068976</v>
+        <v>110.965304224</v>
       </c>
       <c r="C98" t="n">
-        <v>232.060087374</v>
+        <v>111.266792979</v>
       </c>
       <c r="D98" t="n">
-        <v>113.706684047</v>
+        <v>4.21930022196</v>
       </c>
       <c r="E98" t="n">
-        <v>206.776068976</v>
+        <v>110.965304224</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>80.2750640621</v>
+        <v>109.962280536</v>
       </c>
       <c r="C99" t="n">
-        <v>40.0300184263</v>
+        <v>100.787206254</v>
       </c>
       <c r="D99" t="n">
-        <v>-47.5677802134</v>
+        <v>-13.9423373714</v>
       </c>
       <c r="E99" t="n">
-        <v>-80.2750640621</v>
+        <v>109.962280536</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>224.145931139</v>
+        <v>114.842283636</v>
       </c>
       <c r="C100" t="n">
-        <v>-93.72964437100001</v>
+        <v>101.359836049</v>
       </c>
       <c r="D100" t="n">
-        <v>-255.543619125</v>
+        <v>-21.1012064846</v>
       </c>
       <c r="E100" t="n">
-        <v>-224.145931139</v>
+        <v>114.842283636</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>278.708336786</v>
+        <v>105.99248243</v>
       </c>
       <c r="C101" t="n">
-        <v>-143.179086632</v>
+        <v>102.381050799</v>
       </c>
       <c r="D101" t="n">
-        <v>-320.654602044</v>
+        <v>-3.96185501675</v>
       </c>
       <c r="E101" t="n">
-        <v>-278.708336786</v>
+        <v>105.99248243</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>139.803134827</v>
+        <v>122.234204033</v>
       </c>
       <c r="C102" t="n">
-        <v>-66.3393780724</v>
+        <v>123.288426909</v>
       </c>
       <c r="D102" t="n">
-        <v>-160.528778494</v>
+        <v>6.67114957745</v>
       </c>
       <c r="E102" t="n">
-        <v>-139.803134827</v>
+        <v>122.234204033</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>144.878961216</v>
+        <v>153.283961965</v>
       </c>
       <c r="C103" t="n">
-        <v>160.037186926</v>
+        <v>151.46807808</v>
       </c>
       <c r="D103" t="n">
-        <v>77.0140346427</v>
+        <v>2.75908203019</v>
       </c>
       <c r="E103" t="n">
-        <v>144.878961216</v>
+        <v>153.283961965</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>411.522465422</v>
+        <v>147.105142906</v>
       </c>
       <c r="C104" t="n">
-        <v>470.06271159</v>
+        <v>149.671145409</v>
       </c>
       <c r="D104" t="n">
-        <v>224.126090249</v>
+        <v>11.8000879651</v>
       </c>
       <c r="E104" t="n">
-        <v>411.522465422</v>
+        <v>147.105142906</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>613.853877597</v>
+        <v>124.100064431</v>
       </c>
       <c r="C105" t="n">
-        <v>704.275761489</v>
+        <v>134.553419841</v>
       </c>
       <c r="D105" t="n">
-        <v>314.381088541</v>
+        <v>29.7171971517</v>
       </c>
       <c r="E105" t="n">
-        <v>613.853877597</v>
+        <v>124.100064431</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>752.978246421</v>
+        <v>132.849363797</v>
       </c>
       <c r="C106" t="n">
-        <v>864.003417635</v>
+        <v>141.243551321</v>
       </c>
       <c r="D106" t="n">
-        <v>373.798622233</v>
+        <v>24.7228277394</v>
       </c>
       <c r="E106" t="n">
-        <v>752.978246421</v>
+        <v>132.849363797</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>818.193909374</v>
+        <v>169.215129991</v>
       </c>
       <c r="C107" t="n">
-        <v>939.022480586</v>
+        <v>158.282497553</v>
       </c>
       <c r="D107" t="n">
-        <v>416.709075684</v>
+        <v>-14.1751963378</v>
       </c>
       <c r="E107" t="n">
-        <v>818.193909374</v>
+        <v>169.215129991</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>750.197119578</v>
+        <v>155.713822262</v>
       </c>
       <c r="C108" t="n">
-        <v>860.127740956</v>
+        <v>126.641606581</v>
       </c>
       <c r="D108" t="n">
-        <v>398.199022562</v>
+        <v>-44.7848111432</v>
       </c>
       <c r="E108" t="n">
-        <v>750.197119578</v>
+        <v>155.713822262</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>500.865884654</v>
+        <v>69.472070215</v>
       </c>
       <c r="C109" t="n">
-        <v>572.522465058</v>
+        <v>49.1604400838</v>
       </c>
       <c r="D109" t="n">
-        <v>273.177065066</v>
+        <v>-30.2093735177</v>
       </c>
       <c r="E109" t="n">
-        <v>500.865884654</v>
+        <v>69.472070215</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>136.932934204</v>
+        <v>37.5050705108</v>
       </c>
       <c r="C110" t="n">
-        <v>153.877308072</v>
+        <v>32.8899929062</v>
       </c>
       <c r="D110" t="n">
-        <v>72.890213133</v>
+        <v>-7.82026448786</v>
       </c>
       <c r="E110" t="n">
-        <v>136.932934204</v>
+        <v>37.5050705108</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>175.320642065</v>
+        <v>108.766885594</v>
       </c>
       <c r="C111" t="n">
-        <v>-91.3170122433</v>
+        <v>107.412256613</v>
       </c>
       <c r="D111" t="n">
-        <v>-201.883460891</v>
+        <v>0.677692450944</v>
       </c>
       <c r="E111" t="n">
-        <v>-175.320642065</v>
+        <v>108.766885594</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>283.81913991</v>
+        <v>207.50760713</v>
       </c>
       <c r="C112" t="n">
-        <v>-142.739222018</v>
+        <v>199.359131624</v>
       </c>
       <c r="D112" t="n">
-        <v>-326.394860192</v>
+        <v>-6.4495621529</v>
       </c>
       <c r="E112" t="n">
-        <v>-283.81913991</v>
+        <v>207.50760713</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>201.376437158</v>
+        <v>198.829436146</v>
       </c>
       <c r="C113" t="n">
-        <v>-74.68178368300001</v>
+        <v>198.163375818</v>
       </c>
       <c r="D113" t="n">
-        <v>-227.748871563</v>
+        <v>8.52729760643</v>
       </c>
       <c r="E113" t="n">
-        <v>-201.376437158</v>
+        <v>198.829436146</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>74.6654518398</v>
+        <v>120.641622006</v>
       </c>
       <c r="C114" t="n">
-        <v>44.2399013811</v>
+        <v>131.866587447</v>
       </c>
       <c r="D114" t="n">
-        <v>-34.4120997278</v>
+        <v>31.8427147073</v>
       </c>
       <c r="E114" t="n">
-        <v>74.6654518398</v>
+        <v>120.641622006</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>191.372392704</v>
+        <v>95.7751071462</v>
       </c>
       <c r="C115" t="n">
-        <v>216.427609414</v>
+        <v>107.650798185</v>
       </c>
       <c r="D115" t="n">
-        <v>104.020416521</v>
+        <v>32.9546285917</v>
       </c>
       <c r="E115" t="n">
-        <v>191.372392704</v>
+        <v>95.7751071462</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>393.6926824</v>
+        <v>128.319546229</v>
       </c>
       <c r="C116" t="n">
-        <v>451.401563125</v>
+        <v>141.631854058</v>
       </c>
       <c r="D116" t="n">
-        <v>194.982777901</v>
+        <v>38.6057493936</v>
       </c>
       <c r="E116" t="n">
-        <v>393.6926824</v>
+        <v>128.319546229</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>638.515954448</v>
+        <v>191.317863581</v>
       </c>
       <c r="C117" t="n">
-        <v>732.458511851</v>
+        <v>202.699689702</v>
       </c>
       <c r="D117" t="n">
-        <v>313.714295576</v>
+        <v>36.5250241027</v>
       </c>
       <c r="E117" t="n">
-        <v>638.515954448</v>
+        <v>191.317863581</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>868.842637343</v>
+        <v>206.251595044</v>
       </c>
       <c r="C118" t="n">
-        <v>997.1899549349999</v>
+        <v>215.851481069</v>
       </c>
       <c r="D118" t="n">
-        <v>443.347839896</v>
+        <v>33.0105192114</v>
       </c>
       <c r="E118" t="n">
-        <v>868.842637343</v>
+        <v>206.251595044</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>948.270976736</v>
+        <v>151.544566865</v>
       </c>
       <c r="C119" t="n">
-        <v>1087.85909797</v>
+        <v>166.144235406</v>
       </c>
       <c r="D119" t="n">
-        <v>499.451074252</v>
+        <v>43.3012144499</v>
       </c>
       <c r="E119" t="n">
-        <v>948.270976736</v>
+        <v>151.544566865</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>773.656101285</v>
+        <v>124.472402884</v>
       </c>
       <c r="C120" t="n">
-        <v>886.660177349</v>
+        <v>141.574580984</v>
       </c>
       <c r="D120" t="n">
-        <v>414.271124169</v>
+        <v>50.1890048958</v>
       </c>
       <c r="E120" t="n">
-        <v>773.656101285</v>
+        <v>124.472402884</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>395.917743617</v>
+        <v>154.775332572</v>
       </c>
       <c r="C121" t="n">
-        <v>453.284584209</v>
+        <v>176.683677855</v>
       </c>
       <c r="D121" t="n">
-        <v>210.028906273</v>
+        <v>69.3408654797</v>
       </c>
       <c r="E121" t="n">
-        <v>395.917743617</v>
+        <v>154.775332572</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>11.8012839976</v>
+        <v>225.228222647</v>
       </c>
       <c r="C122" t="n">
-        <v>9.39537069923</v>
+        <v>250.905136182</v>
       </c>
       <c r="D122" t="n">
-        <v>-3.54046682732</v>
+        <v>82.4157943487</v>
       </c>
       <c r="E122" t="n">
-        <v>11.8012839976</v>
+        <v>225.228222647</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>225.702099183</v>
+        <v>269.740595069</v>
       </c>
       <c r="C123" t="n">
-        <v>-114.836179968</v>
+        <v>289.09359921</v>
       </c>
       <c r="D123" t="n">
-        <v>-259.69464865</v>
+        <v>63.420781577</v>
       </c>
       <c r="E123" t="n">
-        <v>-225.702099183</v>
+        <v>269.740595069</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>307.098778957</v>
+        <v>210.303843498</v>
       </c>
       <c r="C124" t="n">
-        <v>-119.434391839</v>
+        <v>218.754525806</v>
       </c>
       <c r="D124" t="n">
-        <v>-348.447453294</v>
+        <v>30.47189814</v>
       </c>
       <c r="E124" t="n">
-        <v>-307.098778957</v>
+        <v>210.303843498</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>325.371068282</v>
+        <v>84.7906844644</v>
       </c>
       <c r="C125" t="n">
-        <v>-100.69051993</v>
+        <v>84.9103865484</v>
       </c>
       <c r="D125" t="n">
-        <v>-363.181181038</v>
+        <v>2.06093430069</v>
       </c>
       <c r="E125" t="n">
-        <v>-325.371068282</v>
+        <v>84.7906844644</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>304.595875135</v>
+        <v>26.9660548373</v>
       </c>
       <c r="C126" t="n">
-        <v>-117.167888399</v>
+        <v>5.03498773301</v>
       </c>
       <c r="D126" t="n">
-        <v>-345.351021015</v>
+        <v>-23.4478121317</v>
       </c>
       <c r="E126" t="n">
-        <v>-304.595875135</v>
+        <v>-26.9660548373</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>208.36758875</v>
+        <v>76.58504321869999</v>
       </c>
       <c r="C127" t="n">
-        <v>-104.089640888</v>
+        <v>35.0187457131</v>
       </c>
       <c r="D127" t="n">
-        <v>-239.659033081</v>
+        <v>-52.7277958853</v>
       </c>
       <c r="E127" t="n">
-        <v>-208.36758875</v>
+        <v>-76.58504321869999</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>19.0841151291</v>
+        <v>163.916973062</v>
       </c>
       <c r="C128" t="n">
-        <v>17.8208279095</v>
+        <v>111.568011678</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.392051026613</v>
+        <v>-75.8312704329</v>
       </c>
       <c r="E128" t="n">
-        <v>19.0841151291</v>
+        <v>163.916973062</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>296.820502043</v>
+        <v>162.401722683</v>
       </c>
       <c r="C129" t="n">
-        <v>337.388517009</v>
+        <v>126.272375057</v>
       </c>
       <c r="D129" t="n">
-        <v>163.536809634</v>
+        <v>-54.9570477304</v>
       </c>
       <c r="E129" t="n">
-        <v>296.820502043</v>
+        <v>162.401722683</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>477.101626942</v>
+        <v>89.9447867912</v>
       </c>
       <c r="C130" t="n">
-        <v>543.245171608</v>
+        <v>90.22393382999999</v>
       </c>
       <c r="D130" t="n">
-        <v>265.796191965</v>
+        <v>2.73130893703</v>
       </c>
       <c r="E130" t="n">
-        <v>477.101626942</v>
+        <v>89.9447867912</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>447.950457128</v>
+        <v>110.755650388</v>
       </c>
       <c r="C131" t="n">
-        <v>511.437961127</v>
+        <v>125.271511292</v>
       </c>
       <c r="D131" t="n">
-        <v>245.632571358</v>
+        <v>40.6867109647</v>
       </c>
       <c r="E131" t="n">
-        <v>447.950457128</v>
+        <v>110.755650388</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>274.238795569</v>
+        <v>193.458278893</v>
       </c>
       <c r="C132" t="n">
-        <v>313.775073782</v>
+        <v>220.571829307</v>
       </c>
       <c r="D132" t="n">
-        <v>143.337424413</v>
+        <v>91.82180041380001</v>
       </c>
       <c r="E132" t="n">
-        <v>274.238795569</v>
+        <v>193.458278893</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>104.73188292</v>
+        <v>295.866979279</v>
       </c>
       <c r="C133" t="n">
-        <v>119.221745288</v>
+        <v>330.589638701</v>
       </c>
       <c r="D133" t="n">
-        <v>50.504621392</v>
+        <v>115.432722867</v>
       </c>
       <c r="E133" t="n">
-        <v>104.73188292</v>
+        <v>295.866979279</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>41.5424035422</v>
+        <v>320.484526269</v>
       </c>
       <c r="C134" t="n">
-        <v>36.6694989655</v>
+        <v>352.704222687</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.09422855621530001</v>
+        <v>105.293053609</v>
       </c>
       <c r="E134" t="n">
-        <v>41.5424035422</v>
+        <v>320.484526269</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>77.57355279159999</v>
+        <v>221.76391842</v>
       </c>
       <c r="C135" t="n">
-        <v>36.5696763272</v>
+        <v>249.03817967</v>
       </c>
       <c r="D135" t="n">
-        <v>-48.594393684</v>
+        <v>89.5998358574</v>
       </c>
       <c r="E135" t="n">
-        <v>-77.57355279159999</v>
+        <v>221.76391842</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>117.201657834</v>
+        <v>117.539801098</v>
       </c>
       <c r="C136" t="n">
-        <v>7.37955527166</v>
+        <v>133.520526241</v>
       </c>
       <c r="D136" t="n">
-        <v>-112.875297382</v>
+        <v>46.8360078411</v>
       </c>
       <c r="E136" t="n">
-        <v>-117.201657834</v>
+        <v>117.539801098</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>169.466441947</v>
+        <v>79.8050991059</v>
       </c>
       <c r="C137" t="n">
-        <v>-53.4933337035</v>
+        <v>72.3020315073</v>
       </c>
       <c r="D137" t="n">
-        <v>-189.424183968</v>
+        <v>-12.2006918352</v>
       </c>
       <c r="E137" t="n">
-        <v>-169.466441947</v>
+        <v>79.8050991059</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>185.572431233</v>
+        <v>205.64917438</v>
       </c>
       <c r="C138" t="n">
-        <v>-82.08714556290001</v>
+        <v>92.6123797995</v>
       </c>
       <c r="D138" t="n">
-        <v>-212.286943688</v>
+        <v>-142.782218765</v>
       </c>
       <c r="E138" t="n">
-        <v>-185.572431233</v>
+        <v>-205.64917438</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>115.936874509</v>
+        <v>280.769649838</v>
       </c>
       <c r="C139" t="n">
-        <v>-38.7238822053</v>
+        <v>43.7780783686</v>
       </c>
       <c r="D139" t="n">
-        <v>-130.116213873</v>
+        <v>-254.232816469</v>
       </c>
       <c r="E139" t="n">
-        <v>-115.936874509</v>
+        <v>-280.769649838</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>73.0812340178</v>
+        <v>260.979782354</v>
       </c>
       <c r="C140" t="n">
-        <v>59.5665588079</v>
+        <v>-90.6922539661</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.6241147294</v>
+        <v>-293.033157626</v>
       </c>
       <c r="E140" t="n">
-        <v>73.0812340178</v>
+        <v>-260.979782354</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>150.121881301</v>
+        <v>234.866896378</v>
       </c>
       <c r="C141" t="n">
-        <v>162.934980238</v>
+        <v>-155.248319993</v>
       </c>
       <c r="D141" t="n">
-        <v>77.3784641961</v>
+        <v>-267.706462958</v>
       </c>
       <c r="E141" t="n">
-        <v>150.121881301</v>
+        <v>-234.866896378</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>229.62439588</v>
+        <v>118.574684208</v>
       </c>
       <c r="C142" t="n">
-        <v>262.382645678</v>
+        <v>-83.6119165912</v>
       </c>
       <c r="D142" t="n">
-        <v>120.358257449</v>
+        <v>-134.41583711</v>
       </c>
       <c r="E142" t="n">
-        <v>229.62439588</v>
+        <v>-118.574684208</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>360.271067454</v>
+        <v>140.203905312</v>
       </c>
       <c r="C143" t="n">
-        <v>412.876755353</v>
+        <v>146.897351075</v>
       </c>
       <c r="D143" t="n">
-        <v>173.91425041</v>
+        <v>20.9300055605</v>
       </c>
       <c r="E143" t="n">
-        <v>360.271067454</v>
+        <v>140.203905312</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>525.753501817</v>
+        <v>360.34338399</v>
       </c>
       <c r="C144" t="n">
-        <v>603.090632253</v>
+        <v>401.37790599</v>
       </c>
       <c r="D144" t="n">
-        <v>268.2271762</v>
+        <v>137.434507111</v>
       </c>
       <c r="E144" t="n">
-        <v>525.753501817</v>
+        <v>360.34338399</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>630.263735106</v>
+        <v>448.451339055</v>
       </c>
       <c r="C145" t="n">
-        <v>721.870855095</v>
+        <v>508.591657511</v>
       </c>
       <c r="D145" t="n">
-        <v>338.832774456</v>
+        <v>227.102807642</v>
       </c>
       <c r="E145" t="n">
-        <v>630.263735106</v>
+        <v>448.451339055</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>564.802497198</v>
+        <v>446.780467291</v>
       </c>
       <c r="C146" t="n">
-        <v>645.877717691</v>
+        <v>513.008929574</v>
       </c>
       <c r="D146" t="n">
-        <v>308.057640018</v>
+        <v>240.342596794</v>
       </c>
       <c r="E146" t="n">
-        <v>564.802497198</v>
+        <v>446.780467291</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>330.464213917</v>
+        <v>406.247367632</v>
       </c>
       <c r="C147" t="n">
-        <v>377.671633493</v>
+        <v>467.154896135</v>
       </c>
       <c r="D147" t="n">
-        <v>177.46444309</v>
+        <v>208.017120469</v>
       </c>
       <c r="E147" t="n">
-        <v>330.464213917</v>
+        <v>406.247367632</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>61.6578611512</v>
+        <v>324.34643255</v>
       </c>
       <c r="C148" t="n">
-        <v>68.9602920775</v>
+        <v>368.491465078</v>
       </c>
       <c r="D148" t="n">
-        <v>28.5396738883</v>
+        <v>163.792230921</v>
       </c>
       <c r="E148" t="n">
-        <v>61.6578611512</v>
+        <v>324.34643255</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>115.072968498</v>
+        <v>275.642697753</v>
       </c>
       <c r="C149" t="n">
-        <v>-50.6549317291</v>
+        <v>267.684846748</v>
       </c>
       <c r="D149" t="n">
-        <v>-131.60902722</v>
+        <v>-1.40505009059</v>
       </c>
       <c r="E149" t="n">
-        <v>-115.072968498</v>
+        <v>275.642697753</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>141.775182391</v>
+        <v>263.519032533</v>
       </c>
       <c r="C150" t="n">
-        <v>-48.0983687976</v>
+        <v>70.6880908041</v>
       </c>
       <c r="D150" t="n">
-        <v>-159.310393002</v>
+        <v>-219.683213061</v>
       </c>
       <c r="E150" t="n">
-        <v>-141.775182391</v>
+        <v>-263.519032533</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>52.4317846216</v>
+        <v>359.868467643</v>
       </c>
       <c r="C151" t="n">
-        <v>14.0166425757</v>
+        <v>-173.7212229</v>
       </c>
       <c r="D151" t="n">
-        <v>-43.2835701951</v>
+        <v>-413.193803269</v>
       </c>
       <c r="E151" t="n">
-        <v>-52.4317846216</v>
+        <v>-359.868467643</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>168.63361305</v>
+        <v>472.724318421</v>
       </c>
       <c r="C152" t="n">
-        <v>192.013689656</v>
+        <v>-289.712111193</v>
       </c>
       <c r="D152" t="n">
-        <v>88.5070781908</v>
+        <v>-542.651154724</v>
       </c>
       <c r="E152" t="n">
-        <v>168.63361305</v>
+        <v>-472.724318421</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>394.201074124</v>
+        <v>436.607284539</v>
       </c>
       <c r="C153" t="n">
-        <v>451.848325176</v>
+        <v>-252.215242483</v>
       </c>
       <c r="D153" t="n">
-        <v>203.465394959</v>
+        <v>-502.836420785</v>
       </c>
       <c r="E153" t="n">
-        <v>394.201074124</v>
+        <v>-436.607284539</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>579.524064197</v>
+        <v>294.514923546</v>
       </c>
       <c r="C154" t="n">
-        <v>664.399206528</v>
+        <v>-85.6758552683</v>
       </c>
       <c r="D154" t="n">
-        <v>305.096766152</v>
+        <v>-326.098545429</v>
       </c>
       <c r="E154" t="n">
-        <v>579.524064197</v>
+        <v>-294.514923546</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>638.028184879</v>
+        <v>160.887505722</v>
       </c>
       <c r="C155" t="n">
-        <v>731.079135586</v>
+        <v>109.680704645</v>
       </c>
       <c r="D155" t="n">
-        <v>340.821406847</v>
+        <v>-74.235193506</v>
       </c>
       <c r="E155" t="n">
-        <v>638.028184879</v>
+        <v>160.887505722</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>532.035178319</v>
+        <v>286.458200257</v>
       </c>
       <c r="C156" t="n">
-        <v>609.431197883</v>
+        <v>326.923372902</v>
       </c>
       <c r="D156" t="n">
-        <v>283.889806931</v>
+        <v>147.091105749</v>
       </c>
       <c r="E156" t="n">
-        <v>532.035178319</v>
+        <v>286.458200257</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>328.371457428</v>
+        <v>529.710317222</v>
       </c>
       <c r="C157" t="n">
-        <v>376.103520701</v>
+        <v>609.174637001</v>
       </c>
       <c r="D157" t="n">
-        <v>170.645506098</v>
+        <v>268.118199946</v>
       </c>
       <c r="E157" t="n">
-        <v>328.371457428</v>
+        <v>529.710317222</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>148.539569372</v>
+        <v>718.398821681</v>
       </c>
       <c r="C158" t="n">
-        <v>169.686510496</v>
+        <v>826.672166608</v>
       </c>
       <c r="D158" t="n">
-        <v>72.80983425309999</v>
+        <v>384.982193643</v>
       </c>
       <c r="E158" t="n">
-        <v>148.539569372</v>
+        <v>718.398821681</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>60.9165545503</v>
+        <v>799.444184456</v>
       </c>
       <c r="C159" t="n">
-        <v>65.2798673891</v>
+        <v>914.778967061</v>
       </c>
       <c r="D159" t="n">
-        <v>26.3965914604</v>
+        <v>451.393200769</v>
       </c>
       <c r="E159" t="n">
-        <v>60.9165545503</v>
+        <v>799.444184456</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>73.4676612502</v>
+        <v>722.638297559</v>
       </c>
       <c r="C160" t="n">
-        <v>50.1549902542</v>
+        <v>821.823905124</v>
       </c>
       <c r="D160" t="n">
-        <v>-23.0150785624</v>
+        <v>401.81233809</v>
       </c>
       <c r="E160" t="n">
-        <v>73.4676612502</v>
+        <v>722.638297559</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>108.409115128</v>
+        <v>469.140740179</v>
       </c>
       <c r="C161" t="n">
-        <v>16.5703450897</v>
+        <v>533.88812001</v>
       </c>
       <c r="D161" t="n">
-        <v>-98.56133242929999</v>
+        <v>252.725650155</v>
       </c>
       <c r="E161" t="n">
-        <v>-108.409115128</v>
+        <v>469.140740179</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>153.850111289</v>
+        <v>136.422056924</v>
       </c>
       <c r="C162" t="n">
-        <v>-48.5697835037</v>
+        <v>155.144248157</v>
       </c>
       <c r="D162" t="n">
-        <v>-171.966696047</v>
+        <v>58.0063432091</v>
       </c>
       <c r="E162" t="n">
-        <v>-153.850111289</v>
+        <v>136.422056924</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>141.089738538</v>
+        <v>162.326100915</v>
       </c>
       <c r="C163" t="n">
-        <v>-68.84796953190001</v>
+        <v>-101.29409896</v>
       </c>
       <c r="D163" t="n">
-        <v>-162.202121009</v>
+        <v>-186.583270628</v>
       </c>
       <c r="E163" t="n">
-        <v>-141.089738538</v>
+        <v>-162.326100915</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>22.8826587103</v>
+        <v>357.743082336</v>
       </c>
       <c r="C164" t="n">
-        <v>12.095277092</v>
+        <v>-177.81452699</v>
       </c>
       <c r="D164" t="n">
-        <v>-12.9031378269</v>
+        <v>-411.245343813</v>
       </c>
       <c r="E164" t="n">
-        <v>-22.8826587103</v>
+        <v>-357.743082336</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>222.528730562</v>
+        <v>441.501288147</v>
       </c>
       <c r="C165" t="n">
-        <v>251.813046023</v>
+        <v>-180.788034344</v>
       </c>
       <c r="D165" t="n">
-        <v>122.04146747</v>
+        <v>-502.107626282</v>
       </c>
       <c r="E165" t="n">
-        <v>222.528730562</v>
+        <v>-441.501288147</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>389.450253232</v>
+        <v>400.595560296</v>
       </c>
       <c r="C166" t="n">
-        <v>443.515764341</v>
+        <v>-156.356125256</v>
       </c>
       <c r="D166" t="n">
-        <v>215.442002159</v>
+        <v>-454.007195669</v>
       </c>
       <c r="E166" t="n">
-        <v>389.450253232</v>
+        <v>-400.595560296</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>431.07496149</v>
+        <v>242.254120187</v>
       </c>
       <c r="C167" t="n">
-        <v>493.085727506</v>
+        <v>-109.848459736</v>
       </c>
       <c r="D167" t="n">
-        <v>232.297835238</v>
+        <v>-277.200570878</v>
       </c>
       <c r="E167" t="n">
-        <v>431.07496149</v>
+        <v>-242.254120187</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>388.067251923</v>
+        <v>41.5279773788</v>
       </c>
       <c r="C168" t="n">
-        <v>444.90228888</v>
+        <v>10.3522195473</v>
       </c>
       <c r="D168" t="n">
-        <v>198.149781746</v>
+        <v>-34.8892219743</v>
       </c>
       <c r="E168" t="n">
-        <v>388.067251923</v>
+        <v>-41.5279773788</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>332.511160382</v>
+        <v>250.807957036</v>
       </c>
       <c r="C169" t="n">
-        <v>381.095157316</v>
+        <v>285.033299569</v>
       </c>
       <c r="D169" t="n">
-        <v>168.897718378</v>
+        <v>122.078718374</v>
       </c>
       <c r="E169" t="n">
-        <v>332.511160382</v>
+        <v>250.807957036</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>278.335009134</v>
+        <v>464.106370303</v>
       </c>
       <c r="C170" t="n">
-        <v>317.144289654</v>
+        <v>527.0062373649999</v>
       </c>
       <c r="D170" t="n">
-        <v>151.247941471</v>
+        <v>242.718166922</v>
       </c>
       <c r="E170" t="n">
-        <v>278.335009134</v>
+        <v>464.106370303</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>193.469126368</v>
+        <v>555.480485256</v>
       </c>
       <c r="C171" t="n">
-        <v>214.999017922</v>
+        <v>631.3256549819999</v>
       </c>
       <c r="D171" t="n">
-        <v>105.569488554</v>
+        <v>300.588500471</v>
       </c>
       <c r="E171" t="n">
-        <v>193.469126368</v>
+        <v>555.480485256</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>72.117338541</v>
+        <v>504.705727089</v>
       </c>
       <c r="C172" t="n">
-        <v>71.7098941684</v>
+        <v>575.5746267219999</v>
       </c>
       <c r="D172" t="n">
-        <v>17.3243005707</v>
+        <v>276.60930603</v>
       </c>
       <c r="E172" t="n">
-        <v>72.117338541</v>
+        <v>504.705727089</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>64.8371461035</v>
+        <v>354.485521254</v>
       </c>
       <c r="C173" t="n">
-        <v>-21.2263398107</v>
+        <v>405.002545064</v>
       </c>
       <c r="D173" t="n">
-        <v>-72.6096077457</v>
+        <v>188.212843339</v>
       </c>
       <c r="E173" t="n">
-        <v>-64.8371461035</v>
+        <v>354.485521254</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>34.8593002027</v>
+        <v>170.441738855</v>
       </c>
       <c r="C174" t="n">
-        <v>-14.4455368453</v>
+        <v>190.783000625</v>
       </c>
       <c r="D174" t="n">
-        <v>-39.5367987739</v>
+        <v>63.8558524314</v>
       </c>
       <c r="E174" t="n">
-        <v>-34.8593002027</v>
+        <v>170.441738855</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>120.045980925</v>
+        <v>138.25459345</v>
       </c>
       <c r="C175" t="n">
-        <v>134.237596531</v>
+        <v>30.7572975596</v>
       </c>
       <c r="D175" t="n">
-        <v>63.1500185372</v>
+        <v>-119.442411591</v>
       </c>
       <c r="E175" t="n">
-        <v>120.045980925</v>
+        <v>-138.25459345</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>257.26040961</v>
+        <v>289.767851968</v>
       </c>
       <c r="C176" t="n">
-        <v>287.694435163</v>
+        <v>-73.96503734949999</v>
       </c>
       <c r="D176" t="n">
-        <v>143.025244825</v>
+        <v>-317.582701989</v>
       </c>
       <c r="E176" t="n">
-        <v>257.26040961</v>
+        <v>-289.767851968</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>255.738890941</v>
+        <v>402.119886793</v>
       </c>
       <c r="C177" t="n">
-        <v>284.814477901</v>
+        <v>-157.907374428</v>
       </c>
       <c r="D177" t="n">
-        <v>141.786945568</v>
+        <v>-455.939564459</v>
       </c>
       <c r="E177" t="n">
-        <v>255.738890941</v>
+        <v>-402.119886793</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>129.6470706</v>
+        <v>432.663655605</v>
       </c>
       <c r="C178" t="n">
-        <v>144.826741768</v>
+        <v>-202.795918481</v>
       </c>
       <c r="D178" t="n">
-        <v>68.74893624729999</v>
+        <v>-496.103111487</v>
       </c>
       <c r="E178" t="n">
-        <v>129.6470706</v>
+        <v>-432.663655605</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>29.7990333496</v>
+        <v>354.842948769</v>
       </c>
       <c r="C179" t="n">
-        <v>32.4880511816</v>
+        <v>-183.754535947</v>
       </c>
       <c r="D179" t="n">
-        <v>7.7742945596</v>
+        <v>-408.443270607</v>
       </c>
       <c r="E179" t="n">
-        <v>29.7990333496</v>
+        <v>-354.842948769</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>53.952527501</v>
+        <v>174.405129414</v>
       </c>
       <c r="C180" t="n">
-        <v>59.64037555</v>
+        <v>-84.25892086570001</v>
       </c>
       <c r="D180" t="n">
-        <v>24.2513943206</v>
+        <v>-200.173970221</v>
       </c>
       <c r="E180" t="n">
-        <v>53.952527501</v>
+        <v>-174.405129414</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>161.25983949</v>
+        <v>121.798210519</v>
       </c>
       <c r="C181" t="n">
-        <v>177.544578952</v>
+        <v>130.45406322</v>
       </c>
       <c r="D181" t="n">
-        <v>86.0596904976</v>
+        <v>24.6217933682</v>
       </c>
       <c r="E181" t="n">
-        <v>161.25983949</v>
+        <v>121.798210519</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>224.334272754</v>
+        <v>362.248612421</v>
       </c>
       <c r="C182" t="n">
-        <v>249.841890486</v>
+        <v>411.548999084</v>
       </c>
       <c r="D182" t="n">
-        <v>123.601262569</v>
+        <v>185.469257196</v>
       </c>
       <c r="E182" t="n">
-        <v>224.334272754</v>
+        <v>362.248612421</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>209.381567034</v>
+        <v>538.0167357190001</v>
       </c>
       <c r="C183" t="n">
-        <v>237.867113747</v>
+        <v>613.298519759</v>
       </c>
       <c r="D183" t="n">
-        <v>113.243883885</v>
+        <v>295.981445263</v>
       </c>
       <c r="E183" t="n">
-        <v>209.381567034</v>
+        <v>538.0167357190001</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>201.518462293</v>
+        <v>598.014658002</v>
       </c>
       <c r="C184" t="n">
-        <v>230.62897905</v>
+        <v>684.126923807</v>
       </c>
       <c r="D184" t="n">
-        <v>98.6605274061</v>
+        <v>332.610149877</v>
       </c>
       <c r="E184" t="n">
-        <v>201.518462293</v>
+        <v>598.014658002</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>260.111197101</v>
+        <v>545.187884454</v>
       </c>
       <c r="C185" t="n">
-        <v>297.894966229</v>
+        <v>625.053791419</v>
       </c>
       <c r="D185" t="n">
-        <v>131.726514476</v>
+        <v>300.080100703</v>
       </c>
       <c r="E185" t="n">
-        <v>260.111197101</v>
+        <v>545.187884454</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>357.28289936</v>
+        <v>409.548359722</v>
       </c>
       <c r="C186" t="n">
-        <v>408.336434728</v>
+        <v>469.05772842</v>
       </c>
       <c r="D186" t="n">
-        <v>192.523000991</v>
+        <v>220.841212522</v>
       </c>
       <c r="E186" t="n">
-        <v>357.28289936</v>
+        <v>409.548359722</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>402.550032356</v>
+        <v>234.924389149</v>
       </c>
       <c r="C187" t="n">
-        <v>459.528604014</v>
+        <v>265.806854615</v>
       </c>
       <c r="D187" t="n">
-        <v>220.090455686</v>
+        <v>106.33224106</v>
       </c>
       <c r="E187" t="n">
-        <v>402.550032356</v>
+        <v>234.924389149</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>350.116777358</v>
+        <v>129.588482267</v>
       </c>
       <c r="C188" t="n">
-        <v>400.102050201</v>
+        <v>84.1915575973</v>
       </c>
       <c r="D188" t="n">
-        <v>188.69203511</v>
+        <v>-64.6969011309</v>
       </c>
       <c r="E188" t="n">
-        <v>350.116777358</v>
+        <v>129.588482267</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>259.233311478</v>
+        <v>239.706250308</v>
       </c>
       <c r="C189" t="n">
-        <v>296.777803544</v>
+        <v>-53.2347184804</v>
       </c>
       <c r="D189" t="n">
-        <v>132.968378973</v>
+        <v>-259.934197498</v>
       </c>
       <c r="E189" t="n">
-        <v>259.233311478</v>
+        <v>-239.706250308</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>233.891167901</v>
+        <v>338.065915982</v>
       </c>
       <c r="C190" t="n">
-        <v>267.799685474</v>
+        <v>-157.359137371</v>
       </c>
       <c r="D190" t="n">
-        <v>113.113833483</v>
+        <v>-387.469956859</v>
       </c>
       <c r="E190" t="n">
-        <v>233.891167901</v>
+        <v>-338.065915982</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>302.113250689</v>
+        <v>354.081792511</v>
       </c>
       <c r="C191" t="n">
-        <v>346.129520498</v>
+        <v>-188.91103481</v>
       </c>
       <c r="D191" t="n">
-        <v>154.12209976</v>
+        <v>-407.822507857</v>
       </c>
       <c r="E191" t="n">
-        <v>302.113250689</v>
+        <v>-354.081792511</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>385.398877192</v>
+        <v>286.778913323</v>
       </c>
       <c r="C192" t="n">
-        <v>440.160014619</v>
+        <v>-126.44519716</v>
       </c>
       <c r="D192" t="n">
-        <v>209.643704823</v>
+        <v>-327.643788858</v>
       </c>
       <c r="E192" t="n">
-        <v>385.398877192</v>
+        <v>-286.778913323</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>392.719433892</v>
+        <v>194.691461174</v>
       </c>
       <c r="C193" t="n">
-        <v>447.81189068</v>
+        <v>3.89072609068</v>
       </c>
       <c r="D193" t="n">
-        <v>215.904385247</v>
+        <v>-190.823009877</v>
       </c>
       <c r="E193" t="n">
-        <v>392.719433892</v>
+        <v>-194.691461174</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>329.097461973</v>
+        <v>154.859964328</v>
       </c>
       <c r="C194" t="n">
-        <v>376.898311737</v>
+        <v>136.351359837</v>
       </c>
       <c r="D194" t="n">
-        <v>171.460154111</v>
+        <v>-28.2253070487</v>
       </c>
       <c r="E194" t="n">
-        <v>329.097461973</v>
+        <v>154.859964328</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>291.531038849</v>
+        <v>235.390713576</v>
       </c>
       <c r="C195" t="n">
-        <v>333.846615749</v>
+        <v>267.85967006</v>
       </c>
       <c r="D195" t="n">
-        <v>138.239660884</v>
+        <v>114.737522688</v>
       </c>
       <c r="E195" t="n">
-        <v>291.531038849</v>
+        <v>235.390713576</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>332.883018493</v>
+        <v>381.024060271</v>
       </c>
       <c r="C196" t="n">
-        <v>381.557137923</v>
+        <v>438.071689726</v>
       </c>
       <c r="D196" t="n">
-        <v>167.314315813</v>
+        <v>196.334771224</v>
       </c>
       <c r="E196" t="n">
-        <v>332.883018493</v>
+        <v>381.024060271</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>412.185484193</v>
+        <v>493.755790622</v>
       </c>
       <c r="C197" t="n">
-        <v>471.447162073</v>
+        <v>566.68073243</v>
       </c>
       <c r="D197" t="n">
-        <v>221.872873327</v>
+        <v>268.700906366</v>
       </c>
       <c r="E197" t="n">
-        <v>412.185484193</v>
+        <v>493.755790622</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>433.145682984</v>
+        <v>534.538293462</v>
       </c>
       <c r="C198" t="n">
-        <v>494.939327925</v>
+        <v>607.543281818</v>
       </c>
       <c r="D198" t="n">
-        <v>235.751661511</v>
+        <v>288.255793175</v>
       </c>
       <c r="E198" t="n">
-        <v>433.145682984</v>
+        <v>534.538293462</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>363.845879576</v>
+        <v>454.528628824</v>
       </c>
       <c r="C199" t="n">
-        <v>416.456426364</v>
+        <v>514.116545048</v>
       </c>
       <c r="D199" t="n">
-        <v>192.896906717</v>
+        <v>217.601014953</v>
       </c>
       <c r="E199" t="n">
-        <v>363.845879576</v>
+        <v>454.528628824</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>269.226752998</v>
+        <v>244.787232498</v>
       </c>
       <c r="C200" t="n">
-        <v>308.373427578</v>
+        <v>274.154660234</v>
       </c>
       <c r="D200" t="n">
-        <v>136.341729108</v>
+        <v>96.5492943611</v>
       </c>
       <c r="E200" t="n">
-        <v>269.226752998</v>
+        <v>244.787232498</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>218.041969241</v>
+        <v>44.925400166</v>
       </c>
       <c r="C201" t="n">
-        <v>249.365567881</v>
+        <v>3.39667982286</v>
       </c>
       <c r="D201" t="n">
-        <v>112.147127333</v>
+        <v>-42.4270174528</v>
       </c>
       <c r="E201" t="n">
-        <v>218.041969241</v>
+        <v>-44.925400166</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>217.975523505</v>
+        <v>193.862112003</v>
       </c>
       <c r="C202" t="n">
-        <v>247.792774196</v>
+        <v>-112.087462554</v>
       </c>
       <c r="D202" t="n">
-        <v>117.907555683</v>
+        <v>-223.365464043</v>
       </c>
       <c r="E202" t="n">
-        <v>217.975523505</v>
+        <v>-193.862112003</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>216.446452345</v>
+        <v>296.253149776</v>
       </c>
       <c r="C203" t="n">
-        <v>244.292868094</v>
+        <v>-118.667537892</v>
       </c>
       <c r="D203" t="n">
-        <v>118.970732431</v>
+        <v>-336.301499972</v>
       </c>
       <c r="E203" t="n">
-        <v>216.446452345</v>
+        <v>-296.253149776</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>169.110494412</v>
+        <v>325.668031296</v>
       </c>
       <c r="C204" t="n">
-        <v>188.769435983</v>
+        <v>-81.315260537</v>
       </c>
       <c r="D204" t="n">
-        <v>91.71324378120001</v>
+        <v>-356.382880094</v>
       </c>
       <c r="E204" t="n">
-        <v>169.110494412</v>
+        <v>-325.668031296</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>99.2144620453</v>
+        <v>267.616234887</v>
       </c>
       <c r="C205" t="n">
-        <v>108.913239257</v>
+        <v>-55.0744504487</v>
       </c>
       <c r="D205" t="n">
-        <v>50.2831142857</v>
+        <v>-288.692911205</v>
       </c>
       <c r="E205" t="n">
-        <v>99.2144620453</v>
+        <v>-267.616234887</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>73.482763639</v>
+        <v>145.856980877</v>
       </c>
       <c r="C206" t="n">
-        <v>82.0975963074</v>
+        <v>-29.6568602647</v>
       </c>
       <c r="D206" t="n">
-        <v>35.7187166859</v>
+        <v>-157.005102672</v>
       </c>
       <c r="E206" t="n">
-        <v>73.482763639</v>
+        <v>-145.856980877</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>136.147115527</v>
+        <v>61.6192976092</v>
       </c>
       <c r="C207" t="n">
-        <v>154.752023173</v>
+        <v>56.8288538722</v>
       </c>
       <c r="D207" t="n">
-        <v>70.3780276041</v>
+        <v>-8.197245753580001</v>
       </c>
       <c r="E207" t="n">
-        <v>136.147115527</v>
+        <v>61.6192976092</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>252.538831032</v>
+        <v>210.045537401</v>
       </c>
       <c r="C208" t="n">
-        <v>287.615834868</v>
+        <v>238.139283752</v>
       </c>
       <c r="D208" t="n">
-        <v>136.783009306</v>
+        <v>96.2210286183</v>
       </c>
       <c r="E208" t="n">
-        <v>252.538831032</v>
+        <v>210.045537401</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>351.27269479</v>
+        <v>355.940832098</v>
       </c>
       <c r="C209" t="n">
-        <v>401.030135092</v>
+        <v>403.174875573</v>
       </c>
       <c r="D209" t="n">
-        <v>190.831775929</v>
+        <v>171.93342134</v>
       </c>
       <c r="E209" t="n">
-        <v>351.27269479</v>
+        <v>355.940832098</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>393.101201599</v>
+        <v>412.605291983</v>
       </c>
       <c r="C210" t="n">
-        <v>450.092182101</v>
+        <v>467.133741214</v>
       </c>
       <c r="D210" t="n">
-        <v>208.234641031</v>
+        <v>199.83276861</v>
       </c>
       <c r="E210" t="n">
-        <v>393.101201599</v>
+        <v>412.605291983</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>389.768416769</v>
+        <v>354.697289658</v>
       </c>
       <c r="C211" t="n">
-        <v>446.739053506</v>
+        <v>402.563147362</v>
       </c>
       <c r="D211" t="n">
-        <v>201.486402312</v>
+        <v>178.020968209</v>
       </c>
       <c r="E211" t="n">
-        <v>389.768416769</v>
+        <v>354.697289658</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>367.382529138</v>
+        <v>233.020047285</v>
       </c>
       <c r="C212" t="n">
-        <v>420.881232369</v>
+        <v>265.441818621</v>
       </c>
       <c r="D212" t="n">
-        <v>191.620895751</v>
+        <v>114.41600644</v>
       </c>
       <c r="E212" t="n">
-        <v>367.382529138</v>
+        <v>233.020047285</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>334.695797446</v>
+        <v>114.517535719</v>
       </c>
       <c r="C213" t="n">
-        <v>382.784531124</v>
+        <v>127.391964486</v>
       </c>
       <c r="D213" t="n">
-        <v>178.446070697</v>
+        <v>36.9945569935</v>
       </c>
       <c r="E213" t="n">
-        <v>334.695797446</v>
+        <v>114.517535719</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>279.87888365</v>
+        <v>93.3685618908</v>
       </c>
       <c r="C214" t="n">
-        <v>319.267963089</v>
+        <v>51.3965759806</v>
       </c>
       <c r="D214" t="n">
-        <v>151.120549399</v>
+        <v>-56.3639416304</v>
       </c>
       <c r="E214" t="n">
-        <v>279.87888365</v>
+        <v>-93.3685618908</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>196.757105989</v>
+        <v>159.074652461</v>
       </c>
       <c r="C215" t="n">
-        <v>222.832913633</v>
+        <v>21.9746144151</v>
       </c>
       <c r="D215" t="n">
-        <v>106.879904834</v>
+        <v>-145.670496666</v>
       </c>
       <c r="E215" t="n">
-        <v>196.757105989</v>
+        <v>-159.074652461</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>103.773407936</v>
+        <v>188.97124766</v>
       </c>
       <c r="C216" t="n">
-        <v>112.770662036</v>
+        <v>-9.70700268577</v>
       </c>
       <c r="D216" t="n">
-        <v>51.8285942969</v>
+        <v>-191.714209261</v>
       </c>
       <c r="E216" t="n">
-        <v>103.773407936</v>
+        <v>-188.97124766</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>48.0146666864</v>
+        <v>173.954497022</v>
       </c>
       <c r="C217" t="n">
-        <v>36.7128544594</v>
+        <v>-36.9216663792</v>
       </c>
       <c r="D217" t="n">
-        <v>-8.967346377989999</v>
+        <v>-187.902127422</v>
       </c>
       <c r="E217" t="n">
-        <v>48.0146666864</v>
+        <v>-173.954497022</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>43.993940502</v>
+        <v>129.881957259</v>
       </c>
       <c r="C218" t="n">
-        <v>13.4902533977</v>
+        <v>-26.96927307</v>
       </c>
       <c r="D218" t="n">
-        <v>-34.8711422437</v>
+        <v>-139.955365992</v>
       </c>
       <c r="E218" t="n">
-        <v>-43.993940502</v>
+        <v>-129.881957259</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>45.2454814416</v>
+        <v>91.894628479</v>
       </c>
       <c r="C219" t="n">
-        <v>43.3565674975</v>
+        <v>38.9742338911</v>
       </c>
       <c r="D219" t="n">
-        <v>6.14633018684</v>
+        <v>-65.8470039573</v>
       </c>
       <c r="E219" t="n">
-        <v>45.2454814416</v>
+        <v>-91.894628479</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>128.287941352</v>
+        <v>145.03585638</v>
       </c>
       <c r="C220" t="n">
-        <v>142.97242253</v>
+        <v>145.009150413</v>
       </c>
       <c r="D220" t="n">
-        <v>67.9054763199</v>
+        <v>5.97824432871</v>
       </c>
       <c r="E220" t="n">
-        <v>128.287941352</v>
+        <v>145.03585638</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>223.749179888</v>
+        <v>214.989152508</v>
       </c>
       <c r="C221" t="n">
-        <v>253.359263034</v>
+        <v>236.041444929</v>
       </c>
       <c r="D221" t="n">
-        <v>122.624422082</v>
+        <v>65.9009433474</v>
       </c>
       <c r="E221" t="n">
-        <v>223.749179888</v>
+        <v>214.989152508</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>275.589038198</v>
+        <v>248.154397195</v>
       </c>
       <c r="C222" t="n">
-        <v>313.576426978</v>
+        <v>280.147031394</v>
       </c>
       <c r="D222" t="n">
-        <v>150.677695648</v>
+        <v>109.28283267</v>
       </c>
       <c r="E222" t="n">
-        <v>275.589038198</v>
+        <v>248.154397195</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>272.841579871</v>
+        <v>256.767968359</v>
       </c>
       <c r="C223" t="n">
-        <v>311.267133326</v>
+        <v>292.563647438</v>
       </c>
       <c r="D223" t="n">
-        <v>147.006583742</v>
+        <v>128.518324063</v>
       </c>
       <c r="E223" t="n">
-        <v>272.841579871</v>
+        <v>256.767968359</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>236.545834862</v>
+        <v>254.779661864</v>
       </c>
       <c r="C224" t="n">
-        <v>269.793105648</v>
+        <v>290.49664192</v>
       </c>
       <c r="D224" t="n">
-        <v>126.473933087</v>
+        <v>127.913396219</v>
       </c>
       <c r="E224" t="n">
-        <v>236.545834862</v>
+        <v>254.779661864</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>191.530672536</v>
+        <v>242.712552771</v>
       </c>
       <c r="C225" t="n">
-        <v>217.286501934</v>
+        <v>274.323827271</v>
       </c>
       <c r="D225" t="n">
-        <v>103.362453627</v>
+        <v>108.508165335</v>
       </c>
       <c r="E225" t="n">
-        <v>191.530672536</v>
+        <v>242.712552771</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>143.417783221</v>
+        <v>212.299226509</v>
       </c>
       <c r="C226" t="n">
-        <v>159.554113218</v>
+        <v>232.722004429</v>
       </c>
       <c r="D226" t="n">
-        <v>76.6483706448</v>
+        <v>63.7791924521</v>
       </c>
       <c r="E226" t="n">
-        <v>143.417783221</v>
+        <v>212.299226509</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>89.32039201809999</v>
+        <v>149.824411904</v>
       </c>
       <c r="C227" t="n">
-        <v>93.7063430897</v>
+        <v>151.201292498</v>
       </c>
       <c r="D227" t="n">
-        <v>34.7847061701</v>
+        <v>9.36243713745</v>
       </c>
       <c r="E227" t="n">
-        <v>89.32039201809999</v>
+        <v>149.824411904</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>52.7199916092</v>
+        <v>83.28975927880001</v>
       </c>
       <c r="C228" t="n">
-        <v>35.0912757942</v>
+        <v>57.3830859097</v>
       </c>
       <c r="D228" t="n">
-        <v>-18.4043660726</v>
+        <v>-37.9819681201</v>
       </c>
       <c r="E228" t="n">
-        <v>52.7199916092</v>
+        <v>83.28975927880001</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>47.7923495862</v>
+        <v>72.04487597479999</v>
       </c>
       <c r="C229" t="n">
-        <v>8.115012571539999</v>
+        <v>5.46564323643</v>
       </c>
       <c r="D229" t="n">
-        <v>-42.7892835341</v>
+        <v>-68.3252242401</v>
       </c>
       <c r="E229" t="n">
-        <v>-47.7923495862</v>
+        <v>-72.04487597479999</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>38.3232616551</v>
+        <v>86.4021705353</v>
       </c>
       <c r="C230" t="n">
-        <v>33.1707111576</v>
+        <v>19.7253472579</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.46174473184</v>
+        <v>-74.2507190139</v>
       </c>
       <c r="E230" t="n">
-        <v>38.3232616551</v>
+        <v>-86.4021705353</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>125.279174172</v>
+        <v>116.560365669</v>
       </c>
       <c r="C231" t="n">
-        <v>139.835926054</v>
+        <v>76.71182091209999</v>
       </c>
       <c r="D231" t="n">
-        <v>66.17158766350001</v>
+        <v>-57.126615696</v>
       </c>
       <c r="E231" t="n">
-        <v>125.279174172</v>
+        <v>116.560365669</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>245.467709009</v>
+        <v>143.357290424</v>
       </c>
       <c r="C232" t="n">
-        <v>279.203928192</v>
+        <v>129.325828239</v>
       </c>
       <c r="D232" t="n">
-        <v>133.517592083</v>
+        <v>-21.0250669919</v>
       </c>
       <c r="E232" t="n">
-        <v>245.467709009</v>
+        <v>143.357290424</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>340.468577889</v>
+        <v>148.693222019</v>
       </c>
       <c r="C233" t="n">
-        <v>389.213809864</v>
+        <v>156.426585113</v>
       </c>
       <c r="D233" t="n">
-        <v>182.600796074</v>
+        <v>24.1189654169</v>
       </c>
       <c r="E233" t="n">
-        <v>340.468577889</v>
+        <v>148.693222019</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>392.691633436</v>
+        <v>160.443542744</v>
       </c>
       <c r="C234" t="n">
-        <v>449.817354401</v>
+        <v>179.849987316</v>
       </c>
       <c r="D234" t="n">
-        <v>206.379368234</v>
+        <v>60.6192862966</v>
       </c>
       <c r="E234" t="n">
-        <v>392.691633436</v>
+        <v>160.443542744</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>408.894722417</v>
+        <v>190.6605318</v>
       </c>
       <c r="C235" t="n">
-        <v>468.607907906</v>
+        <v>215.711027183</v>
       </c>
       <c r="D235" t="n">
-        <v>212.958217052</v>
+        <v>83.5238549872</v>
       </c>
       <c r="E235" t="n">
-        <v>408.894722417</v>
+        <v>190.6605318</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>392.125686571</v>
+        <v>222.51389616</v>
       </c>
       <c r="C236" t="n">
-        <v>449.10436095</v>
+        <v>250.497810664</v>
       </c>
       <c r="D236" t="n">
-        <v>206.657661056</v>
+        <v>92.9985520555</v>
       </c>
       <c r="E236" t="n">
-        <v>392.125686571</v>
+        <v>222.51389616</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>334.374004158</v>
+        <v>231.088332264</v>
       </c>
       <c r="C237" t="n">
-        <v>382.060986594</v>
+        <v>256.965912101</v>
       </c>
       <c r="D237" t="n">
-        <v>179.99483188</v>
+        <v>82.9828404652</v>
       </c>
       <c r="E237" t="n">
-        <v>334.374004158</v>
+        <v>231.088332264</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>233.93199619</v>
+        <v>196.227766524</v>
       </c>
       <c r="C238" t="n">
-        <v>265.744354702</v>
+        <v>215.009698622</v>
       </c>
       <c r="D238" t="n">
-        <v>127.471869657</v>
+        <v>58.0205266617</v>
       </c>
       <c r="E238" t="n">
-        <v>233.93199619</v>
+        <v>196.227766524</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>118.703468366</v>
+        <v>133.331930183</v>
       </c>
       <c r="C239" t="n">
-        <v>131.951272357</v>
+        <v>142.218303639</v>
       </c>
       <c r="D239" t="n">
-        <v>62.2480311238</v>
+        <v>25.9900663484</v>
       </c>
       <c r="E239" t="n">
-        <v>118.703468366</v>
+        <v>133.331930183</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>44.0164664501</v>
+        <v>88.1648100165</v>
       </c>
       <c r="C240" t="n">
-        <v>42.4158569386</v>
+        <v>82.17270442349999</v>
       </c>
       <c r="D240" t="n">
-        <v>6.30706275202</v>
+        <v>-9.30514728396</v>
       </c>
       <c r="E240" t="n">
-        <v>44.0164664501</v>
+        <v>88.1648100165</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>39.8879843818</v>
+        <v>91.60793036859999</v>
       </c>
       <c r="C241" t="n">
-        <v>27.5392102081</v>
+        <v>62.1817269298</v>
       </c>
       <c r="D241" t="n">
-        <v>-12.696800138</v>
+        <v>-42.8208915018</v>
       </c>
       <c r="E241" t="n">
-        <v>39.8879843818</v>
+        <v>91.60793036859999</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>64.2877325642</v>
+        <v>113.549596184</v>
       </c>
       <c r="C242" t="n">
-        <v>63.8963584714</v>
+        <v>68.7632118838</v>
       </c>
       <c r="D242" t="n">
-        <v>14.9444782894</v>
+        <v>-62.184928079</v>
       </c>
       <c r="E242" t="n">
-        <v>64.2877325642</v>
+        <v>113.549596184</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>113.391562459</v>
+        <v>118.438750025</v>
       </c>
       <c r="C243" t="n">
-        <v>122.888747879</v>
+        <v>76.58956667059999</v>
       </c>
       <c r="D243" t="n">
-        <v>56.7473366821</v>
+        <v>-59.5712397472</v>
       </c>
       <c r="E243" t="n">
-        <v>113.391562459</v>
+        <v>118.438750025</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>164.595999652</v>
+        <v>104.272116874</v>
       </c>
       <c r="C244" t="n">
-        <v>185.326413243</v>
+        <v>80.43942745290001</v>
       </c>
       <c r="D244" t="n">
-        <v>88.9425534754</v>
+        <v>-36.5428084479</v>
       </c>
       <c r="E244" t="n">
-        <v>164.595999652</v>
+        <v>104.272116874</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>219.106682139</v>
+        <v>100.993090173</v>
       </c>
       <c r="C245" t="n">
-        <v>249.840906495</v>
+        <v>97.7856684038</v>
       </c>
       <c r="D245" t="n">
-        <v>116.662033394</v>
+        <v>-3.49062562706</v>
       </c>
       <c r="E245" t="n">
-        <v>219.106682139</v>
+        <v>100.993090173</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>283.26616943</v>
+        <v>131.595460118</v>
       </c>
       <c r="C246" t="n">
-        <v>323.997411863</v>
+        <v>141.108331618</v>
       </c>
       <c r="D246" t="n">
-        <v>149.195854483</v>
+        <v>27.5413737879</v>
       </c>
       <c r="E246" t="n">
-        <v>283.26616943</v>
+        <v>131.595460118</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>343.472926858</v>
+        <v>176.338213764</v>
       </c>
       <c r="C247" t="n">
-        <v>392.996646109</v>
+        <v>193.577114475</v>
       </c>
       <c r="D247" t="n">
-        <v>182.404601261</v>
+        <v>52.4934028565</v>
       </c>
       <c r="E247" t="n">
-        <v>343.472926858</v>
+        <v>176.338213764</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>369.769376535</v>
+        <v>204.490204018</v>
       </c>
       <c r="C248" t="n">
-        <v>422.908953179</v>
+        <v>226.382151709</v>
       </c>
       <c r="D248" t="n">
-        <v>198.167885542</v>
+        <v>68.6599807146</v>
       </c>
       <c r="E248" t="n">
-        <v>369.769376535</v>
+        <v>204.490204018</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>342.637621417</v>
+        <v>201.828775226</v>
       </c>
       <c r="C249" t="n">
-        <v>391.695009418</v>
+        <v>224.900918714</v>
       </c>
       <c r="D249" t="n">
-        <v>183.818637561</v>
+        <v>73.15867296330001</v>
       </c>
       <c r="E249" t="n">
-        <v>342.637621417</v>
+        <v>201.828775226</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>274.20338991</v>
+        <v>178.110376726</v>
       </c>
       <c r="C250" t="n">
-        <v>313.207808697</v>
+        <v>198.843128683</v>
       </c>
       <c r="D250" t="n">
-        <v>146.323705056</v>
+        <v>64.978873015</v>
       </c>
       <c r="E250" t="n">
-        <v>274.20338991</v>
+        <v>178.110376726</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>198.811068141</v>
+        <v>152.257821111</v>
       </c>
       <c r="C251" t="n">
-        <v>226.409995474</v>
+        <v>167.842555482</v>
       </c>
       <c r="D251" t="n">
-        <v>105.881020486</v>
+        <v>46.5511401139</v>
       </c>
       <c r="E251" t="n">
-        <v>198.811068141</v>
+        <v>152.257821111</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>144.058238978</v>
+        <v>136.582925992</v>
       </c>
       <c r="C252" t="n">
-        <v>162.283218213</v>
+        <v>143.444679345</v>
       </c>
       <c r="D252" t="n">
-        <v>76.8897287623</v>
+        <v>21.0735204916</v>
       </c>
       <c r="E252" t="n">
-        <v>144.058238978</v>
+        <v>136.582925992</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>306.809630422</v>
+        <v>198.086224612</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>73.5100185559</v>
+        <v>72.7185127788</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>181.078871961</v>
+        <v>196.893130499</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.3576288857</v>
+        <v>108.270239522</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>120.186481477</v>
+        <v>180.109904701</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>86.20692052210001</v>
+        <v>147.948788779</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>213.196550062</v>
+        <v>185.732107616</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-126.065045679</v>
+        <v>-122.118810866</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>716.413192312</v>
+        <v>280.083464393</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>713.9697027</v>
+        <v>74.43417312459999</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>759.362416266</v>
+        <v>173.868462079</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-258.680175766</v>
+        <v>112.840064206</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>691.532012954</v>
+        <v>287.270527145</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-268.411359593</v>
+        <v>-116.503061346</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>795.393928448</v>
+        <v>296.91256343</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>115.393810306</v>
+        <v>-237.830494305</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>128.101170949</v>
+        <v>174.506158194</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-14.5664604872</v>
+        <v>161.549418695</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>258.002314109</v>
+        <v>295.559143598</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>34.6906991405</v>
+        <v>-195.927206152</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>492.008955438</v>
+        <v>305.080081101</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>205.123364454</v>
+        <v>101.942545899</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>239.744724869</v>
+        <v>170.379516633</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-270.819632806</v>
+        <v>-83.3489038605</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>248.660950401</v>
+        <v>249.166847631</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-104.389776382</v>
+        <v>112.787516338</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>386.657351603</v>
+        <v>268.006321871</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-234.294035138</v>
+        <v>131.162269202</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>595.94113469</v>
+        <v>171.385644769</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-278.708336786</v>
+        <v>109.962280536</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>818.193909374</v>
+        <v>114.842283636</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-283.81913991</v>
+        <v>105.99248243</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>948.270976736</v>
+        <v>153.283961965</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-325.371068282</v>
+        <v>124.100064431</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>477.101626942</v>
+        <v>169.215129991</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-185.572431233</v>
+        <v>37.5050705108</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>630.263735106</v>
+        <v>207.50760713</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-141.775182391</v>
+        <v>95.7751071462</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>638.028184879</v>
+        <v>206.251595044</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>60.9165545503</v>
+        <v>124.472402884</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>73.4676612502</v>
+        <v>269.740595069</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-153.850111289</v>
+        <v>-76.58504321869999</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>431.07496149</v>
+        <v>163.916973062</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-64.8371461035</v>
+        <v>89.9447867912</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>257.26040961</v>
+        <v>320.484526269</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>29.7990333496</v>
+        <v>-280.769649838</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>224.334272754</v>
+        <v>448.451339055</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>201.518462293</v>
+        <v>-472.724318421</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>402.550032356</v>
+        <v>799.444184456</v>
       </c>
     </row>
     <row r="52">
@@ -5169,7 +5169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>233.891167901</v>
+        <v>-441.501288147</v>
       </c>
     </row>
     <row r="53">
@@ -5177,7 +5177,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>392.719433892</v>
+        <v>555.480485256</v>
       </c>
     </row>
     <row r="54">
@@ -5185,7 +5185,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>291.531038849</v>
+        <v>-432.663655605</v>
       </c>
     </row>
     <row r="55">
@@ -5193,7 +5193,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>433.145682984</v>
+        <v>598.014658002</v>
       </c>
     </row>
     <row r="56">
@@ -5201,7 +5201,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>73.482763639</v>
+        <v>-354.081792511</v>
       </c>
     </row>
     <row r="57">
@@ -5209,7 +5209,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>393.101201599</v>
+        <v>534.538293462</v>
       </c>
     </row>
     <row r="58">
@@ -5217,7 +5217,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-43.993940502</v>
+        <v>-325.668031296</v>
       </c>
     </row>
     <row r="59">
@@ -5225,7 +5225,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>275.589038198</v>
+        <v>412.605291983</v>
       </c>
     </row>
     <row r="60">
@@ -5233,7 +5233,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-47.7923495862</v>
+        <v>-188.97124766</v>
       </c>
     </row>
     <row r="61">
@@ -5241,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>408.894722417</v>
+        <v>256.767968359</v>
       </c>
     </row>
     <row r="62">
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>39.8879843818</v>
+        <v>-86.4021705353</v>
       </c>
     </row>
     <row r="63">
@@ -5257,7 +5257,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>369.769376535</v>
+        <v>231.088332264</v>
       </c>
     </row>
     <row r="64">
@@ -5265,7 +5265,39 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>144.058238978</v>
+        <v>88.1648100165</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>118.438750025</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>100.993090173</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>204.490204018</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>136.582925992</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,7 +5338,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.443489612000008</v>
+        <v>4.88000310000001</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5317,10 +5349,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.5511066999</v>
+        <v>12.95673949899998</v>
       </c>
       <c r="B3" t="n">
-        <v>153.404815211</v>
+        <v>99.043112306</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5328,10 +5360,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.70736064299999</v>
+        <v>17.44565985200001</v>
       </c>
       <c r="B4" t="n">
-        <v>126.7732163259667</v>
+        <v>90.26824579693334</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5339,10 +5371,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.81581046100001</v>
+        <v>29.183897534</v>
       </c>
       <c r="B5" t="n">
-        <v>140.349630234725</v>
+        <v>116.92446697245</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5350,10 +5382,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.97956095489999</v>
+        <v>32.16111592199999</v>
       </c>
       <c r="B6" t="n">
-        <v>120.75122996492</v>
+        <v>115.19362148236</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5361,10 +5393,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34.621360415</v>
+        <v>40.22337556700001</v>
       </c>
       <c r="B7" t="n">
-        <v>120.6571052169333</v>
+        <v>126.0130020188</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5372,10 +5404,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.188395043</v>
+        <v>61.02839787300002</v>
       </c>
       <c r="B8" t="n">
-        <v>115.7356502605286</v>
+        <v>129.1466858416857</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5383,10 +5415,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107.5688534051</v>
+        <v>63.222647561</v>
       </c>
       <c r="B9" t="n">
-        <v>127.9182627357125</v>
+        <v>136.219863563475</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5394,10 +5426,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>168.658864455</v>
+        <v>68.43697073400001</v>
       </c>
       <c r="B10" t="n">
-        <v>99.69789513407777</v>
+        <v>107.5155664046444</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5405,10 +5437,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>170.8389211763</v>
+        <v>73.97218627080001</v>
       </c>
       <c r="B11" t="n">
-        <v>161.36942485187</v>
+        <v>124.77235620348</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -5416,10 +5448,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>223.3116149685</v>
+        <v>77.46186809400001</v>
       </c>
       <c r="B12" t="n">
-        <v>211.6058137471545</v>
+        <v>120.1961577417636</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5427,10 +5459,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>227.4613762604</v>
+        <v>81.77919215999999</v>
       </c>
       <c r="B13" t="n">
-        <v>257.2521972903916</v>
+        <v>124.6688497698667</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5438,10 +5470,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>319.5829787</v>
+        <v>111.7324999838</v>
       </c>
       <c r="B14" t="n">
-        <v>217.5650916706692</v>
+        <v>123.7589431880308</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5449,32 +5481,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>319.61843796</v>
+        <v>116.3253940015</v>
       </c>
       <c r="B15" t="n">
-        <v>251.4198717623357</v>
+        <v>135.4383420421</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>329.8813921532</v>
+        <v>124.1746177202</v>
       </c>
       <c r="B16" t="n">
-        <v>216.7644563386467</v>
+        <v>118.6422484828933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>353.050726783</v>
+        <v>136.379331293</v>
       </c>
       <c r="B17" t="n">
-        <v>252.9287983454813</v>
+        <v>129.7841431670875</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -5482,10 +5514,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>369.0067380352</v>
+        <v>142.9235222475</v>
       </c>
       <c r="B18" t="n">
-        <v>244.8385049313941</v>
+        <v>108.1597527275529</v>
       </c>
       <c r="C18" t="n">
         <v>0.5</v>
@@ -5493,32 +5525,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>432.874676101</v>
+        <v>205.6492912684</v>
       </c>
       <c r="B19" t="n">
-        <v>238.3530974879278</v>
+        <v>111.8456641423556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>456.6870720032</v>
+        <v>230.5012513602</v>
       </c>
       <c r="B20" t="n">
-        <v>225.0415418050263</v>
+        <v>114.4616512240737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>480.9380325702</v>
+        <v>317.4905027993</v>
       </c>
       <c r="B21" t="n">
-        <v>226.689580420225</v>
+        <v>123.51652584277</v>
       </c>
       <c r="C21" t="n">
         <v>0.5</v>
@@ -5526,43 +5558,43 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>495.9121075935</v>
+        <v>320.205035478</v>
       </c>
       <c r="B22" t="n">
-        <v>217.5467765497619</v>
+        <v>108.3049195573048</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>506.5754159252</v>
+        <v>343.1701388943</v>
       </c>
       <c r="B23" t="n">
-        <v>230.0223301355909</v>
+        <v>117.2492450820182</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>586.995794273</v>
+        <v>346.3256382877</v>
       </c>
       <c r="B24" t="n">
-        <v>228.9397664103044</v>
+        <v>116.583736421887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>620.951386741</v>
+        <v>388.4289849615</v>
       </c>
       <c r="B25" t="n">
-        <v>229.38997301275</v>
+        <v>118.8252272640167</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5570,10 +5602,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>662.674058175</v>
+        <v>403.773588491</v>
       </c>
       <c r="B26" t="n">
-        <v>209.38158878</v>
+        <v>110.738262019036</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -5581,21 +5613,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>772.0389174970001</v>
+        <v>419.031374296</v>
       </c>
       <c r="B27" t="n">
-        <v>210.8923334577308</v>
+        <v>116.062438388727</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>791.878296168</v>
+        <v>445.739216019</v>
       </c>
       <c r="B28" t="n">
-        <v>199.2152182784815</v>
+        <v>115.9411449794408</v>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
@@ -5603,10 +5635,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>866.760767496</v>
+        <v>491.48634975</v>
       </c>
       <c r="B29" t="n">
-        <v>205.9095801829286</v>
+        <v>121.3720441541393</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5614,10 +5646,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>885.427461945</v>
+        <v>534.743057735</v>
       </c>
       <c r="B30" t="n">
-        <v>190.7301451718621</v>
+        <v>121.7096381213069</v>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
@@ -5625,21 +5657,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>950.2121887200001</v>
+        <v>558.3150205740001</v>
       </c>
       <c r="B31" t="n">
-        <v>204.2371781558</v>
+        <v>123.3655050095634</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>963.399253161</v>
+        <v>601.254176107</v>
       </c>
       <c r="B32" t="n">
-        <v>188.6582905770323</v>
+        <v>122.933142929771</v>
       </c>
       <c r="C32" t="n">
         <v>0.5</v>
@@ -5647,10 +5679,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1027.773775859</v>
+        <v>601.5765396429999</v>
       </c>
       <c r="B33" t="n">
-        <v>208.3312786644375</v>
+        <v>122.6803035768406</v>
       </c>
       <c r="C33" t="n">
         <v>0.5</v>
@@ -5658,10 +5690,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1063.805288041</v>
+        <v>729.220988893</v>
       </c>
       <c r="B34" t="n">
-        <v>193.4176296167273</v>
+        <v>122.1746120269364</v>
       </c>
       <c r="C34" t="n">
         <v>0.5</v>
@@ -5669,10 +5701,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1074.102265234</v>
+        <v>738.2733232789999</v>
       </c>
       <c r="B35" t="n">
-        <v>215.6191986496471</v>
+        <v>123.0895929074676</v>
       </c>
       <c r="C35" t="n">
         <v>0.5</v>
@@ -5680,10 +5712,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1096.90224616</v>
+        <v>860.2063247579999</v>
       </c>
       <c r="B36" t="n">
-        <v>200.1623338801714</v>
+        <v>123.1184635224257</v>
       </c>
       <c r="C36" t="n">
         <v>0.5</v>
@@ -5691,10 +5723,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1102.013049284</v>
+        <v>888.620085973</v>
       </c>
       <c r="B37" t="n">
-        <v>207.8550920207778</v>
+        <v>124.3989264798861</v>
       </c>
       <c r="C37" t="n">
         <v>0.5</v>
@@ -5702,10 +5734,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1232.090116646</v>
+        <v>921.175657476</v>
       </c>
       <c r="B38" t="n">
-        <v>197.2219157166216</v>
+        <v>122.050443886127</v>
       </c>
       <c r="C38" t="n">
         <v>0.5</v>
@@ -5713,12 +5745,56 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1273.642045018</v>
+        <v>952.096450513</v>
       </c>
       <c r="B39" t="n">
-        <v>208.6177530689737</v>
+        <v>124.299316603071</v>
       </c>
       <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>988.1441408609999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>123.5679266169974</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1039.515946149</v>
+      </c>
+      <c r="B41" t="n">
+        <v>125.6350183276725</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1240.945472603</v>
+      </c>
+      <c r="B42" t="n">
+        <v>125.6066618534366</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1272.168502877</v>
+      </c>
+      <c r="B43" t="n">
+        <v>129.0384221680928</v>
+      </c>
+      <c r="C43" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5733,7 +5809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5760,420 +5836,464 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.704689270024528</v>
+        <v>15.38738176940184</v>
       </c>
       <c r="B2" t="n">
-        <v>3.852344635012265</v>
+        <v>7.693690884700921</v>
       </c>
       <c r="C2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39.57551917670179</v>
+        <v>40.8545395488549</v>
       </c>
       <c r="B3" t="n">
-        <v>332.4664418217753</v>
+        <v>276.1420799507851</v>
       </c>
       <c r="C3" t="n">
-        <v>312.6786822334244</v>
+        <v>255.7148101763576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.06821104683145</v>
+        <v>55.00875618830442</v>
       </c>
       <c r="B4" t="n">
-        <v>308.678601505956</v>
+        <v>266.6325301875011</v>
       </c>
       <c r="C4" t="n">
-        <v>288.6444959825402</v>
+        <v>239.1281520933489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71.94151613219186</v>
+        <v>92.02039825010566</v>
       </c>
       <c r="B5" t="n">
-        <v>325.9188727543989</v>
+        <v>307.0428156736265</v>
       </c>
       <c r="C5" t="n">
-        <v>289.948114688303</v>
+        <v>261.0326165485736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107.1404241397801</v>
+        <v>101.407278187912</v>
       </c>
       <c r="B6" t="n">
-        <v>313.2248387082228</v>
+        <v>306.7944783776686</v>
       </c>
       <c r="C6" t="n">
-        <v>259.6546266383327</v>
+        <v>256.0908392837126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109.1638180756723</v>
+        <v>126.823476873977</v>
       </c>
       <c r="B7" t="n">
-        <v>313.4431476172875</v>
+        <v>321.0026199677822</v>
       </c>
       <c r="C7" t="n">
-        <v>258.8612385794514</v>
+        <v>257.5908815307936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>316.0559428205061</v>
+        <v>192.3216094437365</v>
       </c>
       <c r="B8" t="n">
-        <v>337.667197541044</v>
+        <v>332.450825806658</v>
       </c>
       <c r="C8" t="n">
-        <v>179.639226130791</v>
+        <v>236.2900210847898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>334.776738707677</v>
+        <v>199.2113037277305</v>
       </c>
       <c r="B9" t="n">
-        <v>348.8157062055841</v>
+        <v>338.8074802103164</v>
       </c>
       <c r="C9" t="n">
-        <v>181.4273368517457</v>
+        <v>239.2018283464511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>483.1244216206395</v>
+        <v>215.5566212096684</v>
       </c>
       <c r="B10" t="n">
-        <v>350.4077619403882</v>
+        <v>317.0025321917899</v>
       </c>
       <c r="C10" t="n">
-        <v>108.8455511300685</v>
+        <v>209.2242215869557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>487.2649105618785</v>
+        <v>232.8517091201146</v>
       </c>
       <c r="B11" t="n">
-        <v>386.7610758228521</v>
+        <v>334.1190228544551</v>
       </c>
       <c r="C11" t="n">
-        <v>143.1286205419128</v>
+        <v>217.6931682943978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>568.6667224121421</v>
+        <v>243.7154675382917</v>
       </c>
       <c r="B12" t="n">
-        <v>420.2816692929088</v>
+        <v>331.861027703083</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9483080868378</v>
+        <v>210.0032939339372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>573.9203975271876</v>
+        <v>257.1005035419184</v>
       </c>
       <c r="B13" t="n">
-        <v>437.676320413868</v>
+        <v>337.0765997651686</v>
       </c>
       <c r="C13" t="n">
-        <v>150.7161216502743</v>
+        <v>208.5263479942094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>665.1109202020231</v>
+        <v>346.7506339658497</v>
       </c>
       <c r="B14" t="n">
-        <v>439.8481303675118</v>
+        <v>347.3734140591055</v>
       </c>
       <c r="C14" t="n">
-        <v>107.2926702665003</v>
+        <v>173.9980970761807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>665.1393126879253</v>
+        <v>359.7056953229464</v>
       </c>
       <c r="B15" t="n">
-        <v>450.8840005538602</v>
+        <v>356.7368947185852</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3143442098975</v>
+        <v>176.884047057112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>673.2025977719145</v>
+        <v>381.1549533717903</v>
       </c>
       <c r="B16" t="n">
-        <v>441.3116518885739</v>
+        <v>348.1424409536365</v>
       </c>
       <c r="C16" t="n">
-        <v>104.7103530026167</v>
+        <v>157.5649642677413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>690.3717936578888</v>
+        <v>412.550114943346</v>
       </c>
       <c r="B17" t="n">
-        <v>456.5033215864951</v>
+        <v>359.5145497140701</v>
       </c>
       <c r="C17" t="n">
-        <v>111.3174247575507</v>
+        <v>153.2394922423971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>701.4620163937241</v>
+        <v>428.3250791576049</v>
       </c>
       <c r="B18" t="n">
-        <v>456.4693249245578</v>
+        <v>347.3708430314651</v>
       </c>
       <c r="C18" t="n">
-        <v>105.7383167276958</v>
+        <v>133.2083034526627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>741.1220637609483</v>
+        <v>544.6419365762415</v>
       </c>
       <c r="B19" t="n">
-        <v>463.9891989811694</v>
+        <v>369.5476133417333</v>
       </c>
       <c r="C19" t="n">
-        <v>93.42816710069519</v>
+        <v>97.22664505361251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>754.3493190998129</v>
+        <v>577.6837816946396</v>
       </c>
       <c r="B20" t="n">
-        <v>463.5832733419808</v>
+        <v>377.9122790504175</v>
       </c>
       <c r="C20" t="n">
-        <v>86.40861379207433</v>
+        <v>89.07038820309765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>767.1190409229192</v>
+        <v>663.4287284160886</v>
       </c>
       <c r="B21" t="n">
-        <v>467.5171031156053</v>
+        <v>403.3721709567366</v>
       </c>
       <c r="C21" t="n">
-        <v>83.95758265414571</v>
+        <v>71.65780674869228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>774.6869551746443</v>
+        <v>665.6084581772608</v>
       </c>
       <c r="B22" t="n">
-        <v>467.049366768017</v>
+        <v>397.1367735806942</v>
       </c>
       <c r="C22" t="n">
-        <v>79.7058891806949</v>
+        <v>64.33254449206379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>779.9402838802545</v>
+        <v>683.2145165811387</v>
       </c>
       <c r="B23" t="n">
-        <v>472.008783113353</v>
+        <v>406.2299326582383</v>
       </c>
       <c r="C23" t="n">
-        <v>82.03864117322581</v>
+        <v>64.62267436766894</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>816.4421179324881</v>
+        <v>685.5257624091329</v>
       </c>
       <c r="B24" t="n">
-        <v>482.3962262565062</v>
+        <v>406.6217608162218</v>
       </c>
       <c r="C24" t="n">
-        <v>74.17516729026215</v>
+        <v>63.85887961165537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>830.4613015529449</v>
+        <v>714.2613152483653</v>
       </c>
       <c r="B25" t="n">
-        <v>486.8183601242716</v>
+        <v>416.2585306380798</v>
       </c>
       <c r="C25" t="n">
-        <v>71.5877093477992</v>
+        <v>59.1278730138971</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>846.7589593026097</v>
+        <v>723.8890762839781</v>
       </c>
       <c r="B26" t="n">
-        <v>487.0317773380244</v>
+        <v>416.0928200684411</v>
       </c>
       <c r="C26" t="n">
-        <v>63.65229768671952</v>
+        <v>54.14828192645211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>885.4988467289154</v>
+        <v>733.0816866436061</v>
       </c>
       <c r="B27" t="n">
-        <v>500.5250141529768</v>
+        <v>421.1773699697721</v>
       </c>
       <c r="C27" t="n">
-        <v>57.77559078851908</v>
+        <v>54.63652664796905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>892.0065552953432</v>
+        <v>748.3581355458748</v>
       </c>
       <c r="B28" t="n">
-        <v>500.1189009287963</v>
+        <v>426.1866770108435</v>
       </c>
       <c r="C28" t="n">
-        <v>54.11562328112473</v>
+        <v>52.00760923790614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>915.3746742543318</v>
+        <v>772.473942093026</v>
       </c>
       <c r="B29" t="n">
-        <v>510.0390111717579</v>
+        <v>436.3425095838885</v>
       </c>
       <c r="C29" t="n">
-        <v>52.35167404459196</v>
+        <v>50.10553853737548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>920.9320335262489</v>
+        <v>793.3166430180902</v>
       </c>
       <c r="B30" t="n">
-        <v>508.7571567139744</v>
+        <v>443.7613477706681</v>
       </c>
       <c r="C30" t="n">
-        <v>48.29113995084998</v>
+        <v>47.10302626162303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>939.4862945193004</v>
+        <v>804.0012601946897</v>
       </c>
       <c r="B31" t="n">
-        <v>518.5787567933625</v>
+        <v>448.1243828907931</v>
       </c>
       <c r="C31" t="n">
-        <v>48.83560953371227</v>
+        <v>46.1237527934482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>943.1331526138748</v>
+        <v>822.4176727264892</v>
       </c>
       <c r="B32" t="n">
-        <v>516.6985377833438</v>
+        <v>454.7085903631766</v>
       </c>
       <c r="C32" t="n">
-        <v>45.13196147640639</v>
+        <v>43.49975399993201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>960.3645395580352</v>
+        <v>822.5512520695687</v>
       </c>
       <c r="B33" t="n">
-        <v>527.2884010336661</v>
+        <v>454.680513384336</v>
       </c>
       <c r="C33" t="n">
-        <v>47.10613125464852</v>
+        <v>43.40488734955164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>969.6250861841073</v>
+        <v>870.9443079577354</v>
       </c>
       <c r="B34" t="n">
-        <v>527.9025673810143</v>
+        <v>472.9588650728715</v>
       </c>
       <c r="C34" t="n">
-        <v>43.09002428896059</v>
+        <v>37.48671109400379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>972.2243575901711</v>
+        <v>874.082302924</v>
       </c>
       <c r="B35" t="n">
-        <v>533.2298140382965</v>
+        <v>474.4352540390647</v>
       </c>
       <c r="C35" t="n">
-        <v>47.11763524321094</v>
+        <v>37.39410257706464</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>977.9082400090088</v>
+        <v>913.3993362638034</v>
       </c>
       <c r="B36" t="n">
-        <v>532.4493360455352</v>
+        <v>490.1291194771256</v>
       </c>
       <c r="C36" t="n">
-        <v>43.49521604103086</v>
+        <v>33.42945134522387</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>979.1691146617887</v>
+        <v>921.8726225103553</v>
       </c>
       <c r="B37" t="n">
-        <v>534.4145735517378</v>
+        <v>493.8878744688974</v>
       </c>
       <c r="C37" t="n">
-        <v>44.83001622084345</v>
+        <v>32.95156321371974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1009.770715586899</v>
+        <v>931.3054120323076</v>
       </c>
       <c r="B38" t="n">
-        <v>544.5125351061131</v>
+        <v>497.1983484989566</v>
       </c>
       <c r="C38" t="n">
-        <v>39.6271773126636</v>
+        <v>31.5456424828028</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1018.997600944794</v>
+        <v>940.0099478062821</v>
       </c>
       <c r="B39" t="n">
-        <v>550.2378446858672</v>
+        <v>501.3161904997531</v>
       </c>
       <c r="C39" t="n">
-        <v>40.73904421347009</v>
+        <v>31.3112165966121</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>949.8660568651411</v>
+      </c>
+      <c r="B40" t="n">
+        <v>505.2439026918781</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30.31087425930758</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>963.4112424472514</v>
+      </c>
+      <c r="B41" t="n">
+        <v>511.3672588154436</v>
+      </c>
+      <c r="C41" t="n">
+        <v>29.66163759181785</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1011.757764301666</v>
+      </c>
+      <c r="B42" t="n">
+        <v>531.9601354279725</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.08125327713958</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1018.67453815947</v>
+      </c>
+      <c r="B43" t="n">
+        <v>535.6049931769903</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.26772409725538</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +6307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6224,648 +6344,716 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.852344635012264</v>
+        <v>7.693690884700921</v>
       </c>
       <c r="B2" t="n">
-        <v>3.852344635012264</v>
+        <v>7.693690884700921</v>
       </c>
       <c r="C2" t="n">
-        <v>1.834449826196316e-05</v>
+        <v>3.663662326048057e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>1.834449826221695e-05</v>
+        <v>3.663662328601958e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>2.537880116563335e-16</v>
+        <v>2.553901236540881e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19.78775958835089</v>
+        <v>20.42726977442745</v>
       </c>
       <c r="B3" t="n">
-        <v>52.10046653103968</v>
+        <v>48.00550972312342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002480974596716175</v>
+        <v>0.0002285976653482067</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002481062752324329</v>
+        <v>0.0002286027732958127</v>
       </c>
       <c r="E3" t="n">
-        <v>8.815560815405091e-09</v>
+        <v>5.107947605956665e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.03410552341573</v>
+        <v>27.50437809415221</v>
       </c>
       <c r="B4" t="n">
-        <v>50.30014331898458</v>
+        <v>58.5356455483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002395244919951647</v>
+        <v>0.000278741169277619</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002395314652255592</v>
+        <v>0.0002787603313266116</v>
       </c>
       <c r="E4" t="n">
-        <v>6.973230394562114e-09</v>
+        <v>1.916204899257961e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35.97075806609593</v>
+        <v>46.01019912505283</v>
       </c>
       <c r="B5" t="n">
-        <v>79.19536501297912</v>
+        <v>91.11079207300379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003771207857760911</v>
+        <v>0.0004338609146333514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003772645456324119</v>
+        <v>0.0004342268783357084</v>
       </c>
       <c r="E5" t="n">
-        <v>1.437598563208513e-07</v>
+        <v>3.659637023569568e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53.57021206989006</v>
+        <v>50.703639093956</v>
       </c>
       <c r="B6" t="n">
-        <v>102.492749408747</v>
+        <v>97.49937146038819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004880607114702236</v>
+        <v>0.0004642827212399437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004888628699040321</v>
+        <v>0.0004648576993413493</v>
       </c>
       <c r="E6" t="n">
-        <v>8.021584338084955e-07</v>
+        <v>5.749781014055175e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54.58190903783615</v>
+        <v>63.41173843698851</v>
       </c>
       <c r="B7" t="n">
-        <v>103.8776591924113</v>
+        <v>116.7900845267535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004946555199638633</v>
+        <v>0.0005561432596512073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004955327636039202</v>
+        <v>0.0005580590398624865</v>
       </c>
       <c r="E7" t="n">
-        <v>8.772436400569534e-07</v>
+        <v>1.915780211279275e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>158.027971410253</v>
+        <v>96.16080472186826</v>
       </c>
       <c r="B8" t="n">
-        <v>218.4195971197958</v>
+        <v>157.7256713753493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001040093319618075</v>
+        <v>0.0007510746255969016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001164520867535783</v>
+        <v>0.000765275718304353</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001244275479177076</v>
+        <v>1.420109270745145e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>167.3883693538385</v>
+        <v>99.60565186386525</v>
       </c>
       <c r="B9" t="n">
-        <v>230.2640901318206</v>
+        <v>163.1632757427801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001096495667294384</v>
+        <v>0.0007769679797275245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001273430753673993</v>
+        <v>0.0007947694266404619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000176935086379609</v>
+        <v>1.780144691293734e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>241.5622108103198</v>
+        <v>107.7783106048342</v>
       </c>
       <c r="B10" t="n">
-        <v>286.2482596296903</v>
+        <v>165.5942000460862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001363086950617573</v>
+        <v>0.0007885438097432676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00211804861082932</v>
+        <v>0.0008081897736257535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007549616602117476</v>
+        <v>1.964596388248586e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>243.6324552809393</v>
+        <v>116.4258545600573</v>
       </c>
       <c r="B11" t="n">
-        <v>303.3140158728777</v>
+        <v>179.1544744736254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001444352456537513</v>
+        <v>0.000853116545112502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002555032730807515</v>
+        <v>0.0008863179856351181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001110680274270002</v>
+        <v>3.320144052261606e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>284.3333612060711</v>
+        <v>121.8577337691459</v>
       </c>
       <c r="B12" t="n">
-        <v>345.7351429965293</v>
+        <v>183.7868359572531</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001646357823792997</v>
+        <v>0.000875175409320253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004304609166056749</v>
+        <v>0.0009145366281957084</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002658251342263752</v>
+        <v>3.936121887545543e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>286.9601987635938</v>
+        <v>128.5502517709592</v>
       </c>
       <c r="B13" t="n">
-        <v>355.8776137164767</v>
+        <v>191.7985255798266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001694655303411794</v>
+        <v>0.0009133263122848886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004918026568019551</v>
+        <v>0.0009656390713952011</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003223371264607758</v>
+        <v>5.231275911031247e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>332.5554601010115</v>
+        <v>173.3753169829249</v>
       </c>
       <c r="B14" t="n">
-        <v>384.6255464689989</v>
+        <v>234.679888545906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001831550221280947</v>
+        <v>0.001117523278790029</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007241916985286632</v>
+        <v>0.001318345463099887</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005410366764005685</v>
+        <v>0.0002008221843098584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>332.5696563439627</v>
+        <v>179.8528476614732</v>
       </c>
       <c r="B15" t="n">
-        <v>390.3123346447704</v>
+        <v>243.4300752606942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001858630164975097</v>
+        <v>0.001159190834574734</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007825149308076536</v>
+        <v>0.001415521611366876</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005966519143101439</v>
+        <v>0.0002563307767921423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>336.6012988859572</v>
+        <v>190.5774766858952</v>
       </c>
       <c r="B16" t="n">
-        <v>387.6918423471126</v>
+        <v>248.6415592348432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001846151630224346</v>
+        <v>0.001184007424927825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007550643300379884</v>
+        <v>0.001479217155605128</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005704491670155539</v>
+        <v>0.0002952097306773026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>345.1858968289444</v>
+        <v>206.275057471673</v>
       </c>
       <c r="B17" t="n">
-        <v>400.4497542579206</v>
+        <v>265.0355640939748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001906903591704384</v>
+        <v>0.001262074114733213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008985699771461254</v>
+        <v>0.001713930293738198</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00707879617975687</v>
+        <v>0.0004518561790049851</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>350.731008196862</v>
+        <v>214.1625395788024</v>
       </c>
       <c r="B18" t="n">
-        <v>403.5388223837539</v>
+        <v>265.9498394320606</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001921613439922638</v>
+        <v>0.001266427806819336</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009372501062233772</v>
+        <v>0.001728777685054919</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007450887622311135</v>
+        <v>0.0004623498782355825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>370.5610318804742</v>
+        <v>272.3209682881208</v>
       </c>
       <c r="B19" t="n">
-        <v>418.3658810032668</v>
+        <v>314.5897635067422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001992218480967937</v>
+        <v>0.001498046492889249</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01146943769975425</v>
+        <v>0.002914720016699927</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009477219218786314</v>
+        <v>0.001416673523810678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>377.1746595499064</v>
+        <v>288.8418908473198</v>
       </c>
       <c r="B20" t="n">
-        <v>421.6628753997873</v>
+        <v>328.6418498363668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002007918454284701</v>
+        <v>0.001564961189696985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01199430343605494</v>
+        <v>0.003460757356991847</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009986384981770241</v>
+        <v>0.001895796167294862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>383.5595204614596</v>
+        <v>331.7143642080443</v>
       </c>
       <c r="B21" t="n">
-        <v>427.1373881089151</v>
+        <v>365.895100688523</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002033987562423405</v>
+        <v>0.0017423576223263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01291718352337162</v>
+        <v>0.005621030562144467</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01088319596094821</v>
+        <v>0.003878672939818167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>387.3434775873221</v>
+        <v>332.8042290886304</v>
       </c>
       <c r="B22" t="n">
-        <v>428.8496896864362</v>
+        <v>363.4556276388186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00204214137945922</v>
+        <v>0.001730741083994374</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0132195175102771</v>
+        <v>0.0054402394387668</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01117737613081788</v>
+        <v>0.003709498354772426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>389.9701419401272</v>
+        <v>341.6072582905693</v>
       </c>
       <c r="B23" t="n">
-        <v>432.9060833842428</v>
+        <v>372.8232399828702</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002061457539924965</v>
+        <v>0.001775348761823191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01396283208355943</v>
+        <v>0.006170687729722423</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01190137454363446</v>
+        <v>0.004395338967899232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>408.2210589662441</v>
+        <v>342.7628812045664</v>
       </c>
       <c r="B24" t="n">
-        <v>447.8878449622754</v>
+        <v>373.6551661572154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002132799261725121</v>
+        <v>0.001779310315034359</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0170642168320518</v>
+        <v>0.006240449835550118</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01493141757032668</v>
+        <v>0.004461139520515759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>415.2306507764724</v>
+        <v>357.1306576241827</v>
       </c>
       <c r="B25" t="n">
-        <v>453.8305633890409</v>
+        <v>386.3036733529931</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002161097920900195</v>
+        <v>0.001839541301680919</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0184639704548075</v>
+        <v>0.007409236772880176</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01630287253390731</v>
+        <v>0.005569695471199256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>423.3794796513048</v>
+        <v>361.944538141989</v>
       </c>
       <c r="B26" t="n">
-        <v>457.931698160719</v>
+        <v>388.7946541764341</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002180627134098662</v>
+        <v>0.001851403115125877</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0194911655039995</v>
+        <v>0.007664948898286373</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01731053836990084</v>
+        <v>0.005813545783160496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>442.7494233644577</v>
+        <v>366.540843321803</v>
       </c>
       <c r="B27" t="n">
-        <v>474.8178603313124</v>
+        <v>393.8206137448194</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002261037430149106</v>
+        <v>0.001875336255927711</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02429805622777496</v>
+        <v>0.008208618297806173</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02203701879762586</v>
+        <v>0.006333282041878462</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>446.0032776476716</v>
+        <v>374.1790677729374</v>
       </c>
       <c r="B28" t="n">
-        <v>476.1053782864309</v>
+        <v>400.4034896705749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002267168468030624</v>
+        <v>0.001906683284145595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02470563194953671</v>
+        <v>0.008980029085553811</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02243846348150609</v>
+        <v>0.007073345801408217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>457.6873371271659</v>
+        <v>386.236971046513</v>
       </c>
       <c r="B29" t="n">
-        <v>487.2149482227989</v>
+        <v>411.9144379186276</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002320071182013328</v>
+        <v>0.001961497323422036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02848843448505882</v>
+        <v>0.01050598370224928</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02616836330304549</v>
+        <v>0.008544486378827248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>460.4660167631245</v>
+        <v>396.6583215090451</v>
       </c>
       <c r="B30" t="n">
-        <v>487.7363813425582</v>
+        <v>421.1137786828339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002322554196869325</v>
+        <v>0.002005303708013495</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02867819276778642</v>
+        <v>0.01190531162594446</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0263556385709171</v>
+        <v>0.009900007917930966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>469.7431472596502</v>
+        <v>402.0006300973449</v>
       </c>
       <c r="B31" t="n">
-        <v>497.6492759783724</v>
+        <v>426.1115877355098</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002369758457039869</v>
+        <v>0.002029102798740523</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03250872628952902</v>
+        <v>0.01273923492931794</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03013896783248915</v>
+        <v>0.01071013213057741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>471.5665763069374</v>
+        <v>411.2088363632446</v>
       </c>
       <c r="B32" t="n">
-        <v>497.3599853226573</v>
+        <v>434.2027747557878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002368380882488844</v>
+        <v>0.002067632260741847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03239073949368648</v>
+        <v>0.01420868915825849</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03002235861119763</v>
+        <v>0.01214105689751665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>480.1822697790176</v>
+        <v>411.2756260347844</v>
       </c>
       <c r="B33" t="n">
-        <v>507.419601743497</v>
+        <v>434.2204174626156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002416283817826176</v>
+        <v>0.002067716273631503</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03672629018626217</v>
+        <v>0.01421206235278363</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03431000636843599</v>
+        <v>0.01214434607915212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>484.8125430920537</v>
+        <v>435.4721539788677</v>
       </c>
       <c r="B34" t="n">
-        <v>509.8096186169895</v>
+        <v>455.8651441687956</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002427664850557093</v>
+        <v>0.002170786400803788</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03782952089568497</v>
+        <v>0.01896714394631967</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03540185604512788</v>
+        <v>0.01679635754551588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>486.1121787950855</v>
+        <v>437.041151462</v>
       </c>
       <c r="B35" t="n">
-        <v>513.5527480472691</v>
+        <v>457.4236335057998</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002445489276415567</v>
+        <v>0.002178207778599046</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03961666070689032</v>
+        <v>0.01936111032327269</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03717117143047476</v>
+        <v>0.01718290254467364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>488.9541200045044</v>
+        <v>456.6996681319017</v>
       </c>
       <c r="B36" t="n">
-        <v>514.3180485608519</v>
+        <v>475.3387931946091</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002449133564575485</v>
+        <v>0.002263518062831472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03999115305988789</v>
+        <v>0.02446222066008478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03754201949531241</v>
+        <v>0.02219870259725331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>489.5845573308944</v>
+        <v>460.9363112551777</v>
       </c>
       <c r="B37" t="n">
-        <v>515.7670168091664</v>
+        <v>479.4006198414402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002456033413376983</v>
+        <v>0.002282860094483048</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04070881043373017</v>
+        <v>0.02577719414366212</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03825277702035319</v>
+        <v>0.02349433404917907</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>504.8853577934495</v>
+        <v>465.6527060161538</v>
       </c>
       <c r="B38" t="n">
-        <v>528.3803156761263</v>
+        <v>483.4184134403961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002516096741314887</v>
+        <v>0.002301992444954267</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04745440626886468</v>
+        <v>0.02714059295238152</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04493830952754979</v>
+        <v>0.02483860050742726</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>509.4988004723971</v>
+        <v>470.004973903141</v>
       </c>
       <c r="B39" t="n">
-        <v>533.7995085289488</v>
+        <v>487.7300912929014</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002541902421566423</v>
+        <v>0.002322524244251912</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05064359169664495</v>
+        <v>0.02867589694335385</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04810168927507853</v>
+        <v>0.02635337269910194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>474.9330284325706</v>
+      </c>
+      <c r="B40" t="n">
+        <v>492.1850994815206</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.002343738568959622</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03034401220280612</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0280002736338465</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>481.7056212236257</v>
+      </c>
+      <c r="B41" t="n">
+        <v>498.7198117951792</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.002374856246643711</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.03294869739940434</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.03057384115276063</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>505.878882150833</v>
+      </c>
+      <c r="B42" t="n">
+        <v>521.2391882180809</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.002482091372467052</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.04352324843149823</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04104115705903118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>509.3372690797349</v>
+      </c>
+      <c r="B43" t="n">
+        <v>524.8708167612921</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.002499384841720438</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.04548489051271354</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0429855056709931</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +7067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,312 +7083,344 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>D_ni</t>
+          <t>D_ni_d</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.294288083354591e+26</v>
+        <v>4.560863103456534e+22</v>
       </c>
       <c r="B2" t="n">
-        <v>7.726255173486242e-27</v>
+        <v>3.617736298091291e-23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12903341683679.01</v>
+        <v>33061701286821.03</v>
       </c>
       <c r="B3" t="n">
-        <v>7.74993040186532e-14</v>
+        <v>4.990668767120338e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19330588863817.5</v>
+        <v>3383343622890.461</v>
       </c>
       <c r="B4" t="n">
-        <v>5.173148149003234e-14</v>
+        <v>4.876832458981423e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104827832778.231</v>
+        <v>20938781272.60798</v>
       </c>
       <c r="B5" t="n">
-        <v>9.539451245887668e-12</v>
+        <v>7.880114790436839e-11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5414419297.134806</v>
+        <v>9610894412.611513</v>
       </c>
       <c r="B6" t="n">
-        <v>1.846920131451915e-10</v>
+        <v>1.716801713932944e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4640749424.522783</v>
+        <v>1208317510.445527</v>
       </c>
       <c r="B7" t="n">
-        <v>2.154824379691286e-10</v>
+        <v>1.365535122793691e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>952323.4267944607</v>
+        <v>38568509.16309249</v>
       </c>
       <c r="B8" t="n">
-        <v>1.050063425790143e-06</v>
+        <v>4.278101580288565e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>524729.1527738908</v>
+        <v>26181729.99463921</v>
       </c>
       <c r="B9" t="n">
-        <v>1.905745077653245e-06</v>
+        <v>6.302104560461979e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45101.05311023381</v>
+        <v>22112817.08523661</v>
       </c>
       <c r="B10" t="n">
-        <v>2.217243126354164e-05</v>
+        <v>7.461735850479245e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23426.93842525122</v>
+        <v>9012366.270863533</v>
       </c>
       <c r="B11" t="n">
-        <v>4.268590209474955e-05</v>
+        <v>1.830817734665707e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5298.047915151034</v>
+        <v>6739860.433652265</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001887487648309599</v>
+        <v>2.448121910301756e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3811.132665150933</v>
+        <v>4149803.226385616</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0002623891865911723</v>
+        <v>3.976092142173962e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1570.316117257255</v>
+        <v>423557.5118256069</v>
       </c>
       <c r="B14" t="n">
-        <v>0.000636814453478717</v>
+        <v>3.895574872201443e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1327.804249102268</v>
+        <v>280365.4486585211</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0007531230606289312</v>
+        <v>2.942587982746874e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1434.087972690229</v>
+        <v>220833.4024479148</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0003486536457467404</v>
+        <v>7.471695774778295e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>990.3574813404875</v>
+        <v>107534.6149364275</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001009736402098423</v>
+        <v>1.534389648370852e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>907.0123502202213</v>
+        <v>103439.4445009949</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0005512604099366461</v>
+        <v>7.975680882470953e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600.1367451297125</v>
+        <v>15490.31329481408</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0008331434528174589</v>
+        <v>0.0001065181813044669</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>548.5464963070757</v>
+        <v>9432.013900410013</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0009114997604872142</v>
+        <v>0.0001749361289563275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>473.2072251197648</v>
+        <v>2776.917076590565</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001056619538878457</v>
+        <v>0.0002970920546943072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>452.0106204744558</v>
+        <v>2997.139897995729</v>
       </c>
       <c r="B22" t="n">
-        <v>0.002212337398068974</v>
+        <v>0.0002752624262056304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>405.797633528651</v>
+        <v>2241.743247326445</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002464282483129355</v>
+        <v>0.0003680171674360632</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>274.7767131319423</v>
+        <v>2185.415225279404</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00181965929463575</v>
+        <v>0.0007550052644064693</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>236.2403771574273</v>
+        <v>1494.102247485679</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004232976648753037</v>
+        <v>0.0011043420908955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>213.0873095359796</v>
+        <v>1388.27464103589</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004692912037688247</v>
+        <v>0.00118852563551029</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>140.6670129815373</v>
+        <v>1198.680354454124</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007108987237336525</v>
+        <v>0.000688256879270957</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>136.3644869080171</v>
+        <v>991.6672454438617</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003666643796615966</v>
+        <v>0.0008319322875595604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104.6574056824219</v>
+        <v>716.994895281588</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00955498555959293</v>
+        <v>0.002301271614147252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103.3807240666943</v>
+        <v>556.7932838075587</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004836491565656221</v>
+        <v>0.001481698906923489</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>82.06618018568535</v>
+        <v>486.4208704525294</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01218528750500353</v>
+        <v>0.001696062093784097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>82.61566967931252</v>
+        <v>392.127767665832</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006052120644193037</v>
+        <v>0.002103906093952159</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65.65240677151311</v>
+        <v>391.9452594556507</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007615867027390568</v>
+        <v>0.002104885771920786</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>62.20503644882069</v>
+        <v>224.4299260133911</v>
       </c>
       <c r="B34" t="n">
-        <v>0.008037934362619913</v>
+        <v>0.00367598035901315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>57.19478604139763</v>
+        <v>215.8169849248162</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008742055606923673</v>
+        <v>0.003822683373541724</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56.22541358483311</v>
+        <v>138.9086936580617</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008892775848515513</v>
+        <v>0.005939153110393681</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>54.43860254149222</v>
+        <v>125.9901387099791</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009184658985669373</v>
+        <v>0.006548131531937552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.2515879471567</v>
+        <v>114.4857868045466</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01212074552476623</v>
+        <v>0.007206134691710364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36.69091970651088</v>
+        <v>103.3960234867782</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01362734987292439</v>
+        <v>0.007979030258407347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>93.15161786062346</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01771305789308764</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>80.06703627814295</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0103038658397952</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>48.22677478090771</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01710667992516484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44.53173798115839</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01852611277711779</v>
       </c>
     </row>
   </sheetData>
@@ -7391,7 +7611,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2205519931340267</v>
+        <v>0.1143371793322852</v>
       </c>
     </row>
     <row r="18">
@@ -7401,7 +7621,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>76.4992638296</v>
+        <v>76.6425500748</v>
       </c>
       <c r="C3" t="n">
-        <v>79.19861164450001</v>
+        <v>79.1991827527</v>
       </c>
       <c r="D3" t="n">
-        <v>8.937091474820001</v>
+        <v>8.61622982025</v>
       </c>
       <c r="E3" t="n">
-        <v>76.4992638296</v>
+        <v>76.6425500748</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>198.086224612</v>
+        <v>198.258122241</v>
       </c>
       <c r="C4" t="n">
-        <v>206.139478527</v>
+        <v>205.800937397</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0021577132</v>
+        <v>24.8028440682</v>
       </c>
       <c r="E4" t="n">
-        <v>198.086224612</v>
+        <v>198.258122241</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>158.116508103</v>
+        <v>157.246053386</v>
       </c>
       <c r="C5" t="n">
-        <v>165.863881667</v>
+        <v>164.247634901</v>
       </c>
       <c r="D5" t="n">
-        <v>23.7744533099</v>
+        <v>21.8976523528</v>
       </c>
       <c r="E5" t="n">
-        <v>158.116508103</v>
+        <v>157.246053386</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>72.7185127788</v>
+        <v>70.0014038411</v>
       </c>
       <c r="C6" t="n">
-        <v>77.9088592478</v>
+        <v>74.7632935044</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9219344865</v>
+        <v>13.6111021989</v>
       </c>
       <c r="E6" t="n">
-        <v>72.7185127788</v>
+        <v>70.0014038411</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>146.704223701</v>
+        <v>143.744004841</v>
       </c>
       <c r="C7" t="n">
-        <v>155.276764598</v>
+        <v>152.676993248</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1335822231</v>
+        <v>26.8530989654</v>
       </c>
       <c r="E7" t="n">
-        <v>146.704223701</v>
+        <v>143.744004841</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>196.893130499</v>
+        <v>196.692824914</v>
       </c>
       <c r="C8" t="n">
-        <v>207.374331886</v>
+        <v>208.940792811</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3037740706</v>
+        <v>36.7855835576</v>
       </c>
       <c r="E8" t="n">
-        <v>196.893130499</v>
+        <v>196.692824914</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>120.098926197</v>
+        <v>126.435903805</v>
       </c>
       <c r="C9" t="n">
-        <v>129.345558289</v>
+        <v>138.6782822</v>
       </c>
       <c r="D9" t="n">
-        <v>26.9336275904</v>
+        <v>36.0620522231</v>
       </c>
       <c r="E9" t="n">
-        <v>120.098926197</v>
+        <v>126.435903805</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>108.270239522</v>
+        <v>122.973959175</v>
       </c>
       <c r="C10" t="n">
-        <v>119.735862397</v>
+        <v>137.456073183</v>
       </c>
       <c r="D10" t="n">
-        <v>34.0287385976</v>
+        <v>44.9397999858</v>
       </c>
       <c r="E10" t="n">
-        <v>108.270239522</v>
+        <v>122.973959175</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>177.636037768</v>
+        <v>195.532127757</v>
       </c>
       <c r="C11" t="n">
-        <v>194.513639279</v>
+        <v>213.559881147</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0001054673</v>
+        <v>54.2370142128</v>
       </c>
       <c r="E11" t="n">
-        <v>177.636037768</v>
+        <v>195.532127757</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>180.109904701</v>
+        <v>187.462774594</v>
       </c>
       <c r="C12" t="n">
-        <v>197.076952909</v>
+        <v>201.760792144</v>
       </c>
       <c r="D12" t="n">
-        <v>50.726090165</v>
+        <v>43.2217504852</v>
       </c>
       <c r="E12" t="n">
-        <v>180.109904701</v>
+        <v>187.462774594</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>147.948788779</v>
+        <v>127.809442384</v>
       </c>
       <c r="C13" t="n">
-        <v>164.397049051</v>
+        <v>142.550628779</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0419849054</v>
+        <v>45.1050085914</v>
       </c>
       <c r="E13" t="n">
-        <v>147.948788779</v>
+        <v>127.809442384</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>169.516172845</v>
+        <v>146.064514985</v>
       </c>
       <c r="C14" t="n">
-        <v>188.426395649</v>
+        <v>165.778688136</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6566106149</v>
+        <v>63.261153857</v>
       </c>
       <c r="E14" t="n">
-        <v>169.516172845</v>
+        <v>146.064514985</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>185.732107616</v>
+        <v>190.856285278</v>
       </c>
       <c r="C15" t="n">
-        <v>202.14896102</v>
+        <v>213.035279973</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1626634542</v>
+        <v>68.8124424719</v>
       </c>
       <c r="E15" t="n">
-        <v>185.732107616</v>
+        <v>190.856285278</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>155.428795196</v>
+        <v>210.221291882</v>
       </c>
       <c r="C16" t="n">
-        <v>158.434232426</v>
+        <v>217.962161831</v>
       </c>
       <c r="D16" t="n">
-        <v>13.4709865603</v>
+        <v>28.7954469024</v>
       </c>
       <c r="E16" t="n">
-        <v>155.428795196</v>
+        <v>210.221291882</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>136.232843781</v>
+        <v>198.814177444</v>
       </c>
       <c r="C17" t="n">
-        <v>112.367126419</v>
+        <v>174.374549794</v>
       </c>
       <c r="D17" t="n">
-        <v>-36.854221404</v>
+        <v>-36.4923211298</v>
       </c>
       <c r="E17" t="n">
-        <v>136.232843781</v>
+        <v>198.814177444</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>122.118810866</v>
+        <v>135.728147002</v>
       </c>
       <c r="C18" t="n">
-        <v>64.3874819927</v>
+        <v>66.7574976431</v>
       </c>
       <c r="D18" t="n">
-        <v>-76.40121007960001</v>
+        <v>-89.3362077009</v>
       </c>
       <c r="E18" t="n">
-        <v>-122.118810866</v>
+        <v>-135.728147002</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>94.5421238245</v>
+        <v>115.29481917</v>
       </c>
       <c r="C19" t="n">
-        <v>3.75006725554</v>
+        <v>-51.227530664</v>
       </c>
       <c r="D19" t="n">
-        <v>-91.5405678579</v>
+        <v>-131.530672161</v>
       </c>
       <c r="E19" t="n">
-        <v>-94.5421238245</v>
+        <v>-115.29481917</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>64.8000264201</v>
+        <v>118.349539455</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.38596599187</v>
+        <v>-75.491182874</v>
       </c>
       <c r="D20" t="n">
-        <v>-68.0331191292</v>
+        <v>-135.888590668</v>
       </c>
       <c r="E20" t="n">
-        <v>-64.8000264201</v>
+        <v>-118.349539455</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>68.4276352278</v>
+        <v>51.5139030884</v>
       </c>
       <c r="C21" t="n">
-        <v>65.67510932819999</v>
+        <v>3.91688699675</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.29374447761</v>
+        <v>-48.7439405491</v>
       </c>
       <c r="E21" t="n">
-        <v>68.4276352278</v>
+        <v>-51.5139030884</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>181.781691436</v>
+        <v>168.460406272</v>
       </c>
       <c r="C22" t="n">
-        <v>199.189353315</v>
+        <v>178.845431224</v>
       </c>
       <c r="D22" t="n">
-        <v>53.1219830979</v>
+        <v>32.2915941401</v>
       </c>
       <c r="E22" t="n">
-        <v>181.781691436</v>
+        <v>168.460406272</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>280.083464393</v>
+        <v>306.943479746</v>
       </c>
       <c r="C23" t="n">
-        <v>300.562856335</v>
+        <v>322.441579049</v>
       </c>
       <c r="D23" t="n">
-        <v>66.9523300254</v>
+        <v>55.251751555</v>
       </c>
       <c r="E23" t="n">
-        <v>280.083464393</v>
+        <v>306.943479746</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>265.116761271</v>
+        <v>294.126644804</v>
       </c>
       <c r="C24" t="n">
-        <v>279.98740499</v>
+        <v>305.905414619</v>
       </c>
       <c r="D24" t="n">
-        <v>50.9628665162</v>
+        <v>45.1002183542</v>
       </c>
       <c r="E24" t="n">
-        <v>265.116761271</v>
+        <v>294.126644804</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>135.533863624</v>
+        <v>132.817501134</v>
       </c>
       <c r="C25" t="n">
-        <v>150.14564316</v>
+        <v>148.151344972</v>
       </c>
       <c r="D25" t="n">
-        <v>43.3519163568</v>
+        <v>46.0161092892</v>
       </c>
       <c r="E25" t="n">
-        <v>135.533863624</v>
+        <v>132.817501134</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>74.43417312459999</v>
+        <v>78.9329859018</v>
       </c>
       <c r="C26" t="n">
-        <v>78.995313092</v>
+        <v>75.9865334008</v>
       </c>
       <c r="D26" t="n">
-        <v>11.1842748651</v>
+        <v>-4.17365687129</v>
       </c>
       <c r="E26" t="n">
-        <v>74.43417312459999</v>
+        <v>78.9329859018</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>79.5709726849</v>
+        <v>70.82915375979999</v>
       </c>
       <c r="C27" t="n">
-        <v>81.0030048668</v>
+        <v>68.2351175725</v>
       </c>
       <c r="D27" t="n">
-        <v>4.33252360031</v>
+        <v>-4.0830593001</v>
       </c>
       <c r="E27" t="n">
-        <v>79.5709726849</v>
+        <v>70.82915375979999</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>173.868462079</v>
+        <v>177.016776018</v>
       </c>
       <c r="C28" t="n">
-        <v>152.934004269</v>
+        <v>152.563389385</v>
       </c>
       <c r="D28" t="n">
-        <v>-31.6161861248</v>
+        <v>-37.3446419526</v>
       </c>
       <c r="E28" t="n">
-        <v>173.868462079</v>
+        <v>177.016776018</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>168.562152004</v>
+        <v>158.109509244</v>
       </c>
       <c r="C29" t="n">
-        <v>156.830873421</v>
+        <v>159.267407368</v>
       </c>
       <c r="D29" t="n">
-        <v>-15.6131783858</v>
+        <v>9.640247167309999</v>
       </c>
       <c r="E29" t="n">
-        <v>168.562152004</v>
+        <v>158.109509244</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>112.840064206</v>
+        <v>152.998850414</v>
       </c>
       <c r="C30" t="n">
-        <v>125.578806441</v>
+        <v>174.696408685</v>
       </c>
       <c r="D30" t="n">
-        <v>36.186574044</v>
+        <v>66.82337916340001</v>
       </c>
       <c r="E30" t="n">
-        <v>112.840064206</v>
+        <v>152.998850414</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>142.562392458</v>
+        <v>217.537332507</v>
       </c>
       <c r="C31" t="n">
-        <v>162.301581405</v>
+        <v>249.403757603</v>
       </c>
       <c r="D31" t="n">
-        <v>58.0635018931</v>
+        <v>101.960332391</v>
       </c>
       <c r="E31" t="n">
-        <v>142.562392458</v>
+        <v>217.537332507</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>202.649373315</v>
+        <v>288.098036203</v>
       </c>
       <c r="C32" t="n">
-        <v>229.711419187</v>
+        <v>326.376847455</v>
       </c>
       <c r="D32" t="n">
-        <v>92.77120832430001</v>
+        <v>137.258538176</v>
       </c>
       <c r="E32" t="n">
-        <v>202.649373315</v>
+        <v>288.098036203</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>287.270527145</v>
+        <v>340.961949465</v>
       </c>
       <c r="C33" t="n">
-        <v>315.541641387</v>
+        <v>377.874615297</v>
       </c>
       <c r="D33" t="n">
-        <v>91.4637000102</v>
+        <v>122.095328901</v>
       </c>
       <c r="E33" t="n">
-        <v>287.270527145</v>
+        <v>340.961949465</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>277.219315574</v>
+        <v>269.604106935</v>
       </c>
       <c r="C34" t="n">
-        <v>300.088610367</v>
+        <v>298.903879678</v>
       </c>
       <c r="D34" t="n">
-        <v>73.6316070347</v>
+        <v>94.5346734127</v>
       </c>
       <c r="E34" t="n">
-        <v>277.219315574</v>
+        <v>269.604106935</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>155.709038969</v>
+        <v>123.058340938</v>
       </c>
       <c r="C35" t="n">
-        <v>169.097514393</v>
+        <v>138.116709321</v>
       </c>
       <c r="D35" t="n">
-        <v>39.9298586956</v>
+        <v>45.0382282812</v>
       </c>
       <c r="E35" t="n">
-        <v>155.709038969</v>
+        <v>123.058340938</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>53.5511967486</v>
+        <v>45.645766733</v>
       </c>
       <c r="C36" t="n">
-        <v>43.0236863981</v>
+        <v>24.8649981182</v>
       </c>
       <c r="D36" t="n">
-        <v>-16.8210608501</v>
+        <v>-27.7345627427</v>
       </c>
       <c r="E36" t="n">
-        <v>53.5511967486</v>
+        <v>-45.645766733</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>90.79762941680001</v>
+        <v>151.348802351</v>
       </c>
       <c r="C37" t="n">
-        <v>10.773577556</v>
+        <v>26.8270721559</v>
       </c>
       <c r="D37" t="n">
-        <v>-84.055358106</v>
+        <v>-135.054030809</v>
       </c>
       <c r="E37" t="n">
-        <v>-90.79762941680001</v>
+        <v>-151.348802351</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>116.503061346</v>
+        <v>204.674186879</v>
       </c>
       <c r="C38" t="n">
-        <v>19.402218729</v>
+        <v>19.2352023985</v>
       </c>
       <c r="D38" t="n">
-        <v>-104.675460288</v>
+        <v>-192.596872757</v>
       </c>
       <c r="E38" t="n">
-        <v>-116.503061346</v>
+        <v>-204.674186879</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>75.19275113880001</v>
+        <v>126.589626375</v>
       </c>
       <c r="C39" t="n">
-        <v>34.215391636</v>
+        <v>-39.1199036065</v>
       </c>
       <c r="D39" t="n">
-        <v>-51.9138488664</v>
+        <v>-140.566781056</v>
       </c>
       <c r="E39" t="n">
-        <v>-75.19275113880001</v>
+        <v>-126.589626375</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>101.406506818</v>
+        <v>44.0353220014</v>
       </c>
       <c r="C40" t="n">
-        <v>111.224911138</v>
+        <v>6.23671908525</v>
       </c>
       <c r="D40" t="n">
-        <v>26.9218829218</v>
+        <v>-38.5938386254</v>
       </c>
       <c r="E40" t="n">
-        <v>101.406506818</v>
+        <v>-44.0353220014</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>212.03897015</v>
+        <v>163.343663912</v>
       </c>
       <c r="C41" t="n">
-        <v>238.801633904</v>
+        <v>186.535006982</v>
       </c>
       <c r="D41" t="n">
-        <v>88.24577890659999</v>
+        <v>73.76874931259999</v>
       </c>
       <c r="E41" t="n">
-        <v>212.03897015</v>
+        <v>163.343663912</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>294.917732699</v>
+        <v>354.905648543</v>
       </c>
       <c r="C42" t="n">
-        <v>330.402963778</v>
+        <v>398.010154399</v>
       </c>
       <c r="D42" t="n">
-        <v>118.859502085</v>
+        <v>147.018340358</v>
       </c>
       <c r="E42" t="n">
-        <v>294.917732699</v>
+        <v>354.905648543</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>296.91256343</v>
+        <v>432.147380841</v>
       </c>
       <c r="C43" t="n">
-        <v>333.129035102</v>
+        <v>485.413649729</v>
       </c>
       <c r="D43" t="n">
-        <v>122.359235624</v>
+        <v>185.52434684</v>
       </c>
       <c r="E43" t="n">
-        <v>296.91256343</v>
+        <v>432.147380841</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>231.481400478</v>
+        <v>362.501010936</v>
       </c>
       <c r="C44" t="n">
-        <v>261.591286025</v>
+        <v>412.151329164</v>
       </c>
       <c r="D44" t="n">
-        <v>102.539856418</v>
+        <v>187.502883715</v>
       </c>
       <c r="E44" t="n">
-        <v>231.481400478</v>
+        <v>362.501010936</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>147.03316458</v>
+        <v>246.441080641</v>
       </c>
       <c r="C45" t="n">
-        <v>165.102177704</v>
+        <v>282.744842653</v>
       </c>
       <c r="D45" t="n">
-        <v>55.7117328023</v>
+        <v>122.081814832</v>
       </c>
       <c r="E45" t="n">
-        <v>147.03316458</v>
+        <v>246.441080641</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>106.098630393</v>
+        <v>131.085912522</v>
       </c>
       <c r="C46" t="n">
-        <v>93.36464735929999</v>
+        <v>144.57313172</v>
       </c>
       <c r="D46" t="n">
-        <v>-20.0468979523</v>
+        <v>39.4206754247</v>
       </c>
       <c r="E46" t="n">
-        <v>106.098630393</v>
+        <v>131.085912522</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>167.392549024</v>
+        <v>194.875434482</v>
       </c>
       <c r="C47" t="n">
-        <v>63.2125449316</v>
+        <v>91.4657984163</v>
       </c>
       <c r="D47" t="n">
-        <v>-126.19429764</v>
+        <v>-132.093633694</v>
       </c>
       <c r="E47" t="n">
-        <v>-167.392549024</v>
+        <v>-194.875434482</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>225.009077789</v>
+        <v>309.235533744</v>
       </c>
       <c r="C48" t="n">
-        <v>10.5317363319</v>
+        <v>2.05645459892</v>
       </c>
       <c r="D48" t="n">
-        <v>-217.463439549</v>
+        <v>-305.276520793</v>
       </c>
       <c r="E48" t="n">
-        <v>-225.009077789</v>
+        <v>-309.235533744</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>237.830494305</v>
+        <v>362.038945019</v>
       </c>
       <c r="C49" t="n">
-        <v>-70.96692958120001</v>
+        <v>-148.556179254</v>
       </c>
       <c r="D49" t="n">
-        <v>-263.779471155</v>
+        <v>-411.747219835</v>
       </c>
       <c r="E49" t="n">
-        <v>-237.830494305</v>
+        <v>-362.038945019</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>223.183210306</v>
+        <v>377.578283626</v>
       </c>
       <c r="C50" t="n">
-        <v>-110.193808261</v>
+        <v>-227.223690655</v>
       </c>
       <c r="D50" t="n">
-        <v>-256.465039206</v>
+        <v>-434.322990695</v>
       </c>
       <c r="E50" t="n">
-        <v>-223.183210306</v>
+        <v>-377.578283626</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>180.712860277</v>
+        <v>291.981018505</v>
       </c>
       <c r="C51" t="n">
-        <v>-60.1840971796</v>
+        <v>-171.170051595</v>
       </c>
       <c r="D51" t="n">
-        <v>-202.081839358</v>
+        <v>-336.249772222</v>
       </c>
       <c r="E51" t="n">
-        <v>-180.712860277</v>
+        <v>-291.981018505</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>165.841702773</v>
+        <v>194.665155226</v>
       </c>
       <c r="C52" t="n">
-        <v>52.2884586036</v>
+        <v>11.0731217459</v>
       </c>
       <c r="D52" t="n">
-        <v>-132.784134853</v>
+        <v>-187.081806104</v>
       </c>
       <c r="E52" t="n">
-        <v>-165.841702773</v>
+        <v>-194.665155226</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>174.506158194</v>
+        <v>237.680964123</v>
       </c>
       <c r="C53" t="n">
-        <v>140.100930349</v>
+        <v>203.429943617</v>
       </c>
       <c r="D53" t="n">
-        <v>-52.6714424857</v>
+        <v>-51.8051615334</v>
       </c>
       <c r="E53" t="n">
-        <v>174.506158194</v>
+        <v>237.680964123</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>161.549418695</v>
+        <v>259.238162548</v>
       </c>
       <c r="C54" t="n">
-        <v>173.510874576</v>
+        <v>281.895758515</v>
       </c>
       <c r="D54" t="n">
-        <v>36.1249645174</v>
+        <v>72.622670566</v>
       </c>
       <c r="E54" t="n">
-        <v>161.549418695</v>
+        <v>259.238162548</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>191.67725492</v>
+        <v>264.111710448</v>
       </c>
       <c r="C55" t="n">
-        <v>218.857448677</v>
+        <v>301.606990845</v>
       </c>
       <c r="D55" t="n">
-        <v>91.2349467865</v>
+        <v>134.234984653</v>
       </c>
       <c r="E55" t="n">
-        <v>191.67725492</v>
+        <v>264.111710448</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>247.269594744</v>
+        <v>277.426538206</v>
       </c>
       <c r="C56" t="n">
-        <v>282.252317453</v>
+        <v>318.259612897</v>
       </c>
       <c r="D56" t="n">
-        <v>124.041377449</v>
+        <v>141.513228014</v>
       </c>
       <c r="E56" t="n">
-        <v>247.269594744</v>
+        <v>277.426538206</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>295.559143598</v>
+        <v>285.80311477</v>
       </c>
       <c r="C57" t="n">
-        <v>334.427729759</v>
+        <v>325.738371652</v>
       </c>
       <c r="D57" t="n">
-        <v>137.549057753</v>
+        <v>145.844351693</v>
       </c>
       <c r="E57" t="n">
-        <v>295.559143598</v>
+        <v>285.80311477</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>294.966351585</v>
+        <v>286.534262758</v>
       </c>
       <c r="C58" t="n">
-        <v>333.005028354</v>
+        <v>325.80629224</v>
       </c>
       <c r="D58" t="n">
-        <v>132.287185144</v>
+        <v>143.363104987</v>
       </c>
       <c r="E58" t="n">
-        <v>294.966351585</v>
+        <v>286.534262758</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>237.470811325</v>
+        <v>263.397283748</v>
       </c>
       <c r="C59" t="n">
-        <v>269.427645077</v>
+        <v>299.787207362</v>
       </c>
       <c r="D59" t="n">
-        <v>112.019358622</v>
+        <v>131.284652827</v>
       </c>
       <c r="E59" t="n">
-        <v>237.470811325</v>
+        <v>263.397283748</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>167.676294394</v>
+        <v>223.124477342</v>
       </c>
       <c r="C60" t="n">
-        <v>189.645088386</v>
+        <v>252.383729604</v>
       </c>
       <c r="D60" t="n">
-        <v>71.4764047952</v>
+        <v>99.8130716167</v>
       </c>
       <c r="E60" t="n">
-        <v>167.676294394</v>
+        <v>223.124477342</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>131.364455649</v>
+        <v>181.5913122</v>
       </c>
       <c r="C61" t="n">
-        <v>131.352100067</v>
+        <v>192.406441009</v>
       </c>
       <c r="D61" t="n">
-        <v>5.04822178837</v>
+        <v>34.4159546472</v>
       </c>
       <c r="E61" t="n">
-        <v>131.364455649</v>
+        <v>181.5913122</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>161.926009414</v>
+        <v>151.346917394</v>
       </c>
       <c r="C62" t="n">
-        <v>92.37608105859999</v>
+        <v>112.821423273</v>
       </c>
       <c r="D62" t="n">
-        <v>-94.398673458</v>
+        <v>-57.8398970487</v>
       </c>
       <c r="E62" t="n">
-        <v>-161.926009414</v>
+        <v>151.346917394</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>194.727268294</v>
+        <v>145.151142116</v>
       </c>
       <c r="C63" t="n">
-        <v>21.3569395847</v>
+        <v>9.69961146044</v>
       </c>
       <c r="D63" t="n">
-        <v>-181.526591596</v>
+        <v>-138.678923088</v>
       </c>
       <c r="E63" t="n">
-        <v>-194.727268294</v>
+        <v>-145.151142116</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>195.927206152</v>
+        <v>166.537828223</v>
       </c>
       <c r="C64" t="n">
-        <v>-65.9665518078</v>
+        <v>-65.12499635029999</v>
       </c>
       <c r="D64" t="n">
-        <v>-219.326224578</v>
+        <v>-188.543613098</v>
       </c>
       <c r="E64" t="n">
-        <v>-195.927206152</v>
+        <v>-166.537828223</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>161.29981992</v>
+        <v>159.110373566</v>
       </c>
       <c r="C65" t="n">
-        <v>-97.3296901808</v>
+        <v>-69.8043383207</v>
       </c>
       <c r="D65" t="n">
-        <v>-185.680395738</v>
+        <v>-181.581038696</v>
       </c>
       <c r="E65" t="n">
-        <v>-161.29981992</v>
+        <v>-159.110373566</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>74.5167520304</v>
+        <v>114.299064299</v>
       </c>
       <c r="C66" t="n">
-        <v>-27.3300853094</v>
+        <v>-2.8724119246</v>
       </c>
       <c r="D66" t="n">
-        <v>-83.60353081780001</v>
+        <v>-114.429684333</v>
       </c>
       <c r="E66" t="n">
-        <v>-74.5167520304</v>
+        <v>-114.299064299</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>154.022959962</v>
+        <v>134.507749931</v>
       </c>
       <c r="C67" t="n">
-        <v>152.83887009</v>
+        <v>114.208870381</v>
       </c>
       <c r="D67" t="n">
-        <v>4.16129336063</v>
+        <v>-31.59089545</v>
       </c>
       <c r="E67" t="n">
-        <v>154.022959962</v>
+        <v>134.507749931</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>281.737995576</v>
+        <v>202.817320511</v>
       </c>
       <c r="C68" t="n">
-        <v>305.285815813</v>
+        <v>217.272171006</v>
       </c>
       <c r="D68" t="n">
-        <v>76.2703200305</v>
+        <v>45.5474163902</v>
       </c>
       <c r="E68" t="n">
-        <v>281.737995576</v>
+        <v>202.817320511</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>305.080081101</v>
+        <v>242.028005588</v>
       </c>
       <c r="C69" t="n">
-        <v>342.299844337</v>
+        <v>272.830919691</v>
       </c>
       <c r="D69" t="n">
-        <v>125.792707277</v>
+        <v>104.124556591</v>
       </c>
       <c r="E69" t="n">
-        <v>305.080081101</v>
+        <v>242.028005588</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>260.401388046</v>
+        <v>258.302982334</v>
       </c>
       <c r="C70" t="n">
-        <v>295.754230217</v>
+        <v>293.29979675</v>
       </c>
       <c r="D70" t="n">
-        <v>126.611151702</v>
+        <v>124.988639631</v>
       </c>
       <c r="E70" t="n">
-        <v>260.401388046</v>
+        <v>258.302982334</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>196.978052382</v>
+        <v>248.721597318</v>
       </c>
       <c r="C71" t="n">
-        <v>223.925511283</v>
+        <v>281.299194057</v>
       </c>
       <c r="D71" t="n">
-        <v>91.7901993695</v>
+        <v>112.640647026</v>
       </c>
       <c r="E71" t="n">
-        <v>196.978052382</v>
+        <v>248.721597318</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>146.249166849</v>
+        <v>212.083721698</v>
       </c>
       <c r="C72" t="n">
-        <v>163.256152501</v>
+        <v>237.635581549</v>
       </c>
       <c r="D72" t="n">
-        <v>51.6736200257</v>
+        <v>82.79050174389999</v>
       </c>
       <c r="E72" t="n">
-        <v>146.249166849</v>
+        <v>212.083721698</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>124.378493204</v>
+        <v>155.237562752</v>
       </c>
       <c r="C73" t="n">
-        <v>128.959007258</v>
+        <v>172.576112952</v>
       </c>
       <c r="D73" t="n">
-        <v>14.6979363134</v>
+        <v>52.7078583687</v>
       </c>
       <c r="E73" t="n">
-        <v>124.378493204</v>
+        <v>155.237562752</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>114.42478147</v>
+        <v>110.286753699</v>
       </c>
       <c r="C74" t="n">
-        <v>108.569870915</v>
+        <v>121.681322437</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.75321306686</v>
+        <v>31.9552301341</v>
       </c>
       <c r="E74" t="n">
-        <v>114.42478147</v>
+        <v>110.286753699</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>101.942545899</v>
+        <v>103.509629849</v>
       </c>
       <c r="C75" t="n">
-        <v>95.4933126737</v>
+        <v>112.176533037</v>
       </c>
       <c r="D75" t="n">
-        <v>-9.484636621949999</v>
+        <v>23.5833647297</v>
       </c>
       <c r="E75" t="n">
-        <v>101.942545899</v>
+        <v>103.509629849</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>106.57926446</v>
+        <v>140.379207203</v>
       </c>
       <c r="C76" t="n">
-        <v>102.804016406</v>
+        <v>141.757364437</v>
       </c>
       <c r="D76" t="n">
-        <v>-4.23200505514</v>
+        <v>8.7106334147</v>
       </c>
       <c r="E76" t="n">
-        <v>106.57926446</v>
+        <v>140.379207203</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>138.967025612</v>
+        <v>185.794189137</v>
       </c>
       <c r="C77" t="n">
-        <v>129.275836583</v>
+        <v>165.096856041</v>
       </c>
       <c r="D77" t="n">
-        <v>-13.4924750811</v>
+        <v>-30.8491499772</v>
       </c>
       <c r="E77" t="n">
-        <v>138.967025612</v>
+        <v>185.794189137</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>170.379516633</v>
+        <v>185.860617385</v>
       </c>
       <c r="C78" t="n">
-        <v>139.838835976</v>
+        <v>123.107619007</v>
       </c>
       <c r="D78" t="n">
-        <v>-46.958379312</v>
+        <v>-89.87031384540001</v>
       </c>
       <c r="E78" t="n">
-        <v>170.379516633</v>
+        <v>185.860617385</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>150.342788644</v>
+        <v>157.104906374</v>
       </c>
       <c r="C79" t="n">
-        <v>94.5970523017</v>
+        <v>19.4897575903</v>
       </c>
       <c r="D79" t="n">
-        <v>-78.4039603855</v>
+        <v>-145.143031477</v>
       </c>
       <c r="E79" t="n">
-        <v>150.342788644</v>
+        <v>-157.104906374</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>83.3489038605</v>
+        <v>141.597689681</v>
       </c>
       <c r="C80" t="n">
-        <v>14.9437024701</v>
+        <v>-71.2758345675</v>
       </c>
       <c r="D80" t="n">
-        <v>-74.1788553697</v>
+        <v>-162.770418473</v>
       </c>
       <c r="E80" t="n">
-        <v>-83.3489038605</v>
+        <v>-141.597689681</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>36.4238735526</v>
+        <v>108.096390438</v>
       </c>
       <c r="C81" t="n">
-        <v>-9.33449675132</v>
+        <v>-69.2784252438</v>
       </c>
       <c r="D81" t="n">
-        <v>-39.3600226166</v>
+        <v>-124.08937876</v>
       </c>
       <c r="E81" t="n">
-        <v>-36.4238735526</v>
+        <v>-108.096390438</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>77.8166767659</v>
+        <v>91.37835247380001</v>
       </c>
       <c r="C82" t="n">
-        <v>74.72256006409999</v>
+        <v>46.1740266927</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.56780373318</v>
+        <v>-59.0476721947</v>
       </c>
       <c r="E82" t="n">
-        <v>77.8166767659</v>
+        <v>-91.37835247380001</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>197.076715393</v>
+        <v>202.555667391</v>
       </c>
       <c r="C83" t="n">
-        <v>201.636050226</v>
+        <v>198.155643283</v>
       </c>
       <c r="D83" t="n">
-        <v>20.1671028099</v>
+        <v>0.878663356469</v>
       </c>
       <c r="E83" t="n">
-        <v>197.076715393</v>
+        <v>202.555667391</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>249.166847631</v>
+        <v>250.253671995</v>
       </c>
       <c r="C84" t="n">
-        <v>259.438470501</v>
+        <v>268.656405149</v>
       </c>
       <c r="D84" t="n">
-        <v>37.9058375718</v>
+        <v>59.5545360971</v>
       </c>
       <c r="E84" t="n">
-        <v>249.166847631</v>
+        <v>250.253671995</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>195.448474945</v>
+        <v>225.273780353</v>
       </c>
       <c r="C85" t="n">
-        <v>211.259617225</v>
+        <v>254.126062315</v>
       </c>
       <c r="D85" t="n">
-        <v>48.9516878489</v>
+        <v>97.00461097500001</v>
       </c>
       <c r="E85" t="n">
-        <v>195.448474945</v>
+        <v>225.273780353</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>120.228861492</v>
+        <v>207.308456533</v>
       </c>
       <c r="C86" t="n">
-        <v>135.867989134</v>
+        <v>237.579259067</v>
       </c>
       <c r="D86" t="n">
-        <v>46.8144444119</v>
+        <v>99.8864565926</v>
       </c>
       <c r="E86" t="n">
-        <v>120.228861492</v>
+        <v>207.308456533</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>112.787516338</v>
+        <v>221.67270704</v>
       </c>
       <c r="C87" t="n">
-        <v>127.57361085</v>
+        <v>254.259873813</v>
       </c>
       <c r="D87" t="n">
-        <v>41.4662701409</v>
+        <v>107.231926477</v>
       </c>
       <c r="E87" t="n">
-        <v>112.787516338</v>
+        <v>221.67270704</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>159.368284005</v>
+        <v>258.354657256</v>
       </c>
       <c r="C88" t="n">
-        <v>180.691512437</v>
+        <v>294.013787683</v>
       </c>
       <c r="D88" t="n">
-        <v>69.0126528513</v>
+        <v>128.161578204</v>
       </c>
       <c r="E88" t="n">
-        <v>159.368284005</v>
+        <v>258.354657256</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>240.138489301</v>
+        <v>290.048404896</v>
       </c>
       <c r="C89" t="n">
-        <v>266.83371443</v>
+        <v>327.528938214</v>
       </c>
       <c r="D89" t="n">
-        <v>85.8347164568</v>
+        <v>130.303916857</v>
       </c>
       <c r="E89" t="n">
-        <v>240.138489301</v>
+        <v>290.048404896</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>268.006321871</v>
+        <v>268.660650664</v>
       </c>
       <c r="C90" t="n">
-        <v>296.141491427</v>
+        <v>304.073795548</v>
       </c>
       <c r="D90" t="n">
-        <v>90.7358570482</v>
+        <v>124.194718676</v>
       </c>
       <c r="E90" t="n">
-        <v>268.006321871</v>
+        <v>268.660650664</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>216.82467573</v>
+        <v>215.442567492</v>
       </c>
       <c r="C91" t="n">
-        <v>243.910315936</v>
+        <v>245.365134218</v>
       </c>
       <c r="D91" t="n">
-        <v>89.40982950119999</v>
+        <v>104.051429924</v>
       </c>
       <c r="E91" t="n">
-        <v>216.82467573</v>
+        <v>215.442567492</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>156.92248373</v>
+        <v>167.504752148</v>
       </c>
       <c r="C92" t="n">
-        <v>178.601662578</v>
+        <v>188.916935247</v>
       </c>
       <c r="D92" t="n">
-        <v>69.9455314066</v>
+        <v>68.89516756739999</v>
       </c>
       <c r="E92" t="n">
-        <v>156.92248373</v>
+        <v>167.504752148</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>131.162269202</v>
+        <v>150.659852521</v>
       </c>
       <c r="C93" t="n">
-        <v>148.192291892</v>
+        <v>153.325185229</v>
       </c>
       <c r="D93" t="n">
-        <v>52.1926170498</v>
+        <v>12.2751918842</v>
       </c>
       <c r="E93" t="n">
-        <v>131.162269202</v>
+        <v>150.659852521</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>148.067149834</v>
+        <v>137.515340019</v>
       </c>
       <c r="C94" t="n">
-        <v>161.498012142</v>
+        <v>109.029530623</v>
       </c>
       <c r="D94" t="n">
-        <v>39.5950708504</v>
+        <v>-43.7612472609</v>
       </c>
       <c r="E94" t="n">
-        <v>148.067149834</v>
+        <v>137.515340019</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>171.385644769</v>
+        <v>96.29132833520001</v>
       </c>
       <c r="C95" t="n">
-        <v>181.569740463</v>
+        <v>42.972643927</v>
       </c>
       <c r="D95" t="n">
-        <v>31.975831249</v>
+        <v>-67.22074659170001</v>
       </c>
       <c r="E95" t="n">
-        <v>171.385644769</v>
+        <v>-96.29132833520001</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>163.912044673</v>
+        <v>64.6616764882</v>
       </c>
       <c r="C96" t="n">
-        <v>172.479632716</v>
+        <v>5.35729715259</v>
       </c>
       <c r="D96" t="n">
-        <v>27.3237775786</v>
+        <v>-61.0382506156</v>
       </c>
       <c r="E96" t="n">
-        <v>163.912044673</v>
+        <v>-64.6616764882</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>135.526848122</v>
+        <v>75.0759689004</v>
       </c>
       <c r="C97" t="n">
-        <v>140.864585808</v>
+        <v>41.2000461927</v>
       </c>
       <c r="D97" t="n">
-        <v>17.3212878634</v>
+        <v>-45.4499828468</v>
       </c>
       <c r="E97" t="n">
-        <v>135.526848122</v>
+        <v>-75.0759689004</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>110.965304224</v>
+        <v>136.102578923</v>
       </c>
       <c r="C98" t="n">
-        <v>111.266792979</v>
+        <v>120.937922959</v>
       </c>
       <c r="D98" t="n">
-        <v>4.21930022196</v>
+        <v>-23.2306575752</v>
       </c>
       <c r="E98" t="n">
-        <v>110.965304224</v>
+        <v>136.102578923</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>109.962280536</v>
+        <v>186.451308533</v>
       </c>
       <c r="C99" t="n">
-        <v>100.787206254</v>
+        <v>178.273125894</v>
       </c>
       <c r="D99" t="n">
-        <v>-13.9423373714</v>
+        <v>-7.81867269333</v>
       </c>
       <c r="E99" t="n">
-        <v>109.962280536</v>
+        <v>186.451308533</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>114.842283636</v>
+        <v>167.907615176</v>
       </c>
       <c r="C100" t="n">
-        <v>101.359836049</v>
+        <v>169.733238732</v>
       </c>
       <c r="D100" t="n">
-        <v>-21.1012064846</v>
+        <v>11.6519362962</v>
       </c>
       <c r="E100" t="n">
-        <v>114.842283636</v>
+        <v>167.907615176</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>105.99248243</v>
+        <v>119.101360727</v>
       </c>
       <c r="C101" t="n">
-        <v>102.381050799</v>
+        <v>134.2292726</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.96185501675</v>
+        <v>45.0669842047</v>
       </c>
       <c r="E101" t="n">
-        <v>105.99248243</v>
+        <v>119.101360727</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>122.234204033</v>
+        <v>139.392411591</v>
       </c>
       <c r="C102" t="n">
-        <v>123.288426909</v>
+        <v>158.962031741</v>
       </c>
       <c r="D102" t="n">
-        <v>6.67114957745</v>
+        <v>60.2105388254</v>
       </c>
       <c r="E102" t="n">
-        <v>122.234204033</v>
+        <v>139.392411591</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>153.283961965</v>
+        <v>199.609258956</v>
       </c>
       <c r="C103" t="n">
-        <v>151.46807808</v>
+        <v>222.550080034</v>
       </c>
       <c r="D103" t="n">
-        <v>2.75908203019</v>
+        <v>72.6294454841</v>
       </c>
       <c r="E103" t="n">
-        <v>153.283961965</v>
+        <v>199.609258956</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>147.105142906</v>
+        <v>244.725595284</v>
       </c>
       <c r="C104" t="n">
-        <v>149.671145409</v>
+        <v>269.5417423</v>
       </c>
       <c r="D104" t="n">
-        <v>11.8000879651</v>
+        <v>79.0436369613</v>
       </c>
       <c r="E104" t="n">
-        <v>147.105142906</v>
+        <v>244.725595284</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>124.100064431</v>
+        <v>222.009937907</v>
       </c>
       <c r="C105" t="n">
-        <v>134.553419841</v>
+        <v>248.809173247</v>
       </c>
       <c r="D105" t="n">
-        <v>29.7171971517</v>
+        <v>87.4101512246</v>
       </c>
       <c r="E105" t="n">
-        <v>124.100064431</v>
+        <v>222.009937907</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>132.849363797</v>
+        <v>174.96908637</v>
       </c>
       <c r="C106" t="n">
-        <v>141.243551321</v>
+        <v>194.463106147</v>
       </c>
       <c r="D106" t="n">
-        <v>24.7228277394</v>
+        <v>60.3690415874</v>
       </c>
       <c r="E106" t="n">
-        <v>132.849363797</v>
+        <v>174.96908637</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>169.215129991</v>
+        <v>149.884081167</v>
       </c>
       <c r="C107" t="n">
-        <v>158.282497553</v>
+        <v>138.653600761</v>
       </c>
       <c r="D107" t="n">
-        <v>-14.1751963378</v>
+        <v>-15.7437562876</v>
       </c>
       <c r="E107" t="n">
-        <v>169.215129991</v>
+        <v>149.884081167</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>155.713822262</v>
+        <v>146.178234842</v>
       </c>
       <c r="C108" t="n">
-        <v>126.641606581</v>
+        <v>68.06172552450001</v>
       </c>
       <c r="D108" t="n">
-        <v>-44.7848111432</v>
+        <v>-99.6052253199</v>
       </c>
       <c r="E108" t="n">
-        <v>155.713822262</v>
+        <v>-146.178234842</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>69.472070215</v>
+        <v>112.462209041</v>
       </c>
       <c r="C109" t="n">
-        <v>49.1604400838</v>
+        <v>-24.2086431463</v>
       </c>
       <c r="D109" t="n">
-        <v>-30.2093735177</v>
+        <v>-121.417474236</v>
       </c>
       <c r="E109" t="n">
-        <v>69.472070215</v>
+        <v>-112.462209041</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>37.5050705108</v>
+        <v>79.84705200969999</v>
       </c>
       <c r="C110" t="n">
-        <v>32.8899929062</v>
+        <v>-51.6614874889</v>
       </c>
       <c r="D110" t="n">
-        <v>-7.82026448786</v>
+        <v>-91.6205266778</v>
       </c>
       <c r="E110" t="n">
-        <v>37.5050705108</v>
+        <v>-79.84705200969999</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>108.766885594</v>
+        <v>82.76719509</v>
       </c>
       <c r="C111" t="n">
-        <v>107.412256613</v>
+        <v>37.2176559781</v>
       </c>
       <c r="D111" t="n">
-        <v>0.677692450944</v>
+        <v>-57.5304401994</v>
       </c>
       <c r="E111" t="n">
-        <v>108.766885594</v>
+        <v>-82.76719509</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>207.50760713</v>
+        <v>192.968596019</v>
       </c>
       <c r="C112" t="n">
-        <v>199.359131624</v>
+        <v>169.903550123</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.4495621529</v>
+        <v>-34.624968839</v>
       </c>
       <c r="E112" t="n">
-        <v>207.50760713</v>
+        <v>192.968596019</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>198.829436146</v>
+        <v>212.917530765</v>
       </c>
       <c r="C113" t="n">
-        <v>198.163375818</v>
+        <v>213.982680357</v>
       </c>
       <c r="D113" t="n">
-        <v>8.52729760643</v>
+        <v>13.3832262475</v>
       </c>
       <c r="E113" t="n">
-        <v>198.829436146</v>
+        <v>212.917530765</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>120.641622006</v>
+        <v>164.521036882</v>
       </c>
       <c r="C114" t="n">
-        <v>131.866587447</v>
+        <v>181.935410588</v>
       </c>
       <c r="D114" t="n">
-        <v>31.8427147073</v>
+        <v>52.9801435435</v>
       </c>
       <c r="E114" t="n">
-        <v>120.641622006</v>
+        <v>164.521036882</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>95.7751071462</v>
+        <v>139.484496227</v>
       </c>
       <c r="C115" t="n">
-        <v>107.650798185</v>
+        <v>157.178072408</v>
       </c>
       <c r="D115" t="n">
-        <v>32.9546285917</v>
+        <v>54.7396560186</v>
       </c>
       <c r="E115" t="n">
-        <v>95.7751071462</v>
+        <v>139.484496227</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>128.319546229</v>
+        <v>145.616430982</v>
       </c>
       <c r="C116" t="n">
-        <v>141.631854058</v>
+        <v>163.204627737</v>
       </c>
       <c r="D116" t="n">
-        <v>38.6057493936</v>
+        <v>53.953736327</v>
       </c>
       <c r="E116" t="n">
-        <v>128.319546229</v>
+        <v>145.616430982</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>191.317863581</v>
+        <v>172.795914249</v>
       </c>
       <c r="C117" t="n">
-        <v>202.699689702</v>
+        <v>190.138397991</v>
       </c>
       <c r="D117" t="n">
-        <v>36.5250241027</v>
+        <v>52.8121966603</v>
       </c>
       <c r="E117" t="n">
-        <v>191.317863581</v>
+        <v>172.795914249</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>206.251595044</v>
+        <v>193.518770489</v>
       </c>
       <c r="C118" t="n">
-        <v>215.851481069</v>
+        <v>205.033872701</v>
       </c>
       <c r="D118" t="n">
-        <v>33.0105192114</v>
+        <v>36.9865762928</v>
       </c>
       <c r="E118" t="n">
-        <v>206.251595044</v>
+        <v>193.518770489</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>151.544566865</v>
+        <v>162.234034915</v>
       </c>
       <c r="C119" t="n">
-        <v>166.144235406</v>
+        <v>171.425349421</v>
       </c>
       <c r="D119" t="n">
-        <v>43.3012144499</v>
+        <v>28.7521420122</v>
       </c>
       <c r="E119" t="n">
-        <v>151.544566865</v>
+        <v>162.234034915</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>124.472402884</v>
+        <v>110.964195493</v>
       </c>
       <c r="C120" t="n">
-        <v>141.574580984</v>
+        <v>123.874145793</v>
       </c>
       <c r="D120" t="n">
-        <v>50.1890048958</v>
+        <v>37.0997087598</v>
       </c>
       <c r="E120" t="n">
-        <v>124.472402884</v>
+        <v>110.964195493</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>154.775332572</v>
+        <v>115.190571757</v>
       </c>
       <c r="C121" t="n">
-        <v>176.683677855</v>
+        <v>130.36173327</v>
       </c>
       <c r="D121" t="n">
-        <v>69.3408654797</v>
+        <v>44.7953286248</v>
       </c>
       <c r="E121" t="n">
-        <v>154.775332572</v>
+        <v>115.190571757</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>225.228222647</v>
+        <v>166.680375088</v>
       </c>
       <c r="C122" t="n">
-        <v>250.905136182</v>
+        <v>183.901903516</v>
       </c>
       <c r="D122" t="n">
-        <v>82.4157943487</v>
+        <v>52.2662609814</v>
       </c>
       <c r="E122" t="n">
-        <v>225.228222647</v>
+        <v>166.680375088</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>269.740595069</v>
+        <v>227.51164448</v>
       </c>
       <c r="C123" t="n">
-        <v>289.09359921</v>
+        <v>235.038698633</v>
       </c>
       <c r="D123" t="n">
-        <v>63.420781577</v>
+        <v>29.5414088777</v>
       </c>
       <c r="E123" t="n">
-        <v>269.740595069</v>
+        <v>227.51164448</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>210.303843498</v>
+        <v>206.970927294</v>
       </c>
       <c r="C124" t="n">
-        <v>218.754525806</v>
+        <v>199.09315671</v>
       </c>
       <c r="D124" t="n">
-        <v>30.47189814</v>
+        <v>-5.9356113142</v>
       </c>
       <c r="E124" t="n">
-        <v>210.303843498</v>
+        <v>206.970927294</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>84.7906844644</v>
+        <v>97.090019746</v>
       </c>
       <c r="C125" t="n">
-        <v>84.9103865484</v>
+        <v>81.1413790153</v>
       </c>
       <c r="D125" t="n">
-        <v>2.06093430069</v>
+        <v>-25.240251684</v>
       </c>
       <c r="E125" t="n">
-        <v>84.7906844644</v>
+        <v>97.090019746</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>26.9660548373</v>
+        <v>41.011882411</v>
       </c>
       <c r="C126" t="n">
-        <v>5.03498773301</v>
+        <v>-5.99968019751</v>
       </c>
       <c r="D126" t="n">
-        <v>-23.4478121317</v>
+        <v>-42.84869387</v>
       </c>
       <c r="E126" t="n">
-        <v>-26.9660548373</v>
+        <v>-41.011882411</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>76.58504321869999</v>
+        <v>72.9740482429</v>
       </c>
       <c r="C127" t="n">
-        <v>35.0187457131</v>
+        <v>12.3805502729</v>
       </c>
       <c r="D127" t="n">
-        <v>-52.7277958853</v>
+        <v>-65.32796692310001</v>
       </c>
       <c r="E127" t="n">
-        <v>-76.58504321869999</v>
+        <v>-72.9740482429</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>163.916973062</v>
+        <v>127.447369153</v>
       </c>
       <c r="C128" t="n">
-        <v>111.568011678</v>
+        <v>85.396704773</v>
       </c>
       <c r="D128" t="n">
-        <v>-75.8312704329</v>
+        <v>-60.6727667265</v>
       </c>
       <c r="E128" t="n">
-        <v>163.916973062</v>
+        <v>127.447369153</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>162.401722683</v>
+        <v>148.951971813</v>
       </c>
       <c r="C129" t="n">
-        <v>126.272375057</v>
+        <v>137.135131227</v>
       </c>
       <c r="D129" t="n">
-        <v>-54.9570477304</v>
+        <v>-16.8603882135</v>
       </c>
       <c r="E129" t="n">
-        <v>162.401722683</v>
+        <v>148.951971813</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>89.9447867912</v>
+        <v>147.757700379</v>
       </c>
       <c r="C130" t="n">
-        <v>90.22393382999999</v>
+        <v>162.095789268</v>
       </c>
       <c r="D130" t="n">
-        <v>2.73130893703</v>
+        <v>42.3650831734</v>
       </c>
       <c r="E130" t="n">
-        <v>89.9447867912</v>
+        <v>147.757700379</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>110.755650388</v>
+        <v>187.847684154</v>
       </c>
       <c r="C131" t="n">
-        <v>125.271511292</v>
+        <v>214.843932877</v>
       </c>
       <c r="D131" t="n">
-        <v>40.6867109647</v>
+        <v>89.0863911572</v>
       </c>
       <c r="E131" t="n">
-        <v>110.755650388</v>
+        <v>187.847684154</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>193.458278893</v>
+        <v>258.484912039</v>
       </c>
       <c r="C132" t="n">
-        <v>220.571829307</v>
+        <v>295.824393808</v>
       </c>
       <c r="D132" t="n">
-        <v>91.82180041380001</v>
+        <v>131.417164733</v>
       </c>
       <c r="E132" t="n">
-        <v>193.458278893</v>
+        <v>258.484912039</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>295.866979279</v>
+        <v>320.414989328</v>
       </c>
       <c r="C133" t="n">
-        <v>330.589638701</v>
+        <v>361.640403211</v>
       </c>
       <c r="D133" t="n">
-        <v>115.432722867</v>
+        <v>144.225672983</v>
       </c>
       <c r="E133" t="n">
-        <v>295.866979279</v>
+        <v>320.414989328</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>320.484526269</v>
+        <v>318.09565076</v>
       </c>
       <c r="C134" t="n">
-        <v>352.704222687</v>
+        <v>351.586629123</v>
       </c>
       <c r="D134" t="n">
-        <v>105.293053609</v>
+        <v>109.711209396</v>
       </c>
       <c r="E134" t="n">
-        <v>320.484526269</v>
+        <v>318.09565076</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>221.76391842</v>
+        <v>201.399862342</v>
       </c>
       <c r="C135" t="n">
-        <v>249.03817967</v>
+        <v>224.16618409</v>
       </c>
       <c r="D135" t="n">
-        <v>89.5998358574</v>
+        <v>71.9899882916</v>
       </c>
       <c r="E135" t="n">
-        <v>221.76391842</v>
+        <v>201.399862342</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>117.539801098</v>
+        <v>74.6442125681</v>
       </c>
       <c r="C136" t="n">
-        <v>133.520526241</v>
+        <v>81.4143122031</v>
       </c>
       <c r="D136" t="n">
-        <v>46.8360078411</v>
+        <v>16.9062827651</v>
       </c>
       <c r="E136" t="n">
-        <v>117.539801098</v>
+        <v>74.6442125681</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>79.8050991059</v>
+        <v>106.920948004</v>
       </c>
       <c r="C137" t="n">
-        <v>72.3020315073</v>
+        <v>25.2401957559</v>
       </c>
       <c r="D137" t="n">
-        <v>-12.2006918352</v>
+        <v>-91.3974739976</v>
       </c>
       <c r="E137" t="n">
-        <v>79.8050991059</v>
+        <v>-106.920948004</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>205.64917438</v>
+        <v>287.267647527</v>
       </c>
       <c r="C138" t="n">
-        <v>92.6123797995</v>
+        <v>35.6870129427</v>
       </c>
       <c r="D138" t="n">
-        <v>-142.782218765</v>
+        <v>-265.45908823</v>
       </c>
       <c r="E138" t="n">
-        <v>-205.64917438</v>
+        <v>-287.267647527</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>280.769649838</v>
+        <v>383.890414954</v>
       </c>
       <c r="C139" t="n">
-        <v>43.7780783686</v>
+        <v>-37.2890338638</v>
       </c>
       <c r="D139" t="n">
-        <v>-254.232816469</v>
+        <v>-397.62796693</v>
       </c>
       <c r="E139" t="n">
-        <v>-280.769649838</v>
+        <v>-383.890414954</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>260.979782354</v>
+        <v>367.83104758</v>
       </c>
       <c r="C140" t="n">
-        <v>-90.6922539661</v>
+        <v>-181.351531866</v>
       </c>
       <c r="D140" t="n">
-        <v>-293.033157626</v>
+        <v>-422.711743348</v>
       </c>
       <c r="E140" t="n">
-        <v>-260.979782354</v>
+        <v>-367.83104758</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>234.866896378</v>
+        <v>312.573889264</v>
       </c>
       <c r="C141" t="n">
-        <v>-155.248319993</v>
+        <v>-202.339801541</v>
       </c>
       <c r="D141" t="n">
-        <v>-267.706462958</v>
+        <v>-351.60537482</v>
       </c>
       <c r="E141" t="n">
-        <v>-234.866896378</v>
+        <v>-312.573889264</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>118.574684208</v>
+        <v>109.502360479</v>
       </c>
       <c r="C142" t="n">
-        <v>-83.6119165912</v>
+        <v>-59.1289690694</v>
       </c>
       <c r="D142" t="n">
-        <v>-134.41583711</v>
+        <v>-121.449888656</v>
       </c>
       <c r="E142" t="n">
-        <v>-118.574684208</v>
+        <v>-109.502360479</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>140.203905312</v>
+        <v>250.533475805</v>
       </c>
       <c r="C143" t="n">
-        <v>146.897351075</v>
+        <v>283.215973013</v>
       </c>
       <c r="D143" t="n">
-        <v>20.9300055605</v>
+        <v>112.758535323</v>
       </c>
       <c r="E143" t="n">
-        <v>140.203905312</v>
+        <v>250.533475805</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>360.34338399</v>
+        <v>552.940286419</v>
       </c>
       <c r="C144" t="n">
-        <v>401.37790599</v>
+        <v>626.052278754</v>
       </c>
       <c r="D144" t="n">
-        <v>137.434507111</v>
+        <v>273.234810628</v>
       </c>
       <c r="E144" t="n">
-        <v>360.34338399</v>
+        <v>552.940286419</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>448.451339055</v>
+        <v>662.590041218</v>
       </c>
       <c r="C145" t="n">
-        <v>508.591657511</v>
+        <v>753.026588277</v>
       </c>
       <c r="D145" t="n">
-        <v>227.102807642</v>
+        <v>363.989598486</v>
       </c>
       <c r="E145" t="n">
-        <v>448.451339055</v>
+        <v>662.590041218</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>446.780467291</v>
+        <v>619.0332185570001</v>
       </c>
       <c r="C146" t="n">
-        <v>513.008929574</v>
+        <v>711.559744606</v>
       </c>
       <c r="D146" t="n">
-        <v>240.342596794</v>
+        <v>337.52461473</v>
       </c>
       <c r="E146" t="n">
-        <v>446.780467291</v>
+        <v>619.0332185570001</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>406.247367632</v>
+        <v>494.992975457</v>
       </c>
       <c r="C147" t="n">
-        <v>467.154896135</v>
+        <v>569.288982534</v>
       </c>
       <c r="D147" t="n">
-        <v>208.017120469</v>
+        <v>251.819095048</v>
       </c>
       <c r="E147" t="n">
-        <v>406.247367632</v>
+        <v>494.992975457</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>324.34643255</v>
+        <v>311.162240604</v>
       </c>
       <c r="C148" t="n">
-        <v>368.491465078</v>
+        <v>353.324335729</v>
       </c>
       <c r="D148" t="n">
-        <v>163.792230921</v>
+        <v>154.95486927</v>
       </c>
       <c r="E148" t="n">
-        <v>324.34643255</v>
+        <v>311.162240604</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>275.642697753</v>
+        <v>259.687059998</v>
       </c>
       <c r="C149" t="n">
-        <v>267.684846748</v>
+        <v>187.595896937</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.40505009059</v>
+        <v>-106.344908865</v>
       </c>
       <c r="E149" t="n">
-        <v>275.642697753</v>
+        <v>259.687059998</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>263.519032533</v>
+        <v>405.438954932</v>
       </c>
       <c r="C150" t="n">
-        <v>70.6880908041</v>
+        <v>-43.9037243478</v>
       </c>
       <c r="D150" t="n">
-        <v>-219.683213061</v>
+        <v>-421.916470272</v>
       </c>
       <c r="E150" t="n">
-        <v>-263.519032533</v>
+        <v>-405.438954932</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>359.868467643</v>
+        <v>586.886541116</v>
       </c>
       <c r="C151" t="n">
-        <v>-173.7212229</v>
+        <v>-304.52735048</v>
       </c>
       <c r="D151" t="n">
-        <v>-413.193803269</v>
+        <v>-675.545743291</v>
       </c>
       <c r="E151" t="n">
-        <v>-359.868467643</v>
+        <v>-586.886541116</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>472.724318421</v>
+        <v>698.658178931</v>
       </c>
       <c r="C152" t="n">
-        <v>-289.712111193</v>
+        <v>-417.885779345</v>
       </c>
       <c r="D152" t="n">
-        <v>-542.651154724</v>
+        <v>-802.8531471159999</v>
       </c>
       <c r="E152" t="n">
-        <v>-472.724318421</v>
+        <v>-698.658178931</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>436.607284539</v>
+        <v>607.9913202069999</v>
       </c>
       <c r="C153" t="n">
-        <v>-252.215242483</v>
+        <v>-350.442590551</v>
       </c>
       <c r="D153" t="n">
-        <v>-502.836420785</v>
+        <v>-700.102033061</v>
       </c>
       <c r="E153" t="n">
-        <v>-436.607284539</v>
+        <v>-607.9913202069999</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>294.514923546</v>
+        <v>360.215710639</v>
       </c>
       <c r="C154" t="n">
-        <v>-85.6758552683</v>
+        <v>-136.082806717</v>
       </c>
       <c r="D154" t="n">
-        <v>-326.098545429</v>
+        <v>-407.221649065</v>
       </c>
       <c r="E154" t="n">
-        <v>-294.514923546</v>
+        <v>-360.215710639</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>160.887505722</v>
+        <v>152.811948986</v>
       </c>
       <c r="C155" t="n">
-        <v>109.680704645</v>
+        <v>135.129977458</v>
       </c>
       <c r="D155" t="n">
-        <v>-74.235193506</v>
+        <v>-26.910827051</v>
       </c>
       <c r="E155" t="n">
-        <v>160.887505722</v>
+        <v>152.811948986</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>286.458200257</v>
+        <v>448.25473055</v>
       </c>
       <c r="C156" t="n">
-        <v>326.923372902</v>
+        <v>514.993253757</v>
       </c>
       <c r="D156" t="n">
-        <v>147.091105749</v>
+        <v>239.761472206</v>
       </c>
       <c r="E156" t="n">
-        <v>286.458200257</v>
+        <v>448.25473055</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>529.710317222</v>
+        <v>793.230270226</v>
       </c>
       <c r="C157" t="n">
-        <v>609.174637001</v>
+        <v>912.73322115</v>
       </c>
       <c r="D157" t="n">
-        <v>268.118199946</v>
+        <v>410.019366783</v>
       </c>
       <c r="E157" t="n">
-        <v>529.710317222</v>
+        <v>793.230270226</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>718.398821681</v>
+        <v>1017.66708295</v>
       </c>
       <c r="C158" t="n">
-        <v>826.672166608</v>
+        <v>1171.08584968</v>
       </c>
       <c r="D158" t="n">
-        <v>384.982193643</v>
+        <v>555.886906876</v>
       </c>
       <c r="E158" t="n">
-        <v>718.398821681</v>
+        <v>1017.66708295</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>799.444184456</v>
+        <v>1060.09502086</v>
       </c>
       <c r="C159" t="n">
-        <v>914.778967061</v>
+        <v>1213.72221932</v>
       </c>
       <c r="D159" t="n">
-        <v>451.393200769</v>
+        <v>604.484972374</v>
       </c>
       <c r="E159" t="n">
-        <v>799.444184456</v>
+        <v>1060.09502086</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>722.638297559</v>
+        <v>871.542011071</v>
       </c>
       <c r="C160" t="n">
-        <v>821.823905124</v>
+        <v>991.8213353260001</v>
       </c>
       <c r="D160" t="n">
-        <v>401.81233809</v>
+        <v>491.714481638</v>
       </c>
       <c r="E160" t="n">
-        <v>722.638297559</v>
+        <v>871.542011071</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>469.140740179</v>
+        <v>469.041881076</v>
       </c>
       <c r="C161" t="n">
-        <v>533.88812001</v>
+        <v>534.2639374509999</v>
       </c>
       <c r="D161" t="n">
-        <v>252.725650155</v>
+        <v>254.018323003</v>
       </c>
       <c r="E161" t="n">
-        <v>469.140740179</v>
+        <v>469.041881076</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>136.422056924</v>
+        <v>25.9217293654</v>
       </c>
       <c r="C162" t="n">
-        <v>155.144248157</v>
+        <v>5.26078732387</v>
       </c>
       <c r="D162" t="n">
-        <v>58.0063432091</v>
+        <v>-21.9687728021</v>
       </c>
       <c r="E162" t="n">
-        <v>136.422056924</v>
+        <v>-25.9217293654</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>162.326100915</v>
+        <v>371.394360699</v>
       </c>
       <c r="C163" t="n">
-        <v>-101.29409896</v>
+        <v>-228.821086822</v>
       </c>
       <c r="D163" t="n">
-        <v>-186.583270628</v>
+        <v>-426.581604872</v>
       </c>
       <c r="E163" t="n">
-        <v>-162.326100915</v>
+        <v>-371.394360699</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>357.743082336</v>
+        <v>598.453342594</v>
       </c>
       <c r="C164" t="n">
-        <v>-177.81452699</v>
+        <v>-304.993013852</v>
       </c>
       <c r="D164" t="n">
-        <v>-411.245343813</v>
+        <v>-688.530836823</v>
       </c>
       <c r="E164" t="n">
-        <v>-357.743082336</v>
+        <v>-598.453342594</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>441.501288147</v>
+        <v>671.964574619</v>
       </c>
       <c r="C165" t="n">
-        <v>-180.788034344</v>
+        <v>-288.978022208</v>
       </c>
       <c r="D165" t="n">
-        <v>-502.107626282</v>
+        <v>-766.801206049</v>
       </c>
       <c r="E165" t="n">
-        <v>-441.501288147</v>
+        <v>-671.964574619</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>400.595560296</v>
+        <v>570.478802856</v>
       </c>
       <c r="C166" t="n">
-        <v>-156.356125256</v>
+        <v>-252.490162732</v>
       </c>
       <c r="D166" t="n">
-        <v>-454.007195669</v>
+        <v>-652.112553683</v>
       </c>
       <c r="E166" t="n">
-        <v>-400.595560296</v>
+        <v>-570.478802856</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>242.254120187</v>
+        <v>324.005963778</v>
       </c>
       <c r="C167" t="n">
-        <v>-109.848459736</v>
+        <v>-178.772783039</v>
       </c>
       <c r="D167" t="n">
-        <v>-277.200570878</v>
+        <v>-373.316180883</v>
       </c>
       <c r="E167" t="n">
-        <v>-242.254120187</v>
+        <v>-324.005963778</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>41.5279773788</v>
+        <v>25.9704435259</v>
       </c>
       <c r="C168" t="n">
-        <v>10.3522195473</v>
+        <v>7.77314539297</v>
       </c>
       <c r="D168" t="n">
-        <v>-34.8892219743</v>
+        <v>-20.5660094175</v>
       </c>
       <c r="E168" t="n">
-        <v>-41.5279773788</v>
+        <v>-25.9704435259</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>250.807957036</v>
+        <v>362.361112902</v>
       </c>
       <c r="C169" t="n">
-        <v>285.033299569</v>
+        <v>413.47470068</v>
       </c>
       <c r="D169" t="n">
-        <v>122.078718374</v>
+        <v>192.210403148</v>
       </c>
       <c r="E169" t="n">
-        <v>250.807957036</v>
+        <v>362.361112902</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>464.106370303</v>
+        <v>655.476478084</v>
       </c>
       <c r="C170" t="n">
-        <v>527.0062373649999</v>
+        <v>746.308579172</v>
       </c>
       <c r="D170" t="n">
-        <v>242.718166922</v>
+        <v>364.314492369</v>
       </c>
       <c r="E170" t="n">
-        <v>464.106370303</v>
+        <v>655.476478084</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>555.480485256</v>
+        <v>784.2184815209999</v>
       </c>
       <c r="C171" t="n">
-        <v>631.3256549819999</v>
+        <v>896.000044463</v>
       </c>
       <c r="D171" t="n">
-        <v>300.588500471</v>
+        <v>442.923625262</v>
       </c>
       <c r="E171" t="n">
-        <v>555.480485256</v>
+        <v>784.2184815209999</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>504.705727089</v>
+        <v>731.312535786</v>
       </c>
       <c r="C172" t="n">
-        <v>575.5746267219999</v>
+        <v>838.939040004</v>
       </c>
       <c r="D172" t="n">
-        <v>276.60930603</v>
+        <v>408.573656943</v>
       </c>
       <c r="E172" t="n">
-        <v>504.705727089</v>
+        <v>731.312535786</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>354.485521254</v>
+        <v>535.532388503</v>
       </c>
       <c r="C173" t="n">
-        <v>405.002545064</v>
+        <v>614.252130356</v>
       </c>
       <c r="D173" t="n">
-        <v>188.212843339</v>
+        <v>293.985875379</v>
       </c>
       <c r="E173" t="n">
-        <v>354.485521254</v>
+        <v>535.532388503</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>170.441738855</v>
+        <v>265.63408565</v>
       </c>
       <c r="C174" t="n">
-        <v>190.783000625</v>
+        <v>300.885251681</v>
       </c>
       <c r="D174" t="n">
-        <v>63.8558524314</v>
+        <v>124.308911153</v>
       </c>
       <c r="E174" t="n">
-        <v>170.441738855</v>
+        <v>265.63408565</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>138.25459345</v>
+        <v>159.544953625</v>
       </c>
       <c r="C175" t="n">
-        <v>30.7572975596</v>
+        <v>32.3224714812</v>
       </c>
       <c r="D175" t="n">
-        <v>-119.442411591</v>
+        <v>-139.870970086</v>
       </c>
       <c r="E175" t="n">
-        <v>-138.25459345</v>
+        <v>-159.544953625</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>289.767851968</v>
+        <v>395.6754403</v>
       </c>
       <c r="C176" t="n">
-        <v>-73.96503734949999</v>
+        <v>-151.758893529</v>
       </c>
       <c r="D176" t="n">
-        <v>-317.582701989</v>
+        <v>-447.850598193</v>
       </c>
       <c r="E176" t="n">
-        <v>-289.767851968</v>
+        <v>-395.6754403</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>402.119886793</v>
+        <v>591.191836754</v>
       </c>
       <c r="C177" t="n">
-        <v>-157.907374428</v>
+        <v>-281.109866534</v>
       </c>
       <c r="D177" t="n">
-        <v>-455.939564459</v>
+        <v>-678.376723547</v>
       </c>
       <c r="E177" t="n">
-        <v>-402.119886793</v>
+        <v>-591.191836754</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>432.663655605</v>
+        <v>665.872209225</v>
       </c>
       <c r="C178" t="n">
-        <v>-202.795918481</v>
+        <v>-334.689294518</v>
       </c>
       <c r="D178" t="n">
-        <v>-496.103111487</v>
+        <v>-765.766220311</v>
       </c>
       <c r="E178" t="n">
-        <v>-432.663655605</v>
+        <v>-665.872209225</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>354.842948769</v>
+        <v>580.380191146</v>
       </c>
       <c r="C179" t="n">
-        <v>-183.754535947</v>
+        <v>-302.423311413</v>
       </c>
       <c r="D179" t="n">
-        <v>-408.443270607</v>
+        <v>-668.122477623</v>
       </c>
       <c r="E179" t="n">
-        <v>-354.842948769</v>
+        <v>-580.380191146</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>174.405129414</v>
+        <v>342.605655562</v>
       </c>
       <c r="C180" t="n">
-        <v>-84.25892086570001</v>
+        <v>-179.79263754</v>
       </c>
       <c r="D180" t="n">
-        <v>-200.173970221</v>
+        <v>-394.48336327</v>
       </c>
       <c r="E180" t="n">
-        <v>-174.405129414</v>
+        <v>-342.605655562</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>121.798210519</v>
+        <v>66.1222132921</v>
       </c>
       <c r="C181" t="n">
-        <v>130.45406322</v>
+        <v>43.2365152742</v>
       </c>
       <c r="D181" t="n">
-        <v>24.6217933682</v>
+        <v>-32.8577591371</v>
       </c>
       <c r="E181" t="n">
-        <v>121.798210519</v>
+        <v>66.1222132921</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>362.248612421</v>
+        <v>384.904847639</v>
       </c>
       <c r="C182" t="n">
-        <v>411.548999084</v>
+        <v>439.606698912</v>
       </c>
       <c r="D182" t="n">
-        <v>185.469257196</v>
+        <v>206.104564637</v>
       </c>
       <c r="E182" t="n">
-        <v>362.248612421</v>
+        <v>384.904847639</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>538.0167357190001</v>
+        <v>683.597767267</v>
       </c>
       <c r="C183" t="n">
-        <v>613.298519759</v>
+        <v>782.949467176</v>
       </c>
       <c r="D183" t="n">
-        <v>295.981445263</v>
+        <v>382.466175443</v>
       </c>
       <c r="E183" t="n">
-        <v>538.0167357190001</v>
+        <v>683.597767267</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>598.014658002</v>
+        <v>837.630321922</v>
       </c>
       <c r="C184" t="n">
-        <v>684.126923807</v>
+        <v>960.034157445</v>
       </c>
       <c r="D184" t="n">
-        <v>332.610149877</v>
+        <v>472.283055264</v>
       </c>
       <c r="E184" t="n">
-        <v>598.014658002</v>
+        <v>837.630321922</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>545.187884454</v>
+        <v>815.797500529</v>
       </c>
       <c r="C185" t="n">
-        <v>625.053791419</v>
+        <v>935.800764213</v>
       </c>
       <c r="D185" t="n">
-        <v>300.080100703</v>
+        <v>457.959531056</v>
       </c>
       <c r="E185" t="n">
-        <v>545.187884454</v>
+        <v>815.797500529</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>409.548359722</v>
+        <v>638.953801284</v>
       </c>
       <c r="C186" t="n">
-        <v>469.05772842</v>
+        <v>733.2950174379999</v>
       </c>
       <c r="D186" t="n">
-        <v>220.841212522</v>
+        <v>353.720181053</v>
       </c>
       <c r="E186" t="n">
-        <v>409.548359722</v>
+        <v>638.953801284</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>234.924389149</v>
+        <v>362.197754503</v>
       </c>
       <c r="C187" t="n">
-        <v>265.806854615</v>
+        <v>413.717711029</v>
       </c>
       <c r="D187" t="n">
-        <v>106.33224106</v>
+        <v>192.704154978</v>
       </c>
       <c r="E187" t="n">
-        <v>234.924389149</v>
+        <v>362.197754503</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>129.588482267</v>
+        <v>117.339281282</v>
       </c>
       <c r="C188" t="n">
-        <v>84.1915575973</v>
+        <v>93.4875986854</v>
       </c>
       <c r="D188" t="n">
-        <v>-64.6969011309</v>
+        <v>-36.8784763758</v>
       </c>
       <c r="E188" t="n">
-        <v>129.588482267</v>
+        <v>117.339281282</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>239.706250308</v>
+        <v>317.258936323</v>
       </c>
       <c r="C189" t="n">
-        <v>-53.2347184804</v>
+        <v>-106.298928786</v>
       </c>
       <c r="D189" t="n">
-        <v>-259.934197498</v>
+        <v>-355.287841121</v>
       </c>
       <c r="E189" t="n">
-        <v>-239.706250308</v>
+        <v>-317.258936323</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>338.065915982</v>
+        <v>514.2306728999999</v>
       </c>
       <c r="C190" t="n">
-        <v>-157.359137371</v>
+        <v>-250.618296319</v>
       </c>
       <c r="D190" t="n">
-        <v>-387.469956859</v>
+        <v>-590.696745135</v>
       </c>
       <c r="E190" t="n">
-        <v>-338.065915982</v>
+        <v>-514.2306728999999</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>354.081792511</v>
+        <v>582.257592866</v>
       </c>
       <c r="C191" t="n">
-        <v>-188.91103481</v>
+        <v>-313.259513249</v>
       </c>
       <c r="D191" t="n">
-        <v>-407.822507857</v>
+        <v>-670.6512021779999</v>
       </c>
       <c r="E191" t="n">
-        <v>-354.081792511</v>
+        <v>-582.257592866</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>286.778913323</v>
+        <v>512.853901918</v>
       </c>
       <c r="C192" t="n">
-        <v>-126.44519716</v>
+        <v>-264.342274025</v>
       </c>
       <c r="D192" t="n">
-        <v>-327.643788858</v>
+        <v>-590.236165444</v>
       </c>
       <c r="E192" t="n">
-        <v>-286.778913323</v>
+        <v>-512.853901918</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>194.691461174</v>
+        <v>343.560882797</v>
       </c>
       <c r="C193" t="n">
-        <v>3.89072609068</v>
+        <v>-123.261232206</v>
       </c>
       <c r="D193" t="n">
-        <v>-190.823009877</v>
+        <v>-386.847541724</v>
       </c>
       <c r="E193" t="n">
-        <v>-194.691461174</v>
+        <v>-343.560882797</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>154.859964328</v>
+        <v>146.104497636</v>
       </c>
       <c r="C194" t="n">
-        <v>136.351359837</v>
+        <v>52.2889079567</v>
       </c>
       <c r="D194" t="n">
-        <v>-28.2253070487</v>
+        <v>-112.371448018</v>
       </c>
       <c r="E194" t="n">
-        <v>154.859964328</v>
+        <v>-146.104497636</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>235.390713576</v>
+        <v>250.265202156</v>
       </c>
       <c r="C195" t="n">
-        <v>267.85967006</v>
+        <v>285.100483252</v>
       </c>
       <c r="D195" t="n">
-        <v>114.737522688</v>
+        <v>124.415266046</v>
       </c>
       <c r="E195" t="n">
-        <v>235.390713576</v>
+        <v>250.265202156</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>381.024060271</v>
+        <v>506.737374535</v>
       </c>
       <c r="C196" t="n">
-        <v>438.071689726</v>
+        <v>582.924897401</v>
       </c>
       <c r="D196" t="n">
-        <v>196.334771224</v>
+        <v>265.871772462</v>
       </c>
       <c r="E196" t="n">
-        <v>381.024060271</v>
+        <v>506.737374535</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>493.755790622</v>
+        <v>696.018167532</v>
       </c>
       <c r="C197" t="n">
-        <v>566.68073243</v>
+        <v>799.855888931</v>
       </c>
       <c r="D197" t="n">
-        <v>268.700906366</v>
+        <v>383.289396814</v>
       </c>
       <c r="E197" t="n">
-        <v>493.755790622</v>
+        <v>696.018167532</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>534.538293462</v>
+        <v>757.806946119</v>
       </c>
       <c r="C198" t="n">
-        <v>607.543281818</v>
+        <v>864.188518326</v>
       </c>
       <c r="D198" t="n">
-        <v>288.255793175</v>
+        <v>426.70928098</v>
       </c>
       <c r="E198" t="n">
-        <v>534.538293462</v>
+        <v>757.806946119</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>454.528628824</v>
+        <v>642.151466564</v>
       </c>
       <c r="C199" t="n">
-        <v>514.116545048</v>
+        <v>729.104148536</v>
       </c>
       <c r="D199" t="n">
-        <v>217.601014953</v>
+        <v>346.52470746</v>
       </c>
       <c r="E199" t="n">
-        <v>454.528628824</v>
+        <v>642.151466564</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>244.787232498</v>
+        <v>355.816768822</v>
       </c>
       <c r="C200" t="n">
-        <v>274.154660234</v>
+        <v>403.847608931</v>
       </c>
       <c r="D200" t="n">
-        <v>96.5492943611</v>
+        <v>178.680280241</v>
       </c>
       <c r="E200" t="n">
-        <v>244.787232498</v>
+        <v>355.816768822</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>44.925400166</v>
+        <v>35.4801612883</v>
       </c>
       <c r="C201" t="n">
-        <v>3.39667982286</v>
+        <v>19.7745744922</v>
       </c>
       <c r="D201" t="n">
-        <v>-42.4270174528</v>
+        <v>-20.9712346705</v>
       </c>
       <c r="E201" t="n">
-        <v>-44.925400166</v>
+        <v>-35.4801612883</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>193.862112003</v>
+        <v>271.257638848</v>
       </c>
       <c r="C202" t="n">
-        <v>-112.087462554</v>
+        <v>-157.575725152</v>
       </c>
       <c r="D202" t="n">
-        <v>-223.365464043</v>
+        <v>-312.455877055</v>
       </c>
       <c r="E202" t="n">
-        <v>-193.862112003</v>
+        <v>-271.257638848</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>296.253149776</v>
+        <v>453.06039139</v>
       </c>
       <c r="C203" t="n">
-        <v>-118.667537892</v>
+        <v>-208.141639707</v>
       </c>
       <c r="D203" t="n">
-        <v>-336.301499972</v>
+        <v>-518.955898059</v>
       </c>
       <c r="E203" t="n">
-        <v>-296.253149776</v>
+        <v>-453.06039139</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>325.668031296</v>
+        <v>517.877317032</v>
       </c>
       <c r="C204" t="n">
-        <v>-81.315260537</v>
+        <v>-202.628191536</v>
       </c>
       <c r="D204" t="n">
-        <v>-356.382880094</v>
+        <v>-587.1179596859999</v>
       </c>
       <c r="E204" t="n">
-        <v>-325.668031296</v>
+        <v>-517.877317032</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>267.616234887</v>
+        <v>451.481962464</v>
       </c>
       <c r="C205" t="n">
-        <v>-55.0744504487</v>
+        <v>-185.342075516</v>
       </c>
       <c r="D205" t="n">
-        <v>-288.692911205</v>
+        <v>-513.553085122</v>
       </c>
       <c r="E205" t="n">
-        <v>-267.616234887</v>
+        <v>-451.481962464</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>145.856980877</v>
+        <v>287.502022434</v>
       </c>
       <c r="C206" t="n">
-        <v>-29.6568602647</v>
+        <v>-134.931601624</v>
       </c>
       <c r="D206" t="n">
-        <v>-157.005102672</v>
+        <v>-329.635321614</v>
       </c>
       <c r="E206" t="n">
-        <v>-145.856980877</v>
+        <v>-287.502022434</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>61.6192976092</v>
+        <v>77.04677062</v>
       </c>
       <c r="C207" t="n">
-        <v>56.8288538722</v>
+        <v>-10.3971201954</v>
       </c>
       <c r="D207" t="n">
-        <v>-8.197245753580001</v>
+        <v>-80.678237655</v>
       </c>
       <c r="E207" t="n">
-        <v>61.6192976092</v>
+        <v>-77.04677062</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>210.045537401</v>
+        <v>223.625793635</v>
       </c>
       <c r="C208" t="n">
-        <v>238.139283752</v>
+        <v>253.257476565</v>
       </c>
       <c r="D208" t="n">
-        <v>96.2210286183</v>
+        <v>101.894788145</v>
       </c>
       <c r="E208" t="n">
-        <v>210.045537401</v>
+        <v>223.625793635</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>355.940832098</v>
+        <v>445.411572338</v>
       </c>
       <c r="C209" t="n">
-        <v>403.174875573</v>
+        <v>506.097515356</v>
       </c>
       <c r="D209" t="n">
-        <v>171.93342134</v>
+        <v>234.572151056</v>
       </c>
       <c r="E209" t="n">
-        <v>355.940832098</v>
+        <v>445.411572338</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>412.605291983</v>
+        <v>557.812529645</v>
       </c>
       <c r="C210" t="n">
-        <v>467.133741214</v>
+        <v>634.4543206229999</v>
       </c>
       <c r="D210" t="n">
-        <v>199.83276861</v>
+        <v>304.216265711</v>
       </c>
       <c r="E210" t="n">
-        <v>412.605291983</v>
+        <v>557.812529645</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>354.697289658</v>
+        <v>534.9423623930001</v>
       </c>
       <c r="C211" t="n">
-        <v>402.563147362</v>
+        <v>610.871166693</v>
       </c>
       <c r="D211" t="n">
-        <v>178.020968209</v>
+        <v>295.242481343</v>
       </c>
       <c r="E211" t="n">
-        <v>354.697289658</v>
+        <v>534.9423623930001</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>233.020047285</v>
+        <v>413.012851564</v>
       </c>
       <c r="C212" t="n">
-        <v>265.441818621</v>
+        <v>473.24433742</v>
       </c>
       <c r="D212" t="n">
-        <v>114.41600644</v>
+        <v>222.682033</v>
       </c>
       <c r="E212" t="n">
-        <v>233.020047285</v>
+        <v>413.012851564</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>114.517535719</v>
+        <v>246.158286106</v>
       </c>
       <c r="C213" t="n">
-        <v>127.391964486</v>
+        <v>280.914749141</v>
       </c>
       <c r="D213" t="n">
-        <v>36.9945569935</v>
+        <v>123.268110954</v>
       </c>
       <c r="E213" t="n">
-        <v>114.517535719</v>
+        <v>246.158286106</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>93.3685618908</v>
+        <v>110.279319393</v>
       </c>
       <c r="C214" t="n">
-        <v>51.3965759806</v>
+        <v>108.624674692</v>
       </c>
       <c r="D214" t="n">
-        <v>-56.3639416304</v>
+        <v>0.154932767097</v>
       </c>
       <c r="E214" t="n">
-        <v>-93.3685618908</v>
+        <v>110.279319393</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>159.074652461</v>
+        <v>158.584120243</v>
       </c>
       <c r="C215" t="n">
-        <v>21.9746144151</v>
+        <v>4.30287409114</v>
       </c>
       <c r="D215" t="n">
-        <v>-145.670496666</v>
+        <v>-154.815191652</v>
       </c>
       <c r="E215" t="n">
-        <v>-159.074652461</v>
+        <v>-158.584120243</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>188.97124766</v>
+        <v>253.47268742</v>
       </c>
       <c r="C216" t="n">
-        <v>-9.70700268577</v>
+        <v>-68.82374084840001</v>
       </c>
       <c r="D216" t="n">
-        <v>-191.714209261</v>
+        <v>-279.076802944</v>
       </c>
       <c r="E216" t="n">
-        <v>-188.97124766</v>
+        <v>-253.47268742</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>173.954497022</v>
+        <v>295.427000401</v>
       </c>
       <c r="C217" t="n">
-        <v>-36.9216663792</v>
+        <v>-115.318934574</v>
       </c>
       <c r="D217" t="n">
-        <v>-187.902127422</v>
+        <v>-334.733684183</v>
       </c>
       <c r="E217" t="n">
-        <v>-173.954497022</v>
+        <v>-295.427000401</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>129.881957259</v>
+        <v>271.2045228</v>
       </c>
       <c r="C218" t="n">
-        <v>-26.96927307</v>
+        <v>-115.202432091</v>
       </c>
       <c r="D218" t="n">
-        <v>-139.955365992</v>
+        <v>-309.095341726</v>
       </c>
       <c r="E218" t="n">
-        <v>-129.881957259</v>
+        <v>-271.2045228</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>91.894628479</v>
+        <v>187.483209972</v>
       </c>
       <c r="C219" t="n">
-        <v>38.9742338911</v>
+        <v>-58.0765341704</v>
       </c>
       <c r="D219" t="n">
-        <v>-65.8470039573</v>
+        <v>-208.460396076</v>
       </c>
       <c r="E219" t="n">
-        <v>-91.894628479</v>
+        <v>-187.483209972</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>145.03585638</v>
+        <v>109.060953967</v>
       </c>
       <c r="C220" t="n">
-        <v>145.009150413</v>
+        <v>53.3451543021</v>
       </c>
       <c r="D220" t="n">
-        <v>5.97824432871</v>
+        <v>-72.0649062553</v>
       </c>
       <c r="E220" t="n">
-        <v>145.03585638</v>
+        <v>-109.060953967</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>214.989152508</v>
+        <v>184.593862592</v>
       </c>
       <c r="C221" t="n">
-        <v>236.041444929</v>
+        <v>199.407904963</v>
       </c>
       <c r="D221" t="n">
-        <v>65.9009433474</v>
+        <v>45.4869415315</v>
       </c>
       <c r="E221" t="n">
-        <v>214.989152508</v>
+        <v>184.593862592</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>248.154397195</v>
+        <v>286.135182705</v>
       </c>
       <c r="C222" t="n">
-        <v>280.147031394</v>
+        <v>324.288775006</v>
       </c>
       <c r="D222" t="n">
-        <v>109.28283267</v>
+        <v>136.336631546</v>
       </c>
       <c r="E222" t="n">
-        <v>248.154397195</v>
+        <v>286.135182705</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>256.767968359</v>
+        <v>358.489315953</v>
       </c>
       <c r="C223" t="n">
-        <v>292.563647438</v>
+        <v>409.662741763</v>
       </c>
       <c r="D223" t="n">
-        <v>128.518324063</v>
+        <v>190.604756064</v>
       </c>
       <c r="E223" t="n">
-        <v>256.767968359</v>
+        <v>358.489315953</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>254.779661864</v>
+        <v>390.364746102</v>
       </c>
       <c r="C224" t="n">
-        <v>290.49664192</v>
+        <v>446.875334101</v>
       </c>
       <c r="D224" t="n">
-        <v>127.913396219</v>
+        <v>209.65433051</v>
       </c>
       <c r="E224" t="n">
-        <v>254.779661864</v>
+        <v>390.364746102</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>242.712552771</v>
+        <v>371.74049428</v>
       </c>
       <c r="C225" t="n">
-        <v>274.323827271</v>
+        <v>423.253222066</v>
       </c>
       <c r="D225" t="n">
-        <v>108.508165335</v>
+        <v>195.68041841</v>
       </c>
       <c r="E225" t="n">
-        <v>242.712552771</v>
+        <v>371.74049428</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>212.299226509</v>
+        <v>300.374853187</v>
       </c>
       <c r="C226" t="n">
-        <v>232.722004429</v>
+        <v>339.081474244</v>
       </c>
       <c r="D226" t="n">
-        <v>63.7791924521</v>
+        <v>134.770597469</v>
       </c>
       <c r="E226" t="n">
-        <v>212.299226509</v>
+        <v>300.374853187</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>149.824411904</v>
+        <v>182.278423357</v>
       </c>
       <c r="C227" t="n">
-        <v>151.201292498</v>
+        <v>196.292240251</v>
       </c>
       <c r="D227" t="n">
-        <v>9.36243713745</v>
+        <v>43.0563107415</v>
       </c>
       <c r="E227" t="n">
-        <v>149.824411904</v>
+        <v>182.278423357</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>83.28975927880001</v>
+        <v>83.8042729804</v>
       </c>
       <c r="C228" t="n">
-        <v>57.3830859097</v>
+        <v>40.2717962719</v>
       </c>
       <c r="D228" t="n">
-        <v>-37.9819681201</v>
+        <v>-56.0128289878</v>
       </c>
       <c r="E228" t="n">
-        <v>83.28975927880001</v>
+        <v>-83.8042729804</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>72.04487597479999</v>
+        <v>133.400815187</v>
       </c>
       <c r="C229" t="n">
-        <v>5.46564323643</v>
+        <v>-50.0023851329</v>
       </c>
       <c r="D229" t="n">
-        <v>-68.3252242401</v>
+        <v>-150.436530849</v>
       </c>
       <c r="E229" t="n">
-        <v>-72.04487597479999</v>
+        <v>-133.400815187</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>86.4021705353</v>
+        <v>176.699409519</v>
       </c>
       <c r="C230" t="n">
-        <v>19.7253472579</v>
+        <v>-61.9145562438</v>
       </c>
       <c r="D230" t="n">
-        <v>-74.2507190139</v>
+        <v>-198.382030168</v>
       </c>
       <c r="E230" t="n">
-        <v>-86.4021705353</v>
+        <v>-176.699409519</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>116.560365669</v>
+        <v>178.927625981</v>
       </c>
       <c r="C231" t="n">
-        <v>76.71182091209999</v>
+        <v>-20.2781985097</v>
       </c>
       <c r="D231" t="n">
-        <v>-57.126615696</v>
+        <v>-186.391950995</v>
       </c>
       <c r="E231" t="n">
-        <v>116.560365669</v>
+        <v>-178.927625981</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>143.357290424</v>
+        <v>146.052284506</v>
       </c>
       <c r="C232" t="n">
-        <v>129.325828239</v>
+        <v>36.265549124</v>
       </c>
       <c r="D232" t="n">
-        <v>-21.0250669919</v>
+        <v>-123.714322079</v>
       </c>
       <c r="E232" t="n">
-        <v>143.357290424</v>
+        <v>-146.052284506</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>148.693222019</v>
+        <v>109.27352038</v>
       </c>
       <c r="C233" t="n">
-        <v>156.426585113</v>
+        <v>89.5649818303</v>
       </c>
       <c r="D233" t="n">
-        <v>24.1189654169</v>
+        <v>-30.8269071125</v>
       </c>
       <c r="E233" t="n">
-        <v>148.693222019</v>
+        <v>109.27352038</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>160.443542744</v>
+        <v>148.849788628</v>
       </c>
       <c r="C234" t="n">
-        <v>179.849987316</v>
+        <v>165.828800312</v>
       </c>
       <c r="D234" t="n">
-        <v>60.6192862966</v>
+        <v>51.5020007964</v>
       </c>
       <c r="E234" t="n">
-        <v>160.443542744</v>
+        <v>148.849788628</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>190.6605318</v>
+        <v>231.723083618</v>
       </c>
       <c r="C235" t="n">
-        <v>215.711027183</v>
+        <v>263.11554486</v>
       </c>
       <c r="D235" t="n">
-        <v>83.5238549872</v>
+        <v>110.075143481</v>
       </c>
       <c r="E235" t="n">
-        <v>190.6605318</v>
+        <v>231.723083618</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>222.51389616</v>
+        <v>300.79450397</v>
       </c>
       <c r="C236" t="n">
-        <v>250.497810664</v>
+        <v>341.346996413</v>
       </c>
       <c r="D236" t="n">
-        <v>92.9985520555</v>
+        <v>147.513412217</v>
       </c>
       <c r="E236" t="n">
-        <v>222.51389616</v>
+        <v>300.79450397</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>231.088332264</v>
+        <v>321.316315908</v>
       </c>
       <c r="C237" t="n">
-        <v>256.965912101</v>
+        <v>363.989299975</v>
       </c>
       <c r="D237" t="n">
-        <v>82.9828404652</v>
+        <v>153.891188081</v>
       </c>
       <c r="E237" t="n">
-        <v>231.088332264</v>
+        <v>321.316315908</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>196.227766524</v>
+        <v>278.936754417</v>
       </c>
       <c r="C238" t="n">
-        <v>215.009698622</v>
+        <v>315.637973912</v>
       </c>
       <c r="D238" t="n">
-        <v>58.0205266617</v>
+        <v>129.113007527</v>
       </c>
       <c r="E238" t="n">
-        <v>196.227766524</v>
+        <v>278.936754417</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>133.331930183</v>
+        <v>195.346051628</v>
       </c>
       <c r="C239" t="n">
-        <v>142.218303639</v>
+        <v>220.234507069</v>
       </c>
       <c r="D239" t="n">
-        <v>25.9900663484</v>
+        <v>81.90366160630001</v>
       </c>
       <c r="E239" t="n">
-        <v>133.331930183</v>
+        <v>195.346051628</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>88.1648100165</v>
+        <v>116.175940091</v>
       </c>
       <c r="C240" t="n">
-        <v>82.17270442349999</v>
+        <v>123.687887637</v>
       </c>
       <c r="D240" t="n">
-        <v>-9.30514728396</v>
+        <v>21.2740859783</v>
       </c>
       <c r="E240" t="n">
-        <v>88.1648100165</v>
+        <v>116.175940091</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>91.60793036859999</v>
+        <v>97.32376772809999</v>
       </c>
       <c r="C241" t="n">
-        <v>62.1817269298</v>
+        <v>63.3284592374</v>
       </c>
       <c r="D241" t="n">
-        <v>-42.8208915018</v>
+        <v>-48.5836914236</v>
       </c>
       <c r="E241" t="n">
-        <v>91.60793036859999</v>
+        <v>97.32376772809999</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>113.549596184</v>
+        <v>127.27131594</v>
       </c>
       <c r="C242" t="n">
-        <v>68.7632118838</v>
+        <v>32.8783415445</v>
       </c>
       <c r="D242" t="n">
-        <v>-62.184928079</v>
+        <v>-106.940800887</v>
       </c>
       <c r="E242" t="n">
-        <v>113.549596184</v>
+        <v>-127.27131594</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>118.438750025</v>
+        <v>138.702024519</v>
       </c>
       <c r="C243" t="n">
-        <v>76.58956667059999</v>
+        <v>12.637770988</v>
       </c>
       <c r="D243" t="n">
-        <v>-59.5712397472</v>
+        <v>-130.683997195</v>
       </c>
       <c r="E243" t="n">
-        <v>118.438750025</v>
+        <v>-138.702024519</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>104.272116874</v>
+        <v>118.594707436</v>
       </c>
       <c r="C244" t="n">
-        <v>80.43942745290001</v>
+        <v>6.68197789064</v>
       </c>
       <c r="D244" t="n">
-        <v>-36.5428084479</v>
+        <v>-113.919921107</v>
       </c>
       <c r="E244" t="n">
-        <v>104.272116874</v>
+        <v>-118.594707436</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>100.993090173</v>
+        <v>86.36640534030001</v>
       </c>
       <c r="C245" t="n">
-        <v>97.7856684038</v>
+        <v>32.8892007339</v>
       </c>
       <c r="D245" t="n">
-        <v>-3.49062562706</v>
+        <v>-64.8702632342</v>
       </c>
       <c r="E245" t="n">
-        <v>100.993090173</v>
+        <v>-86.36640534030001</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>131.595460118</v>
+        <v>107.220740546</v>
       </c>
       <c r="C246" t="n">
-        <v>141.108331618</v>
+        <v>102.273616834</v>
       </c>
       <c r="D246" t="n">
-        <v>27.5413737879</v>
+        <v>-6.43666018973</v>
       </c>
       <c r="E246" t="n">
-        <v>131.595460118</v>
+        <v>107.220740546</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>176.338213764</v>
+        <v>174.540647923</v>
       </c>
       <c r="C247" t="n">
-        <v>193.577114475</v>
+        <v>190.076377757</v>
       </c>
       <c r="D247" t="n">
-        <v>52.4934028565</v>
+        <v>47.1042724987</v>
       </c>
       <c r="E247" t="n">
-        <v>176.338213764</v>
+        <v>174.540647923</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>204.490204018</v>
+        <v>228.808138427</v>
       </c>
       <c r="C248" t="n">
-        <v>226.382151709</v>
+        <v>256.268860246</v>
       </c>
       <c r="D248" t="n">
-        <v>68.6599807146</v>
+        <v>89.6574388091</v>
       </c>
       <c r="E248" t="n">
-        <v>204.490204018</v>
+        <v>228.808138427</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>201.828775226</v>
+        <v>249.75086625</v>
       </c>
       <c r="C249" t="n">
-        <v>224.900918714</v>
+        <v>282.419101579</v>
       </c>
       <c r="D249" t="n">
-        <v>73.15867296330001</v>
+        <v>112.911747485</v>
       </c>
       <c r="E249" t="n">
-        <v>201.828775226</v>
+        <v>249.75086625</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>178.110376726</v>
+        <v>241.323801982</v>
       </c>
       <c r="C250" t="n">
-        <v>198.843128683</v>
+        <v>273.608344458</v>
       </c>
       <c r="D250" t="n">
-        <v>64.978873015</v>
+        <v>113.068697029</v>
       </c>
       <c r="E250" t="n">
-        <v>178.110376726</v>
+        <v>241.323801982</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>152.257821111</v>
+        <v>214.14255043</v>
       </c>
       <c r="C251" t="n">
-        <v>167.842555482</v>
+        <v>241.881451181</v>
       </c>
       <c r="D251" t="n">
-        <v>46.5511401139</v>
+        <v>93.3535849309</v>
       </c>
       <c r="E251" t="n">
-        <v>152.257821111</v>
+        <v>214.14255043</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>136.582925992</v>
+        <v>178.339975494</v>
       </c>
       <c r="C252" t="n">
-        <v>143.444679345</v>
+        <v>196.878082</v>
       </c>
       <c r="D252" t="n">
-        <v>21.0735204916</v>
+        <v>56.8568013045</v>
       </c>
       <c r="E252" t="n">
-        <v>136.582925992</v>
+        <v>178.339975494</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>198.086224612</v>
+        <v>198.258122241</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>72.7185127788</v>
+        <v>70.0014038411</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>196.893130499</v>
+        <v>196.692824914</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>108.270239522</v>
+        <v>122.973959175</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>180.109904701</v>
+        <v>195.532127757</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>147.948788779</v>
+        <v>127.809442384</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>185.732107616</v>
+        <v>210.221291882</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-122.118810866</v>
+        <v>-135.728147002</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>280.083464393</v>
+        <v>-115.29481917</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>74.43417312459999</v>
+        <v>-118.349539455</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>173.868462079</v>
+        <v>306.943479746</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>112.840064206</v>
+        <v>70.82915375979999</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>287.270527145</v>
+        <v>177.016776018</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-116.503061346</v>
+        <v>152.998850414</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>296.91256343</v>
+        <v>340.961949465</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-237.830494305</v>
+        <v>-204.674186879</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>174.506158194</v>
+        <v>432.147380841</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>161.549418695</v>
+        <v>-377.578283626</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>295.559143598</v>
+        <v>286.534262758</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-195.927206152</v>
+        <v>-166.537828223</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>305.080081101</v>
+        <v>258.302982334</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>101.942545899</v>
+        <v>103.509629849</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>170.379516633</v>
+        <v>185.860617385</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-83.3489038605</v>
+        <v>-157.104906374</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>249.166847631</v>
+        <v>250.253671995</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>112.787516338</v>
+        <v>207.308456533</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>268.006321871</v>
+        <v>290.048404896</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>131.162269202</v>
+        <v>-96.29132833520001</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>171.385644769</v>
+        <v>-64.6616764882</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>109.962280536</v>
+        <v>-75.0759689004</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>114.842283636</v>
+        <v>186.451308533</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>105.99248243</v>
+        <v>119.101360727</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>153.283961965</v>
+        <v>244.725595284</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>124.100064431</v>
+        <v>-146.178234842</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>169.215129991</v>
+        <v>-79.84705200969999</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>37.5050705108</v>
+        <v>-82.76719509</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>207.50760713</v>
+        <v>212.917530765</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>95.7751071462</v>
+        <v>139.484496227</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>206.251595044</v>
+        <v>193.518770489</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>124.472402884</v>
+        <v>110.964195493</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>269.740595069</v>
+        <v>227.51164448</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-76.58504321869999</v>
+        <v>-72.9740482429</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>163.916973062</v>
+        <v>148.951971813</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>89.9447867912</v>
+        <v>147.757700379</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>320.484526269</v>
+        <v>320.414989328</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-280.769649838</v>
+        <v>-383.890414954</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>448.451339055</v>
+        <v>662.590041218</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-472.724318421</v>
+        <v>-698.658178931</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>799.444184456</v>
+        <v>1060.09502086</v>
       </c>
     </row>
     <row r="52">
@@ -5169,7 +5169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-441.501288147</v>
+        <v>-671.964574619</v>
       </c>
     </row>
     <row r="53">
@@ -5177,7 +5177,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>555.480485256</v>
+        <v>784.2184815209999</v>
       </c>
     </row>
     <row r="54">
@@ -5185,7 +5185,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-432.663655605</v>
+        <v>-665.872209225</v>
       </c>
     </row>
     <row r="55">
@@ -5193,7 +5193,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>598.014658002</v>
+        <v>837.630321922</v>
       </c>
     </row>
     <row r="56">
@@ -5201,7 +5201,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-354.081792511</v>
+        <v>-582.257592866</v>
       </c>
     </row>
     <row r="57">
@@ -5209,7 +5209,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>534.538293462</v>
+        <v>757.806946119</v>
       </c>
     </row>
     <row r="58">
@@ -5217,7 +5217,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-325.668031296</v>
+        <v>-517.877317032</v>
       </c>
     </row>
     <row r="59">
@@ -5225,7 +5225,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>412.605291983</v>
+        <v>557.812529645</v>
       </c>
     </row>
     <row r="60">
@@ -5233,7 +5233,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-188.97124766</v>
+        <v>-295.427000401</v>
       </c>
     </row>
     <row r="61">
@@ -5241,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>256.767968359</v>
+        <v>390.364746102</v>
       </c>
     </row>
     <row r="62">
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-86.4021705353</v>
+        <v>-178.927625981</v>
       </c>
     </row>
     <row r="63">
@@ -5257,7 +5257,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>231.088332264</v>
+        <v>321.316315908</v>
       </c>
     </row>
     <row r="64">
@@ -5265,7 +5265,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>88.1648100165</v>
+        <v>-138.702024519</v>
       </c>
     </row>
     <row r="65">
@@ -5273,7 +5273,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>118.438750025</v>
+        <v>249.75086625</v>
       </c>
     </row>
     <row r="66">
@@ -5281,23 +5281,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>100.993090173</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>204.490204018</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>136.582925992</v>
+        <v>178.339975494</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5322,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.88000310000001</v>
+        <v>1.194271434000001</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5349,10 +5333,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.95673949899998</v>
+        <v>2.920143080300008</v>
       </c>
       <c r="B3" t="n">
-        <v>99.043112306</v>
+        <v>99.1290611205</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5360,10 +5344,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.44565985200001</v>
+        <v>3.054720285000002</v>
       </c>
       <c r="B4" t="n">
-        <v>90.26824579693334</v>
+        <v>89.41984202736667</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5371,10 +5355,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.183897534</v>
+        <v>10.4142924122</v>
       </c>
       <c r="B5" t="n">
-        <v>116.92446697245</v>
+        <v>116.238087749025</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5382,10 +5366,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.16111592199999</v>
+        <v>24.017925604</v>
       </c>
       <c r="B6" t="n">
-        <v>115.19362148236</v>
+        <v>117.58526203422</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5393,10 +5377,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40.22337556700001</v>
+        <v>42.94521546199999</v>
       </c>
       <c r="B7" t="n">
-        <v>126.0130020188</v>
+        <v>130.57640632135</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5404,10 +5388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61.02839787300002</v>
+        <v>54.034274262</v>
       </c>
       <c r="B8" t="n">
-        <v>129.1466858416857</v>
+        <v>130.1811257588714</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5415,10 +5399,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63.222647561</v>
+        <v>67.349947806</v>
       </c>
       <c r="B9" t="n">
-        <v>136.219863563475</v>
+        <v>140.1861465242625</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5426,10 +5410,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68.43697073400001</v>
+        <v>67.72268537300002</v>
       </c>
       <c r="B10" t="n">
-        <v>107.5155664046444</v>
+        <v>109.5290027991222</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5437,10 +5421,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73.97218627080001</v>
+        <v>73.71886573899999</v>
       </c>
       <c r="B11" t="n">
-        <v>124.77235620348</v>
+        <v>87.04662060220998</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -5448,10 +5432,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>77.46186809400001</v>
+        <v>82.35098753600001</v>
       </c>
       <c r="B12" t="n">
-        <v>120.1961577417636</v>
+        <v>68.37424241519089</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5459,10 +5443,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81.77919215999999</v>
+        <v>101.953335272</v>
       </c>
       <c r="B13" t="n">
-        <v>124.6688497698667</v>
+        <v>88.25501219275831</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5470,21 +5454,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111.7324999838</v>
+        <v>128.2567183999</v>
       </c>
       <c r="B14" t="n">
-        <v>123.7589431880308</v>
+        <v>86.9145615440692</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>116.3253940015</v>
+        <v>140.2198880409</v>
       </c>
       <c r="B15" t="n">
-        <v>135.4383420421</v>
+        <v>93.35043400649283</v>
       </c>
       <c r="C15" t="n">
         <v>0.5</v>
@@ -5492,10 +5476,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>124.1746177202</v>
+        <v>236.1143259862</v>
       </c>
       <c r="B16" t="n">
-        <v>118.6422484828933</v>
+        <v>97.32699510032666</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -5503,10 +5487,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>136.379331293</v>
+        <v>300.4856927229</v>
       </c>
       <c r="B17" t="n">
-        <v>129.7841431670875</v>
+        <v>112.5541797481187</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -5514,109 +5498,109 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>142.9235222475</v>
+        <v>341.0169236192</v>
       </c>
       <c r="B18" t="n">
-        <v>108.1597527275529</v>
+        <v>93.89368759358234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>205.6492912684</v>
+        <v>345.949438884</v>
       </c>
       <c r="B19" t="n">
-        <v>111.8456641423556</v>
+        <v>112.6855594406611</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>230.5012513602</v>
+        <v>388.452890769</v>
       </c>
       <c r="B20" t="n">
-        <v>114.4616512240737</v>
+        <v>86.88219927925789</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>317.4905027993</v>
+        <v>415.407888708</v>
       </c>
       <c r="B21" t="n">
-        <v>123.51652584277</v>
+        <v>96.864802453195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>320.205035478</v>
+        <v>436.226639738</v>
       </c>
       <c r="B22" t="n">
-        <v>108.3049195573048</v>
+        <v>84.32182004004287</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>343.1701388943</v>
+        <v>453.072090981</v>
       </c>
       <c r="B23" t="n">
-        <v>117.2492450820182</v>
+        <v>92.23005468976818</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>346.3256382877</v>
+        <v>460.018340427</v>
       </c>
       <c r="B24" t="n">
-        <v>116.583736421887</v>
+        <v>92.72047100103913</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>388.4289849615</v>
+        <v>476.690096467</v>
       </c>
       <c r="B25" t="n">
-        <v>118.8252272640167</v>
+        <v>96.60131043370416</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>403.773588491</v>
+        <v>500.243941889</v>
       </c>
       <c r="B26" t="n">
-        <v>110.738262019036</v>
+        <v>86.45306176139599</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>419.031374296</v>
+        <v>545.636136344</v>
       </c>
       <c r="B27" t="n">
-        <v>116.062438388727</v>
+        <v>92.75308523191921</v>
       </c>
       <c r="C27" t="n">
         <v>0.5</v>
@@ -5624,10 +5608,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>445.739216019</v>
+        <v>569.292372083</v>
       </c>
       <c r="B28" t="n">
-        <v>115.9411449794408</v>
+        <v>96.99587676158887</v>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
@@ -5635,21 +5619,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>491.48634975</v>
+        <v>636.82156772</v>
       </c>
       <c r="B29" t="n">
-        <v>121.3720441541393</v>
+        <v>103.8906099092464</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>534.743057735</v>
+        <v>685.791746503</v>
       </c>
       <c r="B30" t="n">
-        <v>121.7096381213069</v>
+        <v>96.98778445254138</v>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
@@ -5657,21 +5641,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>558.3150205740001</v>
+        <v>697.993272954</v>
       </c>
       <c r="B31" t="n">
-        <v>123.3655050095634</v>
+        <v>91.59946908784998</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>601.254176107</v>
+        <v>816.037795795</v>
       </c>
       <c r="B32" t="n">
-        <v>122.933142929771</v>
+        <v>86.22284205597096</v>
       </c>
       <c r="C32" t="n">
         <v>0.5</v>
@@ -5679,10 +5663,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>601.5765396429999</v>
+        <v>853.239530046</v>
       </c>
       <c r="B33" t="n">
-        <v>122.6803035768406</v>
+        <v>89.35498163337812</v>
       </c>
       <c r="C33" t="n">
         <v>0.5</v>
@@ -5690,10 +5674,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>729.220988893</v>
+        <v>1046.480456172</v>
       </c>
       <c r="B34" t="n">
-        <v>122.1746120269364</v>
+        <v>90.25638706045757</v>
       </c>
       <c r="C34" t="n">
         <v>0.5</v>
@@ -5701,10 +5685,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>738.2733232789999</v>
+        <v>1075.689846677</v>
       </c>
       <c r="B35" t="n">
-        <v>123.0895929074676</v>
+        <v>94.79959906703235</v>
       </c>
       <c r="C35" t="n">
         <v>0.5</v>
@@ -5712,10 +5696,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>860.2063247579999</v>
+        <v>1275.684263151</v>
       </c>
       <c r="B36" t="n">
-        <v>123.1184635224257</v>
+        <v>87.91451809820285</v>
       </c>
       <c r="C36" t="n">
         <v>0.5</v>
@@ -5723,10 +5707,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>888.620085973</v>
+        <v>1340.064538985</v>
       </c>
       <c r="B37" t="n">
-        <v>124.3989264798861</v>
+        <v>83.25447448409444</v>
       </c>
       <c r="C37" t="n">
         <v>0.5</v>
@@ -5734,10 +5718,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>921.175657476</v>
+        <v>1361.248220149</v>
       </c>
       <c r="B38" t="n">
-        <v>122.050443886127</v>
+        <v>78.76740233344324</v>
       </c>
       <c r="C38" t="n">
         <v>0.5</v>
@@ -5745,10 +5729,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>952.096450513</v>
+        <v>1419.887914788</v>
       </c>
       <c r="B39" t="n">
-        <v>124.299316603071</v>
+        <v>82.29766887111579</v>
       </c>
       <c r="C39" t="n">
         <v>0.5</v>
@@ -5756,10 +5740,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>988.1441408609999</v>
+        <v>1450.090690746</v>
       </c>
       <c r="B40" t="n">
-        <v>123.5679266169974</v>
+        <v>83.76399777767692</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -5767,10 +5751,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1039.515946149</v>
+        <v>1509.594896541</v>
       </c>
       <c r="B41" t="n">
-        <v>125.6350183276725</v>
+        <v>86.50786709546</v>
       </c>
       <c r="C41" t="n">
         <v>0.5</v>
@@ -5778,10 +5762,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1240.945472603</v>
+        <v>1732.059595479</v>
       </c>
       <c r="B42" t="n">
-        <v>125.6066618534366</v>
+        <v>87.10436291003414</v>
       </c>
       <c r="C42" t="n">
         <v>0.5</v>
@@ -5789,10 +5773,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1272.168502877</v>
+        <v>1758.753199791</v>
       </c>
       <c r="B43" t="n">
-        <v>129.0384221680928</v>
+        <v>90.44739342360477</v>
       </c>
       <c r="C43" t="n">
         <v>0.5</v>
@@ -5836,10 +5820,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.38738176940184</v>
+        <v>3.765716972116653</v>
       </c>
       <c r="B2" t="n">
-        <v>7.693690884700921</v>
+        <v>1.882858486058326</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5847,453 +5831,453 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40.8545395488549</v>
+        <v>9.207649153473128</v>
       </c>
       <c r="B3" t="n">
-        <v>276.1420799507851</v>
+        <v>269.0419520736381</v>
       </c>
       <c r="C3" t="n">
-        <v>255.7148101763576</v>
+        <v>264.4381274969015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55.00875618830442</v>
+        <v>9.631991266411655</v>
       </c>
       <c r="B4" t="n">
-        <v>266.6325301875011</v>
+        <v>253.5909378646807</v>
       </c>
       <c r="C4" t="n">
-        <v>239.1281520933489</v>
+        <v>248.7749422314748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92.02039825010566</v>
+        <v>32.83782527976987</v>
       </c>
       <c r="B5" t="n">
-        <v>307.0428156736265</v>
+        <v>296.1662665465104</v>
       </c>
       <c r="C5" t="n">
-        <v>261.0326165485736</v>
+        <v>279.7473539066255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101.407278187912</v>
+        <v>75.73190156322234</v>
       </c>
       <c r="B6" t="n">
-        <v>306.7944783776686</v>
+        <v>305.0552779667779</v>
       </c>
       <c r="C6" t="n">
-        <v>256.0908392837126</v>
+        <v>267.1893271851667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126.823476873977</v>
+        <v>135.4020938050614</v>
       </c>
       <c r="B7" t="n">
-        <v>321.0026199677822</v>
+        <v>326.1670920419367</v>
       </c>
       <c r="C7" t="n">
-        <v>257.5908815307936</v>
+        <v>258.4660451394059</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>192.3216094437365</v>
+        <v>170.3291726161437</v>
       </c>
       <c r="B8" t="n">
-        <v>332.450825806658</v>
+        <v>330.4583910576124</v>
       </c>
       <c r="C8" t="n">
-        <v>236.2900210847898</v>
+        <v>245.2938047495406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>199.2113037277305</v>
+        <v>212.1527656649282</v>
       </c>
       <c r="B9" t="n">
-        <v>338.8074802103164</v>
+        <v>343.2704847979469</v>
       </c>
       <c r="C9" t="n">
-        <v>239.2018283464511</v>
+        <v>237.1941019654828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>215.5566212096684</v>
+        <v>213.3201774932794</v>
       </c>
       <c r="B10" t="n">
-        <v>317.0025321917899</v>
+        <v>318.5297210023629</v>
       </c>
       <c r="C10" t="n">
-        <v>209.2242215869557</v>
+        <v>211.8696322557232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>232.8517091201146</v>
+        <v>232.0617640625246</v>
       </c>
       <c r="B11" t="n">
-        <v>334.1190228544551</v>
+        <v>298.9340695443431</v>
       </c>
       <c r="C11" t="n">
-        <v>217.6931682943978</v>
+        <v>182.9031875130808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>243.7154675382917</v>
+        <v>258.8679179433075</v>
       </c>
       <c r="B12" t="n">
-        <v>331.861027703083</v>
+        <v>281.5951673739146</v>
       </c>
       <c r="C12" t="n">
-        <v>210.0032939339372</v>
+        <v>152.1612084022609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>257.1005035419184</v>
+        <v>318.3218885571597</v>
       </c>
       <c r="B13" t="n">
-        <v>337.0765997651686</v>
+        <v>314.6514151130016</v>
       </c>
       <c r="C13" t="n">
-        <v>208.5263479942094</v>
+        <v>155.4904708344217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>346.7506339658497</v>
+        <v>391.9328180340462</v>
       </c>
       <c r="B14" t="n">
-        <v>347.3734140591055</v>
+        <v>325.3078211327955</v>
       </c>
       <c r="C14" t="n">
-        <v>173.9980970761807</v>
+        <v>129.3414121157724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>359.7056953229464</v>
+        <v>421.8997169800206</v>
       </c>
       <c r="B15" t="n">
-        <v>356.7368947185852</v>
+        <v>335.4537237075681</v>
       </c>
       <c r="C15" t="n">
-        <v>176.884047057112</v>
+        <v>124.5038652175578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>381.1549533717903</v>
+        <v>584.4530313274739</v>
       </c>
       <c r="B16" t="n">
-        <v>348.1424409536365</v>
+        <v>369.9580570691664</v>
       </c>
       <c r="C16" t="n">
-        <v>157.5649642677413</v>
+        <v>77.73154140542948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>412.550114943346</v>
+        <v>649.2388849945975</v>
       </c>
       <c r="B17" t="n">
-        <v>359.5145497140701</v>
+        <v>394.5240294510257</v>
       </c>
       <c r="C17" t="n">
-        <v>153.2394922423971</v>
+        <v>69.90458695372695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>428.3250791576049</v>
+        <v>681.6232452025348</v>
       </c>
       <c r="B18" t="n">
-        <v>347.3708430314651</v>
+        <v>395.2769552873795</v>
       </c>
       <c r="C18" t="n">
-        <v>133.2083034526627</v>
+        <v>54.46533268611211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>544.6419365762415</v>
+        <v>685.2514929284898</v>
       </c>
       <c r="B19" t="n">
-        <v>369.5476133417333</v>
+        <v>404.8575433255594</v>
       </c>
       <c r="C19" t="n">
-        <v>97.22664505361251</v>
+        <v>62.23179686131448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>577.6837816946396</v>
+        <v>714.2766329532815</v>
       </c>
       <c r="B20" t="n">
-        <v>377.9122790504175</v>
+        <v>402.8643550125154</v>
       </c>
       <c r="C20" t="n">
-        <v>89.07038820309765</v>
+        <v>45.72603853587469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>663.4287284160886</v>
+        <v>730.9310771951361</v>
       </c>
       <c r="B21" t="n">
-        <v>403.3721709567366</v>
+        <v>412.8327821016499</v>
       </c>
       <c r="C21" t="n">
-        <v>71.65780674869228</v>
+        <v>47.36724350408184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>665.6084581772608</v>
+        <v>743.0286599376099</v>
       </c>
       <c r="B22" t="n">
-        <v>397.1367735806942</v>
+        <v>411.9561637724081</v>
       </c>
       <c r="C22" t="n">
-        <v>64.33254449206379</v>
+        <v>40.44183380360317</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>683.2145165811387</v>
+        <v>752.3873750612419</v>
       </c>
       <c r="B23" t="n">
-        <v>406.2299326582383</v>
+        <v>418.5267487226055</v>
       </c>
       <c r="C23" t="n">
-        <v>64.62267436766894</v>
+        <v>42.33306119198454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>685.5257624091329</v>
+        <v>756.1433761829988</v>
       </c>
       <c r="B24" t="n">
-        <v>406.6217608162218</v>
+        <v>420.0751556177685</v>
       </c>
       <c r="C24" t="n">
-        <v>63.85887961165537</v>
+        <v>42.00346752626905</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>714.2613152483653</v>
+        <v>764.9295396502996</v>
       </c>
       <c r="B25" t="n">
-        <v>416.2585306380798</v>
+        <v>424.7421727351313</v>
       </c>
       <c r="C25" t="n">
-        <v>59.1278730138971</v>
+        <v>42.2774029099815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>723.8890762839781</v>
+        <v>776.8342761113054</v>
       </c>
       <c r="B26" t="n">
-        <v>416.0928200684411</v>
+        <v>425.3527745596045</v>
       </c>
       <c r="C26" t="n">
-        <v>54.14828192645211</v>
+        <v>36.9356365039518</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>733.0816866436061</v>
+        <v>798.3087235580405</v>
       </c>
       <c r="B27" t="n">
-        <v>421.1773699697721</v>
+        <v>435.8065861428649</v>
       </c>
       <c r="C27" t="n">
-        <v>54.63652664796905</v>
+        <v>36.65222436384465</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>748.3581355458748</v>
+        <v>808.8321206239938</v>
       </c>
       <c r="B28" t="n">
-        <v>426.1866770108435</v>
+        <v>441.2905226132377</v>
       </c>
       <c r="C28" t="n">
-        <v>52.00760923790614</v>
+        <v>36.87446230124084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>772.473942093026</v>
+        <v>836.7741789087191</v>
       </c>
       <c r="B29" t="n">
-        <v>436.3425095838885</v>
+        <v>454.3225256585599</v>
       </c>
       <c r="C29" t="n">
-        <v>50.10553853737548</v>
+        <v>35.9354362042003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>793.3166430180902</v>
+        <v>855.3955876918977</v>
       </c>
       <c r="B30" t="n">
-        <v>443.7613477706681</v>
+        <v>459.6287200404343</v>
       </c>
       <c r="C30" t="n">
-        <v>47.10302626162303</v>
+        <v>31.93092619448544</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>804.0012601946897</v>
+        <v>859.8499574139302</v>
       </c>
       <c r="B31" t="n">
-        <v>448.1243828907931</v>
+        <v>459.8399289984822</v>
       </c>
       <c r="C31" t="n">
-        <v>46.1237527934482</v>
+        <v>29.91495029151713</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>822.4176727264892</v>
+        <v>899.7446276116897</v>
       </c>
       <c r="B32" t="n">
-        <v>454.7085903631766</v>
+        <v>474.978707278067</v>
       </c>
       <c r="C32" t="n">
-        <v>43.49975399993201</v>
+        <v>25.10639347222212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>822.5512520695687</v>
+        <v>911.285713630865</v>
       </c>
       <c r="B33" t="n">
-        <v>454.680513384336</v>
+        <v>480.7256282090374</v>
       </c>
       <c r="C33" t="n">
-        <v>43.40488734955164</v>
+        <v>25.0827713936049</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>870.9443079577354</v>
+        <v>965.2049939392374</v>
       </c>
       <c r="B34" t="n">
-        <v>472.9588650728715</v>
+        <v>504.3109158677953</v>
       </c>
       <c r="C34" t="n">
-        <v>37.48671109400379</v>
+        <v>21.7084188981766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>874.082302924</v>
+        <v>972.6233001859729</v>
       </c>
       <c r="B35" t="n">
-        <v>474.4352540390647</v>
+        <v>508.5811510784264</v>
       </c>
       <c r="C35" t="n">
-        <v>37.39410257706464</v>
+        <v>22.26950098544</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>913.3993362638034</v>
+        <v>1019.444848391811</v>
       </c>
       <c r="B36" t="n">
-        <v>490.1291194771256</v>
+        <v>527.9887964833443</v>
       </c>
       <c r="C36" t="n">
-        <v>33.42945134522387</v>
+        <v>18.26637228743868</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>921.8726225103553</v>
+        <v>1033.260039963992</v>
       </c>
       <c r="B37" t="n">
-        <v>493.8878744688974</v>
+        <v>533.3481126148522</v>
       </c>
       <c r="C37" t="n">
-        <v>32.95156321371974</v>
+        <v>16.71809263285638</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>931.3054120323076</v>
+        <v>1037.690334765751</v>
       </c>
       <c r="B38" t="n">
-        <v>497.1983484989566</v>
+        <v>534.5156209823056</v>
       </c>
       <c r="C38" t="n">
-        <v>31.5456424828028</v>
+        <v>15.67045359942995</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>940.0099478062821</v>
+        <v>1049.675424735526</v>
       </c>
       <c r="B39" t="n">
-        <v>501.3161904997531</v>
+        <v>540.6746526021908</v>
       </c>
       <c r="C39" t="n">
-        <v>31.3112165966121</v>
+        <v>15.83694023442786</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>949.8660568651411</v>
+        <v>1055.696439608324</v>
       </c>
       <c r="B40" t="n">
-        <v>505.2439026918781</v>
+        <v>543.7053869303501</v>
       </c>
       <c r="C40" t="n">
-        <v>30.31087425930758</v>
+        <v>15.85716712618807</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>963.4112424472514</v>
+        <v>1067.275435165866</v>
       </c>
       <c r="B41" t="n">
-        <v>511.3672588154436</v>
+        <v>549.5118572912437</v>
       </c>
       <c r="C41" t="n">
-        <v>29.66163759181785</v>
+        <v>15.87413970831085</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1011.757764301666</v>
+        <v>1107.627593183886</v>
       </c>
       <c r="B42" t="n">
-        <v>531.9601354279725</v>
+        <v>568.2487395201622</v>
       </c>
       <c r="C42" t="n">
-        <v>26.08125327713958</v>
+        <v>14.43494292821924</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1018.67453815947</v>
+        <v>1112.193076632799</v>
       </c>
       <c r="B43" t="n">
-        <v>535.6049931769903</v>
+        <v>570.8970976610367</v>
       </c>
       <c r="C43" t="n">
-        <v>26.26772409725538</v>
+        <v>14.80055934463735</v>
       </c>
     </row>
   </sheetData>
@@ -6344,716 +6328,716 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.693690884700921</v>
+        <v>1.882858486058326</v>
       </c>
       <c r="B2" t="n">
-        <v>7.693690884700921</v>
+        <v>1.882858486058326</v>
       </c>
       <c r="C2" t="n">
-        <v>3.663662326048057e-05</v>
+        <v>8.965992790753935e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>3.663662328601958e-05</v>
+        <v>8.965992790756082e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>2.553901236540881e-14</v>
+        <v>2.146381488342397e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.42726977442745</v>
+        <v>4.603824576736564</v>
       </c>
       <c r="B3" t="n">
-        <v>48.00550972312342</v>
+        <v>15.73605666833121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002285976653482067</v>
+        <v>7.493360318252957e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002286027732958127</v>
+        <v>7.493360619515592e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>5.107947605956665e-09</v>
+        <v>3.012626349015342e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27.50437809415221</v>
+        <v>4.815995633205827</v>
       </c>
       <c r="B4" t="n">
-        <v>58.5356455483</v>
+        <v>15.79280134969639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000278741169277619</v>
+        <v>7.52038159509352e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002787603313266116</v>
+        <v>7.52038190367298e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.916204899257961e-08</v>
+        <v>3.085794599987264e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46.01019912505283</v>
+        <v>16.41891263988493</v>
       </c>
       <c r="B5" t="n">
-        <v>91.11079207300379</v>
+        <v>42.48532581891644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004338609146333514</v>
+        <v>0.0002023110753281735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004342268783357084</v>
+        <v>0.0002023133377081719</v>
       </c>
       <c r="E5" t="n">
-        <v>3.659637023569568e-07</v>
+        <v>2.262379998401939e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50.703639093956</v>
+        <v>37.86595078161117</v>
       </c>
       <c r="B6" t="n">
-        <v>97.49937146038819</v>
+        <v>79.08241100013571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004642827212399437</v>
+        <v>0.0003765829095244557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004648576993413493</v>
+        <v>0.0003767253079561819</v>
       </c>
       <c r="E6" t="n">
-        <v>5.749781014055175e-07</v>
+        <v>1.423984317262101e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63.41173843698851</v>
+        <v>67.70104690253071</v>
       </c>
       <c r="B7" t="n">
-        <v>116.7900845267535</v>
+        <v>123.2630784402415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005561432596512073</v>
+        <v>0.0005869670401916264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005580590398624865</v>
+        <v>0.0005897119364182804</v>
       </c>
       <c r="E7" t="n">
-        <v>1.915780211279275e-06</v>
+        <v>2.744896226654033e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96.16080472186826</v>
+        <v>85.16458630807183</v>
       </c>
       <c r="B8" t="n">
-        <v>157.7256713753493</v>
+        <v>145.0191140053683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007510746255969016</v>
+        <v>0.000690567209549373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000765275718304353</v>
+        <v>0.000698679450614345</v>
       </c>
       <c r="E8" t="n">
-        <v>1.420109270745145e-05</v>
+        <v>8.112241064972027e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99.60565186386525</v>
+        <v>106.0763828324641</v>
       </c>
       <c r="B9" t="n">
-        <v>163.1632757427801</v>
+        <v>171.2839778926221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007769679797275245</v>
+        <v>0.0008156379899648671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007947694266404619</v>
+        <v>0.0008402464328437151</v>
       </c>
       <c r="E9" t="n">
-        <v>1.780144691293734e-05</v>
+        <v>2.460844287884803e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107.7783106048342</v>
+        <v>106.6600887466397</v>
       </c>
       <c r="B10" t="n">
-        <v>165.5942000460862</v>
+        <v>164.8944020305327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007885438097432676</v>
+        <v>0.0007852114382406317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008081897736257535</v>
+        <v>0.0008043104961414929</v>
       </c>
       <c r="E10" t="n">
-        <v>1.964596388248586e-05</v>
+        <v>1.909905790086126e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>116.4258545600573</v>
+        <v>116.0308820312623</v>
       </c>
       <c r="B11" t="n">
-        <v>179.1544744736254</v>
+        <v>168.5222138863471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000853116545112502</v>
+        <v>0.000802486732792129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008863179856351181</v>
+        <v>0.0008245678090136061</v>
       </c>
       <c r="E11" t="n">
-        <v>3.320144052261606e-05</v>
+        <v>2.208107622147712e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>121.8577337691459</v>
+        <v>129.4339589716538</v>
       </c>
       <c r="B12" t="n">
-        <v>183.7868359572531</v>
+        <v>175.6305532641011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000875175409320253</v>
+        <v>0.0008363359679242907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009145366281957084</v>
+        <v>0.0008654189985596413</v>
       </c>
       <c r="E12" t="n">
-        <v>3.936121887545543e-05</v>
+        <v>2.908303063535054e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>128.5502517709592</v>
+        <v>159.1609442785798</v>
       </c>
       <c r="B13" t="n">
-        <v>191.7985255798266</v>
+        <v>211.4342162830941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009133263122848886</v>
+        <v>0.001006829601348067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009656390713952011</v>
+        <v>0.00110701574648227</v>
       </c>
       <c r="E13" t="n">
-        <v>5.231275911031247e-05</v>
+        <v>0.0001001861451342023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>173.3753169829249</v>
+        <v>195.9664090170231</v>
       </c>
       <c r="B14" t="n">
-        <v>234.679888545906</v>
+        <v>244.021790967583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001117523278790029</v>
+        <v>0.001162008528417062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001318345463099887</v>
+        <v>0.001422521848008832</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002008221843098584</v>
+        <v>0.0002605133195917703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>179.8528476614732</v>
+        <v>210.9498584900103</v>
       </c>
       <c r="B15" t="n">
-        <v>243.4300752606942</v>
+        <v>258.8898620101399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001159190834574734</v>
+        <v>0.001232808866714952</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001415521611366876</v>
+        <v>0.001619240637228629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0002563307767921423</v>
+        <v>0.000386431770513677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>190.5774766858952</v>
+        <v>292.226515663737</v>
       </c>
       <c r="B16" t="n">
-        <v>248.6415592348432</v>
+        <v>327.035839014684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001184007424927825</v>
+        <v>0.001557313519117543</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001479217155605128</v>
+        <v>0.003392195719757686</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002952097306773026</v>
+        <v>0.001834882200640142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>206.275057471673</v>
+        <v>324.6194424972987</v>
       </c>
       <c r="B17" t="n">
-        <v>265.0355640939748</v>
+        <v>357.5672768118698</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001262074114733213</v>
+        <v>0.001702701318151761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001713930293738198</v>
+        <v>0.005029483073588815</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0004518561790049851</v>
+        <v>0.003326781755437054</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>214.1625395788024</v>
+        <v>340.8116226012674</v>
       </c>
       <c r="B18" t="n">
-        <v>265.9498394320606</v>
+        <v>366.985794039349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001266427806819336</v>
+        <v>0.001747551400187376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001728777685054919</v>
+        <v>0.00570395770536629</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004623498782355825</v>
+        <v>0.003956406305178913</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>272.3209682881208</v>
+        <v>342.6257464642449</v>
       </c>
       <c r="B19" t="n">
-        <v>314.5897635067422</v>
+        <v>372.7050014409118</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001498046492889249</v>
+        <v>0.001774785721147199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002914720016699927</v>
+        <v>0.006160840008297514</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001416673523810678</v>
+        <v>0.004386054287150316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>288.8418908473198</v>
+        <v>357.1383164766407</v>
       </c>
       <c r="B20" t="n">
-        <v>328.6418498363668</v>
+        <v>379.5776164757614</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001564961189696985</v>
+        <v>0.001807512459408387</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003460757356991847</v>
+        <v>0.006761746210260442</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001895796167294862</v>
+        <v>0.004954233750852055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>331.7143642080443</v>
+        <v>365.4655385975681</v>
       </c>
       <c r="B21" t="n">
-        <v>365.895100688523</v>
+        <v>389.0074855521333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0017423576223263</v>
+        <v>0.001852416597867301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005621030562144467</v>
+        <v>0.007687211398280278</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003878672939818167</v>
+        <v>0.005834794800412976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>332.8042290886304</v>
+        <v>371.5143299688049</v>
       </c>
       <c r="B22" t="n">
-        <v>363.4556276388186</v>
+        <v>391.7315207601821</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001730741083994374</v>
+        <v>0.001865388194096105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0054402394387668</v>
+        <v>0.007978035267440462</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003709498354772426</v>
+        <v>0.006112647073344356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>341.6072582905693</v>
+        <v>376.1936875306209</v>
       </c>
       <c r="B23" t="n">
-        <v>372.8232399828702</v>
+        <v>397.5127445942503</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001775348761823191</v>
+        <v>0.001892917831401192</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006170687729722423</v>
+        <v>0.008632705970944655</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004395338967899232</v>
+        <v>0.006739788139543464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>342.7628812045664</v>
+        <v>378.0716880914994</v>
       </c>
       <c r="B24" t="n">
-        <v>373.6551661572154</v>
+        <v>399.2776280843445</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001779310315034359</v>
+        <v>0.001901322038496878</v>
       </c>
       <c r="D24" t="n">
-        <v>0.006240449835550118</v>
+        <v>0.008843126520385962</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004461139520515759</v>
+        <v>0.006941804481889084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>357.1306576241827</v>
+        <v>382.4647698251498</v>
       </c>
       <c r="B25" t="n">
-        <v>386.3036733529931</v>
+        <v>403.9427561899711</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001839541301680919</v>
+        <v>0.001923536934237958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007409236772880176</v>
+        <v>0.009424286994633706</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005569695471199256</v>
+        <v>0.007500750060395748</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>361.944538141989</v>
+        <v>388.4171380556527</v>
       </c>
       <c r="B26" t="n">
-        <v>388.7946541764341</v>
+        <v>407.2929904959102</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001851403115125877</v>
+        <v>0.001939490430932906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007664948898286373</v>
+        <v>0.009864846275370202</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005813545783160496</v>
+        <v>0.007925355844437296</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>366.540843321803</v>
+        <v>399.1543617790202</v>
       </c>
       <c r="B27" t="n">
-        <v>393.8206137448194</v>
+        <v>418.1580148393373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001875336255927711</v>
+        <v>0.001991228642092082</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008208618297806173</v>
+        <v>0.01143710014699754</v>
       </c>
       <c r="E27" t="n">
-        <v>0.006333282041878462</v>
+        <v>0.009445871504905459</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>374.1790677729374</v>
+        <v>404.4160603119969</v>
       </c>
       <c r="B28" t="n">
-        <v>400.4034896705749</v>
+        <v>423.6722620644574</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001906683284145595</v>
+        <v>0.002017486962211702</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008980029085553811</v>
+        <v>0.01232544736636648</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007073345801408217</v>
+        <v>0.01030796040415478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>386.236971046513</v>
+        <v>418.3870894543596</v>
       </c>
       <c r="B29" t="n">
-        <v>411.9144379186276</v>
+        <v>437.4943977699401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001961497323422036</v>
+        <v>0.002083306656047334</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01050598370224928</v>
+        <v>0.01485129582272273</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008544486378827248</v>
+        <v>0.0127679891666754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>396.6583215090451</v>
+        <v>427.6977938459489</v>
       </c>
       <c r="B30" t="n">
-        <v>421.1137786828339</v>
+        <v>444.8492016694867</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002005303708013495</v>
+        <v>0.00211832953175946</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01190531162594446</v>
+        <v>0.01638725604729152</v>
       </c>
       <c r="E30" t="n">
-        <v>0.009900007917930966</v>
+        <v>0.01426892651553206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>402.0006300973449</v>
+        <v>429.9249787069651</v>
       </c>
       <c r="B31" t="n">
-        <v>426.1115877355098</v>
+        <v>446.0238695855752</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002029102798740523</v>
+        <v>0.002123923188502739</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01273923492931794</v>
+        <v>0.01664592676196854</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01071013213057741</v>
+        <v>0.0145220035734658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>411.2088363632446</v>
+        <v>449.8723138058448</v>
       </c>
       <c r="B32" t="n">
-        <v>434.2027747557878</v>
+        <v>463.694095133327</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002067632260741847</v>
+        <v>0.002208067119682509</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01420868915825849</v>
+        <v>0.02102359039554978</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01214105689751665</v>
+        <v>0.01881552327586727</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>411.2756260347844</v>
+        <v>455.6428568154325</v>
       </c>
       <c r="B33" t="n">
-        <v>434.2204174626156</v>
+        <v>469.5500500998776</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002067716273631503</v>
+        <v>0.002235952619523227</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01421206235278363</v>
+        <v>0.02269341711239984</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01214434607915212</v>
+        <v>0.02045746449287661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>435.4721539788677</v>
+        <v>482.6024969696187</v>
       </c>
       <c r="B34" t="n">
-        <v>455.8651441687956</v>
+        <v>495.014449601361</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002170786400803788</v>
+        <v>0.002357211664768385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01896714394631967</v>
+        <v>0.03144819309974767</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01679635754551588</v>
+        <v>0.02909098143497929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>437.041151462</v>
+        <v>486.3116500929864</v>
       </c>
       <c r="B35" t="n">
-        <v>457.4236335057998</v>
+        <v>499.104124708838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002178207778599046</v>
+        <v>0.002376686308137324</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01936111032327269</v>
+        <v>0.03310793858728195</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01718290254467364</v>
+        <v>0.03073125227914462</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>456.6996681319017</v>
+        <v>509.7224241959057</v>
       </c>
       <c r="B36" t="n">
-        <v>475.3387931946091</v>
+        <v>520.4803579596883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002263518062831472</v>
+        <v>0.002478477895046135</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02446222066008478</v>
+        <v>0.04312295076279817</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02219870259725331</v>
+        <v>0.04064447286775203</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>460.9363112551777</v>
+        <v>516.6300199819958</v>
       </c>
       <c r="B37" t="n">
-        <v>479.4006198414402</v>
+        <v>526.5450260616002</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002282860094483048</v>
+        <v>0.002507357266960001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02577719414366212</v>
+        <v>0.04641525345256593</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02349433404917907</v>
+        <v>0.04390789618560594</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>465.6527060161538</v>
+        <v>518.8451673828756</v>
       </c>
       <c r="B38" t="n">
-        <v>483.4184134403961</v>
+        <v>528.156612291496</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002301992444954267</v>
+        <v>0.002515031487102362</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02714059295238152</v>
+        <v>0.04732665447798239</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02483860050742726</v>
+        <v>0.04481162299088003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>470.004973903141</v>
+        <v>524.8377123677629</v>
       </c>
       <c r="B39" t="n">
-        <v>487.7300912929014</v>
+        <v>534.3124798596484</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002322524244251912</v>
+        <v>0.002544345142188802</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02867589694335385</v>
+        <v>0.05095504022319215</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02635337269910194</v>
+        <v>0.04841069508100335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>474.9330284325706</v>
+        <v>527.848219804162</v>
       </c>
       <c r="B40" t="n">
-        <v>492.1850994815206</v>
+        <v>537.3671427215528</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002343738568959622</v>
+        <v>0.002558891155816918</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03034401220280612</v>
+        <v>0.05284483251615809</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0280002736338465</v>
+        <v>0.05028594136034117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>481.7056212236257</v>
+        <v>533.6377175829329</v>
       </c>
       <c r="B41" t="n">
-        <v>498.7198117951792</v>
+        <v>543.2284144425238</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002374856246643711</v>
+        <v>0.002586801973535828</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03294869739940434</v>
+        <v>0.05664427250125324</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03057384115276063</v>
+        <v>0.05405747052771741</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>505.878882150833</v>
+        <v>553.8137965919429</v>
       </c>
       <c r="B42" t="n">
-        <v>521.2391882180809</v>
+        <v>562.7221301484823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002482091372467052</v>
+        <v>0.002679629191183249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04352324843149823</v>
+        <v>0.07106016472419582</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04104115705903118</v>
+        <v>0.06838053553301257</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>509.3372690797349</v>
+        <v>556.0965383163993</v>
       </c>
       <c r="B43" t="n">
-        <v>524.8708167612921</v>
+        <v>565.2550513520157</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002499384841720438</v>
+        <v>0.002691690720723884</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04548489051271354</v>
+        <v>0.07315053983154671</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0429855056709931</v>
+        <v>0.07045884911082283</v>
       </c>
     </row>
   </sheetData>
@@ -7089,338 +7073,338 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.560863103456534e+22</v>
+        <v>4.849308715771024e+29</v>
       </c>
       <c r="B2" t="n">
-        <v>3.617736298091291e-23</v>
+        <v>3.402546830301473e-30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33061701286821.03</v>
+        <v>1.222023309946044e+19</v>
       </c>
       <c r="B3" t="n">
-        <v>4.990668767120338e-14</v>
+        <v>1.350219743412957e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3383343622890.461</v>
+        <v>1.172494906302893e+19</v>
       </c>
       <c r="B4" t="n">
-        <v>4.876832458981423e-13</v>
+        <v>1.407255580497808e-19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20938781272.60798</v>
+        <v>134622189914938.5</v>
       </c>
       <c r="B5" t="n">
-        <v>7.880114790436839e-11</v>
+        <v>1.225652324510958e-14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9610894412.611513</v>
+        <v>106561569004.9402</v>
       </c>
       <c r="B6" t="n">
-        <v>1.716801713932944e-10</v>
+        <v>1.548400624547397e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1208317510.445527</v>
+        <v>650493454.3596797</v>
       </c>
       <c r="B7" t="n">
-        <v>1.365535122793691e-09</v>
+        <v>2.536535900463742e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38568509.16309249</v>
+        <v>100859009.1983472</v>
       </c>
       <c r="B8" t="n">
-        <v>4.278101580288565e-08</v>
+        <v>1.635947064238104e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26181729.99463921</v>
+        <v>15038518.21601591</v>
       </c>
       <c r="B9" t="n">
-        <v>6.302104560461979e-08</v>
+        <v>1.097182565661796e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22112817.08523661</v>
+        <v>23208471.18748917</v>
       </c>
       <c r="B10" t="n">
-        <v>7.461735850479245e-08</v>
+        <v>7.109473031077783e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9012366.270863533</v>
+        <v>18102950.13005672</v>
       </c>
       <c r="B11" t="n">
-        <v>1.830817734665707e-07</v>
+        <v>9.114536515573057e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6739860.433652265</v>
+        <v>11301154.76511198</v>
       </c>
       <c r="B12" t="n">
-        <v>2.448121910301756e-07</v>
+        <v>1.460027788570553e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4149803.226385616</v>
+        <v>1375093.478081377</v>
       </c>
       <c r="B13" t="n">
-        <v>3.976092142173962e-07</v>
+        <v>1.199918424674802e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>423557.5118256069</v>
+        <v>272799.299646685</v>
       </c>
       <c r="B14" t="n">
-        <v>3.895574872201443e-06</v>
+        <v>3.024201312351225e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>280365.4486585211</v>
+        <v>140088.0052897279</v>
       </c>
       <c r="B15" t="n">
-        <v>2.942587982746874e-06</v>
+        <v>5.889155165667091e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>220833.4024479148</v>
+        <v>9971.8932497849</v>
       </c>
       <c r="B16" t="n">
-        <v>7.471695774778295e-06</v>
+        <v>0.0001654650685350639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107534.6149364275</v>
+        <v>3610.799701176042</v>
       </c>
       <c r="B17" t="n">
-        <v>1.534389648370852e-05</v>
+        <v>0.000456962483812822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103439.4445009949</v>
+        <v>2684.189513927507</v>
       </c>
       <c r="B18" t="n">
-        <v>7.975680882470953e-06</v>
+        <v>0.0006147106943971774</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15490.31329481408</v>
+        <v>2249.875960164413</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001065181813044669</v>
+        <v>0.0003666868816802292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9432.013900410013</v>
+        <v>1826.158911556027</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0001749361289563275</v>
+        <v>0.0004517679128466628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2776.917076590565</v>
+        <v>1379.61732358827</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0002970920546943072</v>
+        <v>0.00119598382231711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2997.139897995729</v>
+        <v>1273.837622829663</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0002752624262056304</v>
+        <v>0.001295298529756675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2241.743247326445</v>
+        <v>1077.355482638858</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0003680171674360632</v>
+        <v>0.001531527918675937</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2185.415225279404</v>
+        <v>1024.127383220894</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0007550052644064693</v>
+        <v>0.0008055638522283862</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1494.102247485679</v>
+        <v>896.6892690806134</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0011043420908955</v>
+        <v>0.00092005115757199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1388.27464103589</v>
+        <v>815.8245917271379</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00118852563551029</v>
+        <v>0.001011246790506078</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1198.680354454124</v>
+        <v>603.5614250461108</v>
       </c>
       <c r="B27" t="n">
-        <v>0.000688256879270957</v>
+        <v>0.001366886559950334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>991.6672454438617</v>
+        <v>519.4798069548577</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0008319322875595604</v>
+        <v>0.001588127178294135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>716.994895281588</v>
+        <v>359.6214754761904</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002301271614147252</v>
+        <v>0.002294078791895234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>556.7932838075587</v>
+        <v>297.0764864099935</v>
       </c>
       <c r="B30" t="n">
-        <v>0.001481698906923489</v>
+        <v>0.002777062600846242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>486.4208704525294</v>
+        <v>288.2311208857422</v>
       </c>
       <c r="B31" t="n">
-        <v>0.001696062093784097</v>
+        <v>0.005724572679485493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>392.127767665832</v>
+        <v>184.6204629426256</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002103906093952159</v>
+        <v>0.004468627078767455</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>391.9452594556507</v>
+        <v>159.8708947015848</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002104885771920786</v>
+        <v>0.005160413979917646</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>224.4299260133911</v>
+        <v>87.22132326641244</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00367598035901315</v>
+        <v>0.009458696212164608</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>215.8169849248162</v>
+        <v>79.36231923583783</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003822683373541724</v>
+        <v>0.01039536152602069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>138.9086936580617</v>
+        <v>49.04017866239809</v>
       </c>
       <c r="B36" t="n">
-        <v>0.005939153110393681</v>
+        <v>0.01682294034202968</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>125.9901387099791</v>
+        <v>42.9329058207841</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006548131531937552</v>
+        <v>0.0192160298546718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>114.4857868045466</v>
+        <v>41.45264115104457</v>
       </c>
       <c r="B38" t="n">
-        <v>0.007206134691710364</v>
+        <v>0.01990223004111791</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>103.3960234867782</v>
+        <v>36.28848380393544</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007979030258407347</v>
+        <v>0.02273448525591278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93.15161786062346</v>
+        <v>33.98918936039118</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01771305789308764</v>
+        <v>0.0485448470837261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80.06703627814295</v>
+        <v>30.00823635723156</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0103038658397952</v>
+        <v>0.02749245207811711</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>48.22677478090771</v>
+        <v>20.01699454123291</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01710667992516484</v>
+        <v>0.04121497851740861</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44.53173798115839</v>
+        <v>19.01066179628399</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01852611277711779</v>
+        <v>0.04339670069567293</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +7595,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1143371793322852</v>
+        <v>0.2913843057358633</v>
       </c>
     </row>
     <row r="18">
@@ -7621,7 +7605,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>104.044887972</v>
+        <v>109.957975712</v>
       </c>
       <c r="C3" t="n">
-        <v>96.28634758929999</v>
+        <v>-10.8668659157</v>
       </c>
       <c r="D3" t="n">
-        <v>9.83465176286</v>
+        <v>-104.495609469</v>
       </c>
       <c r="E3" t="n">
-        <v>104.044887972</v>
+        <v>-109.957975712</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>274.688694793</v>
+        <v>284.766347336</v>
       </c>
       <c r="C4" t="n">
-        <v>254.842618927</v>
+        <v>-28.097836528</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1070368391</v>
+        <v>-269.744265802</v>
       </c>
       <c r="E4" t="n">
-        <v>274.688694793</v>
+        <v>-284.766347336</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>219.752989309</v>
+        <v>248.035764273</v>
       </c>
       <c r="C5" t="n">
-        <v>202.580638345</v>
+        <v>-24.5093749295</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9123101088</v>
+        <v>-235.972791511</v>
       </c>
       <c r="E5" t="n">
-        <v>219.752989309</v>
+        <v>-248.035764273</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>101.653738173</v>
+        <v>138.868259274</v>
       </c>
       <c r="C6" t="n">
-        <v>91.3158579694</v>
+        <v>-13.7265750229</v>
       </c>
       <c r="D6" t="n">
-        <v>9.38925809579</v>
+        <v>-133.309997653</v>
       </c>
       <c r="E6" t="n">
-        <v>101.653738173</v>
+        <v>-138.868259274</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>211.004891493</v>
+        <v>226.245648506</v>
       </c>
       <c r="C7" t="n">
-        <v>194.296743153</v>
+        <v>-22.2460076575</v>
       </c>
       <c r="D7" t="n">
-        <v>19.7554123502</v>
+        <v>-214.153748682</v>
       </c>
       <c r="E7" t="n">
-        <v>211.004891493</v>
+        <v>-226.245648506</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>280.509209824</v>
+        <v>299.138583951</v>
       </c>
       <c r="C8" t="n">
-        <v>259.489773181</v>
+        <v>-29.4526078937</v>
       </c>
       <c r="D8" t="n">
-        <v>26.7220139966</v>
+        <v>-283.127601059</v>
       </c>
       <c r="E8" t="n">
-        <v>280.509209824</v>
+        <v>-299.138583951</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>172.815474453</v>
+        <v>226.529806604</v>
       </c>
       <c r="C9" t="n">
-        <v>156.534867457</v>
+        <v>-22.3445577585</v>
       </c>
       <c r="D9" t="n">
-        <v>16.3008804936</v>
+        <v>-216.515163985</v>
       </c>
       <c r="E9" t="n">
-        <v>172.815474453</v>
+        <v>-226.529806604</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>160.07296655</v>
+        <v>247.298111471</v>
       </c>
       <c r="C10" t="n">
-        <v>140.124161592</v>
+        <v>-24.3253755875</v>
       </c>
       <c r="D10" t="n">
-        <v>14.2132546216</v>
+        <v>-237.649165953</v>
       </c>
       <c r="E10" t="n">
-        <v>160.07296655</v>
+        <v>-247.298111471</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>264.902300834</v>
+        <v>359.877326232</v>
       </c>
       <c r="C11" t="n">
-        <v>237.169011388</v>
+        <v>-35.368144996</v>
       </c>
       <c r="D11" t="n">
-        <v>24.3010550336</v>
+        <v>-343.780809698</v>
       </c>
       <c r="E11" t="n">
-        <v>264.902300834</v>
+        <v>-359.877326232</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>272.26036497</v>
+        <v>353.65856378</v>
       </c>
       <c r="C12" t="n">
-        <v>246.075998568</v>
+        <v>-34.7035997738</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6163650359</v>
+        <v>-336.667246085</v>
       </c>
       <c r="E12" t="n">
-        <v>272.26036497</v>
+        <v>-353.65856378</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>231.254101902</v>
+        <v>316.20862399</v>
       </c>
       <c r="C13" t="n">
-        <v>206.489362521</v>
+        <v>-30.9110493946</v>
       </c>
       <c r="D13" t="n">
-        <v>21.3354827656</v>
+        <v>-301.06997213</v>
       </c>
       <c r="E13" t="n">
-        <v>231.254101902</v>
+        <v>-316.20862399</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>264.318321689</v>
+        <v>363.07401364</v>
       </c>
       <c r="C14" t="n">
-        <v>235.063021163</v>
+        <v>-35.5019888684</v>
       </c>
       <c r="D14" t="n">
-        <v>23.9533486014</v>
+        <v>-345.934870519</v>
       </c>
       <c r="E14" t="n">
-        <v>264.318321689</v>
+        <v>-363.07401364</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>280.560943954</v>
+        <v>343.123171241</v>
       </c>
       <c r="C15" t="n">
-        <v>254.991817131</v>
+        <v>-33.6436047867</v>
       </c>
       <c r="D15" t="n">
-        <v>26.3529702185</v>
+        <v>-325.726529949</v>
       </c>
       <c r="E15" t="n">
-        <v>280.560943954</v>
+        <v>-343.123171241</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>218.075699407</v>
+        <v>166.949123936</v>
       </c>
       <c r="C16" t="n">
-        <v>207.076010584</v>
+        <v>-16.2697210765</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2887512146</v>
+        <v>-154.30822575</v>
       </c>
       <c r="E16" t="n">
-        <v>218.075699407</v>
+        <v>-166.949123936</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>144.272866611</v>
+        <v>48.0344070232</v>
       </c>
       <c r="C17" t="n">
-        <v>145.814033016</v>
+        <v>49.2819275185</v>
       </c>
       <c r="D17" t="n">
-        <v>13.8766413609</v>
+        <v>2.90739330728</v>
       </c>
       <c r="E17" t="n">
-        <v>144.272866611</v>
+        <v>48.0344070232</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>60.6434522001</v>
+        <v>149.74274081</v>
       </c>
       <c r="C18" t="n">
-        <v>61.627171643</v>
+        <v>145.986309066</v>
       </c>
       <c r="D18" t="n">
-        <v>4.0682819397</v>
+        <v>13.2908035019</v>
       </c>
       <c r="E18" t="n">
-        <v>60.6434522001</v>
+        <v>149.74274081</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>69.0382903938</v>
+        <v>162.478349652</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.94860494554</v>
+        <v>150.835796044</v>
       </c>
       <c r="D19" t="n">
-        <v>-46.9044949955</v>
+        <v>14.0743205153</v>
       </c>
       <c r="E19" t="n">
-        <v>-69.0382903938</v>
+        <v>162.478349652</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>75.5506142577</v>
+        <v>87.23751327479999</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.77707831883</v>
+        <v>74.35633627</v>
       </c>
       <c r="D20" t="n">
-        <v>-64.9108855865</v>
+        <v>6.12872230794</v>
       </c>
       <c r="E20" t="n">
-        <v>-75.5506142577</v>
+        <v>87.23751327479999</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>62.3607705503</v>
+        <v>131.885294377</v>
       </c>
       <c r="C21" t="n">
-        <v>52.9208174246</v>
+        <v>-13.2020182823</v>
       </c>
       <c r="D21" t="n">
-        <v>5.05720931478</v>
+        <v>-130.638823923</v>
       </c>
       <c r="E21" t="n">
-        <v>62.3607705503</v>
+        <v>-131.885294377</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>282.081736357</v>
+        <v>336.725238389</v>
       </c>
       <c r="C22" t="n">
-        <v>256.519405487</v>
+        <v>-32.900950478</v>
       </c>
       <c r="D22" t="n">
-        <v>26.4724822716</v>
+        <v>-318.572443502</v>
       </c>
       <c r="E22" t="n">
-        <v>282.081736357</v>
+        <v>-336.725238389</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>454.503819932</v>
+        <v>344.400178168</v>
       </c>
       <c r="C23" t="n">
-        <v>428.579145089</v>
+        <v>-32.6372582501</v>
       </c>
       <c r="D23" t="n">
-        <v>43.9739010046</v>
+        <v>-311.896149657</v>
       </c>
       <c r="E23" t="n">
-        <v>454.503819932</v>
+        <v>-344.400178168</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>423.025678223</v>
+        <v>271.387053101</v>
       </c>
       <c r="C24" t="n">
-        <v>402.200180438</v>
+        <v>-25.3286343654</v>
       </c>
       <c r="D24" t="n">
-        <v>40.8827388248</v>
+        <v>-240.90030913</v>
       </c>
       <c r="E24" t="n">
-        <v>423.025678223</v>
+        <v>-271.387053101</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>199.728058374</v>
+        <v>318.512100011</v>
       </c>
       <c r="C25" t="n">
-        <v>174.397891061</v>
+        <v>-31.3457928996</v>
       </c>
       <c r="D25" t="n">
-        <v>17.8476748363</v>
+        <v>-306.395652974</v>
       </c>
       <c r="E25" t="n">
-        <v>199.728058374</v>
+        <v>-318.512100011</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>64.5683777734</v>
+        <v>356.79519962</v>
       </c>
       <c r="C26" t="n">
-        <v>23.0625688088</v>
+        <v>-35.2329384557</v>
       </c>
       <c r="D26" t="n">
-        <v>-16.028109153</v>
+        <v>-354.495712507</v>
       </c>
       <c r="E26" t="n">
-        <v>64.5683777734</v>
+        <v>-356.79519962</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>84.0279718279</v>
+        <v>181.441263417</v>
       </c>
       <c r="C27" t="n">
-        <v>70.8349795212</v>
+        <v>-18.1497395969</v>
       </c>
       <c r="D27" t="n">
-        <v>7.14030861049</v>
+        <v>-178.610024058</v>
       </c>
       <c r="E27" t="n">
-        <v>84.0279718279</v>
+        <v>-181.441263417</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>208.979864265</v>
+        <v>38.5323980194</v>
       </c>
       <c r="C28" t="n">
-        <v>209.276517121</v>
+        <v>36.8820120904</v>
       </c>
       <c r="D28" t="n">
-        <v>20.3389086433</v>
+        <v>0.42899393719</v>
       </c>
       <c r="E28" t="n">
-        <v>208.979864265</v>
+        <v>38.5323980194</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>216.432254774</v>
+        <v>45.8612608369</v>
       </c>
       <c r="C29" t="n">
-        <v>213.528727825</v>
+        <v>-0.144813076563</v>
       </c>
       <c r="D29" t="n">
-        <v>21.2354853176</v>
+        <v>-30.0930983245</v>
       </c>
       <c r="E29" t="n">
-        <v>216.432254774</v>
+        <v>-45.8612608369</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>152.828884066</v>
+        <v>326.592569008</v>
       </c>
       <c r="C30" t="n">
-        <v>125.962123335</v>
+        <v>-32.2912538803</v>
       </c>
       <c r="D30" t="n">
-        <v>12.8202462394</v>
+        <v>-317.913667649</v>
       </c>
       <c r="E30" t="n">
-        <v>152.828884066</v>
+        <v>-326.592569008</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>180.680735493</v>
+        <v>538.561363934</v>
       </c>
       <c r="C31" t="n">
-        <v>127.051080465</v>
+        <v>-52.8594248601</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0315931364</v>
+        <v>-526.244185299</v>
       </c>
       <c r="E31" t="n">
-        <v>180.680735493</v>
+        <v>-538.561363934</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>322.825956226</v>
+        <v>537.080634702</v>
       </c>
       <c r="C32" t="n">
-        <v>277.654693964</v>
+        <v>-52.3575182356</v>
       </c>
       <c r="D32" t="n">
-        <v>28.5550630694</v>
+        <v>-514.316626584</v>
       </c>
       <c r="E32" t="n">
-        <v>322.825956226</v>
+        <v>-537.080634702</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>478.645843314</v>
+        <v>446.226706864</v>
       </c>
       <c r="C33" t="n">
-        <v>444.045436315</v>
+        <v>-42.6987666175</v>
       </c>
       <c r="D33" t="n">
-        <v>45.7069063649</v>
+        <v>-411.763709175</v>
       </c>
       <c r="E33" t="n">
-        <v>478.645843314</v>
+        <v>-446.226706864</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>451.966090178</v>
+        <v>378.255887878</v>
       </c>
       <c r="C34" t="n">
-        <v>423.080465073</v>
+        <v>-36.1014591075</v>
       </c>
       <c r="D34" t="n">
-        <v>43.3935375472</v>
+        <v>-346.283889534</v>
       </c>
       <c r="E34" t="n">
-        <v>451.966090178</v>
+        <v>-378.255887878</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>233.381250567</v>
+        <v>285.405534237</v>
       </c>
       <c r="C35" t="n">
-        <v>211.850885553</v>
+        <v>-28.0078820939</v>
       </c>
       <c r="D35" t="n">
-        <v>21.7645614161</v>
+        <v>-271.163025357</v>
       </c>
       <c r="E35" t="n">
-        <v>233.381250567</v>
+        <v>-285.405534237</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>25.0914330077</v>
+        <v>87.9007158921</v>
       </c>
       <c r="C36" t="n">
-        <v>19.7803537354</v>
+        <v>-8.704496993999999</v>
       </c>
       <c r="D36" t="n">
-        <v>1.67189026365</v>
+        <v>-88.9149215775</v>
       </c>
       <c r="E36" t="n">
-        <v>25.0914330077</v>
+        <v>-87.9007158921</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>54.1851965862</v>
+        <v>147.155518721</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.11719575855</v>
+        <v>136.959149804</v>
       </c>
       <c r="D37" t="n">
-        <v>-33.5684460972</v>
+        <v>12.6793863335</v>
       </c>
       <c r="E37" t="n">
-        <v>-54.1851965862</v>
+        <v>147.155518721</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>57.882450688</v>
+        <v>225.068739389</v>
       </c>
       <c r="C38" t="n">
-        <v>6.0847429209</v>
+        <v>214.935707544</v>
       </c>
       <c r="D38" t="n">
-        <v>-26.1180626538</v>
+        <v>20.5047136579</v>
       </c>
       <c r="E38" t="n">
-        <v>-57.882450688</v>
+        <v>225.068739389</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>16.1318930832</v>
+        <v>52.6374993182</v>
       </c>
       <c r="C39" t="n">
-        <v>11.6989044265</v>
+        <v>46.8584992253</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.248113090639</v>
+        <v>3.09198086557</v>
       </c>
       <c r="E39" t="n">
-        <v>16.1318930832</v>
+        <v>52.6374993182</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>134.129151611</v>
+        <v>269.678430174</v>
       </c>
       <c r="C40" t="n">
-        <v>112.558629388</v>
+        <v>-26.7270080773</v>
       </c>
       <c r="D40" t="n">
-        <v>11.4350297672</v>
+        <v>-262.570470191</v>
       </c>
       <c r="E40" t="n">
-        <v>134.129151611</v>
+        <v>-269.678430174</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>339.662285179</v>
+        <v>506.985080754</v>
       </c>
       <c r="C41" t="n">
-        <v>298.457444177</v>
+        <v>-49.4293238564</v>
       </c>
       <c r="D41" t="n">
-        <v>30.8149454856</v>
+        <v>-483.54860839</v>
       </c>
       <c r="E41" t="n">
-        <v>339.662285179</v>
+        <v>-506.985080754</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>497.268601568</v>
+        <v>581.862259817</v>
       </c>
       <c r="C42" t="n">
-        <v>450.688471373</v>
+        <v>-56.0892402817</v>
       </c>
       <c r="D42" t="n">
-        <v>46.5390318713</v>
+        <v>-545.718333888</v>
       </c>
       <c r="E42" t="n">
-        <v>497.268601568</v>
+        <v>-581.862259817</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>502.712891914</v>
+        <v>592.548746948</v>
       </c>
       <c r="C43" t="n">
-        <v>455.082070411</v>
+        <v>-57.087396027</v>
       </c>
       <c r="D43" t="n">
-        <v>47.000127618</v>
+        <v>-555.770007166</v>
       </c>
       <c r="E43" t="n">
-        <v>502.712891914</v>
+        <v>-592.548746948</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>376.026802058</v>
+        <v>565.728947823</v>
       </c>
       <c r="C44" t="n">
-        <v>329.484738631</v>
+        <v>-55.036184459</v>
       </c>
       <c r="D44" t="n">
-        <v>34.0260755856</v>
+        <v>-539.088733498</v>
       </c>
       <c r="E44" t="n">
-        <v>376.026802058</v>
+        <v>-565.728947823</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>218.157204073</v>
+        <v>393.54863772</v>
       </c>
       <c r="C45" t="n">
-        <v>185.838541655</v>
+        <v>-38.6846267815</v>
       </c>
       <c r="D45" t="n">
-        <v>19.0567940104</v>
+        <v>-379.723012707</v>
       </c>
       <c r="E45" t="n">
-        <v>218.157204073</v>
+        <v>-393.54863772</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>108.244276303</v>
+        <v>50.7533985732</v>
       </c>
       <c r="C46" t="n">
-        <v>105.927286312</v>
+        <v>-4.60383517432</v>
       </c>
       <c r="D46" t="n">
-        <v>10.5735795044</v>
+        <v>-47.2852047431</v>
       </c>
       <c r="E46" t="n">
-        <v>108.244276303</v>
+        <v>-50.7533985732</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>78.1374942376</v>
+        <v>336.006104203</v>
       </c>
       <c r="C47" t="n">
-        <v>65.716678034</v>
+        <v>329.312762971</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23297570374</v>
+        <v>31.5480421082</v>
       </c>
       <c r="E47" t="n">
-        <v>78.1374942376</v>
+        <v>336.006104203</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>142.6130224</v>
+        <v>614.5039979220001</v>
       </c>
       <c r="C48" t="n">
-        <v>18.4678030161</v>
+        <v>596.668379889</v>
       </c>
       <c r="D48" t="n">
-        <v>-63.165224818</v>
+        <v>58.4165822169</v>
       </c>
       <c r="E48" t="n">
-        <v>-142.6130224</v>
+        <v>614.5039979220001</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>275.472209142</v>
+        <v>697.691066695</v>
       </c>
       <c r="C49" t="n">
-        <v>-19.2511146286</v>
+        <v>667.9282052250001</v>
       </c>
       <c r="D49" t="n">
-        <v>-199.020616651</v>
+        <v>66.1282455786</v>
       </c>
       <c r="E49" t="n">
-        <v>-275.472209142</v>
+        <v>697.691066695</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>338.5479844</v>
+        <v>623.688202264</v>
       </c>
       <c r="C50" t="n">
-        <v>-28.5978062372</v>
+        <v>589.280478219</v>
       </c>
       <c r="D50" t="n">
-        <v>-277.014182218</v>
+        <v>58.6239043742</v>
       </c>
       <c r="E50" t="n">
-        <v>-338.5479844</v>
+        <v>623.688202264</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>224.849547461</v>
+        <v>499.491525941</v>
       </c>
       <c r="C51" t="n">
-        <v>-17.3239978037</v>
+        <v>474.539065928</v>
       </c>
       <c r="D51" t="n">
-        <v>-171.609818457</v>
+        <v>46.8731176294</v>
       </c>
       <c r="E51" t="n">
-        <v>-224.849547461</v>
+        <v>499.491525941</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>72.24950448129999</v>
+        <v>348.633692387</v>
       </c>
       <c r="C52" t="n">
-        <v>47.3336502879</v>
+        <v>340.374470441</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.86378921211</v>
+        <v>32.7251742477</v>
       </c>
       <c r="E52" t="n">
-        <v>72.24950448129999</v>
+        <v>348.633692387</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>186.408996716</v>
+        <v>104.45517783</v>
       </c>
       <c r="C53" t="n">
-        <v>190.176019873</v>
+        <v>107.112961505</v>
       </c>
       <c r="D53" t="n">
-        <v>17.9629658207</v>
+        <v>8.557922936220001</v>
       </c>
       <c r="E53" t="n">
-        <v>186.408996716</v>
+        <v>104.45517783</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>241.247256698</v>
+        <v>264.913119962</v>
       </c>
       <c r="C54" t="n">
-        <v>221.701668814</v>
+        <v>-25.9531624636</v>
       </c>
       <c r="D54" t="n">
-        <v>22.7836217162</v>
+        <v>-250.221239959</v>
       </c>
       <c r="E54" t="n">
-        <v>241.247256698</v>
+        <v>-264.913119962</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>288.333943049</v>
+        <v>598.301659531</v>
       </c>
       <c r="C55" t="n">
-        <v>235.241461363</v>
+        <v>-58.4738451936</v>
       </c>
       <c r="D55" t="n">
-        <v>23.8872493605</v>
+        <v>-577.791371613</v>
       </c>
       <c r="E55" t="n">
-        <v>288.333943049</v>
+        <v>-598.301659531</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>389.923748599</v>
+        <v>726.806128456</v>
       </c>
       <c r="C56" t="n">
-        <v>326.426539952</v>
+        <v>-70.73923730600001</v>
       </c>
       <c r="D56" t="n">
-        <v>33.4981940277</v>
+        <v>-697.9881611979999</v>
       </c>
       <c r="E56" t="n">
-        <v>389.923748599</v>
+        <v>-726.806128456</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>495.658813855</v>
+        <v>693.656601031</v>
       </c>
       <c r="C57" t="n">
-        <v>438.422312954</v>
+        <v>-67.1095129827</v>
       </c>
       <c r="D57" t="n">
-        <v>45.3422872707</v>
+        <v>-657.1243844540001</v>
       </c>
       <c r="E57" t="n">
-        <v>495.658813855</v>
+        <v>-693.656601031</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>496.081058683</v>
+        <v>660.525961791</v>
       </c>
       <c r="C58" t="n">
-        <v>442.069651463</v>
+        <v>-63.8530057094</v>
       </c>
       <c r="D58" t="n">
-        <v>45.7031723542</v>
+        <v>-624.146825699</v>
       </c>
       <c r="E58" t="n">
-        <v>496.081058683</v>
+        <v>-660.525961791</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>383.820564107</v>
+        <v>623.9441550940001</v>
       </c>
       <c r="C59" t="n">
-        <v>331.423482065</v>
+        <v>-60.7049506406</v>
       </c>
       <c r="D59" t="n">
-        <v>34.1959145219</v>
+        <v>-596.3045904860001</v>
       </c>
       <c r="E59" t="n">
-        <v>383.820564107</v>
+        <v>-623.9441550940001</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>256.089131913</v>
+        <v>463.054621566</v>
       </c>
       <c r="C60" t="n">
-        <v>217.27930095</v>
+        <v>-45.3588223597</v>
       </c>
       <c r="D60" t="n">
-        <v>22.2987931767</v>
+        <v>-445.87545437</v>
       </c>
       <c r="E60" t="n">
-        <v>256.089131913</v>
+        <v>-463.054621566</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>171.843418513</v>
+        <v>142.459948285</v>
       </c>
       <c r="C61" t="n">
-        <v>162.479831426</v>
+        <v>-14.0454277688</v>
       </c>
       <c r="D61" t="n">
-        <v>16.5398361178</v>
+        <v>-133.759327646</v>
       </c>
       <c r="E61" t="n">
-        <v>171.843418513</v>
+        <v>-142.459948285</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>108.943531004</v>
+        <v>235.184001044</v>
       </c>
       <c r="C62" t="n">
-        <v>112.57667785</v>
+        <v>232.995979232</v>
       </c>
       <c r="D62" t="n">
-        <v>8.42856173983</v>
+        <v>21.7333663666</v>
       </c>
       <c r="E62" t="n">
-        <v>108.943531004</v>
+        <v>235.184001044</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>109.710667313</v>
+        <v>500.116029073</v>
       </c>
       <c r="C63" t="n">
-        <v>21.3796195723</v>
+        <v>485.73475186</v>
       </c>
       <c r="D63" t="n">
-        <v>-40.8787896526</v>
+        <v>47.3682148703</v>
       </c>
       <c r="E63" t="n">
-        <v>-109.710667313</v>
+        <v>500.116029073</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>243.454158607</v>
+        <v>551.347312066</v>
       </c>
       <c r="C64" t="n">
-        <v>-18.5316175631</v>
+        <v>524.71760407</v>
       </c>
       <c r="D64" t="n">
-        <v>-184.647950784</v>
+        <v>51.8997221343</v>
       </c>
       <c r="E64" t="n">
-        <v>-243.454158607</v>
+        <v>551.347312066</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>285.182087368</v>
+        <v>389.362563658</v>
       </c>
       <c r="C65" t="n">
-        <v>-25.8284749523</v>
+        <v>359.558575328</v>
       </c>
       <c r="D65" t="n">
-        <v>-247.935771243</v>
+        <v>35.6241400252</v>
       </c>
       <c r="E65" t="n">
-        <v>-285.182087368</v>
+        <v>389.362563658</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>112.859335464</v>
+        <v>125.816969136</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.3776318823</v>
+        <v>109.799321296</v>
       </c>
       <c r="D66" t="n">
-        <v>-99.0947441502</v>
+        <v>9.918185757890001</v>
       </c>
       <c r="E66" t="n">
-        <v>-112.859335464</v>
+        <v>125.816969136</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>208.041499845</v>
+        <v>129.47747516</v>
       </c>
       <c r="C67" t="n">
-        <v>199.448342216</v>
+        <v>-12.4669104542</v>
       </c>
       <c r="D67" t="n">
-        <v>20.2164641976</v>
+        <v>-117.780482682</v>
       </c>
       <c r="E67" t="n">
-        <v>208.041499845</v>
+        <v>-129.47747516</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>463.074445428</v>
+        <v>378.494909774</v>
       </c>
       <c r="C68" t="n">
-        <v>433.951791093</v>
+        <v>-35.9941923317</v>
       </c>
       <c r="D68" t="n">
-        <v>44.472918369</v>
+        <v>-345.268741103</v>
       </c>
       <c r="E68" t="n">
-        <v>463.074445428</v>
+        <v>-378.494909774</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>516.725265722</v>
+        <v>608.3888202970001</v>
       </c>
       <c r="C69" t="n">
-        <v>467.817680893</v>
+        <v>-58.612973969</v>
       </c>
       <c r="D69" t="n">
-        <v>48.3121584937</v>
+        <v>-570.570597382</v>
       </c>
       <c r="E69" t="n">
-        <v>516.725265722</v>
+        <v>-608.3888202970001</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>424.971718494</v>
+        <v>685.971955529</v>
       </c>
       <c r="C70" t="n">
-        <v>367.031935967</v>
+        <v>-66.6343246079</v>
       </c>
       <c r="D70" t="n">
-        <v>37.8776050759</v>
+        <v>-654.836915167</v>
       </c>
       <c r="E70" t="n">
-        <v>424.971718494</v>
+        <v>-685.971955529</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>305.903393674</v>
+        <v>564.2526126499999</v>
       </c>
       <c r="C71" t="n">
-        <v>257.586864262</v>
+        <v>-55.1043282034</v>
       </c>
       <c r="D71" t="n">
-        <v>26.4262161155</v>
+        <v>-542.7368646260001</v>
       </c>
       <c r="E71" t="n">
-        <v>305.903393674</v>
+        <v>-564.2526126499999</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>218.27566258</v>
+        <v>363.399850364</v>
       </c>
       <c r="C72" t="n">
-        <v>189.113018652</v>
+        <v>-35.7169086242</v>
       </c>
       <c r="D72" t="n">
-        <v>19.4504966594</v>
+        <v>-349.720990013</v>
       </c>
       <c r="E72" t="n">
-        <v>218.27566258</v>
+        <v>-363.399850364</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>166.82066166</v>
+        <v>190.361804108</v>
       </c>
       <c r="C73" t="n">
-        <v>153.638178701</v>
+        <v>-18.8644802109</v>
       </c>
       <c r="D73" t="n">
-        <v>15.7635837958</v>
+        <v>-181.762653996</v>
       </c>
       <c r="E73" t="n">
-        <v>166.82066166</v>
+        <v>-190.361804108</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>132.738514504</v>
+        <v>100.424812569</v>
       </c>
       <c r="C74" t="n">
-        <v>126.882946845</v>
+        <v>-9.93002406516</v>
       </c>
       <c r="D74" t="n">
-        <v>12.863137851</v>
+        <v>-95.00625525149999</v>
       </c>
       <c r="E74" t="n">
-        <v>132.738514504</v>
+        <v>-100.424812569</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>110.779674449</v>
+        <v>98.5552461727</v>
       </c>
       <c r="C75" t="n">
-        <v>105.200395998</v>
+        <v>-9.82327735578</v>
       </c>
       <c r="D75" t="n">
-        <v>10.6712430542</v>
+        <v>-94.72591235589999</v>
       </c>
       <c r="E75" t="n">
-        <v>110.779674449</v>
+        <v>-98.5552461727</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>123.44518898</v>
+        <v>116.723004517</v>
       </c>
       <c r="C76" t="n">
-        <v>116.373767806</v>
+        <v>-11.6408227465</v>
       </c>
       <c r="D76" t="n">
-        <v>11.8422961432</v>
+        <v>-111.822551314</v>
       </c>
       <c r="E76" t="n">
-        <v>123.44518898</v>
+        <v>-116.723004517</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>168.403312358</v>
+        <v>65.0523615151</v>
       </c>
       <c r="C77" t="n">
-        <v>164.563994157</v>
+        <v>-5.61422944677</v>
       </c>
       <c r="D77" t="n">
-        <v>16.4619462132</v>
+        <v>-56.3583792548</v>
       </c>
       <c r="E77" t="n">
-        <v>168.403312358</v>
+        <v>-65.0523615151</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>185.802046902</v>
+        <v>82.19571466230001</v>
       </c>
       <c r="C78" t="n">
-        <v>188.72459238</v>
+        <v>84.59039879309999</v>
       </c>
       <c r="D78" t="n">
-        <v>17.9926569379</v>
+        <v>6.21039937911</v>
       </c>
       <c r="E78" t="n">
-        <v>185.802046902</v>
+        <v>82.19571466230001</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>110.561201788</v>
+        <v>176.321169419</v>
       </c>
       <c r="C79" t="n">
-        <v>114.981248543</v>
+        <v>175.243253326</v>
       </c>
       <c r="D79" t="n">
-        <v>9.5265267477</v>
+        <v>15.9697568738</v>
       </c>
       <c r="E79" t="n">
-        <v>110.561201788</v>
+        <v>176.321169419</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>42.498406992</v>
+        <v>119.199795935</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.05684622472</v>
+        <v>110.120051623</v>
       </c>
       <c r="D80" t="n">
-        <v>-24.9734016428</v>
+        <v>9.935028429200001</v>
       </c>
       <c r="E80" t="n">
-        <v>-42.498406992</v>
+        <v>119.199795935</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>70.4426849938</v>
+        <v>42.5531088643</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.86701934027</v>
+        <v>-1.74738040784</v>
       </c>
       <c r="D81" t="n">
-        <v>-69.2239217827</v>
+        <v>-42.0270331969</v>
       </c>
       <c r="E81" t="n">
-        <v>-70.4426849938</v>
+        <v>-42.5531088643</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>75.66592380909999</v>
+        <v>133.167344598</v>
       </c>
       <c r="C82" t="n">
-        <v>67.1260327846</v>
+        <v>-13.3641539677</v>
       </c>
       <c r="D82" t="n">
-        <v>6.80980993121</v>
+        <v>-131.210810705</v>
       </c>
       <c r="E82" t="n">
-        <v>75.66592380909999</v>
+        <v>-133.167344598</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>290.735332009</v>
+        <v>175.353703069</v>
       </c>
       <c r="C83" t="n">
-        <v>278.164699157</v>
+        <v>-16.5530781244</v>
       </c>
       <c r="D83" t="n">
-        <v>28.2391434235</v>
+        <v>-156.377939749</v>
       </c>
       <c r="E83" t="n">
-        <v>290.735332009</v>
+        <v>-175.353703069</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>388.252824362</v>
+        <v>226.308635491</v>
       </c>
       <c r="C84" t="n">
-        <v>371.266747562</v>
+        <v>-20.9548474813</v>
       </c>
       <c r="D84" t="n">
-        <v>37.718080642</v>
+        <v>-198.569893951</v>
       </c>
       <c r="E84" t="n">
-        <v>388.252824362</v>
+        <v>-226.308635491</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>304.371966283</v>
+        <v>304.539973998</v>
       </c>
       <c r="C85" t="n">
-        <v>281.565542279</v>
+        <v>-29.5881106759</v>
       </c>
       <c r="D85" t="n">
-        <v>28.9373300253</v>
+        <v>-284.737435291</v>
       </c>
       <c r="E85" t="n">
-        <v>304.371966283</v>
+        <v>-304.539973998</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>165.340127086</v>
+        <v>387.841654054</v>
       </c>
       <c r="C86" t="n">
-        <v>131.195135236</v>
+        <v>-38.2092046214</v>
       </c>
       <c r="D86" t="n">
-        <v>13.0723592645</v>
+        <v>-377.648288094</v>
       </c>
       <c r="E86" t="n">
-        <v>165.340127086</v>
+        <v>-387.841654054</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>134.208336195</v>
+        <v>445.960973935</v>
       </c>
       <c r="C87" t="n">
-        <v>90.2198376252</v>
+        <v>-43.8893042618</v>
       </c>
       <c r="D87" t="n">
-        <v>5.297155638</v>
+        <v>-437.51078073</v>
       </c>
       <c r="E87" t="n">
-        <v>134.208336195</v>
+        <v>-445.960973935</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>238.304536068</v>
+        <v>468.184476731</v>
       </c>
       <c r="C88" t="n">
-        <v>198.26190721</v>
+        <v>-45.9007253985</v>
       </c>
       <c r="D88" t="n">
-        <v>20.2350000551</v>
+        <v>-452.243908484</v>
       </c>
       <c r="E88" t="n">
-        <v>238.304536068</v>
+        <v>-468.184476731</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>393.803625132</v>
+        <v>454.949112827</v>
       </c>
       <c r="C89" t="n">
-        <v>358.090289648</v>
+        <v>-44.0505501791</v>
       </c>
       <c r="D89" t="n">
-        <v>36.9432381302</v>
+        <v>-427.492349645</v>
       </c>
       <c r="E89" t="n">
-        <v>393.803625132</v>
+        <v>-454.949112827</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>444.360547824</v>
+        <v>457.691164748</v>
       </c>
       <c r="C90" t="n">
-        <v>408.636421914</v>
+        <v>-44.0541535481</v>
       </c>
       <c r="D90" t="n">
-        <v>42.0969510661</v>
+        <v>-426.149284618</v>
       </c>
       <c r="E90" t="n">
-        <v>444.360547824</v>
+        <v>-457.691164748</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>350.590514153</v>
+        <v>500.350206287</v>
       </c>
       <c r="C91" t="n">
-        <v>310.121057916</v>
+        <v>-48.7068870216</v>
       </c>
       <c r="D91" t="n">
-        <v>32.0305709969</v>
+        <v>-475.988274185</v>
       </c>
       <c r="E91" t="n">
-        <v>350.590514153</v>
+        <v>-500.350206287</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>229.592852057</v>
+        <v>493.754108644</v>
       </c>
       <c r="C92" t="n">
-        <v>186.055527405</v>
+        <v>-48.4112431046</v>
       </c>
       <c r="D92" t="n">
-        <v>18.8057987422</v>
+        <v>-478.208965335</v>
       </c>
       <c r="E92" t="n">
-        <v>229.592852057</v>
+        <v>-493.754108644</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>186.617817657</v>
+        <v>401.357513453</v>
       </c>
       <c r="C93" t="n">
-        <v>152.062073876</v>
+        <v>-39.4919867275</v>
       </c>
       <c r="D93" t="n">
-        <v>15.3689535489</v>
+        <v>-389.591088237</v>
       </c>
       <c r="E93" t="n">
-        <v>186.617817657</v>
+        <v>-401.357513453</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>219.303964316</v>
+        <v>293.678574374</v>
       </c>
       <c r="C94" t="n">
-        <v>197.08747071</v>
+        <v>-28.8808304954</v>
       </c>
       <c r="D94" t="n">
-        <v>20.3057844959</v>
+        <v>-280.472379371</v>
       </c>
       <c r="E94" t="n">
-        <v>219.303964316</v>
+        <v>-293.678574374</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>255.303396586</v>
+        <v>240.985942313</v>
       </c>
       <c r="C95" t="n">
-        <v>237.848141298</v>
+        <v>-23.5104295387</v>
       </c>
       <c r="D95" t="n">
-        <v>24.3914233758</v>
+        <v>-225.323128433</v>
       </c>
       <c r="E95" t="n">
-        <v>255.303396586</v>
+        <v>-240.985942313</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>240.308563516</v>
+        <v>223.577798831</v>
       </c>
       <c r="C96" t="n">
-        <v>224.281527906</v>
+        <v>-21.8523905639</v>
       </c>
       <c r="D96" t="n">
-        <v>22.9746371884</v>
+        <v>-209.166248868</v>
       </c>
       <c r="E96" t="n">
-        <v>240.308563516</v>
+        <v>-223.577798831</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>187.081790375</v>
+        <v>195.070874819</v>
       </c>
       <c r="C97" t="n">
-        <v>173.49621531</v>
+        <v>-19.2563848988</v>
       </c>
       <c r="D97" t="n">
-        <v>17.7874779023</v>
+        <v>-184.931845102</v>
       </c>
       <c r="E97" t="n">
-        <v>187.081790375</v>
+        <v>-195.070874819</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>137.208179962</v>
+        <v>151.877337306</v>
       </c>
       <c r="C98" t="n">
-        <v>127.277202698</v>
+        <v>-15.1344224755</v>
       </c>
       <c r="D98" t="n">
-        <v>13.0159596283</v>
+        <v>-145.730988023</v>
       </c>
       <c r="E98" t="n">
-        <v>137.208179962</v>
+        <v>-151.877337306</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>120.075159666</v>
+        <v>75.5377004075</v>
       </c>
       <c r="C99" t="n">
-        <v>116.037630103</v>
+        <v>-7.35584997445</v>
       </c>
       <c r="D99" t="n">
-        <v>11.682508698</v>
+        <v>-71.1692659393</v>
       </c>
       <c r="E99" t="n">
-        <v>120.075159666</v>
+        <v>-75.5377004075</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>120.320488333</v>
+        <v>48.5036028784</v>
       </c>
       <c r="C100" t="n">
-        <v>118.104819502</v>
+        <v>-4.17757236269</v>
       </c>
       <c r="D100" t="n">
-        <v>11.7809672824</v>
+        <v>-44.1648974722</v>
       </c>
       <c r="E100" t="n">
-        <v>120.320488333</v>
+        <v>-48.5036028784</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>122.574279442</v>
+        <v>118.686047556</v>
       </c>
       <c r="C101" t="n">
-        <v>115.360995444</v>
+        <v>-11.8438307496</v>
       </c>
       <c r="D101" t="n">
-        <v>11.7429493998</v>
+        <v>-113.844305562</v>
       </c>
       <c r="E101" t="n">
-        <v>122.574279442</v>
+        <v>-118.686047556</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>158.073761765</v>
+        <v>154.203772874</v>
       </c>
       <c r="C102" t="n">
-        <v>147.862881037</v>
+        <v>-15.2947245566</v>
       </c>
       <c r="D102" t="n">
-        <v>15.1024649714</v>
+        <v>-146.488622279</v>
       </c>
       <c r="E102" t="n">
-        <v>158.073761765</v>
+        <v>-154.203772874</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>205.461345271</v>
+        <v>125.151639868</v>
       </c>
       <c r="C103" t="n">
-        <v>197.217392403</v>
+        <v>-12.0305680202</v>
       </c>
       <c r="D103" t="n">
-        <v>19.9784808342</v>
+        <v>-113.686825771</v>
       </c>
       <c r="E103" t="n">
-        <v>205.461345271</v>
+        <v>-125.151639868</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>202.415009026</v>
+        <v>164.787387672</v>
       </c>
       <c r="C104" t="n">
-        <v>191.22911272</v>
+        <v>-16.1422730384</v>
       </c>
       <c r="D104" t="n">
-        <v>19.5102625879</v>
+        <v>-153.592028554</v>
       </c>
       <c r="E104" t="n">
-        <v>202.415009026</v>
+        <v>-164.787387672</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>174.238692444</v>
+        <v>263.144477446</v>
       </c>
       <c r="C105" t="n">
-        <v>154.375759727</v>
+        <v>-26.0186337635</v>
       </c>
       <c r="D105" t="n">
-        <v>15.8693583186</v>
+        <v>-253.416000658</v>
       </c>
       <c r="E105" t="n">
-        <v>174.238692444</v>
+        <v>-263.144477446</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>187.199300121</v>
+        <v>229.70816918</v>
       </c>
       <c r="C106" t="n">
-        <v>170.559031055</v>
+        <v>-22.6911195916</v>
       </c>
       <c r="D106" t="n">
-        <v>17.52232481</v>
+        <v>-219.301573747</v>
       </c>
       <c r="E106" t="n">
-        <v>187.199300121</v>
+        <v>-229.70816918</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>217.446213961</v>
+        <v>53.8335552455</v>
       </c>
       <c r="C107" t="n">
-        <v>213.962258805</v>
+        <v>-2.19456569318</v>
       </c>
       <c r="D107" t="n">
-        <v>21.3018113399</v>
+        <v>-39.0360053283</v>
       </c>
       <c r="E107" t="n">
-        <v>217.446213961</v>
+        <v>-53.8335552455</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>163.030347057</v>
+        <v>65.03884409840001</v>
       </c>
       <c r="C108" t="n">
-        <v>165.520555802</v>
+        <v>66.77244715729999</v>
       </c>
       <c r="D108" t="n">
-        <v>15.8120696718</v>
+        <v>4.52475593359</v>
       </c>
       <c r="E108" t="n">
-        <v>163.030347057</v>
+        <v>65.03884409840001</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>31.8169259174</v>
+        <v>35.9875557063</v>
       </c>
       <c r="C109" t="n">
-        <v>31.4646503349</v>
+        <v>-2.7486890415</v>
       </c>
       <c r="D109" t="n">
-        <v>3.05929922386</v>
+        <v>-36.8328866201</v>
       </c>
       <c r="E109" t="n">
-        <v>31.8169259174</v>
+        <v>-35.9875557063</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>24.5555688857</v>
+        <v>162.104935283</v>
       </c>
       <c r="C110" t="n">
-        <v>2.43386508603</v>
+        <v>-16.0897418313</v>
       </c>
       <c r="D110" t="n">
-        <v>-15.5555448985</v>
+        <v>-163.697087988</v>
       </c>
       <c r="E110" t="n">
-        <v>-24.5555688857</v>
+        <v>-162.104935283</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>131.122185637</v>
+        <v>136.458907066</v>
       </c>
       <c r="C111" t="n">
-        <v>122.448308157</v>
+        <v>-13.6096786271</v>
       </c>
       <c r="D111" t="n">
-        <v>12.4977966216</v>
+        <v>-130.851430098</v>
       </c>
       <c r="E111" t="n">
-        <v>131.122185637</v>
+        <v>-136.458907066</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>286.959881327</v>
+        <v>71.21929117249999</v>
       </c>
       <c r="C112" t="n">
-        <v>281.802208449</v>
+        <v>-2.29733625271</v>
       </c>
       <c r="D112" t="n">
-        <v>28.1153549116</v>
+        <v>-48.774441891</v>
       </c>
       <c r="E112" t="n">
-        <v>286.959881327</v>
+        <v>-71.21929117249999</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>284.894485989</v>
+        <v>128.657904295</v>
       </c>
       <c r="C113" t="n">
-        <v>275.734805984</v>
+        <v>-11.4975520885</v>
       </c>
       <c r="D113" t="n">
-        <v>27.8142772634</v>
+        <v>-109.383546304</v>
       </c>
       <c r="E113" t="n">
-        <v>284.894485989</v>
+        <v>-128.657904295</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>169.093803728</v>
+        <v>277.150407455</v>
       </c>
       <c r="C114" t="n">
-        <v>147.71821483</v>
+        <v>-27.4030035096</v>
       </c>
       <c r="D114" t="n">
-        <v>15.1637510976</v>
+        <v>-267.645812581</v>
       </c>
       <c r="E114" t="n">
-        <v>169.093803728</v>
+        <v>-277.150407455</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>119.104885727</v>
+        <v>342.543164172</v>
       </c>
       <c r="C115" t="n">
-        <v>87.2230992627</v>
+        <v>-33.8489142586</v>
       </c>
       <c r="D115" t="n">
-        <v>8.11264781389</v>
+        <v>-335.876513582</v>
       </c>
       <c r="E115" t="n">
-        <v>119.104885727</v>
+        <v>-342.543164172</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>184.049689862</v>
+        <v>308.329029053</v>
       </c>
       <c r="C116" t="n">
-        <v>159.832679275</v>
+        <v>-30.4183679838</v>
       </c>
       <c r="D116" t="n">
-        <v>16.4197343349</v>
+        <v>-297.529544871</v>
       </c>
       <c r="E116" t="n">
-        <v>184.049689862</v>
+        <v>-308.329029053</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>291.340119739</v>
+        <v>249.148087793</v>
       </c>
       <c r="C117" t="n">
-        <v>273.111834748</v>
+        <v>-24.1199858813</v>
       </c>
       <c r="D117" t="n">
-        <v>27.9607445339</v>
+        <v>-230.491504144</v>
       </c>
       <c r="E117" t="n">
-        <v>291.340119739</v>
+        <v>-249.148087793</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>313.961522207</v>
+        <v>226.590982885</v>
       </c>
       <c r="C118" t="n">
-        <v>297.42957526</v>
+        <v>-21.6721958019</v>
       </c>
       <c r="D118" t="n">
-        <v>30.3436169806</v>
+        <v>-205.929702252</v>
       </c>
       <c r="E118" t="n">
-        <v>313.961522207</v>
+        <v>-226.590982885</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>226.344578035</v>
+        <v>311.001091591</v>
       </c>
       <c r="C119" t="n">
-        <v>202.597386476</v>
+        <v>-30.5593299132</v>
       </c>
       <c r="D119" t="n">
-        <v>20.8873813418</v>
+        <v>-297.166595444</v>
       </c>
       <c r="E119" t="n">
-        <v>226.344578035</v>
+        <v>-311.001091591</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>159.759745793</v>
+        <v>462.409876716</v>
       </c>
       <c r="C120" t="n">
-        <v>114.859610665</v>
+        <v>-45.469036012</v>
       </c>
       <c r="D120" t="n">
-        <v>10.5755818665</v>
+        <v>-452.018215391</v>
       </c>
       <c r="E120" t="n">
-        <v>159.759745793</v>
+        <v>-462.409876716</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>219.031142528</v>
+        <v>520.796079105</v>
       </c>
       <c r="C121" t="n">
-        <v>171.41204943</v>
+        <v>-51.0636163884</v>
       </c>
       <c r="D121" t="n">
-        <v>17.0282040155</v>
+        <v>-505.782155934</v>
       </c>
       <c r="E121" t="n">
-        <v>219.031142528</v>
+        <v>-520.796079105</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>366.303464513</v>
+        <v>450.557798063</v>
       </c>
       <c r="C122" t="n">
-        <v>330.796425922</v>
+        <v>-43.7445054661</v>
       </c>
       <c r="D122" t="n">
-        <v>34.1470370075</v>
+        <v>-425.278367341</v>
       </c>
       <c r="E122" t="n">
-        <v>366.303464513</v>
+        <v>-450.557798063</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>436.987093928</v>
+        <v>326.164386019</v>
       </c>
       <c r="C123" t="n">
-        <v>412.107883771</v>
+        <v>-30.8754188044</v>
       </c>
       <c r="D123" t="n">
-        <v>42.132467835</v>
+        <v>-294.967585717</v>
       </c>
       <c r="E123" t="n">
-        <v>436.987093928</v>
+        <v>-326.164386019</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>319.224351829</v>
+        <v>213.199238215</v>
       </c>
       <c r="C124" t="n">
-        <v>303.669729772</v>
+        <v>-20.2484271121</v>
       </c>
       <c r="D124" t="n">
-        <v>30.9240532312</v>
+        <v>-191.950336963</v>
       </c>
       <c r="E124" t="n">
-        <v>319.224351829</v>
+        <v>-213.199238215</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>92.4061327222</v>
+        <v>159.455080699</v>
       </c>
       <c r="C125" t="n">
-        <v>81.5539477642</v>
+        <v>-15.9645360789</v>
       </c>
       <c r="D125" t="n">
-        <v>8.31270134321</v>
+        <v>-156.209045666</v>
       </c>
       <c r="E125" t="n">
-        <v>92.4061327222</v>
+        <v>-159.455080699</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>50.6006048706</v>
+        <v>102.256768957</v>
       </c>
       <c r="C126" t="n">
-        <v>-4.5205045998</v>
+        <v>-9.725208024120001</v>
       </c>
       <c r="D126" t="n">
-        <v>-52.2247061597</v>
+        <v>-105.580199555</v>
       </c>
       <c r="E126" t="n">
-        <v>-50.6006048706</v>
+        <v>-102.256768957</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>16.0591395745</v>
+        <v>51.2900116782</v>
       </c>
       <c r="C127" t="n">
-        <v>11.5627782056</v>
+        <v>45.2594246161</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.265422452949</v>
+        <v>2.8107490549</v>
       </c>
       <c r="E127" t="n">
-        <v>16.0591395745</v>
+        <v>51.2900116782</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>138.391819041</v>
+        <v>175.576506803</v>
       </c>
       <c r="C128" t="n">
-        <v>143.674610782</v>
+        <v>175.911574335</v>
       </c>
       <c r="D128" t="n">
-        <v>12.5342459748</v>
+        <v>15.8599292538</v>
       </c>
       <c r="E128" t="n">
-        <v>138.391819041</v>
+        <v>175.576506803</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>162.576184459</v>
+        <v>104.195297857</v>
       </c>
       <c r="C129" t="n">
-        <v>166.472410367</v>
+        <v>106.184791167</v>
       </c>
       <c r="D129" t="n">
-        <v>15.576262939</v>
+        <v>8.65617110811</v>
       </c>
       <c r="E129" t="n">
-        <v>162.576184459</v>
+        <v>104.195297857</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>101.470271271</v>
+        <v>158.522728784</v>
       </c>
       <c r="C130" t="n">
-        <v>90.8203094646</v>
+        <v>-15.8649073522</v>
       </c>
       <c r="D130" t="n">
-        <v>9.28295916461</v>
+        <v>-154.708496603</v>
       </c>
       <c r="E130" t="n">
-        <v>101.470271271</v>
+        <v>-158.522728784</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>132.103346833</v>
+        <v>436.707536721</v>
       </c>
       <c r="C131" t="n">
-        <v>89.1240847804</v>
+        <v>-42.9932496935</v>
       </c>
       <c r="D131" t="n">
-        <v>5.41077380885</v>
+        <v>-428.46394166</v>
       </c>
       <c r="E131" t="n">
-        <v>132.103346833</v>
+        <v>-436.707536721</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>294.851251414</v>
+        <v>586.345765691</v>
       </c>
       <c r="C132" t="n">
-        <v>243.499989276</v>
+        <v>-57.288382905</v>
       </c>
       <c r="D132" t="n">
-        <v>24.8365057031</v>
+        <v>-565.442669331</v>
       </c>
       <c r="E132" t="n">
-        <v>294.851251414</v>
+        <v>-586.345765691</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>499.059746563</v>
+        <v>561.116782239</v>
       </c>
       <c r="C133" t="n">
-        <v>454.353382615</v>
+        <v>-54.0262415672</v>
       </c>
       <c r="D133" t="n">
-        <v>46.8869883481</v>
+        <v>-524.871814802</v>
       </c>
       <c r="E133" t="n">
-        <v>499.059746563</v>
+        <v>-561.116782239</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>540.256526368</v>
+        <v>492.293010976</v>
       </c>
       <c r="C134" t="n">
-        <v>501.705012545</v>
+        <v>-46.9198486994</v>
       </c>
       <c r="D134" t="n">
-        <v>51.5856162265</v>
+        <v>-452.687177578</v>
       </c>
       <c r="E134" t="n">
-        <v>540.256526368</v>
+        <v>-492.293010976</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>360.055687439</v>
+        <v>495.2551837</v>
       </c>
       <c r="C135" t="n">
-        <v>320.233627105</v>
+        <v>-48.1706440987</v>
       </c>
       <c r="D135" t="n">
-        <v>33.0792633351</v>
+        <v>-470.213181399</v>
       </c>
       <c r="E135" t="n">
-        <v>360.055687439</v>
+        <v>-495.2551837</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>152.234272157</v>
+        <v>428.186262274</v>
       </c>
       <c r="C136" t="n">
-        <v>111.410239238</v>
+        <v>-42.1515587399</v>
       </c>
       <c r="D136" t="n">
-        <v>10.4335258225</v>
+        <v>-418.552509662</v>
       </c>
       <c r="E136" t="n">
-        <v>152.234272157</v>
+        <v>-428.186262274</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>71.72422958529999</v>
+        <v>98.2715134906</v>
       </c>
       <c r="C137" t="n">
-        <v>66.3205952818</v>
+        <v>-9.854072584640001</v>
       </c>
       <c r="D137" t="n">
-        <v>6.71700408309</v>
+        <v>-96.91750392589999</v>
       </c>
       <c r="E137" t="n">
-        <v>71.72422958529999</v>
+        <v>-98.2715134906</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>119.297684358</v>
+        <v>411.444539381</v>
       </c>
       <c r="C138" t="n">
-        <v>115.803948926</v>
+        <v>406.311717587</v>
       </c>
       <c r="D138" t="n">
-        <v>5.49003172446</v>
+        <v>38.8795478349</v>
       </c>
       <c r="E138" t="n">
-        <v>119.297684358</v>
+        <v>411.444539381</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>150.971372357</v>
+        <v>768.744612696</v>
       </c>
       <c r="C139" t="n">
-        <v>53.7090922651</v>
+        <v>751.963173106</v>
       </c>
       <c r="D139" t="n">
-        <v>-34.6169059504</v>
+        <v>73.4672684204</v>
       </c>
       <c r="E139" t="n">
-        <v>150.971372357</v>
+        <v>768.744612696</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>322.972310542</v>
+        <v>775.346797798</v>
       </c>
       <c r="C140" t="n">
-        <v>-23.7676131069</v>
+        <v>741.494510883</v>
       </c>
       <c r="D140" t="n">
-        <v>-240.376083054</v>
+        <v>73.5692037431</v>
       </c>
       <c r="E140" t="n">
-        <v>-322.972310542</v>
+        <v>775.346797798</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>451.712925435</v>
+        <v>520.453535503</v>
       </c>
       <c r="C141" t="n">
-        <v>-41.9918011556</v>
+        <v>476.481376588</v>
       </c>
       <c r="D141" t="n">
-        <v>-404.261872261</v>
+        <v>47.6590649793</v>
       </c>
       <c r="E141" t="n">
-        <v>-451.712925435</v>
+        <v>520.453535503</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>259.323344509</v>
+        <v>172.572357328</v>
       </c>
       <c r="C142" t="n">
-        <v>-24.944432001</v>
+        <v>141.974286149</v>
       </c>
       <c r="D142" t="n">
-        <v>-242.293375137</v>
+        <v>13.1243530702</v>
       </c>
       <c r="E142" t="n">
-        <v>-259.323344509</v>
+        <v>172.572357328</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>197.031707299</v>
+        <v>208.852674823</v>
       </c>
       <c r="C143" t="n">
-        <v>182.288978616</v>
+        <v>-20.5860341116</v>
       </c>
       <c r="D143" t="n">
-        <v>18.7040473943</v>
+        <v>-197.880574832</v>
       </c>
       <c r="E143" t="n">
-        <v>197.031707299</v>
+        <v>-208.852674823</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>618.446229006</v>
+        <v>622.769272248</v>
       </c>
       <c r="C144" t="n">
-        <v>568.822363524</v>
+        <v>-59.4770345883</v>
       </c>
       <c r="D144" t="n">
-        <v>58.6253372206</v>
+        <v>-576.622302404</v>
       </c>
       <c r="E144" t="n">
-        <v>618.446229006</v>
+        <v>-622.769272248</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>775.332931291</v>
+        <v>1049.23469109</v>
       </c>
       <c r="C145" t="n">
-        <v>687.457619994</v>
+        <v>-100.874847643</v>
       </c>
       <c r="D145" t="n">
-        <v>71.1623191166</v>
+        <v>-989.27638505</v>
       </c>
       <c r="E145" t="n">
-        <v>775.332931291</v>
+        <v>-1049.23469109</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>709.993267427</v>
+        <v>1357.09124896</v>
       </c>
       <c r="C146" t="n">
-        <v>587.173055567</v>
+        <v>-131.304716987</v>
       </c>
       <c r="D146" t="n">
-        <v>60.1965278726</v>
+        <v>-1300.35716347</v>
       </c>
       <c r="E146" t="n">
-        <v>709.993267427</v>
+        <v>-1357.09124896</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>608.662475225</v>
+        <v>1322.78407931</v>
       </c>
       <c r="C147" t="n">
-        <v>484.495615773</v>
+        <v>-128.255925876</v>
       </c>
       <c r="D147" t="n">
-        <v>48.9614707891</v>
+        <v>-1273.76039328</v>
       </c>
       <c r="E147" t="n">
-        <v>608.662475225</v>
+        <v>-1322.78407931</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>541.924216379</v>
+        <v>832.074414942</v>
       </c>
       <c r="C148" t="n">
-        <v>471.492481394</v>
+        <v>-80.5207184595</v>
       </c>
       <c r="D148" t="n">
-        <v>48.7248134669</v>
+        <v>-791.219361545</v>
       </c>
       <c r="E148" t="n">
-        <v>541.924216379</v>
+        <v>-832.074414942</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>403.0897159</v>
+        <v>76.6025022125</v>
       </c>
       <c r="C149" t="n">
-        <v>397.126675368</v>
+        <v>7.65905533177</v>
       </c>
       <c r="D149" t="n">
-        <v>39.4942178374</v>
+        <v>-37.0615687709</v>
       </c>
       <c r="E149" t="n">
-        <v>403.0897159</v>
+        <v>-76.6025022125</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>131.787490233</v>
+        <v>668.328154976</v>
       </c>
       <c r="C150" t="n">
-        <v>83.37949762069999</v>
+        <v>656.329423022</v>
       </c>
       <c r="D150" t="n">
-        <v>-8.521311396470001</v>
+        <v>63.777081369</v>
       </c>
       <c r="E150" t="n">
-        <v>131.787490233</v>
+        <v>668.328154976</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>528.358732318</v>
+        <v>1072.18436716</v>
       </c>
       <c r="C151" t="n">
-        <v>-43.150365816</v>
+        <v>1020.86475378</v>
       </c>
       <c r="D151" t="n">
-        <v>-422.260579476</v>
+        <v>101.885153751</v>
       </c>
       <c r="E151" t="n">
-        <v>-528.358732318</v>
+        <v>1072.18436716</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>833.890844481</v>
+        <v>1240.66712085</v>
       </c>
       <c r="C152" t="n">
-        <v>-74.8408767304</v>
+        <v>1164.49260051</v>
       </c>
       <c r="D152" t="n">
-        <v>-720.89993551</v>
+        <v>117.090305572</v>
       </c>
       <c r="E152" t="n">
-        <v>-833.890844481</v>
+        <v>1240.66712085</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>725.701403436</v>
+        <v>1225.22300248</v>
       </c>
       <c r="C153" t="n">
-        <v>-63.2279208964</v>
+        <v>1157.72765594</v>
       </c>
       <c r="D153" t="n">
-        <v>-610.921433608</v>
+        <v>116.088541374</v>
       </c>
       <c r="E153" t="n">
-        <v>-725.701403436</v>
+        <v>1225.22300248</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>333.113021514</v>
+        <v>894.606219825</v>
       </c>
       <c r="C154" t="n">
-        <v>-21.9225692317</v>
+        <v>859.431049543</v>
       </c>
       <c r="D154" t="n">
-        <v>-234.242241191</v>
+        <v>85.2033955351</v>
       </c>
       <c r="E154" t="n">
-        <v>-333.113021514</v>
+        <v>894.606219825</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>135.135393464</v>
+        <v>168.323858255</v>
       </c>
       <c r="C155" t="n">
-        <v>140.273401615</v>
+        <v>168.606080303</v>
       </c>
       <c r="D155" t="n">
-        <v>12.2680726027</v>
+        <v>15.153458008</v>
       </c>
       <c r="E155" t="n">
-        <v>135.135393464</v>
+        <v>168.323858255</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>460.316497345</v>
+        <v>822.185968256</v>
       </c>
       <c r="C156" t="n">
-        <v>388.71400013</v>
+        <v>-79.836568396</v>
       </c>
       <c r="D156" t="n">
-        <v>39.9963660747</v>
+        <v>-787.544882185</v>
       </c>
       <c r="E156" t="n">
-        <v>460.316497345</v>
+        <v>-822.185968256</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>782.5372890690001</v>
+        <v>1738.32720188</v>
       </c>
       <c r="C157" t="n">
-        <v>616.929151647</v>
+        <v>-168.287188657</v>
       </c>
       <c r="D157" t="n">
-        <v>62.1549000638</v>
+        <v>-1673.69786774</v>
       </c>
       <c r="E157" t="n">
-        <v>782.5372890690001</v>
+        <v>-1738.32720188</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>1118.60902181</v>
+        <v>2241.28063184</v>
       </c>
       <c r="C158" t="n">
-        <v>910.4758415060001</v>
+        <v>-216.370487591</v>
       </c>
       <c r="D158" t="n">
-        <v>92.99601947399999</v>
+        <v>-2148.40330541</v>
       </c>
       <c r="E158" t="n">
-        <v>1118.60902181</v>
+        <v>-2241.28063184</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>1344.66121136</v>
+        <v>2226.67862108</v>
       </c>
       <c r="C159" t="n">
-        <v>1147.50297379</v>
+        <v>-214.142367203</v>
       </c>
       <c r="D159" t="n">
-        <v>118.58298997</v>
+        <v>-2116.8083991</v>
       </c>
       <c r="E159" t="n">
-        <v>1344.66121136</v>
+        <v>-2226.67862108</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>1252.24776882</v>
+        <v>1838.64495912</v>
       </c>
       <c r="C160" t="n">
-        <v>1093.77187796</v>
+        <v>-176.426796172</v>
       </c>
       <c r="D160" t="n">
-        <v>113.271744652</v>
+        <v>-1737.8792865</v>
       </c>
       <c r="E160" t="n">
-        <v>1252.24776882</v>
+        <v>-1838.64495912</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>796.326135587</v>
+        <v>1225.50044659</v>
       </c>
       <c r="C161" t="n">
-        <v>690.982218249</v>
+        <v>-118.114110684</v>
       </c>
       <c r="D161" t="n">
-        <v>71.4775464323</v>
+        <v>-1163.05633663</v>
       </c>
       <c r="E161" t="n">
-        <v>796.326135587</v>
+        <v>-1225.50044659</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>191.018855748</v>
+        <v>452.218509534</v>
       </c>
       <c r="C162" t="n">
-        <v>150.316574756</v>
+        <v>-44.4373724505</v>
       </c>
       <c r="D162" t="n">
-        <v>14.9454809349</v>
+        <v>-439.711160053</v>
       </c>
       <c r="E162" t="n">
-        <v>191.018855748</v>
+        <v>-452.218509534</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>294.148617528</v>
+        <v>383.475839113</v>
       </c>
       <c r="C163" t="n">
-        <v>-26.8338699182</v>
+        <v>352.867658265</v>
       </c>
       <c r="D163" t="n">
-        <v>-257.687783764</v>
+        <v>34.9671224375</v>
       </c>
       <c r="E163" t="n">
-        <v>-294.148617528</v>
+        <v>383.475839113</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>535.308237981</v>
+        <v>1057.2338991</v>
       </c>
       <c r="C164" t="n">
-        <v>-44.2093219473</v>
+        <v>1005.4355249</v>
       </c>
       <c r="D164" t="n">
-        <v>-431.458551298</v>
+        <v>100.393406366</v>
       </c>
       <c r="E164" t="n">
-        <v>-535.308237981</v>
+        <v>1057.2338991</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>583.800889416</v>
+        <v>1376.51381016</v>
       </c>
       <c r="C165" t="n">
-        <v>-43.9471543312</v>
+        <v>1319.41263869</v>
       </c>
       <c r="D165" t="n">
-        <v>-441.781632426</v>
+        <v>131.482219034</v>
       </c>
       <c r="E165" t="n">
-        <v>-583.800889416</v>
+        <v>1376.51381016</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>517.279244085</v>
+        <v>1244.12562951</v>
       </c>
       <c r="C166" t="n">
-        <v>-38.3148211095</v>
+        <v>1192.84688144</v>
       </c>
       <c r="D166" t="n">
-        <v>-387.472756865</v>
+        <v>118.763773072</v>
       </c>
       <c r="E166" t="n">
-        <v>-517.279244085</v>
+        <v>1244.12562951</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>347.939427248</v>
+        <v>694.2489672200001</v>
       </c>
       <c r="C167" t="n">
-        <v>-28.4840140581</v>
+        <v>658.738167452</v>
       </c>
       <c r="D167" t="n">
-        <v>-278.100986058</v>
+        <v>65.509445191</v>
       </c>
       <c r="E167" t="n">
-        <v>-347.939427248</v>
+        <v>694.2489672200001</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>35.2042971239</v>
+        <v>41.8699920195</v>
       </c>
       <c r="C168" t="n">
-        <v>-3.37820100721</v>
+        <v>-2.5828371948</v>
       </c>
       <c r="D168" t="n">
-        <v>-34.656424347</v>
+        <v>-42.8957645256</v>
       </c>
       <c r="E168" t="n">
-        <v>-35.2042971239</v>
+        <v>-41.8699920195</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>406.036959433</v>
+        <v>674.984491367</v>
       </c>
       <c r="C169" t="n">
-        <v>348.764250735</v>
+        <v>-65.62135112839999</v>
       </c>
       <c r="D169" t="n">
-        <v>35.9605590912</v>
+        <v>-645.336817165</v>
       </c>
       <c r="E169" t="n">
-        <v>406.036959433</v>
+        <v>-674.984491367</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>798.301149413</v>
+        <v>1137.41196737</v>
       </c>
       <c r="C170" t="n">
-        <v>702.036598359</v>
+        <v>-109.451509087</v>
       </c>
       <c r="D170" t="n">
-        <v>72.6717574054</v>
+        <v>-1075.26129862</v>
       </c>
       <c r="E170" t="n">
-        <v>798.301149413</v>
+        <v>-1137.41196737</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>957.963210703</v>
+        <v>1395.9959348</v>
       </c>
       <c r="C171" t="n">
-        <v>838.588916684</v>
+        <v>-134.186041071</v>
       </c>
       <c r="D171" t="n">
-        <v>86.814920434</v>
+        <v>-1320.19929025</v>
       </c>
       <c r="E171" t="n">
-        <v>957.963210703</v>
+        <v>-1395.9959348</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>850.0311504159999</v>
+        <v>1366.2626685</v>
       </c>
       <c r="C172" t="n">
-        <v>731.163295295</v>
+        <v>-131.710131762</v>
       </c>
       <c r="D172" t="n">
-        <v>75.5711994903</v>
+        <v>-1298.92397444</v>
       </c>
       <c r="E172" t="n">
-        <v>850.0311504159999</v>
+        <v>-1366.2626685</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>577.747583521</v>
+        <v>1011.70008258</v>
       </c>
       <c r="C173" t="n">
-        <v>489.083816947</v>
+        <v>-97.98010305370001</v>
       </c>
       <c r="D173" t="n">
-        <v>50.3781842081</v>
+        <v>-967.054267435</v>
       </c>
       <c r="E173" t="n">
-        <v>577.747583521</v>
+        <v>-1011.70008258</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>263.947141334</v>
+        <v>404.6384573</v>
       </c>
       <c r="C174" t="n">
-        <v>231.503178823</v>
+        <v>-39.6241764243</v>
       </c>
       <c r="D174" t="n">
-        <v>23.8639825309</v>
+        <v>-387.344175767</v>
       </c>
       <c r="E174" t="n">
-        <v>263.947141334</v>
+        <v>-404.6384573</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>61.5039273161</v>
+        <v>290.074436922</v>
       </c>
       <c r="C175" t="n">
-        <v>18.9810533382</v>
+        <v>280.536487327</v>
       </c>
       <c r="D175" t="n">
-        <v>-15.8325897096</v>
+        <v>26.9769252631</v>
       </c>
       <c r="E175" t="n">
-        <v>61.5039273161</v>
+        <v>290.074436922</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>310.28387304</v>
+        <v>879.936006763</v>
       </c>
       <c r="C176" t="n">
-        <v>-18.1558800526</v>
+        <v>846.671692401</v>
       </c>
       <c r="D176" t="n">
-        <v>-211.485761331</v>
+        <v>83.8403510362</v>
       </c>
       <c r="E176" t="n">
-        <v>-310.28387304</v>
+        <v>879.936006763</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>520.784083774</v>
+        <v>1249.72881919</v>
       </c>
       <c r="C177" t="n">
-        <v>-38.671720564</v>
+        <v>1198.17147467</v>
       </c>
       <c r="D177" t="n">
-        <v>-390.610407286</v>
+        <v>119.298679806</v>
       </c>
       <c r="E177" t="n">
-        <v>-520.784083774</v>
+        <v>1249.72881919</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>620.425047942</v>
+        <v>1318.23057656</v>
       </c>
       <c r="C178" t="n">
-        <v>-49.6618171434</v>
+        <v>1258.56963216</v>
       </c>
       <c r="D178" t="n">
-        <v>-489.035121704</v>
+        <v>125.650752186</v>
       </c>
       <c r="E178" t="n">
-        <v>-620.425047942</v>
+        <v>1318.23057656</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>545.700784247</v>
+        <v>1035.3737887</v>
       </c>
       <c r="C179" t="n">
-        <v>-45.7739362963</v>
+        <v>982.8584094080001</v>
       </c>
       <c r="D179" t="n">
-        <v>-445.103833222</v>
+        <v>98.2044198008</v>
       </c>
       <c r="E179" t="n">
-        <v>-545.700784247</v>
+        <v>1035.3737887</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>265.740875198</v>
+        <v>462.367273807</v>
       </c>
       <c r="C180" t="n">
-        <v>-22.7600984249</v>
+        <v>434.182627312</v>
       </c>
       <c r="D180" t="n">
-        <v>-219.70745702</v>
+        <v>43.0144618026</v>
       </c>
       <c r="E180" t="n">
-        <v>-265.740875198</v>
+        <v>462.367273807</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>168.023917033</v>
+        <v>239.6451209</v>
       </c>
       <c r="C181" t="n">
-        <v>150.379474182</v>
+        <v>-23.7253052973</v>
       </c>
       <c r="D181" t="n">
-        <v>15.4642808534</v>
+        <v>-230.559730265</v>
       </c>
       <c r="E181" t="n">
-        <v>168.023917033</v>
+        <v>-239.6451209</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>610.724975367</v>
+        <v>919.293796979</v>
       </c>
       <c r="C182" t="n">
-        <v>532.8889785059999</v>
+        <v>-88.80674406679999</v>
       </c>
       <c r="D182" t="n">
-        <v>55.1146223541</v>
+        <v>-872.730121552</v>
       </c>
       <c r="E182" t="n">
-        <v>610.724975367</v>
+        <v>-919.293796979</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>910.807848003</v>
+        <v>1442.33670841</v>
       </c>
       <c r="C183" t="n">
-        <v>785.511959718</v>
+        <v>-138.93260101</v>
       </c>
       <c r="D183" t="n">
-        <v>81.227103379</v>
+        <v>-1369.944491</v>
       </c>
       <c r="E183" t="n">
-        <v>910.807848003</v>
+        <v>-1442.33670841</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>996.954808973</v>
+        <v>1680.7019879</v>
       </c>
       <c r="C184" t="n">
-        <v>848.454999048</v>
+        <v>-161.964862327</v>
       </c>
       <c r="D184" t="n">
-        <v>87.59992737589999</v>
+        <v>-1600.39630243</v>
       </c>
       <c r="E184" t="n">
-        <v>996.954808973</v>
+        <v>-1680.7019879</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>890.802268451</v>
+        <v>1589.82402983</v>
       </c>
       <c r="C185" t="n">
-        <v>748.71837063</v>
+        <v>-153.453416019</v>
       </c>
       <c r="D185" t="n">
-        <v>77.10906173390001</v>
+        <v>-1518.09608366</v>
       </c>
       <c r="E185" t="n">
-        <v>890.802268451</v>
+        <v>-1589.82402983</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>663.474551344</v>
+        <v>1199.17784371</v>
       </c>
       <c r="C186" t="n">
-        <v>556.908638986</v>
+        <v>-116.023715904</v>
       </c>
       <c r="D186" t="n">
-        <v>57.2937806596</v>
+        <v>-1146.92831755</v>
       </c>
       <c r="E186" t="n">
-        <v>663.474551344</v>
+        <v>-1199.17784371</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>382.245992308</v>
+        <v>583.546070319</v>
       </c>
       <c r="C187" t="n">
-        <v>333.974834834</v>
+        <v>-56.7501653856</v>
       </c>
       <c r="D187" t="n">
-        <v>34.4875165264</v>
+        <v>-556.2730984360001</v>
       </c>
       <c r="E187" t="n">
-        <v>382.245992308</v>
+        <v>-583.546070319</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>92.53186560819999</v>
+        <v>120.109685451</v>
       </c>
       <c r="C188" t="n">
-        <v>96.1921581889</v>
+        <v>118.980088414</v>
       </c>
       <c r="D188" t="n">
-        <v>8.25514403176</v>
+        <v>10.42078887</v>
       </c>
       <c r="E188" t="n">
-        <v>92.53186560819999</v>
+        <v>120.109685451</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>246.161910779</v>
+        <v>704.46113349</v>
       </c>
       <c r="C189" t="n">
-        <v>-13.6373478379</v>
+        <v>677.064027083</v>
       </c>
       <c r="D189" t="n">
-        <v>-165.997252314</v>
+        <v>66.89844338269999</v>
       </c>
       <c r="E189" t="n">
-        <v>-246.161910779</v>
+        <v>704.46113349</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>486.185319236</v>
+        <v>1008.35587428</v>
       </c>
       <c r="C190" t="n">
-        <v>-39.2782480582</v>
+        <v>960.626023539</v>
       </c>
       <c r="D190" t="n">
-        <v>-385.443265018</v>
+        <v>95.791743642</v>
       </c>
       <c r="E190" t="n">
-        <v>-486.185319236</v>
+        <v>1008.35587428</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>555.7839606920001</v>
+        <v>1022.56749491</v>
       </c>
       <c r="C191" t="n">
-        <v>-47.1414010872</v>
+        <v>969.3235784460001</v>
       </c>
       <c r="D191" t="n">
-        <v>-457.270282664</v>
+        <v>96.9018025947</v>
       </c>
       <c r="E191" t="n">
-        <v>-555.7839606920001</v>
+        <v>1022.56749491</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>401.723321093</v>
+        <v>847.030086559</v>
       </c>
       <c r="C192" t="n">
-        <v>-32.1457063835</v>
+        <v>806.661374411</v>
       </c>
       <c r="D192" t="n">
-        <v>-316.007776697</v>
+        <v>80.2965671151</v>
       </c>
       <c r="E192" t="n">
-        <v>-401.723321093</v>
+        <v>847.030086559</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>130.39273196</v>
+        <v>519.562712856</v>
       </c>
       <c r="C193" t="n">
-        <v>10.0073403735</v>
+        <v>502.7773745</v>
       </c>
       <c r="D193" t="n">
-        <v>-64.98721895769999</v>
+        <v>49.1991139201</v>
       </c>
       <c r="E193" t="n">
-        <v>-130.39273196</v>
+        <v>519.562712856</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>179.885347615</v>
+        <v>22.3827599526</v>
       </c>
       <c r="C194" t="n">
-        <v>179.450844389</v>
+        <v>11.5679341826</v>
       </c>
       <c r="D194" t="n">
-        <v>17.6148964497</v>
+        <v>-4.91091223858</v>
       </c>
       <c r="E194" t="n">
-        <v>179.885347615</v>
+        <v>22.3827599526</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>375.149820154</v>
+        <v>659.22020115</v>
       </c>
       <c r="C195" t="n">
-        <v>318.683243268</v>
+        <v>-64.1762016749</v>
       </c>
       <c r="D195" t="n">
-        <v>32.7963390625</v>
+        <v>-631.965058149</v>
       </c>
       <c r="E195" t="n">
-        <v>375.149820154</v>
+        <v>-659.22020115</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>575.8914658800001</v>
+        <v>1230.66049627</v>
       </c>
       <c r="C196" t="n">
-        <v>461.304108065</v>
+        <v>-119.362682698</v>
       </c>
       <c r="D196" t="n">
-        <v>46.7367741901</v>
+        <v>-1184.68311937</v>
       </c>
       <c r="E196" t="n">
-        <v>575.8914658800001</v>
+        <v>-1230.66049627</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>794.521680627</v>
+        <v>1474.2091736</v>
       </c>
       <c r="C197" t="n">
-        <v>661.755934324</v>
+        <v>-142.474740409</v>
       </c>
       <c r="D197" t="n">
-        <v>67.9878240175</v>
+        <v>-1410.40824779</v>
       </c>
       <c r="E197" t="n">
-        <v>794.521680627</v>
+        <v>-1474.2091736</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>920.14424243</v>
+        <v>1345.831693</v>
       </c>
       <c r="C198" t="n">
-        <v>805.118271433</v>
+        <v>-129.417934107</v>
       </c>
       <c r="D198" t="n">
-        <v>83.3437692903</v>
+        <v>-1273.21644072</v>
       </c>
       <c r="E198" t="n">
-        <v>920.14424243</v>
+        <v>-1345.831693</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>792.782919334</v>
+        <v>975.14375941</v>
       </c>
       <c r="C199" t="n">
-        <v>712.2600609580001</v>
+        <v>-93.4798292044</v>
       </c>
       <c r="D199" t="n">
-        <v>73.68162972739999</v>
+        <v>-914.068171346</v>
       </c>
       <c r="E199" t="n">
-        <v>792.782919334</v>
+        <v>-975.14375941</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>403.354289145</v>
+        <v>509.037907743</v>
       </c>
       <c r="C200" t="n">
-        <v>362.730802132</v>
+        <v>-49.3451667636</v>
       </c>
       <c r="D200" t="n">
-        <v>37.4668705765</v>
+        <v>-480.596430035</v>
       </c>
       <c r="E200" t="n">
-        <v>403.354289145</v>
+        <v>-509.037907743</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>47.7220647235</v>
+        <v>26.0173453431</v>
       </c>
       <c r="C201" t="n">
-        <v>-4.61850766121</v>
+        <v>1.83149827763</v>
       </c>
       <c r="D201" t="n">
-        <v>-45.3120069684</v>
+        <v>-19.5398475112</v>
       </c>
       <c r="E201" t="n">
-        <v>-47.7220647235</v>
+        <v>-26.0173453431</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>329.077238184</v>
+        <v>498.74211677</v>
       </c>
       <c r="C202" t="n">
-        <v>-29.2610979623</v>
+        <v>465.271838264</v>
       </c>
       <c r="D202" t="n">
-        <v>-281.346115782</v>
+        <v>46.2788004521</v>
       </c>
       <c r="E202" t="n">
-        <v>-329.077238184</v>
+        <v>498.74211677</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>392.478281828</v>
+        <v>888.0248173799999</v>
       </c>
       <c r="C203" t="n">
-        <v>-30.1868446169</v>
+        <v>848.191424037</v>
       </c>
       <c r="D203" t="n">
-        <v>-300.589745003</v>
+        <v>84.3522605902</v>
       </c>
       <c r="E203" t="n">
-        <v>-392.478281828</v>
+        <v>888.0248173799999</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>343.765336955</v>
+        <v>1004.4093415</v>
       </c>
       <c r="C204" t="n">
-        <v>-18.2037141649</v>
+        <v>967.948509079</v>
       </c>
       <c r="D204" t="n">
-        <v>-231.109638317</v>
+        <v>95.89485894320001</v>
       </c>
       <c r="E204" t="n">
-        <v>-343.765336955</v>
+        <v>1004.4093415</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>265.733129611</v>
+        <v>801.346762606</v>
       </c>
       <c r="C205" t="n">
-        <v>-11.7790467173</v>
+        <v>772.012605559</v>
       </c>
       <c r="D205" t="n">
-        <v>-174.524796796</v>
+        <v>76.3036361074</v>
       </c>
       <c r="E205" t="n">
-        <v>-265.733129611</v>
+        <v>801.346762606</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>152.319877055</v>
+        <v>375.461180954</v>
       </c>
       <c r="C206" t="n">
-        <v>-10.6665402689</v>
+        <v>356.808658616</v>
       </c>
       <c r="D206" t="n">
-        <v>-109.426162497</v>
+        <v>34.9724597164</v>
       </c>
       <c r="E206" t="n">
-        <v>-152.319877055</v>
+        <v>375.461180954</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>46.0115910471</v>
+        <v>128.933620561</v>
       </c>
       <c r="C207" t="n">
-        <v>37.0376651301</v>
+        <v>-12.9119548266</v>
       </c>
       <c r="D207" t="n">
-        <v>3.51403909526</v>
+        <v>-128.709818215</v>
       </c>
       <c r="E207" t="n">
-        <v>46.0115910471</v>
+        <v>-128.933620561</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>333.890640395</v>
+        <v>560.445839233</v>
       </c>
       <c r="C208" t="n">
-        <v>286.851672536</v>
+        <v>-54.650187839</v>
       </c>
       <c r="D208" t="n">
-        <v>29.5484079669</v>
+        <v>-536.902567761</v>
       </c>
       <c r="E208" t="n">
-        <v>333.890640395</v>
+        <v>-560.445839233</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>606.979756203</v>
+        <v>826.183641407</v>
       </c>
       <c r="C209" t="n">
-        <v>538.408163911</v>
+        <v>-79.6736657169</v>
       </c>
       <c r="D209" t="n">
-        <v>55.6995225618</v>
+        <v>-780.382346226</v>
       </c>
       <c r="E209" t="n">
-        <v>606.979756203</v>
+        <v>-826.183641407</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>713.185944095</v>
+        <v>922.240343154</v>
       </c>
       <c r="C210" t="n">
-        <v>636.78038592</v>
+        <v>-88.6490749301</v>
       </c>
       <c r="D210" t="n">
-        <v>65.8886180243</v>
+        <v>-867.697342185</v>
       </c>
       <c r="E210" t="n">
-        <v>713.185944095</v>
+        <v>-922.240343154</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>600.169908147</v>
+        <v>874.452931483</v>
       </c>
       <c r="C211" t="n">
-        <v>526.675776421</v>
+        <v>-84.4480873433</v>
       </c>
       <c r="D211" t="n">
-        <v>54.4798019773</v>
+        <v>-828.937491103</v>
       </c>
       <c r="E211" t="n">
-        <v>600.169908147</v>
+        <v>-874.452931483</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>368.997261895</v>
+        <v>666.476792533</v>
       </c>
       <c r="C212" t="n">
-        <v>311.469035538</v>
+        <v>-64.90492862070001</v>
       </c>
       <c r="D212" t="n">
-        <v>32.0016675402</v>
+        <v>-639.606528701</v>
       </c>
       <c r="E212" t="n">
-        <v>368.997261895</v>
+        <v>-666.476792533</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>158.350876489</v>
+        <v>317.805573132</v>
       </c>
       <c r="C213" t="n">
-        <v>132.293997442</v>
+        <v>-31.3951720855</v>
       </c>
       <c r="D213" t="n">
-        <v>13.451022818</v>
+        <v>-308.689730216</v>
       </c>
       <c r="E213" t="n">
-        <v>158.350876489</v>
+        <v>-317.805573132</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>38.4836232766</v>
+        <v>72.12693674240001</v>
       </c>
       <c r="C214" t="n">
-        <v>39.4760447686</v>
+        <v>68.3139163813</v>
       </c>
       <c r="D214" t="n">
-        <v>2.86147671497</v>
+        <v>5.40705518933</v>
       </c>
       <c r="E214" t="n">
-        <v>38.4836232766</v>
+        <v>72.12693674240001</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>84.2892173197</v>
+        <v>376.251751049</v>
       </c>
       <c r="C215" t="n">
-        <v>15.9650237982</v>
+        <v>364.179831972</v>
       </c>
       <c r="D215" t="n">
-        <v>-31.5083826126</v>
+        <v>35.3379256426</v>
       </c>
       <c r="E215" t="n">
-        <v>-84.2892173197</v>
+        <v>376.251751049</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>145.833720684</v>
+        <v>511.699719276</v>
       </c>
       <c r="C216" t="n">
-        <v>1.45365537271</v>
+        <v>493.376750845</v>
       </c>
       <c r="D216" t="n">
-        <v>-83.95770209139999</v>
+        <v>48.3760503333</v>
       </c>
       <c r="E216" t="n">
-        <v>-145.833720684</v>
+        <v>511.699719276</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>180.528448576</v>
+        <v>474.654954466</v>
       </c>
       <c r="C217" t="n">
-        <v>-11.8793117725</v>
+        <v>453.407059525</v>
       </c>
       <c r="D217" t="n">
-        <v>-126.216352812</v>
+        <v>44.6174404664</v>
       </c>
       <c r="E217" t="n">
-        <v>-180.528448576</v>
+        <v>474.654954466</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>138.954859111</v>
+        <v>319.290067884</v>
       </c>
       <c r="C218" t="n">
-        <v>-10.2647143998</v>
+        <v>301.856597067</v>
       </c>
       <c r="D218" t="n">
-        <v>-102.773001695</v>
+        <v>29.4802185902</v>
       </c>
       <c r="E218" t="n">
-        <v>-138.954859111</v>
+        <v>319.290067884</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>26.4789325276</v>
+        <v>101.557789815</v>
       </c>
       <c r="C219" t="n">
-        <v>19.924370024</v>
+        <v>95.89559473840001</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.388934458103</v>
+        <v>8.37013567877</v>
       </c>
       <c r="E219" t="n">
-        <v>26.4789325276</v>
+        <v>101.557789815</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>194.756872986</v>
+        <v>140.852281339</v>
       </c>
       <c r="C220" t="n">
-        <v>185.416124478</v>
+        <v>-13.7481805856</v>
       </c>
       <c r="D220" t="n">
-        <v>18.8480465786</v>
+        <v>-130.319863343</v>
       </c>
       <c r="E220" t="n">
-        <v>194.756872986</v>
+        <v>-140.852281339</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>344.465749753</v>
+        <v>373.031428691</v>
       </c>
       <c r="C221" t="n">
-        <v>315.81822641</v>
+        <v>-36.1832501344</v>
       </c>
       <c r="D221" t="n">
-        <v>32.5271258017</v>
+        <v>-349.79193961</v>
       </c>
       <c r="E221" t="n">
-        <v>344.465749753</v>
+        <v>-373.031428691</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>408.315546204</v>
+        <v>581.801720112</v>
       </c>
       <c r="C222" t="n">
-        <v>360.734275461</v>
+        <v>-56.4804168893</v>
       </c>
       <c r="D222" t="n">
-        <v>37.2833804239</v>
+        <v>-552.5843334579999</v>
       </c>
       <c r="E222" t="n">
-        <v>408.315546204</v>
+        <v>-581.801720112</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>411.482411274</v>
+        <v>725.808560315</v>
       </c>
       <c r="C223" t="n">
-        <v>348.846084902</v>
+        <v>-70.57223064839999</v>
       </c>
       <c r="D223" t="n">
-        <v>35.8956809282</v>
+        <v>-695.409283128</v>
       </c>
       <c r="E223" t="n">
-        <v>411.482411274</v>
+        <v>-725.808560315</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>406.382642775</v>
+        <v>730.035066355</v>
       </c>
       <c r="C224" t="n">
-        <v>343.088331649</v>
+        <v>-71.0003167955</v>
       </c>
       <c r="D224" t="n">
-        <v>35.2710810267</v>
+        <v>-699.974620366</v>
       </c>
       <c r="E224" t="n">
-        <v>406.382642775</v>
+        <v>-730.035066355</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>397.500414218</v>
+        <v>585.23297665</v>
       </c>
       <c r="C225" t="n">
-        <v>349.375283135</v>
+        <v>-56.8594858513</v>
       </c>
       <c r="D225" t="n">
-        <v>36.0977827228</v>
+        <v>-556.81119633</v>
       </c>
       <c r="E225" t="n">
-        <v>397.500414218</v>
+        <v>-585.23297665</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>339.098074296</v>
+        <v>364.522713085</v>
       </c>
       <c r="C226" t="n">
-        <v>311.181640709</v>
+        <v>-35.3661728241</v>
       </c>
       <c r="D226" t="n">
-        <v>32.0440385943</v>
+        <v>-341.740403615</v>
       </c>
       <c r="E226" t="n">
-        <v>339.098074296</v>
+        <v>-364.522713085</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>205.082469498</v>
+        <v>153.132945366</v>
       </c>
       <c r="C227" t="n">
-        <v>194.764601584</v>
+        <v>-14.9407183692</v>
       </c>
       <c r="D227" t="n">
-        <v>19.8260766396</v>
+        <v>-141.740055779</v>
       </c>
       <c r="E227" t="n">
-        <v>205.082469498</v>
+        <v>-153.132945366</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>45.9287460635</v>
+        <v>11.7657072129</v>
       </c>
       <c r="C228" t="n">
-        <v>46.9895461999</v>
+        <v>6.1534291727</v>
       </c>
       <c r="D228" t="n">
-        <v>4.41413450878</v>
+        <v>-6.25866232568</v>
       </c>
       <c r="E228" t="n">
-        <v>45.9287460635</v>
+        <v>-11.7657072129</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>52.6772787479</v>
+        <v>93.2034017722</v>
       </c>
       <c r="C229" t="n">
-        <v>-4.17930994415</v>
+        <v>82.6967065572</v>
       </c>
       <c r="D229" t="n">
-        <v>-40.1019343359</v>
+        <v>7.02963172966</v>
       </c>
       <c r="E229" t="n">
-        <v>-52.6772787479</v>
+        <v>93.2034017722</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>37.1126656124</v>
+        <v>122.020352071</v>
       </c>
       <c r="C230" t="n">
-        <v>1.66549397698</v>
+        <v>113.582543537</v>
       </c>
       <c r="D230" t="n">
-        <v>-18.5902600448</v>
+        <v>10.2748252597</v>
       </c>
       <c r="E230" t="n">
-        <v>-37.1126656124</v>
+        <v>122.020352071</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>79.58493077280001</v>
+        <v>87.55928692019999</v>
       </c>
       <c r="C231" t="n">
-        <v>82.6485627152</v>
+        <v>86.2190612083</v>
       </c>
       <c r="D231" t="n">
-        <v>7.22849662193</v>
+        <v>7.13782168234</v>
       </c>
       <c r="E231" t="n">
-        <v>79.58493077280001</v>
+        <v>87.55928692019999</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>168.169481289</v>
+        <v>37.8697997489</v>
       </c>
       <c r="C232" t="n">
-        <v>166.149438155</v>
+        <v>-1.11329804083</v>
       </c>
       <c r="D232" t="n">
-        <v>16.4760483868</v>
+        <v>-28.0113429176</v>
       </c>
       <c r="E232" t="n">
-        <v>168.169481289</v>
+        <v>-37.8697997489</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>213.033150489</v>
+        <v>218.314833411</v>
       </c>
       <c r="C233" t="n">
-        <v>197.488878105</v>
+        <v>-21.4589211432</v>
       </c>
       <c r="D233" t="n">
-        <v>20.2594796421</v>
+        <v>-206.070700017</v>
       </c>
       <c r="E233" t="n">
-        <v>213.033150489</v>
+        <v>-218.314833411</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>244.918105215</v>
+        <v>399.008593351</v>
       </c>
       <c r="C234" t="n">
-        <v>212.663931664</v>
+        <v>-39.1291590551</v>
       </c>
       <c r="D234" t="n">
-        <v>21.8958510144</v>
+        <v>-383.1393762</v>
       </c>
       <c r="E234" t="n">
-        <v>244.918105215</v>
+        <v>-399.008593351</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>299.125408939</v>
+        <v>505.138180113</v>
       </c>
       <c r="C235" t="n">
-        <v>257.055339628</v>
+        <v>-49.3483620111</v>
       </c>
       <c r="D235" t="n">
-        <v>26.4664102932</v>
+        <v>-484.5424132</v>
       </c>
       <c r="E235" t="n">
-        <v>299.125408939</v>
+        <v>-505.138180113</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>361.211071845</v>
+        <v>514.547703471</v>
       </c>
       <c r="C236" t="n">
-        <v>319.50335105</v>
+        <v>-50.0600846932</v>
       </c>
       <c r="D236" t="n">
-        <v>33.0036449275</v>
+        <v>-489.292246333</v>
       </c>
       <c r="E236" t="n">
-        <v>361.211071845</v>
+        <v>-514.547703471</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>377.06582863</v>
+        <v>447.804906021</v>
       </c>
       <c r="C237" t="n">
-        <v>341.886955784</v>
+        <v>-43.4235878002</v>
       </c>
       <c r="D237" t="n">
-        <v>35.2785599774</v>
+        <v>-421.693381498</v>
       </c>
       <c r="E237" t="n">
-        <v>377.06582863</v>
+        <v>-447.804906021</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>309.220820016</v>
+        <v>348.19560577</v>
       </c>
       <c r="C238" t="n">
-        <v>282.638437644</v>
+        <v>-33.8944944548</v>
       </c>
       <c r="D238" t="n">
-        <v>29.1162918963</v>
+        <v>-327.843740628</v>
       </c>
       <c r="E238" t="n">
-        <v>309.220820016</v>
+        <v>-348.19560577</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>188.29672751</v>
+        <v>237.228508094</v>
       </c>
       <c r="C239" t="n">
-        <v>171.037956065</v>
+        <v>-23.4279488685</v>
       </c>
       <c r="D239" t="n">
-        <v>17.5888601248</v>
+        <v>-226.709852587</v>
       </c>
       <c r="E239" t="n">
-        <v>188.29672751</v>
+        <v>-237.228508094</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>88.2605293944</v>
+        <v>106.469026785</v>
       </c>
       <c r="C240" t="n">
-        <v>82.1807397378</v>
+        <v>-10.6770862421</v>
       </c>
       <c r="D240" t="n">
-        <v>8.360345011830001</v>
+        <v>-104.036009302</v>
       </c>
       <c r="E240" t="n">
-        <v>88.2605293944</v>
+        <v>-106.469026785</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>54.3045466044</v>
+        <v>26.2860179768</v>
       </c>
       <c r="C241" t="n">
-        <v>55.9819182222</v>
+        <v>23.9037031573</v>
       </c>
       <c r="D241" t="n">
-        <v>5.14208667587</v>
+        <v>-0.0419215558532</v>
       </c>
       <c r="E241" t="n">
-        <v>54.3045466044</v>
+        <v>26.2860179768</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>67.00713034100001</v>
+        <v>102.683367462</v>
       </c>
       <c r="C242" t="n">
-        <v>69.6569821408</v>
+        <v>100.364345834</v>
       </c>
       <c r="D242" t="n">
-        <v>5.68907455156</v>
+        <v>8.65582971836</v>
       </c>
       <c r="E242" t="n">
-        <v>67.00713034100001</v>
+        <v>102.683367462</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>79.5468536985</v>
+        <v>96.7095242513</v>
       </c>
       <c r="C243" t="n">
-        <v>82.6869752468</v>
+        <v>95.2278462085</v>
       </c>
       <c r="D243" t="n">
-        <v>7.12789806244</v>
+        <v>8.067590969499999</v>
       </c>
       <c r="E243" t="n">
-        <v>79.5468536985</v>
+        <v>96.7095242513</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>85.0678635239</v>
+        <v>13.3265000079</v>
       </c>
       <c r="C244" t="n">
-        <v>86.0705293251</v>
+        <v>11.4466705518</v>
       </c>
       <c r="D244" t="n">
-        <v>8.276255987420001</v>
+        <v>-2.89813435701</v>
       </c>
       <c r="E244" t="n">
-        <v>85.0678635239</v>
+        <v>13.3265000079</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>114.672467587</v>
+        <v>123.819770919</v>
       </c>
       <c r="C245" t="n">
-        <v>107.098085211</v>
+        <v>-12.3833104269</v>
       </c>
       <c r="D245" t="n">
-        <v>10.921921918</v>
+        <v>-119.482696488</v>
       </c>
       <c r="E245" t="n">
-        <v>114.672467587</v>
+        <v>-123.819770919</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>186.105393069</v>
+        <v>246.1468456</v>
       </c>
       <c r="C246" t="n">
-        <v>168.016225684</v>
+        <v>-24.3135052315</v>
       </c>
       <c r="D246" t="n">
-        <v>17.2852253955</v>
+        <v>-235.717347986</v>
       </c>
       <c r="E246" t="n">
-        <v>186.105393069</v>
+        <v>-246.1468456</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>272.799482627</v>
+        <v>336.010305487</v>
       </c>
       <c r="C247" t="n">
-        <v>247.104625754</v>
+        <v>-32.8504504436</v>
       </c>
       <c r="D247" t="n">
-        <v>25.4711568092</v>
+        <v>-318.53004345</v>
       </c>
       <c r="E247" t="n">
-        <v>272.799482627</v>
+        <v>-336.010305487</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>326.687802837</v>
+        <v>395.881176172</v>
       </c>
       <c r="C248" t="n">
-        <v>295.89993995</v>
+        <v>-38.5264621427</v>
       </c>
       <c r="D248" t="n">
-        <v>30.5228928118</v>
+        <v>-373.93996026</v>
       </c>
       <c r="E248" t="n">
-        <v>326.687802837</v>
+        <v>-395.881176172</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>322.615512424</v>
+        <v>422.707542752</v>
       </c>
       <c r="C249" t="n">
-        <v>289.288473771</v>
+        <v>-41.1862769575</v>
       </c>
       <c r="D249" t="n">
-        <v>29.8622441918</v>
+        <v>-400.930105592</v>
       </c>
       <c r="E249" t="n">
-        <v>322.615512424</v>
+        <v>-422.707542752</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>278.27289457</v>
+        <v>402.224953183</v>
       </c>
       <c r="C250" t="n">
-        <v>246.339725736</v>
+        <v>-39.3394394764</v>
       </c>
       <c r="D250" t="n">
-        <v>25.4162219889</v>
+        <v>-383.901498034</v>
       </c>
       <c r="E250" t="n">
-        <v>278.27289457</v>
+        <v>-402.224953183</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>228.720480908</v>
+        <v>326.44071539</v>
       </c>
       <c r="C251" t="n">
-        <v>203.475896521</v>
+        <v>-32.0693410242</v>
       </c>
       <c r="D251" t="n">
-        <v>20.9708731207</v>
+        <v>-312.302572571</v>
       </c>
       <c r="E251" t="n">
-        <v>228.720480908</v>
+        <v>-326.44071539</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>191.037975967</v>
+        <v>211.896103099</v>
       </c>
       <c r="C252" t="n">
-        <v>176.028386658</v>
+        <v>-20.9133494642</v>
       </c>
       <c r="D252" t="n">
-        <v>18.0698239024</v>
+        <v>-201.360075908</v>
       </c>
       <c r="E252" t="n">
-        <v>191.037975967</v>
+        <v>-211.896103099</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>274.688694793</v>
+        <v>-284.766347336</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>101.653738173</v>
+        <v>-138.868259274</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>280.509209824</v>
+        <v>-299.138583951</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>160.07296655</v>
+        <v>-226.529806604</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>272.26036497</v>
+        <v>-359.877326232</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>231.254101902</v>
+        <v>-316.20862399</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>280.560943954</v>
+        <v>-363.07401364</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-75.5506142577</v>
+        <v>162.478349652</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>454.503819932</v>
+        <v>-344.400178168</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>64.5683777734</v>
+        <v>-271.387053101</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>216.432254774</v>
+        <v>-356.79519962</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>152.828884066</v>
+        <v>38.5323980194</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>478.645843314</v>
+        <v>-538.561363934</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-57.882450688</v>
+        <v>225.068739389</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>502.712891914</v>
+        <v>-592.548746948</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-338.5479844</v>
+        <v>697.691066695</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>496.081058683</v>
+        <v>-726.806128456</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-285.182087368</v>
+        <v>551.347312066</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>516.725265722</v>
+        <v>-685.971955529</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>110.779674449</v>
+        <v>-98.5552461727</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>185.802046902</v>
+        <v>-116.723004517</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-70.4426849938</v>
+        <v>176.321169419</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>388.252824362</v>
+        <v>-468.184476731</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>134.208336195</v>
+        <v>-454.949112827</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>444.360547824</v>
+        <v>-500.350206287</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>186.617817657</v>
+        <v>-48.5036028784</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>255.303396586</v>
+        <v>-154.203772874</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>120.075159666</v>
+        <v>-125.151639868</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>205.461345271</v>
+        <v>-263.144477446</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>174.238692444</v>
+        <v>65.03884409840001</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>217.446213961</v>
+        <v>-162.104935283</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-24.5555688857</v>
+        <v>-71.21929117249999</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>286.959881327</v>
+        <v>-342.543164172</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>119.104885727</v>
+        <v>-226.590982885</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>313.961522207</v>
+        <v>-520.796079105</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>159.759745793</v>
+        <v>175.576506803</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>436.987093928</v>
+        <v>-586.345765691</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-50.6006048706</v>
+        <v>-492.293010976</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>162.576184459</v>
+        <v>-495.2551837</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>101.470271271</v>
+        <v>775.346797798</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>540.256526368</v>
+        <v>-1357.09124896</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>71.72422958529999</v>
+        <v>1240.66712085</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>150.971372357</v>
+        <v>-2241.28063184</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-451.712925435</v>
+        <v>1376.51381016</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>775.332931291</v>
+        <v>-1395.9959348</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-833.890844481</v>
+        <v>1318.23057656</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1344.66121136</v>
+        <v>-1680.7019879</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-583.800889416</v>
+        <v>1022.56749491</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>957.963210703</v>
+        <v>-1474.2091736</v>
       </c>
     </row>
     <row r="52">
@@ -5169,7 +5169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-620.425047942</v>
+        <v>1004.4093415</v>
       </c>
     </row>
     <row r="53">
@@ -5177,7 +5177,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>996.954808973</v>
+        <v>-922.240343154</v>
       </c>
     </row>
     <row r="54">
@@ -5185,7 +5185,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-555.7839606920001</v>
+        <v>511.699719276</v>
       </c>
     </row>
     <row r="55">
@@ -5193,7 +5193,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>920.14424243</v>
+        <v>-730.035066355</v>
       </c>
     </row>
     <row r="56">
@@ -5201,7 +5201,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-392.478281828</v>
+        <v>122.020352071</v>
       </c>
     </row>
     <row r="57">
@@ -5209,7 +5209,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>713.185944095</v>
+        <v>-514.547703471</v>
       </c>
     </row>
     <row r="58">
@@ -5217,7 +5217,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-180.528448576</v>
+        <v>102.683367462</v>
       </c>
     </row>
     <row r="59">
@@ -5225,7 +5225,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>411.482411274</v>
+        <v>-422.707542752</v>
       </c>
     </row>
     <row r="60">
@@ -5233,39 +5233,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-52.6772787479</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>377.06582863</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>54.3045466044</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>326.687802837</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>191.037975967</v>
+        <v>-211.896103099</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,7 +5274,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31.22265282699999</v>
+        <v>2.96217272399997</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5317,10 +5285,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.00626306800001</v>
+        <v>13.235363904</v>
       </c>
       <c r="B3" t="n">
-        <v>137.3443473965</v>
+        <v>-142.383173668</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5328,10 +5296,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61.10591318799999</v>
+        <v>18.16775834430001</v>
       </c>
       <c r="B4" t="n">
-        <v>125.4474776553333</v>
+        <v>-141.2115355366667</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5339,10 +5307,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63.603370708</v>
+        <v>29.05213300600001</v>
       </c>
       <c r="B5" t="n">
-        <v>164.2129106975</v>
+        <v>-180.69329764025</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5350,10 +5318,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68.685578929</v>
+        <v>43.66870224199999</v>
       </c>
       <c r="B6" t="n">
-        <v>163.384921868</v>
+        <v>-189.860599433</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5361,10 +5329,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75.022372453</v>
+        <v>72.608777347</v>
       </c>
       <c r="B7" t="n">
-        <v>181.5308290516666</v>
+        <v>-218.1967205661666</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5372,10 +5340,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79.24714277170001</v>
+        <v>73.01312506700003</v>
       </c>
       <c r="B8" t="n">
-        <v>188.6341537445714</v>
+        <v>-232.1984210552857</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5383,10 +5351,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97.37105429500001</v>
+        <v>90.88564411050001</v>
       </c>
       <c r="B9" t="n">
-        <v>200.12500252075</v>
+        <v>-248.557870128375</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5394,10 +5362,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>120.436243274</v>
+        <v>115.952181287</v>
       </c>
       <c r="B10" t="n">
-        <v>169.4943784342555</v>
+        <v>-202.8871790416667</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5405,21 +5373,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>154.201776414</v>
+        <v>145.898088062</v>
       </c>
       <c r="B11" t="n">
-        <v>197.99532258403</v>
+        <v>-217.0384789543</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>167.8549956</v>
+        <v>214.6408745676</v>
       </c>
       <c r="B12" t="n">
-        <v>185.8656003285182</v>
+        <v>-221.9792584221819</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5427,10 +5395,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>173.03495662</v>
+        <v>224.205754366</v>
       </c>
       <c r="B13" t="n">
-        <v>188.4128215323083</v>
+        <v>-233.2139201886667</v>
       </c>
       <c r="C13" t="n">
         <v>0.5</v>
@@ -5438,32 +5406,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>178.907205781</v>
+        <v>395.3275976394</v>
       </c>
       <c r="B14" t="n">
-        <v>185.6755955733615</v>
+        <v>-212.3103572495847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>254.044488167</v>
+        <v>525.390910214</v>
       </c>
       <c r="B15" t="n">
-        <v>206.60204184055</v>
+        <v>-235.6140005841858</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>272.3832562326</v>
+        <v>525.552363292</v>
       </c>
       <c r="B16" t="n">
-        <v>188.9697423386467</v>
+        <v>-204.9018179193067</v>
       </c>
       <c r="C16" t="n">
         <v>0.5</v>
@@ -5471,21 +5439,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>322.7612820256</v>
+        <v>565.3890503854</v>
       </c>
       <c r="B17" t="n">
-        <v>208.5786891871062</v>
+        <v>-229.1297509836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>356.1115582117</v>
+        <v>617.231070933</v>
       </c>
       <c r="B18" t="n">
-        <v>176.3947672113941</v>
+        <v>-174.6108793554471</v>
       </c>
       <c r="C18" t="n">
         <v>0.5</v>
@@ -5493,76 +5461,76 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>389.9354421586</v>
+        <v>636.568055542</v>
       </c>
       <c r="B19" t="n">
-        <v>194.1551167375944</v>
+        <v>-205.2883931943667</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>429.7431073779</v>
+        <v>696.372585908</v>
       </c>
       <c r="B20" t="n">
-        <v>168.9268428373</v>
+        <v>-165.4654613385579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>461.5426628137</v>
+        <v>701.0397135860001</v>
       </c>
       <c r="B21" t="n">
-        <v>186.316763981535</v>
+        <v>-191.49078604808</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>464.1596900219</v>
+        <v>762.6669351099999</v>
       </c>
       <c r="B22" t="n">
-        <v>182.719759718081</v>
+        <v>-187.0652841492524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>494.9611526946</v>
+        <v>763.6301033230001</v>
       </c>
       <c r="B23" t="n">
-        <v>182.8598636809864</v>
+        <v>-183.8679078023318</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>536.5282940019999</v>
+        <v>817.6174863370001</v>
       </c>
       <c r="B24" t="n">
-        <v>171.8467093907782</v>
+        <v>-168.2075131405348</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>578.2635061717</v>
+        <v>852.0554184260001</v>
       </c>
       <c r="B25" t="n">
-        <v>180.8636308479125</v>
+        <v>-180.7065532901375</v>
       </c>
       <c r="C25" t="n">
         <v>0.5</v>
@@ -5570,10 +5538,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>587.1679507158</v>
+        <v>1237.319267595</v>
       </c>
       <c r="B26" t="n">
-        <v>178.997419061796</v>
+        <v>-191.676255671612</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -5581,10 +5549,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>592.01085985</v>
+        <v>1241.734785631</v>
       </c>
       <c r="B27" t="n">
-        <v>189.2036932449577</v>
+        <v>-203.5483306952808</v>
       </c>
       <c r="C27" t="n">
         <v>0.5</v>
@@ -5592,21 +5560,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>781.2631460509999</v>
+        <v>1290.239813643</v>
       </c>
       <c r="B28" t="n">
-        <v>189.1079200750333</v>
+        <v>-197.8059333687297</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>841.260876314</v>
+        <v>1424.497195151</v>
       </c>
       <c r="B29" t="n">
-        <v>191.4720442361393</v>
+        <v>-196.2487133510607</v>
       </c>
       <c r="C29" t="n">
         <v>0.5</v>
@@ -5614,10 +5582,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>878.804510768</v>
+        <v>1433.94006243</v>
       </c>
       <c r="B30" t="n">
-        <v>189.0100826992379</v>
+        <v>-193.7970901275069</v>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
@@ -5625,10 +5593,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>893.7143926709999</v>
+        <v>1502.152926254</v>
       </c>
       <c r="B31" t="n">
-        <v>189.5584581182967</v>
+        <v>-196.10866970479</v>
       </c>
       <c r="C31" t="n">
         <v>0.5</v>
@@ -5636,10 +5604,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>991.969451803</v>
+        <v>1926.649684654</v>
       </c>
       <c r="B32" t="n">
-        <v>189.0642721288032</v>
+        <v>-187.6845563563</v>
       </c>
       <c r="C32" t="n">
         <v>0.5</v>
@@ -5647,10 +5615,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1105.664225923</v>
+        <v>2132.438046758</v>
       </c>
       <c r="B33" t="n">
-        <v>189.9512078110594</v>
+        <v>-186.8851931977594</v>
       </c>
       <c r="C33" t="n">
         <v>0.5</v>
@@ -5658,10 +5626,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1227.045856726</v>
+        <v>2478.6185151</v>
       </c>
       <c r="B34" t="n">
-        <v>183.4510024566121</v>
+        <v>-183.3801658636606</v>
       </c>
       <c r="C34" t="n">
         <v>0.5</v>
@@ -5669,10 +5637,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1312.622524258</v>
+        <v>2496.77666851</v>
       </c>
       <c r="B35" t="n">
-        <v>186.4953812469177</v>
+        <v>-188.0614305197882</v>
       </c>
       <c r="C35" t="n">
         <v>0.5</v>
@@ -5680,10 +5648,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1475.928203122</v>
+        <v>2597.75836981</v>
       </c>
       <c r="B36" t="n">
-        <v>184.5699385177772</v>
+        <v>-189.16227487308</v>
       </c>
       <c r="C36" t="n">
         <v>0.5</v>
@@ -5691,32 +5659,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1541.764100119</v>
+        <v>2703.26948281</v>
       </c>
       <c r="B37" t="n">
-        <v>188.1641491758111</v>
+        <v>-198.3743249906333</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1552.738769665</v>
+        <v>2714.22651136</v>
       </c>
       <c r="B38" t="n">
-        <v>187.3964625978973</v>
+        <v>-188.2675457529675</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1609.223775772</v>
+        <v>3057.21579806</v>
       </c>
       <c r="B39" t="n">
-        <v>193.9646371065842</v>
+        <v>-198.7432883829158</v>
       </c>
       <c r="C39" t="n">
         <v>0.5</v>
@@ -5724,10 +5692,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1617.379856915</v>
+        <v>3481.94775269</v>
       </c>
       <c r="B40" t="n">
-        <v>187.6937334661436</v>
+        <v>-206.270204346841</v>
       </c>
       <c r="C40" t="n">
         <v>0.5</v>
@@ -5735,23 +5703,12 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1965.086259302</v>
+        <v>3617.794442</v>
       </c>
       <c r="B41" t="n">
-        <v>187.065794740965</v>
+        <v>-213.49482883067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2178.552055841</v>
-      </c>
-      <c r="B42" t="n">
-        <v>184.9780990465756</v>
-      </c>
-      <c r="C42" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5766,7 +5723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,453 +5750,442 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98.44843996952586</v>
+        <v>9.340174924488185</v>
       </c>
       <c r="B2" t="n">
-        <v>49.22421998476294</v>
+        <v>4.670087462244093</v>
       </c>
       <c r="C2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>129.2910982435251</v>
+        <v>41.7330835424936</v>
       </c>
       <c r="B3" t="n">
-        <v>330.9872870609073</v>
+        <v>311.3031100322897</v>
       </c>
       <c r="C3" t="n">
-        <v>266.3417379391448</v>
+        <v>290.4365682610429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>192.5650946221745</v>
+        <v>57.28563292314188</v>
       </c>
       <c r="B4" t="n">
-        <v>329.4755818297245</v>
+        <v>307.6667646480503</v>
       </c>
       <c r="C4" t="n">
-        <v>233.1930345186373</v>
+        <v>279.0239481864793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200.4061217957867</v>
+        <v>91.60494894681018</v>
       </c>
       <c r="B5" t="n">
-        <v>358.2783409055574</v>
+        <v>337.5429639669116</v>
       </c>
       <c r="C5" t="n">
-        <v>258.075280007664</v>
+        <v>291.7404894935065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>216.3347988339153</v>
+        <v>137.6821065133322</v>
       </c>
       <c r="B6" t="n">
-        <v>359.3599972619863</v>
+        <v>338.9547536837468</v>
       </c>
       <c r="C6" t="n">
-        <v>251.1925978450287</v>
+        <v>270.1137004270807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>236.1247397415074</v>
+        <v>228.5981789241696</v>
       </c>
       <c r="B7" t="n">
-        <v>372.0393127219152</v>
+        <v>348.9464387660697</v>
       </c>
       <c r="C7" t="n">
-        <v>253.9769428511615</v>
+        <v>234.6473493039849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>249.2585172344491</v>
+        <v>229.8601401757849</v>
       </c>
       <c r="B8" t="n">
-        <v>377.1282664652053</v>
+        <v>358.073419177073</v>
       </c>
       <c r="C8" t="n">
-        <v>252.4990078479808</v>
+        <v>243.1433490891806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>304.6695354391113</v>
+        <v>285.0621456428092</v>
       </c>
       <c r="B9" t="n">
-        <v>387.7681430005586</v>
+        <v>362.696891228604</v>
       </c>
       <c r="C9" t="n">
-        <v>235.433375281003</v>
+        <v>220.1658184071994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>371.0537459701339</v>
+        <v>358.6635458705805</v>
       </c>
       <c r="B10" t="n">
-        <v>377.9123989524289</v>
+        <v>319.9123325512244</v>
       </c>
       <c r="C10" t="n">
-        <v>192.3855259673619</v>
+        <v>140.5805596159341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>453.7334691328203</v>
+        <v>435.2443998579089</v>
       </c>
       <c r="B11" t="n">
-        <v>400.1843433867037</v>
+        <v>319.1676050238253</v>
       </c>
       <c r="C11" t="n">
-        <v>173.3176088202936</v>
+        <v>101.5454050948709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>481.5791236769848</v>
+        <v>557.2272539558097</v>
       </c>
       <c r="B12" t="n">
-        <v>397.7740124547772</v>
+        <v>288.1134103916095</v>
       </c>
       <c r="C12" t="n">
-        <v>156.9844506162848</v>
+        <v>9.49978341370462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>491.3626661624428</v>
+        <v>569.8103527566726</v>
       </c>
       <c r="B13" t="n">
-        <v>400.1096064547137</v>
+        <v>295.7844474747503</v>
       </c>
       <c r="C13" t="n">
-        <v>154.4282733734923</v>
+        <v>10.87927109641402</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>501.9719873956203</v>
+        <v>718.6396507639777</v>
       </c>
       <c r="B14" t="n">
-        <v>400.1991980560373</v>
+        <v>46.18238139369225</v>
       </c>
       <c r="C14" t="n">
-        <v>149.2132043582271</v>
+        <v>-313.1374439882966</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>604.6666806724838</v>
+        <v>788.9524721905045</v>
       </c>
       <c r="B15" t="n">
-        <v>424.2445614061091</v>
+        <v>85.36699792638852</v>
       </c>
       <c r="C15" t="n">
-        <v>121.9112210698672</v>
+        <v>-309.1092381688637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>623.441419312878</v>
+        <v>789.0284454403428</v>
       </c>
       <c r="B16" t="n">
-        <v>421.0166523291258</v>
+        <v>179.0473088091895</v>
       </c>
       <c r="C16" t="n">
-        <v>109.2959426726868</v>
+        <v>-215.4669139109819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>667.6409337106606</v>
+        <v>807.1244817200122</v>
       </c>
       <c r="B17" t="n">
-        <v>437.3245215799524</v>
+        <v>166.7507897521791</v>
       </c>
       <c r="C17" t="n">
-        <v>103.5040547246221</v>
+        <v>-236.811451107827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>692.5425986034378</v>
+        <v>828.9601542249407</v>
       </c>
       <c r="B18" t="n">
-        <v>431.887016896912</v>
+        <v>309.5591988379236</v>
       </c>
       <c r="C18" t="n">
-        <v>85.61571759519313</v>
+        <v>-104.9208782745467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>715.2245818279846</v>
+        <v>836.674465964743</v>
       </c>
       <c r="B19" t="n">
-        <v>443.7750728629197</v>
+        <v>286.0374219422424</v>
       </c>
       <c r="C19" t="n">
-        <v>86.16278194892737</v>
+        <v>-132.2998110401292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>739.3269336837595</v>
+        <v>859.2622951585577</v>
       </c>
       <c r="B20" t="n">
-        <v>442.0109874948228</v>
+        <v>349.5157865150066</v>
       </c>
       <c r="C20" t="n">
-        <v>72.34752065294299</v>
+        <v>-80.11536106427224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>756.9599181430308</v>
+        <v>860.9513367628597</v>
       </c>
       <c r="B21" t="n">
-        <v>452.7132091797506</v>
+        <v>331.9431905700747</v>
       </c>
       <c r="C21" t="n">
-        <v>74.23325010823521</v>
+        <v>-98.53247781135514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>758.3554602934817</v>
+        <v>882.3742552830627</v>
       </c>
       <c r="B22" t="n">
-        <v>452.0013540955836</v>
+        <v>357.1650561913818</v>
       </c>
       <c r="C22" t="n">
-        <v>72.82362394884279</v>
+        <v>-84.02207145014955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>774.2130937791708</v>
+        <v>882.6969017964876</v>
       </c>
       <c r="B23" t="n">
-        <v>456.771390758826</v>
+        <v>359.4978137954344</v>
       </c>
       <c r="C23" t="n">
-        <v>69.6648438692406</v>
+        <v>-81.85063710280946</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>794.1413957429721</v>
+        <v>900.2437225127319</v>
       </c>
       <c r="B24" t="n">
-        <v>459.6961055788967</v>
+        <v>383.6273483120988</v>
       </c>
       <c r="C24" t="n">
-        <v>62.6254077074106</v>
+        <v>-66.49451294426717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>812.7156319276717</v>
+        <v>910.9250191633021</v>
       </c>
       <c r="B25" t="n">
-        <v>468.3152629781571</v>
+        <v>386.0248340717719</v>
       </c>
       <c r="C25" t="n">
-        <v>61.9574470143213</v>
+        <v>-69.43767550987911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>816.5150656592856</v>
+        <v>1010.945460187183</v>
       </c>
       <c r="B26" t="n">
-        <v>469.0393758244394</v>
+        <v>455.7535125773262</v>
       </c>
       <c r="C26" t="n">
-        <v>60.78184299479659</v>
+        <v>-49.71921751626513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>818.5590573583798</v>
+        <v>1011.934325817816</v>
       </c>
       <c r="B27" t="n">
-        <v>472.5286907179597</v>
+        <v>452.7848685167118</v>
       </c>
       <c r="C27" t="n">
-        <v>63.24916203876978</v>
+        <v>-53.18229439219624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>888.5423028176106</v>
+        <v>1022.61607996339</v>
       </c>
       <c r="B28" t="n">
-        <v>496.5147283431748</v>
+        <v>461.8174693126486</v>
       </c>
       <c r="C28" t="n">
-        <v>52.24357693436951</v>
+        <v>-49.49057066904629</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>907.6171173518593</v>
+        <v>1050.600793623454</v>
       </c>
       <c r="B29" t="n">
-        <v>503.9958555977774</v>
+        <v>480.7321591761433</v>
       </c>
       <c r="C29" t="n">
-        <v>50.1872969218478</v>
+        <v>-44.56823763558384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>918.97168505475</v>
+        <v>1052.489206381692</v>
       </c>
       <c r="B30" t="n">
-        <v>507.6463144382402</v>
+        <v>482.5852131917028</v>
       </c>
       <c r="C30" t="n">
-        <v>48.16047191086517</v>
+        <v>-43.65938999914306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>923.367603622446</v>
+        <v>1065.847148645106</v>
       </c>
       <c r="B31" t="n">
-        <v>509.4099451243853</v>
+        <v>490.5571511115308</v>
       </c>
       <c r="C31" t="n">
-        <v>47.72614331316231</v>
+        <v>-42.36642321102244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>950.8944197810026</v>
+        <v>1139.740034473703</v>
       </c>
       <c r="B32" t="n">
-        <v>519.7624833943509</v>
+        <v>537.5876293749641</v>
       </c>
       <c r="C32" t="n">
-        <v>44.31527350384954</v>
+        <v>-32.2823878618874</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>980.0669797849881</v>
+        <v>1171.084206986912</v>
       </c>
       <c r="B33" t="n">
-        <v>531.3218685963479</v>
+        <v>556.0892663768834</v>
       </c>
       <c r="C33" t="n">
-        <v>41.28837870385388</v>
+        <v>-29.4528371165726</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1008.633713742499</v>
+        <v>1218.937830298458</v>
       </c>
       <c r="B34" t="n">
-        <v>541.5453484001531</v>
+        <v>584.0285104335179</v>
       </c>
       <c r="C34" t="n">
-        <v>37.22849152890382</v>
+        <v>-25.440404715711</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1027.437410196966</v>
+        <v>1221.303417772957</v>
       </c>
       <c r="B35" t="n">
-        <v>549.7758660085182</v>
+        <v>584.6767828560795</v>
       </c>
       <c r="C35" t="n">
-        <v>36.05716091003501</v>
+        <v>-25.97492603039893</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1060.769264876256</v>
+        <v>1234.225411456425</v>
       </c>
       <c r="B36" t="n">
-        <v>563.2986225781484</v>
+        <v>591.8193749286205</v>
       </c>
       <c r="C36" t="n">
-        <v>32.91399014002036</v>
+        <v>-25.29333079959213</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1073.386598690133</v>
+        <v>1247.325532319324</v>
       </c>
       <c r="B37" t="n">
-        <v>569.1909295018485</v>
+        <v>597.9173919284094</v>
       </c>
       <c r="C37" t="n">
-        <v>32.49763015678184</v>
+        <v>-25.74537423125264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1075.448572793119</v>
+        <v>1248.663571726204</v>
       </c>
       <c r="B38" t="n">
-        <v>569.9398793195124</v>
+        <v>600.0572735286797</v>
       </c>
       <c r="C38" t="n">
-        <v>32.21559292295274</v>
+        <v>-24.2745123344223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1085.884335082173</v>
+        <v>1288.619316052925</v>
       </c>
       <c r="B39" t="n">
-        <v>575.3783151866485</v>
+        <v>620.9837553667089</v>
       </c>
       <c r="C39" t="n">
-        <v>32.43614764556207</v>
+        <v>-23.32590265975341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1087.367433327839</v>
+        <v>1333.650662061597</v>
       </c>
       <c r="B40" t="n">
-        <v>575.0400727896061</v>
+        <v>644.9878802233949</v>
       </c>
       <c r="C40" t="n">
-        <v>31.3563561256866</v>
+        <v>-21.83745080740346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1145.783771552244</v>
+        <v>1347.176936258392</v>
       </c>
       <c r="B41" t="n">
-        <v>600.1615031038273</v>
+        <v>651.6327433240704</v>
       </c>
       <c r="C41" t="n">
-        <v>27.26961732770542</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1177.786870158917</v>
-      </c>
-      <c r="B42" t="n">
-        <v>613.9859163851492</v>
-      </c>
-      <c r="C42" t="n">
-        <v>25.09248130569063</v>
+        <v>-21.95572480512544</v>
       </c>
     </row>
   </sheetData>
@@ -6253,7 +6199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6285,576 +6231,562 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49.22421998476293</v>
+        <v>4.670087462244092</v>
       </c>
       <c r="B2" t="n">
-        <v>49.22421998476293</v>
+        <v>4.670087462244092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000234407084689787</v>
+        <v>2.223851172588768e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000234407084689787</v>
+        <v>2.223851172588768e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64.64554912176257</v>
+        <v>20.8665417712468</v>
       </c>
       <c r="B3" t="n">
-        <v>120.4442323450377</v>
+        <v>52.06756966599333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000307873092887623</v>
+        <v>9.936450439357617e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005758965517663374</v>
+        <v>0.0002479495864520935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96.28254731108724</v>
+        <v>28.64281646157094</v>
       </c>
       <c r="B4" t="n">
-        <v>157.0616639289339</v>
+        <v>65.05867582771262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004590171183733157</v>
+        <v>0.0001363945274369948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000761719934427776</v>
+        <v>0.0003098419743802318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100.2030608978934</v>
+        <v>45.80247447340509</v>
       </c>
       <c r="B5" t="n">
-        <v>169.2679998052952</v>
+        <v>95.94669364382486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004778474275954941</v>
+        <v>0.0002181107557991469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008287788528319806</v>
+        <v>0.0004574056390234204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108.1673994169577</v>
+        <v>68.84105325666609</v>
       </c>
       <c r="B6" t="n">
-        <v>178.1907941626817</v>
+        <v>127.4967352433699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000516231753197315</v>
+        <v>0.0003278710272795251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000880556412372285</v>
+        <v>0.0006105652612298684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118.0623698707537</v>
+        <v>114.2990894620848</v>
       </c>
       <c r="B7" t="n">
-        <v>192.460362957678</v>
+        <v>181.4554916051083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000564261043376685</v>
+        <v>0.0005459406761853272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000970005941561405</v>
+        <v>0.0009002236312358767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>124.6292586172245</v>
+        <v>114.9300700878924</v>
       </c>
       <c r="B8" t="n">
-        <v>200.8263255479903</v>
+        <v>184.8729539963399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005964268558717077</v>
+        <v>0.0005490073762026548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001027400646857702</v>
+        <v>0.0009212855678334599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>152.3347677195557</v>
+        <v>142.5310728214046</v>
       </c>
       <c r="B9" t="n">
-        <v>231.2664969610902</v>
+        <v>213.3126781000218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007366661028668364</v>
+        <v>0.0006859476953186522</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001283402887606531</v>
+        <v>0.001122046200563104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>185.526872985067</v>
+        <v>179.3317729352903</v>
       </c>
       <c r="B10" t="n">
-        <v>256.1842703021027</v>
+        <v>229.399880258291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009253745523192566</v>
+        <v>0.0008873819290399405</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001580217911914331</v>
+        <v>0.00126493520830021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>226.8667345664102</v>
+        <v>217.6221999289545</v>
       </c>
       <c r="B11" t="n">
-        <v>297.2894747306511</v>
+        <v>257.1622475900637</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00124056038922914</v>
+        <v>0.001157726519467959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002387298282195237</v>
+        <v>0.001594144109823662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>240.7895618384924</v>
+        <v>278.6136269779049</v>
       </c>
       <c r="B12" t="n">
-        <v>306.2039004199481</v>
+        <v>282.7196892029742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001384971581141518</v>
+        <v>0.001957187714611339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002641275197566441</v>
+        <v>0.002041329190621749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>245.6813330812214</v>
+        <v>284.9051763783363</v>
       </c>
       <c r="B13" t="n">
-        <v>310.6606433602302</v>
+        <v>289.6538910156403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001442465761002864</v>
+        <v>0.002088349324664499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002782145486686403</v>
+        <v>0.00219620314159964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250.9859936978102</v>
+        <v>359.3198253819888</v>
       </c>
       <c r="B14" t="n">
-        <v>314.3559607646923</v>
+        <v>181.2272993754704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001509441047168913</v>
+        <v>0.005148053637005025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002906602299662066</v>
+        <v>0.0008988350071280681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>302.3333403362419</v>
+        <v>394.4762360952523</v>
       </c>
       <c r="B15" t="n">
-        <v>358.8920634109813</v>
+        <v>227.0620885162934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002526640699737442</v>
+        <v>0.008282362608425678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005118830664097076</v>
+        <v>0.001242412788172208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>311.720709656439</v>
+        <v>394.5142227201714</v>
       </c>
       <c r="B16" t="n">
-        <v>362.9742718644019</v>
+        <v>286.02447298435</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002817118625456178</v>
+        <v>0.008286655770076388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005405317848452558</v>
+        <v>0.002113056844762856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>333.8204668553303</v>
+        <v>403.5622408600061</v>
       </c>
       <c r="B17" t="n">
-        <v>384.063293545828</v>
+        <v>282.7402191809356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003693685206079407</v>
+        <v>0.009375495690534705</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007186730966150135</v>
+        <v>0.00204176349763687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>346.2712993017189</v>
+        <v>414.4800771124703</v>
       </c>
       <c r="B18" t="n">
-        <v>388.3093782789255</v>
+        <v>361.3304101869905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004334765610657962</v>
+        <v>0.01087932313798982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007614434104183753</v>
+        <v>0.005287890811134024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>357.6122909139923</v>
+        <v>418.3372329823715</v>
       </c>
       <c r="B19" t="n">
-        <v>400.6802616275323</v>
+        <v>351.2469265771222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005032490476950877</v>
+        <v>0.01146497570633046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009014006470120977</v>
+        <v>0.004626461072927088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>369.6634668418798</v>
+        <v>429.6311475792788</v>
       </c>
       <c r="B20" t="n">
-        <v>406.2432766417747</v>
+        <v>388.2051016544179</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005913182512914766</v>
+        <v>0.0133597259292572</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009724664885941758</v>
+        <v>0.007603623897127035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>378.4799590715154</v>
+        <v>430.4756683814298</v>
       </c>
       <c r="B21" t="n">
-        <v>416.5364035594859</v>
+        <v>379.6809235273096</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0066617877419958</v>
+        <v>0.01351283923679439</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01118783887314437</v>
+        <v>0.006771234150048083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>379.1777301467408</v>
+        <v>441.1871276415313</v>
       </c>
       <c r="B22" t="n">
-        <v>416.5233781351304</v>
+        <v>397.2423957883959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006725150332125129</v>
+        <v>0.01560475592785833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01118585817210243</v>
+        <v>0.008600919174402989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>387.1065468895854</v>
+        <v>441.3484508982438</v>
       </c>
       <c r="B23" t="n">
-        <v>423.1859442526214</v>
+        <v>398.5084885342079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007490687666335833</v>
+        <v>0.01563847682863784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01224450679397637</v>
+        <v>0.008750801124212349</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>397.0706978714861</v>
+        <v>450.1218612563659</v>
       </c>
       <c r="B24" t="n">
-        <v>429.847996227254</v>
+        <v>414.835575184227</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00858079242956142</v>
+        <v>0.01757843521388724</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0133988828301582</v>
+        <v>0.01093206195473222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>406.3578159638358</v>
+        <v>455.462509581651</v>
       </c>
       <c r="B25" t="n">
-        <v>439.1935491306037</v>
+        <v>418.4340833899802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009739864818554916</v>
+        <v>0.01886657328364559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01519363779523653</v>
+        <v>0.01148006713103208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>408.2575328296428</v>
+        <v>505.4727300935913</v>
       </c>
       <c r="B26" t="n">
-        <v>440.5346661921048</v>
+        <v>477.2902265709089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009995406357920938</v>
+        <v>0.03584889697103372</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01546906852648947</v>
+        <v>0.0250861821825483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>409.2795286791899</v>
+        <v>505.9671629089081</v>
       </c>
       <c r="B27" t="n">
-        <v>442.9567360067255</v>
+        <v>475.850362413234</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01013559621812706</v>
+        <v>0.03606993330471846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01597840674257586</v>
+        <v>0.02462441446561746</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>444.2711514088053</v>
+        <v>511.3080399816949</v>
       </c>
       <c r="B28" t="n">
-        <v>473.2376256258291</v>
+        <v>483.0779812536559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01626134782598528</v>
+        <v>0.03853614192372612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02380617737323303</v>
+        <v>0.02702259225413084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>453.8085586759296</v>
+        <v>525.3003968117272</v>
       </c>
       <c r="B29" t="n">
-        <v>481.9431808200941</v>
+        <v>499.4425942120494</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01845859658573355</v>
+        <v>0.04572202370697286</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02663258882574097</v>
+        <v>0.0332487544162908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>459.485842527375</v>
+        <v>526.2446031908459</v>
       </c>
       <c r="B30" t="n">
-        <v>486.6471174932283</v>
+        <v>500.8782167488654</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01989401296682456</v>
+        <v>0.046247080165741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02828307907764433</v>
+        <v>0.03385200068634206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>461.683801811223</v>
+        <v>532.9235743225532</v>
       </c>
       <c r="B31" t="n">
-        <v>488.6676051688711</v>
+        <v>508.1202199095351</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02047683557094901</v>
+        <v>0.05011564690625851</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02901991540703547</v>
+        <v>0.03704668761206277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>475.4472098905013</v>
+        <v>569.8700172368515</v>
       </c>
       <c r="B32" t="n">
-        <v>500.8826841039494</v>
+        <v>550.1344032051868</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02449651306161179</v>
+        <v>0.07709739071639088</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03385389303594237</v>
+        <v>0.06142698627187123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>490.0334898924941</v>
+        <v>585.542103493456</v>
       </c>
       <c r="B33" t="n">
-        <v>514.1107539538566</v>
+        <v>567.2197993843749</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02952777555464944</v>
+        <v>0.09191887345520366</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03988940628398359</v>
+        <v>0.07480876341943785</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>504.3168568712493</v>
+        <v>609.4689151492289</v>
       </c>
       <c r="B34" t="n">
-        <v>526.3438028190028</v>
+        <v>593.2234822420486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03533686996620466</v>
+        <v>0.1193102609005831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04630255135874779</v>
+        <v>0.1000461736702147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>513.7187050984832</v>
+        <v>610.6517088864784</v>
       </c>
       <c r="B35" t="n">
-        <v>535.2718850396284</v>
+        <v>594.0506891751476</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03969760462804531</v>
+        <v>0.1208302834786608</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05154206977986173</v>
+        <v>0.1009574780616592</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>530.3846324381281</v>
+        <v>617.1127057282126</v>
       </c>
       <c r="B36" t="n">
-        <v>550.3988720697324</v>
+        <v>600.8377622397744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04861267365949625</v>
+        <v>0.1294323969190324</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06161697406621229</v>
+        <v>0.1087102715143066</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>536.6932993450666</v>
+        <v>623.6627661596621</v>
       </c>
       <c r="B37" t="n">
-        <v>556.589902266131</v>
+        <v>606.994906213476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05242273330970575</v>
+        <v>0.1386879865634659</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06621395963123325</v>
+        <v>0.1161842601037695</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>537.7242863965597</v>
+        <v>624.331785863102</v>
       </c>
       <c r="B38" t="n">
-        <v>557.4675705395481</v>
+        <v>608.5922800261945</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05306975935021544</v>
+        <v>0.139664717293318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06688934000499175</v>
+        <v>0.1181943817718174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>542.9421675410864</v>
+        <v>644.3096580264623</v>
       </c>
       <c r="B39" t="n">
-        <v>562.9392457755522</v>
+        <v>628.8815592475299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05645329366186035</v>
+        <v>0.1716989049545701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07123727986023626</v>
+        <v>0.1464659404459597</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>543.6837166639195</v>
+        <v>666.8253310307983</v>
       </c>
       <c r="B40" t="n">
-        <v>563.0181690347997</v>
+        <v>652.0563996207386</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05694921086143943</v>
+        <v>0.2152000597398149</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0713017580603493</v>
+        <v>0.1857216401163154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>572.8918857761219</v>
+        <v>673.5884681291958</v>
       </c>
       <c r="B41" t="n">
-        <v>590.2057274317576</v>
+        <v>658.6463285036588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07978119611383636</v>
+        <v>0.2299869042894447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09678182377732984</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>588.8934350794585</v>
-      </c>
-      <c r="B42" t="n">
-        <v>605.0748953151531</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.09539138338502029</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1138073279907864</v>
+        <v>0.1984148822975976</v>
       </c>
     </row>
   </sheetData>
@@ -6868,7 +6800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6890,330 +6822,322 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24784463799491.69</v>
+        <v>1.416161469535615e+25</v>
       </c>
       <c r="B2" t="n">
-        <v>6.657396396987376e-14</v>
+        <v>1.165121375983393e-25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>848336967.852563</v>
+        <v>12997358476086.94</v>
       </c>
       <c r="B3" t="n">
-        <v>1.944981843920731e-09</v>
+        <v>1.269488721908945e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40474680.36152315</v>
+        <v>1004501342701.285</v>
       </c>
       <c r="B4" t="n">
-        <v>4.076622681790357e-08</v>
+        <v>1.642606067168465e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17213355.97317444</v>
+        <v>11557640644.23936</v>
       </c>
       <c r="B5" t="n">
-        <v>9.585579956467443e-08</v>
+        <v>1.427627013842487e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9583314.455075633</v>
+        <v>441505282.0939113</v>
       </c>
       <c r="B6" t="n">
-        <v>1.721742522104246e-07</v>
+        <v>3.737214631214839e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3990615.93372864</v>
+        <v>7793623.115834912</v>
       </c>
       <c r="B7" t="n">
-        <v>4.134700074878715e-07</v>
+        <v>2.117115461546462e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2462710.593374176</v>
+        <v>6302939.850529018</v>
       </c>
       <c r="B8" t="n">
-        <v>6.699934634785179e-07</v>
+        <v>2.617826029010118e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>499642.9058231559</v>
+        <v>1244217.051993295</v>
       </c>
       <c r="B9" t="n">
-        <v>3.302358505984678e-06</v>
+        <v>1.32613517662101e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>157695.5339411458</v>
+        <v>547461.6695855294</v>
       </c>
       <c r="B10" t="n">
-        <v>1.046320056607186e-05</v>
+        <v>3.01390963361723e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29399.72684983655</v>
+        <v>151067.7104739714</v>
       </c>
       <c r="B11" t="n">
-        <v>5.612297040811362e-05</v>
+        <v>5.461127314444508e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21041.15512660635</v>
+        <v>51884.38169064946</v>
       </c>
       <c r="B12" t="n">
-        <v>7.841774798350259e-05</v>
+        <v>3.18014775590428e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17862.92520756422</v>
+        <v>39458.34572720333</v>
       </c>
       <c r="B13" t="n">
-        <v>4.618504474567503e-05</v>
+        <v>2.090812437256409e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15621.48661864656</v>
+        <v>7906053.281375259</v>
       </c>
       <c r="B14" t="n">
-        <v>5.281187508845927e-05</v>
+        <v>2.087008449445944e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3461.716140849781</v>
+        <v>614520.802430005</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0004766422008232479</v>
+        <v>1.342509475249162e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3042.792838112316</v>
+        <v>45501.35348329088</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0002711324904102944</v>
+        <v>1.813132878130666e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1596.786659856964</v>
+        <v>51841.85000935471</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0005166626329868647</v>
+        <v>3.182756787619004e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1408.235411710423</v>
+        <v>3204.476862969119</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0005858395500777576</v>
+        <v>0.0002574523191394159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>983.8596706400576</v>
+        <v>4424.63335285632</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001677068436931234</v>
+        <v>0.0001864561273687054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>840.2754552783034</v>
+        <v>1412.565126649711</v>
       </c>
       <c r="B20" t="n">
-        <v>0.000981820895538066</v>
+        <v>0.001168087735475554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>631.0180078508839</v>
+        <v>1820.491160638509</v>
       </c>
       <c r="B21" t="n">
-        <v>0.002614822365560623</v>
+        <v>0.000453174405807411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>631.2439657549291</v>
+        <v>1085.770968618776</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001306943186400761</v>
+        <v>0.001519657503919991</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>526.3578942699428</v>
+        <v>1046.964913519497</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003134749222843036</v>
+        <v>0.0007879920227953619</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>440.1299679233697</v>
+        <v>661.2797172842286</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003748892645926984</v>
+        <v>0.001247580983412201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>343.9967638203692</v>
+        <v>599.0176839594349</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002398278375754735</v>
+        <v>0.001377254832523223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>332.184855087243</v>
+        <v>132.5311477521153</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004967113866665155</v>
+        <v>0.0124499034980527</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>311.9531521083053</v>
+        <v>137.2051911676272</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002644627869358963</v>
+        <v>0.006012892026746098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>146.1503878632851</v>
+        <v>115.4148846598122</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01128974082192293</v>
+        <v>0.007148124805840297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>118.5715890940975</v>
+        <v>78.74724440302957</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006957821905762654</v>
+        <v>0.01047655706881168</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106.0671978626216</v>
+        <v>76.19536569361814</v>
       </c>
       <c r="B30" t="n">
-        <v>0.007778088010475596</v>
+        <v>0.01082743015260702</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101.1425926664181</v>
+        <v>64.62081134324225</v>
       </c>
       <c r="B31" t="n">
-        <v>0.008156800990073104</v>
+        <v>0.01276678492348076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>76.18756640478871</v>
+        <v>25.95598244755628</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01082853855203525</v>
+        <v>0.03178457997754088</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56.4862094289659</v>
+        <v>18.26793094760548</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01460533479481354</v>
+        <v>0.04516110786526369</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.12172936719059</v>
+        <v>10.91642151127451</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01913188575938019</v>
+        <v>0.07557421625282039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35.5486255121116</v>
+        <v>10.74306935250367</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02320764834406659</v>
+        <v>0.07679369581726976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25.81311449563463</v>
+        <v>9.428681460533287</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03196049822424642</v>
+        <v>0.08749897888196745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22.70136137092465</v>
+        <v>8.386551410684623</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07268286571188984</v>
+        <v>0.09837178115297007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22.29426186759382</v>
+        <v>8.137119166328905</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03700503765945227</v>
+        <v>0.2027744667704559</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19.92850541019967</v>
+        <v>5.582653758178298</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04139798660353897</v>
+        <v>0.1477791809659372</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19.89644433052052</v>
+        <v>3.683517186145489</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0414646952136305</v>
+        <v>0.2239707210008426</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.5750784223562</v>
+        <v>3.281578836903644</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0712738151653978</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>8.697416505667183</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.09485575394284441</v>
+        <v>0.2514033765461611</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +7328,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5181698028409035</v>
+        <v>1.307905951894139</v>
       </c>
     </row>
     <row r="18">
@@ -7414,7 +7338,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>109.957975712</v>
+        <v>119.089007494</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.8668659157</v>
+        <v>135.393958231</v>
       </c>
       <c r="D3" t="n">
-        <v>-104.495609469</v>
+        <v>63.9721706877</v>
       </c>
       <c r="E3" t="n">
-        <v>-109.957975712</v>
+        <v>119.089007494</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>284.766347336</v>
+        <v>310.472460713</v>
       </c>
       <c r="C4" t="n">
-        <v>-28.097836528</v>
+        <v>353.06131891</v>
       </c>
       <c r="D4" t="n">
-        <v>-269.744265802</v>
+        <v>167.604456829</v>
       </c>
       <c r="E4" t="n">
-        <v>-284.766347336</v>
+        <v>310.472460713</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.035764273</v>
+        <v>248.315201317</v>
       </c>
       <c r="C5" t="n">
-        <v>-24.5093749295</v>
+        <v>282.370513727</v>
       </c>
       <c r="D5" t="n">
-        <v>-235.972791511</v>
+        <v>134.102534123</v>
       </c>
       <c r="E5" t="n">
-        <v>-248.035764273</v>
+        <v>248.315201317</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>138.868259274</v>
+        <v>109.441155554</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.7265750229</v>
+        <v>124.398376396</v>
       </c>
       <c r="D6" t="n">
-        <v>-133.309997653</v>
+        <v>58.5552463719</v>
       </c>
       <c r="E6" t="n">
-        <v>-138.868259274</v>
+        <v>109.441155554</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>226.245648506</v>
+        <v>216.90159372</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.2460076575</v>
+        <v>246.666736373</v>
       </c>
       <c r="D7" t="n">
-        <v>-214.153748682</v>
+        <v>116.795232042</v>
       </c>
       <c r="E7" t="n">
-        <v>-226.245648506</v>
+        <v>216.90159372</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>299.138583951</v>
+        <v>290.952575202</v>
       </c>
       <c r="C8" t="n">
-        <v>-29.4526078937</v>
+        <v>330.948767176</v>
       </c>
       <c r="D8" t="n">
-        <v>-283.127601059</v>
+        <v>157.014669032</v>
       </c>
       <c r="E8" t="n">
-        <v>-299.138583951</v>
+        <v>290.952575202</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>226.529806604</v>
+        <v>183.849416595</v>
       </c>
       <c r="C9" t="n">
-        <v>-22.3445577585</v>
+        <v>209.421077028</v>
       </c>
       <c r="D9" t="n">
-        <v>-216.515163985</v>
+        <v>98.61777322979999</v>
       </c>
       <c r="E9" t="n">
-        <v>-226.529806604</v>
+        <v>183.849416595</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>247.298111471</v>
+        <v>183.73452918</v>
       </c>
       <c r="C10" t="n">
-        <v>-24.3253755875</v>
+        <v>209.650261967</v>
       </c>
       <c r="D10" t="n">
-        <v>-237.649165953</v>
+        <v>97.6365964969</v>
       </c>
       <c r="E10" t="n">
-        <v>-247.298111471</v>
+        <v>183.73452918</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>359.877326232</v>
+        <v>294.67096293</v>
       </c>
       <c r="C11" t="n">
-        <v>-35.368144996</v>
+        <v>335.993715142</v>
       </c>
       <c r="D11" t="n">
-        <v>-343.780809698</v>
+        <v>158.209133623</v>
       </c>
       <c r="E11" t="n">
-        <v>-359.877326232</v>
+        <v>294.67096293</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>353.65856378</v>
+        <v>277.112045549</v>
       </c>
       <c r="C12" t="n">
-        <v>-34.7035997738</v>
+        <v>315.864152123</v>
       </c>
       <c r="D12" t="n">
-        <v>-336.667246085</v>
+        <v>149.654261065</v>
       </c>
       <c r="E12" t="n">
-        <v>-353.65856378</v>
+        <v>277.112045549</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>316.20862399</v>
+        <v>210.661604178</v>
       </c>
       <c r="C13" t="n">
-        <v>-30.9110493946</v>
+        <v>240.349293454</v>
       </c>
       <c r="D13" t="n">
-        <v>-301.06997213</v>
+        <v>113.003480179</v>
       </c>
       <c r="E13" t="n">
-        <v>-316.20862399</v>
+        <v>210.661604178</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>363.07401364</v>
+        <v>244.053634839</v>
       </c>
       <c r="C14" t="n">
-        <v>-35.5019888684</v>
+        <v>278.60644644</v>
       </c>
       <c r="D14" t="n">
-        <v>-345.934870519</v>
+        <v>129.723342866</v>
       </c>
       <c r="E14" t="n">
-        <v>-363.07401364</v>
+        <v>244.053634839</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>343.123171241</v>
+        <v>268.396881132</v>
       </c>
       <c r="C15" t="n">
-        <v>-33.6436047867</v>
+        <v>306.088465917</v>
       </c>
       <c r="D15" t="n">
-        <v>-325.726529949</v>
+        <v>143.687391749</v>
       </c>
       <c r="E15" t="n">
-        <v>-343.123171241</v>
+        <v>268.396881132</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>166.949123936</v>
+        <v>215.356450213</v>
       </c>
       <c r="C16" t="n">
-        <v>-16.2697210765</v>
+        <v>244.64372991</v>
       </c>
       <c r="D16" t="n">
-        <v>-154.30822575</v>
+        <v>117.221086255</v>
       </c>
       <c r="E16" t="n">
-        <v>-166.949123936</v>
+        <v>215.356450213</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>48.0344070232</v>
+        <v>170.683134224</v>
       </c>
       <c r="C17" t="n">
-        <v>49.2819275185</v>
+        <v>191.813519487</v>
       </c>
       <c r="D17" t="n">
-        <v>2.90739330728</v>
+        <v>92.9560621863</v>
       </c>
       <c r="E17" t="n">
-        <v>48.0344070232</v>
+        <v>170.683134224</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>149.74274081</v>
+        <v>138.540414005</v>
       </c>
       <c r="C18" t="n">
-        <v>145.986309066</v>
+        <v>153.605651753</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2908035019</v>
+        <v>73.20070840469999</v>
       </c>
       <c r="E18" t="n">
-        <v>149.74274081</v>
+        <v>138.540414005</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>162.478349652</v>
+        <v>80.8180514084</v>
       </c>
       <c r="C19" t="n">
-        <v>150.835796044</v>
+        <v>87.02256727859999</v>
       </c>
       <c r="D19" t="n">
-        <v>14.0743205153</v>
+        <v>37.7346989353</v>
       </c>
       <c r="E19" t="n">
-        <v>162.478349652</v>
+        <v>80.8180514084</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>87.23751327479999</v>
+        <v>58.1460835315</v>
       </c>
       <c r="C20" t="n">
-        <v>74.35633627</v>
+        <v>61.9574795876</v>
       </c>
       <c r="D20" t="n">
-        <v>6.12872230794</v>
+        <v>24.2171077194</v>
       </c>
       <c r="E20" t="n">
-        <v>87.23751327479999</v>
+        <v>58.1460835315</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>131.885294377</v>
+        <v>123.144211863</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.2020182823</v>
+        <v>139.049634103</v>
       </c>
       <c r="D21" t="n">
-        <v>-130.638823923</v>
+        <v>64.2654366463</v>
       </c>
       <c r="E21" t="n">
-        <v>-131.885294377</v>
+        <v>123.144211863</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>336.725238389</v>
+        <v>237.470455202</v>
       </c>
       <c r="C22" t="n">
-        <v>-32.900950478</v>
+        <v>270.652303004</v>
       </c>
       <c r="D22" t="n">
-        <v>-318.572443502</v>
+        <v>127.57070254</v>
       </c>
       <c r="E22" t="n">
-        <v>-336.725238389</v>
+        <v>237.470455202</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>344.400178168</v>
+        <v>316.307759989</v>
       </c>
       <c r="C23" t="n">
-        <v>-32.6372582501</v>
+        <v>360.073041285</v>
       </c>
       <c r="D23" t="n">
-        <v>-311.896149657</v>
+        <v>173.799390837</v>
       </c>
       <c r="E23" t="n">
-        <v>-344.400178168</v>
+        <v>316.307759989</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>271.387053101</v>
+        <v>305.258409154</v>
       </c>
       <c r="C24" t="n">
-        <v>-25.3286343654</v>
+        <v>346.907426967</v>
       </c>
       <c r="D24" t="n">
-        <v>-240.90030913</v>
+        <v>168.408432725</v>
       </c>
       <c r="E24" t="n">
-        <v>-271.387053101</v>
+        <v>305.258409154</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>318.512100011</v>
+        <v>223.094022807</v>
       </c>
       <c r="C25" t="n">
-        <v>-31.3457928996</v>
+        <v>254.240743486</v>
       </c>
       <c r="D25" t="n">
-        <v>-306.395652974</v>
+        <v>119.535583823</v>
       </c>
       <c r="E25" t="n">
-        <v>-318.512100011</v>
+        <v>223.094022807</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>356.79519962</v>
+        <v>158.590673017</v>
       </c>
       <c r="C26" t="n">
-        <v>-35.2329384557</v>
+        <v>181.05725886</v>
       </c>
       <c r="D26" t="n">
-        <v>-354.495712507</v>
+        <v>80.3987207701</v>
       </c>
       <c r="E26" t="n">
-        <v>-356.79519962</v>
+        <v>158.590673017</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>181.441263417</v>
+        <v>154.377270185</v>
       </c>
       <c r="C27" t="n">
-        <v>-18.1497395969</v>
+        <v>175.233741196</v>
       </c>
       <c r="D27" t="n">
-        <v>-178.610024058</v>
+        <v>81.2950622882</v>
       </c>
       <c r="E27" t="n">
-        <v>-181.441263417</v>
+        <v>154.377270185</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>38.5323980194</v>
+        <v>175.651198823</v>
       </c>
       <c r="C28" t="n">
-        <v>36.8820120904</v>
+        <v>197.166691901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.42899393719</v>
+        <v>95.5025919919</v>
       </c>
       <c r="E28" t="n">
-        <v>38.5323980194</v>
+        <v>175.651198823</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>45.8612608369</v>
+        <v>193.233721478</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.144813076563</v>
+        <v>217.937948615</v>
       </c>
       <c r="D29" t="n">
-        <v>-30.0930983245</v>
+        <v>105.775399334</v>
       </c>
       <c r="E29" t="n">
-        <v>-45.8612608369</v>
+        <v>193.233721478</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>326.592569008</v>
+        <v>217.099546553</v>
       </c>
       <c r="C30" t="n">
-        <v>-32.2912538803</v>
+        <v>247.497604575</v>
       </c>
       <c r="D30" t="n">
-        <v>-317.913667649</v>
+        <v>115.49805586</v>
       </c>
       <c r="E30" t="n">
-        <v>-326.592569008</v>
+        <v>217.099546553</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>538.561363934</v>
+        <v>245.04557026</v>
       </c>
       <c r="C31" t="n">
-        <v>-52.8594248601</v>
+        <v>280.287605007</v>
       </c>
       <c r="D31" t="n">
-        <v>-526.244185299</v>
+        <v>127.022054756</v>
       </c>
       <c r="E31" t="n">
-        <v>-538.561363934</v>
+        <v>245.04557026</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>537.080634702</v>
+        <v>280.723677204</v>
       </c>
       <c r="C32" t="n">
-        <v>-52.3575182356</v>
+        <v>321.007321936</v>
       </c>
       <c r="D32" t="n">
-        <v>-514.316626584</v>
+        <v>148.646491511</v>
       </c>
       <c r="E32" t="n">
-        <v>-537.080634702</v>
+        <v>280.723677204</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>446.226706864</v>
+        <v>327.671581182</v>
       </c>
       <c r="C33" t="n">
-        <v>-42.6987666175</v>
+        <v>374.130017088</v>
       </c>
       <c r="D33" t="n">
-        <v>-411.763709175</v>
+        <v>177.416116157</v>
       </c>
       <c r="E33" t="n">
-        <v>-446.226706864</v>
+        <v>327.671581182</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>378.255887878</v>
+        <v>333.935964418</v>
       </c>
       <c r="C34" t="n">
-        <v>-36.1014591075</v>
+        <v>381.205234941</v>
       </c>
       <c r="D34" t="n">
-        <v>-346.283889534</v>
+        <v>180.719748697</v>
       </c>
       <c r="E34" t="n">
-        <v>-378.255887878</v>
+        <v>333.935964418</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>285.405534237</v>
+        <v>267.906819437</v>
       </c>
       <c r="C35" t="n">
-        <v>-28.0078820939</v>
+        <v>305.932144282</v>
       </c>
       <c r="D35" t="n">
-        <v>-271.163025357</v>
+        <v>143.127076635</v>
       </c>
       <c r="E35" t="n">
-        <v>-285.405534237</v>
+        <v>267.906819437</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>87.9007158921</v>
+        <v>189.861484719</v>
       </c>
       <c r="C36" t="n">
-        <v>-8.704496993999999</v>
+        <v>216.194521029</v>
       </c>
       <c r="D36" t="n">
-        <v>-88.9149215775</v>
+        <v>101.138900031</v>
       </c>
       <c r="E36" t="n">
-        <v>-87.9007158921</v>
+        <v>189.861484719</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>147.155518721</v>
+        <v>147.783887213</v>
       </c>
       <c r="C37" t="n">
-        <v>136.959149804</v>
+        <v>166.031028216</v>
       </c>
       <c r="D37" t="n">
-        <v>12.6793863335</v>
+        <v>79.1223018873</v>
       </c>
       <c r="E37" t="n">
-        <v>147.155518721</v>
+        <v>147.783887213</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>225.068739389</v>
+        <v>116.142379873</v>
       </c>
       <c r="C38" t="n">
-        <v>214.935707544</v>
+        <v>127.434205767</v>
       </c>
       <c r="D38" t="n">
-        <v>20.5047136579</v>
+        <v>59.7281029879</v>
       </c>
       <c r="E38" t="n">
-        <v>225.068739389</v>
+        <v>116.142379873</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>52.6374993182</v>
+        <v>96.1990684396</v>
       </c>
       <c r="C39" t="n">
-        <v>46.8584992253</v>
+        <v>106.190080295</v>
       </c>
       <c r="D39" t="n">
-        <v>3.09198086557</v>
+        <v>49.0848420949</v>
       </c>
       <c r="E39" t="n">
-        <v>52.6374993182</v>
+        <v>96.1990684396</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>269.678430174</v>
+        <v>146.492125729</v>
       </c>
       <c r="C40" t="n">
-        <v>-26.7270080773</v>
+        <v>166.655640147</v>
       </c>
       <c r="D40" t="n">
-        <v>-262.570470191</v>
+        <v>76.18407472059999</v>
       </c>
       <c r="E40" t="n">
-        <v>-269.678430174</v>
+        <v>146.492125729</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>506.985080754</v>
+        <v>259.08733634</v>
       </c>
       <c r="C41" t="n">
-        <v>-49.4293238564</v>
+        <v>296.175583945</v>
       </c>
       <c r="D41" t="n">
-        <v>-483.54860839</v>
+        <v>136.169512596</v>
       </c>
       <c r="E41" t="n">
-        <v>-506.985080754</v>
+        <v>259.08733634</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>581.862259817</v>
+        <v>360.829578245</v>
       </c>
       <c r="C42" t="n">
-        <v>-56.0892402817</v>
+        <v>412.647981765</v>
       </c>
       <c r="D42" t="n">
-        <v>-545.718333888</v>
+        <v>193.317300221</v>
       </c>
       <c r="E42" t="n">
-        <v>-581.862259817</v>
+        <v>360.829578245</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>592.548746948</v>
+        <v>414.893553453</v>
       </c>
       <c r="C43" t="n">
-        <v>-57.087396027</v>
+        <v>474.75114865</v>
       </c>
       <c r="D43" t="n">
-        <v>-555.770007166</v>
+        <v>222.578067434</v>
       </c>
       <c r="E43" t="n">
-        <v>-592.548746948</v>
+        <v>414.893553453</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>565.728947823</v>
+        <v>414.612316796</v>
       </c>
       <c r="C44" t="n">
-        <v>-55.036184459</v>
+        <v>474.868901639</v>
       </c>
       <c r="D44" t="n">
-        <v>-539.088733498</v>
+        <v>218.988038737</v>
       </c>
       <c r="E44" t="n">
-        <v>-565.728947823</v>
+        <v>414.612316796</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>393.54863772</v>
+        <v>360.889272271</v>
       </c>
       <c r="C45" t="n">
-        <v>-38.6846267815</v>
+        <v>413.419642876</v>
       </c>
       <c r="D45" t="n">
-        <v>-379.723012707</v>
+        <v>187.939752365</v>
       </c>
       <c r="E45" t="n">
-        <v>-393.54863772</v>
+        <v>360.889272271</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>50.7533985732</v>
+        <v>277.147816759</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.60383517432</v>
+        <v>316.787001271</v>
       </c>
       <c r="D46" t="n">
-        <v>-47.2852047431</v>
+        <v>147.173437897</v>
       </c>
       <c r="E46" t="n">
-        <v>-50.7533985732</v>
+        <v>277.147816759</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>336.006104203</v>
+        <v>187.607574772</v>
       </c>
       <c r="C47" t="n">
-        <v>329.312762971</v>
+        <v>211.031590283</v>
       </c>
       <c r="D47" t="n">
-        <v>31.5480421082</v>
+        <v>102.51097053</v>
       </c>
       <c r="E47" t="n">
-        <v>336.006104203</v>
+        <v>187.607574772</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>614.5039979220001</v>
+        <v>90.1315273149</v>
       </c>
       <c r="C48" t="n">
-        <v>596.668379889</v>
+        <v>92.8606784855</v>
       </c>
       <c r="D48" t="n">
-        <v>58.4165822169</v>
+        <v>30.1657665183</v>
       </c>
       <c r="E48" t="n">
-        <v>614.5039979220001</v>
+        <v>90.1315273149</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>697.691066695</v>
+        <v>77.9774694863</v>
       </c>
       <c r="C49" t="n">
-        <v>667.9282052250001</v>
+        <v>-5.27790510462</v>
       </c>
       <c r="D49" t="n">
-        <v>66.1282455786</v>
+        <v>-80.155214386</v>
       </c>
       <c r="E49" t="n">
-        <v>697.691066695</v>
+        <v>-77.9774694863</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>623.688202264</v>
+        <v>120.639819912</v>
       </c>
       <c r="C50" t="n">
-        <v>589.280478219</v>
+        <v>-47.4353342652</v>
       </c>
       <c r="D50" t="n">
-        <v>58.6239043742</v>
+        <v>-136.985422364</v>
       </c>
       <c r="E50" t="n">
-        <v>623.688202264</v>
+        <v>-120.639819912</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>499.491525941</v>
+        <v>73.57169058220001</v>
       </c>
       <c r="C51" t="n">
-        <v>474.539065928</v>
+        <v>-14.2845702887</v>
       </c>
       <c r="D51" t="n">
-        <v>46.8731176294</v>
+        <v>-79.3915849024</v>
       </c>
       <c r="E51" t="n">
-        <v>499.491525941</v>
+        <v>-73.57169058220001</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>348.633692387</v>
+        <v>81.3710443205</v>
       </c>
       <c r="C52" t="n">
-        <v>340.374470441</v>
+        <v>84.03080250169999</v>
       </c>
       <c r="D52" t="n">
-        <v>32.7251742477</v>
+        <v>27.3819815506</v>
       </c>
       <c r="E52" t="n">
-        <v>348.633692387</v>
+        <v>81.3710443205</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>104.45517783</v>
+        <v>179.862085883</v>
       </c>
       <c r="C53" t="n">
-        <v>107.112961505</v>
+        <v>200.424982398</v>
       </c>
       <c r="D53" t="n">
-        <v>8.557922936220001</v>
+        <v>97.92310027569999</v>
       </c>
       <c r="E53" t="n">
-        <v>104.45517783</v>
+        <v>179.862085883</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>264.913119962</v>
+        <v>246.276714848</v>
       </c>
       <c r="C54" t="n">
-        <v>-25.9531624636</v>
+        <v>280.241626948</v>
       </c>
       <c r="D54" t="n">
-        <v>-250.221239959</v>
+        <v>133.783451646</v>
       </c>
       <c r="E54" t="n">
-        <v>-264.913119962</v>
+        <v>246.276714848</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>598.301659531</v>
+        <v>291.498211127</v>
       </c>
       <c r="C55" t="n">
-        <v>-58.4738451936</v>
+        <v>333.649979059</v>
       </c>
       <c r="D55" t="n">
-        <v>-577.791371613</v>
+        <v>152.041504798</v>
       </c>
       <c r="E55" t="n">
-        <v>-598.301659531</v>
+        <v>291.498211127</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>726.806128456</v>
+        <v>329.549651755</v>
       </c>
       <c r="C56" t="n">
-        <v>-70.73923730600001</v>
+        <v>377.403840768</v>
       </c>
       <c r="D56" t="n">
-        <v>-697.9881611979999</v>
+        <v>171.854123361</v>
       </c>
       <c r="E56" t="n">
-        <v>-726.806128456</v>
+        <v>329.549651755</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>693.656601031</v>
+        <v>357.787614871</v>
       </c>
       <c r="C57" t="n">
-        <v>-67.1095129827</v>
+        <v>409.30063157</v>
       </c>
       <c r="D57" t="n">
-        <v>-657.1243844540001</v>
+        <v>190.923090466</v>
       </c>
       <c r="E57" t="n">
-        <v>-693.656601031</v>
+        <v>357.787614871</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>660.525961791</v>
+        <v>354.384012972</v>
       </c>
       <c r="C58" t="n">
-        <v>-63.8530057094</v>
+        <v>405.127756411</v>
       </c>
       <c r="D58" t="n">
-        <v>-624.146825699</v>
+        <v>190.426539741</v>
       </c>
       <c r="E58" t="n">
-        <v>-660.525961791</v>
+        <v>354.384012972</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>623.9441550940001</v>
+        <v>305.666218739</v>
       </c>
       <c r="C59" t="n">
-        <v>-60.7049506406</v>
+        <v>349.343275762</v>
       </c>
       <c r="D59" t="n">
-        <v>-596.3045904860001</v>
+        <v>163.320999086</v>
       </c>
       <c r="E59" t="n">
-        <v>-623.9441550940001</v>
+        <v>305.666218739</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>463.054621566</v>
+        <v>229.139491419</v>
       </c>
       <c r="C60" t="n">
-        <v>-45.3588223597</v>
+        <v>261.270260434</v>
       </c>
       <c r="D60" t="n">
-        <v>-445.87545437</v>
+        <v>122.467902154</v>
       </c>
       <c r="E60" t="n">
-        <v>-463.054621566</v>
+        <v>229.139491419</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>142.459948285</v>
+        <v>151.083523248</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.0454277688</v>
+        <v>169.854088438</v>
       </c>
       <c r="D61" t="n">
-        <v>-133.759327646</v>
+        <v>81.1585524723</v>
       </c>
       <c r="E61" t="n">
-        <v>-142.459948285</v>
+        <v>151.083523248</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>235.184001044</v>
+        <v>87.50943587979999</v>
       </c>
       <c r="C62" t="n">
-        <v>232.995979232</v>
+        <v>92.47532436580001</v>
       </c>
       <c r="D62" t="n">
-        <v>21.7333663666</v>
+        <v>36.1669694222</v>
       </c>
       <c r="E62" t="n">
-        <v>235.184001044</v>
+        <v>87.50943587979999</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>500.116029073</v>
+        <v>53.304755386</v>
       </c>
       <c r="C63" t="n">
-        <v>485.73475186</v>
+        <v>38.7882288404</v>
       </c>
       <c r="D63" t="n">
-        <v>47.3682148703</v>
+        <v>-13.036485612</v>
       </c>
       <c r="E63" t="n">
-        <v>500.116029073</v>
+        <v>53.304755386</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>551.347312066</v>
+        <v>45.6198345271</v>
       </c>
       <c r="C64" t="n">
-        <v>524.71760407</v>
+        <v>15.8127206971</v>
       </c>
       <c r="D64" t="n">
-        <v>51.8997221343</v>
+        <v>-34.5588813265</v>
       </c>
       <c r="E64" t="n">
-        <v>551.347312066</v>
+        <v>-45.6198345271</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>389.362563658</v>
+        <v>42.4419113097</v>
       </c>
       <c r="C65" t="n">
-        <v>359.558575328</v>
+        <v>41.3188673836</v>
       </c>
       <c r="D65" t="n">
-        <v>35.6241400252</v>
+        <v>6.73319179547</v>
       </c>
       <c r="E65" t="n">
-        <v>389.362563658</v>
+        <v>42.4419113097</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>125.816969136</v>
+        <v>141.710554551</v>
       </c>
       <c r="C66" t="n">
-        <v>109.799321296</v>
+        <v>160.278120159</v>
       </c>
       <c r="D66" t="n">
-        <v>9.918185757890001</v>
+        <v>75.0142894844</v>
       </c>
       <c r="E66" t="n">
-        <v>125.816969136</v>
+        <v>141.710554551</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>129.47747516</v>
+        <v>281.948043985</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.4669104542</v>
+        <v>321.794927275</v>
       </c>
       <c r="D67" t="n">
-        <v>-117.780482682</v>
+        <v>151.722817465</v>
       </c>
       <c r="E67" t="n">
-        <v>-129.47747516</v>
+        <v>281.948043985</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>378.494909774</v>
+        <v>390.088593741</v>
       </c>
       <c r="C68" t="n">
-        <v>-35.9941923317</v>
+        <v>446.126008339</v>
       </c>
       <c r="D68" t="n">
-        <v>-345.268741103</v>
+        <v>209.704444198</v>
       </c>
       <c r="E68" t="n">
-        <v>-378.494909774</v>
+        <v>390.088593741</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>608.3888202970001</v>
+        <v>430.295454168</v>
       </c>
       <c r="C69" t="n">
-        <v>-58.612973969</v>
+        <v>492.779744444</v>
       </c>
       <c r="D69" t="n">
-        <v>-570.570597382</v>
+        <v>228.293627464</v>
       </c>
       <c r="E69" t="n">
-        <v>-608.3888202970001</v>
+        <v>430.295454168</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>685.971955529</v>
+        <v>407.531954077</v>
       </c>
       <c r="C70" t="n">
-        <v>-66.6343246079</v>
+        <v>466.957428312</v>
       </c>
       <c r="D70" t="n">
-        <v>-654.836915167</v>
+        <v>213.262160328</v>
       </c>
       <c r="E70" t="n">
-        <v>-685.971955529</v>
+        <v>407.531954077</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>564.2526126499999</v>
+        <v>349.521266697</v>
       </c>
       <c r="C71" t="n">
-        <v>-55.1043282034</v>
+        <v>400.274713224</v>
       </c>
       <c r="D71" t="n">
-        <v>-542.7368646260001</v>
+        <v>183.075156748</v>
       </c>
       <c r="E71" t="n">
-        <v>-564.2526126499999</v>
+        <v>349.521266697</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>363.399850364</v>
+        <v>288.046848097</v>
       </c>
       <c r="C72" t="n">
-        <v>-35.7169086242</v>
+        <v>329.426644638</v>
       </c>
       <c r="D72" t="n">
-        <v>-349.720990013</v>
+        <v>152.133703812</v>
       </c>
       <c r="E72" t="n">
-        <v>-363.399850364</v>
+        <v>288.046848097</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>190.361804108</v>
+        <v>238.740336588</v>
       </c>
       <c r="C73" t="n">
-        <v>-18.8644802109</v>
+        <v>272.430010251</v>
       </c>
       <c r="D73" t="n">
-        <v>-181.762653996</v>
+        <v>127.268202802</v>
       </c>
       <c r="E73" t="n">
-        <v>-190.361804108</v>
+        <v>238.740336588</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>100.424812569</v>
+        <v>201.95499168</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.93002406516</v>
+        <v>229.483572737</v>
       </c>
       <c r="D74" t="n">
-        <v>-95.00625525149999</v>
+        <v>108.809092983</v>
       </c>
       <c r="E74" t="n">
-        <v>-100.424812569</v>
+        <v>201.95499168</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>98.5552461727</v>
+        <v>173.619334296</v>
       </c>
       <c r="C75" t="n">
-        <v>-9.82327735578</v>
+        <v>196.286364806</v>
       </c>
       <c r="D75" t="n">
-        <v>-94.72591235589999</v>
+        <v>93.7214728287</v>
       </c>
       <c r="E75" t="n">
-        <v>-98.5552461727</v>
+        <v>173.619334296</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>116.723004517</v>
+        <v>153.635926286</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.6408227465</v>
+        <v>173.048451487</v>
       </c>
       <c r="D76" t="n">
-        <v>-111.822551314</v>
+        <v>82.5305629197</v>
       </c>
       <c r="E76" t="n">
-        <v>-116.723004517</v>
+        <v>153.635926286</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>65.0523615151</v>
+        <v>143.418006534</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.61422944677</v>
+        <v>160.826389798</v>
       </c>
       <c r="D77" t="n">
-        <v>-56.3583792548</v>
+        <v>76.74986031349999</v>
       </c>
       <c r="E77" t="n">
-        <v>-65.0523615151</v>
+        <v>143.418006534</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>82.19571466230001</v>
+        <v>135.35041572</v>
       </c>
       <c r="C78" t="n">
-        <v>84.59039879309999</v>
+        <v>150.339487286</v>
       </c>
       <c r="D78" t="n">
-        <v>6.21039937911</v>
+        <v>71.8828534135</v>
       </c>
       <c r="E78" t="n">
-        <v>82.19571466230001</v>
+        <v>135.35041572</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>176.321169419</v>
+        <v>121.363487644</v>
       </c>
       <c r="C79" t="n">
-        <v>175.243253326</v>
+        <v>133.049004821</v>
       </c>
       <c r="D79" t="n">
-        <v>15.9697568738</v>
+        <v>62.8174319521</v>
       </c>
       <c r="E79" t="n">
-        <v>176.321169419</v>
+        <v>121.363487644</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>119.199795935</v>
+        <v>108.900161649</v>
       </c>
       <c r="C80" t="n">
-        <v>110.120051623</v>
+        <v>119.879468279</v>
       </c>
       <c r="D80" t="n">
-        <v>9.935028429200001</v>
+        <v>56.0621857932</v>
       </c>
       <c r="E80" t="n">
-        <v>119.199795935</v>
+        <v>108.900161649</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>42.5531088643</v>
+        <v>123.82971691</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.74738040784</v>
+        <v>139.49578334</v>
       </c>
       <c r="D81" t="n">
-        <v>-42.0270331969</v>
+        <v>65.0177667606</v>
       </c>
       <c r="E81" t="n">
-        <v>-42.5531088643</v>
+        <v>123.82971691</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>133.167344598</v>
+        <v>182.707973393</v>
       </c>
       <c r="C82" t="n">
-        <v>-13.3641539677</v>
+        <v>207.96110965</v>
       </c>
       <c r="D82" t="n">
-        <v>-131.210810705</v>
+        <v>96.85940268580001</v>
       </c>
       <c r="E82" t="n">
-        <v>-133.167344598</v>
+        <v>182.707973393</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>175.353703069</v>
+        <v>266.885807887</v>
       </c>
       <c r="C83" t="n">
-        <v>-16.5530781244</v>
+        <v>304.597786494</v>
       </c>
       <c r="D83" t="n">
-        <v>-156.377939749</v>
+        <v>143.17230507</v>
       </c>
       <c r="E83" t="n">
-        <v>-175.353703069</v>
+        <v>266.885807887</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>226.308635491</v>
+        <v>329.823844207</v>
       </c>
       <c r="C84" t="n">
-        <v>-20.9548474813</v>
+        <v>376.61396826</v>
       </c>
       <c r="D84" t="n">
-        <v>-198.569893951</v>
+        <v>178.413839448</v>
       </c>
       <c r="E84" t="n">
-        <v>-226.308635491</v>
+        <v>329.823844207</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>304.539973998</v>
+        <v>331.154854884</v>
       </c>
       <c r="C85" t="n">
-        <v>-29.5881106759</v>
+        <v>378.006540378</v>
       </c>
       <c r="D85" t="n">
-        <v>-284.737435291</v>
+        <v>179.585541652</v>
       </c>
       <c r="E85" t="n">
-        <v>-304.539973998</v>
+        <v>331.154854884</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>387.841654054</v>
+        <v>275.236273991</v>
       </c>
       <c r="C86" t="n">
-        <v>-38.2092046214</v>
+        <v>314.157418101</v>
       </c>
       <c r="D86" t="n">
-        <v>-377.648288094</v>
+        <v>147.822911132</v>
       </c>
       <c r="E86" t="n">
-        <v>-387.841654054</v>
+        <v>275.236273991</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>445.960973935</v>
+        <v>212.432682372</v>
       </c>
       <c r="C87" t="n">
-        <v>-43.8893042618</v>
+        <v>242.614794209</v>
       </c>
       <c r="D87" t="n">
-        <v>-437.51078073</v>
+        <v>111.208091919</v>
       </c>
       <c r="E87" t="n">
-        <v>-445.960973935</v>
+        <v>212.432682372</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>468.184476731</v>
+        <v>192.094769976</v>
       </c>
       <c r="C88" t="n">
-        <v>-45.9007253985</v>
+        <v>219.340323445</v>
       </c>
       <c r="D88" t="n">
-        <v>-452.243908484</v>
+        <v>99.72903681370001</v>
       </c>
       <c r="E88" t="n">
-        <v>-468.184476731</v>
+        <v>192.094769976</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>454.949112827</v>
+        <v>219.506549677</v>
       </c>
       <c r="C89" t="n">
-        <v>-44.0505501791</v>
+        <v>250.181977166</v>
       </c>
       <c r="D89" t="n">
-        <v>-427.492349645</v>
+        <v>117.249399252</v>
       </c>
       <c r="E89" t="n">
-        <v>-454.949112827</v>
+        <v>219.506549677</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>457.691164748</v>
+        <v>260.109501425</v>
       </c>
       <c r="C90" t="n">
-        <v>-44.0541535481</v>
+        <v>296.141016616</v>
       </c>
       <c r="D90" t="n">
-        <v>-426.149284618</v>
+        <v>141.369143216</v>
       </c>
       <c r="E90" t="n">
-        <v>-457.691164748</v>
+        <v>260.109501425</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>500.350206287</v>
+        <v>278.554727928</v>
       </c>
       <c r="C91" t="n">
-        <v>-48.7068870216</v>
+        <v>317.66871422</v>
       </c>
       <c r="D91" t="n">
-        <v>-475.988274185</v>
+        <v>150.629421872</v>
       </c>
       <c r="E91" t="n">
-        <v>-500.350206287</v>
+        <v>278.554727928</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>493.754108644</v>
+        <v>272.314486225</v>
       </c>
       <c r="C92" t="n">
-        <v>-48.4112431046</v>
+        <v>311.174207513</v>
       </c>
       <c r="D92" t="n">
-        <v>-478.208965335</v>
+        <v>144.669723331</v>
       </c>
       <c r="E92" t="n">
-        <v>-493.754108644</v>
+        <v>272.314486225</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>401.357513453</v>
+        <v>264.083307251</v>
       </c>
       <c r="C93" t="n">
-        <v>-39.4919867275</v>
+        <v>301.978026734</v>
       </c>
       <c r="D93" t="n">
-        <v>-389.591088237</v>
+        <v>138.813589443</v>
       </c>
       <c r="E93" t="n">
-        <v>-401.357513453</v>
+        <v>264.083307251</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>293.678574374</v>
+        <v>273.104845764</v>
       </c>
       <c r="C94" t="n">
-        <v>-28.8808304954</v>
+        <v>312.268481844</v>
       </c>
       <c r="D94" t="n">
-        <v>-280.472379371</v>
+        <v>144.093390683</v>
       </c>
       <c r="E94" t="n">
-        <v>-293.678574374</v>
+        <v>273.104845764</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>240.985942313</v>
+        <v>297.821712236</v>
       </c>
       <c r="C95" t="n">
-        <v>-23.5104295387</v>
+        <v>340.566254547</v>
       </c>
       <c r="D95" t="n">
-        <v>-225.323128433</v>
+        <v>157.895507485</v>
       </c>
       <c r="E95" t="n">
-        <v>-240.985942313</v>
+        <v>297.821712236</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>223.577798831</v>
+        <v>319.621195115</v>
       </c>
       <c r="C96" t="n">
-        <v>-21.8523905639</v>
+        <v>365.550805863</v>
       </c>
       <c r="D96" t="n">
-        <v>-209.166248868</v>
+        <v>169.920766279</v>
       </c>
       <c r="E96" t="n">
-        <v>-223.577798831</v>
+        <v>319.621195115</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>195.070874819</v>
+        <v>316.867754033</v>
       </c>
       <c r="C97" t="n">
-        <v>-19.2563848988</v>
+        <v>362.142385728</v>
       </c>
       <c r="D97" t="n">
-        <v>-184.931845102</v>
+        <v>169.712565173</v>
       </c>
       <c r="E97" t="n">
-        <v>-195.070874819</v>
+        <v>316.867754033</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>151.877337306</v>
+        <v>279.385536711</v>
       </c>
       <c r="C98" t="n">
-        <v>-15.1344224755</v>
+        <v>318.670309512</v>
       </c>
       <c r="D98" t="n">
-        <v>-145.730988023</v>
+        <v>150.931814573</v>
       </c>
       <c r="E98" t="n">
-        <v>-151.877337306</v>
+        <v>279.385536711</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>75.5377004075</v>
+        <v>208.176796971</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.35584997445</v>
+        <v>236.080404128</v>
       </c>
       <c r="D99" t="n">
-        <v>-71.1692659393</v>
+        <v>113.172790263</v>
       </c>
       <c r="E99" t="n">
-        <v>-75.5377004075</v>
+        <v>208.176796971</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>48.5036028784</v>
+        <v>125.384865957</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.17757236269</v>
+        <v>139.250089631</v>
       </c>
       <c r="D100" t="n">
-        <v>-44.1648974722</v>
+        <v>66.0896847372</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.5036028784</v>
+        <v>125.384865957</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>118.686047556</v>
+        <v>66.703453275</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.8438307496</v>
+        <v>70.5708155201</v>
       </c>
       <c r="D101" t="n">
-        <v>-113.844305562</v>
+        <v>26.7580383031</v>
       </c>
       <c r="E101" t="n">
-        <v>-118.686047556</v>
+        <v>66.703453275</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>154.203772874</v>
+        <v>54.055639038</v>
       </c>
       <c r="C102" t="n">
-        <v>-15.2947245566</v>
+        <v>54.93504588</v>
       </c>
       <c r="D102" t="n">
-        <v>-146.488622279</v>
+        <v>14.6016359138</v>
       </c>
       <c r="E102" t="n">
-        <v>-154.203772874</v>
+        <v>54.055639038</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>125.151639868</v>
+        <v>83.1951435916</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.0305680202</v>
+        <v>89.04086305520001</v>
       </c>
       <c r="D103" t="n">
-        <v>-113.686825771</v>
+        <v>37.7481478155</v>
       </c>
       <c r="E103" t="n">
-        <v>-125.151639868</v>
+        <v>83.1951435916</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>164.787387672</v>
+        <v>146.180330907</v>
       </c>
       <c r="C104" t="n">
-        <v>-16.1422730384</v>
+        <v>164.124986272</v>
       </c>
       <c r="D104" t="n">
-        <v>-153.592028554</v>
+        <v>78.3313659849</v>
       </c>
       <c r="E104" t="n">
-        <v>-164.787387672</v>
+        <v>146.180330907</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>263.144477446</v>
+        <v>228.041657044</v>
       </c>
       <c r="C105" t="n">
-        <v>-26.0186337635</v>
+        <v>259.888314256</v>
       </c>
       <c r="D105" t="n">
-        <v>-253.416000658</v>
+        <v>122.234504039</v>
       </c>
       <c r="E105" t="n">
-        <v>-263.144477446</v>
+        <v>228.041657044</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>229.70816918</v>
+        <v>297.504717952</v>
       </c>
       <c r="C106" t="n">
-        <v>-22.6911195916</v>
+        <v>339.818708861</v>
       </c>
       <c r="D106" t="n">
-        <v>-219.301573747</v>
+        <v>159.61086047</v>
       </c>
       <c r="E106" t="n">
-        <v>-229.70816918</v>
+        <v>297.504717952</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>53.8335552455</v>
+        <v>324.10811845</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.19456569318</v>
+        <v>369.956599711</v>
       </c>
       <c r="D107" t="n">
-        <v>-39.0360053283</v>
+        <v>175.611921964</v>
       </c>
       <c r="E107" t="n">
-        <v>-53.8335552455</v>
+        <v>324.10811845</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>65.03884409840001</v>
+        <v>302.771943578</v>
       </c>
       <c r="C108" t="n">
-        <v>66.77244715729999</v>
+        <v>345.738672593</v>
       </c>
       <c r="D108" t="n">
-        <v>4.52475593359</v>
+        <v>162.942568704</v>
       </c>
       <c r="E108" t="n">
-        <v>65.03884409840001</v>
+        <v>302.771943578</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>35.9875557063</v>
+        <v>265.174911903</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.7486890415</v>
+        <v>303.372463662</v>
       </c>
       <c r="D109" t="n">
-        <v>-36.8328866201</v>
+        <v>138.434267327</v>
       </c>
       <c r="E109" t="n">
-        <v>-35.9875557063</v>
+        <v>265.174911903</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>162.104935283</v>
+        <v>250.674479163</v>
       </c>
       <c r="C110" t="n">
-        <v>-16.0897418313</v>
+        <v>286.843061369</v>
       </c>
       <c r="D110" t="n">
-        <v>-163.697087988</v>
+        <v>129.622166687</v>
       </c>
       <c r="E110" t="n">
-        <v>-162.104935283</v>
+        <v>250.674479163</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>136.458907066</v>
+        <v>257.674340661</v>
       </c>
       <c r="C111" t="n">
-        <v>-13.6096786271</v>
+        <v>293.917723607</v>
       </c>
       <c r="D111" t="n">
-        <v>-130.851430098</v>
+        <v>138.486351994</v>
       </c>
       <c r="E111" t="n">
-        <v>-136.458907066</v>
+        <v>257.674340661</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>71.21929117249999</v>
+        <v>247.198862138</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.29733625271</v>
+        <v>280.01951975</v>
       </c>
       <c r="D112" t="n">
-        <v>-48.774441891</v>
+        <v>136.146906938</v>
       </c>
       <c r="E112" t="n">
-        <v>-71.21929117249999</v>
+        <v>247.198862138</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>128.657904295</v>
+        <v>193.981423792</v>
       </c>
       <c r="C113" t="n">
-        <v>-11.4975520885</v>
+        <v>218.815615064</v>
       </c>
       <c r="D113" t="n">
-        <v>-109.383546304</v>
+        <v>105.921130353</v>
       </c>
       <c r="E113" t="n">
-        <v>-128.657904295</v>
+        <v>193.981423792</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>277.150407455</v>
+        <v>127.128442277</v>
       </c>
       <c r="C114" t="n">
-        <v>-27.4030035096</v>
+        <v>143.441896955</v>
       </c>
       <c r="D114" t="n">
-        <v>-267.645812581</v>
+        <v>66.80843052660001</v>
       </c>
       <c r="E114" t="n">
-        <v>-277.150407455</v>
+        <v>127.128442277</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>342.543164172</v>
+        <v>99.6507192456</v>
       </c>
       <c r="C115" t="n">
-        <v>-33.8489142586</v>
+        <v>111.790735582</v>
       </c>
       <c r="D115" t="n">
-        <v>-335.876513582</v>
+        <v>51.064694914</v>
       </c>
       <c r="E115" t="n">
-        <v>-342.543164172</v>
+        <v>99.6507192456</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>308.329029053</v>
+        <v>126.247641923</v>
       </c>
       <c r="C116" t="n">
-        <v>-30.4183679838</v>
+        <v>140.767559417</v>
       </c>
       <c r="D116" t="n">
-        <v>-297.529544871</v>
+        <v>66.7161877162</v>
       </c>
       <c r="E116" t="n">
-        <v>-308.329029053</v>
+        <v>126.247641923</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>249.148087793</v>
+        <v>169.199429938</v>
       </c>
       <c r="C117" t="n">
-        <v>-24.1199858813</v>
+        <v>189.329314126</v>
       </c>
       <c r="D117" t="n">
-        <v>-230.491504144</v>
+        <v>91.81887351</v>
       </c>
       <c r="E117" t="n">
-        <v>-249.148087793</v>
+        <v>169.199429938</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>226.590982885</v>
+        <v>189.700484113</v>
       </c>
       <c r="C118" t="n">
-        <v>-21.6721958019</v>
+        <v>213.83774711</v>
       </c>
       <c r="D118" t="n">
-        <v>-205.929702252</v>
+        <v>103.499246033</v>
       </c>
       <c r="E118" t="n">
-        <v>-226.590982885</v>
+        <v>189.700484113</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>311.001091591</v>
+        <v>194.379372517</v>
       </c>
       <c r="C119" t="n">
-        <v>-30.5593299132</v>
+        <v>221.101231427</v>
       </c>
       <c r="D119" t="n">
-        <v>-297.166595444</v>
+        <v>103.971827255</v>
       </c>
       <c r="E119" t="n">
-        <v>-311.001091591</v>
+        <v>194.379372517</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>462.409876716</v>
+        <v>221.77556873</v>
       </c>
       <c r="C120" t="n">
-        <v>-45.469036012</v>
+        <v>253.536802396</v>
       </c>
       <c r="D120" t="n">
-        <v>-452.018215391</v>
+        <v>115.086678693</v>
       </c>
       <c r="E120" t="n">
-        <v>-462.409876716</v>
+        <v>221.77556873</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>520.796079105</v>
+        <v>284.575391558</v>
       </c>
       <c r="C121" t="n">
-        <v>-51.0636163884</v>
+        <v>325.615016172</v>
       </c>
       <c r="D121" t="n">
-        <v>-505.782155934</v>
+        <v>149.099025652</v>
       </c>
       <c r="E121" t="n">
-        <v>-520.796079105</v>
+        <v>284.575391558</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>450.557798063</v>
+        <v>350.72005267</v>
       </c>
       <c r="C122" t="n">
-        <v>-43.7445054661</v>
+        <v>401.024701832</v>
       </c>
       <c r="D122" t="n">
-        <v>-425.278367341</v>
+        <v>187.943208955</v>
       </c>
       <c r="E122" t="n">
-        <v>-450.557798063</v>
+        <v>350.72005267</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>326.164386019</v>
+        <v>364.914464385</v>
       </c>
       <c r="C123" t="n">
-        <v>-30.8754188044</v>
+        <v>416.777084286</v>
       </c>
       <c r="D123" t="n">
-        <v>-294.967585717</v>
+        <v>197.988629369</v>
       </c>
       <c r="E123" t="n">
-        <v>-326.164386019</v>
+        <v>364.914464385</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>213.199238215</v>
+        <v>301.993414772</v>
       </c>
       <c r="C124" t="n">
-        <v>-20.2484271121</v>
+        <v>344.397703625</v>
       </c>
       <c r="D124" t="n">
-        <v>-191.950336963</v>
+        <v>164.034011789</v>
       </c>
       <c r="E124" t="n">
-        <v>-213.199238215</v>
+        <v>301.993414772</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>159.455080699</v>
+        <v>194.508256194</v>
       </c>
       <c r="C125" t="n">
-        <v>-15.9645360789</v>
+        <v>221.147290697</v>
       </c>
       <c r="D125" t="n">
-        <v>-156.209045666</v>
+        <v>104.258166702</v>
       </c>
       <c r="E125" t="n">
-        <v>-159.455080699</v>
+        <v>194.508256194</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>102.256768957</v>
+        <v>99.2598953952</v>
       </c>
       <c r="C126" t="n">
-        <v>-9.725208024120001</v>
+        <v>110.528697525</v>
       </c>
       <c r="D126" t="n">
-        <v>-105.580199555</v>
+        <v>50.9655155233</v>
       </c>
       <c r="E126" t="n">
-        <v>-102.256768957</v>
+        <v>99.2598953952</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>51.2900116782</v>
+        <v>59.1477113769</v>
       </c>
       <c r="C127" t="n">
-        <v>45.2594246161</v>
+        <v>59.8197236184</v>
       </c>
       <c r="D127" t="n">
-        <v>2.8107490549</v>
+        <v>15.6758294883</v>
       </c>
       <c r="E127" t="n">
-        <v>51.2900116782</v>
+        <v>59.1477113769</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>175.576506803</v>
+        <v>60.4809286328</v>
       </c>
       <c r="C128" t="n">
-        <v>175.911574335</v>
+        <v>53.751228778</v>
       </c>
       <c r="D128" t="n">
-        <v>15.8599292538</v>
+        <v>2.23682308031</v>
       </c>
       <c r="E128" t="n">
-        <v>175.576506803</v>
+        <v>60.4809286328</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>104.195297857</v>
+        <v>63.8806231918</v>
       </c>
       <c r="C129" t="n">
-        <v>106.184791167</v>
+        <v>59.3581849831</v>
       </c>
       <c r="D129" t="n">
-        <v>8.65617110811</v>
+        <v>7.0123111425</v>
       </c>
       <c r="E129" t="n">
-        <v>104.195297857</v>
+        <v>63.8806231918</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>158.522728784</v>
+        <v>71.6887203582</v>
       </c>
       <c r="C130" t="n">
-        <v>-15.8649073522</v>
+        <v>75.28341845840001</v>
       </c>
       <c r="D130" t="n">
-        <v>-154.708496603</v>
+        <v>27.2905336426</v>
       </c>
       <c r="E130" t="n">
-        <v>-158.522728784</v>
+        <v>71.6887203582</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>436.707536721</v>
+        <v>120.238574903</v>
       </c>
       <c r="C131" t="n">
-        <v>-42.9932496935</v>
+        <v>135.34762278</v>
       </c>
       <c r="D131" t="n">
-        <v>-428.46394166</v>
+        <v>62.9799796389</v>
       </c>
       <c r="E131" t="n">
-        <v>-436.707536721</v>
+        <v>120.238574903</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>586.345765691</v>
+        <v>220.199131736</v>
       </c>
       <c r="C132" t="n">
-        <v>-57.288382905</v>
+        <v>251.358738349</v>
       </c>
       <c r="D132" t="n">
-        <v>-565.442669331</v>
+        <v>116.253484107</v>
       </c>
       <c r="E132" t="n">
-        <v>-586.345765691</v>
+        <v>220.199131736</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>561.116782239</v>
+        <v>328.926363555</v>
       </c>
       <c r="C133" t="n">
-        <v>-54.0262415672</v>
+        <v>375.980154969</v>
       </c>
       <c r="D133" t="n">
-        <v>-524.871814802</v>
+        <v>176.280144246</v>
       </c>
       <c r="E133" t="n">
-        <v>-561.116782239</v>
+        <v>328.926363555</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>492.293010976</v>
+        <v>391.901062905</v>
       </c>
       <c r="C134" t="n">
-        <v>-46.9198486994</v>
+        <v>448.026831863</v>
       </c>
       <c r="D134" t="n">
-        <v>-452.687177578</v>
+        <v>211.53813455</v>
       </c>
       <c r="E134" t="n">
-        <v>-492.293010976</v>
+        <v>391.901062905</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>495.2551837</v>
+        <v>384.552311648</v>
       </c>
       <c r="C135" t="n">
-        <v>-48.1706440987</v>
+        <v>440.070003641</v>
       </c>
       <c r="D135" t="n">
-        <v>-470.213181399</v>
+        <v>205.053333609</v>
       </c>
       <c r="E135" t="n">
-        <v>-495.2551837</v>
+        <v>384.552311648</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>428.186262274</v>
+        <v>329.391826012</v>
       </c>
       <c r="C136" t="n">
-        <v>-42.1515587399</v>
+        <v>377.188632496</v>
       </c>
       <c r="D136" t="n">
-        <v>-418.552509662</v>
+        <v>172.134836061</v>
       </c>
       <c r="E136" t="n">
-        <v>-428.186262274</v>
+        <v>329.391826012</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>98.2715134906</v>
+        <v>259.396740799</v>
       </c>
       <c r="C137" t="n">
-        <v>-9.854072584640001</v>
+        <v>296.422378655</v>
       </c>
       <c r="D137" t="n">
-        <v>-96.91750392589999</v>
+        <v>137.285652523</v>
       </c>
       <c r="E137" t="n">
-        <v>-98.2715134906</v>
+        <v>259.396740799</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>411.444539381</v>
+        <v>180.228156752</v>
       </c>
       <c r="C138" t="n">
-        <v>406.311717587</v>
+        <v>202.484169465</v>
       </c>
       <c r="D138" t="n">
-        <v>38.8795478349</v>
+        <v>98.20783393009999</v>
       </c>
       <c r="E138" t="n">
-        <v>411.444539381</v>
+        <v>180.228156752</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>768.744612696</v>
+        <v>91.64686242080001</v>
       </c>
       <c r="C139" t="n">
-        <v>751.963173106</v>
+        <v>94.142651367</v>
       </c>
       <c r="D139" t="n">
-        <v>73.4672684204</v>
+        <v>30.0831087872</v>
       </c>
       <c r="E139" t="n">
-        <v>768.744612696</v>
+        <v>91.64686242080001</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>775.346797798</v>
+        <v>67.8143336771</v>
       </c>
       <c r="C140" t="n">
-        <v>741.494510883</v>
+        <v>4.18030646421</v>
       </c>
       <c r="D140" t="n">
-        <v>73.5692037431</v>
+        <v>-65.270007882</v>
       </c>
       <c r="E140" t="n">
-        <v>775.346797798</v>
+        <v>-67.8143336771</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>520.453535503</v>
+        <v>90.83446830840001</v>
       </c>
       <c r="C141" t="n">
-        <v>476.481376588</v>
+        <v>-34.3743971206</v>
       </c>
       <c r="D141" t="n">
-        <v>47.6590649793</v>
+        <v>-102.852247771</v>
       </c>
       <c r="E141" t="n">
-        <v>520.453535503</v>
+        <v>-90.83446830840001</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>172.572357328</v>
+        <v>23.9978664237</v>
       </c>
       <c r="C142" t="n">
-        <v>141.974286149</v>
+        <v>11.2649029119</v>
       </c>
       <c r="D142" t="n">
-        <v>13.1243530702</v>
+        <v>-15.1561734168</v>
       </c>
       <c r="E142" t="n">
-        <v>172.572357328</v>
+        <v>-23.9978664237</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>208.852674823</v>
+        <v>184.752629435</v>
       </c>
       <c r="C143" t="n">
-        <v>-20.5860341116</v>
+        <v>210.005318796</v>
       </c>
       <c r="D143" t="n">
-        <v>-197.880574832</v>
+        <v>98.714341515</v>
       </c>
       <c r="E143" t="n">
-        <v>-208.852674823</v>
+        <v>184.752629435</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>622.769272248</v>
+        <v>385.215258394</v>
       </c>
       <c r="C144" t="n">
-        <v>-59.4770345883</v>
+        <v>440.405792218</v>
       </c>
       <c r="D144" t="n">
-        <v>-576.622302404</v>
+        <v>207.669653894</v>
       </c>
       <c r="E144" t="n">
-        <v>-622.769272248</v>
+        <v>385.215258394</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>1049.23469109</v>
+        <v>511.578693747</v>
       </c>
       <c r="C145" t="n">
-        <v>-100.874847643</v>
+        <v>585.996863122</v>
       </c>
       <c r="D145" t="n">
-        <v>-989.27638505</v>
+        <v>272.552078761</v>
       </c>
       <c r="E145" t="n">
-        <v>-1049.23469109</v>
+        <v>511.578693747</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>1357.09124896</v>
+        <v>540.2507856780001</v>
       </c>
       <c r="C146" t="n">
-        <v>-131.304716987</v>
+        <v>619.538446371</v>
       </c>
       <c r="D146" t="n">
-        <v>-1300.35716347</v>
+        <v>280.984869709</v>
       </c>
       <c r="E146" t="n">
-        <v>-1357.09124896</v>
+        <v>540.2507856780001</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>1322.78407931</v>
+        <v>502.68822582</v>
       </c>
       <c r="C147" t="n">
-        <v>-128.255925876</v>
+        <v>576.589078198</v>
       </c>
       <c r="D147" t="n">
-        <v>-1273.76039328</v>
+        <v>256.684304133</v>
       </c>
       <c r="E147" t="n">
-        <v>-1322.78407931</v>
+        <v>502.68822582</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>832.074414942</v>
+        <v>427.158087352</v>
       </c>
       <c r="C148" t="n">
-        <v>-80.5207184595</v>
+        <v>489.60046813</v>
       </c>
       <c r="D148" t="n">
-        <v>-791.219361545</v>
+        <v>222.380655199</v>
       </c>
       <c r="E148" t="n">
-        <v>-832.074414942</v>
+        <v>427.158087352</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>76.6025022125</v>
+        <v>309.356159977</v>
       </c>
       <c r="C149" t="n">
-        <v>7.65905533177</v>
+        <v>352.585556361</v>
       </c>
       <c r="D149" t="n">
-        <v>-37.0615687709</v>
+        <v>168.801499636</v>
       </c>
       <c r="E149" t="n">
-        <v>-76.6025022125</v>
+        <v>309.356159977</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>668.328154976</v>
+        <v>142.991514132</v>
       </c>
       <c r="C150" t="n">
-        <v>656.329423022</v>
+        <v>155.809537451</v>
       </c>
       <c r="D150" t="n">
-        <v>63.777081369</v>
+        <v>74.2083427248</v>
       </c>
       <c r="E150" t="n">
-        <v>668.328154976</v>
+        <v>142.991514132</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>1072.18436716</v>
+        <v>90.91294934690001</v>
       </c>
       <c r="C151" t="n">
-        <v>1020.86475378</v>
+        <v>-9.91121977832</v>
       </c>
       <c r="D151" t="n">
-        <v>101.885153751</v>
+        <v>-95.124132371</v>
       </c>
       <c r="E151" t="n">
-        <v>1072.18436716</v>
+        <v>-90.91294934690001</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>1240.66712085</v>
+        <v>216.557088043</v>
       </c>
       <c r="C152" t="n">
-        <v>1164.49260051</v>
+        <v>-95.9510632233</v>
       </c>
       <c r="D152" t="n">
-        <v>117.090305572</v>
+        <v>-247.742928875</v>
       </c>
       <c r="E152" t="n">
-        <v>1240.66712085</v>
+        <v>-216.557088043</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>1225.22300248</v>
+        <v>233.950573379</v>
       </c>
       <c r="C153" t="n">
-        <v>1157.72765594</v>
+        <v>-103.014564506</v>
       </c>
       <c r="D153" t="n">
-        <v>116.088541374</v>
+        <v>-267.541232188</v>
       </c>
       <c r="E153" t="n">
-        <v>1225.22300248</v>
+        <v>-233.950573379</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>894.606219825</v>
+        <v>138.56650971</v>
       </c>
       <c r="C154" t="n">
-        <v>859.431049543</v>
+        <v>-39.2695443793</v>
       </c>
       <c r="D154" t="n">
-        <v>85.2033955351</v>
+        <v>-153.645611867</v>
       </c>
       <c r="E154" t="n">
-        <v>894.606219825</v>
+        <v>-138.56650971</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>168.323858255</v>
+        <v>73.68236447469999</v>
       </c>
       <c r="C155" t="n">
-        <v>168.606080303</v>
+        <v>74.6430806302</v>
       </c>
       <c r="D155" t="n">
-        <v>15.153458008</v>
+        <v>20.8312112224</v>
       </c>
       <c r="E155" t="n">
-        <v>168.323858255</v>
+        <v>73.68236447469999</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>822.185968256</v>
+        <v>249.646353559</v>
       </c>
       <c r="C156" t="n">
-        <v>-79.836568396</v>
+        <v>284.996638013</v>
       </c>
       <c r="D156" t="n">
-        <v>-787.544882185</v>
+        <v>133.001435413</v>
       </c>
       <c r="E156" t="n">
-        <v>-822.185968256</v>
+        <v>249.646353559</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>1738.32720188</v>
+        <v>452.452465199</v>
       </c>
       <c r="C157" t="n">
-        <v>-168.287188657</v>
+        <v>518.887288465</v>
       </c>
       <c r="D157" t="n">
-        <v>-1673.69786774</v>
+        <v>230.569467538</v>
       </c>
       <c r="E157" t="n">
-        <v>-1738.32720188</v>
+        <v>452.452465199</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>2241.28063184</v>
+        <v>637.132799398</v>
       </c>
       <c r="C158" t="n">
-        <v>-216.370487591</v>
+        <v>731.035605746</v>
       </c>
       <c r="D158" t="n">
-        <v>-2148.40330541</v>
+        <v>325.086735554</v>
       </c>
       <c r="E158" t="n">
-        <v>-2241.28063184</v>
+        <v>637.132799398</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>2226.67862108</v>
+        <v>743.856951042</v>
       </c>
       <c r="C159" t="n">
-        <v>-214.142367203</v>
+        <v>853.433737051</v>
       </c>
       <c r="D159" t="n">
-        <v>-2116.8083991</v>
+        <v>386.515772007</v>
       </c>
       <c r="E159" t="n">
-        <v>-2226.67862108</v>
+        <v>743.856951042</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>1838.64495912</v>
+        <v>714.000986615</v>
       </c>
       <c r="C160" t="n">
-        <v>-176.426796172</v>
+        <v>818.873101825</v>
       </c>
       <c r="D160" t="n">
-        <v>-1737.8792865</v>
+        <v>375.426211676</v>
       </c>
       <c r="E160" t="n">
-        <v>-1838.64495912</v>
+        <v>714.000986615</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>1225.50044659</v>
+        <v>542.231717277</v>
       </c>
       <c r="C161" t="n">
-        <v>-118.114110684</v>
+        <v>621.600726359</v>
       </c>
       <c r="D161" t="n">
-        <v>-1163.05633663</v>
+        <v>285.017872709</v>
       </c>
       <c r="E161" t="n">
-        <v>-1225.50044659</v>
+        <v>542.231717277</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>452.218509534</v>
+        <v>295.27823447</v>
       </c>
       <c r="C162" t="n">
-        <v>-44.4373724505</v>
+        <v>337.976982927</v>
       </c>
       <c r="D162" t="n">
-        <v>-439.711160053</v>
+        <v>154.256563978</v>
       </c>
       <c r="E162" t="n">
-        <v>-452.218509534</v>
+        <v>295.27823447</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>383.475839113</v>
+        <v>68.8957046723</v>
       </c>
       <c r="C163" t="n">
-        <v>352.867658265</v>
+        <v>74.8974893133</v>
       </c>
       <c r="D163" t="n">
-        <v>34.9671224375</v>
+        <v>32.3154875232</v>
       </c>
       <c r="E163" t="n">
-        <v>383.475839113</v>
+        <v>68.8957046723</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>1057.2338991</v>
+        <v>116.908473319</v>
       </c>
       <c r="C164" t="n">
-        <v>1005.4355249</v>
+        <v>-30.1759828729</v>
       </c>
       <c r="D164" t="n">
-        <v>100.393406366</v>
+        <v>-128.735686</v>
       </c>
       <c r="E164" t="n">
-        <v>1057.2338991</v>
+        <v>-116.908473319</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>1376.51381016</v>
+        <v>210.124883066</v>
       </c>
       <c r="C165" t="n">
-        <v>1319.41263869</v>
+        <v>-71.1093466131</v>
       </c>
       <c r="D165" t="n">
-        <v>131.482219034</v>
+        <v>-236.083825532</v>
       </c>
       <c r="E165" t="n">
-        <v>1376.51381016</v>
+        <v>-210.124883066</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>1244.12562951</v>
+        <v>235.322864378</v>
       </c>
       <c r="C166" t="n">
-        <v>1192.84688144</v>
+        <v>-87.4802614372</v>
       </c>
       <c r="D166" t="n">
-        <v>118.763773072</v>
+        <v>-266.184695285</v>
       </c>
       <c r="E166" t="n">
-        <v>1244.12562951</v>
+        <v>-235.322864378</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>694.2489672200001</v>
+        <v>174.105183707</v>
       </c>
       <c r="C167" t="n">
-        <v>658.738167452</v>
+        <v>-69.0045614079</v>
       </c>
       <c r="D167" t="n">
-        <v>65.509445191</v>
+        <v>-197.809504173</v>
       </c>
       <c r="E167" t="n">
-        <v>694.2489672200001</v>
+        <v>-174.105183707</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>41.8699920195</v>
+        <v>31.0677804082</v>
       </c>
       <c r="C168" t="n">
-        <v>-2.5828371948</v>
+        <v>12.2009846905</v>
       </c>
       <c r="D168" t="n">
-        <v>-42.8957645256</v>
+        <v>-22.1218942365</v>
       </c>
       <c r="E168" t="n">
-        <v>-41.8699920195</v>
+        <v>-31.0677804082</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>674.984491367</v>
+        <v>223.816576863</v>
       </c>
       <c r="C169" t="n">
-        <v>-65.62135112839999</v>
+        <v>255.15950287</v>
       </c>
       <c r="D169" t="n">
-        <v>-645.336817165</v>
+        <v>119.526651895</v>
       </c>
       <c r="E169" t="n">
-        <v>-674.984491367</v>
+        <v>223.816576863</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>1137.41196737</v>
+        <v>446.629816521</v>
       </c>
       <c r="C170" t="n">
-        <v>-109.451509087</v>
+        <v>511.271095759</v>
       </c>
       <c r="D170" t="n">
-        <v>-1075.26129862</v>
+        <v>238.855477187</v>
       </c>
       <c r="E170" t="n">
-        <v>-1137.41196737</v>
+        <v>446.629816521</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>1395.9959348</v>
+        <v>585.155208627</v>
       </c>
       <c r="C171" t="n">
-        <v>-134.186041071</v>
+        <v>670.795817375</v>
       </c>
       <c r="D171" t="n">
-        <v>-1320.19929025</v>
+        <v>308.799827512</v>
       </c>
       <c r="E171" t="n">
-        <v>-1395.9959348</v>
+        <v>585.155208627</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>1366.2626685</v>
+        <v>609.750360114</v>
       </c>
       <c r="C172" t="n">
-        <v>-131.710131762</v>
+        <v>699.428054203</v>
       </c>
       <c r="D172" t="n">
-        <v>-1298.92397444</v>
+        <v>316.108922248</v>
       </c>
       <c r="E172" t="n">
-        <v>-1366.2626685</v>
+        <v>609.750360114</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>1011.70008258</v>
+        <v>543.867248782</v>
       </c>
       <c r="C173" t="n">
-        <v>-97.98010305370001</v>
+        <v>623.8322858499999</v>
       </c>
       <c r="D173" t="n">
-        <v>-967.054267435</v>
+        <v>279.920905724</v>
       </c>
       <c r="E173" t="n">
-        <v>-1011.70008258</v>
+        <v>543.867248782</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>404.6384573</v>
+        <v>422.849678669</v>
       </c>
       <c r="C174" t="n">
-        <v>-39.6241764243</v>
+        <v>484.567268777</v>
       </c>
       <c r="D174" t="n">
-        <v>-387.344175767</v>
+        <v>221.150880872</v>
       </c>
       <c r="E174" t="n">
-        <v>-404.6384573</v>
+        <v>422.849678669</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>290.074436922</v>
+        <v>269.554143737</v>
       </c>
       <c r="C175" t="n">
-        <v>280.536487327</v>
+        <v>307.308408591</v>
       </c>
       <c r="D175" t="n">
-        <v>26.9769252631</v>
+        <v>145.762815977</v>
       </c>
       <c r="E175" t="n">
-        <v>290.074436922</v>
+        <v>269.554143737</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>879.936006763</v>
+        <v>104.741987197</v>
       </c>
       <c r="C176" t="n">
-        <v>846.671692401</v>
+        <v>112.733486472</v>
       </c>
       <c r="D176" t="n">
-        <v>83.8403510362</v>
+        <v>50.559895423</v>
       </c>
       <c r="E176" t="n">
-        <v>879.936006763</v>
+        <v>104.741987197</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>1249.72881919</v>
+        <v>103.559436192</v>
       </c>
       <c r="C177" t="n">
-        <v>1198.17147467</v>
+        <v>-14.6489813671</v>
       </c>
       <c r="D177" t="n">
-        <v>119.298679806</v>
+        <v>-109.753784353</v>
       </c>
       <c r="E177" t="n">
-        <v>1249.72881919</v>
+        <v>-103.559436192</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>1318.23057656</v>
+        <v>217.093150715</v>
       </c>
       <c r="C178" t="n">
-        <v>1258.56963216</v>
+        <v>-85.1972932616</v>
       </c>
       <c r="D178" t="n">
-        <v>125.650752186</v>
+        <v>-246.483443197</v>
       </c>
       <c r="E178" t="n">
-        <v>1318.23057656</v>
+        <v>-217.093150715</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>1035.3737887</v>
+        <v>239.985963837</v>
       </c>
       <c r="C179" t="n">
-        <v>982.8584094080001</v>
+        <v>-102.902843734</v>
       </c>
       <c r="D179" t="n">
-        <v>98.2044198008</v>
+        <v>-274.017808777</v>
       </c>
       <c r="E179" t="n">
-        <v>1035.3737887</v>
+        <v>-239.985963837</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>462.367273807</v>
+        <v>145.692149147</v>
       </c>
       <c r="C180" t="n">
-        <v>434.182627312</v>
+        <v>-54.8184803346</v>
       </c>
       <c r="D180" t="n">
-        <v>43.0144618026</v>
+        <v>-164.936161971</v>
       </c>
       <c r="E180" t="n">
-        <v>462.367273807</v>
+        <v>-145.692149147</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>239.6451209</v>
+        <v>68.3384519614</v>
       </c>
       <c r="C181" t="n">
-        <v>-23.7253052973</v>
+        <v>72.0767537361</v>
       </c>
       <c r="D181" t="n">
-        <v>-230.559730265</v>
+        <v>26.8070732419</v>
       </c>
       <c r="E181" t="n">
-        <v>-239.6451209</v>
+        <v>68.3384519614</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>919.293796979</v>
+        <v>282.669533299</v>
       </c>
       <c r="C182" t="n">
-        <v>-88.80674406679999</v>
+        <v>322.555193823</v>
       </c>
       <c r="D182" t="n">
-        <v>-872.730121552</v>
+        <v>152.363338014</v>
       </c>
       <c r="E182" t="n">
-        <v>-919.293796979</v>
+        <v>282.669533299</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>1442.33670841</v>
+        <v>472.981148682</v>
       </c>
       <c r="C183" t="n">
-        <v>-138.93260101</v>
+        <v>541.921886111</v>
       </c>
       <c r="D183" t="n">
-        <v>-1369.944491</v>
+        <v>249.932897198</v>
       </c>
       <c r="E183" t="n">
-        <v>-1442.33670841</v>
+        <v>472.981148682</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>1680.7019879</v>
+        <v>585.29067564</v>
       </c>
       <c r="C184" t="n">
-        <v>-161.964862327</v>
+        <v>671.264195543</v>
       </c>
       <c r="D184" t="n">
-        <v>-1600.39630243</v>
+        <v>304.682162696</v>
       </c>
       <c r="E184" t="n">
-        <v>-1680.7019879</v>
+        <v>585.29067564</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>1589.82402983</v>
+        <v>610.254435744</v>
       </c>
       <c r="C185" t="n">
-        <v>-153.453416019</v>
+        <v>700.064188422</v>
       </c>
       <c r="D185" t="n">
-        <v>-1518.09608366</v>
+        <v>314.951274932</v>
       </c>
       <c r="E185" t="n">
-        <v>-1589.82402983</v>
+        <v>610.254435744</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>1199.17784371</v>
+        <v>557.01685362</v>
       </c>
       <c r="C186" t="n">
-        <v>-116.023715904</v>
+        <v>638.876955519</v>
       </c>
       <c r="D186" t="n">
-        <v>-1146.92831755</v>
+        <v>288.237370705</v>
       </c>
       <c r="E186" t="n">
-        <v>-1199.17784371</v>
+        <v>557.01685362</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>583.546070319</v>
+        <v>437.737494359</v>
       </c>
       <c r="C187" t="n">
-        <v>-56.7501653856</v>
+        <v>501.494497165</v>
       </c>
       <c r="D187" t="n">
-        <v>-556.2730984360001</v>
+        <v>230.799489786</v>
       </c>
       <c r="E187" t="n">
-        <v>-583.546070319</v>
+        <v>437.737494359</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>120.109685451</v>
+        <v>265.68118705</v>
       </c>
       <c r="C188" t="n">
-        <v>118.980088414</v>
+        <v>302.56814042</v>
       </c>
       <c r="D188" t="n">
-        <v>10.42078887</v>
+        <v>144.393233659</v>
       </c>
       <c r="E188" t="n">
-        <v>120.109685451</v>
+        <v>265.68118705</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>704.46113349</v>
+        <v>81.8573268203</v>
       </c>
       <c r="C189" t="n">
-        <v>677.064027083</v>
+        <v>86.3219127815</v>
       </c>
       <c r="D189" t="n">
-        <v>66.89844338269999</v>
+        <v>32.945606747</v>
       </c>
       <c r="E189" t="n">
-        <v>704.46113349</v>
+        <v>81.8573268203</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>1008.35587428</v>
+        <v>112.296426204</v>
       </c>
       <c r="C190" t="n">
-        <v>960.626023539</v>
+        <v>-32.4418153212</v>
       </c>
       <c r="D190" t="n">
-        <v>95.791743642</v>
+        <v>-124.679356108</v>
       </c>
       <c r="E190" t="n">
-        <v>1008.35587428</v>
+        <v>-112.296426204</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>1022.56749491</v>
+        <v>183.702505581</v>
       </c>
       <c r="C191" t="n">
-        <v>969.3235784460001</v>
+        <v>-75.8072515623</v>
       </c>
       <c r="D191" t="n">
-        <v>96.9018025947</v>
+        <v>-209.266050233</v>
       </c>
       <c r="E191" t="n">
-        <v>1022.56749491</v>
+        <v>-183.702505581</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>847.030086559</v>
+        <v>160.458035374</v>
       </c>
       <c r="C192" t="n">
-        <v>806.661374411</v>
+        <v>-55.802022229</v>
       </c>
       <c r="D192" t="n">
-        <v>80.2965671151</v>
+        <v>-180.634414357</v>
       </c>
       <c r="E192" t="n">
-        <v>847.030086559</v>
+        <v>-160.458035374</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>519.562712856</v>
+        <v>80.6942168202</v>
       </c>
       <c r="C193" t="n">
-        <v>502.7773745</v>
+        <v>6.80471400942</v>
       </c>
       <c r="D193" t="n">
-        <v>49.1991139201</v>
+        <v>-76.6760840978</v>
       </c>
       <c r="E193" t="n">
-        <v>519.562712856</v>
+        <v>-80.6942168202</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>22.3827599526</v>
+        <v>91.9316380307</v>
       </c>
       <c r="C194" t="n">
-        <v>11.5679341826</v>
+        <v>97.543530405</v>
       </c>
       <c r="D194" t="n">
-        <v>-4.91091223858</v>
+        <v>39.5673893465</v>
       </c>
       <c r="E194" t="n">
-        <v>22.3827599526</v>
+        <v>91.9316380307</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>659.22020115</v>
+        <v>216.524249231</v>
       </c>
       <c r="C195" t="n">
-        <v>-64.1762016749</v>
+        <v>246.999421212</v>
       </c>
       <c r="D195" t="n">
-        <v>-631.965058149</v>
+        <v>114.799706587</v>
       </c>
       <c r="E195" t="n">
-        <v>-659.22020115</v>
+        <v>216.524249231</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>1230.66049627</v>
+        <v>373.198886845</v>
       </c>
       <c r="C196" t="n">
-        <v>-119.362682698</v>
+        <v>427.811994688</v>
       </c>
       <c r="D196" t="n">
-        <v>-1184.68311937</v>
+        <v>190.650299395</v>
       </c>
       <c r="E196" t="n">
-        <v>-1230.66049627</v>
+        <v>373.198886845</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>1474.2091736</v>
+        <v>521.5624625950001</v>
       </c>
       <c r="C197" t="n">
-        <v>-142.474740409</v>
+        <v>598.118656035</v>
       </c>
       <c r="D197" t="n">
-        <v>-1410.40824779</v>
+        <v>270.458996159</v>
       </c>
       <c r="E197" t="n">
-        <v>-1474.2091736</v>
+        <v>521.5624625950001</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>1345.831693</v>
+        <v>593.551876222</v>
       </c>
       <c r="C198" t="n">
-        <v>-129.417934107</v>
+        <v>680.240273176</v>
       </c>
       <c r="D198" t="n">
-        <v>-1273.21644072</v>
+        <v>315.209740121</v>
       </c>
       <c r="E198" t="n">
-        <v>-1345.831693</v>
+        <v>593.551876222</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>975.14375941</v>
+        <v>532.687372267</v>
       </c>
       <c r="C199" t="n">
-        <v>-93.4798292044</v>
+        <v>609.974226856</v>
       </c>
       <c r="D199" t="n">
-        <v>-914.068171346</v>
+        <v>285.674289702</v>
       </c>
       <c r="E199" t="n">
-        <v>-975.14375941</v>
+        <v>532.687372267</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>509.037907743</v>
+        <v>357.701983519</v>
       </c>
       <c r="C200" t="n">
-        <v>-49.3451667636</v>
+        <v>409.337072973</v>
       </c>
       <c r="D200" t="n">
-        <v>-480.596430035</v>
+        <v>190.023126613</v>
       </c>
       <c r="E200" t="n">
-        <v>-509.037907743</v>
+        <v>357.701983519</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>26.0173453431</v>
+        <v>157.582492952</v>
       </c>
       <c r="C201" t="n">
-        <v>1.83149827763</v>
+        <v>179.608618836</v>
       </c>
       <c r="D201" t="n">
-        <v>-19.5398475112</v>
+        <v>81.39313076640001</v>
       </c>
       <c r="E201" t="n">
-        <v>-26.0173453431</v>
+        <v>157.582492952</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>498.74211677</v>
+        <v>34.2920039294</v>
       </c>
       <c r="C202" t="n">
-        <v>465.271838264</v>
+        <v>30.2599932248</v>
       </c>
       <c r="D202" t="n">
-        <v>46.2788004521</v>
+        <v>-0.752203007583</v>
       </c>
       <c r="E202" t="n">
-        <v>498.74211677</v>
+        <v>34.2920039294</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>888.0248173799999</v>
+        <v>70.4773055939</v>
       </c>
       <c r="C203" t="n">
-        <v>848.191424037</v>
+        <v>5.21409220003</v>
       </c>
       <c r="D203" t="n">
-        <v>84.3522605902</v>
+        <v>-67.3547753954</v>
       </c>
       <c r="E203" t="n">
-        <v>888.0248173799999</v>
+        <v>-70.4773055939</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>1004.4093415</v>
+        <v>86.9510288102</v>
       </c>
       <c r="C204" t="n">
-        <v>967.948509079</v>
+        <v>7.42104515871</v>
       </c>
       <c r="D204" t="n">
-        <v>95.89485894320001</v>
+        <v>-82.5872488879</v>
       </c>
       <c r="E204" t="n">
-        <v>1004.4093415</v>
+        <v>-86.9510288102</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>801.346762606</v>
+        <v>72.388616845</v>
       </c>
       <c r="C205" t="n">
-        <v>772.012605559</v>
+        <v>9.607332030089999</v>
       </c>
       <c r="D205" t="n">
-        <v>76.3036361074</v>
+        <v>-66.66427113829999</v>
       </c>
       <c r="E205" t="n">
-        <v>801.346762606</v>
+        <v>-72.388616845</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>375.461180954</v>
+        <v>40.2843341459</v>
       </c>
       <c r="C206" t="n">
-        <v>356.808658616</v>
+        <v>26.9171418486</v>
       </c>
       <c r="D206" t="n">
-        <v>34.9724597164</v>
+        <v>-14.2256354261</v>
       </c>
       <c r="E206" t="n">
-        <v>375.461180954</v>
+        <v>40.2843341459</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>128.933620561</v>
+        <v>108.484422618</v>
       </c>
       <c r="C207" t="n">
-        <v>-12.9119548266</v>
+        <v>121.89382877</v>
       </c>
       <c r="D207" t="n">
-        <v>-128.709818215</v>
+        <v>56.1820966346</v>
       </c>
       <c r="E207" t="n">
-        <v>-128.933620561</v>
+        <v>108.484422618</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>560.445839233</v>
+        <v>251.662134784</v>
       </c>
       <c r="C208" t="n">
-        <v>-54.650187839</v>
+        <v>287.315861315</v>
       </c>
       <c r="D208" t="n">
-        <v>-536.902567761</v>
+        <v>134.103868704</v>
       </c>
       <c r="E208" t="n">
-        <v>-560.445839233</v>
+        <v>251.662134784</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>826.183641407</v>
+        <v>386.841199364</v>
       </c>
       <c r="C209" t="n">
-        <v>-79.6736657169</v>
+        <v>442.520095884</v>
       </c>
       <c r="D209" t="n">
-        <v>-780.382346226</v>
+        <v>207.324255973</v>
       </c>
       <c r="E209" t="n">
-        <v>-826.183641407</v>
+        <v>386.841199364</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>922.240343154</v>
+        <v>456.023128799</v>
       </c>
       <c r="C210" t="n">
-        <v>-88.6490749301</v>
+        <v>522.143110635</v>
       </c>
       <c r="D210" t="n">
-        <v>-867.697342185</v>
+        <v>243.309891416</v>
       </c>
       <c r="E210" t="n">
-        <v>-922.240343154</v>
+        <v>456.023128799</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>874.452931483</v>
+        <v>444.784458842</v>
       </c>
       <c r="C211" t="n">
-        <v>-84.4480873433</v>
+        <v>509.652841369</v>
       </c>
       <c r="D211" t="n">
-        <v>-828.937491103</v>
+        <v>233.905429086</v>
       </c>
       <c r="E211" t="n">
-        <v>-874.452931483</v>
+        <v>444.784458842</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>666.476792533</v>
+        <v>382.072490666</v>
       </c>
       <c r="C212" t="n">
-        <v>-64.90492862070001</v>
+        <v>437.819847373</v>
       </c>
       <c r="D212" t="n">
-        <v>-639.606528701</v>
+        <v>198.577287864</v>
       </c>
       <c r="E212" t="n">
-        <v>-666.476792533</v>
+        <v>382.072490666</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>317.805573132</v>
+        <v>305.546265964</v>
       </c>
       <c r="C213" t="n">
-        <v>-31.3951720855</v>
+        <v>349.685199309</v>
       </c>
       <c r="D213" t="n">
-        <v>-308.689730216</v>
+        <v>160.410858344</v>
       </c>
       <c r="E213" t="n">
-        <v>-317.805573132</v>
+        <v>305.546265964</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>72.12693674240001</v>
+        <v>233.017651405</v>
       </c>
       <c r="C214" t="n">
-        <v>68.3139163813</v>
+        <v>265.406100493</v>
       </c>
       <c r="D214" t="n">
-        <v>5.40705518933</v>
+        <v>125.502300985</v>
       </c>
       <c r="E214" t="n">
-        <v>72.12693674240001</v>
+        <v>233.017651405</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>376.251751049</v>
+        <v>162.432606759</v>
       </c>
       <c r="C215" t="n">
-        <v>364.179831972</v>
+        <v>182.428101249</v>
       </c>
       <c r="D215" t="n">
-        <v>35.3379256426</v>
+        <v>87.8184912095</v>
       </c>
       <c r="E215" t="n">
-        <v>376.251751049</v>
+        <v>162.432606759</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>511.699719276</v>
+        <v>96.2607122018</v>
       </c>
       <c r="C216" t="n">
-        <v>493.376750845</v>
+        <v>103.847011641</v>
       </c>
       <c r="D216" t="n">
-        <v>48.3760503333</v>
+        <v>46.4837183244</v>
       </c>
       <c r="E216" t="n">
-        <v>511.699719276</v>
+        <v>96.2607122018</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>474.654954466</v>
+        <v>54.6412640389</v>
       </c>
       <c r="C217" t="n">
-        <v>453.407059525</v>
+        <v>53.7769028661</v>
       </c>
       <c r="D217" t="n">
-        <v>44.6174404664</v>
+        <v>10.9955764486</v>
       </c>
       <c r="E217" t="n">
-        <v>474.654954466</v>
+        <v>54.6412640389</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>319.290067884</v>
+        <v>49.4399659788</v>
       </c>
       <c r="C218" t="n">
-        <v>301.856597067</v>
+        <v>47.5754591263</v>
       </c>
       <c r="D218" t="n">
-        <v>29.4802185902</v>
+        <v>7.4599476004</v>
       </c>
       <c r="E218" t="n">
-        <v>319.290067884</v>
+        <v>49.4399659788</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>101.557789815</v>
+        <v>84.1675726153</v>
       </c>
       <c r="C219" t="n">
-        <v>95.89559473840001</v>
+        <v>90.6725371194</v>
       </c>
       <c r="D219" t="n">
-        <v>8.37013567877</v>
+        <v>39.6584500791</v>
       </c>
       <c r="E219" t="n">
-        <v>101.557789815</v>
+        <v>84.1675726153</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>140.852281339</v>
+        <v>153.686859206</v>
       </c>
       <c r="C220" t="n">
-        <v>-13.7481805856</v>
+        <v>172.537426316</v>
       </c>
       <c r="D220" t="n">
-        <v>-130.319863343</v>
+        <v>82.7238984943</v>
       </c>
       <c r="E220" t="n">
-        <v>-140.852281339</v>
+        <v>153.686859206</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>373.031428691</v>
+        <v>224.08600615</v>
       </c>
       <c r="C221" t="n">
-        <v>-36.1832501344</v>
+        <v>254.531165046</v>
       </c>
       <c r="D221" t="n">
-        <v>-349.79193961</v>
+        <v>121.816476836</v>
       </c>
       <c r="E221" t="n">
-        <v>-373.031428691</v>
+        <v>224.08600615</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>581.801720112</v>
+        <v>276.201142977</v>
       </c>
       <c r="C222" t="n">
-        <v>-56.4804168893</v>
+        <v>315.29960538</v>
       </c>
       <c r="D222" t="n">
-        <v>-552.5843334579999</v>
+        <v>148.220434989</v>
       </c>
       <c r="E222" t="n">
-        <v>-581.801720112</v>
+        <v>276.201142977</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>725.808560315</v>
+        <v>311.976152463</v>
       </c>
       <c r="C223" t="n">
-        <v>-70.57223064839999</v>
+        <v>356.973642655</v>
       </c>
       <c r="D223" t="n">
-        <v>-695.409283128</v>
+        <v>164.551936531</v>
       </c>
       <c r="E223" t="n">
-        <v>-725.808560315</v>
+        <v>311.976152463</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>730.035066355</v>
+        <v>336.205062631</v>
       </c>
       <c r="C224" t="n">
-        <v>-71.0003167955</v>
+        <v>384.890272706</v>
       </c>
       <c r="D224" t="n">
-        <v>-699.974620366</v>
+        <v>176.822681086</v>
       </c>
       <c r="E224" t="n">
-        <v>-730.035066355</v>
+        <v>336.205062631</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>585.23297665</v>
+        <v>341.668968194</v>
       </c>
       <c r="C225" t="n">
-        <v>-56.8594858513</v>
+        <v>390.848019111</v>
       </c>
       <c r="D225" t="n">
-        <v>-556.81119633</v>
+        <v>181.899623781</v>
       </c>
       <c r="E225" t="n">
-        <v>-585.23297665</v>
+        <v>341.668968194</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>364.522713085</v>
+        <v>313.128818604</v>
       </c>
       <c r="C226" t="n">
-        <v>-35.3661728241</v>
+        <v>357.576212247</v>
       </c>
       <c r="D226" t="n">
-        <v>-341.740403615</v>
+        <v>168.814907442</v>
       </c>
       <c r="E226" t="n">
-        <v>-364.522713085</v>
+        <v>313.128818604</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>153.132945366</v>
+        <v>248.726581333</v>
       </c>
       <c r="C227" t="n">
-        <v>-14.9407183692</v>
+        <v>283.307345</v>
       </c>
       <c r="D227" t="n">
-        <v>-141.740055779</v>
+        <v>134.518976106</v>
       </c>
       <c r="E227" t="n">
-        <v>-153.132945366</v>
+        <v>248.726581333</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>11.7657072129</v>
+        <v>171.665536971</v>
       </c>
       <c r="C228" t="n">
-        <v>6.1534291727</v>
+        <v>194.600797307</v>
       </c>
       <c r="D228" t="n">
-        <v>-6.25866232568</v>
+        <v>92.0198510119</v>
       </c>
       <c r="E228" t="n">
-        <v>-11.7657072129</v>
+        <v>171.665536971</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>93.2034017722</v>
+        <v>116.558398208</v>
       </c>
       <c r="C229" t="n">
-        <v>82.6967065572</v>
+        <v>130.504581864</v>
       </c>
       <c r="D229" t="n">
-        <v>7.02963172966</v>
+        <v>61.0635388501</v>
       </c>
       <c r="E229" t="n">
-        <v>93.2034017722</v>
+        <v>116.558398208</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>122.020352071</v>
+        <v>101.03401349</v>
       </c>
       <c r="C230" t="n">
-        <v>113.582543537</v>
+        <v>111.035532663</v>
       </c>
       <c r="D230" t="n">
-        <v>10.2748252597</v>
+        <v>51.4235332002</v>
       </c>
       <c r="E230" t="n">
-        <v>122.020352071</v>
+        <v>101.03401349</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>87.55928692019999</v>
+        <v>113.662001161</v>
       </c>
       <c r="C231" t="n">
-        <v>86.2190612083</v>
+        <v>124.598318007</v>
       </c>
       <c r="D231" t="n">
-        <v>7.13782168234</v>
+        <v>58.4273240053</v>
       </c>
       <c r="E231" t="n">
-        <v>87.55928692019999</v>
+        <v>113.662001161</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>37.8697997489</v>
+        <v>134.450986976</v>
       </c>
       <c r="C232" t="n">
-        <v>-1.11329804083</v>
+        <v>149.315845226</v>
       </c>
       <c r="D232" t="n">
-        <v>-28.0113429176</v>
+        <v>71.35335969640001</v>
       </c>
       <c r="E232" t="n">
-        <v>-37.8697997489</v>
+        <v>134.450986976</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>218.314833411</v>
+        <v>158.139072834</v>
       </c>
       <c r="C233" t="n">
-        <v>-21.4589211432</v>
+        <v>178.316592674</v>
       </c>
       <c r="D233" t="n">
-        <v>-206.070700017</v>
+        <v>85.0405716705</v>
       </c>
       <c r="E233" t="n">
-        <v>-218.314833411</v>
+        <v>158.139072834</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>399.008593351</v>
+        <v>193.362334043</v>
       </c>
       <c r="C234" t="n">
-        <v>-39.1291590551</v>
+        <v>219.956843428</v>
       </c>
       <c r="D234" t="n">
-        <v>-383.1393762</v>
+        <v>103.356898223</v>
       </c>
       <c r="E234" t="n">
-        <v>-399.008593351</v>
+        <v>193.362334043</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>505.138180113</v>
+        <v>242.396233169</v>
       </c>
       <c r="C235" t="n">
-        <v>-49.3483620111</v>
+        <v>276.617488404</v>
       </c>
       <c r="D235" t="n">
-        <v>-484.5424132</v>
+        <v>129.279637254</v>
       </c>
       <c r="E235" t="n">
-        <v>-505.138180113</v>
+        <v>242.396233169</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>514.547703471</v>
+        <v>290.878448366</v>
       </c>
       <c r="C236" t="n">
-        <v>-50.0600846932</v>
+        <v>332.252007575</v>
       </c>
       <c r="D236" t="n">
-        <v>-489.292246333</v>
+        <v>155.817469503</v>
       </c>
       <c r="E236" t="n">
-        <v>-514.547703471</v>
+        <v>290.878448366</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>447.804906021</v>
+        <v>316.072568458</v>
       </c>
       <c r="C237" t="n">
-        <v>-43.4235878002</v>
+        <v>361.124233317</v>
       </c>
       <c r="D237" t="n">
-        <v>-421.693381498</v>
+        <v>169.736880052</v>
       </c>
       <c r="E237" t="n">
-        <v>-447.804906021</v>
+        <v>316.072568458</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>348.19560577</v>
+        <v>307.050650591</v>
       </c>
       <c r="C238" t="n">
-        <v>-33.8944944548</v>
+        <v>350.867386013</v>
       </c>
       <c r="D238" t="n">
-        <v>-327.843740628</v>
+        <v>164.392953935</v>
       </c>
       <c r="E238" t="n">
-        <v>-348.19560577</v>
+        <v>307.050650591</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>237.228508094</v>
+        <v>273.767743069</v>
       </c>
       <c r="C239" t="n">
-        <v>-23.4279488685</v>
+        <v>312.783205513</v>
       </c>
       <c r="D239" t="n">
-        <v>-226.709852587</v>
+        <v>145.744824451</v>
       </c>
       <c r="E239" t="n">
-        <v>-237.228508094</v>
+        <v>273.767743069</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>106.469026785</v>
+        <v>235.254106772</v>
       </c>
       <c r="C240" t="n">
-        <v>-10.6770862421</v>
+        <v>268.40553691</v>
       </c>
       <c r="D240" t="n">
-        <v>-104.036009302</v>
+        <v>125.420879206</v>
       </c>
       <c r="E240" t="n">
-        <v>-106.469026785</v>
+        <v>235.254106772</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>26.2860179768</v>
+        <v>203.442230471</v>
       </c>
       <c r="C241" t="n">
-        <v>23.9037031573</v>
+        <v>231.25755276</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.0419215558532</v>
+        <v>109.531267156</v>
       </c>
       <c r="E241" t="n">
-        <v>26.2860179768</v>
+        <v>203.442230471</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>102.683367462</v>
+        <v>177.616211333</v>
       </c>
       <c r="C242" t="n">
-        <v>100.364345834</v>
+        <v>200.739306189</v>
       </c>
       <c r="D242" t="n">
-        <v>8.65582971836</v>
+        <v>96.12236289240001</v>
       </c>
       <c r="E242" t="n">
-        <v>102.683367462</v>
+        <v>177.616211333</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>96.7095242513</v>
+        <v>154.658061074</v>
       </c>
       <c r="C243" t="n">
-        <v>95.2278462085</v>
+        <v>173.86568991</v>
       </c>
       <c r="D243" t="n">
-        <v>8.067590969499999</v>
+        <v>83.2310261161</v>
       </c>
       <c r="E243" t="n">
-        <v>96.7095242513</v>
+        <v>154.658061074</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>13.3265000079</v>
+        <v>140.147493116</v>
       </c>
       <c r="C244" t="n">
-        <v>11.4466705518</v>
+        <v>157.40694434</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.89813435701</v>
+        <v>74.78559448830001</v>
       </c>
       <c r="E244" t="n">
-        <v>13.3265000079</v>
+        <v>140.147493116</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>123.819770919</v>
+        <v>145.541502105</v>
       </c>
       <c r="C245" t="n">
-        <v>-12.3833104269</v>
+        <v>164.14421263</v>
       </c>
       <c r="D245" t="n">
-        <v>-119.482696488</v>
+        <v>77.64662242439999</v>
       </c>
       <c r="E245" t="n">
-        <v>-123.819770919</v>
+        <v>145.541502105</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>246.1468456</v>
+        <v>173.904463138</v>
       </c>
       <c r="C246" t="n">
-        <v>-24.3135052315</v>
+        <v>197.026568306</v>
       </c>
       <c r="D246" t="n">
-        <v>-235.717347986</v>
+        <v>93.4685835114</v>
       </c>
       <c r="E246" t="n">
-        <v>-246.1468456</v>
+        <v>173.904463138</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>336.010305487</v>
+        <v>212.888546514</v>
       </c>
       <c r="C247" t="n">
-        <v>-32.8504504436</v>
+        <v>241.920629566</v>
       </c>
       <c r="D247" t="n">
-        <v>-318.53004345</v>
+        <v>115.142594816</v>
       </c>
       <c r="E247" t="n">
-        <v>-336.010305487</v>
+        <v>212.888546514</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>395.881176172</v>
+        <v>244.883154241</v>
       </c>
       <c r="C248" t="n">
-        <v>-38.5264621427</v>
+        <v>278.913883447</v>
       </c>
       <c r="D248" t="n">
-        <v>-373.93996026</v>
+        <v>132.349424515</v>
       </c>
       <c r="E248" t="n">
-        <v>-395.881176172</v>
+        <v>244.883154241</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>422.707542752</v>
+        <v>261.053429652</v>
       </c>
       <c r="C249" t="n">
-        <v>-41.1862769575</v>
+        <v>297.860988197</v>
       </c>
       <c r="D249" t="n">
-        <v>-400.930105592</v>
+        <v>140.116887256</v>
       </c>
       <c r="E249" t="n">
-        <v>-422.707542752</v>
+        <v>261.053429652</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>402.224953183</v>
+        <v>264.785093194</v>
       </c>
       <c r="C250" t="n">
-        <v>-39.3394394764</v>
+        <v>302.393520695</v>
       </c>
       <c r="D250" t="n">
-        <v>-383.901498034</v>
+        <v>141.204662855</v>
       </c>
       <c r="E250" t="n">
-        <v>-402.224953183</v>
+        <v>264.785093194</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>326.44071539</v>
+        <v>262.163559898</v>
       </c>
       <c r="C251" t="n">
-        <v>-32.0693410242</v>
+        <v>299.344660966</v>
       </c>
       <c r="D251" t="n">
-        <v>-312.302572571</v>
+        <v>139.938587382</v>
       </c>
       <c r="E251" t="n">
-        <v>-326.44071539</v>
+        <v>262.163559898</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>211.896103099</v>
+        <v>253.096552449</v>
       </c>
       <c r="C252" t="n">
-        <v>-20.9133494642</v>
+        <v>288.63960516</v>
       </c>
       <c r="D252" t="n">
-        <v>-201.360075908</v>
+        <v>136.041674584</v>
       </c>
       <c r="E252" t="n">
-        <v>-211.896103099</v>
+        <v>253.096552449</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-284.766347336</v>
+        <v>310.472460713</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-138.868259274</v>
+        <v>109.441155554</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-299.138583951</v>
+        <v>290.952575202</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-226.529806604</v>
+        <v>183.73452918</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-359.877326232</v>
+        <v>294.67096293</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-316.20862399</v>
+        <v>210.661604178</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-363.07401364</v>
+        <v>268.396881132</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>162.478349652</v>
+        <v>58.1460835315</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-344.400178168</v>
+        <v>316.307759989</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-271.387053101</v>
+        <v>154.377270185</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-356.79519962</v>
+        <v>333.935964418</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.5323980194</v>
+        <v>96.1990684396</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-538.561363934</v>
+        <v>414.893553453</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>225.068739389</v>
+        <v>-120.639819912</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-592.548746948</v>
+        <v>357.787614871</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>697.691066695</v>
+        <v>-45.6198345271</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-726.806128456</v>
+        <v>430.295454168</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>551.347312066</v>
+        <v>108.900161649</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-685.971955529</v>
+        <v>331.154854884</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-98.5552461727</v>
+        <v>192.094769976</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-116.723004517</v>
+        <v>278.554727928</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>176.321169419</v>
+        <v>264.083307251</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-468.184476731</v>
+        <v>319.621195115</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-454.949112827</v>
+        <v>54.055639038</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-500.350206287</v>
+        <v>324.10811845</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-48.5036028784</v>
+        <v>250.674479163</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-154.203772874</v>
+        <v>257.674340661</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-125.151639868</v>
+        <v>99.6507192456</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-263.144477446</v>
+        <v>364.914464385</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>65.03884409840001</v>
+        <v>59.1477113769</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-162.104935283</v>
+        <v>391.901062905</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-71.21929117249999</v>
+        <v>-90.83446830840001</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-342.543164172</v>
+        <v>540.2507856780001</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-226.590982885</v>
+        <v>-233.950573379</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-520.796079105</v>
+        <v>743.856951042</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>175.576506803</v>
+        <v>-235.322864378</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-586.345765691</v>
+        <v>609.750360114</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-492.293010976</v>
+        <v>-239.985963837</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-495.2551837</v>
+        <v>610.254435744</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>775.346797798</v>
+        <v>-183.702505581</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-1357.09124896</v>
+        <v>593.551876222</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1240.66712085</v>
+        <v>-86.9510288102</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-2241.28063184</v>
+        <v>456.023128799</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1376.51381016</v>
+        <v>49.4399659788</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-1395.9959348</v>
+        <v>341.668968194</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1318.23057656</v>
+        <v>101.03401349</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-1680.7019879</v>
+        <v>316.072568458</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1022.56749491</v>
+        <v>140.147493116</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1474.2091736</v>
+        <v>264.785093194</v>
       </c>
     </row>
     <row r="52">
@@ -5169,71 +5169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1004.4093415</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-922.240343154</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>511.699719276</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-730.035066355</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>122.020352071</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-514.547703471</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>102.683367462</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-422.707542752</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-211.896103099</v>
+        <v>253.096552449</v>
       </c>
     </row>
   </sheetData>
@@ -5247,7 +5183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5274,7 +5210,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.96217272399997</v>
+        <v>6.999861497999973</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5285,10 +5221,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.235363904</v>
+        <v>14.47142067699997</v>
       </c>
       <c r="B3" t="n">
-        <v>-142.383173668</v>
+        <v>155.2362303565</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5296,10 +5232,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.16775834430001</v>
+        <v>57.73527695399997</v>
       </c>
       <c r="B4" t="n">
-        <v>-141.2115355366667</v>
+        <v>139.9712054223333</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5307,10 +5243,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.05213300600001</v>
+        <v>107.218046022</v>
       </c>
       <c r="B5" t="n">
-        <v>-180.69329764025</v>
+        <v>177.71654786725</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5318,21 +5254,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.66870224199999</v>
+        <v>124.637600078</v>
       </c>
       <c r="B6" t="n">
-        <v>-189.860599433</v>
+        <v>178.9201441298</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72.608777347</v>
+        <v>127.526425139</v>
       </c>
       <c r="B7" t="n">
-        <v>-218.1967205661666</v>
+        <v>198.2119472631666</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5340,10 +5276,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73.01312506700003</v>
+        <v>161.930489804</v>
       </c>
       <c r="B8" t="n">
-        <v>-232.1984210552857</v>
+        <v>199.9904696795714</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5351,21 +5287,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90.88564411050001</v>
+        <v>175.925075342</v>
       </c>
       <c r="B9" t="n">
-        <v>-248.557870128375</v>
+        <v>208.541271111125</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>115.952181287</v>
+        <v>185.229807376</v>
       </c>
       <c r="B10" t="n">
-        <v>-202.8871790416667</v>
+        <v>191.8306947133889</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5373,10 +5309,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>145.898088062</v>
+        <v>215.038554968</v>
       </c>
       <c r="B11" t="n">
-        <v>-217.0384789543</v>
+        <v>204.27840124095</v>
       </c>
       <c r="C11" t="n">
         <v>0.5</v>
@@ -5384,10 +5320,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>214.6408745676</v>
+        <v>222.254693235</v>
       </c>
       <c r="B12" t="n">
-        <v>-221.9792584221819</v>
+        <v>199.7419347813182</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5395,21 +5331,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>224.205754366</v>
+        <v>224.4573992044</v>
       </c>
       <c r="B13" t="n">
-        <v>-233.2139201886667</v>
+        <v>210.924770584375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>395.3275976394</v>
+        <v>237.7368959784</v>
       </c>
       <c r="B14" t="n">
-        <v>-212.3103572495847</v>
+        <v>202.0997165732385</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5417,10 +5353,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>525.390910214</v>
+        <v>240.634954704</v>
       </c>
       <c r="B15" t="n">
-        <v>-235.6140005841858</v>
+        <v>217.2992763503643</v>
       </c>
       <c r="C15" t="n">
         <v>0.5</v>
@@ -5428,10 +5364,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>525.552363292</v>
+        <v>252.3263771815</v>
       </c>
       <c r="B16" t="n">
-        <v>-204.9018179193067</v>
+        <v>194.7700032662067</v>
       </c>
       <c r="C16" t="n">
         <v>0.5</v>
@@ -5439,87 +5375,87 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>565.3890503854</v>
+        <v>292.2290022152</v>
       </c>
       <c r="B17" t="n">
-        <v>-229.1297509836</v>
+        <v>204.9586039915063</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>617.231070933</v>
+        <v>305.7667530081</v>
       </c>
       <c r="B18" t="n">
-        <v>-174.6108793554471</v>
+        <v>190.2186958433529</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>636.568055542</v>
+        <v>337.845423867</v>
       </c>
       <c r="B19" t="n">
-        <v>-205.2883931943667</v>
+        <v>203.5562935280556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>696.372585908</v>
+        <v>356.7474699215</v>
       </c>
       <c r="B20" t="n">
-        <v>-165.4654613385579</v>
+        <v>198.5743918502105</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>701.0397135860001</v>
+        <v>403.4074493981</v>
       </c>
       <c r="B21" t="n">
-        <v>-191.49078604808</v>
+        <v>205.2034150019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>762.6669351099999</v>
+        <v>406.5831628202</v>
       </c>
       <c r="B22" t="n">
-        <v>-187.0652841492524</v>
+        <v>204.5791938101905</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>763.6301033230001</v>
+        <v>521.1299224764</v>
       </c>
       <c r="B23" t="n">
-        <v>-183.8679078023318</v>
+        <v>207.9417180882728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>817.6174863370001</v>
+        <v>535.533373365</v>
       </c>
       <c r="B24" t="n">
-        <v>-168.2075131405348</v>
+        <v>210.3826567475218</v>
       </c>
       <c r="C24" t="n">
         <v>0.5</v>
@@ -5527,10 +5463,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>852.0554184260001</v>
+        <v>542.9741576092</v>
       </c>
       <c r="B25" t="n">
-        <v>-180.7065532901375</v>
+        <v>214.9342625128334</v>
       </c>
       <c r="C25" t="n">
         <v>0.5</v>
@@ -5538,21 +5474,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1237.319267595</v>
+        <v>660.8906055900001</v>
       </c>
       <c r="B26" t="n">
-        <v>-191.676255671612</v>
+        <v>208.49911757384</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1241.734785631</v>
+        <v>680.5029050322</v>
       </c>
       <c r="B27" t="n">
-        <v>-203.5483306952808</v>
+        <v>212.9456176075385</v>
       </c>
       <c r="C27" t="n">
         <v>0.5</v>
@@ -5560,10 +5496,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1290.239813643</v>
+        <v>774.201359057</v>
       </c>
       <c r="B28" t="n">
-        <v>-197.8059333687297</v>
+        <v>214.3429828503333</v>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
@@ -5571,10 +5507,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1424.497195151</v>
+        <v>777.254381803</v>
       </c>
       <c r="B29" t="n">
-        <v>-196.2487133510607</v>
+        <v>215.8905313435714</v>
       </c>
       <c r="C29" t="n">
         <v>0.5</v>
@@ -5582,10 +5518,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1433.94006243</v>
+        <v>793.956941325</v>
       </c>
       <c r="B30" t="n">
-        <v>-193.7970901275069</v>
+        <v>211.8822619608828</v>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
@@ -5593,21 +5529,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1502.152926254</v>
+        <v>845.073224492</v>
       </c>
       <c r="B31" t="n">
-        <v>-196.10866970479</v>
+        <v>216.98333537502</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1926.649684654</v>
+        <v>850.240399581</v>
       </c>
       <c r="B32" t="n">
-        <v>-187.6845563563</v>
+        <v>211.8918636331452</v>
       </c>
       <c r="C32" t="n">
         <v>0.5</v>
@@ -5615,10 +5551,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2132.438046758</v>
+        <v>977.8075244209999</v>
       </c>
       <c r="B33" t="n">
-        <v>-186.8851931977594</v>
+        <v>217.5171511103906</v>
       </c>
       <c r="C33" t="n">
         <v>0.5</v>
@@ -5626,89 +5562,12 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2478.6185151</v>
+        <v>983.842914879</v>
       </c>
       <c r="B34" t="n">
-        <v>-183.3801658636606</v>
+        <v>208.1731626431545</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2496.77666851</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-188.0614305197882</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2597.75836981</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-189.16227487308</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2703.26948281</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-198.3743249906333</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2714.22651136</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-188.2675457529675</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>3057.21579806</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-198.7432883829158</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3481.94775269</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-206.270204346841</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3617.794442</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-213.49482883067</v>
-      </c>
-      <c r="C41" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5723,7 +5582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5750,442 +5609,365 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.340174924488185</v>
+        <v>22.07161322300504</v>
       </c>
       <c r="B2" t="n">
-        <v>4.670087462244093</v>
+        <v>11.03580661150252</v>
       </c>
       <c r="C2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.7330835424936</v>
+        <v>45.63055257938669</v>
       </c>
       <c r="B3" t="n">
-        <v>311.3031100322897</v>
+        <v>334.6805863339799</v>
       </c>
       <c r="C3" t="n">
-        <v>290.4365682610429</v>
+        <v>311.8653100442866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57.28563292314188</v>
+        <v>181.9718515258755</v>
       </c>
       <c r="B4" t="n">
-        <v>307.6667646480503</v>
+        <v>339.5661314412148</v>
       </c>
       <c r="C4" t="n">
-        <v>279.0239481864793</v>
+        <v>248.5802056782771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91.60494894681018</v>
+        <v>333.758633105045</v>
       </c>
       <c r="B5" t="n">
-        <v>337.5429639669116</v>
+        <v>378.775996362999</v>
       </c>
       <c r="C5" t="n">
-        <v>291.7404894935065</v>
+        <v>211.8966798104765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>137.6821065133322</v>
+        <v>382.3908259915503</v>
       </c>
       <c r="B6" t="n">
-        <v>338.9547536837468</v>
+        <v>383.9539867110948</v>
       </c>
       <c r="C6" t="n">
-        <v>270.1137004270807</v>
+        <v>192.7585737153196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>228.5981789241696</v>
+        <v>390.0245448228461</v>
       </c>
       <c r="B7" t="n">
-        <v>348.9464387660697</v>
+        <v>394.1367957206343</v>
       </c>
       <c r="C7" t="n">
-        <v>234.6473493039849</v>
+        <v>199.1245233092113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>229.8601401757849</v>
+        <v>469.8738006380188</v>
       </c>
       <c r="B8" t="n">
-        <v>358.073419177073</v>
+        <v>402.7968605414915</v>
       </c>
       <c r="C8" t="n">
-        <v>243.1433490891806</v>
+        <v>167.859960222482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>285.0621456428092</v>
+        <v>496.646436256465</v>
       </c>
       <c r="B9" t="n">
-        <v>362.696891228604</v>
+        <v>409.4889115990564</v>
       </c>
       <c r="C9" t="n">
-        <v>220.1658184071994</v>
+        <v>161.1656934708239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>358.6635458705805</v>
+        <v>512.8565820209873</v>
       </c>
       <c r="B10" t="n">
-        <v>319.9123325512244</v>
+        <v>404.3285602863675</v>
       </c>
       <c r="C10" t="n">
-        <v>140.5805596159341</v>
+        <v>147.9002692758739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>435.2443998579089</v>
+        <v>557.7663102019777</v>
       </c>
       <c r="B11" t="n">
-        <v>319.1676050238253</v>
+        <v>415.7615781680981</v>
       </c>
       <c r="C11" t="n">
-        <v>101.5454050948709</v>
+        <v>136.8784230671092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>557.2272539558097</v>
+        <v>567.3064719463263</v>
       </c>
       <c r="B12" t="n">
-        <v>288.1134103916095</v>
+        <v>415.3889365619077</v>
       </c>
       <c r="C12" t="n">
-        <v>9.49978341370462</v>
+        <v>131.7357005887445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>569.8103527566726</v>
+        <v>570.1310475005818</v>
       </c>
       <c r="B13" t="n">
-        <v>295.7844474747503</v>
+        <v>420.2397101330109</v>
       </c>
       <c r="C13" t="n">
-        <v>10.87927109641402</v>
+        <v>135.17418638272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>718.6396507639777</v>
+        <v>586.3681030270285</v>
       </c>
       <c r="B14" t="n">
-        <v>46.18238139369225</v>
+        <v>419.3891500628889</v>
       </c>
       <c r="C14" t="n">
-        <v>-313.1374439882966</v>
+        <v>126.2050985493746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>788.9524721905045</v>
+        <v>589.7438728874976</v>
       </c>
       <c r="B15" t="n">
-        <v>85.36699792638852</v>
+        <v>425.7419400588528</v>
       </c>
       <c r="C15" t="n">
-        <v>-309.1092381688637</v>
+        <v>130.8700036151041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>789.0284454403428</v>
+        <v>602.8152430325185</v>
       </c>
       <c r="B16" t="n">
-        <v>179.0473088091895</v>
+        <v>419.3754955242793</v>
       </c>
       <c r="C16" t="n">
-        <v>-215.4669139109819</v>
+        <v>117.96787400802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>807.1244817200122</v>
+        <v>641.9870280838657</v>
       </c>
       <c r="B17" t="n">
-        <v>166.7507897521791</v>
+        <v>430.675160111786</v>
       </c>
       <c r="C17" t="n">
-        <v>-236.811451107827</v>
+        <v>109.6816460698532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>828.9601542249407</v>
+        <v>653.7487998982416</v>
       </c>
       <c r="B18" t="n">
-        <v>309.5591988379236</v>
+        <v>427.7736427487463</v>
       </c>
       <c r="C18" t="n">
-        <v>-104.9208782745467</v>
+        <v>100.8992427996255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>836.674465964743</v>
+        <v>679.2580724361584</v>
       </c>
       <c r="B19" t="n">
-        <v>286.0374219422424</v>
+        <v>438.1890203573285</v>
       </c>
       <c r="C19" t="n">
-        <v>-132.2998110401292</v>
+        <v>98.55998413924931</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>859.2622951585577</v>
+        <v>692.9909393984871</v>
       </c>
       <c r="B20" t="n">
-        <v>349.5157865150066</v>
+        <v>439.7099126513492</v>
       </c>
       <c r="C20" t="n">
-        <v>-80.11536106427224</v>
+        <v>93.21444295210563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>860.9513367628597</v>
+        <v>723.6639640831205</v>
       </c>
       <c r="B21" t="n">
-        <v>331.9431905700747</v>
+        <v>449.5203589198574</v>
       </c>
       <c r="C21" t="n">
-        <v>-98.53247781135514</v>
+        <v>87.68837687829716</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>882.3742552830627</v>
+        <v>725.6092506010217</v>
       </c>
       <c r="B22" t="n">
-        <v>357.1650561913818</v>
+        <v>449.825469250385</v>
       </c>
       <c r="C22" t="n">
-        <v>-84.02207145014955</v>
+        <v>87.02084394987412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>882.6969017964876</v>
+        <v>786.9392466068925</v>
       </c>
       <c r="B23" t="n">
-        <v>359.4978137954344</v>
+        <v>467.8969024245838</v>
       </c>
       <c r="C23" t="n">
-        <v>-81.85063710280946</v>
+        <v>74.42727912113753</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>900.2437225127319</v>
+        <v>793.6820816212434</v>
       </c>
       <c r="B24" t="n">
-        <v>383.6273483120988</v>
+        <v>470.5873461989364</v>
       </c>
       <c r="C24" t="n">
-        <v>-66.49451294426717</v>
+        <v>73.74630538831468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>910.9250191633021</v>
+        <v>797.0976245001216</v>
       </c>
       <c r="B25" t="n">
-        <v>386.0248340717719</v>
+        <v>472.8596756368194</v>
       </c>
       <c r="C25" t="n">
-        <v>-69.43767550987911</v>
+        <v>74.31086338675863</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1010.945460187183</v>
+        <v>846.0815214612372</v>
       </c>
       <c r="B26" t="n">
-        <v>455.7535125773262</v>
+        <v>486.5875458898465</v>
       </c>
       <c r="C26" t="n">
-        <v>-49.71921751626513</v>
+        <v>63.54678515922785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1011.934325817816</v>
+        <v>853.4428929620909</v>
       </c>
       <c r="B27" t="n">
-        <v>452.7848685167118</v>
+        <v>490.1230923877089</v>
       </c>
       <c r="C27" t="n">
-        <v>-53.18229439219624</v>
+        <v>63.40164590666348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1022.61607996339</v>
+        <v>886.2151342302801</v>
       </c>
       <c r="B28" t="n">
-        <v>461.8174693126486</v>
+        <v>501.5678363076498</v>
       </c>
       <c r="C28" t="n">
-        <v>-49.49057066904629</v>
+        <v>58.46026919250977</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1050.600793623454</v>
+        <v>887.2234793480047</v>
       </c>
       <c r="B29" t="n">
-        <v>480.7321591761433</v>
+        <v>502.2716132220648</v>
       </c>
       <c r="C29" t="n">
-        <v>-44.56823763558384</v>
+        <v>58.65987354806242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1052.489206381692</v>
+        <v>892.6802354862566</v>
       </c>
       <c r="B30" t="n">
-        <v>482.5852131917028</v>
+        <v>503.2610200031566</v>
       </c>
       <c r="C30" t="n">
-        <v>-43.65938999914306</v>
+        <v>56.9209022600283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1065.847148645106</v>
+        <v>908.7894749090514</v>
       </c>
       <c r="B31" t="n">
-        <v>490.5571511115308</v>
+        <v>510.0892473353031</v>
       </c>
       <c r="C31" t="n">
-        <v>-42.36642321102244</v>
+        <v>55.69450988077739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1139.740034473703</v>
+        <v>910.3713171422105</v>
       </c>
       <c r="B32" t="n">
-        <v>537.5876293749641</v>
+        <v>509.5406603539935</v>
       </c>
       <c r="C32" t="n">
-        <v>-32.2823878618874</v>
+        <v>54.35500178288828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1171.084206986912</v>
+        <v>947.0707034935322</v>
       </c>
       <c r="B33" t="n">
-        <v>556.0892663768834</v>
+        <v>524.1281205270773</v>
       </c>
       <c r="C33" t="n">
-        <v>-29.4528371165726</v>
+        <v>50.59276878031119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1218.937830298458</v>
+        <v>948.7058177445654</v>
       </c>
       <c r="B34" t="n">
-        <v>584.0285104335179</v>
+        <v>522.8468637557033</v>
       </c>
       <c r="C34" t="n">
-        <v>-25.440404715711</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1221.303417772957</v>
-      </c>
-      <c r="B35" t="n">
-        <v>584.6767828560795</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-25.97492603039893</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1234.225411456425</v>
-      </c>
-      <c r="B36" t="n">
-        <v>591.8193749286205</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-25.29333079959213</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1247.325532319324</v>
-      </c>
-      <c r="B37" t="n">
-        <v>597.9173919284094</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-25.74537423125264</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1248.663571726204</v>
-      </c>
-      <c r="B38" t="n">
-        <v>600.0572735286797</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-24.2745123344223</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1288.619316052925</v>
-      </c>
-      <c r="B39" t="n">
-        <v>620.9837553667089</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-23.32590265975341</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1333.650662061597</v>
-      </c>
-      <c r="B40" t="n">
-        <v>644.9878802233949</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-21.83745080740346</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1347.176936258392</v>
-      </c>
-      <c r="B41" t="n">
-        <v>651.6327433240704</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-21.95572480512544</v>
+        <v>48.49395488342066</v>
       </c>
     </row>
   </sheetData>
@@ -6199,7 +5981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6231,562 +6013,464 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.670087462244092</v>
+        <v>11.03580661150252</v>
       </c>
       <c r="B2" t="n">
-        <v>4.670087462244092</v>
+        <v>11.03580661150252</v>
       </c>
       <c r="C2" t="n">
-        <v>2.223851172588768e-05</v>
+        <v>5.25514603376957e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.223851172588768e-05</v>
+        <v>5.25514603376957e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.8665417712468</v>
+        <v>22.81527628969335</v>
       </c>
       <c r="B3" t="n">
-        <v>52.06756966599333</v>
+        <v>58.01549360109653</v>
       </c>
       <c r="C3" t="n">
-        <v>9.936450439357617e-05</v>
+        <v>0.0001086442086570939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002479495864520935</v>
+        <v>0.0002762823103118812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.64281646157094</v>
+        <v>90.98592576293773</v>
       </c>
       <c r="B4" t="n">
-        <v>65.05867582771262</v>
+        <v>153.9185746040224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001363945274369948</v>
+        <v>0.0004336289461543982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003098419743802318</v>
+        <v>0.0007450120405514105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45.80247447340509</v>
+        <v>166.8793165525225</v>
       </c>
       <c r="B5" t="n">
-        <v>95.94669364382486</v>
+        <v>240.8934999185993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002181107557991469</v>
+        <v>0.000815348432271476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004574056390234204</v>
+        <v>0.001386153277329536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68.84105325666609</v>
+        <v>191.1954129957752</v>
       </c>
       <c r="B6" t="n">
-        <v>127.4967352433699</v>
+        <v>263.1594483231246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003278710272795251</v>
+        <v>0.0009616801759708008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006105652612298684</v>
+        <v>0.001684095616472947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>114.2990894620848</v>
+        <v>195.012272411423</v>
       </c>
       <c r="B7" t="n">
-        <v>181.4554916051083</v>
+        <v>270.3513132564868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005459406761853272</v>
+        <v>0.0009870710273303057</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009002236312358767</v>
+        <v>0.00180320432903564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>114.9300700878924</v>
+        <v>234.9369003190094</v>
       </c>
       <c r="B8" t="n">
-        <v>184.8729539963399</v>
+        <v>304.2829137638593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005490073762026548</v>
+        <v>0.001321040100744635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009212855678334599</v>
+        <v>0.002583514514466873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>142.5310728214046</v>
+        <v>248.3232181282325</v>
       </c>
       <c r="B9" t="n">
-        <v>213.3126781000218</v>
+        <v>316.7344906118885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006859476953186522</v>
+        <v>0.001475190612447897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001122046200563104</v>
+        <v>0.002990578173579443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>179.3317729352903</v>
+        <v>256.4282910104936</v>
       </c>
       <c r="B10" t="n">
-        <v>229.399880258291</v>
+        <v>319.9345168572768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008873819290399405</v>
+        <v>0.001583674007113991</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00126493520830021</v>
+        <v>0.003108560647780994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>217.6221999289545</v>
+        <v>278.8831551009889</v>
       </c>
       <c r="B11" t="n">
-        <v>257.1622475900637</v>
+        <v>340.0843615878391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001157726519467959</v>
+        <v>0.001962548324443467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001594144109823662</v>
+        <v>0.004001130439862315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>278.6136269779049</v>
+        <v>283.6532359731631</v>
       </c>
       <c r="B12" t="n">
-        <v>282.7196892029742</v>
+        <v>342.9594335377091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001957187714611339</v>
+        <v>0.002061218895459625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002041329190621749</v>
+        <v>0.004152310604587749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>284.9051763783363</v>
+        <v>285.0655237502909</v>
       </c>
       <c r="B13" t="n">
-        <v>289.6538910156403</v>
+        <v>346.1810442613578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002088349324664499</v>
+        <v>0.002091862492763896</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00219620314159964</v>
+        <v>0.004329672179571963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>359.3198253819888</v>
+        <v>293.1840515135142</v>
       </c>
       <c r="B14" t="n">
-        <v>181.2272993754704</v>
+        <v>350.8807569498639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005148053637005025</v>
+        <v>0.002281722423652417</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008988350071280681</v>
+        <v>0.004604248939471462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>394.4762360952523</v>
+        <v>294.8719364437488</v>
       </c>
       <c r="B15" t="n">
-        <v>227.0620885162934</v>
+        <v>355.0203592027442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008282362608425678</v>
+        <v>0.00232430952151451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001242412788172208</v>
+        <v>0.004862532333624614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>394.5142227201714</v>
+        <v>301.4076215162593</v>
       </c>
       <c r="B16" t="n">
-        <v>286.02447298435</v>
+        <v>355.9460930638537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008286655770076388</v>
+        <v>0.002500236270821457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002113056844762856</v>
+        <v>0.004922489939046861</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>403.5622408600061</v>
+        <v>320.9935140419328</v>
       </c>
       <c r="B17" t="n">
-        <v>282.7402191809356</v>
+        <v>373.2623625470686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009375495690534705</v>
+        <v>0.003148910736759338</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00204176349763687</v>
+        <v>0.006207407271231685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>414.4800771124703</v>
+        <v>326.8743999491208</v>
       </c>
       <c r="B18" t="n">
-        <v>361.3304101869905</v>
+        <v>375.2346342977445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01087932313798982</v>
+        <v>0.003385396885710662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005287890811134024</v>
+        <v>0.006375203849608698</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>418.3372329823715</v>
+        <v>339.6290362180792</v>
       </c>
       <c r="B19" t="n">
-        <v>351.2469265771222</v>
+        <v>387.8101458871836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01146497570633046</v>
+        <v>0.003977784446531654</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004626461072927088</v>
+        <v>0.007562821464859437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>429.6311475792788</v>
+        <v>346.4954696992435</v>
       </c>
       <c r="B20" t="n">
-        <v>388.2051016544179</v>
+        <v>392.4461934053455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0133597259292572</v>
+        <v>0.004347446229564372</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007603623897127035</v>
+        <v>0.008056169710538071</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>430.4756683814298</v>
+        <v>361.8319820415603</v>
       </c>
       <c r="B21" t="n">
-        <v>379.6809235273096</v>
+        <v>405.979410094536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01351283923679439</v>
+        <v>0.005323421481170923</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006771234150048083</v>
+        <v>0.009689737470963314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>441.1871276415313</v>
+        <v>362.8046253005108</v>
       </c>
       <c r="B22" t="n">
-        <v>397.2423957883959</v>
+        <v>406.6662849752663</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01560475592785833</v>
+        <v>0.005393068558326209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008600919174402989</v>
+        <v>0.00978091675992418</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>441.3484508982438</v>
+        <v>393.4696233034463</v>
       </c>
       <c r="B23" t="n">
-        <v>398.5084885342079</v>
+        <v>432.4610095918284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01563847682863784</v>
+        <v>0.008169411789151957</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008750801124212349</v>
+        <v>0.01387937734358981</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>450.1218612563659</v>
+        <v>396.8410408106217</v>
       </c>
       <c r="B24" t="n">
-        <v>414.835575184227</v>
+        <v>435.6467526220624</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01757843521388724</v>
+        <v>0.008553945466883385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01093206195473222</v>
+        <v>0.01448728873593756</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>455.462509581651</v>
+        <v>398.5488122500608</v>
       </c>
       <c r="B25" t="n">
-        <v>418.4340833899802</v>
+        <v>437.7575189592389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01886657328364559</v>
+        <v>0.008755617441159354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01148006713103208</v>
+        <v>0.01490382956908299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>505.4727300935913</v>
+        <v>423.0407607306186</v>
       </c>
       <c r="B26" t="n">
-        <v>477.2902265709089</v>
+        <v>457.5180901931378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03584889697103372</v>
+        <v>0.01222044213859876</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0250861821825483</v>
+        <v>0.01938522876667968</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>505.9671629089081</v>
+        <v>426.7214464810455</v>
       </c>
       <c r="B27" t="n">
-        <v>475.850362413234</v>
+        <v>461.2868570868575</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03606993330471846</v>
+        <v>0.01284474459059573</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02462441446561746</v>
+        <v>0.02037043168982409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>511.3080399816949</v>
+        <v>443.1075671151401</v>
       </c>
       <c r="B28" t="n">
-        <v>483.0779812536559</v>
+        <v>475.5834336360613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03853614192372612</v>
+        <v>0.0160106391146437</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02702259225413084</v>
+        <v>0.02453966280146136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>525.3003968117272</v>
+        <v>443.6117396740024</v>
       </c>
       <c r="B29" t="n">
-        <v>499.4425942120494</v>
+        <v>476.2233762846951</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04572202370697286</v>
+        <v>0.01611882216657057</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0332487544162908</v>
+        <v>0.02474329422715047</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>526.2446031908459</v>
+        <v>446.3401177431283</v>
       </c>
       <c r="B30" t="n">
-        <v>500.8782167488654</v>
+        <v>478.0657123649723</v>
       </c>
       <c r="C30" t="n">
-        <v>0.046247080165741</v>
+        <v>0.01671621517148756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03385200068634206</v>
+        <v>0.02533812496693898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>532.9235743225532</v>
+        <v>454.3947374545257</v>
       </c>
       <c r="B31" t="n">
-        <v>508.1202199095351</v>
+        <v>485.7363094706456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05011564690625851</v>
+        <v>0.01860224529247043</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03704668761206277</v>
+        <v>0.02795647235339739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>569.8700172368515</v>
+        <v>455.1856585711053</v>
       </c>
       <c r="B32" t="n">
-        <v>550.1344032051868</v>
+        <v>485.7809780507961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07709739071639088</v>
+        <v>0.01879770716390027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06142698627187123</v>
+        <v>0.02797241039217208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>585.542103493456</v>
+        <v>473.5353517467661</v>
       </c>
       <c r="B33" t="n">
-        <v>567.2197993843749</v>
+        <v>502.6103956712777</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09191887345520366</v>
+        <v>0.02389815202709475</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07480876341943785</v>
+        <v>0.03459287172276384</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>609.4689151492289</v>
+        <v>474.3529088722827</v>
       </c>
       <c r="B34" t="n">
-        <v>593.2234822420486</v>
+        <v>502.2160536320233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1193102609005831</v>
+        <v>0.02415238000722458</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1000461736702147</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>610.6517088864784</v>
-      </c>
-      <c r="B35" t="n">
-        <v>594.0506891751476</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1208302834786608</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.1009574780616592</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>617.1127057282126</v>
-      </c>
-      <c r="B36" t="n">
-        <v>600.8377622397744</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1294323969190324</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1087102715143066</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>623.6627661596621</v>
-      </c>
-      <c r="B37" t="n">
-        <v>606.994906213476</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1386879865634659</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1161842601037695</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>624.331785863102</v>
-      </c>
-      <c r="B38" t="n">
-        <v>608.5922800261945</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.139664717293318</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1181943817718174</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>644.3096580264623</v>
-      </c>
-      <c r="B39" t="n">
-        <v>628.8815592475299</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1716989049545701</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1464659404459597</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>666.8253310307983</v>
-      </c>
-      <c r="B40" t="n">
-        <v>652.0563996207386</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.2152000597398149</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1857216401163154</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>673.5884681291958</v>
-      </c>
-      <c r="B41" t="n">
-        <v>658.6463285036588</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.2299869042894447</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.1984148822975976</v>
+        <v>0.03442294565164723</v>
       </c>
     </row>
   </sheetData>
@@ -6800,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6822,322 +6506,266 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.416161469535615e+25</v>
+        <v>7.215225917000347e+20</v>
       </c>
       <c r="B2" t="n">
-        <v>1.165121375983393e-25</v>
+        <v>2.286830681368283e-21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12997358476086.94</v>
+        <v>3748881431212.835</v>
       </c>
       <c r="B3" t="n">
-        <v>1.269488721908945e-13</v>
+        <v>4.401312845645784e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1004501342701.285</v>
+        <v>51003581.12226158</v>
       </c>
       <c r="B4" t="n">
-        <v>1.642606067168465e-12</v>
+        <v>3.235066957445117e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11557640644.23936</v>
+        <v>315492.6493826467</v>
       </c>
       <c r="B5" t="n">
-        <v>1.427627013842487e-10</v>
+        <v>5.229915826022274e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>441505282.0939113</v>
+        <v>116500.9040173511</v>
       </c>
       <c r="B6" t="n">
-        <v>3.737214631214839e-09</v>
+        <v>7.081490113391122e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7793623.115834912</v>
+        <v>85959.827138743</v>
       </c>
       <c r="B7" t="n">
-        <v>2.117115461546462e-07</v>
+        <v>1.919501300691108e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6302939.850529018</v>
+        <v>22595.87644259291</v>
       </c>
       <c r="B8" t="n">
-        <v>2.617826029010118e-07</v>
+        <v>7.302217305852199e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1244217.051993295</v>
+        <v>14341.26145254027</v>
       </c>
       <c r="B9" t="n">
-        <v>1.32613517662101e-06</v>
+        <v>5.752632031221128e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>547461.6695855294</v>
+        <v>12795.15221653355</v>
       </c>
       <c r="B10" t="n">
-        <v>3.01390963361723e-06</v>
+        <v>0.0001289550895586779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>151067.7104739714</v>
+        <v>6391.201269367401</v>
       </c>
       <c r="B11" t="n">
-        <v>5.461127314444508e-06</v>
+        <v>0.0001290837145051541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>51884.38169064946</v>
+        <v>5807.266730477385</v>
       </c>
       <c r="B12" t="n">
-        <v>3.18014775590428e-05</v>
+        <v>0.0002841267805628005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>39458.34572720333</v>
+        <v>5220.858946197051</v>
       </c>
       <c r="B13" t="n">
-        <v>2.090812437256409e-05</v>
+        <v>0.0003160399499400158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7906053.281375259</v>
+        <v>4477.527104413466</v>
       </c>
       <c r="B14" t="n">
-        <v>2.087008449445944e-07</v>
+        <v>0.0003685069819842312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>614520.802430005</v>
+        <v>3917.354738740941</v>
       </c>
       <c r="B15" t="n">
-        <v>1.342509475249162e-06</v>
+        <v>0.0002106012998621512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>45501.35348329088</v>
+        <v>3802.783168766648</v>
       </c>
       <c r="B16" t="n">
-        <v>1.813132878130666e-05</v>
+        <v>0.0002169463688532027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>51841.85000935471</v>
+        <v>2211.817426987137</v>
       </c>
       <c r="B17" t="n">
-        <v>3.182756787619004e-05</v>
+        <v>0.0003729964281562728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3204.476862969119</v>
+        <v>2082.651678051267</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0002574523191394159</v>
+        <v>0.000792259222888343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4424.63335285632</v>
+        <v>1429.095700895567</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001864561273687054</v>
+        <v>0.001154576281326716</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1412.565126649711</v>
+        <v>1247.566322284831</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001168087735475554</v>
+        <v>0.0006612874884992649</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1820.491160638509</v>
+        <v>846.546005826381</v>
       </c>
       <c r="B21" t="n">
-        <v>0.000453174405807411</v>
+        <v>0.001949096668868343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1085.770968618776</v>
+        <v>830.3279888304528</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001519657503919991</v>
+        <v>0.0009935832720296982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1046.964913519497</v>
+        <v>410.6082339213851</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0007879920227953619</v>
+        <v>0.004018428915178326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>661.2797172842286</v>
+        <v>377.4910415484222</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001247580983412201</v>
+        <v>0.002185482327251928</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>599.0176839594349</v>
+        <v>357.1523076400354</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001377254832523223</v>
+        <v>0.002309938875801683</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>132.5311477521153</v>
+        <v>215.3066379658516</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0124499034980527</v>
+        <v>0.003831744379989102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>137.2051911676272</v>
+        <v>195.975985593337</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006012892026746098</v>
+        <v>0.00420969945629935</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>115.4148846598122</v>
+        <v>138.0912030057425</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007148124805840297</v>
+        <v>0.005974312498137136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>78.74724440302957</v>
+        <v>135.9773809545871</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01047655706881168</v>
+        <v>0.006067185543715747</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>76.19536569361814</v>
+        <v>130.0856844409808</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01082743015260702</v>
+        <v>0.006341973780937429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>64.62081134324225</v>
+        <v>108.3717952462928</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01276678492348076</v>
+        <v>0.0152253637235602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25.95598244755628</v>
+        <v>108.2575116995114</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03178457997754088</v>
+        <v>0.007620718295188039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18.26793094760548</v>
+        <v>73.23529582161518</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04516110786526369</v>
+        <v>0.01126505997885932</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.91642151127451</v>
+        <v>73.89802045707742</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07557421625282039</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>10.74306935250367</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.07679369581726976</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>9.428681460533287</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.08749897888196745</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>8.386551410684623</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.09837178115297007</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>8.137119166328905</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.2027744667704559</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>5.582653758178298</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1477791809659372</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3.683517186145489</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.2239707210008426</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3.281578836903644</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.2514033765461611</v>
+        <v>0.01116403382522525</v>
       </c>
     </row>
   </sheetData>
@@ -7328,7 +6956,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.307905951894139</v>
+        <v>0.08795408841060515</v>
       </c>
     </row>
     <row r="18">
@@ -7338,7 +6966,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/export/risultati_fatica.xlsx
+++ b/export/risultati_fatica.xlsx
@@ -488,16 +488,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>119.089007494</v>
+        <v>117.685861499</v>
       </c>
       <c r="C3" t="n">
-        <v>135.393958231</v>
+        <v>133.698895262</v>
       </c>
       <c r="D3" t="n">
-        <v>63.9721706877</v>
+        <v>63.3501147876</v>
       </c>
       <c r="E3" t="n">
-        <v>119.089007494</v>
+        <v>117.685861499</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>310.472460713</v>
+        <v>305.553894704</v>
       </c>
       <c r="C4" t="n">
-        <v>353.06131891</v>
+        <v>347.248200217</v>
       </c>
       <c r="D4" t="n">
-        <v>167.604456829</v>
+        <v>165.179687326</v>
       </c>
       <c r="E4" t="n">
-        <v>310.472460713</v>
+        <v>305.553894704</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.315201317</v>
+        <v>240.897989154</v>
       </c>
       <c r="C5" t="n">
-        <v>282.370513727</v>
+        <v>273.842355664</v>
       </c>
       <c r="D5" t="n">
-        <v>134.102534123</v>
+        <v>129.993368749</v>
       </c>
       <c r="E5" t="n">
-        <v>248.315201317</v>
+        <v>240.897989154</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>109.441155554</v>
+        <v>104.506190917</v>
       </c>
       <c r="C6" t="n">
-        <v>124.398376396</v>
+        <v>118.886238563</v>
       </c>
       <c r="D6" t="n">
-        <v>58.5552463719</v>
+        <v>55.4792702103</v>
       </c>
       <c r="E6" t="n">
-        <v>109.441155554</v>
+        <v>104.506190917</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>216.90159372</v>
+        <v>218.686714603</v>
       </c>
       <c r="C7" t="n">
-        <v>246.666736373</v>
+        <v>248.746280385</v>
       </c>
       <c r="D7" t="n">
-        <v>116.795232042</v>
+        <v>117.725683178</v>
       </c>
       <c r="E7" t="n">
-        <v>216.90159372</v>
+        <v>218.686714603</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>290.952575202</v>
+        <v>292.761114871</v>
       </c>
       <c r="C8" t="n">
-        <v>330.948767176</v>
+        <v>332.564005925</v>
       </c>
       <c r="D8" t="n">
-        <v>157.014669032</v>
+        <v>158.896754713</v>
       </c>
       <c r="E8" t="n">
-        <v>290.952575202</v>
+        <v>292.761114871</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>183.849416595</v>
+        <v>171.451727092</v>
       </c>
       <c r="C9" t="n">
-        <v>209.421077028</v>
+        <v>194.504304364</v>
       </c>
       <c r="D9" t="n">
-        <v>98.61777322979999</v>
+        <v>93.0746188112</v>
       </c>
       <c r="E9" t="n">
-        <v>183.849416595</v>
+        <v>171.451727092</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>183.73452918</v>
+        <v>154.451088955</v>
       </c>
       <c r="C10" t="n">
-        <v>209.650261967</v>
+        <v>176.020316758</v>
       </c>
       <c r="D10" t="n">
-        <v>97.6365964969</v>
+        <v>81.5953490525</v>
       </c>
       <c r="E10" t="n">
-        <v>183.73452918</v>
+        <v>154.451088955</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>294.67096293</v>
+        <v>270.507579176</v>
       </c>
       <c r="C11" t="n">
-        <v>335.993715142</v>
+        <v>308.838140173</v>
       </c>
       <c r="D11" t="n">
-        <v>158.209133623</v>
+        <v>142.856878344</v>
       </c>
       <c r="E11" t="n">
-        <v>294.67096293</v>
+        <v>270.507579176</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>277.112045549</v>
+        <v>292.06145262</v>
       </c>
       <c r="C12" t="n">
-        <v>315.864152123</v>
+        <v>333.697957827</v>
       </c>
       <c r="D12" t="n">
-        <v>149.654261065</v>
+        <v>155.320215282</v>
       </c>
       <c r="E12" t="n">
-        <v>277.112045549</v>
+        <v>292.06145262</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>1.1</v>
       </c>
       <c r="B13" t="n">
-        <v>210.661604178</v>
+        <v>260.316118648</v>
       </c>
       <c r="C13" t="n">
-        <v>240.349293454</v>
+        <v>296.946070666</v>
       </c>
       <c r="D13" t="n">
-        <v>113.003480179</v>
+        <v>141.568566885</v>
       </c>
       <c r="E13" t="n">
-        <v>210.661604178</v>
+        <v>260.316118648</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>1.2</v>
       </c>
       <c r="B14" t="n">
-        <v>244.053634839</v>
+        <v>259.104227618</v>
       </c>
       <c r="C14" t="n">
-        <v>278.60644644</v>
+        <v>292.750978792</v>
       </c>
       <c r="D14" t="n">
-        <v>129.723342866</v>
+        <v>143.447876852</v>
       </c>
       <c r="E14" t="n">
-        <v>244.053634839</v>
+        <v>259.104227618</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>1.3</v>
       </c>
       <c r="B15" t="n">
-        <v>268.396881132</v>
+        <v>161.851520426</v>
       </c>
       <c r="C15" t="n">
-        <v>306.088465917</v>
+        <v>177.059601834</v>
       </c>
       <c r="D15" t="n">
-        <v>143.687391749</v>
+        <v>84.7860478023</v>
       </c>
       <c r="E15" t="n">
-        <v>268.396881132</v>
+        <v>161.851520426</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>1.4</v>
       </c>
       <c r="B16" t="n">
-        <v>215.356450213</v>
+        <v>67.58990036429999</v>
       </c>
       <c r="C16" t="n">
-        <v>244.64372991</v>
+        <v>-7.37678985317</v>
       </c>
       <c r="D16" t="n">
-        <v>117.221086255</v>
+        <v>-70.7033139471</v>
       </c>
       <c r="E16" t="n">
-        <v>215.356450213</v>
+        <v>-67.58990036429999</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>170.683134224</v>
+        <v>134.329501343</v>
       </c>
       <c r="C17" t="n">
-        <v>191.813519487</v>
+        <v>-64.99234459429999</v>
       </c>
       <c r="D17" t="n">
-        <v>92.9560621863</v>
+        <v>-154.367087596</v>
       </c>
       <c r="E17" t="n">
-        <v>170.683134224</v>
+        <v>-134.329501343</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>138.540414005</v>
+        <v>37.1657081885</v>
       </c>
       <c r="C18" t="n">
-        <v>153.605651753</v>
+        <v>-2.7011183202</v>
       </c>
       <c r="D18" t="n">
-        <v>73.20070840469999</v>
+        <v>-38.1007620962</v>
       </c>
       <c r="E18" t="n">
-        <v>138.540414005</v>
+        <v>-37.1657081885</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>1.7</v>
       </c>
       <c r="B19" t="n">
-        <v>80.8180514084</v>
+        <v>157.814838937</v>
       </c>
       <c r="C19" t="n">
-        <v>87.02256727859999</v>
+        <v>176.725117413</v>
       </c>
       <c r="D19" t="n">
-        <v>37.7346989353</v>
+        <v>85.15725163490001</v>
       </c>
       <c r="E19" t="n">
-        <v>80.8180514084</v>
+        <v>157.814838937</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>1.8</v>
       </c>
       <c r="B20" t="n">
-        <v>58.1460835315</v>
+        <v>294.093063137</v>
       </c>
       <c r="C20" t="n">
-        <v>61.9574795876</v>
+        <v>332.631842695</v>
       </c>
       <c r="D20" t="n">
-        <v>24.2171077194</v>
+        <v>164.046842146</v>
       </c>
       <c r="E20" t="n">
-        <v>58.1460835315</v>
+        <v>294.093063137</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>1.9</v>
       </c>
       <c r="B21" t="n">
-        <v>123.144211863</v>
+        <v>334.605970351</v>
       </c>
       <c r="C21" t="n">
-        <v>139.049634103</v>
+        <v>380.836985951</v>
       </c>
       <c r="D21" t="n">
-        <v>64.2654366463</v>
+        <v>184.35486487</v>
       </c>
       <c r="E21" t="n">
-        <v>123.144211863</v>
+        <v>334.605970351</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>237.470455202</v>
+        <v>311.088345819</v>
       </c>
       <c r="C22" t="n">
-        <v>270.652303004</v>
+        <v>356.421022552</v>
       </c>
       <c r="D22" t="n">
-        <v>127.57070254</v>
+        <v>158.849787776</v>
       </c>
       <c r="E22" t="n">
-        <v>237.470455202</v>
+        <v>311.088345819</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>2.1</v>
       </c>
       <c r="B23" t="n">
-        <v>316.307759989</v>
+        <v>324.439061973</v>
       </c>
       <c r="C23" t="n">
-        <v>360.073041285</v>
+        <v>371.603551667</v>
       </c>
       <c r="D23" t="n">
-        <v>173.799390837</v>
+        <v>154.168625508</v>
       </c>
       <c r="E23" t="n">
-        <v>316.307759989</v>
+        <v>324.439061973</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>2.2</v>
       </c>
       <c r="B24" t="n">
-        <v>305.258409154</v>
+        <v>397.142873503</v>
       </c>
       <c r="C24" t="n">
-        <v>346.907426967</v>
+        <v>455.255870764</v>
       </c>
       <c r="D24" t="n">
-        <v>168.408432725</v>
+        <v>204.469010213</v>
       </c>
       <c r="E24" t="n">
-        <v>305.258409154</v>
+        <v>397.142873503</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>2.3</v>
       </c>
       <c r="B25" t="n">
-        <v>223.094022807</v>
+        <v>446.459344391</v>
       </c>
       <c r="C25" t="n">
-        <v>254.240743486</v>
+        <v>509.787008362</v>
       </c>
       <c r="D25" t="n">
-        <v>119.535583823</v>
+        <v>244.68976903</v>
       </c>
       <c r="E25" t="n">
-        <v>223.094022807</v>
+        <v>446.459344391</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>2.4</v>
       </c>
       <c r="B26" t="n">
-        <v>158.590673017</v>
+        <v>369.605725301</v>
       </c>
       <c r="C26" t="n">
-        <v>181.05725886</v>
+        <v>419.717838608</v>
       </c>
       <c r="D26" t="n">
-        <v>80.3987207701</v>
+        <v>206.178472062</v>
       </c>
       <c r="E26" t="n">
-        <v>158.590673017</v>
+        <v>369.605725301</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
-        <v>154.377270185</v>
+        <v>156.808083624</v>
       </c>
       <c r="C27" t="n">
-        <v>175.233741196</v>
+        <v>174.433960757</v>
       </c>
       <c r="D27" t="n">
-        <v>81.2950622882</v>
+        <v>84.22826095550001</v>
       </c>
       <c r="E27" t="n">
-        <v>154.377270185</v>
+        <v>156.808083624</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>2.6</v>
       </c>
       <c r="B28" t="n">
-        <v>175.651198823</v>
+        <v>86.62226873279999</v>
       </c>
       <c r="C28" t="n">
-        <v>197.166691901</v>
+        <v>-39.1076208843</v>
       </c>
       <c r="D28" t="n">
-        <v>95.5025919919</v>
+        <v>-99.19696497779999</v>
       </c>
       <c r="E28" t="n">
-        <v>175.651198823</v>
+        <v>-86.62226873279999</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>2.7</v>
       </c>
       <c r="B29" t="n">
-        <v>193.233721478</v>
+        <v>161.341767696</v>
       </c>
       <c r="C29" t="n">
-        <v>217.937948615</v>
+        <v>-84.2747304471</v>
       </c>
       <c r="D29" t="n">
-        <v>105.775399334</v>
+        <v>-185.807095624</v>
       </c>
       <c r="E29" t="n">
-        <v>193.233721478</v>
+        <v>-161.341767696</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>2.8</v>
       </c>
       <c r="B30" t="n">
-        <v>217.099546553</v>
+        <v>60.4807270044</v>
       </c>
       <c r="C30" t="n">
-        <v>247.497604575</v>
+        <v>-2.52273554914</v>
       </c>
       <c r="D30" t="n">
-        <v>115.49805586</v>
+        <v>-61.3921046075</v>
       </c>
       <c r="E30" t="n">
-        <v>217.099546553</v>
+        <v>-60.4807270044</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>2.9</v>
       </c>
       <c r="B31" t="n">
-        <v>245.04557026</v>
+        <v>153.337744774</v>
       </c>
       <c r="C31" t="n">
-        <v>280.287605007</v>
+        <v>167.219294766</v>
       </c>
       <c r="D31" t="n">
-        <v>127.022054756</v>
+        <v>79.93983100040001</v>
       </c>
       <c r="E31" t="n">
-        <v>245.04557026</v>
+        <v>153.337744774</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>280.723677204</v>
+        <v>267.389969668</v>
       </c>
       <c r="C32" t="n">
-        <v>321.007321936</v>
+        <v>302.868170621</v>
       </c>
       <c r="D32" t="n">
-        <v>148.646491511</v>
+        <v>148.139564335</v>
       </c>
       <c r="E32" t="n">
-        <v>280.723677204</v>
+        <v>267.389969668</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>3.1</v>
       </c>
       <c r="B33" t="n">
-        <v>327.671581182</v>
+        <v>329.87557983</v>
       </c>
       <c r="C33" t="n">
-        <v>374.130017088</v>
+        <v>377.38372916</v>
       </c>
       <c r="D33" t="n">
-        <v>177.416116157</v>
+        <v>175.262825014</v>
       </c>
       <c r="E33" t="n">
-        <v>327.671581182</v>
+        <v>329.87557983</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>3.2</v>
       </c>
       <c r="B34" t="n">
-        <v>333.935964418</v>
+        <v>365.103455174</v>
       </c>
       <c r="C34" t="n">
-        <v>381.205234941</v>
+        <v>418.445976922</v>
       </c>
       <c r="D34" t="n">
-        <v>180.719748697</v>
+        <v>186.970557834</v>
       </c>
       <c r="E34" t="n">
-        <v>333.935964418</v>
+        <v>365.103455174</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>3.3</v>
       </c>
       <c r="B35" t="n">
-        <v>267.906819437</v>
+        <v>381.625741964</v>
       </c>
       <c r="C35" t="n">
-        <v>305.932144282</v>
+        <v>437.405350465</v>
       </c>
       <c r="D35" t="n">
-        <v>143.127076635</v>
+        <v>196.886666171</v>
       </c>
       <c r="E35" t="n">
-        <v>267.906819437</v>
+        <v>381.625741964</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>3.4</v>
       </c>
       <c r="B36" t="n">
-        <v>189.861484719</v>
+        <v>399.591378046</v>
       </c>
       <c r="C36" t="n">
-        <v>216.194521029</v>
+        <v>457.680533179</v>
       </c>
       <c r="D36" t="n">
-        <v>101.138900031</v>
+        <v>211.087649957</v>
       </c>
       <c r="E36" t="n">
-        <v>189.861484719</v>
+        <v>399.591378046</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>3.5</v>
       </c>
       <c r="B37" t="n">
-        <v>147.783887213</v>
+        <v>402.557230079</v>
       </c>
       <c r="C37" t="n">
-        <v>166.031028216</v>
+        <v>460.626649386</v>
       </c>
       <c r="D37" t="n">
-        <v>79.1223018873</v>
+        <v>215.243657604</v>
       </c>
       <c r="E37" t="n">
-        <v>147.783887213</v>
+        <v>402.557230079</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>3.6</v>
       </c>
       <c r="B38" t="n">
-        <v>116.142379873</v>
+        <v>350.311672399</v>
       </c>
       <c r="C38" t="n">
-        <v>127.434205767</v>
+        <v>400.886233709</v>
       </c>
       <c r="D38" t="n">
-        <v>59.7281029879</v>
+        <v>185.460724837</v>
       </c>
       <c r="E38" t="n">
-        <v>116.142379873</v>
+        <v>350.311672399</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>3.7</v>
       </c>
       <c r="B39" t="n">
-        <v>96.1990684396</v>
+        <v>259.258087974</v>
       </c>
       <c r="C39" t="n">
-        <v>106.190080295</v>
+        <v>296.486763736</v>
       </c>
       <c r="D39" t="n">
-        <v>49.0848420949</v>
+        <v>136.316806421</v>
       </c>
       <c r="E39" t="n">
-        <v>96.1990684396</v>
+        <v>259.258087974</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>3.8</v>
       </c>
       <c r="B40" t="n">
-        <v>146.492125729</v>
+        <v>190.273440316</v>
       </c>
       <c r="C40" t="n">
-        <v>166.655640147</v>
+        <v>216.065334379</v>
       </c>
       <c r="D40" t="n">
-        <v>76.18407472059999</v>
+        <v>102.412120774</v>
       </c>
       <c r="E40" t="n">
-        <v>146.492125729</v>
+        <v>190.273440316</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>3.9</v>
       </c>
       <c r="B41" t="n">
-        <v>259.08733634</v>
+        <v>150.946831378</v>
       </c>
       <c r="C41" t="n">
-        <v>296.175583945</v>
+        <v>169.447368611</v>
       </c>
       <c r="D41" t="n">
-        <v>136.169512596</v>
+        <v>80.87499262519999</v>
       </c>
       <c r="E41" t="n">
-        <v>259.08733634</v>
+        <v>150.946831378</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>360.829578245</v>
+        <v>104.944531743</v>
       </c>
       <c r="C42" t="n">
-        <v>412.647981765</v>
+        <v>114.329016153</v>
       </c>
       <c r="D42" t="n">
-        <v>193.317300221</v>
+        <v>52.8499115084</v>
       </c>
       <c r="E42" t="n">
-        <v>360.829578245</v>
+        <v>104.944531743</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>4.1</v>
       </c>
       <c r="B43" t="n">
-        <v>414.893553453</v>
+        <v>69.77016012430001</v>
       </c>
       <c r="C43" t="n">
-        <v>474.75114865</v>
+        <v>61.493101488</v>
       </c>
       <c r="D43" t="n">
-        <v>222.578067434</v>
+        <v>2.43754254621</v>
       </c>
       <c r="E43" t="n">
-        <v>414.893553453</v>
+        <v>69.77016012430001</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>4.2</v>
       </c>
       <c r="B44" t="n">
-        <v>414.612316796</v>
+        <v>73.2929640304</v>
       </c>
       <c r="C44" t="n">
-        <v>474.868901639</v>
+        <v>21.0013779138</v>
       </c>
       <c r="D44" t="n">
-        <v>218.988038737</v>
+        <v>-59.4541084431</v>
       </c>
       <c r="E44" t="n">
-        <v>414.612316796</v>
+        <v>-73.2929640304</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>4.3</v>
       </c>
       <c r="B45" t="n">
-        <v>360.889272271</v>
+        <v>85.5988814387</v>
       </c>
       <c r="C45" t="n">
-        <v>413.419642876</v>
+        <v>-17.6395036003</v>
       </c>
       <c r="D45" t="n">
-        <v>187.939752365</v>
+        <v>-92.7573800582</v>
       </c>
       <c r="E45" t="n">
-        <v>360.889272271</v>
+        <v>-85.5988814387</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>4.4</v>
       </c>
       <c r="B46" t="n">
-        <v>277.147816759</v>
+        <v>43.0256168632</v>
       </c>
       <c r="C46" t="n">
-        <v>316.787001271</v>
+        <v>-8.520474603</v>
       </c>
       <c r="D46" t="n">
-        <v>147.173437897</v>
+        <v>-46.3966304266</v>
       </c>
       <c r="E46" t="n">
-        <v>277.147816759</v>
+        <v>-43.0256168632</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>4.5</v>
       </c>
       <c r="B47" t="n">
-        <v>187.607574772</v>
+        <v>118.024395848</v>
       </c>
       <c r="C47" t="n">
-        <v>211.031590283</v>
+        <v>133.189782403</v>
       </c>
       <c r="D47" t="n">
-        <v>102.51097053</v>
+        <v>61.5036613869</v>
       </c>
       <c r="E47" t="n">
-        <v>187.607574772</v>
+        <v>118.024395848</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>4.6</v>
       </c>
       <c r="B48" t="n">
-        <v>90.1315273149</v>
+        <v>302.39174387</v>
       </c>
       <c r="C48" t="n">
-        <v>92.8606784855</v>
+        <v>344.450045455</v>
       </c>
       <c r="D48" t="n">
-        <v>30.1657665183</v>
+        <v>165.16991081</v>
       </c>
       <c r="E48" t="n">
-        <v>90.1315273149</v>
+        <v>302.39174387</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>4.7</v>
       </c>
       <c r="B49" t="n">
-        <v>77.9774694863</v>
+        <v>412.681848337</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.27790510462</v>
+        <v>471.303036173</v>
       </c>
       <c r="D49" t="n">
-        <v>-80.155214386</v>
+        <v>225.114914856</v>
       </c>
       <c r="E49" t="n">
-        <v>-77.9774694863</v>
+        <v>412.681848337</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>4.8</v>
       </c>
       <c r="B50" t="n">
-        <v>120.639819912</v>
+        <v>439.399457526</v>
       </c>
       <c r="C50" t="n">
-        <v>-47.4353342652</v>
+        <v>503.59342158</v>
       </c>
       <c r="D50" t="n">
-        <v>-136.985422364</v>
+        <v>229.851562431</v>
       </c>
       <c r="E50" t="n">
-        <v>-120.639819912</v>
+        <v>439.399457526</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>4.9</v>
       </c>
       <c r="B51" t="n">
-        <v>73.57169058220001</v>
+        <v>447.465889085</v>
       </c>
       <c r="C51" t="n">
-        <v>-14.2845702887</v>
+        <v>513.166610557</v>
       </c>
       <c r="D51" t="n">
-        <v>-79.3915849024</v>
+        <v>222.063243653</v>
       </c>
       <c r="E51" t="n">
-        <v>-73.57169058220001</v>
+        <v>447.465889085</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>81.3710443205</v>
+        <v>462.099885511</v>
       </c>
       <c r="C52" t="n">
-        <v>84.03080250169999</v>
+        <v>529.976811786</v>
       </c>
       <c r="D52" t="n">
-        <v>27.3819815506</v>
+        <v>234.680502249</v>
       </c>
       <c r="E52" t="n">
-        <v>81.3710443205</v>
+        <v>462.099885511</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>5.1</v>
       </c>
       <c r="B53" t="n">
-        <v>179.862085883</v>
+        <v>445.742488679</v>
       </c>
       <c r="C53" t="n">
-        <v>200.424982398</v>
+        <v>509.945600132</v>
       </c>
       <c r="D53" t="n">
-        <v>97.92310027569999</v>
+        <v>240.211461861</v>
       </c>
       <c r="E53" t="n">
-        <v>179.862085883</v>
+        <v>445.742488679</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>5.2</v>
       </c>
       <c r="B54" t="n">
-        <v>246.276714848</v>
+        <v>338.898127574</v>
       </c>
       <c r="C54" t="n">
-        <v>280.241626948</v>
+        <v>384.902170946</v>
       </c>
       <c r="D54" t="n">
-        <v>133.783451646</v>
+        <v>188.278263015</v>
       </c>
       <c r="E54" t="n">
-        <v>246.276714848</v>
+        <v>338.898127574</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>5.3</v>
       </c>
       <c r="B55" t="n">
-        <v>291.498211127</v>
+        <v>139.914722352</v>
       </c>
       <c r="C55" t="n">
-        <v>333.649979059</v>
+        <v>154.791605099</v>
       </c>
       <c r="D55" t="n">
-        <v>152.041504798</v>
+        <v>74.22570437829999</v>
       </c>
       <c r="E55" t="n">
-        <v>291.498211127</v>
+        <v>139.914722352</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>5.4</v>
       </c>
       <c r="B56" t="n">
-        <v>329.549651755</v>
+        <v>76.13817138100001</v>
       </c>
       <c r="C56" t="n">
-        <v>377.403840768</v>
+        <v>-28.3469483934</v>
       </c>
       <c r="D56" t="n">
-        <v>171.854123361</v>
+        <v>-86.09536054030001</v>
       </c>
       <c r="E56" t="n">
-        <v>329.549651755</v>
+        <v>-76.13817138100001</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>5.5</v>
       </c>
       <c r="B57" t="n">
-        <v>357.787614871</v>
+        <v>148.613859133</v>
       </c>
       <c r="C57" t="n">
-        <v>409.30063157</v>
+        <v>-71.1973694938</v>
       </c>
       <c r="D57" t="n">
-        <v>190.923090466</v>
+        <v>-170.714340601</v>
       </c>
       <c r="E57" t="n">
-        <v>357.787614871</v>
+        <v>-148.613859133</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>5.6</v>
       </c>
       <c r="B58" t="n">
-        <v>354.384012972</v>
+        <v>79.592118935</v>
       </c>
       <c r="C58" t="n">
-        <v>405.127756411</v>
+        <v>-14.8074473214</v>
       </c>
       <c r="D58" t="n">
-        <v>190.426539741</v>
+        <v>-85.66829327710001</v>
       </c>
       <c r="E58" t="n">
-        <v>354.384012972</v>
+        <v>-79.592118935</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>5.7</v>
       </c>
       <c r="B59" t="n">
-        <v>305.666218739</v>
+        <v>109.437116094</v>
       </c>
       <c r="C59" t="n">
-        <v>349.343275762</v>
+        <v>116.429150369</v>
       </c>
       <c r="D59" t="n">
-        <v>163.320999086</v>
+        <v>49.0772456189</v>
       </c>
       <c r="E59" t="n">
-        <v>305.666218739</v>
+        <v>109.437116094</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>5.8</v>
       </c>
       <c r="B60" t="n">
-        <v>229.139491419</v>
+        <v>233.013838563</v>
       </c>
       <c r="C60" t="n">
-        <v>261.270260434</v>
+        <v>263.31945272</v>
       </c>
       <c r="D60" t="n">
-        <v>122.467902154</v>
+        <v>128.410399631</v>
       </c>
       <c r="E60" t="n">
-        <v>229.139491419</v>
+        <v>233.013838563</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>5.9</v>
       </c>
       <c r="B61" t="n">
-        <v>151.083523248</v>
+        <v>317.490869983</v>
       </c>
       <c r="C61" t="n">
-        <v>169.854088438</v>
+        <v>363.237598854</v>
       </c>
       <c r="D61" t="n">
-        <v>81.1585524723</v>
+        <v>168.025314482</v>
       </c>
       <c r="E61" t="n">
-        <v>151.083523248</v>
+        <v>317.490869983</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>87.50943587979999</v>
+        <v>395.625922679</v>
       </c>
       <c r="C62" t="n">
-        <v>92.47532436580001</v>
+        <v>453.628222825</v>
       </c>
       <c r="D62" t="n">
-        <v>36.1669694222</v>
+        <v>200.049029187</v>
       </c>
       <c r="E62" t="n">
-        <v>87.50943587979999</v>
+        <v>395.625922679</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>6.1</v>
       </c>
       <c r="B63" t="n">
-        <v>53.304755386</v>
+        <v>491.196561919</v>
       </c>
       <c r="C63" t="n">
-        <v>38.7882288404</v>
+        <v>563.419694229</v>
       </c>
       <c r="D63" t="n">
-        <v>-13.036485612</v>
+        <v>248.632671253</v>
       </c>
       <c r="E63" t="n">
-        <v>53.304755386</v>
+        <v>491.196561919</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>6.2</v>
       </c>
       <c r="B64" t="n">
-        <v>45.6198345271</v>
+        <v>565.0430473489999</v>
       </c>
       <c r="C64" t="n">
-        <v>15.8127206971</v>
+        <v>647.9211723670001</v>
       </c>
       <c r="D64" t="n">
-        <v>-34.5588813265</v>
+        <v>295.497820859</v>
       </c>
       <c r="E64" t="n">
-        <v>-45.6198345271</v>
+        <v>565.0430473489999</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>6.3</v>
       </c>
       <c r="B65" t="n">
-        <v>42.4419113097</v>
+        <v>546.675171038</v>
       </c>
       <c r="C65" t="n">
-        <v>41.3188673836</v>
+        <v>625.998198148</v>
       </c>
       <c r="D65" t="n">
-        <v>6.73319179547</v>
+        <v>293.370601437</v>
       </c>
       <c r="E65" t="n">
-        <v>42.4419113097</v>
+        <v>546.675171038</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>6.4</v>
       </c>
       <c r="B66" t="n">
-        <v>141.710554551</v>
+        <v>408.757366844</v>
       </c>
       <c r="C66" t="n">
-        <v>160.278120159</v>
+        <v>467.535358849</v>
       </c>
       <c r="D66" t="n">
-        <v>75.0142894844</v>
+        <v>219.940234633</v>
       </c>
       <c r="E66" t="n">
-        <v>141.710554551</v>
+        <v>408.757366844</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>6.5</v>
       </c>
       <c r="B67" t="n">
-        <v>281.948043985</v>
+        <v>212.443804691</v>
       </c>
       <c r="C67" t="n">
-        <v>321.794927275</v>
+        <v>242.609357064</v>
       </c>
       <c r="D67" t="n">
-        <v>151.722817465</v>
+        <v>111.273700915</v>
       </c>
       <c r="E67" t="n">
-        <v>281.948043985</v>
+        <v>212.443804691</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>6.6</v>
       </c>
       <c r="B68" t="n">
-        <v>390.088593741</v>
+        <v>57.2973911408</v>
       </c>
       <c r="C68" t="n">
-        <v>446.126008339</v>
+        <v>63.1901835012</v>
       </c>
       <c r="D68" t="n">
-        <v>209.704444198</v>
+        <v>26.2191053121</v>
       </c>
       <c r="E68" t="n">
-        <v>390.088593741</v>
+        <v>57.2973911408</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>6.7</v>
       </c>
       <c r="B69" t="n">
-        <v>430.295454168</v>
+        <v>37.4885055521</v>
       </c>
       <c r="C69" t="n">
-        <v>492.779744444</v>
+        <v>18.1568774258</v>
       </c>
       <c r="D69" t="n">
-        <v>228.293627464</v>
+        <v>-22.9428425777</v>
       </c>
       <c r="E69" t="n">
-        <v>430.295454168</v>
+        <v>-37.4885055521</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>6.8</v>
       </c>
       <c r="B70" t="n">
-        <v>407.531954077</v>
+        <v>56.480882497</v>
       </c>
       <c r="C70" t="n">
-        <v>466.957428312</v>
+        <v>47.6965535757</v>
       </c>
       <c r="D70" t="n">
-        <v>213.262160328</v>
+        <v>-2.3785817426</v>
       </c>
       <c r="E70" t="n">
-        <v>407.531954077</v>
+        <v>56.480882497</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>6.9</v>
       </c>
       <c r="B71" t="n">
-        <v>349.521266697</v>
+        <v>98.92835042279999</v>
       </c>
       <c r="C71" t="n">
-        <v>400.274713224</v>
+        <v>106.171845786</v>
       </c>
       <c r="D71" t="n">
-        <v>183.075156748</v>
+        <v>46.7204746029</v>
       </c>
       <c r="E71" t="n">
-        <v>349.521266697</v>
+        <v>98.92835042279999</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>288.046848097</v>
+        <v>165.108619577</v>
       </c>
       <c r="C72" t="n">
-        <v>329.426644638</v>
+        <v>186.67148265</v>
       </c>
       <c r="D72" t="n">
-        <v>152.133703812</v>
+        <v>88.74878404739999</v>
       </c>
       <c r="E72" t="n">
-        <v>288.046848097</v>
+        <v>165.108619577</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>7.1</v>
       </c>
       <c r="B73" t="n">
-        <v>238.740336588</v>
+        <v>247.628126833</v>
       </c>
       <c r="C73" t="n">
-        <v>272.430010251</v>
+        <v>282.905924162</v>
       </c>
       <c r="D73" t="n">
-        <v>127.268202802</v>
+        <v>130.953351476</v>
       </c>
       <c r="E73" t="n">
-        <v>238.740336588</v>
+        <v>247.628126833</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>201.95499168</v>
+        <v>332.438735802</v>
       </c>
       <c r="C74" t="n">
-        <v>229.483572737</v>
+        <v>380.406703586</v>
       </c>
       <c r="D74" t="n">
-        <v>108.809092983</v>
+        <v>175.947456553</v>
       </c>
       <c r="E74" t="n">
-        <v>201.95499168</v>
+        <v>332.438735802</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>7.3</v>
       </c>
       <c r="B75" t="n">
-        <v>173.619334296</v>
+        <v>382.45365948</v>
       </c>
       <c r="C75" t="n">
-        <v>196.286364806</v>
+        <v>437.471983342</v>
       </c>
       <c r="D75" t="n">
-        <v>93.7214728287</v>
+        <v>204.997748294</v>
       </c>
       <c r="E75" t="n">
-        <v>173.619334296</v>
+        <v>382.45365948</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>7.4</v>
       </c>
       <c r="B76" t="n">
-        <v>153.635926286</v>
+        <v>366.487899889</v>
       </c>
       <c r="C76" t="n">
-        <v>173.048451487</v>
+        <v>418.864151419</v>
       </c>
       <c r="D76" t="n">
-        <v>82.5305629197</v>
+        <v>197.748590931</v>
       </c>
       <c r="E76" t="n">
-        <v>153.635926286</v>
+        <v>366.487899889</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>7.5</v>
       </c>
       <c r="B77" t="n">
-        <v>143.418006534</v>
+        <v>297.601025097</v>
       </c>
       <c r="C77" t="n">
-        <v>160.826389798</v>
+        <v>340.132822428</v>
       </c>
       <c r="D77" t="n">
-        <v>76.74986031349999</v>
+        <v>158.698139678</v>
       </c>
       <c r="E77" t="n">
-        <v>143.418006534</v>
+        <v>297.601025097</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>7.6</v>
       </c>
       <c r="B78" t="n">
-        <v>135.35041572</v>
+        <v>217.942833212</v>
       </c>
       <c r="C78" t="n">
-        <v>150.339487286</v>
+        <v>248.962380751</v>
       </c>
       <c r="D78" t="n">
-        <v>71.8828534135</v>
+        <v>114.104709853</v>
       </c>
       <c r="E78" t="n">
-        <v>135.35041572</v>
+        <v>217.942833212</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>7.7</v>
       </c>
       <c r="B79" t="n">
-        <v>121.363487644</v>
+        <v>177.975703374</v>
       </c>
       <c r="C79" t="n">
-        <v>133.049004821</v>
+        <v>202.843523932</v>
       </c>
       <c r="D79" t="n">
-        <v>62.8174319521</v>
+        <v>93.2585797302</v>
       </c>
       <c r="E79" t="n">
-        <v>121.363487644</v>
+        <v>177.975703374</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>7.8</v>
       </c>
       <c r="B80" t="n">
-        <v>108.900161649</v>
+        <v>199.677914866</v>
       </c>
       <c r="C80" t="n">
-        <v>119.879468279</v>
+        <v>227.673709076</v>
       </c>
       <c r="D80" t="n">
-        <v>56.0621857932</v>
+        <v>105.509882917</v>
       </c>
       <c r="E80" t="n">
-        <v>108.900161649</v>
+        <v>199.677914866</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>7.9</v>
       </c>
       <c r="B81" t="n">
-        <v>123.82971691</v>
+        <v>258.372544653</v>
       </c>
       <c r="C81" t="n">
-        <v>139.49578334</v>
+        <v>294.945014316</v>
       </c>
       <c r="D81" t="n">
-        <v>65.0177667606</v>
+        <v>138.082679222</v>
       </c>
       <c r="E81" t="n">
-        <v>123.82971691</v>
+        <v>258.372544653</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>182.707973393</v>
+        <v>300.32450951</v>
       </c>
       <c r="C82" t="n">
-        <v>207.96110965</v>
+        <v>342.444650457</v>
       </c>
       <c r="D82" t="n">
-        <v>96.85940268580001</v>
+        <v>163.193244874</v>
       </c>
       <c r="E82" t="n">
-        <v>182.707973393</v>
+        <v>300.32450951</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>8.1</v>
       </c>
       <c r="B83" t="n">
-        <v>266.885807887</v>
+        <v>282.665812435</v>
       </c>
       <c r="C83" t="n">
-        <v>304.597786494</v>
+        <v>321.514943672</v>
       </c>
       <c r="D83" t="n">
-        <v>143.17230507</v>
+        <v>155.003632525</v>
       </c>
       <c r="E83" t="n">
-        <v>266.885807887</v>
+        <v>282.665812435</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>329.823844207</v>
+        <v>218.568367624</v>
       </c>
       <c r="C84" t="n">
-        <v>376.61396826</v>
+        <v>248.572376916</v>
       </c>
       <c r="D84" t="n">
-        <v>178.413839448</v>
+        <v>118.024524487</v>
       </c>
       <c r="E84" t="n">
-        <v>329.823844207</v>
+        <v>218.568367624</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>331.154854884</v>
+        <v>159.784130617</v>
       </c>
       <c r="C85" t="n">
-        <v>378.006540378</v>
+        <v>182.052329899</v>
       </c>
       <c r="D85" t="n">
-        <v>179.585541652</v>
+        <v>82.9421993233</v>
       </c>
       <c r="E85" t="n">
-        <v>331.154854884</v>
+        <v>159.784130617</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>275.236273991</v>
+        <v>152.244380943</v>
       </c>
       <c r="C86" t="n">
-        <v>314.157418101</v>
+        <v>173.115962365</v>
       </c>
       <c r="D86" t="n">
-        <v>147.822911132</v>
+        <v>79.6423872612</v>
       </c>
       <c r="E86" t="n">
-        <v>275.236273991</v>
+        <v>152.244380943</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>8.5</v>
       </c>
       <c r="B87" t="n">
-        <v>212.432682372</v>
+        <v>184.529519321</v>
       </c>
       <c r="C87" t="n">
-        <v>242.614794209</v>
+        <v>208.325853587</v>
       </c>
       <c r="D87" t="n">
-        <v>111.208091919</v>
+        <v>100.311477887</v>
       </c>
       <c r="E87" t="n">
-        <v>212.432682372</v>
+        <v>184.529519321</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>8.6</v>
       </c>
       <c r="B88" t="n">
-        <v>192.094769976</v>
+        <v>203.58627317</v>
       </c>
       <c r="C88" t="n">
-        <v>219.340323445</v>
+        <v>228.791697419</v>
       </c>
       <c r="D88" t="n">
-        <v>99.72903681370001</v>
+        <v>111.82176956</v>
       </c>
       <c r="E88" t="n">
-        <v>192.094769976</v>
+        <v>203.58627317</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>219.506549677</v>
+        <v>188.028212538</v>
       </c>
       <c r="C89" t="n">
-        <v>250.181977166</v>
+        <v>212.659721845</v>
       </c>
       <c r="D89" t="n">
-        <v>117.249399252</v>
+        <v>102.031799716</v>
       </c>
       <c r="E89" t="n">
-        <v>219.506549677</v>
+        <v>188.028212538</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>260.109501425</v>
+        <v>174.474314281</v>
       </c>
       <c r="C90" t="n">
-        <v>296.141016616</v>
+        <v>199.003864721</v>
       </c>
       <c r="D90" t="n">
-        <v>141.369143216</v>
+        <v>90.70297225829999</v>
       </c>
       <c r="E90" t="n">
-        <v>260.109501425</v>
+        <v>174.474314281</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>8.9</v>
       </c>
       <c r="B91" t="n">
-        <v>278.554727928</v>
+        <v>195.820549591</v>
       </c>
       <c r="C91" t="n">
-        <v>317.66871422</v>
+        <v>223.296177767</v>
       </c>
       <c r="D91" t="n">
-        <v>150.629421872</v>
+        <v>103.2253181</v>
       </c>
       <c r="E91" t="n">
-        <v>278.554727928</v>
+        <v>195.820549591</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>272.314486225</v>
+        <v>225.371945426</v>
       </c>
       <c r="C92" t="n">
-        <v>311.174207513</v>
+        <v>254.944864555</v>
       </c>
       <c r="D92" t="n">
-        <v>144.669723331</v>
+        <v>123.78430825</v>
       </c>
       <c r="E92" t="n">
-        <v>272.314486225</v>
+        <v>225.371945426</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>9.1</v>
       </c>
       <c r="B93" t="n">
-        <v>264.083307251</v>
+        <v>219.513976101</v>
       </c>
       <c r="C93" t="n">
-        <v>301.978026734</v>
+        <v>247.376065726</v>
       </c>
       <c r="D93" t="n">
-        <v>138.813589443</v>
+        <v>120.908854414</v>
       </c>
       <c r="E93" t="n">
-        <v>264.083307251</v>
+        <v>219.513976101</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>273.104845764</v>
+        <v>180.58730171</v>
       </c>
       <c r="C94" t="n">
-        <v>312.268481844</v>
+        <v>205.13255648</v>
       </c>
       <c r="D94" t="n">
-        <v>144.093390683</v>
+        <v>96.56244738469999</v>
       </c>
       <c r="E94" t="n">
-        <v>273.104845764</v>
+        <v>180.58730171</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>297.821712236</v>
+        <v>158.70044378</v>
       </c>
       <c r="C95" t="n">
-        <v>340.566254547</v>
+        <v>180.958553901</v>
       </c>
       <c r="D95" t="n">
-        <v>157.895507485</v>
+        <v>81.7545217336</v>
       </c>
       <c r="E95" t="n">
-        <v>297.821712236</v>
+        <v>158.70044378</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>9.4</v>
       </c>
       <c r="B96" t="n">
-        <v>319.621195115</v>
+        <v>175.366127255</v>
       </c>
       <c r="C96" t="n">
-        <v>365.550805863</v>
+        <v>198.742257272</v>
       </c>
       <c r="D96" t="n">
-        <v>169.920766279</v>
+        <v>94.2304132111</v>
       </c>
       <c r="E96" t="n">
-        <v>319.621195115</v>
+        <v>175.366127255</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>9.5</v>
       </c>
       <c r="B97" t="n">
-        <v>316.867754033</v>
+        <v>194.698774386</v>
       </c>
       <c r="C97" t="n">
-        <v>362.142385728</v>
+        <v>218.12041446</v>
       </c>
       <c r="D97" t="n">
-        <v>169.712565173</v>
+        <v>106.683474093</v>
       </c>
       <c r="E97" t="n">
-        <v>316.867754033</v>
+        <v>194.698774386</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>9.6</v>
       </c>
       <c r="B98" t="n">
-        <v>279.385536711</v>
+        <v>166.197333456</v>
       </c>
       <c r="C98" t="n">
-        <v>318.670309512</v>
+        <v>184.105888991</v>
       </c>
       <c r="D98" t="n">
-        <v>150.931814573</v>
+        <v>89.5420305091</v>
       </c>
       <c r="E98" t="n">
-        <v>279.385536711</v>
+        <v>166.197333456</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>208.176796971</v>
+        <v>99.43001032799999</v>
       </c>
       <c r="C99" t="n">
-        <v>236.080404128</v>
+        <v>108.618904869</v>
       </c>
       <c r="D99" t="n">
-        <v>113.172790263</v>
+        <v>49.994483538</v>
       </c>
       <c r="E99" t="n">
-        <v>208.176796971</v>
+        <v>99.43001032799999</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>125.384865957</v>
+        <v>68.11562291769999</v>
       </c>
       <c r="C100" t="n">
-        <v>139.250089631</v>
+        <v>75.914989081</v>
       </c>
       <c r="D100" t="n">
-        <v>66.0896847372</v>
+        <v>32.5789590828</v>
       </c>
       <c r="E100" t="n">
-        <v>125.384865957</v>
+        <v>68.11562291769999</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>9.9</v>
       </c>
       <c r="B101" t="n">
-        <v>66.703453275</v>
+        <v>142.038398836</v>
       </c>
       <c r="C101" t="n">
-        <v>70.5708155201</v>
+        <v>162.077605564</v>
       </c>
       <c r="D101" t="n">
-        <v>26.7580383031</v>
+        <v>71.0223719203</v>
       </c>
       <c r="E101" t="n">
-        <v>66.703453275</v>
+        <v>142.038398836</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>54.055639038</v>
+        <v>300.963311688</v>
       </c>
       <c r="C102" t="n">
-        <v>54.93504588</v>
+        <v>344.372422353</v>
       </c>
       <c r="D102" t="n">
-        <v>14.6016359138</v>
+        <v>158.334581314</v>
       </c>
       <c r="E102" t="n">
-        <v>54.055639038</v>
+        <v>300.963311688</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>10.1</v>
       </c>
       <c r="B103" t="n">
-        <v>83.1951435916</v>
+        <v>449.73367167</v>
       </c>
       <c r="C103" t="n">
-        <v>89.04086305520001</v>
+        <v>514.582398413</v>
       </c>
       <c r="D103" t="n">
-        <v>37.7481478155</v>
+        <v>242.008411333</v>
       </c>
       <c r="E103" t="n">
-        <v>83.1951435916</v>
+        <v>449.73367167</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>10.2</v>
       </c>
       <c r="B104" t="n">
-        <v>146.180330907</v>
+        <v>501.604038761</v>
       </c>
       <c r="C104" t="n">
-        <v>164.124986272</v>
+        <v>574.226563336</v>
       </c>
       <c r="D104" t="n">
-        <v>78.3313659849</v>
+        <v>269.359712724</v>
       </c>
       <c r="E104" t="n">
-        <v>146.180330907</v>
+        <v>501.604038761</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>10.3</v>
       </c>
       <c r="B105" t="n">
-        <v>228.041657044</v>
+        <v>449.576899084</v>
       </c>
       <c r="C105" t="n">
-        <v>259.888314256</v>
+        <v>515.252827096</v>
       </c>
       <c r="D105" t="n">
-        <v>122.234504039</v>
+        <v>235.390821842</v>
       </c>
       <c r="E105" t="n">
-        <v>228.041657044</v>
+        <v>449.576899084</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>10.4</v>
       </c>
       <c r="B106" t="n">
-        <v>297.504717952</v>
+        <v>355.256446595</v>
       </c>
       <c r="C106" t="n">
-        <v>339.818708861</v>
+        <v>407.215463465</v>
       </c>
       <c r="D106" t="n">
-        <v>159.61086047</v>
+        <v>180.907097376</v>
       </c>
       <c r="E106" t="n">
-        <v>297.504717952</v>
+        <v>355.256446595</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>10.5</v>
       </c>
       <c r="B107" t="n">
-        <v>324.10811845</v>
+        <v>278.914382231</v>
       </c>
       <c r="C107" t="n">
-        <v>369.956599711</v>
+        <v>319.287679213</v>
       </c>
       <c r="D107" t="n">
-        <v>175.611921964</v>
+        <v>144.540585585</v>
       </c>
       <c r="E107" t="n">
-        <v>324.10811845</v>
+        <v>278.914382231</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>10.6</v>
       </c>
       <c r="B108" t="n">
-        <v>302.771943578</v>
+        <v>225.114090596</v>
       </c>
       <c r="C108" t="n">
-        <v>345.738672593</v>
+        <v>255.736315709</v>
       </c>
       <c r="D108" t="n">
-        <v>162.942568704</v>
+        <v>122.359361201</v>
       </c>
       <c r="E108" t="n">
-        <v>302.771943578</v>
+        <v>225.114090596</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>10.7</v>
       </c>
       <c r="B109" t="n">
-        <v>265.174911903</v>
+        <v>153.802376954</v>
       </c>
       <c r="C109" t="n">
-        <v>303.372463662</v>
+        <v>168.559099956</v>
       </c>
       <c r="D109" t="n">
-        <v>138.434267327</v>
+        <v>81.2164089134</v>
       </c>
       <c r="E109" t="n">
-        <v>265.174911903</v>
+        <v>153.802376954</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>10.8</v>
       </c>
       <c r="B110" t="n">
-        <v>250.674479163</v>
+        <v>70.7360457803</v>
       </c>
       <c r="C110" t="n">
-        <v>286.843061369</v>
+        <v>48.4610855619</v>
       </c>
       <c r="D110" t="n">
-        <v>129.622166687</v>
+        <v>-21.9034922631</v>
       </c>
       <c r="E110" t="n">
-        <v>250.674479163</v>
+        <v>70.7360457803</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>10.9</v>
       </c>
       <c r="B111" t="n">
-        <v>257.674340661</v>
+        <v>169.666753507</v>
       </c>
       <c r="C111" t="n">
-        <v>293.917723607</v>
+        <v>-52.2000374794</v>
       </c>
       <c r="D111" t="n">
-        <v>138.486351994</v>
+        <v>-189.288554217</v>
       </c>
       <c r="E111" t="n">
-        <v>257.674340661</v>
+        <v>-169.666753507</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="n">
-        <v>247.198862138</v>
+        <v>267.726059487</v>
       </c>
       <c r="C112" t="n">
-        <v>280.01951975</v>
+        <v>-116.541690369</v>
       </c>
       <c r="D112" t="n">
-        <v>136.146906938</v>
+        <v>-305.95294796</v>
       </c>
       <c r="E112" t="n">
-        <v>247.198862138</v>
+        <v>-267.726059487</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>11.1</v>
       </c>
       <c r="B113" t="n">
-        <v>193.981423792</v>
+        <v>242.881139831</v>
       </c>
       <c r="C113" t="n">
-        <v>218.815615064</v>
+        <v>-110.483305052</v>
       </c>
       <c r="D113" t="n">
-        <v>105.921130353</v>
+        <v>-278.239324904</v>
       </c>
       <c r="E113" t="n">
-        <v>193.981423792</v>
+        <v>-242.881139831</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>11.2</v>
       </c>
       <c r="B114" t="n">
-        <v>127.128442277</v>
+        <v>86.67850796570001</v>
       </c>
       <c r="C114" t="n">
-        <v>143.441896955</v>
+        <v>-22.7325529063</v>
       </c>
       <c r="D114" t="n">
-        <v>66.80843052660001</v>
+        <v>-95.53035655950001</v>
       </c>
       <c r="E114" t="n">
-        <v>127.128442277</v>
+        <v>-86.67850796570001</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>11.3</v>
       </c>
       <c r="B115" t="n">
-        <v>99.6507192456</v>
+        <v>166.837311957</v>
       </c>
       <c r="C115" t="n">
-        <v>111.790735582</v>
+        <v>187.328901486</v>
       </c>
       <c r="D115" t="n">
-        <v>51.064694914</v>
+        <v>90.4023085602</v>
       </c>
       <c r="E115" t="n">
-        <v>99.6507192456</v>
+        <v>166.837311957</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>11.4</v>
       </c>
       <c r="B116" t="n">
-        <v>126.247641923</v>
+        <v>388.393903343</v>
       </c>
       <c r="C116" t="n">
-        <v>140.767559417</v>
+        <v>444.12420654</v>
       </c>
       <c r="D116" t="n">
-        <v>66.7161877162</v>
+        <v>209.034653641</v>
       </c>
       <c r="E116" t="n">
-        <v>126.247641923</v>
+        <v>388.393903343</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>11.5</v>
       </c>
       <c r="B117" t="n">
-        <v>169.199429938</v>
+        <v>554.016432389</v>
       </c>
       <c r="C117" t="n">
-        <v>189.329314126</v>
+        <v>635.427828586</v>
       </c>
       <c r="D117" t="n">
-        <v>91.81887351</v>
+        <v>286.749534288</v>
       </c>
       <c r="E117" t="n">
-        <v>169.199429938</v>
+        <v>554.016432389</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>11.6</v>
       </c>
       <c r="B118" t="n">
-        <v>189.700484113</v>
+        <v>642.688827644</v>
       </c>
       <c r="C118" t="n">
-        <v>213.83774711</v>
+        <v>737.415391409</v>
       </c>
       <c r="D118" t="n">
-        <v>103.499246033</v>
+        <v>328.236318528</v>
       </c>
       <c r="E118" t="n">
-        <v>189.700484113</v>
+        <v>642.688827644</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>11.7</v>
       </c>
       <c r="B119" t="n">
-        <v>194.379372517</v>
+        <v>629.740767913</v>
       </c>
       <c r="C119" t="n">
-        <v>221.101231427</v>
+        <v>722.222406253</v>
       </c>
       <c r="D119" t="n">
-        <v>103.971827255</v>
+        <v>329.496427614</v>
       </c>
       <c r="E119" t="n">
-        <v>194.379372517</v>
+        <v>629.740767913</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>11.8</v>
       </c>
       <c r="B120" t="n">
-        <v>221.77556873</v>
+        <v>490.653630153</v>
       </c>
       <c r="C120" t="n">
-        <v>253.536802396</v>
+        <v>561.320045283</v>
       </c>
       <c r="D120" t="n">
-        <v>115.086678693</v>
+        <v>265.338055355</v>
       </c>
       <c r="E120" t="n">
-        <v>221.77556873</v>
+        <v>490.653630153</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>11.9</v>
       </c>
       <c r="B121" t="n">
-        <v>284.575391558</v>
+        <v>254.576385026</v>
       </c>
       <c r="C121" t="n">
-        <v>325.615016172</v>
+        <v>289.676428382</v>
       </c>
       <c r="D121" t="n">
-        <v>149.099025652</v>
+        <v>138.510611832</v>
       </c>
       <c r="E121" t="n">
-        <v>284.575391558</v>
+        <v>254.576385026</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="n">
-        <v>350.72005267</v>
+        <v>27.2012940073</v>
       </c>
       <c r="C122" t="n">
-        <v>401.024701832</v>
+        <v>26.6267250843</v>
       </c>
       <c r="D122" t="n">
-        <v>187.943208955</v>
+        <v>3.16608254198</v>
       </c>
       <c r="E122" t="n">
-        <v>350.72005267</v>
+        <v>27.2012940073</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>12.1</v>
       </c>
       <c r="B123" t="n">
-        <v>364.914464385</v>
+        <v>112.640833186</v>
       </c>
       <c r="C123" t="n">
-        <v>416.777084286</v>
+        <v>-51.1292984223</v>
       </c>
       <c r="D123" t="n">
-        <v>197.988629369</v>
+        <v>-129.05211734</v>
       </c>
       <c r="E123" t="n">
-        <v>364.914464385</v>
+        <v>-112.640833186</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>12.2</v>
       </c>
       <c r="B124" t="n">
-        <v>301.993414772</v>
+        <v>129.396942945</v>
       </c>
       <c r="C124" t="n">
-        <v>344.397703625</v>
+        <v>-32.689166588</v>
       </c>
       <c r="D124" t="n">
-        <v>164.034011789</v>
+        <v>-142.276124198</v>
       </c>
       <c r="E124" t="n">
-        <v>301.993414772</v>
+        <v>-129.396942945</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>12.3</v>
       </c>
       <c r="B125" t="n">
-        <v>194.508256194</v>
+        <v>95.6595128962</v>
       </c>
       <c r="C125" t="n">
-        <v>221.147290697</v>
+        <v>14.5535602328</v>
       </c>
       <c r="D125" t="n">
-        <v>104.258166702</v>
+        <v>-86.98979503770001</v>
       </c>
       <c r="E125" t="n">
-        <v>194.508256194</v>
+        <v>-95.6595128962</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>12.4</v>
       </c>
       <c r="B126" t="n">
-        <v>99.2598953952</v>
+        <v>58.8432264865</v>
       </c>
       <c r="C126" t="n">
-        <v>110.528697525</v>
+        <v>44.8081910012</v>
       </c>
       <c r="D126" t="n">
-        <v>50.9655155233</v>
+        <v>-10.6875455646</v>
       </c>
       <c r="E126" t="n">
-        <v>99.2598953952</v>
+        <v>58.8432264865</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>12.5</v>
       </c>
       <c r="B127" t="n">
-        <v>59.1477113769</v>
+        <v>98.5707293807</v>
       </c>
       <c r="C127" t="n">
-        <v>59.8197236184</v>
+        <v>110.511696165</v>
       </c>
       <c r="D127" t="n">
-        <v>15.6758294883</v>
+        <v>50.4855212414</v>
       </c>
       <c r="E127" t="n">
-        <v>59.1477113769</v>
+        <v>98.5707293807</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>12.6</v>
       </c>
       <c r="B128" t="n">
-        <v>60.4809286328</v>
+        <v>217.386578057</v>
       </c>
       <c r="C128" t="n">
-        <v>53.751228778</v>
+        <v>248.379382525</v>
       </c>
       <c r="D128" t="n">
-        <v>2.23682308031</v>
+        <v>113.448988876</v>
       </c>
       <c r="E128" t="n">
-        <v>60.4809286328</v>
+        <v>217.386578057</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>12.7</v>
       </c>
       <c r="B129" t="n">
-        <v>63.8806231918</v>
+        <v>361.514551103</v>
       </c>
       <c r="C129" t="n">
-        <v>59.3581849831</v>
+        <v>413.731553517</v>
       </c>
       <c r="D129" t="n">
-        <v>7.0123111425</v>
+        <v>191.96000683</v>
       </c>
       <c r="E129" t="n">
-        <v>63.8806231918</v>
+        <v>361.514551103</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>12.8</v>
       </c>
       <c r="B130" t="n">
-        <v>71.6887203582</v>
+        <v>464.870431918</v>
       </c>
       <c r="C130" t="n">
-        <v>75.28341845840001</v>
+        <v>532.271032398</v>
       </c>
       <c r="D130" t="n">
-        <v>27.2905336426</v>
+        <v>248.283223122</v>
       </c>
       <c r="E130" t="n">
-        <v>71.6887203582</v>
+        <v>464.870431918</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>12.9</v>
       </c>
       <c r="B131" t="n">
-        <v>120.238574903</v>
+        <v>477.342445335</v>
       </c>
       <c r="C131" t="n">
-        <v>135.34762278</v>
+        <v>546.738966052</v>
       </c>
       <c r="D131" t="n">
-        <v>62.9799796389</v>
+        <v>253.842214085</v>
       </c>
       <c r="E131" t="n">
-        <v>120.238574903</v>
+        <v>477.342445335</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>220.199131736</v>
+        <v>409.443053685</v>
       </c>
       <c r="C132" t="n">
-        <v>251.358738349</v>
+        <v>469.128244421</v>
       </c>
       <c r="D132" t="n">
-        <v>116.253484107</v>
+        <v>214.543565417</v>
       </c>
       <c r="E132" t="n">
-        <v>220.199131736</v>
+        <v>409.443053685</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>13.1</v>
       </c>
       <c r="B133" t="n">
-        <v>328.926363555</v>
+        <v>316.872830875</v>
       </c>
       <c r="C133" t="n">
-        <v>375.980154969</v>
+        <v>362.976568895</v>
       </c>
       <c r="D133" t="n">
-        <v>176.280144246</v>
+        <v>163.578516286</v>
       </c>
       <c r="E133" t="n">
-        <v>328.926363555</v>
+        <v>316.872830875</v>
       </c>
     </row>
     <row r="134">
@@ -2715,16 +2715,16 @@
         <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>391.901062905</v>
+        <v>241.220940725</v>
       </c>
       <c r="C134" t="n">
-        <v>448.026831863</v>
+        <v>275.656386265</v>
       </c>
       <c r="D134" t="n">
-        <v>211.53813455</v>
+        <v>126.898578097</v>
       </c>
       <c r="E134" t="n">
-        <v>391.901062905</v>
+        <v>241.220940725</v>
       </c>
     </row>
     <row r="135">
@@ -2732,16 +2732,16 @@
         <v>13.3</v>
       </c>
       <c r="B135" t="n">
-        <v>384.552311648</v>
+        <v>182.176576349</v>
       </c>
       <c r="C135" t="n">
-        <v>440.070003641</v>
+        <v>205.391885508</v>
       </c>
       <c r="D135" t="n">
-        <v>205.053333609</v>
+        <v>99.1061576764</v>
       </c>
       <c r="E135" t="n">
-        <v>384.552311648</v>
+        <v>182.176576349</v>
       </c>
     </row>
     <row r="136">
@@ -2749,16 +2749,16 @@
         <v>13.4</v>
       </c>
       <c r="B136" t="n">
-        <v>329.391826012</v>
+        <v>121.007267437</v>
       </c>
       <c r="C136" t="n">
-        <v>377.188632496</v>
+        <v>130.929672429</v>
       </c>
       <c r="D136" t="n">
-        <v>172.134836061</v>
+        <v>60.6160773736</v>
       </c>
       <c r="E136" t="n">
-        <v>329.391826012</v>
+        <v>121.007267437</v>
       </c>
     </row>
     <row r="137">
@@ -2766,16 +2766,16 @@
         <v>13.5</v>
       </c>
       <c r="B137" t="n">
-        <v>259.396740799</v>
+        <v>62.5406190935</v>
       </c>
       <c r="C137" t="n">
-        <v>296.422378655</v>
+        <v>64.8957210698</v>
       </c>
       <c r="D137" t="n">
-        <v>137.285652523</v>
+        <v>20.9550812615</v>
       </c>
       <c r="E137" t="n">
-        <v>259.396740799</v>
+        <v>62.5406190935</v>
       </c>
     </row>
     <row r="138">
@@ -2783,16 +2783,16 @@
         <v>13.6</v>
       </c>
       <c r="B138" t="n">
-        <v>180.228156752</v>
+        <v>50.3431805933</v>
       </c>
       <c r="C138" t="n">
-        <v>202.484169465</v>
+        <v>54.4686460705</v>
       </c>
       <c r="D138" t="n">
-        <v>98.20783393009999</v>
+        <v>21.5513554062</v>
       </c>
       <c r="E138" t="n">
-        <v>180.228156752</v>
+        <v>50.3431805933</v>
       </c>
     </row>
     <row r="139">
@@ -2800,16 +2800,16 @@
         <v>13.7</v>
       </c>
       <c r="B139" t="n">
-        <v>91.64686242080001</v>
+        <v>118.533045381</v>
       </c>
       <c r="C139" t="n">
-        <v>94.142651367</v>
+        <v>133.305343232</v>
       </c>
       <c r="D139" t="n">
-        <v>30.0831087872</v>
+        <v>62.0598162056</v>
       </c>
       <c r="E139" t="n">
-        <v>91.64686242080001</v>
+        <v>118.533045381</v>
       </c>
     </row>
     <row r="140">
@@ -2817,16 +2817,16 @@
         <v>13.8</v>
       </c>
       <c r="B140" t="n">
-        <v>67.8143336771</v>
+        <v>209.334755396</v>
       </c>
       <c r="C140" t="n">
-        <v>4.18030646421</v>
+        <v>235.345612814</v>
       </c>
       <c r="D140" t="n">
-        <v>-65.270007882</v>
+        <v>115.144763098</v>
       </c>
       <c r="E140" t="n">
-        <v>-67.8143336771</v>
+        <v>209.334755396</v>
       </c>
     </row>
     <row r="141">
@@ -2834,16 +2834,16 @@
         <v>13.9</v>
       </c>
       <c r="B141" t="n">
-        <v>90.83446830840001</v>
+        <v>241.155402447</v>
       </c>
       <c r="C141" t="n">
-        <v>-34.3743971206</v>
+        <v>271.485087681</v>
       </c>
       <c r="D141" t="n">
-        <v>-102.852247771</v>
+        <v>133.611527433</v>
       </c>
       <c r="E141" t="n">
-        <v>-90.83446830840001</v>
+        <v>241.155402447</v>
       </c>
     </row>
     <row r="142">
@@ -2851,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B142" t="n">
-        <v>23.9978664237</v>
+        <v>195.599098749</v>
       </c>
       <c r="C142" t="n">
-        <v>11.2649029119</v>
+        <v>221.304268783</v>
       </c>
       <c r="D142" t="n">
-        <v>-15.1561734168</v>
+        <v>106.429128778</v>
       </c>
       <c r="E142" t="n">
-        <v>-23.9978664237</v>
+        <v>195.599098749</v>
       </c>
     </row>
     <row r="143">
@@ -2868,16 +2868,16 @@
         <v>14.1</v>
       </c>
       <c r="B143" t="n">
-        <v>184.752629435</v>
+        <v>131.5893941</v>
       </c>
       <c r="C143" t="n">
-        <v>210.005318796</v>
+        <v>149.154797093</v>
       </c>
       <c r="D143" t="n">
-        <v>98.714341515</v>
+        <v>68.6087700548</v>
       </c>
       <c r="E143" t="n">
-        <v>184.752629435</v>
+        <v>131.5893941</v>
       </c>
     </row>
     <row r="144">
@@ -2885,16 +2885,16 @@
         <v>14.2</v>
       </c>
       <c r="B144" t="n">
-        <v>385.215258394</v>
+        <v>112.375241082</v>
       </c>
       <c r="C144" t="n">
-        <v>440.405792218</v>
+        <v>126.511670429</v>
       </c>
       <c r="D144" t="n">
-        <v>207.669653894</v>
+        <v>58.3384861374</v>
       </c>
       <c r="E144" t="n">
-        <v>385.215258394</v>
+        <v>112.375241082</v>
       </c>
     </row>
     <row r="145">
@@ -2902,16 +2902,16 @@
         <v>14.3</v>
       </c>
       <c r="B145" t="n">
-        <v>511.578693747</v>
+        <v>146.016854422</v>
       </c>
       <c r="C145" t="n">
-        <v>585.996863122</v>
+        <v>163.789366099</v>
       </c>
       <c r="D145" t="n">
-        <v>272.552078761</v>
+        <v>78.2582105944</v>
       </c>
       <c r="E145" t="n">
-        <v>511.578693747</v>
+        <v>146.016854422</v>
       </c>
     </row>
     <row r="146">
@@ -2919,16 +2919,16 @@
         <v>14.4</v>
       </c>
       <c r="B146" t="n">
-        <v>540.2507856780001</v>
+        <v>197.354186667</v>
       </c>
       <c r="C146" t="n">
-        <v>619.538446371</v>
+        <v>223.224367281</v>
       </c>
       <c r="D146" t="n">
-        <v>280.984869709</v>
+        <v>107.482471183</v>
       </c>
       <c r="E146" t="n">
-        <v>540.2507856780001</v>
+        <v>197.354186667</v>
       </c>
     </row>
     <row r="147">
@@ -2936,16 +2936,16 @@
         <v>14.5</v>
       </c>
       <c r="B147" t="n">
-        <v>502.68822582</v>
+        <v>244.498142099</v>
       </c>
       <c r="C147" t="n">
-        <v>576.589078198</v>
+        <v>278.87160745</v>
       </c>
       <c r="D147" t="n">
-        <v>256.684304133</v>
+        <v>130.991984081</v>
       </c>
       <c r="E147" t="n">
-        <v>502.68822582</v>
+        <v>244.498142099</v>
       </c>
     </row>
     <row r="148">
@@ -2953,16 +2953,16 @@
         <v>14.6</v>
       </c>
       <c r="B148" t="n">
-        <v>427.158087352</v>
+        <v>290.039246983</v>
       </c>
       <c r="C148" t="n">
-        <v>489.60046813</v>
+        <v>331.865154317</v>
       </c>
       <c r="D148" t="n">
-        <v>222.380655199</v>
+        <v>152.213162803</v>
       </c>
       <c r="E148" t="n">
-        <v>427.158087352</v>
+        <v>290.039246983</v>
       </c>
     </row>
     <row r="149">
@@ -2970,16 +2970,16 @@
         <v>14.7</v>
       </c>
       <c r="B149" t="n">
-        <v>309.356159977</v>
+        <v>335.49305932</v>
       </c>
       <c r="C149" t="n">
-        <v>352.585556361</v>
+        <v>384.060750429</v>
       </c>
       <c r="D149" t="n">
-        <v>168.801499636</v>
+        <v>176.52268371</v>
       </c>
       <c r="E149" t="n">
-        <v>309.356159977</v>
+        <v>335.49305932</v>
       </c>
     </row>
     <row r="150">
@@ -2987,16 +2987,16 @@
         <v>14.8</v>
       </c>
       <c r="B150" t="n">
-        <v>142.991514132</v>
+        <v>364.862983872</v>
       </c>
       <c r="C150" t="n">
-        <v>155.809537451</v>
+        <v>417.513652817</v>
       </c>
       <c r="D150" t="n">
-        <v>74.2083427248</v>
+        <v>194.168683713</v>
       </c>
       <c r="E150" t="n">
-        <v>142.991514132</v>
+        <v>364.862983872</v>
       </c>
     </row>
     <row r="151">
@@ -3004,16 +3004,16 @@
         <v>14.9</v>
       </c>
       <c r="B151" t="n">
-        <v>90.91294934690001</v>
+        <v>353.685495077</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.91121977832</v>
+        <v>404.414139598</v>
       </c>
       <c r="D151" t="n">
-        <v>-95.124132371</v>
+        <v>189.625517384</v>
       </c>
       <c r="E151" t="n">
-        <v>-90.91294934690001</v>
+        <v>353.685495077</v>
       </c>
     </row>
     <row r="152">
@@ -3021,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>216.557088043</v>
+        <v>292.665696256</v>
       </c>
       <c r="C152" t="n">
-        <v>-95.9510632233</v>
+        <v>334.082454357</v>
       </c>
       <c r="D152" t="n">
-        <v>-247.742928875</v>
+        <v>157.659776375</v>
       </c>
       <c r="E152" t="n">
-        <v>-216.557088043</v>
+        <v>292.665696256</v>
       </c>
     </row>
     <row r="153">
@@ -3038,16 +3038,16 @@
         <v>15.1</v>
       </c>
       <c r="B153" t="n">
-        <v>233.950573379</v>
+        <v>201.447966909</v>
       </c>
       <c r="C153" t="n">
-        <v>-103.014564506</v>
+        <v>228.815160735</v>
       </c>
       <c r="D153" t="n">
-        <v>-267.541232188</v>
+        <v>108.697933216</v>
       </c>
       <c r="E153" t="n">
-        <v>-233.950573379</v>
+        <v>201.447966909</v>
       </c>
     </row>
     <row r="154">
@@ -3055,16 +3055,16 @@
         <v>15.2</v>
       </c>
       <c r="B154" t="n">
-        <v>138.56650971</v>
+        <v>115.443413072</v>
       </c>
       <c r="C154" t="n">
-        <v>-39.2695443793</v>
+        <v>128.454109819</v>
       </c>
       <c r="D154" t="n">
-        <v>-153.645611867</v>
+        <v>60.3818406883</v>
       </c>
       <c r="E154" t="n">
-        <v>-138.56650971</v>
+        <v>115.443413072</v>
       </c>
     </row>
     <row r="155">
@@ -3072,16 +3072,16 @@
         <v>15.3</v>
       </c>
       <c r="B155" t="n">
-        <v>73.68236447469999</v>
+        <v>66.3696146994</v>
       </c>
       <c r="C155" t="n">
-        <v>74.6430806302</v>
+        <v>69.5952160466</v>
       </c>
       <c r="D155" t="n">
-        <v>20.8312112224</v>
+        <v>24.6313276258</v>
       </c>
       <c r="E155" t="n">
-        <v>73.68236447469999</v>
+        <v>66.3696146994</v>
       </c>
     </row>
     <row r="156">
@@ -3089,16 +3089,16 @@
         <v>15.4</v>
       </c>
       <c r="B156" t="n">
-        <v>249.646353559</v>
+        <v>59.0154623964</v>
       </c>
       <c r="C156" t="n">
-        <v>284.996638013</v>
+        <v>58.853060269</v>
       </c>
       <c r="D156" t="n">
-        <v>133.001435413</v>
+        <v>13.7963406675</v>
       </c>
       <c r="E156" t="n">
-        <v>249.646353559</v>
+        <v>59.0154623964</v>
       </c>
     </row>
     <row r="157">
@@ -3106,16 +3106,16 @@
         <v>15.5</v>
       </c>
       <c r="B157" t="n">
-        <v>452.452465199</v>
+        <v>77.0054447741</v>
       </c>
       <c r="C157" t="n">
-        <v>518.887288465</v>
+        <v>81.2206997065</v>
       </c>
       <c r="D157" t="n">
-        <v>230.569467538</v>
+        <v>30.7866545608</v>
       </c>
       <c r="E157" t="n">
-        <v>452.452465199</v>
+        <v>77.0054447741</v>
       </c>
     </row>
     <row r="158">
@@ -3123,16 +3123,16 @@
         <v>15.6</v>
       </c>
       <c r="B158" t="n">
-        <v>637.132799398</v>
+        <v>117.787425838</v>
       </c>
       <c r="C158" t="n">
-        <v>731.035605746</v>
+        <v>130.103057656</v>
       </c>
       <c r="D158" t="n">
-        <v>325.086735554</v>
+        <v>61.3992599144</v>
       </c>
       <c r="E158" t="n">
-        <v>637.132799398</v>
+        <v>117.787425838</v>
       </c>
     </row>
     <row r="159">
@@ -3140,16 +3140,16 @@
         <v>15.7</v>
       </c>
       <c r="B159" t="n">
-        <v>743.856951042</v>
+        <v>175.056886367</v>
       </c>
       <c r="C159" t="n">
-        <v>853.433737051</v>
+        <v>198.174140338</v>
       </c>
       <c r="D159" t="n">
-        <v>386.515772007</v>
+        <v>94.3270663942</v>
       </c>
       <c r="E159" t="n">
-        <v>743.856951042</v>
+        <v>175.056886367</v>
       </c>
     </row>
     <row r="160">
@@ -3157,16 +3157,16 @@
         <v>15.8</v>
       </c>
       <c r="B160" t="n">
-        <v>714.000986615</v>
+        <v>238.304679195</v>
       </c>
       <c r="C160" t="n">
-        <v>818.873101825</v>
+        <v>271.676965638</v>
       </c>
       <c r="D160" t="n">
-        <v>375.426211676</v>
+        <v>127.860303699</v>
       </c>
       <c r="E160" t="n">
-        <v>714.000986615</v>
+        <v>238.304679195</v>
       </c>
     </row>
     <row r="161">
@@ -3174,16 +3174,16 @@
         <v>15.9</v>
       </c>
       <c r="B161" t="n">
-        <v>542.231717277</v>
+        <v>295.349272463</v>
       </c>
       <c r="C161" t="n">
-        <v>621.600726359</v>
+        <v>337.522504445</v>
       </c>
       <c r="D161" t="n">
-        <v>285.017872709</v>
+        <v>157.624052725</v>
       </c>
       <c r="E161" t="n">
-        <v>542.231717277</v>
+        <v>295.349272463</v>
       </c>
     </row>
     <row r="162">
@@ -3191,16 +3191,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>295.27823447</v>
+        <v>337.790002431</v>
       </c>
       <c r="C162" t="n">
-        <v>337.976982927</v>
+        <v>386.550870343</v>
       </c>
       <c r="D162" t="n">
-        <v>154.256563978</v>
+        <v>178.834777145</v>
       </c>
       <c r="E162" t="n">
-        <v>295.27823447</v>
+        <v>337.790002431</v>
       </c>
     </row>
     <row r="163">
@@ -3208,16 +3208,16 @@
         <v>16.1</v>
       </c>
       <c r="B163" t="n">
-        <v>68.8957046723</v>
+        <v>366.557566825</v>
       </c>
       <c r="C163" t="n">
-        <v>74.8974893133</v>
+        <v>419.867813891</v>
       </c>
       <c r="D163" t="n">
-        <v>32.3154875232</v>
+        <v>191.863653683</v>
       </c>
       <c r="E163" t="n">
-        <v>68.8957046723</v>
+        <v>366.557566825</v>
       </c>
     </row>
     <row r="164">
@@ -3225,16 +3225,16 @@
         <v>16.2</v>
       </c>
       <c r="B164" t="n">
-        <v>116.908473319</v>
+        <v>383.788495326</v>
       </c>
       <c r="C164" t="n">
-        <v>-30.1759828729</v>
+        <v>439.747937979</v>
       </c>
       <c r="D164" t="n">
-        <v>-128.735686</v>
+        <v>200.023945828</v>
       </c>
       <c r="E164" t="n">
-        <v>-116.908473319</v>
+        <v>383.788495326</v>
       </c>
     </row>
     <row r="165">
@@ -3242,16 +3242,16 @@
         <v>16.3</v>
       </c>
       <c r="B165" t="n">
-        <v>210.124883066</v>
+        <v>383.218043826</v>
       </c>
       <c r="C165" t="n">
-        <v>-71.1093466131</v>
+        <v>438.884982408</v>
       </c>
       <c r="D165" t="n">
-        <v>-236.083825532</v>
+        <v>201.821246936</v>
       </c>
       <c r="E165" t="n">
-        <v>-210.124883066</v>
+        <v>383.218043826</v>
       </c>
     </row>
     <row r="166">
@@ -3259,16 +3259,16 @@
         <v>16.4</v>
       </c>
       <c r="B166" t="n">
-        <v>235.322864378</v>
+        <v>351.854952276</v>
       </c>
       <c r="C166" t="n">
-        <v>-87.4802614372</v>
+        <v>402.435901196</v>
       </c>
       <c r="D166" t="n">
-        <v>-266.184695285</v>
+        <v>187.985812994</v>
       </c>
       <c r="E166" t="n">
-        <v>-235.322864378</v>
+        <v>351.854952276</v>
       </c>
     </row>
     <row r="167">
@@ -3276,16 +3276,16 @@
         <v>16.5</v>
       </c>
       <c r="B167" t="n">
-        <v>174.105183707</v>
+        <v>284.584990263</v>
       </c>
       <c r="C167" t="n">
-        <v>-69.0045614079</v>
+        <v>324.808067105</v>
       </c>
       <c r="D167" t="n">
-        <v>-197.809504173</v>
+        <v>153.231700935</v>
       </c>
       <c r="E167" t="n">
-        <v>-174.105183707</v>
+        <v>284.584990263</v>
       </c>
     </row>
     <row r="168">
@@ -3293,16 +3293,16 @@
         <v>16.6</v>
       </c>
       <c r="B168" t="n">
-        <v>31.0677804082</v>
+        <v>195.238071543</v>
       </c>
       <c r="C168" t="n">
-        <v>12.2009846905</v>
+        <v>221.658538109</v>
       </c>
       <c r="D168" t="n">
-        <v>-22.1218942365</v>
+        <v>105.268716813</v>
       </c>
       <c r="E168" t="n">
-        <v>-31.0677804082</v>
+        <v>195.238071543</v>
       </c>
     </row>
     <row r="169">
@@ -3310,16 +3310,16 @@
         <v>16.7</v>
       </c>
       <c r="B169" t="n">
-        <v>223.816576863</v>
+        <v>109.438546034</v>
       </c>
       <c r="C169" t="n">
-        <v>255.15950287</v>
+        <v>120.647201923</v>
       </c>
       <c r="D169" t="n">
-        <v>119.526651895</v>
+        <v>56.4749381709</v>
       </c>
       <c r="E169" t="n">
-        <v>223.816576863</v>
+        <v>109.438546034</v>
       </c>
     </row>
     <row r="170">
@@ -3327,16 +3327,16 @@
         <v>16.8</v>
       </c>
       <c r="B170" t="n">
-        <v>446.629816521</v>
+        <v>58.0013792812</v>
       </c>
       <c r="C170" t="n">
-        <v>511.271095759</v>
+        <v>53.4848556326</v>
       </c>
       <c r="D170" t="n">
-        <v>238.855477187</v>
+        <v>5.27778893202</v>
       </c>
       <c r="E170" t="n">
-        <v>446.629816521</v>
+        <v>58.0013792812</v>
       </c>
     </row>
     <row r="171">
@@ -3344,16 +3344,16 @@
         <v>16.9</v>
       </c>
       <c r="B171" t="n">
-        <v>585.155208627</v>
+        <v>53.0909884371</v>
       </c>
       <c r="C171" t="n">
-        <v>670.795817375</v>
+        <v>23.9584111853</v>
       </c>
       <c r="D171" t="n">
-        <v>308.799827512</v>
+        <v>-34.5197643163</v>
       </c>
       <c r="E171" t="n">
-        <v>585.155208627</v>
+        <v>-53.0909884371</v>
       </c>
     </row>
     <row r="172">
@@ -3361,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="B172" t="n">
-        <v>609.750360114</v>
+        <v>46.8317389689</v>
       </c>
       <c r="C172" t="n">
-        <v>699.428054203</v>
+        <v>20.4216979675</v>
       </c>
       <c r="D172" t="n">
-        <v>316.108922248</v>
+        <v>-31.2516285456</v>
       </c>
       <c r="E172" t="n">
-        <v>609.750360114</v>
+        <v>-46.8317389689</v>
       </c>
     </row>
     <row r="173">
@@ -3378,16 +3378,16 @@
         <v>17.1</v>
       </c>
       <c r="B173" t="n">
-        <v>543.867248782</v>
+        <v>56.4270577936</v>
       </c>
       <c r="C173" t="n">
-        <v>623.8322858499999</v>
+        <v>57.6892544718</v>
       </c>
       <c r="D173" t="n">
-        <v>279.920905724</v>
+        <v>16.2450299478</v>
       </c>
       <c r="E173" t="n">
-        <v>543.867248782</v>
+        <v>56.4270577936</v>
       </c>
     </row>
     <row r="174">
@@ -3395,16 +3395,16 @@
         <v>17.2</v>
       </c>
       <c r="B174" t="n">
-        <v>422.849678669</v>
+        <v>137.951066053</v>
       </c>
       <c r="C174" t="n">
-        <v>484.567268777</v>
+        <v>154.699613289</v>
       </c>
       <c r="D174" t="n">
-        <v>221.150880872</v>
+        <v>73.5564520137</v>
       </c>
       <c r="E174" t="n">
-        <v>422.849678669</v>
+        <v>137.951066053</v>
       </c>
     </row>
     <row r="175">
@@ -3412,16 +3412,16 @@
         <v>17.3</v>
       </c>
       <c r="B175" t="n">
-        <v>269.554143737</v>
+        <v>239.677547124</v>
       </c>
       <c r="C175" t="n">
-        <v>307.308408591</v>
+        <v>272.775861982</v>
       </c>
       <c r="D175" t="n">
-        <v>145.762815977</v>
+        <v>129.843580101</v>
       </c>
       <c r="E175" t="n">
-        <v>269.554143737</v>
+        <v>239.677547124</v>
       </c>
     </row>
     <row r="176">
@@ -3429,16 +3429,16 @@
         <v>17.4</v>
       </c>
       <c r="B176" t="n">
-        <v>104.741987197</v>
+        <v>326.886663267</v>
       </c>
       <c r="C176" t="n">
-        <v>112.733486472</v>
+        <v>373.786377402</v>
       </c>
       <c r="D176" t="n">
-        <v>50.559895423</v>
+        <v>174.41639153</v>
       </c>
       <c r="E176" t="n">
-        <v>104.741987197</v>
+        <v>326.886663267</v>
       </c>
     </row>
     <row r="177">
@@ -3446,16 +3446,16 @@
         <v>17.5</v>
       </c>
       <c r="B177" t="n">
-        <v>103.559436192</v>
+        <v>387.437198858</v>
       </c>
       <c r="C177" t="n">
-        <v>-14.6489813671</v>
+        <v>443.857775028</v>
       </c>
       <c r="D177" t="n">
-        <v>-109.753784353</v>
+        <v>202.856284664</v>
       </c>
       <c r="E177" t="n">
-        <v>-103.559436192</v>
+        <v>387.437198858</v>
       </c>
     </row>
     <row r="178">
@@ -3463,16 +3463,16 @@
         <v>17.6</v>
       </c>
       <c r="B178" t="n">
-        <v>217.093150715</v>
+        <v>419.170596596</v>
       </c>
       <c r="C178" t="n">
-        <v>-85.1972932616</v>
+        <v>480.394479039</v>
       </c>
       <c r="D178" t="n">
-        <v>-246.483443197</v>
+        <v>218.56889328</v>
       </c>
       <c r="E178" t="n">
-        <v>-217.093150715</v>
+        <v>419.170596596</v>
       </c>
     </row>
     <row r="179">
@@ -3480,16 +3480,16 @@
         <v>17.7</v>
       </c>
       <c r="B179" t="n">
-        <v>239.985963837</v>
+        <v>415.690384524</v>
       </c>
       <c r="C179" t="n">
-        <v>-102.902843734</v>
+        <v>476.171773692</v>
       </c>
       <c r="D179" t="n">
-        <v>-274.017808777</v>
+        <v>219.126713027</v>
       </c>
       <c r="E179" t="n">
-        <v>-239.985963837</v>
+        <v>415.690384524</v>
       </c>
     </row>
     <row r="180">
@@ -3497,16 +3497,16 @@
         <v>17.8</v>
       </c>
       <c r="B180" t="n">
-        <v>145.692149147</v>
+        <v>367.806483178</v>
       </c>
       <c r="C180" t="n">
-        <v>-54.8184803346</v>
+        <v>420.785210515</v>
       </c>
       <c r="D180" t="n">
-        <v>-164.936161971</v>
+        <v>196.395314358</v>
       </c>
       <c r="E180" t="n">
-        <v>-145.692149147</v>
+        <v>367.806483178</v>
       </c>
     </row>
     <row r="181">
@@ -3514,16 +3514,16 @@
         <v>17.9</v>
       </c>
       <c r="B181" t="n">
-        <v>68.3384519614</v>
+        <v>281.352790111</v>
       </c>
       <c r="C181" t="n">
-        <v>72.0767537361</v>
+        <v>321.234054632</v>
       </c>
       <c r="D181" t="n">
-        <v>26.8070732419</v>
+        <v>150.951266606</v>
       </c>
       <c r="E181" t="n">
-        <v>68.3384519614</v>
+        <v>281.352790111</v>
       </c>
     </row>
     <row r="182">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>282.669533299</v>
+        <v>184.061168</v>
       </c>
       <c r="C182" t="n">
-        <v>322.555193823</v>
+        <v>209.17009298</v>
       </c>
       <c r="D182" t="n">
-        <v>152.363338014</v>
+        <v>98.4132826523</v>
       </c>
       <c r="E182" t="n">
-        <v>282.669533299</v>
+        <v>184.061168</v>
       </c>
     </row>
     <row r="183">
@@ -3548,16 +3548,16 @@
         <v>18.1</v>
       </c>
       <c r="B183" t="n">
-        <v>472.981148682</v>
+        <v>108.075091609</v>
       </c>
       <c r="C183" t="n">
-        <v>541.921886111</v>
+        <v>119.905984537</v>
       </c>
       <c r="D183" t="n">
-        <v>249.932897198</v>
+        <v>56.0101320454</v>
       </c>
       <c r="E183" t="n">
-        <v>472.981148682</v>
+        <v>108.075091609</v>
       </c>
     </row>
     <row r="184">
@@ -3565,16 +3565,16 @@
         <v>18.2</v>
       </c>
       <c r="B184" t="n">
-        <v>585.29067564</v>
+        <v>71.2140757601</v>
       </c>
       <c r="C184" t="n">
-        <v>671.264195543</v>
+        <v>73.87634637879999</v>
       </c>
       <c r="D184" t="n">
-        <v>304.682162696</v>
+        <v>24.3920956632</v>
       </c>
       <c r="E184" t="n">
-        <v>585.29067564</v>
+        <v>71.2140757601</v>
       </c>
     </row>
     <row r="185">
@@ -3582,16 +3582,16 @@
         <v>18.3</v>
       </c>
       <c r="B185" t="n">
-        <v>610.254435744</v>
+        <v>61.8646927197</v>
       </c>
       <c r="C185" t="n">
-        <v>700.064188422</v>
+        <v>59.3282457781</v>
       </c>
       <c r="D185" t="n">
-        <v>314.951274932</v>
+        <v>9.977967560430001</v>
       </c>
       <c r="E185" t="n">
-        <v>610.254435744</v>
+        <v>61.8646927197</v>
       </c>
     </row>
     <row r="186">
@@ -3599,16 +3599,16 @@
         <v>18.4</v>
       </c>
       <c r="B186" t="n">
-        <v>557.01685362</v>
+        <v>64.60418762099999</v>
       </c>
       <c r="C186" t="n">
-        <v>638.876955519</v>
+        <v>66.39303324460001</v>
       </c>
       <c r="D186" t="n">
-        <v>288.237370705</v>
+        <v>20.0677511526</v>
       </c>
       <c r="E186" t="n">
-        <v>557.01685362</v>
+        <v>64.60418762099999</v>
       </c>
     </row>
     <row r="187">
@@ -3616,16 +3616,16 @@
         <v>18.5</v>
       </c>
       <c r="B187" t="n">
-        <v>437.737494359</v>
+        <v>96.69073330880001</v>
       </c>
       <c r="C187" t="n">
-        <v>501.494497165</v>
+        <v>105.963487825</v>
       </c>
       <c r="D187" t="n">
-        <v>230.799489786</v>
+        <v>48.7301381976</v>
       </c>
       <c r="E187" t="n">
-        <v>437.737494359</v>
+        <v>96.69073330880001</v>
       </c>
     </row>
     <row r="188">
@@ -3633,16 +3633,16 @@
         <v>18.6</v>
       </c>
       <c r="B188" t="n">
-        <v>265.68118705</v>
+        <v>157.965418466</v>
       </c>
       <c r="C188" t="n">
-        <v>302.56814042</v>
+        <v>178.021217865</v>
       </c>
       <c r="D188" t="n">
-        <v>144.393233659</v>
+        <v>84.9945300959</v>
       </c>
       <c r="E188" t="n">
-        <v>265.68118705</v>
+        <v>157.965418466</v>
       </c>
     </row>
     <row r="189">
@@ -3650,16 +3650,16 @@
         <v>18.7</v>
       </c>
       <c r="B189" t="n">
-        <v>81.8573268203</v>
+        <v>223.784388001</v>
       </c>
       <c r="C189" t="n">
-        <v>86.3219127815</v>
+        <v>254.265564629</v>
       </c>
       <c r="D189" t="n">
-        <v>32.945606747</v>
+        <v>121.511498247</v>
       </c>
       <c r="E189" t="n">
-        <v>81.8573268203</v>
+        <v>223.784388001</v>
       </c>
     </row>
     <row r="190">
@@ -3667,16 +3667,16 @@
         <v>18.8</v>
       </c>
       <c r="B190" t="n">
-        <v>112.296426204</v>
+        <v>273.569294798</v>
       </c>
       <c r="C190" t="n">
-        <v>-32.4418153212</v>
+        <v>312.14970393</v>
       </c>
       <c r="D190" t="n">
-        <v>-124.679356108</v>
+        <v>147.240028321</v>
       </c>
       <c r="E190" t="n">
-        <v>-112.296426204</v>
+        <v>273.569294798</v>
       </c>
     </row>
     <row r="191">
@@ -3684,16 +3684,16 @@
         <v>18.9</v>
       </c>
       <c r="B191" t="n">
-        <v>183.702505581</v>
+        <v>303.115488332</v>
       </c>
       <c r="C191" t="n">
-        <v>-75.8072515623</v>
+        <v>346.64023121</v>
       </c>
       <c r="D191" t="n">
-        <v>-209.266050233</v>
+        <v>160.790615579</v>
       </c>
       <c r="E191" t="n">
-        <v>-183.702505581</v>
+        <v>303.115488332</v>
       </c>
     </row>
     <row r="192">
@@ -3701,16 +3701,16 @@
         <v>19</v>
       </c>
       <c r="B192" t="n">
-        <v>160.458035374</v>
+        <v>318.91569495</v>
       </c>
       <c r="C192" t="n">
-        <v>-55.802022229</v>
+        <v>364.963086429</v>
       </c>
       <c r="D192" t="n">
-        <v>-180.634414357</v>
+        <v>168.124778141</v>
       </c>
       <c r="E192" t="n">
-        <v>-160.458035374</v>
+        <v>318.91569495</v>
       </c>
     </row>
     <row r="193">
@@ -3718,16 +3718,16 @@
         <v>19.1</v>
       </c>
       <c r="B193" t="n">
-        <v>80.6942168202</v>
+        <v>326.039907445</v>
       </c>
       <c r="C193" t="n">
-        <v>6.80471400942</v>
+        <v>373.080423851</v>
       </c>
       <c r="D193" t="n">
-        <v>-76.6760840978</v>
+        <v>172.376082263</v>
       </c>
       <c r="E193" t="n">
-        <v>-80.6942168202</v>
+        <v>326.039907445</v>
       </c>
     </row>
     <row r="194">
@@ -3735,16 +3735,16 @@
         <v>19.2</v>
       </c>
       <c r="B194" t="n">
-        <v>91.9316380307</v>
+        <v>323.113083754</v>
       </c>
       <c r="C194" t="n">
-        <v>97.543530405</v>
+        <v>369.627696838</v>
       </c>
       <c r="D194" t="n">
-        <v>39.5673893465</v>
+        <v>171.398108627</v>
       </c>
       <c r="E194" t="n">
-        <v>91.9316380307</v>
+        <v>323.113083754</v>
       </c>
     </row>
     <row r="195">
@@ -3752,16 +3752,16 @@
         <v>19.3</v>
       </c>
       <c r="B195" t="n">
-        <v>216.524249231</v>
+        <v>307.292470621</v>
       </c>
       <c r="C195" t="n">
-        <v>246.999421212</v>
+        <v>351.397464477</v>
       </c>
       <c r="D195" t="n">
-        <v>114.799706587</v>
+        <v>163.257403407</v>
       </c>
       <c r="E195" t="n">
-        <v>216.524249231</v>
+        <v>307.292470621</v>
       </c>
     </row>
     <row r="196">
@@ -3769,16 +3769,16 @@
         <v>19.4</v>
       </c>
       <c r="B196" t="n">
-        <v>373.198886845</v>
+        <v>276.916191884</v>
       </c>
       <c r="C196" t="n">
-        <v>427.811994688</v>
+        <v>316.27121005</v>
       </c>
       <c r="D196" t="n">
-        <v>190.650299395</v>
+        <v>148.022114935</v>
       </c>
       <c r="E196" t="n">
-        <v>373.198886845</v>
+        <v>276.916191884</v>
       </c>
     </row>
     <row r="197">
@@ -3786,16 +3786,16 @@
         <v>19.5</v>
       </c>
       <c r="B197" t="n">
-        <v>521.5624625950001</v>
+        <v>234.098389872</v>
       </c>
       <c r="C197" t="n">
-        <v>598.118656035</v>
+        <v>266.560174844</v>
       </c>
       <c r="D197" t="n">
-        <v>270.458996159</v>
+        <v>126.31718737</v>
       </c>
       <c r="E197" t="n">
-        <v>521.5624625950001</v>
+        <v>234.098389872</v>
       </c>
     </row>
     <row r="198">
@@ -3803,16 +3803,16 @@
         <v>19.6</v>
       </c>
       <c r="B198" t="n">
-        <v>593.551876222</v>
+        <v>186.738968926</v>
       </c>
       <c r="C198" t="n">
-        <v>680.240273176</v>
+        <v>211.640048759</v>
       </c>
       <c r="D198" t="n">
-        <v>315.209740121</v>
+        <v>100.856604635</v>
       </c>
       <c r="E198" t="n">
-        <v>593.551876222</v>
+        <v>186.738968926</v>
       </c>
     </row>
     <row r="199">
@@ -3820,16 +3820,16 @@
         <v>19.7</v>
       </c>
       <c r="B199" t="n">
-        <v>532.687372267</v>
+        <v>145.443211448</v>
       </c>
       <c r="C199" t="n">
-        <v>609.974226856</v>
+        <v>163.608610507</v>
       </c>
       <c r="D199" t="n">
-        <v>285.674289702</v>
+        <v>77.8125196205</v>
       </c>
       <c r="E199" t="n">
-        <v>532.687372267</v>
+        <v>145.443211448</v>
       </c>
     </row>
     <row r="200">
@@ -3837,16 +3837,16 @@
         <v>19.8</v>
       </c>
       <c r="B200" t="n">
-        <v>357.701983519</v>
+        <v>117.690174012</v>
       </c>
       <c r="C200" t="n">
-        <v>409.337072973</v>
+        <v>130.19559986</v>
       </c>
       <c r="D200" t="n">
-        <v>190.023126613</v>
+        <v>61.4453915417</v>
       </c>
       <c r="E200" t="n">
-        <v>357.701983519</v>
+        <v>117.690174012</v>
       </c>
     </row>
     <row r="201">
@@ -3854,16 +3854,16 @@
         <v>19.9</v>
       </c>
       <c r="B201" t="n">
-        <v>157.582492952</v>
+        <v>102.239072591</v>
       </c>
       <c r="C201" t="n">
-        <v>179.608618836</v>
+        <v>110.550245123</v>
       </c>
       <c r="D201" t="n">
-        <v>81.39313076640001</v>
+        <v>50.1863696522</v>
       </c>
       <c r="E201" t="n">
-        <v>157.582492952</v>
+        <v>102.239072591</v>
       </c>
     </row>
     <row r="202">
@@ -3871,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>34.2920039294</v>
+        <v>93.86286902000001</v>
       </c>
       <c r="C202" t="n">
-        <v>30.2599932248</v>
+        <v>100.773166558</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.752203007583</v>
+        <v>44.1339806287</v>
       </c>
       <c r="E202" t="n">
-        <v>34.2920039294</v>
+        <v>93.86286902000001</v>
       </c>
     </row>
     <row r="203">
@@ -3888,16 +3888,16 @@
         <v>20.1</v>
       </c>
       <c r="B203" t="n">
-        <v>70.4773055939</v>
+        <v>97.15036745730001</v>
       </c>
       <c r="C203" t="n">
-        <v>5.21409220003</v>
+        <v>106.010735228</v>
       </c>
       <c r="D203" t="n">
-        <v>-67.3547753954</v>
+        <v>48.599105726</v>
       </c>
       <c r="E203" t="n">
-        <v>-70.4773055939</v>
+        <v>97.15036745730001</v>
       </c>
     </row>
     <row r="204">
@@ -3905,16 +3905,16 @@
         <v>20.2</v>
       </c>
       <c r="B204" t="n">
-        <v>86.9510288102</v>
+        <v>125.866440331</v>
       </c>
       <c r="C204" t="n">
-        <v>7.42104515871</v>
+        <v>141.024136073</v>
       </c>
       <c r="D204" t="n">
-        <v>-82.5872488879</v>
+        <v>66.50447175799999</v>
       </c>
       <c r="E204" t="n">
-        <v>-86.9510288102</v>
+        <v>125.866440331</v>
       </c>
     </row>
     <row r="205">
@@ -3922,16 +3922,16 @@
         <v>20.3</v>
       </c>
       <c r="B205" t="n">
-        <v>72.388616845</v>
+        <v>182.729004861</v>
       </c>
       <c r="C205" t="n">
-        <v>9.607332030089999</v>
+        <v>207.350560278</v>
       </c>
       <c r="D205" t="n">
-        <v>-66.66427113829999</v>
+        <v>98.1654036223</v>
       </c>
       <c r="E205" t="n">
-        <v>-72.388616845</v>
+        <v>182.729004861</v>
       </c>
     </row>
     <row r="206">
@@ -3939,16 +3939,16 @@
         <v>20.4</v>
       </c>
       <c r="B206" t="n">
-        <v>40.2843341459</v>
+        <v>252.413646587</v>
       </c>
       <c r="C206" t="n">
-        <v>26.9171418486</v>
+        <v>287.893904848</v>
       </c>
       <c r="D206" t="n">
-        <v>-14.2256354261</v>
+        <v>135.542133699</v>
       </c>
       <c r="E206" t="n">
-        <v>40.2843341459</v>
+        <v>252.413646587</v>
       </c>
     </row>
     <row r="207">
@@ -3956,16 +3956,16 @@
         <v>20.5</v>
       </c>
       <c r="B207" t="n">
-        <v>108.484422618</v>
+        <v>313.164801485</v>
       </c>
       <c r="C207" t="n">
-        <v>121.89382877</v>
+        <v>358.017176784</v>
       </c>
       <c r="D207" t="n">
-        <v>56.1820966346</v>
+        <v>167.083944492</v>
       </c>
       <c r="E207" t="n">
-        <v>108.484422618</v>
+        <v>313.164801485</v>
       </c>
     </row>
     <row r="208">
@@ -3973,16 +3973,16 @@
         <v>20.6</v>
       </c>
       <c r="B208" t="n">
-        <v>251.662134784</v>
+        <v>349.699092935</v>
       </c>
       <c r="C208" t="n">
-        <v>287.315861315</v>
+        <v>400.211267608</v>
       </c>
       <c r="D208" t="n">
-        <v>134.103868704</v>
+        <v>185.315490493</v>
       </c>
       <c r="E208" t="n">
-        <v>251.662134784</v>
+        <v>349.699092935</v>
       </c>
     </row>
     <row r="209">
@@ -3990,16 +3990,16 @@
         <v>20.7</v>
       </c>
       <c r="B209" t="n">
-        <v>386.841199364</v>
+        <v>357.791269254</v>
       </c>
       <c r="C209" t="n">
-        <v>442.520095884</v>
+        <v>409.604420207</v>
       </c>
       <c r="D209" t="n">
-        <v>207.324255973</v>
+        <v>188.927489582</v>
       </c>
       <c r="E209" t="n">
-        <v>386.841199364</v>
+        <v>357.791269254</v>
       </c>
     </row>
     <row r="210">
@@ -4007,16 +4007,16 @@
         <v>20.8</v>
       </c>
       <c r="B210" t="n">
-        <v>456.023128799</v>
+        <v>340.605314382</v>
       </c>
       <c r="C210" t="n">
-        <v>522.143110635</v>
+        <v>389.810817597</v>
       </c>
       <c r="D210" t="n">
-        <v>243.309891416</v>
+        <v>180.154541581</v>
       </c>
       <c r="E210" t="n">
-        <v>456.023128799</v>
+        <v>340.605314382</v>
       </c>
     </row>
     <row r="211">
@@ -4024,16 +4024,16 @@
         <v>20.9</v>
       </c>
       <c r="B211" t="n">
-        <v>444.784458842</v>
+        <v>303.062541205</v>
       </c>
       <c r="C211" t="n">
-        <v>509.652841369</v>
+        <v>346.463185508</v>
       </c>
       <c r="D211" t="n">
-        <v>233.905429086</v>
+        <v>161.392619595</v>
       </c>
       <c r="E211" t="n">
-        <v>444.784458842</v>
+        <v>303.062541205</v>
       </c>
     </row>
     <row r="212">
@@ -4041,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="B212" t="n">
-        <v>382.072490666</v>
+        <v>250.915461183</v>
       </c>
       <c r="C212" t="n">
-        <v>437.819847373</v>
+        <v>286.132742825</v>
       </c>
       <c r="D212" t="n">
-        <v>198.577287864</v>
+        <v>134.851936362</v>
       </c>
       <c r="E212" t="n">
-        <v>382.072490666</v>
+        <v>250.915461183</v>
       </c>
     </row>
     <row r="213">
@@ -4058,16 +4058,16 @@
         <v>21.1</v>
       </c>
       <c r="B213" t="n">
-        <v>305.546265964</v>
+        <v>191.687676591</v>
       </c>
       <c r="C213" t="n">
-        <v>349.685199309</v>
+        <v>217.36302384</v>
       </c>
       <c r="D213" t="n">
-        <v>160.410858344</v>
+        <v>103.596699345</v>
       </c>
       <c r="E213" t="n">
-        <v>305.546265964</v>
+        <v>191.687676591</v>
       </c>
     </row>
     <row r="214">
@@ -4075,16 +4075,16 @@
         <v>21.2</v>
       </c>
       <c r="B214" t="n">
-        <v>233.017651405</v>
+        <v>136.267850289</v>
       </c>
       <c r="C214" t="n">
-        <v>265.406100493</v>
+        <v>152.389679158</v>
       </c>
       <c r="D214" t="n">
-        <v>125.502300985</v>
+        <v>72.6031820935</v>
       </c>
       <c r="E214" t="n">
-        <v>233.017651405</v>
+        <v>136.267850289</v>
       </c>
     </row>
     <row r="215">
@@ -4092,16 +4092,16 @@
         <v>21.3</v>
       </c>
       <c r="B215" t="n">
-        <v>162.432606759</v>
+        <v>96.8616869544</v>
       </c>
       <c r="C215" t="n">
-        <v>182.428101249</v>
+        <v>105.278653699</v>
       </c>
       <c r="D215" t="n">
-        <v>87.8184912095</v>
+        <v>47.9876681187</v>
       </c>
       <c r="E215" t="n">
-        <v>162.432606759</v>
+        <v>96.8616869544</v>
       </c>
     </row>
     <row r="216">
@@ -4109,16 +4109,16 @@
         <v>21.4</v>
       </c>
       <c r="B216" t="n">
-        <v>96.2607122018</v>
+        <v>79.94608297400001</v>
       </c>
       <c r="C216" t="n">
-        <v>103.847011641</v>
+        <v>85.0397841468</v>
       </c>
       <c r="D216" t="n">
-        <v>46.4837183244</v>
+        <v>34.504473676</v>
       </c>
       <c r="E216" t="n">
-        <v>96.2607122018</v>
+        <v>79.94608297400001</v>
       </c>
     </row>
     <row r="217">
@@ -4126,16 +4126,16 @@
         <v>21.5</v>
       </c>
       <c r="B217" t="n">
-        <v>54.6412640389</v>
+        <v>84.2278040729</v>
       </c>
       <c r="C217" t="n">
-        <v>53.7769028661</v>
+        <v>89.924059336</v>
       </c>
       <c r="D217" t="n">
-        <v>10.9955764486</v>
+        <v>37.654471763</v>
       </c>
       <c r="E217" t="n">
-        <v>54.6412640389</v>
+        <v>84.2278040729</v>
       </c>
     </row>
     <row r="218">
@@ -4143,16 +4143,16 @@
         <v>21.6</v>
       </c>
       <c r="B218" t="n">
-        <v>49.4399659788</v>
+        <v>107.610709189</v>
       </c>
       <c r="C218" t="n">
-        <v>47.5754591263</v>
+        <v>118.076637748</v>
       </c>
       <c r="D218" t="n">
-        <v>7.4599476004</v>
+        <v>55.0619164768</v>
       </c>
       <c r="E218" t="n">
-        <v>49.4399659788</v>
+        <v>107.610709189</v>
       </c>
     </row>
     <row r="219">
@@ -4160,16 +4160,16 @@
         <v>21.7</v>
       </c>
       <c r="B219" t="n">
-        <v>84.1675726153</v>
+        <v>150.089077835</v>
       </c>
       <c r="C219" t="n">
-        <v>90.6725371194</v>
+        <v>168.980141849</v>
       </c>
       <c r="D219" t="n">
-        <v>39.6584500791</v>
+        <v>80.46690209489999</v>
       </c>
       <c r="E219" t="n">
-        <v>84.1675726153</v>
+        <v>150.089077835</v>
       </c>
     </row>
     <row r="220">
@@ -4177,16 +4177,16 @@
         <v>21.8</v>
       </c>
       <c r="B220" t="n">
-        <v>153.686859206</v>
+        <v>207.633169402</v>
       </c>
       <c r="C220" t="n">
-        <v>172.537426316</v>
+        <v>236.221005951</v>
       </c>
       <c r="D220" t="n">
-        <v>82.7238984943</v>
+        <v>111.546844964</v>
       </c>
       <c r="E220" t="n">
-        <v>153.686859206</v>
+        <v>207.633169402</v>
       </c>
     </row>
     <row r="221">
@@ -4194,16 +4194,16 @@
         <v>21.9</v>
       </c>
       <c r="B221" t="n">
-        <v>224.08600615</v>
+        <v>269.091501762</v>
       </c>
       <c r="C221" t="n">
-        <v>254.531165046</v>
+        <v>307.279184824</v>
       </c>
       <c r="D221" t="n">
-        <v>121.816476836</v>
+        <v>143.795306721</v>
       </c>
       <c r="E221" t="n">
-        <v>224.08600615</v>
+        <v>269.091501762</v>
       </c>
     </row>
     <row r="222">
@@ -4211,16 +4211,16 @@
         <v>22</v>
       </c>
       <c r="B222" t="n">
-        <v>276.201142977</v>
+        <v>318.268000421</v>
       </c>
       <c r="C222" t="n">
-        <v>315.29960538</v>
+        <v>363.906277909</v>
       </c>
       <c r="D222" t="n">
-        <v>148.220434989</v>
+        <v>169.686912117</v>
       </c>
       <c r="E222" t="n">
-        <v>276.201142977</v>
+        <v>318.268000421</v>
       </c>
     </row>
     <row r="223">
@@ -4228,16 +4228,16 @@
         <v>22.1</v>
       </c>
       <c r="B223" t="n">
-        <v>311.976152463</v>
+        <v>340.96564147</v>
       </c>
       <c r="C223" t="n">
-        <v>356.973642655</v>
+        <v>390.04268602</v>
       </c>
       <c r="D223" t="n">
-        <v>164.551936531</v>
+        <v>181.507430254</v>
       </c>
       <c r="E223" t="n">
-        <v>311.976152463</v>
+        <v>340.96564147</v>
       </c>
     </row>
     <row r="224">
@@ -4245,16 +4245,16 @@
         <v>22.2</v>
       </c>
       <c r="B224" t="n">
-        <v>336.205062631</v>
+        <v>334.760868453</v>
       </c>
       <c r="C224" t="n">
-        <v>384.890272706</v>
+        <v>383.023104814</v>
       </c>
       <c r="D224" t="n">
-        <v>176.822681086</v>
+        <v>177.530200868</v>
       </c>
       <c r="E224" t="n">
-        <v>336.205062631</v>
+        <v>334.760868453</v>
       </c>
     </row>
     <row r="225">
@@ -4262,16 +4262,16 @@
         <v>22.3</v>
       </c>
       <c r="B225" t="n">
-        <v>341.668968194</v>
+        <v>310.520883314</v>
       </c>
       <c r="C225" t="n">
-        <v>390.848019111</v>
+        <v>355.274191972</v>
       </c>
       <c r="D225" t="n">
-        <v>181.899623781</v>
+        <v>163.956466964</v>
       </c>
       <c r="E225" t="n">
-        <v>341.668968194</v>
+        <v>310.520883314</v>
       </c>
     </row>
     <row r="226">
@@ -4279,16 +4279,16 @@
         <v>22.4</v>
       </c>
       <c r="B226" t="n">
-        <v>313.128818604</v>
+        <v>281.932434427</v>
       </c>
       <c r="C226" t="n">
-        <v>357.576212247</v>
+        <v>322.343568897</v>
       </c>
       <c r="D226" t="n">
-        <v>168.814907442</v>
+        <v>149.215984163</v>
       </c>
       <c r="E226" t="n">
-        <v>313.128818604</v>
+        <v>281.932434427</v>
       </c>
     </row>
     <row r="227">
@@ -4296,16 +4296,16 @@
         <v>22.5</v>
       </c>
       <c r="B227" t="n">
-        <v>248.726581333</v>
+        <v>253.844789714</v>
       </c>
       <c r="C227" t="n">
-        <v>283.307345</v>
+        <v>289.646295897</v>
       </c>
       <c r="D227" t="n">
-        <v>134.518976106</v>
+        <v>135.955681535</v>
       </c>
       <c r="E227" t="n">
-        <v>248.726581333</v>
+        <v>253.844789714</v>
       </c>
     </row>
     <row r="228">
@@ -4313,16 +4313,16 @@
         <v>22.6</v>
       </c>
       <c r="B228" t="n">
-        <v>171.665536971</v>
+        <v>220.362056229</v>
       </c>
       <c r="C228" t="n">
-        <v>194.600797307</v>
+        <v>250.423898848</v>
       </c>
       <c r="D228" t="n">
-        <v>92.0198510119</v>
+        <v>119.452226127</v>
       </c>
       <c r="E228" t="n">
-        <v>171.665536971</v>
+        <v>220.362056229</v>
       </c>
     </row>
     <row r="229">
@@ -4330,16 +4330,16 @@
         <v>22.7</v>
       </c>
       <c r="B229" t="n">
-        <v>116.558398208</v>
+        <v>176.309680691</v>
       </c>
       <c r="C229" t="n">
-        <v>130.504581864</v>
+        <v>198.93401742</v>
       </c>
       <c r="D229" t="n">
-        <v>61.0635388501</v>
+        <v>95.5887602327</v>
       </c>
       <c r="E229" t="n">
-        <v>116.558398208</v>
+        <v>176.309680691</v>
       </c>
     </row>
     <row r="230">
@@ -4347,16 +4347,16 @@
         <v>22.8</v>
       </c>
       <c r="B230" t="n">
-        <v>101.03401349</v>
+        <v>128.973035583</v>
       </c>
       <c r="C230" t="n">
-        <v>111.035532663</v>
+        <v>143.642199516</v>
       </c>
       <c r="D230" t="n">
-        <v>51.4235332002</v>
+        <v>68.284385321</v>
       </c>
       <c r="E230" t="n">
-        <v>101.03401349</v>
+        <v>128.973035583</v>
       </c>
     </row>
     <row r="231">
@@ -4364,16 +4364,16 @@
         <v>22.9</v>
       </c>
       <c r="B231" t="n">
-        <v>113.662001161</v>
+        <v>95.49057580429999</v>
       </c>
       <c r="C231" t="n">
-        <v>124.598318007</v>
+        <v>104.164689499</v>
       </c>
       <c r="D231" t="n">
-        <v>58.4273240053</v>
+        <v>47.6303934693</v>
       </c>
       <c r="E231" t="n">
-        <v>113.662001161</v>
+        <v>95.49057580429999</v>
       </c>
     </row>
     <row r="232">
@@ -4381,16 +4381,16 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>134.450986976</v>
+        <v>87.8550818495</v>
       </c>
       <c r="C232" t="n">
-        <v>149.315845226</v>
+        <v>94.7419999928</v>
       </c>
       <c r="D232" t="n">
-        <v>71.35335969640001</v>
+        <v>41.8401763492</v>
       </c>
       <c r="E232" t="n">
-        <v>134.450986976</v>
+        <v>87.8550818495</v>
       </c>
     </row>
     <row r="233">
@@ -4398,16 +4398,16 @@
         <v>23.1</v>
       </c>
       <c r="B233" t="n">
-        <v>158.139072834</v>
+        <v>103.446037145</v>
       </c>
       <c r="C233" t="n">
-        <v>178.316592674</v>
+        <v>112.76019682</v>
       </c>
       <c r="D233" t="n">
-        <v>85.0405716705</v>
+        <v>52.0349432856</v>
       </c>
       <c r="E233" t="n">
-        <v>158.139072834</v>
+        <v>103.446037145</v>
       </c>
     </row>
     <row r="234">
@@ -4415,16 +4415,16 @@
         <v>23.2</v>
       </c>
       <c r="B234" t="n">
-        <v>193.362334043</v>
+        <v>133.582572032</v>
       </c>
       <c r="C234" t="n">
-        <v>219.956843428</v>
+        <v>148.835500385</v>
       </c>
       <c r="D234" t="n">
-        <v>103.356898223</v>
+        <v>70.9789717271</v>
       </c>
       <c r="E234" t="n">
-        <v>193.362334043</v>
+        <v>133.582572032</v>
       </c>
     </row>
     <row r="235">
@@ -4432,16 +4432,16 @@
         <v>23.3</v>
       </c>
       <c r="B235" t="n">
-        <v>242.396233169</v>
+        <v>173.147468194</v>
       </c>
       <c r="C235" t="n">
-        <v>276.617488404</v>
+        <v>195.892615133</v>
       </c>
       <c r="D235" t="n">
-        <v>129.279637254</v>
+        <v>93.32999870250001</v>
       </c>
       <c r="E235" t="n">
-        <v>242.396233169</v>
+        <v>173.147468194</v>
       </c>
     </row>
     <row r="236">
@@ -4449,16 +4449,16 @@
         <v>23.4</v>
       </c>
       <c r="B236" t="n">
-        <v>290.878448366</v>
+        <v>221.645808376</v>
       </c>
       <c r="C236" t="n">
-        <v>332.252007575</v>
+        <v>252.573934263</v>
       </c>
       <c r="D236" t="n">
-        <v>155.817469503</v>
+        <v>118.622428652</v>
       </c>
       <c r="E236" t="n">
-        <v>290.878448366</v>
+        <v>221.645808376</v>
       </c>
     </row>
     <row r="237">
@@ -4466,16 +4466,16 @@
         <v>23.5</v>
       </c>
       <c r="B237" t="n">
-        <v>316.072568458</v>
+        <v>276.15132275</v>
       </c>
       <c r="C237" t="n">
-        <v>361.124233317</v>
+        <v>315.583051244</v>
       </c>
       <c r="D237" t="n">
-        <v>169.736880052</v>
+        <v>146.733500377</v>
       </c>
       <c r="E237" t="n">
-        <v>316.072568458</v>
+        <v>276.15132275</v>
       </c>
     </row>
     <row r="238">
@@ -4483,16 +4483,16 @@
         <v>23.6</v>
       </c>
       <c r="B238" t="n">
-        <v>307.050650591</v>
+        <v>326.205637305</v>
       </c>
       <c r="C238" t="n">
-        <v>350.867386013</v>
+        <v>373.194248593</v>
       </c>
       <c r="D238" t="n">
-        <v>164.392953935</v>
+        <v>172.966740292</v>
       </c>
       <c r="E238" t="n">
-        <v>307.050650591</v>
+        <v>326.205637305</v>
       </c>
     </row>
     <row r="239">
@@ -4500,16 +4500,16 @@
         <v>23.7</v>
       </c>
       <c r="B239" t="n">
-        <v>273.767743069</v>
+        <v>358.17722164</v>
       </c>
       <c r="C239" t="n">
-        <v>312.783205513</v>
+        <v>409.976579307</v>
       </c>
       <c r="D239" t="n">
-        <v>145.744824451</v>
+        <v>189.647695119</v>
       </c>
       <c r="E239" t="n">
-        <v>273.767743069</v>
+        <v>358.17722164</v>
       </c>
     </row>
     <row r="240">
@@ -4517,16 +4517,16 @@
         <v>23.8</v>
       </c>
       <c r="B240" t="n">
-        <v>235.254106772</v>
+        <v>363.578283925</v>
       </c>
       <c r="C240" t="n">
-        <v>268.40553691</v>
+        <v>416.243238529</v>
       </c>
       <c r="D240" t="n">
-        <v>125.420879206</v>
+        <v>192.064732841</v>
       </c>
       <c r="E240" t="n">
-        <v>235.254106772</v>
+        <v>363.578283925</v>
       </c>
     </row>
     <row r="241">
@@ -4534,16 +4534,16 @@
         <v>23.9</v>
       </c>
       <c r="B241" t="n">
-        <v>203.442230471</v>
+        <v>341.788158522</v>
       </c>
       <c r="C241" t="n">
-        <v>231.25755276</v>
+        <v>391.168384116</v>
       </c>
       <c r="D241" t="n">
-        <v>109.531267156</v>
+        <v>180.799937341</v>
       </c>
       <c r="E241" t="n">
-        <v>203.442230471</v>
+        <v>341.788158522</v>
       </c>
     </row>
     <row r="242">
@@ -4551,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>177.616211333</v>
+        <v>295.466306513</v>
       </c>
       <c r="C242" t="n">
-        <v>200.739306189</v>
+        <v>337.613129204</v>
       </c>
       <c r="D242" t="n">
-        <v>96.12236289240001</v>
+        <v>157.904714095</v>
       </c>
       <c r="E242" t="n">
-        <v>177.616211333</v>
+        <v>295.466306513</v>
       </c>
     </row>
     <row r="243">
@@ -4568,16 +4568,16 @@
         <v>24.1</v>
       </c>
       <c r="B243" t="n">
-        <v>154.658061074</v>
+        <v>228.419554019</v>
       </c>
       <c r="C243" t="n">
-        <v>173.86568991</v>
+        <v>259.762209962</v>
       </c>
       <c r="D243" t="n">
-        <v>83.2310261161</v>
+        <v>123.77924986</v>
       </c>
       <c r="E243" t="n">
-        <v>154.658061074</v>
+        <v>228.419554019</v>
       </c>
     </row>
     <row r="244">
@@ -4585,16 +4585,16 @@
         <v>24.2</v>
       </c>
       <c r="B244" t="n">
-        <v>140.147493116</v>
+        <v>150.119916755</v>
       </c>
       <c r="C244" t="n">
-        <v>157.40694434</v>
+        <v>168.226173931</v>
       </c>
       <c r="D244" t="n">
-        <v>74.78559448830001</v>
+        <v>80.6795694589</v>
       </c>
       <c r="E244" t="n">
-        <v>140.147493116</v>
+        <v>150.119916755</v>
       </c>
     </row>
     <row r="245">
@@ -4602,16 +4602,16 @@
         <v>24.3</v>
       </c>
       <c r="B245" t="n">
-        <v>145.541502105</v>
+        <v>81.4169531217</v>
       </c>
       <c r="C245" t="n">
-        <v>164.14421263</v>
+        <v>86.8525506196</v>
       </c>
       <c r="D245" t="n">
-        <v>77.64662242439999</v>
+        <v>36.0124776605</v>
       </c>
       <c r="E245" t="n">
-        <v>145.541502105</v>
+        <v>81.4169531217</v>
       </c>
     </row>
     <row r="246">
@@ -4619,16 +4619,16 @@
         <v>24.4</v>
       </c>
       <c r="B246" t="n">
-        <v>173.904463138</v>
+        <v>49.3568967492</v>
       </c>
       <c r="C246" t="n">
-        <v>197.026568306</v>
+        <v>45.1260363944</v>
       </c>
       <c r="D246" t="n">
-        <v>93.4685835114</v>
+        <v>3.22515430836</v>
       </c>
       <c r="E246" t="n">
-        <v>173.904463138</v>
+        <v>49.3568967492</v>
       </c>
     </row>
     <row r="247">
@@ -4636,16 +4636,16 @@
         <v>24.5</v>
       </c>
       <c r="B247" t="n">
-        <v>212.888546514</v>
+        <v>50.8586809751</v>
       </c>
       <c r="C247" t="n">
-        <v>241.920629566</v>
+        <v>47.7388456973</v>
       </c>
       <c r="D247" t="n">
-        <v>115.142594816</v>
+        <v>5.60437752948</v>
       </c>
       <c r="E247" t="n">
-        <v>212.888546514</v>
+        <v>50.8586809751</v>
       </c>
     </row>
     <row r="248">
@@ -4653,16 +4653,16 @@
         <v>24.6</v>
       </c>
       <c r="B248" t="n">
-        <v>244.883154241</v>
+        <v>84.6838216678</v>
       </c>
       <c r="C248" t="n">
-        <v>278.913883447</v>
+        <v>90.5286157634</v>
       </c>
       <c r="D248" t="n">
-        <v>132.349424515</v>
+        <v>38.2382188683</v>
       </c>
       <c r="E248" t="n">
-        <v>244.883154241</v>
+        <v>84.6838216678</v>
       </c>
     </row>
     <row r="249">
@@ -4670,16 +4670,16 @@
         <v>24.7</v>
       </c>
       <c r="B249" t="n">
-        <v>261.053429652</v>
+        <v>142.662892902</v>
       </c>
       <c r="C249" t="n">
-        <v>297.860988197</v>
+        <v>159.110679748</v>
       </c>
       <c r="D249" t="n">
-        <v>140.116887256</v>
+        <v>76.2917596517</v>
       </c>
       <c r="E249" t="n">
-        <v>261.053429652</v>
+        <v>142.662892902</v>
       </c>
     </row>
     <row r="250">
@@ -4687,16 +4687,16 @@
         <v>24.8</v>
       </c>
       <c r="B250" t="n">
-        <v>264.785093194</v>
+        <v>199.852586803</v>
       </c>
       <c r="C250" t="n">
-        <v>302.393520695</v>
+        <v>226.500812296</v>
       </c>
       <c r="D250" t="n">
-        <v>141.204662855</v>
+        <v>108.495550153</v>
       </c>
       <c r="E250" t="n">
-        <v>264.785093194</v>
+        <v>199.852586803</v>
       </c>
     </row>
     <row r="251">
@@ -4704,16 +4704,16 @@
         <v>24.9</v>
       </c>
       <c r="B251" t="n">
-        <v>262.163559898</v>
+        <v>250.584155975</v>
       </c>
       <c r="C251" t="n">
-        <v>299.344660966</v>
+        <v>285.975392836</v>
       </c>
       <c r="D251" t="n">
-        <v>139.938587382</v>
+        <v>133.905213492</v>
       </c>
       <c r="E251" t="n">
-        <v>262.163559898</v>
+        <v>250.584155975</v>
       </c>
     </row>
     <row r="252">
@@ -4721,16 +4721,16 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>253.096552449</v>
+        <v>304.568805017</v>
       </c>
       <c r="C252" t="n">
-        <v>288.63960516</v>
+        <v>348.618160874</v>
       </c>
       <c r="D252" t="n">
-        <v>136.041674584</v>
+        <v>159.439775673</v>
       </c>
       <c r="E252" t="n">
-        <v>253.096552449</v>
+        <v>304.568805017</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>310.472460713</v>
+        <v>305.553894704</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>109.441155554</v>
+        <v>104.506190917</v>
       </c>
     </row>
     <row r="5">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>290.952575202</v>
+        <v>292.761114871</v>
       </c>
     </row>
     <row r="6">
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>183.73452918</v>
+        <v>154.451088955</v>
       </c>
     </row>
     <row r="7">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>294.67096293</v>
+        <v>292.06145262</v>
       </c>
     </row>
     <row r="8">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>210.661604178</v>
+        <v>-134.329501343</v>
       </c>
     </row>
     <row r="9">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>268.396881132</v>
+        <v>334.605970351</v>
       </c>
     </row>
     <row r="10">
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>58.1460835315</v>
+        <v>311.088345819</v>
       </c>
     </row>
     <row r="11">
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>316.307759989</v>
+        <v>446.459344391</v>
       </c>
     </row>
     <row r="12">
@@ -4849,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>154.377270185</v>
+        <v>-161.341767696</v>
       </c>
     </row>
     <row r="13">
@@ -4857,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>333.935964418</v>
+        <v>402.557230079</v>
       </c>
     </row>
     <row r="14">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>96.1990684396</v>
+        <v>-85.5988814387</v>
       </c>
     </row>
     <row r="15">
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>414.893553453</v>
+        <v>462.099885511</v>
       </c>
     </row>
     <row r="16">
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-120.639819912</v>
+        <v>-148.613859133</v>
       </c>
     </row>
     <row r="17">
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>357.787614871</v>
+        <v>565.0430473489999</v>
       </c>
     </row>
     <row r="18">
@@ -4897,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.6198345271</v>
+        <v>-37.4885055521</v>
       </c>
     </row>
     <row r="19">
@@ -4905,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>430.295454168</v>
+        <v>382.45365948</v>
       </c>
     </row>
     <row r="20">
@@ -4913,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>108.900161649</v>
+        <v>177.975703374</v>
       </c>
     </row>
     <row r="21">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>331.154854884</v>
+        <v>300.32450951</v>
       </c>
     </row>
     <row r="22">
@@ -4929,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>192.094769976</v>
+        <v>152.244380943</v>
       </c>
     </row>
     <row r="23">
@@ -4937,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>278.554727928</v>
+        <v>203.58627317</v>
       </c>
     </row>
     <row r="24">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>264.083307251</v>
+        <v>174.474314281</v>
       </c>
     </row>
     <row r="25">
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>319.621195115</v>
+        <v>225.371945426</v>
       </c>
     </row>
     <row r="26">
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>54.055639038</v>
+        <v>158.70044378</v>
       </c>
     </row>
     <row r="27">
@@ -4969,7 +4969,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>324.10811845</v>
+        <v>194.698774386</v>
       </c>
     </row>
     <row r="28">
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>250.674479163</v>
+        <v>68.11562291769999</v>
       </c>
     </row>
     <row r="29">
@@ -4985,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>257.674340661</v>
+        <v>501.604038761</v>
       </c>
     </row>
     <row r="30">
@@ -4993,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>99.6507192456</v>
+        <v>-267.726059487</v>
       </c>
     </row>
     <row r="31">
@@ -5001,7 +5001,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>364.914464385</v>
+        <v>642.688827644</v>
       </c>
     </row>
     <row r="32">
@@ -5009,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>59.1477113769</v>
+        <v>-129.396942945</v>
       </c>
     </row>
     <row r="33">
@@ -5017,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>391.901062905</v>
+        <v>477.342445335</v>
       </c>
     </row>
     <row r="34">
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-90.83446830840001</v>
+        <v>50.3431805933</v>
       </c>
     </row>
     <row r="35">
@@ -5033,7 +5033,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>540.2507856780001</v>
+        <v>241.155402447</v>
       </c>
     </row>
     <row r="36">
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-233.950573379</v>
+        <v>112.375241082</v>
       </c>
     </row>
     <row r="37">
@@ -5049,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>743.856951042</v>
+        <v>364.862983872</v>
       </c>
     </row>
     <row r="38">
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-235.322864378</v>
+        <v>59.0154623964</v>
       </c>
     </row>
     <row r="39">
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>609.750360114</v>
+        <v>383.788495326</v>
       </c>
     </row>
     <row r="40">
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-239.985963837</v>
+        <v>-53.0909884371</v>
       </c>
     </row>
     <row r="41">
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>610.254435744</v>
+        <v>419.170596596</v>
       </c>
     </row>
     <row r="42">
@@ -5089,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-183.702505581</v>
+        <v>61.8646927197</v>
       </c>
     </row>
     <row r="43">
@@ -5097,7 +5097,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>593.551876222</v>
+        <v>326.039907445</v>
       </c>
     </row>
     <row r="44">
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-86.9510288102</v>
+        <v>93.86286902000001</v>
       </c>
     </row>
     <row r="45">
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>456.023128799</v>
+        <v>357.791269254</v>
       </c>
     </row>
     <row r="46">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>49.4399659788</v>
+        <v>79.94608297400001</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +5129,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>341.668968194</v>
+        <v>340.96564147</v>
       </c>
     </row>
     <row r="48">
@@ -5137,7 +5137,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>101.03401349</v>
+        <v>87.8550818495</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>316.072568458</v>
+        <v>363.578283925</v>
       </c>
     </row>
     <row r="50">
@@ -5153,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>140.147493116</v>
+        <v>49.3568967492</v>
       </c>
     </row>
     <row r="51">
@@ -5161,15 +5161,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>264.785093194</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>253.096552449</v>
+        <v>304.568805017</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5210,7 +5202,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.999861497999973</v>
+        <v>23.51762453200001</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5221,10 +5213,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.47142067699997</v>
+        <v>29.11195888899999</v>
       </c>
       <c r="B3" t="n">
-        <v>155.2362303565</v>
+        <v>152.776947352</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -5232,10 +5224,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57.73527695399997</v>
+        <v>35.998330606</v>
       </c>
       <c r="B4" t="n">
-        <v>139.9712054223333</v>
+        <v>136.686695207</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5243,10 +5235,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107.218046022</v>
+        <v>73.12756448299999</v>
       </c>
       <c r="B5" t="n">
-        <v>177.71654786725</v>
+        <v>175.705300123</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5254,21 +5246,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124.637600078</v>
+        <v>122.348806136</v>
       </c>
       <c r="B6" t="n">
-        <v>178.9201441298</v>
+        <v>171.4544578894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>127.526425139</v>
+        <v>128.780161365</v>
       </c>
       <c r="B7" t="n">
-        <v>198.2119472631666</v>
+        <v>191.5556236778333</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5276,10 +5268,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>161.930489804</v>
+        <v>137.610363665</v>
       </c>
       <c r="B8" t="n">
-        <v>199.9904696795714</v>
+        <v>145.0006058177143</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5287,21 +5279,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>175.925075342</v>
+        <v>188.254923954</v>
       </c>
       <c r="B9" t="n">
-        <v>208.541271111125</v>
+        <v>168.701276384375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>185.229807376</v>
+        <v>232.177038425</v>
       </c>
       <c r="B10" t="n">
-        <v>191.8306947133889</v>
+        <v>184.5220618771111</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5309,21 +5301,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>215.038554968</v>
+        <v>253.1105596205</v>
       </c>
       <c r="B11" t="n">
-        <v>204.27840124095</v>
+        <v>210.7157901285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>222.254693235</v>
+        <v>277.84518628</v>
       </c>
       <c r="B12" t="n">
-        <v>199.7419347813182</v>
+        <v>176.8923757808182</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5331,10 +5323,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>224.4573992044</v>
+        <v>301.7135912053</v>
       </c>
       <c r="B13" t="n">
-        <v>210.924770584375</v>
+        <v>195.6977803056667</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5342,10 +5334,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>237.7368959784</v>
+        <v>305.8475214756</v>
       </c>
       <c r="B14" t="n">
-        <v>202.0997165732385</v>
+        <v>174.0595755561</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5353,32 +5345,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>240.634954704</v>
+        <v>314.3380365623</v>
       </c>
       <c r="B15" t="n">
-        <v>217.2992763503643</v>
+        <v>194.6338834100214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252.3263771815</v>
+        <v>333.4453147327</v>
       </c>
       <c r="B16" t="n">
-        <v>194.7700032662067</v>
+        <v>171.75070057382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>292.2290022152</v>
+        <v>369.8136998468</v>
       </c>
       <c r="B17" t="n">
-        <v>204.9586039915063</v>
+        <v>196.3314722472687</v>
       </c>
       <c r="C17" t="n">
         <v>0.5</v>
@@ -5386,76 +5378,76 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>305.7667530081</v>
+        <v>439.883396047</v>
       </c>
       <c r="B18" t="n">
-        <v>190.2186958433529</v>
+        <v>182.5773559061294</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>337.845423867</v>
+        <v>472.2615850331</v>
       </c>
       <c r="B19" t="n">
-        <v>203.5562935280556</v>
+        <v>193.6815949935666</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>356.7474699215</v>
+        <v>488.1561115177</v>
       </c>
       <c r="B20" t="n">
-        <v>198.5743918502105</v>
+        <v>192.8549691188526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>403.4074493981</v>
+        <v>530.4334337721</v>
       </c>
       <c r="B21" t="n">
-        <v>205.2034150019</v>
+        <v>198.22844613841</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>406.5831628202</v>
+        <v>539.0925443131</v>
       </c>
       <c r="B22" t="n">
-        <v>204.5791938101905</v>
+        <v>196.0387287481524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>521.1299224764</v>
+        <v>580.788845734</v>
       </c>
       <c r="B23" t="n">
-        <v>207.9417180882728</v>
+        <v>196.3817989491455</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>535.533373365</v>
+        <v>606.73938828</v>
       </c>
       <c r="B24" t="n">
-        <v>210.3826567475218</v>
+        <v>195.4292996157479</v>
       </c>
       <c r="C24" t="n">
         <v>0.5</v>
@@ -5463,10 +5455,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>542.9741576092</v>
+        <v>607.801112087</v>
       </c>
       <c r="B25" t="n">
-        <v>214.9342625128334</v>
+        <v>196.6769098578417</v>
       </c>
       <c r="C25" t="n">
         <v>0.5</v>
@@ -5474,21 +5466,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>660.8906055900001</v>
+        <v>610.713744644</v>
       </c>
       <c r="B26" t="n">
-        <v>208.49911757384</v>
+        <v>195.157851214728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>680.5029050322</v>
+        <v>726.384815045</v>
       </c>
       <c r="B27" t="n">
-        <v>212.9456176075385</v>
+        <v>195.140194413623</v>
       </c>
       <c r="C27" t="n">
         <v>0.5</v>
@@ -5496,10 +5488,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>774.201359057</v>
+        <v>772.0857705889999</v>
       </c>
       <c r="B28" t="n">
-        <v>214.3429828503333</v>
+        <v>190.4355806545148</v>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
@@ -5507,10 +5499,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>777.254381803</v>
+        <v>832.769106836</v>
       </c>
       <c r="B29" t="n">
-        <v>215.8905313435714</v>
+        <v>201.5487398726036</v>
       </c>
       <c r="C29" t="n">
         <v>0.5</v>
@@ -5518,56 +5510,12 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>793.956941325</v>
+        <v>910.4148871309999</v>
       </c>
       <c r="B30" t="n">
-        <v>211.8822619608828</v>
+        <v>185.3668502395138</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>845.073224492</v>
-      </c>
-      <c r="B31" t="n">
-        <v>216.98333537502</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>850.240399581</v>
-      </c>
-      <c r="B32" t="n">
-        <v>211.8918636331452</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>977.8075244209999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>217.5171511103906</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>983.842914879</v>
-      </c>
-      <c r="B34" t="n">
-        <v>208.1731626431545</v>
-      </c>
-      <c r="C34" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5582,7 +5530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,10 +5557,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.07161322300504</v>
+        <v>74.15440611562092</v>
       </c>
       <c r="B2" t="n">
-        <v>11.03580661150252</v>
+        <v>37.07720305781046</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5620,354 +5568,310 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45.63055257938669</v>
+        <v>91.79357810097207</v>
       </c>
       <c r="B3" t="n">
-        <v>334.6805863339799</v>
+        <v>338.4303762642704</v>
       </c>
       <c r="C3" t="n">
-        <v>311.8653100442866</v>
+        <v>292.5335872137844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>181.9718515258755</v>
+        <v>113.5048621250334</v>
       </c>
       <c r="B4" t="n">
-        <v>339.5661314412148</v>
+        <v>328.3863770312356</v>
       </c>
       <c r="C4" t="n">
-        <v>248.5802056782771</v>
+        <v>271.6339459687188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>333.758633105045</v>
+        <v>230.2172300443459</v>
       </c>
       <c r="B5" t="n">
-        <v>378.775996362999</v>
+        <v>368.1564526952718</v>
       </c>
       <c r="C5" t="n">
-        <v>211.8966798104765</v>
+        <v>253.0478376730989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>382.3908259915503</v>
+        <v>376.2484044236401</v>
       </c>
       <c r="B6" t="n">
-        <v>383.9539867110948</v>
+        <v>379.4693141137567</v>
       </c>
       <c r="C6" t="n">
-        <v>192.7585737153196</v>
+        <v>191.3451119019367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>390.0245448228461</v>
+        <v>393.2951626051336</v>
       </c>
       <c r="B7" t="n">
-        <v>394.1367957206343</v>
+        <v>391.2595050489359</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1245233092113</v>
+        <v>194.6119237463691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>469.8738006380188</v>
+        <v>415.575277837527</v>
       </c>
       <c r="B8" t="n">
-        <v>402.7968605414915</v>
+        <v>369.0486286349365</v>
       </c>
       <c r="C8" t="n">
-        <v>167.859960222482</v>
+        <v>161.260989716173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>496.646436256465</v>
+        <v>517.8779545081029</v>
       </c>
       <c r="B9" t="n">
-        <v>409.4889115990564</v>
+        <v>394.5389477323999</v>
       </c>
       <c r="C9" t="n">
-        <v>161.1656934708239</v>
+        <v>135.5999704783484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>512.8565820209873</v>
+        <v>579.7287086677308</v>
       </c>
       <c r="B10" t="n">
-        <v>404.3285602863675</v>
+        <v>411.2019944285265</v>
       </c>
       <c r="C10" t="n">
-        <v>147.9002692758739</v>
+        <v>121.3376400946611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>557.7663102019777</v>
+        <v>603.6623845141182</v>
       </c>
       <c r="B11" t="n">
-        <v>415.7615781680981</v>
+        <v>425.6129187849592</v>
       </c>
       <c r="C11" t="n">
-        <v>136.8784230671092</v>
+        <v>123.7817265279001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>567.3064719463263</v>
+        <v>628.7144879556643</v>
       </c>
       <c r="B12" t="n">
-        <v>415.3889365619077</v>
+        <v>417.3624751734802</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7357005887445</v>
+        <v>103.005231195648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>570.1310475005818</v>
+        <v>650.2961669528441</v>
       </c>
       <c r="B13" t="n">
-        <v>420.2397101330109</v>
+        <v>429.0376424878467</v>
       </c>
       <c r="C13" t="n">
-        <v>135.17418638272</v>
+        <v>103.8895590114246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>586.3681030270285</v>
+        <v>653.817028359926</v>
       </c>
       <c r="B14" t="n">
-        <v>419.3891500628889</v>
+        <v>421.7179129032242</v>
       </c>
       <c r="C14" t="n">
-        <v>126.2050985493746</v>
+        <v>94.80939872326121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>589.7438728874976</v>
+        <v>660.8690085091404</v>
       </c>
       <c r="B15" t="n">
-        <v>425.7419400588528</v>
+        <v>430.9378873540679</v>
       </c>
       <c r="C15" t="n">
-        <v>130.8700036151041</v>
+        <v>100.5033830994977</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>602.8152430325185</v>
+        <v>675.9334059305399</v>
       </c>
       <c r="B16" t="n">
-        <v>419.3754955242793</v>
+        <v>426.0611471747389</v>
       </c>
       <c r="C16" t="n">
-        <v>117.96787400802</v>
+        <v>88.09444420946897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>641.9870280838657</v>
+        <v>702.0085113365928</v>
       </c>
       <c r="B17" t="n">
-        <v>430.675160111786</v>
+        <v>441.1552345035814</v>
       </c>
       <c r="C17" t="n">
-        <v>109.6816460698532</v>
+        <v>90.150978835285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>653.7487998982416</v>
+        <v>745.0914152087524</v>
       </c>
       <c r="B18" t="n">
-        <v>427.7736427487463</v>
+        <v>448.1231156497608</v>
       </c>
       <c r="C18" t="n">
-        <v>100.8992427996255</v>
+        <v>75.57740804538457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>679.2580724361584</v>
+        <v>762.6261318404783</v>
       </c>
       <c r="B19" t="n">
-        <v>438.1890203573285</v>
+        <v>456.6117290719647</v>
       </c>
       <c r="C19" t="n">
-        <v>98.55998413924931</v>
+        <v>75.29866315172558</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>692.9909393984871</v>
+        <v>770.7957238798932</v>
       </c>
       <c r="B20" t="n">
-        <v>439.7099126513492</v>
+        <v>458.7509077009647</v>
       </c>
       <c r="C20" t="n">
-        <v>93.21444295210563</v>
+        <v>73.35304576101811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>723.6639640831205</v>
+        <v>791.3147414241638</v>
       </c>
       <c r="B21" t="n">
-        <v>449.5203589198574</v>
+        <v>466.4661596375615</v>
       </c>
       <c r="C21" t="n">
-        <v>87.68837687829716</v>
+        <v>70.80878892547963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>725.6092506010217</v>
+        <v>795.3214621266039</v>
       </c>
       <c r="B22" t="n">
-        <v>449.825469250385</v>
+        <v>467.0726117702235</v>
       </c>
       <c r="C22" t="n">
-        <v>87.02084394987412</v>
+        <v>69.41188070692152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>786.9392466068925</v>
+        <v>813.7986727079442</v>
       </c>
       <c r="B23" t="n">
-        <v>467.8969024245838</v>
+        <v>472.9564431858813</v>
       </c>
       <c r="C23" t="n">
-        <v>74.42727912113753</v>
+        <v>66.05710683190915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>793.6820816212434</v>
+        <v>824.6816689447071</v>
       </c>
       <c r="B24" t="n">
-        <v>470.5873461989364</v>
+        <v>476.2008047808868</v>
       </c>
       <c r="C24" t="n">
-        <v>73.74630538831468</v>
+        <v>63.85997030853326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>797.0976245001216</v>
+        <v>825.1177134149848</v>
       </c>
       <c r="B25" t="n">
-        <v>472.8596756368194</v>
+        <v>476.6752311199341</v>
       </c>
       <c r="C25" t="n">
-        <v>74.31086338675863</v>
+        <v>64.1163744124417</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>846.0815214612372</v>
+        <v>826.3103323176088</v>
       </c>
       <c r="B26" t="n">
-        <v>486.5875458898465</v>
+        <v>476.6585175970509</v>
       </c>
       <c r="C26" t="n">
-        <v>63.54678515922785</v>
+        <v>63.50335143824657</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>853.4428929620909</v>
+        <v>869.9541289545048</v>
       </c>
       <c r="B27" t="n">
-        <v>490.1230923877089</v>
+        <v>491.3788791777339</v>
       </c>
       <c r="C27" t="n">
-        <v>63.40164590666348</v>
+        <v>56.40181470048151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>886.2151342302801</v>
+        <v>885.514384733167</v>
       </c>
       <c r="B28" t="n">
-        <v>501.5678363076498</v>
+        <v>495.7423715955905</v>
       </c>
       <c r="C28" t="n">
-        <v>58.46026919250977</v>
+        <v>52.98517922900697</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>887.2234793480047</v>
+        <v>904.9894422345803</v>
       </c>
       <c r="B29" t="n">
-        <v>502.2716132220648</v>
+        <v>505.3097553811577</v>
       </c>
       <c r="C29" t="n">
-        <v>58.65987354806242</v>
+        <v>52.81503426386752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>892.6802354862566</v>
+        <v>928.2188921003061</v>
       </c>
       <c r="B30" t="n">
-        <v>503.2610200031566</v>
+        <v>510.3193675294045</v>
       </c>
       <c r="C30" t="n">
-        <v>56.9209022600283</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>908.7894749090514</v>
-      </c>
-      <c r="B31" t="n">
-        <v>510.0892473353031</v>
-      </c>
-      <c r="C31" t="n">
-        <v>55.69450988077739</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>910.3713171422105</v>
-      </c>
-      <c r="B32" t="n">
-        <v>509.5406603539935</v>
-      </c>
-      <c r="C32" t="n">
-        <v>54.35500178288828</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>947.0707034935322</v>
-      </c>
-      <c r="B33" t="n">
-        <v>524.1281205270773</v>
-      </c>
-      <c r="C33" t="n">
-        <v>50.59276878031119</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>948.7058177445654</v>
-      </c>
-      <c r="B34" t="n">
-        <v>522.8468637557033</v>
-      </c>
-      <c r="C34" t="n">
-        <v>48.49395488342066</v>
+        <v>46.20992147925148</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +5885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,464 +5917,408 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.03580661150252</v>
+        <v>37.07720305781046</v>
       </c>
       <c r="B2" t="n">
-        <v>11.03580661150252</v>
+        <v>37.07720305781046</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25514603376957e-05</v>
+        <v>0.0001765590225500624</v>
       </c>
       <c r="D2" t="n">
-        <v>5.25514603376957e-05</v>
+        <v>0.0001765590225500624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.81527628969335</v>
+        <v>45.89678905048603</v>
       </c>
       <c r="B3" t="n">
-        <v>58.01549360109653</v>
+        <v>96.23860275520494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001086442086570939</v>
+        <v>0.0002185599243990836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002762823103118812</v>
+        <v>0.0004588062516630725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90.98592576293773</v>
+        <v>56.75243106251671</v>
       </c>
       <c r="B4" t="n">
-        <v>153.9185746040224</v>
+        <v>109.6050894175464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004336289461543982</v>
+        <v>0.0002702652625476769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007450120405514105</v>
+        <v>0.0005231836127859646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>166.8793165525225</v>
+        <v>115.1086150221729</v>
       </c>
       <c r="B5" t="n">
-        <v>240.8934999185993</v>
+        <v>188.1720006452182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000815348432271476</v>
+        <v>0.0005498754961631658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001386153277329536</v>
+        <v>0.0009421187665087991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>191.1954129957752</v>
+        <v>188.12420221182</v>
       </c>
       <c r="B6" t="n">
-        <v>263.1594483231246</v>
+        <v>258.9005883012997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009616801759708008</v>
+        <v>0.0009418132088803327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001684095616472947</v>
+        <v>0.001619398464609365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>195.012272411423</v>
+        <v>196.6475813025668</v>
       </c>
       <c r="B7" t="n">
-        <v>270.3513132564868</v>
+        <v>270.4756546498081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009870710273303057</v>
+        <v>0.0009982039802581076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00180320432903564</v>
+        <v>0.001805380075480262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>234.9369003190094</v>
+        <v>207.7876389187635</v>
       </c>
       <c r="B8" t="n">
-        <v>304.2829137638593</v>
+        <v>270.0174170102599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001321040100744635</v>
+        <v>0.001078679818438149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002583514514466873</v>
+        <v>0.001797382128372687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>248.3232181282325</v>
+        <v>258.9389772540515</v>
       </c>
       <c r="B9" t="n">
-        <v>316.7344906118885</v>
+        <v>317.1669163715861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001475190612447897</v>
+        <v>0.001619963527695111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002990578173579443</v>
+        <v>0.003006181339347866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>256.4282910104936</v>
+        <v>289.8643543338654</v>
       </c>
       <c r="B10" t="n">
-        <v>319.9345168572768</v>
+        <v>344.8748884343351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001583674007113991</v>
+        <v>0.002201170576874179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003108560647780994</v>
+        <v>0.004256727490859668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>278.8831551009889</v>
+        <v>301.8311922570591</v>
       </c>
       <c r="B11" t="n">
-        <v>340.0843615878391</v>
+        <v>359.256440194139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001962548324443467</v>
+        <v>0.002512270422513356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004001130439862315</v>
+        <v>0.005143711827743135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>283.6532359731631</v>
+        <v>314.3572439778321</v>
       </c>
       <c r="B12" t="n">
-        <v>342.9594335377091</v>
+        <v>362.7432945244985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002061218895459625</v>
+        <v>0.002906646772803047</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004152310604587749</v>
+        <v>0.005388647638894954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>285.0655237502909</v>
+        <v>325.1480834764221</v>
       </c>
       <c r="B13" t="n">
-        <v>346.1810442613578</v>
+        <v>374.868076507432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002091862492763896</v>
+        <v>0.003313740733587682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004329672179571963</v>
+        <v>0.006343659106530251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>293.1840515135142</v>
+        <v>326.908514179963</v>
       </c>
       <c r="B14" t="n">
-        <v>350.8807569498639</v>
+        <v>372.2260271275592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002281722423652417</v>
+        <v>0.0033868321645083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004604248939471462</v>
+        <v>0.006121118071652926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>294.8719364437488</v>
+        <v>330.4345042545702</v>
       </c>
       <c r="B15" t="n">
-        <v>355.0203592027442</v>
+        <v>378.8803159353301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00232430952151451</v>
+        <v>0.00353930881951662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004862532333624614</v>
+        <v>0.006698066356053374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>301.4076215162593</v>
+        <v>337.96670296527</v>
       </c>
       <c r="B16" t="n">
-        <v>355.9460930638537</v>
+        <v>380.7063297383158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002500236270821457</v>
+        <v>0.003893904539962058</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004922489939046861</v>
+        <v>0.006866165176737838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>320.9935140419328</v>
+        <v>351.0042556682964</v>
       </c>
       <c r="B17" t="n">
-        <v>373.2623625470686</v>
+        <v>395.6940793505233</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003148910736759338</v>
+        <v>0.004611726950489009</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006207407271231685</v>
+        <v>0.008421122961489462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>326.8743999491208</v>
+        <v>372.5457076043762</v>
       </c>
       <c r="B18" t="n">
-        <v>375.2346342977445</v>
+        <v>410.9812150421657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003385396885710662</v>
+        <v>0.006147599281328394</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006375203849608698</v>
+        <v>0.01037331081368139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>339.6290362180792</v>
+        <v>381.3130659202391</v>
       </c>
       <c r="B19" t="n">
-        <v>387.8101458871836</v>
+        <v>420.0956791082322</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003977784446531654</v>
+        <v>0.006922987227473495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007562821464859437</v>
+        <v>0.01174198837647472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>346.4954696992435</v>
+        <v>385.3978619399466</v>
       </c>
       <c r="B20" t="n">
-        <v>392.4461934053455</v>
+        <v>423.3647479604201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004347446229564372</v>
+        <v>0.007318433606355751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008056169710538071</v>
+        <v>0.01227420661783972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>361.8319820415603</v>
+        <v>395.6573707120819</v>
       </c>
       <c r="B21" t="n">
-        <v>405.979410094536</v>
+        <v>432.7983967281104</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005323421481170923</v>
+        <v>0.00841690637670388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009689737470963314</v>
+        <v>0.01394259651649211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>362.8046253005108</v>
+        <v>397.660731063302</v>
       </c>
       <c r="B22" t="n">
-        <v>406.6662849752663</v>
+        <v>434.1454663523349</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005393068558326209</v>
+        <v>0.008650155626041926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00978091675992418</v>
+        <v>0.01419773731128846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>393.4696233034463</v>
+        <v>406.8993363539721</v>
       </c>
       <c r="B23" t="n">
-        <v>432.4610095918284</v>
+        <v>442.008268503929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008169411789151957</v>
+        <v>0.009812044946204336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01387937734358981</v>
+        <v>0.01577710892662952</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>396.8410408106217</v>
+        <v>412.3408344723535</v>
       </c>
       <c r="B24" t="n">
-        <v>435.6467526220624</v>
+        <v>446.4965696251372</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008553945466883385</v>
+        <v>0.01056715334494039</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01448728873593756</v>
+        <v>0.01675108997203782</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>398.5488122500608</v>
+        <v>412.5588567074924</v>
       </c>
       <c r="B25" t="n">
-        <v>437.7575189592389</v>
+        <v>446.8665461808559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008755617441159354</v>
+        <v>0.01059856438243919</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01490382956908299</v>
+        <v>0.01683383179475381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>423.0407607306186</v>
+        <v>413.1551661588044</v>
       </c>
       <c r="B26" t="n">
-        <v>457.5180901931378</v>
+        <v>447.1514542609361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01222044213859876</v>
+        <v>0.01068494220553006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01938522876667968</v>
+        <v>0.01689780831028445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>426.7214464810455</v>
+        <v>434.9770644772524</v>
       </c>
       <c r="B27" t="n">
-        <v>461.2868570868575</v>
+        <v>465.9449289919636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01284474459059573</v>
+        <v>0.01435744403068227</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02037043168982409</v>
+        <v>0.02165163372774005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>443.1075671151401</v>
+        <v>442.7571923665835</v>
       </c>
       <c r="B28" t="n">
-        <v>475.5834336360613</v>
+        <v>472.0895958826867</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0160106391146437</v>
+        <v>0.01593585791012605</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02453966280146136</v>
+        <v>0.02345453251905114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>443.6117396740024</v>
+        <v>452.4947211172902</v>
       </c>
       <c r="B29" t="n">
-        <v>476.2233762846951</v>
+        <v>482.0963853857994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01611882216657057</v>
+        <v>0.0181403503762797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02474329422715047</v>
+        <v>0.02668494264072182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>446.3401177431283</v>
+        <v>464.1094460501531</v>
       </c>
       <c r="B30" t="n">
-        <v>478.0657123649723</v>
+        <v>490.2927813910952</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01671621517148756</v>
+        <v>0.02113821301856815</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02533812496693898</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>454.3947374545257</v>
-      </c>
-      <c r="B31" t="n">
-        <v>485.7363094706456</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01860224529247043</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02795647235339739</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>455.1856585711053</v>
-      </c>
-      <c r="B32" t="n">
-        <v>485.7809780507961</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.01879770716390027</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.02797241039217208</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>473.5353517467661</v>
-      </c>
-      <c r="B33" t="n">
-        <v>502.6103956712777</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02389815202709475</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.03459287172276384</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>474.3529088722827</v>
-      </c>
-      <c r="B34" t="n">
-        <v>502.2160536320233</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02415238000722458</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.03442294565164723</v>
+        <v>0.02962508297886832</v>
       </c>
     </row>
   </sheetData>
@@ -6484,7 +6332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6506,266 +6354,234 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.215225917000347e+20</v>
+        <v>643862251078773.6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.286830681368283e-21</v>
+        <v>2.562659943544555e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3748881431212.835</v>
+        <v>11161187190.92176</v>
       </c>
       <c r="B3" t="n">
-        <v>4.401312845645784e-13</v>
+        <v>1.478337359436163e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51003581.12226158</v>
+        <v>2505240878.522682</v>
       </c>
       <c r="B4" t="n">
-        <v>3.235066957445117e-08</v>
+        <v>6.586193024971676e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>315492.6493826467</v>
+        <v>5154765.98189104</v>
       </c>
       <c r="B5" t="n">
-        <v>5.229915826022274e-06</v>
+        <v>3.200921255778703e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>116500.9040173511</v>
+        <v>140022.608273491</v>
       </c>
       <c r="B6" t="n">
-        <v>7.081490113391122e-06</v>
+        <v>1.178381134550239e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85959.827138743</v>
+        <v>85515.16326959814</v>
       </c>
       <c r="B7" t="n">
-        <v>1.919501300691108e-05</v>
+        <v>1.929482371211935e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22595.87644259291</v>
+        <v>87166.37066835344</v>
       </c>
       <c r="B8" t="n">
-        <v>7.302217305852199e-05</v>
+        <v>1.892931858179393e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14341.26145254027</v>
+        <v>14120.97700853057</v>
       </c>
       <c r="B9" t="n">
-        <v>5.752632031221128e-05</v>
+        <v>0.000116847439026579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12795.15221653355</v>
+        <v>5450.484736024872</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001289550895586779</v>
+        <v>0.0003027253684602321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6391.201269367401</v>
+        <v>3421.891766263243</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001290837145051541</v>
+        <v>0.0004821894182240091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5807.266730477385</v>
+        <v>3064.966618389898</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0002841267805628005</v>
+        <v>0.0005383419154061734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5220.858946197051</v>
+        <v>2106.024641091235</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0003160399499400158</v>
+        <v>0.0007834666165848153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4477.527104413466</v>
+        <v>2283.149866299613</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0003685069819842312</v>
+        <v>0.0007226858054106704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3917.354738740941</v>
+        <v>1864.919401218584</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0002106012998621512</v>
+        <v>0.0008847567347531746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3802.783168766648</v>
+        <v>1765.257686372584</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0002169463688532027</v>
+        <v>0.0009347077272273905</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2211.817426987137</v>
+        <v>1135.362580645095</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0003729964281562728</v>
+        <v>0.0007266401183763235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2082.651678051267</v>
+        <v>735.8526082895032</v>
       </c>
       <c r="B18" t="n">
-        <v>0.000792259222888343</v>
+        <v>0.001121148434762935</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1429.095700895567</v>
+        <v>572.4423450124386</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001154576281326716</v>
+        <v>0.001441193173754596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1247.566322284831</v>
+        <v>523.8176130943953</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0006612874884992649</v>
+        <v>0.003149951354733579</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>846.546005826381</v>
+        <v>406.9559311839806</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001949096668868343</v>
+        <v>0.002027246531583357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>830.3279888304528</v>
+        <v>392.7212419256652</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0009935832720296982</v>
+        <v>0.00420145340728046</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>410.6082339213851</v>
+        <v>319.7117541181285</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004018428915178326</v>
+        <v>0.002580449387216385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>377.4910415484222</v>
+        <v>284.7527055953712</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002185482327251928</v>
+        <v>0.002897250785642441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>357.1523076400354</v>
+        <v>282.0619955382323</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002309938875801683</v>
+        <v>0.002924888900490583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>215.3066379658516</v>
+        <v>280.0087776530854</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003831744379989102</v>
+        <v>0.005892672414877845</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>195.975985593337</v>
+        <v>174.6469851222798</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00420969945629935</v>
+        <v>0.004723814725014422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>138.0912030057425</v>
+        <v>150.2795185707109</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005974312498137136</v>
+        <v>0.005489770048816154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>135.9773809545871</v>
+        <v>118.1399923328693</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006067185543715747</v>
+        <v>0.006983240676666825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130.0856844409808</v>
+        <v>97.36166021870062</v>
       </c>
       <c r="B30" t="n">
-        <v>0.006341973780937429</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>108.3717952462928</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0152253637235602</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>108.2575116995114</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.007620718295188039</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>73.23529582161518</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.01126505997885932</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>73.89802045707742</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01116403382522525</v>
+        <v>0.008473561339718601</v>
       </c>
     </row>
   </sheetData>
@@ -6956,7 +6772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08795408841060515</v>
+        <v>0.05744933117624815</v>
       </c>
     </row>
     <row r="18">
@@ -6966,7 +6782,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
